--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\Projects\UPS_MV-git\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02652E32-DA1D-442F-B1BD-1BD3C17488EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mkt_value" sheetId="1" r:id="rId1"/>
     <sheet name="return" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -44,11 +45,14 @@
   <si>
     <t>Retirement</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -84,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,12 +111,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -124,6 +139,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,6 +236,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -253,6 +288,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,21 +480,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2:E146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -455,8 +508,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>40178</v>
       </c>
@@ -469,8 +525,12 @@
       <c r="D2" s="4">
         <v>12670331040.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <f>SUM(B2,C2,D2)</f>
+        <v>15633809775.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>40209</v>
       </c>
@@ -483,8 +543,12 @@
       <c r="D3" s="4">
         <v>12454714514.059999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E66" si="0">SUM(B3,C3,D3)</f>
+        <v>15489729218.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>40237</v>
       </c>
@@ -497,8 +561,12 @@
       <c r="D4" s="4">
         <v>12582416484.82</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>15775048697.139999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>40268</v>
       </c>
@@ -511,8 +579,12 @@
       <c r="D5" s="4">
         <v>13025662728.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>16704873758.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>40298</v>
       </c>
@@ -525,8 +597,12 @@
       <c r="D6" s="4">
         <v>13260440725.690001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>17132130003.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>40329</v>
       </c>
@@ -539,8 +615,12 @@
       <c r="D7" s="4">
         <v>12652381383.559999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>16351241876.799999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>40359</v>
       </c>
@@ -553,8 +633,12 @@
       <c r="D8" s="4">
         <v>12475038374.799999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>16127227316.289999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>40390</v>
       </c>
@@ -567,8 +651,12 @@
       <c r="D9" s="4">
         <v>12970168980.82</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>16894210925.619999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>40421</v>
       </c>
@@ -581,8 +669,12 @@
       <c r="D10" s="4">
         <v>12942973012.129999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>16864762411.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>40451</v>
       </c>
@@ -595,8 +687,12 @@
       <c r="D11" s="4">
         <v>13480205460.32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>17683853962.580002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>40482</v>
       </c>
@@ -609,8 +705,12 @@
       <c r="D12" s="4">
         <v>13443063041.030001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>17795005221.620003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>40512</v>
       </c>
@@ -623,8 +723,12 @@
       <c r="D13" s="4">
         <v>14814700195.870001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>19628314376.709999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>40543</v>
       </c>
@@ -637,8 +741,12 @@
       <c r="D14" s="4">
         <v>15090047197.559999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>20035126948.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>40574</v>
       </c>
@@ -651,8 +759,12 @@
       <c r="D15" s="4">
         <v>15034722562.559999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>21163701726.799999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>40602</v>
       </c>
@@ -665,8 +777,12 @@
       <c r="D16" s="4">
         <v>15339223946.43</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>21592868236.349998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>40633</v>
       </c>
@@ -679,8 +795,12 @@
       <c r="D17" s="4">
         <v>15338075937.65</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>21597393553.599998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>40663</v>
       </c>
@@ -693,8 +813,12 @@
       <c r="D18" s="4">
         <v>15759188122.620001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>22196442158.830002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>40694</v>
       </c>
@@ -707,8 +831,12 @@
       <c r="D19" s="4">
         <v>15817399042.18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>22284623894.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>40724</v>
       </c>
@@ -721,8 +849,12 @@
       <c r="D20" s="4">
         <v>15518354156.139999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>21869129586.239998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>40755</v>
       </c>
@@ -735,8 +867,12 @@
       <c r="D21" s="4">
         <v>15643951036.32</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>22052015022.439999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>40786</v>
       </c>
@@ -749,8 +885,12 @@
       <c r="D22" s="4">
         <v>15501631744.309999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>21857152498.610001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>40816</v>
       </c>
@@ -763,8 +903,12 @@
       <c r="D23" s="4">
         <v>15478669634.76</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>21890587182.540001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>40847</v>
       </c>
@@ -777,8 +921,12 @@
       <c r="D24" s="4">
         <v>15988684918.42</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>22617832290.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>40877</v>
       </c>
@@ -791,8 +939,12 @@
       <c r="D25" s="4">
         <v>15838131556.610001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>22404660643.810001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>40908</v>
       </c>
@@ -805,8 +957,12 @@
       <c r="D26" s="4">
         <v>15979851739.540001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>22610566714.970001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>40939</v>
       </c>
@@ -819,8 +975,12 @@
       <c r="D27" s="4">
         <v>16380190274.370001</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>23182541487.510002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>40968</v>
       </c>
@@ -833,8 +993,12 @@
       <c r="D28" s="4">
         <v>16632293380.49</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>23538890877.400002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>40999</v>
       </c>
@@ -847,8 +1011,12 @@
       <c r="D29" s="4">
         <v>16525290668.17</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>23568457835.099998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>41029</v>
       </c>
@@ -861,8 +1029,12 @@
       <c r="D30" s="4">
         <v>16649048720.639999</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>23750894239.669998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>41060</v>
       </c>
@@ -875,8 +1047,12 @@
       <c r="D31" s="4">
         <v>16487003754.48</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>23525188092.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>41090</v>
       </c>
@@ -889,8 +1065,12 @@
       <c r="D32" s="4">
         <v>16666683230.139999</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>23966952669.709999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>41121</v>
       </c>
@@ -903,8 +1083,12 @@
       <c r="D33" s="4">
         <v>16994661825.91</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>24445028323.779999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>41152</v>
       </c>
@@ -917,8 +1101,12 @@
       <c r="D34" s="4">
         <v>17060740670.370001</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>24546173849.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>41182</v>
       </c>
@@ -931,8 +1119,12 @@
       <c r="D35" s="4">
         <v>17161797379.67</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>24697695785.049999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>41213</v>
       </c>
@@ -945,8 +1137,12 @@
       <c r="D36" s="4">
         <v>17142269583.370001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>24675625120.169998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>41243</v>
       </c>
@@ -959,8 +1155,12 @@
       <c r="D37" s="4">
         <v>17226232669.720001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>24802249901.279999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>41274</v>
       </c>
@@ -973,8 +1173,12 @@
       <c r="D38" s="4">
         <v>17291185714.259998</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>24895725823.459999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>41305</v>
       </c>
@@ -987,8 +1191,12 @@
       <c r="D39" s="4">
         <v>16688192891.540001</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>25170361391.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>41333</v>
       </c>
@@ -1001,8 +1209,12 @@
       <c r="D40" s="4">
         <v>16760318931.09</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>25279056931.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>41364</v>
       </c>
@@ -1015,8 +1227,12 @@
       <c r="D41" s="4">
         <v>16965972358.16</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>25595461395.489998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41394</v>
       </c>
@@ -1029,8 +1245,12 @@
       <c r="D42" s="4">
         <v>17344551325.700001</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>26172807411.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>41425</v>
       </c>
@@ -1043,8 +1263,12 @@
       <c r="D43" s="4">
         <v>17009919681.780001</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>25673836920.309998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>41455</v>
       </c>
@@ -1057,8 +1281,12 @@
       <c r="D44" s="4">
         <v>16655048859.379999</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>25144097226.379997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>41486</v>
       </c>
@@ -1071,8 +1299,12 @@
       <c r="D45" s="4">
         <v>16844754449.469999</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>25436535483.029999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>41517</v>
       </c>
@@ -1085,8 +1317,12 @@
       <c r="D46" s="4">
         <v>16611704230.01</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>25090551978.139999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>41547</v>
       </c>
@@ -1099,8 +1335,12 @@
       <c r="D47" s="4">
         <v>16745140477.25</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>25528342822.260002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>41578</v>
       </c>
@@ -1113,8 +1353,12 @@
       <c r="D48" s="4">
         <v>17068600956.34</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>26027210514.610001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>41608</v>
       </c>
@@ -1127,8 +1371,12 @@
       <c r="D49" s="4">
         <v>17048811459.129999</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>26003668184.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>41639</v>
       </c>
@@ -1141,8 +1389,12 @@
       <c r="D50" s="4">
         <v>17124920453.700001</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>26126136558.370003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41670</v>
       </c>
@@ -1155,8 +1407,12 @@
       <c r="D51" s="4">
         <v>17108427415.48</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>26107545286.209999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41698</v>
       </c>
@@ -1169,8 +1425,12 @@
       <c r="D52" s="4">
         <v>17452044700.369999</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>26638014657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41729</v>
       </c>
@@ -1183,8 +1443,12 @@
       <c r="D53" s="4">
         <v>17534458681.869999</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>26769907188.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41759</v>
       </c>
@@ -1197,8 +1461,12 @@
       <c r="D54" s="4">
         <v>17527323843.169998</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>26765961123.209999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41790</v>
       </c>
@@ -1211,8 +1479,12 @@
       <c r="D55" s="4">
         <v>17802031711.889999</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>27191839755.379997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41820</v>
       </c>
@@ -1225,8 +1497,12 @@
       <c r="D56" s="4">
         <v>17885536456.360001</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="4">
+        <f t="shared" si="0"/>
+        <v>27325539811.990002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41851</v>
       </c>
@@ -1239,8 +1515,12 @@
       <c r="D57" s="4">
         <v>17771447283.099998</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="4">
+        <f t="shared" si="0"/>
+        <v>27156693166.089996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41882</v>
       </c>
@@ -1253,8 +1533,12 @@
       <c r="D58" s="4">
         <v>18152061725.919998</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="4">
+        <f t="shared" si="0"/>
+        <v>27744061638.859997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41912</v>
       </c>
@@ -1267,8 +1551,12 @@
       <c r="D59" s="4">
         <v>17760389482.459999</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>27150516717.209999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41943</v>
       </c>
@@ -1281,8 +1569,12 @@
       <c r="D60" s="4">
         <v>17913492320.950001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="4">
+        <f t="shared" si="0"/>
+        <v>27371582530.760002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41973</v>
       </c>
@@ -1295,8 +1587,12 @@
       <c r="D61" s="4">
         <v>18161633085.610001</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="4">
+        <f t="shared" si="0"/>
+        <v>27755791534.099998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42004</v>
       </c>
@@ -1309,8 +1605,12 @@
       <c r="D62" s="4">
         <v>18347484059.09</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="4">
+        <f t="shared" si="0"/>
+        <v>28782286672.540001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42035</v>
       </c>
@@ -1323,8 +1623,12 @@
       <c r="D63" s="4">
         <v>18722609505.799999</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="4">
+        <f t="shared" si="0"/>
+        <v>29377893373.27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42063</v>
       </c>
@@ -1337,8 +1641,12 @@
       <c r="D64" s="4">
         <v>18813632546.84</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="4">
+        <f t="shared" si="0"/>
+        <v>29527582270.599998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42094</v>
       </c>
@@ -1351,8 +1659,12 @@
       <c r="D65" s="4">
         <v>18773915353.099998</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="4">
+        <f t="shared" si="0"/>
+        <v>29472066114.919998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42124</v>
       </c>
@@ -1365,8 +1677,12 @@
       <c r="D66" s="4">
         <v>18729047234.330002</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="4">
+        <f t="shared" si="0"/>
+        <v>29408499309.230003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42155</v>
       </c>
@@ -1379,8 +1695,12 @@
       <c r="D67" s="4">
         <v>18647811742.490002</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="4">
+        <f t="shared" ref="E67:E130" si="1">SUM(B67,C67,D67)</f>
+        <v>29287873259.310001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42185</v>
       </c>
@@ -1393,8 +1713,12 @@
       <c r="D68" s="4">
         <v>18237344817.240002</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="4">
+        <f t="shared" si="1"/>
+        <v>28649880311.460003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42216</v>
       </c>
@@ -1407,8 +1731,12 @@
       <c r="D69" s="4">
         <v>18376949304.200001</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="4">
+        <f t="shared" si="1"/>
+        <v>28876049490.889999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42247</v>
       </c>
@@ -1421,8 +1749,12 @@
       <c r="D70" s="4">
         <v>17823822010.27</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="4">
+        <f t="shared" si="1"/>
+        <v>28013794466.529999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42277</v>
       </c>
@@ -1435,8 +1767,12 @@
       <c r="D71" s="4">
         <v>17611674082.799999</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="4">
+        <f t="shared" si="1"/>
+        <v>27687481033.779999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42308</v>
       </c>
@@ -1449,8 +1785,12 @@
       <c r="D72" s="4">
         <v>18048333376.560001</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="4">
+        <f t="shared" si="1"/>
+        <v>28326214032.700001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>42338</v>
       </c>
@@ -1463,8 +1803,12 @@
       <c r="D73" s="4">
         <v>17923305130.990002</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="4">
+        <f t="shared" si="1"/>
+        <v>28136428854.080002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>42369</v>
       </c>
@@ -1477,8 +1821,12 @@
       <c r="D74" s="4">
         <v>17720678489.540001</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="4">
+        <f t="shared" si="1"/>
+        <v>28846123319.360001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>42400</v>
       </c>
@@ -1491,8 +1839,12 @@
       <c r="D75" s="4">
         <v>17401580107.799999</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="4">
+        <f t="shared" si="1"/>
+        <v>28336242435.290001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>42429</v>
       </c>
@@ -1505,8 +1857,12 @@
       <c r="D76" s="4">
         <v>17468918255.400002</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="4">
+        <f t="shared" si="1"/>
+        <v>28455548735.700001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>42460</v>
       </c>
@@ -1519,8 +1875,12 @@
       <c r="D77" s="4">
         <v>18015825215.720001</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="4">
+        <f t="shared" si="1"/>
+        <v>29356543183.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>42490</v>
       </c>
@@ -1533,8 +1893,12 @@
       <c r="D78" s="4">
         <v>18123427852.610001</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="4">
+        <f t="shared" si="1"/>
+        <v>29541899253.779999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>42521</v>
       </c>
@@ -1547,8 +1911,12 @@
       <c r="D79" s="4">
         <v>18098420744.150002</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="4">
+        <f t="shared" si="1"/>
+        <v>29511294102.970001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>42551</v>
       </c>
@@ -1561,8 +1929,12 @@
       <c r="D80" s="4">
         <v>18221304108.220001</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="4">
+        <f t="shared" si="1"/>
+        <v>29721707293.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>42582</v>
       </c>
@@ -1575,8 +1947,12 @@
       <c r="D81" s="4">
         <v>18547786478.41</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="4">
+        <f t="shared" si="1"/>
+        <v>30265017930.439999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>42613</v>
       </c>
@@ -1589,8 +1965,12 @@
       <c r="D82" s="4">
         <v>18508832479.779999</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="4">
+        <f t="shared" si="1"/>
+        <v>30212130836.659996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>42643</v>
       </c>
@@ -1603,8 +1983,12 @@
       <c r="D83" s="4">
         <v>18773993442.110001</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="4">
+        <f t="shared" si="1"/>
+        <v>31311065698.300003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>42674</v>
       </c>
@@ -1617,8 +2001,12 @@
       <c r="D84" s="4">
         <v>18430042970.950001</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="4">
+        <f t="shared" si="1"/>
+        <v>30735579110.59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>42704</v>
       </c>
@@ -1631,8 +2019,12 @@
       <c r="D85" s="4">
         <v>18157757460.240002</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="4">
+        <f t="shared" si="1"/>
+        <v>30294027553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>42735</v>
       </c>
@@ -1645,8 +2037,12 @@
       <c r="D86" s="4">
         <v>18519115493.09</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="4">
+        <f t="shared" si="1"/>
+        <v>31134438714.84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>42766</v>
       </c>
@@ -1659,8 +2055,12 @@
       <c r="D87" s="4">
         <v>18672728045.689999</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="4">
+        <f t="shared" si="1"/>
+        <v>31406508587.93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>42794</v>
       </c>
@@ -1673,8 +2073,12 @@
       <c r="D88" s="4">
         <v>18935552854.389999</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="4">
+        <f t="shared" si="1"/>
+        <v>31862808989.720001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>42825</v>
       </c>
@@ -1687,8 +2091,12 @@
       <c r="D89" s="4">
         <v>19799498475.639999</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="4">
+        <f t="shared" si="1"/>
+        <v>34237099341.939999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>42855</v>
       </c>
@@ -1701,8 +2109,12 @@
       <c r="D90" s="4">
         <v>20002234967.919998</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="4">
+        <f t="shared" si="1"/>
+        <v>34601102374.349998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>42886</v>
       </c>
@@ -1715,8 +2127,12 @@
       <c r="D91" s="4">
         <v>20236725707.75</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="4">
+        <f t="shared" si="1"/>
+        <v>35025362965.57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>42916</v>
       </c>
@@ -1729,8 +2145,12 @@
       <c r="D92" s="4">
         <v>20274704112.169998</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="4">
+        <f t="shared" si="1"/>
+        <v>35106467417.43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>42947</v>
       </c>
@@ -1743,8 +2163,12 @@
       <c r="D93" s="4">
         <v>20438444305.610001</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="4">
+        <f t="shared" si="1"/>
+        <v>35405676882.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>42978</v>
       </c>
@@ -1757,8 +2181,12 @@
       <c r="D94" s="4">
         <v>20590369678.540001</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="4">
+        <f t="shared" si="1"/>
+        <v>35685401140.059998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>43008</v>
       </c>
@@ -1771,8 +2199,12 @@
       <c r="D95" s="4">
         <v>20690747320.220001</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="4">
+        <f t="shared" si="1"/>
+        <v>35874830645.559998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>43039</v>
       </c>
@@ -1785,8 +2217,12 @@
       <c r="D96" s="4">
         <v>20816031800.59</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="4">
+        <f t="shared" si="1"/>
+        <v>36114807334.970001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>43069</v>
       </c>
@@ -1799,8 +2235,12 @@
       <c r="D97" s="4">
         <v>21026669979.09</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="4">
+        <f t="shared" si="1"/>
+        <v>36495501947.440002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>43100</v>
       </c>
@@ -1813,8 +2253,12 @@
       <c r="D98" s="4">
         <v>24225492187.240002</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="4">
+        <f t="shared" si="1"/>
+        <v>41855947325.630005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>43131</v>
       </c>
@@ -1827,8 +2271,12 @@
       <c r="D99" s="4">
         <v>24550452831.880001</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="4">
+        <f t="shared" si="1"/>
+        <v>42583608483.910004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>43159</v>
       </c>
@@ -1841,8 +2289,12 @@
       <c r="D100" s="4">
         <v>23751543939.110001</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="4">
+        <f t="shared" si="1"/>
+        <v>41211539283.339996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>43190</v>
       </c>
@@ -1855,8 +2307,12 @@
       <c r="D101" s="4">
         <v>23895593642.490002</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="4">
+        <f t="shared" si="1"/>
+        <v>41345361923.699997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>43220</v>
       </c>
@@ -1869,8 +2325,12 @@
       <c r="D102" s="4">
         <v>23668065334.799999</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="4">
+        <f t="shared" si="1"/>
+        <v>41046653376.559998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>43251</v>
       </c>
@@ -1883,8 +2343,12 @@
       <c r="D103" s="4">
         <v>23850014619.049999</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="4">
+        <f t="shared" si="1"/>
+        <v>41313125652.080002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>43281</v>
       </c>
@@ -1897,8 +2361,12 @@
       <c r="D104" s="4">
         <v>23743724505.990002</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="4">
+        <f t="shared" si="1"/>
+        <v>41120926179.029999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>43312</v>
       </c>
@@ -1911,8 +2379,12 @@
       <c r="D105" s="4">
         <v>23810476668.130001</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="4">
+        <f t="shared" si="1"/>
+        <v>41384483579.770004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>43343</v>
       </c>
@@ -1925,8 +2397,12 @@
       <c r="D106" s="4">
         <v>23982305364.470001</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="4">
+        <f t="shared" si="1"/>
+        <v>41662699191.550003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>43373</v>
       </c>
@@ -1939,8 +2415,12 @@
       <c r="D107" s="4">
         <v>23633877037.77</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="4">
+        <f t="shared" si="1"/>
+        <v>41186844593.330002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>43404</v>
       </c>
@@ -1953,8 +2433,12 @@
       <c r="D108" s="4">
         <v>22616086896.59</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="4">
+        <f t="shared" si="1"/>
+        <v>39382932997.410004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>43434</v>
       </c>
@@ -1967,8 +2451,12 @@
       <c r="D109" s="4">
         <v>22855316166.619999</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="4">
+        <f t="shared" si="1"/>
+        <v>39775062674.709999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>43465</v>
       </c>
@@ -1981,8 +2469,12 @@
       <c r="D110" s="4">
         <v>22914691512.650002</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="4">
+        <f t="shared" si="1"/>
+        <v>39522884974.100006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>43496</v>
       </c>
@@ -1995,8 +2487,12 @@
       <c r="D111" s="4">
         <v>23486649000.34</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="4">
+        <f t="shared" si="1"/>
+        <v>40669954095.649994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>43524</v>
       </c>
@@ -2009,8 +2505,12 @@
       <c r="D112" s="4">
         <v>23478741957.66</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="4">
+        <f t="shared" si="1"/>
+        <v>40797714345.529999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>43555</v>
       </c>
@@ -2023,8 +2523,12 @@
       <c r="D113" s="4">
         <v>24171159309.130001</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="4">
+        <f t="shared" si="1"/>
+        <v>41816004324.669998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>43585</v>
       </c>
@@ -2037,8 +2541,12 @@
       <c r="D114" s="4">
         <v>24607805892.509998</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="4">
+        <f t="shared" si="1"/>
+        <v>42743010048.029999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>43616</v>
       </c>
@@ -2051,8 +2559,12 @@
       <c r="D115" s="4">
         <v>25031219112.639999</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="4">
+        <f t="shared" si="1"/>
+        <v>43049509347.520004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>43646</v>
       </c>
@@ -2065,8 +2577,12 @@
       <c r="D116" s="4">
         <v>25624099438.360001</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="4">
+        <f t="shared" si="1"/>
+        <v>44201801916.779999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>43677</v>
       </c>
@@ -2079,8 +2595,12 @@
       <c r="D117" s="4">
         <v>25654690308.73</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="4">
+        <f t="shared" si="1"/>
+        <v>44289184114.949997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>43708</v>
       </c>
@@ -2093,8 +2613,12 @@
       <c r="D118" s="4">
         <v>27075142517.599998</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="4">
+        <f t="shared" si="1"/>
+        <v>46120218348.729996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>43738</v>
       </c>
@@ -2107,8 +2631,12 @@
       <c r="D119" s="4">
         <v>26732490993.099998</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="4">
+        <f t="shared" si="1"/>
+        <v>46949500920.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>43769</v>
       </c>
@@ -2121,8 +2649,12 @@
       <c r="D120" s="4">
         <v>26631956752.709999</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="4">
+        <f t="shared" si="1"/>
+        <v>46865616845.860001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>43799</v>
       </c>
@@ -2135,8 +2667,12 @@
       <c r="D121" s="4">
         <v>26718171624.689999</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="4">
+        <f t="shared" si="1"/>
+        <v>47123526214.259995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>43830</v>
       </c>
@@ -2149,8 +2685,12 @@
       <c r="D122" s="4">
         <v>25905410180.560001</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="4">
+        <f t="shared" si="1"/>
+        <v>46141543427.790001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>43861</v>
       </c>
@@ -2163,8 +2703,12 @@
       <c r="D123" s="4">
         <v>26801714204.060001</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="4">
+        <f t="shared" si="1"/>
+        <v>47197571777.949997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>43890</v>
       </c>
@@ -2177,8 +2721,12 @@
       <c r="D124" s="4">
         <v>27210513709.580002</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="4">
+        <f t="shared" si="1"/>
+        <v>47123736418.860001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>43921</v>
       </c>
@@ -2191,8 +2739,12 @@
       <c r="D125" s="4">
         <v>26774758277.919998</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="4">
+        <f t="shared" si="1"/>
+        <v>45203938859.300003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>43951</v>
       </c>
@@ -2205,8 +2757,12 @@
       <c r="D126" s="4">
         <v>27673823035.060001</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="4">
+        <f t="shared" si="1"/>
+        <v>47063924664.940002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>43982</v>
       </c>
@@ -2219,8 +2775,12 @@
       <c r="D127" s="4">
         <v>27458625451.310001</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="4">
+        <f t="shared" si="1"/>
+        <v>47081053140.339996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
@@ -2233,8 +2793,12 @@
       <c r="D128" s="4">
         <v>27604176824.200001</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="4">
+        <f t="shared" si="1"/>
+        <v>47426479912.610001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44043</v>
       </c>
@@ -2247,8 +2811,12 @@
       <c r="D129" s="4">
         <v>28739709723.02</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="4">
+        <f t="shared" si="1"/>
+        <v>49195581002.360001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44074</v>
       </c>
@@ -2261,8 +2829,12 @@
       <c r="D130" s="4">
         <v>28157559771.860001</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="4">
+        <f t="shared" si="1"/>
+        <v>48906000373.669998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44104</v>
       </c>
@@ -2275,8 +2847,12 @@
       <c r="D131" s="4">
         <v>27927113005.669998</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="4">
+        <f t="shared" ref="E131:E146" si="2">SUM(B131,C131,D131)</f>
+        <v>49328610123.339996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44135</v>
       </c>
@@ -2289,8 +2865,12 @@
       <c r="D132" s="4">
         <v>27087051809.869999</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="4">
+        <f t="shared" si="2"/>
+        <v>48025973012.379997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44165</v>
       </c>
@@ -2303,8 +2883,12 @@
       <c r="D133" s="4">
         <v>28190375144.73</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="4">
+        <f t="shared" si="2"/>
+        <v>50439922757.960007</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>44196</v>
       </c>
@@ -2317,8 +2901,12 @@
       <c r="D134" s="4">
         <v>28978673408.57</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="4">
+        <f t="shared" si="2"/>
+        <v>52788406154.489998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>44227</v>
       </c>
@@ -2331,8 +2919,12 @@
       <c r="D135" s="4">
         <v>28129381368.68</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="4">
+        <f t="shared" si="2"/>
+        <v>51587924289.860001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44255</v>
       </c>
@@ -2345,8 +2937,12 @@
       <c r="D136" s="4">
         <v>27127339708.720001</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="4">
+        <f t="shared" si="2"/>
+        <v>50499267741.220001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>44286</v>
       </c>
@@ -2359,8 +2955,12 @@
       <c r="D137" s="4">
         <v>26762917954.490002</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="4">
+        <f t="shared" si="2"/>
+        <v>50392639291.639999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>44316</v>
       </c>
@@ -2373,8 +2973,12 @@
       <c r="D138" s="4">
         <v>27451228205.639999</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="4">
+        <f t="shared" si="2"/>
+        <v>51700906918.139999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>44347</v>
       </c>
@@ -2387,8 +2991,12 @@
       <c r="D139" s="4">
         <v>27744608720.27</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="4">
+        <f t="shared" si="2"/>
+        <v>52378479915.339996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>44377</v>
       </c>
@@ -2401,8 +3009,12 @@
       <c r="D140" s="4">
         <v>28450323789.220001</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="4">
+        <f t="shared" si="2"/>
+        <v>53479086658.270004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>44408</v>
       </c>
@@ -2415,8 +3027,12 @@
       <c r="D141" s="4">
         <v>29059023657.560001</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="4">
+        <f t="shared" si="2"/>
+        <v>54428674790.350006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>44439</v>
       </c>
@@ -2429,8 +3045,12 @@
       <c r="D142" s="4">
         <v>29181824781.040001</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="4">
+        <f t="shared" si="2"/>
+        <v>54870263825.589996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>44469</v>
       </c>
@@ -2443,8 +3063,12 @@
       <c r="D143" s="4">
         <v>28189152287.09</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="4">
+        <f t="shared" si="2"/>
+        <v>52900976752.919998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44500</v>
       </c>
@@ -2457,8 +3081,12 @@
       <c r="D144" s="4">
         <v>28782352603.84</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="4">
+        <f t="shared" si="2"/>
+        <v>54300695591.470001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44530</v>
       </c>
@@ -2471,8 +3099,12 @@
       <c r="D145" s="4">
         <v>29177585592.27</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="4">
+        <f t="shared" si="2"/>
+        <v>55089285603.900002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44561</v>
       </c>
@@ -2485,12 +3117,16 @@
       <c r="D146" s="4">
         <v>29368978607.23</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="4">
+        <f t="shared" si="2"/>
+        <v>55524799409.729996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C147" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A142">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A142">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2498,21 +3134,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2526,7 +3162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>39478</v>
       </c>
@@ -2537,7 +3173,7 @@
         <v>-3.8365000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>39507</v>
       </c>
@@ -2551,7 +3187,7 @@
         <v>-7.5599999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>39538</v>
       </c>
@@ -2565,7 +3201,7 @@
         <v>-6.9950000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>39568</v>
       </c>
@@ -2579,7 +3215,7 @@
         <v>2.7694E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>39599</v>
       </c>
@@ -2593,7 +3229,7 @@
         <v>7.6380000000000007E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>39629</v>
       </c>
@@ -2607,7 +3243,7 @@
         <v>-4.6011000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>39660</v>
       </c>
@@ -2621,7 +3257,7 @@
         <v>-1.4590000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>39691</v>
       </c>
@@ -2635,7 +3271,7 @@
         <v>5.04E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>39721</v>
       </c>
@@ -2649,7 +3285,7 @@
         <v>-7.9836000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>39752</v>
       </c>
@@ -2663,7 +3299,7 @@
         <v>-0.121084</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>39782</v>
       </c>
@@ -2677,7 +3313,7 @@
         <v>-1.4885000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>39813</v>
       </c>
@@ -2691,7 +3327,7 @@
         <v>2.8576000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>39844</v>
       </c>
@@ -2705,7 +3341,7 @@
         <v>-5.5410000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>39872</v>
       </c>
@@ -2719,7 +3355,7 @@
         <v>-5.4608999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>39903</v>
       </c>
@@ -2733,7 +3369,7 @@
         <v>2.3186999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>39933</v>
       </c>
@@ -2747,7 +3383,7 @@
         <v>4.6708999999999987E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>39964</v>
       </c>
@@ -2761,7 +3397,7 @@
         <v>4.0049000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>39994</v>
       </c>
@@ -2775,7 +3411,7 @@
         <v>3.3969999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>40025</v>
       </c>
@@ -2789,7 +3425,7 @@
         <v>5.4760999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>40056</v>
       </c>
@@ -2803,7 +3439,7 @@
         <v>2.6283999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>40086</v>
       </c>
@@ -2817,7 +3453,7 @@
         <v>3.2212999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>40117</v>
       </c>
@@ -2831,7 +3467,7 @@
         <v>-1.3511E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>40147</v>
       </c>
@@ -2845,7 +3481,7 @@
         <v>2.9205999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>40178</v>
       </c>
@@ -2859,7 +3495,7 @@
         <v>1.2245000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>40209</v>
       </c>
@@ -2873,7 +3509,7 @@
         <v>-1.3906E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>40237</v>
       </c>
@@ -2887,7 +3523,7 @@
         <v>1.3596E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>40268</v>
       </c>
@@ -2901,7 +3537,7 @@
         <v>3.9373999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>40298</v>
       </c>
@@ -2915,7 +3551,7 @@
         <v>2.1406000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>40329</v>
       </c>
@@ -2929,7 +3565,7 @@
         <v>-4.2691999999999987E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>40359</v>
       </c>
@@ -2943,7 +3579,7 @@
         <v>-1.0512000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>40390</v>
       </c>
@@ -2957,7 +3593,7 @@
         <v>4.3425000000000012E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>40421</v>
       </c>
@@ -2971,7 +3607,7 @@
         <v>1.5499999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>40451</v>
       </c>
@@ -2985,7 +3621,7 @@
         <v>4.5331000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>40482</v>
       </c>
@@ -2999,7 +3635,7 @@
         <v>9.7619999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>40512</v>
       </c>
@@ -3013,7 +3649,7 @@
         <v>-6.3109999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>40543</v>
       </c>
@@ -3027,7 +3663,7 @@
         <v>2.9354000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>40574</v>
       </c>
@@ -3041,7 +3677,7 @@
         <v>-1.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>40602</v>
       </c>
@@ -3055,7 +3691,7 @@
         <v>2.3307999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>40633</v>
       </c>
@@ -3069,7 +3705,7 @@
         <v>2.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40663</v>
       </c>
@@ -3083,7 +3719,7 @@
         <v>3.0134000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40694</v>
       </c>
@@ -3097,7 +3733,7 @@
         <v>6.2509999999999996E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40724</v>
       </c>
@@ -3111,7 +3747,7 @@
         <v>-1.6388E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40755</v>
       </c>
@@ -3125,7 +3761,7 @@
         <v>1.0779E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40786</v>
       </c>
@@ -3139,7 +3775,7 @@
         <v>-6.4880000000000007E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40816</v>
       </c>
@@ -3153,7 +3789,7 @@
         <v>1.2030000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40847</v>
       </c>
@@ -3167,7 +3803,7 @@
         <v>3.5729999999999998E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40877</v>
       </c>
@@ -3181,7 +3817,7 @@
         <v>-6.8320000000000004E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40908</v>
       </c>
@@ -3195,7 +3831,7 @@
         <v>1.1629E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40939</v>
       </c>
@@ -3209,7 +3845,7 @@
         <v>2.7751000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>40968</v>
       </c>
@@ -3223,7 +3859,7 @@
         <v>1.8407E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>40999</v>
       </c>
@@ -3237,7 +3873,7 @@
         <v>-3.8400000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41029</v>
       </c>
@@ -3251,7 +3887,7 @@
         <v>1.0168999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41060</v>
       </c>
@@ -3265,7 +3901,7 @@
         <v>-7.1130000000000004E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41090</v>
       </c>
@@ -3279,7 +3915,7 @@
         <v>1.3662000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41121</v>
       </c>
@@ -3293,7 +3929,7 @@
         <v>2.2415000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41152</v>
       </c>
@@ -3307,7 +3943,7 @@
         <v>6.5459999999999997E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41182</v>
       </c>
@@ -3321,7 +3957,7 @@
         <v>8.5970000000000005E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41213</v>
       </c>
@@ -3335,7 +3971,7 @@
         <v>1.505E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41243</v>
       </c>
@@ -3349,7 +3985,7 @@
         <v>7.5709999999999996E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41274</v>
       </c>
@@ -3363,7 +3999,7 @@
         <v>8.1650000000000004E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>41305</v>
       </c>
@@ -3377,7 +4013,7 @@
         <v>1.3455999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>41333</v>
       </c>
@@ -3391,7 +4027,7 @@
         <v>7.4700000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>41364</v>
       </c>
@@ -3405,7 +4041,7 @@
         <v>1.5023999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>41394</v>
       </c>
@@ -3419,7 +4055,7 @@
         <v>2.5086000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>41425</v>
       </c>
@@ -3433,7 +4069,7 @@
         <v>-1.6670000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>41455</v>
       </c>
@@ -3447,7 +4083,7 @@
         <v>-1.8159999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>41486</v>
       </c>
@@ -3461,7 +4097,7 @@
         <v>1.4252000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>41517</v>
       </c>
@@ -3475,7 +4111,7 @@
         <v>-1.1036000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>41547</v>
       </c>
@@ -3489,7 +4125,7 @@
         <v>2.0114E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>41578</v>
       </c>
@@ -3503,7 +4139,7 @@
         <v>2.2227E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>41608</v>
       </c>
@@ -3517,7 +4153,7 @@
         <v>1.66E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>41639</v>
       </c>
@@ -3531,7 +4167,7 @@
         <v>7.3099999999999997E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>41670</v>
       </c>
@@ -3545,7 +4181,7 @@
         <v>1.8710000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>41698</v>
       </c>
@@ -3559,7 +4195,7 @@
         <v>2.2973E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>41729</v>
       </c>
@@ -3573,7 +4209,7 @@
         <v>7.5810000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>41759</v>
       </c>
@@ -3587,7 +4223,7 @@
         <v>2.565E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>41790</v>
       </c>
@@ -3601,7 +4237,7 @@
         <v>1.8616000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>41820</v>
       </c>
@@ -3615,7 +4251,7 @@
         <v>7.5900000000000004E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>41851</v>
       </c>
@@ -3629,7 +4265,7 @@
         <v>-3.5339999999999998E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>41882</v>
       </c>
@@ -3643,7 +4279,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>41912</v>
       </c>
@@ -3657,7 +4293,7 @@
         <v>-1.8789E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>41943</v>
       </c>
@@ -3671,7 +4307,7 @@
         <v>1.2253999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>41973</v>
       </c>
@@ -3685,7 +4321,7 @@
         <v>1.6820000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>42004</v>
       </c>
@@ -3699,7 +4335,7 @@
         <v>2.0799999999999998E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>42035</v>
       </c>
@@ -3713,7 +4349,7 @@
         <v>2.3349999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>42063</v>
       </c>
@@ -3727,7 +4363,7 @@
         <v>7.6709999999999999E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>42094</v>
       </c>
@@ -3741,7 +4377,7 @@
         <v>7.2499999999999995E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>42124</v>
       </c>
@@ -3755,7 +4391,7 @@
         <v>4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>42155</v>
       </c>
@@ -3769,7 +4405,7 @@
         <v>-1.4469999999999999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>42185</v>
       </c>
@@ -3783,7 +4419,7 @@
         <v>-1.9127000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>42216</v>
       </c>
@@ -3797,7 +4433,7 @@
         <v>1.0714E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>42247</v>
       </c>
@@ -3811,7 +4447,7 @@
         <v>-2.7125E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>42277</v>
       </c>
@@ -3825,7 +4461,7 @@
         <v>-8.7589999999999994E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>42308</v>
       </c>
@@ -3839,7 +4475,7 @@
         <v>2.8798000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>42338</v>
       </c>
@@ -3853,7 +4489,7 @@
         <v>-3.8070000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>42369</v>
       </c>
@@ -3867,7 +4503,7 @@
         <v>-8.1840000000000003E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>42400</v>
       </c>
@@ -3881,7 +4517,7 @@
         <v>-1.4826000000000001E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>42429</v>
       </c>
@@ -3895,7 +4531,7 @@
         <v>7.1509999999999994E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>42460</v>
       </c>
@@ -3909,7 +4545,7 @@
         <v>3.4733E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>42490</v>
       </c>
@@ -3923,7 +4559,7 @@
         <v>9.2420000000000002E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>42521</v>
       </c>
@@ -3937,7 +4573,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>42551</v>
       </c>
@@ -3951,7 +4587,7 @@
         <v>1.013E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>42582</v>
       </c>
@@ -3965,7 +4601,7 @@
         <v>2.1264000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>42613</v>
       </c>
@@ -3979,7 +4615,7 @@
         <v>1.1460000000000001E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>42643</v>
       </c>
@@ -3993,7 +4629,7 @@
         <v>8.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>42674</v>
       </c>
@@ -4007,7 +4643,7 @@
         <v>-1.1778E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>42704</v>
       </c>
@@ -4021,7 +4657,7 @@
         <v>-1.1501000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>42735</v>
       </c>
@@ -4035,7 +4671,7 @@
         <v>1.0142999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>42766</v>
       </c>
@@ -4049,7 +4685,7 @@
         <v>1.1658E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>42794</v>
       </c>
@@ -4063,7 +4699,7 @@
         <v>1.7676999999999998E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>42825</v>
       </c>
@@ -4077,7 +4713,7 @@
         <v>5.195E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>42855</v>
       </c>
@@ -4091,7 +4727,7 @@
         <v>1.3598000000000001E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>42886</v>
       </c>
@@ -4105,7 +4741,7 @@
         <v>1.5262E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>42916</v>
       </c>
@@ -4119,7 +4755,7 @@
         <v>5.2639999999999996E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>42947</v>
       </c>
@@ -4133,7 +4769,7 @@
         <v>1.1306E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>42978</v>
       </c>
@@ -4147,7 +4783,7 @@
         <v>1.0725E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>43008</v>
       </c>
@@ -4161,7 +4797,7 @@
         <v>8.1069999999999996E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>43039</v>
       </c>
@@ -4175,7 +4811,7 @@
         <v>1.1963E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>43069</v>
       </c>
@@ -4189,7 +4825,7 @@
         <v>1.3356E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>43100</v>
       </c>
@@ -4203,7 +4839,7 @@
         <v>1.1977E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>43131</v>
       </c>
@@ -4217,7 +4853,7 @@
         <v>1.6299000000000001E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>43159</v>
       </c>
@@ -4231,7 +4867,7 @@
         <v>-2.9905000000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>43190</v>
       </c>
@@ -4245,7 +4881,7 @@
         <v>8.9589999999999999E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>43220</v>
       </c>
@@ -4259,7 +4895,7 @@
         <v>-6.6360000000000004E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>43251</v>
       </c>
@@ -4273,7 +4909,7 @@
         <v>1.0673E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>43281</v>
       </c>
@@ -4287,7 +4923,7 @@
         <v>-1.519E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>43312</v>
       </c>
@@ -4301,7 +4937,7 @@
         <v>5.8109999999999993E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>43343</v>
       </c>
@@ -4315,7 +4951,7 @@
         <v>1.0220999999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>43373</v>
       </c>
@@ -4329,7 +4965,7 @@
         <v>-1.1547E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>43404</v>
       </c>
@@ -4343,7 +4979,7 @@
         <v>-3.9562E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>43434</v>
       </c>
@@ -4357,7 +4993,7 @@
         <v>1.3939E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>43465</v>
       </c>
@@ -4371,7 +5007,7 @@
         <v>5.9259999999999998E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>43496</v>
       </c>
@@ -4385,7 +5021,7 @@
         <v>2.8361999999999998E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>43524</v>
       </c>
@@ -4399,7 +5035,7 @@
         <v>2.9329999999999998E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>43555</v>
       </c>
@@ -4413,7 +5049,7 @@
         <v>3.2959000000000002E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>43585</v>
       </c>
@@ -4427,7 +5063,7 @@
         <v>1.077E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>43616</v>
       </c>
@@ -4441,7 +5077,7 @@
         <v>2.0518999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>43646</v>
       </c>
@@ -4455,7 +5091,7 @@
         <v>2.6977999999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>43677</v>
       </c>
@@ -4469,7 +5105,7 @@
         <v>4.3940000000000003E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>43708</v>
       </c>
@@ -4483,7 +5119,7 @@
         <v>5.8720000000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>43738</v>
       </c>
@@ -4497,7 +5133,7 @@
         <v>-9.6229999999999996E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>43769</v>
       </c>
@@ -4511,7 +5147,7 @@
         <v>-1.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>43799</v>
       </c>
@@ -4525,7 +5161,7 @@
         <v>6.3489999999999996E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>43830</v>
       </c>
@@ -4539,7 +5175,7 @@
         <v>-7.5079999999999999E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>43861</v>
       </c>
@@ -4553,7 +5189,7 @@
         <v>3.7941999999999997E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>43890</v>
       </c>
@@ -4567,7 +5203,7 @@
         <v>1.8638999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>43921</v>
       </c>
@@ -4581,7 +5217,7 @@
         <v>-1.2191E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>43951</v>
       </c>
@@ -4595,7 +5231,7 @@
         <v>3.7446E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>43982</v>
       </c>
@@ -4609,7 +5245,7 @@
         <v>-4.5329999999999997E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>44012</v>
       </c>
@@ -4623,7 +5259,7 @@
         <v>8.5900000000000004E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>44043</v>
       </c>
@@ -4637,7 +5273,7 @@
         <v>4.4461000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44074</v>
       </c>
@@ -4651,7 +5287,7 @@
         <v>-1.7264999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44104</v>
       </c>
@@ -4665,7 +5301,7 @@
         <v>-5.0549999999999996E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>44135</v>
       </c>
@@ -4679,7 +5315,7 @@
         <v>-2.3545E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>44165</v>
       </c>
@@ -4693,7 +5329,7 @@
         <v>4.4108000000000001E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>44196</v>
       </c>
@@ -4707,7 +5343,7 @@
         <v>7.5290000000000001E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>44227</v>
       </c>
@@ -4721,7 +5357,7 @@
         <v>-2.63E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>44255</v>
       </c>
@@ -4735,7 +5371,7 @@
         <v>-3.2485E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>44286</v>
       </c>
@@ -4749,7 +5385,7 @@
         <v>-1.0056000000000001E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>44316</v>
       </c>
@@ -4763,7 +5399,7 @@
         <v>2.9309000000000002E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>44347</v>
       </c>
@@ -4777,7 +5413,7 @@
         <v>1.4168E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>44377</v>
       </c>
@@ -4791,7 +5427,7 @@
         <v>2.8979999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>44408</v>
       </c>
@@ -4805,7 +5441,7 @@
         <v>2.4878999999999998E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>44439</v>
       </c>
@@ -4819,7 +5455,7 @@
         <v>7.5929999999999999E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>44469</v>
       </c>
@@ -4833,7 +5469,7 @@
         <v>-3.0726E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>44500</v>
       </c>
@@ -4847,7 +5483,7 @@
         <v>2.7293999999999999E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>44530</v>
       </c>
@@ -4861,7 +5497,7 @@
         <v>1.7181999999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>44561</v>
       </c>
@@ -4875,7 +5511,7 @@
         <v>5.3790000000000001E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C170" s="4"/>
     </row>
   </sheetData>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02652E32-DA1D-442F-B1BD-1BD3C17488EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB32BA7A-DF24-4148-85B8-9D0319EEE3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32010" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mkt_value" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -483,19 +483,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E146"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -512,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>40178</v>
       </c>
@@ -530,7 +529,7 @@
         <v>15633809775.07</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>40209</v>
       </c>
@@ -548,7 +547,7 @@
         <v>15489729218.43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>40237</v>
       </c>
@@ -566,7 +565,7 @@
         <v>15775048697.139999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40268</v>
       </c>
@@ -584,7 +583,7 @@
         <v>16704873758.75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40298</v>
       </c>
@@ -602,7 +601,7 @@
         <v>17132130003.51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40329</v>
       </c>
@@ -620,7 +619,7 @@
         <v>16351241876.799999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40359</v>
       </c>
@@ -638,7 +637,7 @@
         <v>16127227316.289999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>40390</v>
       </c>
@@ -656,7 +655,7 @@
         <v>16894210925.619999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>40421</v>
       </c>
@@ -674,7 +673,7 @@
         <v>16864762411.98</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>40451</v>
       </c>
@@ -692,7 +691,7 @@
         <v>17683853962.580002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>40482</v>
       </c>
@@ -710,7 +709,7 @@
         <v>17795005221.620003</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>40512</v>
       </c>
@@ -728,7 +727,7 @@
         <v>19628314376.709999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>40543</v>
       </c>
@@ -746,7 +745,7 @@
         <v>20035126948.73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>40574</v>
       </c>
@@ -764,7 +763,7 @@
         <v>21163701726.799999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>40602</v>
       </c>
@@ -782,7 +781,7 @@
         <v>21592868236.349998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>40633</v>
       </c>
@@ -800,7 +799,7 @@
         <v>21597393553.599998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>40663</v>
       </c>
@@ -818,7 +817,7 @@
         <v>22196442158.830002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>40694</v>
       </c>
@@ -836,7 +835,7 @@
         <v>22284623894.07</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>40724</v>
       </c>
@@ -854,7 +853,7 @@
         <v>21869129586.239998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>40755</v>
       </c>
@@ -872,7 +871,7 @@
         <v>22052015022.439999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>40786</v>
       </c>
@@ -890,7 +889,7 @@
         <v>21857152498.610001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>40816</v>
       </c>
@@ -908,7 +907,7 @@
         <v>21890587182.540001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>40847</v>
       </c>
@@ -926,7 +925,7 @@
         <v>22617832290.32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>40877</v>
       </c>
@@ -944,7 +943,7 @@
         <v>22404660643.810001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40908</v>
       </c>
@@ -962,7 +961,7 @@
         <v>22610566714.970001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40939</v>
       </c>
@@ -980,7 +979,7 @@
         <v>23182541487.510002</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>40968</v>
       </c>
@@ -998,7 +997,7 @@
         <v>23538890877.400002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40999</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>23568457835.099998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41029</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>23750894239.669998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41060</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>23525188092.25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41090</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>23966952669.709999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41121</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>24445028323.779999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41152</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>24546173849.48</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41182</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>24697695785.049999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41213</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>24675625120.169998</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41243</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>24802249901.279999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41274</v>
       </c>
@@ -1178,7 +1177,7 @@
         <v>24895725823.459999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41305</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>25170361391.66</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41333</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>25279056931.75</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41364</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>25595461395.489998</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41394</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>26172807411.43</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41425</v>
       </c>
@@ -1268,7 +1267,7 @@
         <v>25673836920.309998</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41455</v>
       </c>
@@ -1286,7 +1285,7 @@
         <v>25144097226.379997</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41486</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>25436535483.029999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41517</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>25090551978.139999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41547</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>25528342822.260002</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41578</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>26027210514.610001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41608</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>26003668184.25</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>41639</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>26126136558.370003</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>41670</v>
       </c>
@@ -1412,7 +1411,7 @@
         <v>26107545286.209999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>41698</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>26638014657</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41729</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>26769907188.32</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41759</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>26765961123.209999</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41790</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>27191839755.379997</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41820</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>27325539811.990002</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41851</v>
       </c>
@@ -1520,7 +1519,7 @@
         <v>27156693166.089996</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41882</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>27744061638.859997</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41912</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>27150516717.209999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41943</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>27371582530.760002</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41973</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>27755791534.099998</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42004</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>28782286672.540001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42035</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>29377893373.27</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42063</v>
       </c>
@@ -1646,7 +1645,7 @@
         <v>29527582270.599998</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42094</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>29472066114.919998</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42124</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>29408499309.230003</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42155</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>29287873259.310001</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42185</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>28649880311.460003</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42216</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>28876049490.889999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42247</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>28013794466.529999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42277</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>27687481033.779999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42308</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>28326214032.700001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42338</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>28136428854.080002</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42369</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>28846123319.360001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42400</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>28336242435.290001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42429</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>28455548735.700001</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42460</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>29356543183.02</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42490</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>29541899253.779999</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42521</v>
       </c>
@@ -1916,7 +1915,7 @@
         <v>29511294102.970001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42551</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>29721707293.18</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42582</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>30265017930.439999</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42613</v>
       </c>
@@ -1970,7 +1969,7 @@
         <v>30212130836.659996</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42643</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>31311065698.300003</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42674</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>30735579110.59</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42704</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>30294027553</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42735</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>31134438714.84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42766</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>31406508587.93</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42794</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>31862808989.720001</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42825</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>34237099341.939999</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42855</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>34601102374.349998</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42886</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>35025362965.57</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42916</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>35106467417.43</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42947</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>35405676882.5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42978</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>35685401140.059998</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43008</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>35874830645.559998</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43039</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>36114807334.970001</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43069</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>36495501947.440002</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43100</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>41855947325.630005</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43131</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>42583608483.910004</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43159</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>41211539283.339996</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43190</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>41345361923.699997</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43220</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>41046653376.559998</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43251</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>41313125652.080002</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43281</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>41120926179.029999</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43312</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>41384483579.770004</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43343</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>41662699191.550003</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43373</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>41186844593.330002</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43404</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>39382932997.410004</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43434</v>
       </c>
@@ -2456,7 +2455,7 @@
         <v>39775062674.709999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43465</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>39522884974.100006</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43496</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>40669954095.649994</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43524</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>40797714345.529999</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43555</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>41816004324.669998</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43585</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>42743010048.029999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43616</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>43049509347.520004</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43646</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>44201801916.779999</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43677</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>44289184114.949997</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43708</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>46120218348.729996</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43738</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>46949500920.5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43769</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>46865616845.860001</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43799</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>47123526214.259995</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43830</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>46141543427.790001</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43861</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>47197571777.949997</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43890</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>47123736418.860001</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43921</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>45203938859.300003</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43951</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>47063924664.940002</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43982</v>
       </c>
@@ -2780,7 +2779,7 @@
         <v>47081053140.339996</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>47426479912.610001</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44043</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>49195581002.360001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44074</v>
       </c>
@@ -2834,7 +2833,7 @@
         <v>48906000373.669998</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44104</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>49328610123.339996</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44135</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>48025973012.379997</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44165</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>50439922757.960007</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44196</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>52788406154.489998</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44227</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>51587924289.860001</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44255</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>50499267741.220001</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44286</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>50392639291.639999</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44316</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>51700906918.139999</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44347</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>52378479915.339996</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44377</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>53479086658.270004</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44408</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>54428674790.350006</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44439</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>54870263825.589996</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44469</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>52900976752.919998</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44500</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>54300695591.470001</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44530</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>55089285603.900002</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44561</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>55524799409.729996</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C147" s="4"/>
     </row>
   </sheetData>
@@ -3135,20 +3134,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3161,8 +3160,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>39478</v>
       </c>
@@ -3172,8 +3174,11 @@
       <c r="D2">
         <v>-3.8365000000000003E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>-3.8365000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>39507</v>
       </c>
@@ -3186,8 +3191,11 @@
       <c r="D3">
         <v>-7.5599999999999999E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>-7.5599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>39538</v>
       </c>
@@ -3200,8 +3208,11 @@
       <c r="D4">
         <v>-6.9950000000000003E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>-6.9950000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>39568</v>
       </c>
@@ -3214,8 +3225,11 @@
       <c r="D5">
         <v>2.7694E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>2.7694E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>39599</v>
       </c>
@@ -3228,8 +3242,11 @@
       <c r="D6">
         <v>7.6380000000000007E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>7.6380000000000007E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>39629</v>
       </c>
@@ -3242,8 +3259,11 @@
       <c r="D7">
         <v>-4.6011000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>-4.6011000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>39660</v>
       </c>
@@ -3256,8 +3276,11 @@
       <c r="D8">
         <v>-1.4590000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>-1.4590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>39691</v>
       </c>
@@ -3270,8 +3293,11 @@
       <c r="D9">
         <v>5.04E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>5.04E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>39721</v>
       </c>
@@ -3284,8 +3310,11 @@
       <c r="D10">
         <v>-7.9836000000000004E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>-7.9836000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>39752</v>
       </c>
@@ -3298,8 +3327,11 @@
       <c r="D11">
         <v>-0.121084</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>-0.121084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>39782</v>
       </c>
@@ -3312,8 +3344,11 @@
       <c r="D12">
         <v>-1.4885000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>-1.4885000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>39813</v>
       </c>
@@ -3326,8 +3361,11 @@
       <c r="D13">
         <v>2.8576000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>2.8576000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>39844</v>
       </c>
@@ -3340,8 +3378,11 @@
       <c r="D14">
         <v>-5.5410000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>-5.5410000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>39872</v>
       </c>
@@ -3354,8 +3395,11 @@
       <c r="D15">
         <v>-5.4608999999999998E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>-5.4608999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>39903</v>
       </c>
@@ -3368,8 +3412,11 @@
       <c r="D16">
         <v>2.3186999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>2.3186999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>39933</v>
       </c>
@@ -3382,8 +3429,11 @@
       <c r="D17">
         <v>4.6708999999999987E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>4.6708999999999987E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>39964</v>
       </c>
@@ -3396,8 +3446,11 @@
       <c r="D18">
         <v>4.0049000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>4.0049000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>39994</v>
       </c>
@@ -3410,8 +3463,11 @@
       <c r="D19">
         <v>3.3969999999999998E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>3.3969999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>40025</v>
       </c>
@@ -3424,8 +3480,11 @@
       <c r="D20">
         <v>5.4760999999999997E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>5.4760999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>40056</v>
       </c>
@@ -3438,8 +3497,11 @@
       <c r="D21">
         <v>2.6283999999999998E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>2.6283999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>40086</v>
       </c>
@@ -3452,8 +3514,11 @@
       <c r="D22">
         <v>3.2212999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>3.2212999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>40117</v>
       </c>
@@ -3466,8 +3531,11 @@
       <c r="D23">
         <v>-1.3511E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>-1.3511E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>40147</v>
       </c>
@@ -3480,8 +3548,11 @@
       <c r="D24">
         <v>2.9205999999999999E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>2.9205999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>40178</v>
       </c>
@@ -3494,8 +3565,11 @@
       <c r="D25">
         <v>1.2245000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>1.2245000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40209</v>
       </c>
@@ -3508,8 +3582,11 @@
       <c r="D26">
         <v>-1.3906E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>-1.3906E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40237</v>
       </c>
@@ -3522,8 +3599,11 @@
       <c r="D27">
         <v>1.3596E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>1.3596E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>40268</v>
       </c>
@@ -3536,8 +3616,11 @@
       <c r="D28">
         <v>3.9373999999999999E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>3.9373999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40298</v>
       </c>
@@ -3550,8 +3633,11 @@
       <c r="D29">
         <v>2.1406000000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>2.1406000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>40329</v>
       </c>
@@ -3564,8 +3650,11 @@
       <c r="D30">
         <v>-4.2691999999999987E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>-4.2691999999999987E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>40359</v>
       </c>
@@ -3578,8 +3667,11 @@
       <c r="D31">
         <v>-1.0512000000000001E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>-1.0512000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>40390</v>
       </c>
@@ -3592,8 +3684,11 @@
       <c r="D32">
         <v>4.3425000000000012E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>4.3425000000000012E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>40421</v>
       </c>
@@ -3606,8 +3701,11 @@
       <c r="D33">
         <v>1.5499999999999999E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>1.5499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>40451</v>
       </c>
@@ -3620,8 +3718,11 @@
       <c r="D34">
         <v>4.5331000000000003E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>4.5331000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>40482</v>
       </c>
@@ -3634,8 +3735,11 @@
       <c r="D35">
         <v>9.7619999999999998E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>9.7619999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>40512</v>
       </c>
@@ -3648,8 +3752,11 @@
       <c r="D36">
         <v>-6.3109999999999998E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>-6.3109999999999998E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>40543</v>
       </c>
@@ -3662,8 +3769,11 @@
       <c r="D37">
         <v>2.9354000000000002E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>2.9354000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>40574</v>
       </c>
@@ -3676,8 +3786,11 @@
       <c r="D38">
         <v>-1.1150000000000001E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>-1.1150000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>40602</v>
       </c>
@@ -3690,8 +3803,11 @@
       <c r="D39">
         <v>2.3307999999999999E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>2.3307999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>40633</v>
       </c>
@@ -3704,8 +3820,11 @@
       <c r="D40">
         <v>2.4940000000000001E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>2.4940000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40663</v>
       </c>
@@ -3718,8 +3837,11 @@
       <c r="D41">
         <v>3.0134000000000001E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>3.0134000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40694</v>
       </c>
@@ -3732,8 +3854,11 @@
       <c r="D42">
         <v>6.2509999999999996E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>6.2509999999999996E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40724</v>
       </c>
@@ -3746,8 +3871,11 @@
       <c r="D43">
         <v>-1.6388E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>-1.6388E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40755</v>
       </c>
@@ -3760,8 +3888,11 @@
       <c r="D44">
         <v>1.0779E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>1.0779E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40786</v>
       </c>
@@ -3774,8 +3905,11 @@
       <c r="D45">
         <v>-6.4880000000000007E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>-6.4880000000000007E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>40816</v>
       </c>
@@ -3788,8 +3922,11 @@
       <c r="D46">
         <v>1.2030000000000001E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>1.2030000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>40847</v>
       </c>
@@ -3802,8 +3939,11 @@
       <c r="D47">
         <v>3.5729999999999998E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>3.5729999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>40877</v>
       </c>
@@ -3816,8 +3956,11 @@
       <c r="D48">
         <v>-6.8320000000000004E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>-6.8320000000000004E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>40908</v>
       </c>
@@ -3830,8 +3973,11 @@
       <c r="D49">
         <v>1.1629E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>1.1629E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>40939</v>
       </c>
@@ -3844,8 +3990,11 @@
       <c r="D50">
         <v>2.7751000000000001E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>2.7751000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>40968</v>
       </c>
@@ -3858,8 +4007,11 @@
       <c r="D51">
         <v>1.8407E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>1.8407E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>40999</v>
       </c>
@@ -3872,8 +4024,11 @@
       <c r="D52">
         <v>-3.8400000000000001E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>-3.8400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41029</v>
       </c>
@@ -3886,8 +4041,11 @@
       <c r="D53">
         <v>1.0168999999999999E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>1.0168999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41060</v>
       </c>
@@ -3900,8 +4058,11 @@
       <c r="D54">
         <v>-7.1130000000000004E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>-7.1130000000000004E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41090</v>
       </c>
@@ -3914,8 +4075,11 @@
       <c r="D55">
         <v>1.3662000000000001E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>1.3662000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41121</v>
       </c>
@@ -3928,8 +4092,11 @@
       <c r="D56">
         <v>2.2415000000000001E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>2.2415000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41152</v>
       </c>
@@ -3942,8 +4109,11 @@
       <c r="D57">
         <v>6.5459999999999997E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>6.5459999999999997E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41182</v>
       </c>
@@ -3956,8 +4126,11 @@
       <c r="D58">
         <v>8.5970000000000005E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>8.5970000000000005E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41213</v>
       </c>
@@ -3970,8 +4143,11 @@
       <c r="D59">
         <v>1.505E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>1.505E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41243</v>
       </c>
@@ -3984,8 +4160,11 @@
       <c r="D60">
         <v>7.5709999999999996E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>7.5709999999999996E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41274</v>
       </c>
@@ -3998,8 +4177,11 @@
       <c r="D61">
         <v>8.1650000000000004E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>8.1650000000000004E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41305</v>
       </c>
@@ -4012,8 +4194,11 @@
       <c r="D62">
         <v>1.3455999999999999E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>1.3455999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41333</v>
       </c>
@@ -4026,8 +4211,11 @@
       <c r="D63">
         <v>7.4700000000000001E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>7.4700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41364</v>
       </c>
@@ -4040,8 +4228,11 @@
       <c r="D64">
         <v>1.5023999999999999E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>1.5023999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>41394</v>
       </c>
@@ -4054,8 +4245,11 @@
       <c r="D65">
         <v>2.5086000000000001E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>2.5086000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>41425</v>
       </c>
@@ -4068,8 +4262,11 @@
       <c r="D66">
         <v>-1.6670000000000001E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>-1.6670000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41455</v>
       </c>
@@ -4082,8 +4279,11 @@
       <c r="D67">
         <v>-1.8159999999999999E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>-1.8159999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>41486</v>
       </c>
@@ -4096,8 +4296,11 @@
       <c r="D68">
         <v>1.4252000000000001E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>1.4252000000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>41517</v>
       </c>
@@ -4110,8 +4313,11 @@
       <c r="D69">
         <v>-1.1036000000000001E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>-1.1036000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>41547</v>
       </c>
@@ -4124,8 +4330,11 @@
       <c r="D70">
         <v>2.0114E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>2.0114E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>41578</v>
       </c>
@@ -4138,8 +4347,11 @@
       <c r="D71">
         <v>2.2227E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>2.2227E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>41608</v>
       </c>
@@ -4152,8 +4364,11 @@
       <c r="D72">
         <v>1.66E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>1.66E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>41639</v>
       </c>
@@ -4166,8 +4381,11 @@
       <c r="D73">
         <v>7.3099999999999997E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>7.3099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>41670</v>
       </c>
@@ -4180,8 +4398,11 @@
       <c r="D74">
         <v>1.8710000000000001E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>1.8710000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>41698</v>
       </c>
@@ -4194,8 +4415,11 @@
       <c r="D75">
         <v>2.2973E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>2.2973E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>41729</v>
       </c>
@@ -4208,8 +4432,11 @@
       <c r="D76">
         <v>7.5810000000000001E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>7.5810000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>41759</v>
       </c>
@@ -4222,8 +4449,11 @@
       <c r="D77">
         <v>2.565E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>2.565E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>41790</v>
       </c>
@@ -4236,8 +4466,11 @@
       <c r="D78">
         <v>1.8616000000000001E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>1.8616000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>41820</v>
       </c>
@@ -4250,8 +4483,11 @@
       <c r="D79">
         <v>7.5900000000000004E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>7.5900000000000004E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>41851</v>
       </c>
@@ -4264,8 +4500,11 @@
       <c r="D80">
         <v>-3.5339999999999998E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>-3.5339999999999998E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>41882</v>
       </c>
@@ -4278,8 +4517,11 @@
       <c r="D81">
         <v>2.4400000000000002E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>2.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>41912</v>
       </c>
@@ -4292,8 +4534,11 @@
       <c r="D82">
         <v>-1.8789E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>-1.8789E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>41943</v>
       </c>
@@ -4306,8 +4551,11 @@
       <c r="D83">
         <v>1.2253999999999999E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>1.2253999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>41973</v>
       </c>
@@ -4320,8 +4568,11 @@
       <c r="D84">
         <v>1.6820000000000002E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>1.6820000000000002E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42004</v>
       </c>
@@ -4334,8 +4585,11 @@
       <c r="D85">
         <v>2.0799999999999998E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>2.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42035</v>
       </c>
@@ -4348,8 +4602,11 @@
       <c r="D86">
         <v>2.3349999999999999E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>2.3349999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42063</v>
       </c>
@@ -4362,8 +4619,11 @@
       <c r="D87">
         <v>7.6709999999999999E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>7.6709999999999999E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42094</v>
       </c>
@@ -4376,8 +4636,11 @@
       <c r="D88">
         <v>7.2499999999999995E-4</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>7.2499999999999995E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42124</v>
       </c>
@@ -4390,8 +4653,11 @@
       <c r="D89">
         <v>4.8299999999999998E-4</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>4.8299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42155</v>
       </c>
@@ -4404,8 +4670,11 @@
       <c r="D90">
         <v>-1.4469999999999999E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>-1.4469999999999999E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42185</v>
       </c>
@@ -4418,8 +4687,11 @@
       <c r="D91">
         <v>-1.9127000000000002E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>-1.9127000000000002E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42216</v>
       </c>
@@ -4432,8 +4704,11 @@
       <c r="D92">
         <v>1.0714E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>1.0714E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42247</v>
       </c>
@@ -4446,8 +4721,11 @@
       <c r="D93">
         <v>-2.7125E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>-2.7125E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42277</v>
       </c>
@@ -4460,8 +4738,11 @@
       <c r="D94">
         <v>-8.7589999999999994E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>-8.7589999999999994E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42308</v>
       </c>
@@ -4474,8 +4755,11 @@
       <c r="D95">
         <v>2.8798000000000001E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>2.8798000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42338</v>
       </c>
@@ -4488,8 +4772,11 @@
       <c r="D96">
         <v>-3.8070000000000001E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>-3.8070000000000001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42369</v>
       </c>
@@ -4502,8 +4789,11 @@
       <c r="D97">
         <v>-8.1840000000000003E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>-8.1840000000000003E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42400</v>
       </c>
@@ -4516,8 +4806,11 @@
       <c r="D98">
         <v>-1.4826000000000001E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>-1.4826000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42429</v>
       </c>
@@ -4530,8 +4823,11 @@
       <c r="D99">
         <v>7.1509999999999994E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>7.1509999999999994E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42460</v>
       </c>
@@ -4544,8 +4840,11 @@
       <c r="D100">
         <v>3.4733E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>3.4733E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42490</v>
       </c>
@@ -4558,8 +4857,11 @@
       <c r="D101">
         <v>9.2420000000000002E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>9.2420000000000002E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42521</v>
       </c>
@@ -4572,8 +4874,11 @@
       <c r="D102">
         <v>1.884E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>1.884E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42551</v>
       </c>
@@ -4586,8 +4891,11 @@
       <c r="D103">
         <v>1.013E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>1.013E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42582</v>
       </c>
@@ -4600,8 +4908,11 @@
       <c r="D104">
         <v>2.1264000000000002E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>2.1264000000000002E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42613</v>
       </c>
@@ -4614,8 +4925,11 @@
       <c r="D105">
         <v>1.1460000000000001E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>1.1460000000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42643</v>
       </c>
@@ -4628,8 +4942,11 @@
       <c r="D106">
         <v>8.3000000000000001E-4</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <v>8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42674</v>
       </c>
@@ -4642,8 +4959,11 @@
       <c r="D107">
         <v>-1.1778E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <v>-1.1778E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42704</v>
       </c>
@@ -4656,8 +4976,11 @@
       <c r="D108">
         <v>-1.1501000000000001E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>-1.1501000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42735</v>
       </c>
@@ -4670,8 +4993,11 @@
       <c r="D109">
         <v>1.0142999999999999E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <v>1.0142999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42766</v>
       </c>
@@ -4684,8 +5010,11 @@
       <c r="D110">
         <v>1.1658E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <v>1.1658E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42794</v>
       </c>
@@ -4698,8 +5027,11 @@
       <c r="D111">
         <v>1.7676999999999998E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>1.7676999999999998E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42825</v>
       </c>
@@ -4712,8 +5044,11 @@
       <c r="D112">
         <v>5.195E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <v>5.195E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42855</v>
       </c>
@@ -4726,8 +5061,11 @@
       <c r="D113">
         <v>1.3598000000000001E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <v>1.3598000000000001E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42886</v>
       </c>
@@ -4740,8 +5078,11 @@
       <c r="D114">
         <v>1.5262E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <v>1.5262E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42916</v>
       </c>
@@ -4754,8 +5095,11 @@
       <c r="D115">
         <v>5.2639999999999996E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <v>5.2639999999999996E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42947</v>
       </c>
@@ -4768,8 +5112,11 @@
       <c r="D116">
         <v>1.1306E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <v>1.1306E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42978</v>
       </c>
@@ -4782,8 +5129,11 @@
       <c r="D117">
         <v>1.0725E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>1.0725E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43008</v>
       </c>
@@ -4796,8 +5146,11 @@
       <c r="D118">
         <v>8.1069999999999996E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <v>8.1069999999999996E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43039</v>
       </c>
@@ -4810,8 +5163,11 @@
       <c r="D119">
         <v>1.1963E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <v>1.1963E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43069</v>
       </c>
@@ -4824,8 +5180,11 @@
       <c r="D120">
         <v>1.3356E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <v>1.3356E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43100</v>
       </c>
@@ -4838,8 +5197,11 @@
       <c r="D121">
         <v>1.1977E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <v>1.1977E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43131</v>
       </c>
@@ -4852,8 +5214,11 @@
       <c r="D122">
         <v>1.6299000000000001E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <v>1.6299000000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43159</v>
       </c>
@@ -4866,8 +5231,11 @@
       <c r="D123">
         <v>-2.9905000000000001E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>-2.9905000000000001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43190</v>
       </c>
@@ -4880,8 +5248,11 @@
       <c r="D124">
         <v>8.9589999999999999E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <v>8.9589999999999999E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43220</v>
       </c>
@@ -4894,8 +5265,11 @@
       <c r="D125">
         <v>-6.6360000000000004E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <v>-6.6360000000000004E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43251</v>
       </c>
@@ -4908,8 +5282,11 @@
       <c r="D126">
         <v>1.0673E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <v>1.0673E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43281</v>
       </c>
@@ -4922,8 +5299,11 @@
       <c r="D127">
         <v>-1.519E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <v>-1.519E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43312</v>
       </c>
@@ -4936,8 +5316,11 @@
       <c r="D128">
         <v>5.8109999999999993E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <v>5.8109999999999993E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43343</v>
       </c>
@@ -4950,8 +5333,11 @@
       <c r="D129">
         <v>1.0220999999999999E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <v>1.0220999999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43373</v>
       </c>
@@ -4964,8 +5350,11 @@
       <c r="D130">
         <v>-1.1547E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <v>-1.1547E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43404</v>
       </c>
@@ -4978,8 +5367,11 @@
       <c r="D131">
         <v>-3.9562E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <v>-3.9562E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43434</v>
       </c>
@@ -4992,8 +5384,11 @@
       <c r="D132">
         <v>1.3939E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <v>1.3939E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43465</v>
       </c>
@@ -5006,8 +5401,11 @@
       <c r="D133">
         <v>5.9259999999999998E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <v>5.9259999999999998E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43496</v>
       </c>
@@ -5020,8 +5418,11 @@
       <c r="D134">
         <v>2.8361999999999998E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <v>2.8361999999999998E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43524</v>
       </c>
@@ -5034,8 +5435,11 @@
       <c r="D135">
         <v>2.9329999999999998E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E135">
+        <v>2.9329999999999998E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43555</v>
       </c>
@@ -5048,8 +5452,11 @@
       <c r="D136">
         <v>3.2959000000000002E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E136">
+        <v>3.2959000000000002E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43585</v>
       </c>
@@ -5062,8 +5469,11 @@
       <c r="D137">
         <v>1.077E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E137">
+        <v>1.077E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43616</v>
       </c>
@@ -5076,8 +5486,11 @@
       <c r="D138">
         <v>2.0518999999999999E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E138">
+        <v>2.0518999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43646</v>
       </c>
@@ -5090,8 +5503,11 @@
       <c r="D139">
         <v>2.6977999999999999E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <v>2.6977999999999999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43677</v>
       </c>
@@ -5104,8 +5520,11 @@
       <c r="D140">
         <v>4.3940000000000003E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E140">
+        <v>4.3940000000000003E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43708</v>
       </c>
@@ -5118,8 +5537,11 @@
       <c r="D141">
         <v>5.8720000000000001E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E141">
+        <v>5.8720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43738</v>
       </c>
@@ -5132,8 +5554,11 @@
       <c r="D142">
         <v>-9.6229999999999996E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <v>-9.6229999999999996E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43769</v>
       </c>
@@ -5146,8 +5571,11 @@
       <c r="D143">
         <v>-1.5300000000000001E-4</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E143">
+        <v>-1.5300000000000001E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43799</v>
       </c>
@@ -5160,8 +5588,11 @@
       <c r="D144">
         <v>6.3489999999999996E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E144">
+        <v>6.3489999999999996E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43830</v>
       </c>
@@ -5174,8 +5605,11 @@
       <c r="D145">
         <v>-7.5079999999999999E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E145">
+        <v>-7.5079999999999999E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43861</v>
       </c>
@@ -5188,8 +5622,11 @@
       <c r="D146">
         <v>3.7941999999999997E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E146">
+        <v>3.7941999999999997E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43890</v>
       </c>
@@ -5202,8 +5639,11 @@
       <c r="D147">
         <v>1.8638999999999999E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E147">
+        <v>1.8638999999999999E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43921</v>
       </c>
@@ -5216,8 +5656,11 @@
       <c r="D148">
         <v>-1.2191E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E148">
+        <v>-1.2191E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43951</v>
       </c>
@@ -5230,8 +5673,11 @@
       <c r="D149">
         <v>3.7446E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E149">
+        <v>3.7446E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43982</v>
       </c>
@@ -5244,8 +5690,11 @@
       <c r="D150">
         <v>-4.5329999999999997E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <v>-4.5329999999999997E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>44012</v>
       </c>
@@ -5258,8 +5707,11 @@
       <c r="D151">
         <v>8.5900000000000004E-3</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <v>8.5900000000000004E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44043</v>
       </c>
@@ -5272,8 +5724,11 @@
       <c r="D152">
         <v>4.4461000000000001E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E152">
+        <v>4.4461000000000001E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44074</v>
       </c>
@@ -5286,8 +5741,11 @@
       <c r="D153">
         <v>-1.7264999999999999E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E153">
+        <v>-1.7264999999999999E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>44104</v>
       </c>
@@ -5300,8 +5758,11 @@
       <c r="D154">
         <v>-5.0549999999999996E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E154">
+        <v>-5.0549999999999996E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44135</v>
       </c>
@@ -5314,8 +5775,11 @@
       <c r="D155">
         <v>-2.3545E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E155">
+        <v>-2.3545E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>44165</v>
       </c>
@@ -5328,8 +5792,11 @@
       <c r="D156">
         <v>4.4108000000000001E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E156">
+        <v>4.4108000000000001E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44196</v>
       </c>
@@ -5342,8 +5809,11 @@
       <c r="D157">
         <v>7.5290000000000001E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E157">
+        <v>7.5290000000000001E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44227</v>
       </c>
@@ -5356,8 +5826,11 @@
       <c r="D158">
         <v>-2.63E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E158">
+        <v>-2.63E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44255</v>
       </c>
@@ -5370,8 +5843,11 @@
       <c r="D159">
         <v>-3.2485E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E159">
+        <v>-3.2485E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44286</v>
       </c>
@@ -5384,8 +5860,11 @@
       <c r="D160">
         <v>-1.0056000000000001E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E160">
+        <v>-1.0056000000000001E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44316</v>
       </c>
@@ -5398,8 +5877,11 @@
       <c r="D161">
         <v>2.9309000000000002E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E161">
+        <v>2.9309000000000002E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44347</v>
       </c>
@@ -5412,8 +5894,11 @@
       <c r="D162">
         <v>1.4168E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E162">
+        <v>1.4168E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>44377</v>
       </c>
@@ -5426,8 +5911,11 @@
       <c r="D163">
         <v>2.8979999999999999E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E163">
+        <v>2.8979999999999999E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44408</v>
       </c>
@@ -5440,8 +5928,11 @@
       <c r="D164">
         <v>2.4878999999999998E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E164">
+        <v>2.4878999999999998E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44439</v>
       </c>
@@ -5454,8 +5945,11 @@
       <c r="D165">
         <v>7.5929999999999999E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E165">
+        <v>7.5929999999999999E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44469</v>
       </c>
@@ -5468,8 +5962,11 @@
       <c r="D166">
         <v>-3.0726E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E166">
+        <v>-3.0726E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44500</v>
       </c>
@@ -5482,8 +5979,11 @@
       <c r="D167">
         <v>2.7293999999999999E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E167">
+        <v>2.7293999999999999E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44530</v>
       </c>
@@ -5496,8 +5996,11 @@
       <c r="D168">
         <v>1.7181999999999999E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E168">
+        <v>1.7181999999999999E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44561</v>
       </c>
@@ -5510,8 +6013,11 @@
       <c r="D169">
         <v>5.3790000000000001E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E169">
+        <v>5.3790000000000001E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C170" s="4"/>
     </row>
   </sheetData>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB32BA7A-DF24-4148-85B8-9D0319EEE3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDED467-C263-4BAF-A27F-7ED6B98FEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32010" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mkt_value" sheetId="1" r:id="rId1"/>
@@ -80,12 +80,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -127,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -142,12 +148,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -524,10 +537,7 @@
       <c r="D2" s="4">
         <v>12670331040.15</v>
       </c>
-      <c r="E2" s="4">
-        <f>SUM(B2,C2,D2)</f>
-        <v>15633809775.07</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -542,9 +552,8 @@
       <c r="D3" s="4">
         <v>12454714514.059999</v>
       </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E66" si="0">SUM(B3,C3,D3)</f>
-        <v>15489729218.43</v>
+      <c r="E3" s="6">
+        <v>15491063024.610001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,9 +569,8 @@
       <c r="D4" s="4">
         <v>12582416484.82</v>
       </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>15775048697.139999</v>
+      <c r="E4" s="6">
+        <v>15775048697.16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,9 +586,8 @@
       <c r="D5" s="4">
         <v>13025662728.84</v>
       </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>16704873758.75</v>
+      <c r="E5" s="6">
+        <v>16706317751.610001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,9 +603,8 @@
       <c r="D6" s="4">
         <v>13260440725.690001</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>17132130003.51</v>
+      <c r="E6" s="6">
+        <v>17134389948.49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,9 +620,8 @@
       <c r="D7" s="4">
         <v>12652381383.559999</v>
       </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>16351241876.799999</v>
+      <c r="E7" s="6">
+        <v>16353715916.860001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,9 +637,8 @@
       <c r="D8" s="4">
         <v>12475038374.799999</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>16127227316.289999</v>
+      <c r="E8" s="6">
+        <v>16128472915.639999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,9 +654,8 @@
       <c r="D9" s="4">
         <v>12970168980.82</v>
       </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>16894210925.619999</v>
+      <c r="E9" s="6">
+        <v>16894209399.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,9 +671,8 @@
       <c r="D10" s="4">
         <v>12942973012.129999</v>
       </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>16864762411.98</v>
+      <c r="E10" s="6">
+        <v>16866249607.84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,9 +688,8 @@
       <c r="D11" s="4">
         <v>13480205460.32</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>17683853962.580002</v>
+      <c r="E11" s="6">
+        <v>17688324150.41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,9 +705,8 @@
       <c r="D12" s="4">
         <v>13443063041.030001</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>17795005221.620003</v>
+      <c r="E12" s="6">
+        <v>17923071029.040001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,9 +722,8 @@
       <c r="D13" s="4">
         <v>14814700195.870001</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>19628314376.709999</v>
+      <c r="E13" s="6">
+        <v>19745692900.110001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,9 +739,8 @@
       <c r="D14" s="4">
         <v>15090047197.559999</v>
       </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>20035126948.73</v>
+      <c r="E14" s="6">
+        <v>20267041386.439999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,9 +756,8 @@
       <c r="D15" s="4">
         <v>15034722562.559999</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>21163701726.799999</v>
+      <c r="E15" s="6">
+        <v>21387564452.41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,9 +773,8 @@
       <c r="D16" s="4">
         <v>15339223946.43</v>
       </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>21592868236.349998</v>
+      <c r="E16" s="6">
+        <v>21819610783.610001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,9 +790,8 @@
       <c r="D17" s="4">
         <v>15338075937.65</v>
       </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>21597393553.599998</v>
+      <c r="E17" s="6">
+        <v>21816060554.509998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,9 +807,8 @@
       <c r="D18" s="4">
         <v>15759188122.620001</v>
       </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>22196442158.830002</v>
+      <c r="E18" s="6">
+        <v>22413105188.220001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,9 +824,8 @@
       <c r="D19" s="4">
         <v>15817399042.18</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>22284623894.07</v>
+      <c r="E19" s="6">
+        <v>22493839425.220001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,9 +841,8 @@
       <c r="D20" s="4">
         <v>15518354156.139999</v>
       </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>21869129586.239998</v>
+      <c r="E20" s="6">
+        <v>22065970826.25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,9 +858,8 @@
       <c r="D21" s="4">
         <v>15643951036.32</v>
       </c>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>22052015022.439999</v>
+      <c r="E21" s="6">
+        <v>22243271723.279999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -884,9 +875,8 @@
       <c r="D22" s="4">
         <v>15501631744.309999</v>
       </c>
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>21857152498.610001</v>
+      <c r="E22" s="6">
+        <v>22038339344.779999</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -902,9 +892,8 @@
       <c r="D23" s="4">
         <v>15478669634.76</v>
       </c>
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>21890587182.540001</v>
+      <c r="E23" s="6">
+        <v>22063982782.810001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,9 +909,8 @@
       <c r="D24" s="4">
         <v>15988684918.42</v>
       </c>
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>22617832290.32</v>
+      <c r="E24" s="6">
+        <v>22788601216.389999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,9 +926,8 @@
       <c r="D25" s="4">
         <v>15838131556.610001</v>
       </c>
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>22404660643.810001</v>
+      <c r="E25" s="6">
+        <v>22571768582.060001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,9 +943,8 @@
       <c r="D26" s="4">
         <v>15979851739.540001</v>
       </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>22610566714.970001</v>
+      <c r="E26" s="6">
+        <v>22770641446.610001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -974,9 +960,8 @@
       <c r="D27" s="4">
         <v>16380190274.370001</v>
       </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>23182541487.510002</v>
+      <c r="E27" s="6">
+        <v>23343874256.349998</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -992,9 +977,8 @@
       <c r="D28" s="4">
         <v>16632293380.49</v>
       </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>23538890877.400002</v>
+      <c r="E28" s="6">
+        <v>23693195389.990002</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1010,9 +994,8 @@
       <c r="D29" s="4">
         <v>16525290668.17</v>
       </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>23568457835.099998</v>
+      <c r="E29" s="6">
+        <v>23713160769.549999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,9 +1011,8 @@
       <c r="D30" s="4">
         <v>16649048720.639999</v>
       </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>23750894239.669998</v>
+      <c r="E30" s="6">
+        <v>23887946423.189999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,9 +1028,8 @@
       <c r="D31" s="4">
         <v>16487003754.48</v>
       </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>23525188092.25</v>
+      <c r="E31" s="6">
+        <v>23651899276.939999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,9 +1045,8 @@
       <c r="D32" s="4">
         <v>16666683230.139999</v>
       </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>23966952669.709999</v>
+      <c r="E32" s="6">
+        <v>24086519588.93</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,9 +1062,8 @@
       <c r="D33" s="4">
         <v>16994661825.91</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>24445028323.779999</v>
+      <c r="E33" s="6">
+        <v>24558162120.060001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,9 +1079,8 @@
       <c r="D34" s="4">
         <v>17060740670.370001</v>
       </c>
-      <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>24546173849.48</v>
+      <c r="E34" s="6">
+        <v>25015915756.43</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,9 +1096,8 @@
       <c r="D35" s="4">
         <v>17161797379.67</v>
       </c>
-      <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>24697695785.049999</v>
+      <c r="E35" s="6">
+        <v>25163839720.75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,9 +1113,8 @@
       <c r="D36" s="4">
         <v>17142269583.370001</v>
       </c>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>24675625120.169998</v>
+      <c r="E36" s="6">
+        <v>25132160535.310001</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1154,9 +1130,8 @@
       <c r="D37" s="4">
         <v>17226232669.720001</v>
       </c>
-      <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>24802249901.279999</v>
+      <c r="E37" s="6">
+        <v>25253316422.189999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,9 +1147,8 @@
       <c r="D38" s="4">
         <v>17291185714.259998</v>
       </c>
-      <c r="E38" s="4">
-        <f t="shared" si="0"/>
-        <v>24895725823.459999</v>
+      <c r="E38" s="6">
+        <v>25341113989.419998</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,9 +1164,8 @@
       <c r="D39" s="4">
         <v>16688192891.540001</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" si="0"/>
-        <v>25170361391.66</v>
+      <c r="E39" s="6">
+        <v>26340904057.049999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1208,9 +1181,8 @@
       <c r="D40" s="4">
         <v>16760318931.09</v>
       </c>
-      <c r="E40" s="4">
-        <f t="shared" si="0"/>
-        <v>25279056931.75</v>
+      <c r="E40" s="6">
+        <v>26448664604.389999</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1226,9 +1198,8 @@
       <c r="D41" s="4">
         <v>16965972358.16</v>
       </c>
-      <c r="E41" s="4">
-        <f t="shared" si="0"/>
-        <v>25595461395.489998</v>
+      <c r="E41" s="6">
+        <v>26774219540.779999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,9 +1215,8 @@
       <c r="D42" s="4">
         <v>17344551325.700001</v>
       </c>
-      <c r="E42" s="4">
-        <f t="shared" si="0"/>
-        <v>26172807411.43</v>
+      <c r="E42" s="6">
+        <v>27370938269.490002</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,9 +1232,8 @@
       <c r="D43" s="4">
         <v>17009919681.780001</v>
       </c>
-      <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>25673836920.309998</v>
+      <c r="E43" s="6">
+        <v>26843159453.57</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,9 +1249,8 @@
       <c r="D44" s="4">
         <v>16655048859.379999</v>
       </c>
-      <c r="E44" s="4">
-        <f t="shared" si="0"/>
-        <v>25144097226.379997</v>
+      <c r="E44" s="6">
+        <v>26285588925.599998</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1298,9 +1266,8 @@
       <c r="D45" s="4">
         <v>16844754449.469999</v>
       </c>
-      <c r="E45" s="4">
-        <f t="shared" si="0"/>
-        <v>25436535483.029999</v>
+      <c r="E45" s="6">
+        <v>26583936144.66</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,9 +1283,8 @@
       <c r="D46" s="4">
         <v>16611704230.01</v>
       </c>
-      <c r="E46" s="4">
-        <f t="shared" si="0"/>
-        <v>25090551978.139999</v>
+      <c r="E46" s="6">
+        <v>26215467650.049999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1334,9 +1300,8 @@
       <c r="D47" s="4">
         <v>16745140477.25</v>
       </c>
-      <c r="E47" s="4">
-        <f t="shared" si="0"/>
-        <v>25528342822.260002</v>
+      <c r="E47" s="6">
+        <v>26666979339.290001</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1352,9 +1317,8 @@
       <c r="D48" s="4">
         <v>17068600956.34</v>
       </c>
-      <c r="E48" s="4">
-        <f t="shared" si="0"/>
-        <v>26027210514.610001</v>
+      <c r="E48" s="6">
+        <v>27180344781.830002</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,9 +1334,8 @@
       <c r="D49" s="4">
         <v>17048811459.129999</v>
       </c>
-      <c r="E49" s="4">
-        <f t="shared" si="0"/>
-        <v>26003668184.25</v>
+      <c r="E49" s="6">
+        <v>27150705221.450001</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,9 +1351,8 @@
       <c r="D50" s="4">
         <v>17124920453.700001</v>
       </c>
-      <c r="E50" s="4">
-        <f t="shared" si="0"/>
-        <v>26126136558.370003</v>
+      <c r="E50" s="6">
+        <v>27271110680.459999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1406,9 +1368,8 @@
       <c r="D51" s="4">
         <v>17108427415.48</v>
       </c>
-      <c r="E51" s="4">
-        <f t="shared" si="0"/>
-        <v>26107545286.209999</v>
+      <c r="E51" s="6">
+        <v>27243753241.869999</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,9 +1385,8 @@
       <c r="D52" s="4">
         <v>17452044700.369999</v>
       </c>
-      <c r="E52" s="4">
-        <f t="shared" si="0"/>
-        <v>26638014657</v>
+      <c r="E52" s="6">
+        <v>27791077338.189999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1442,9 +1402,8 @@
       <c r="D53" s="4">
         <v>17534458681.869999</v>
       </c>
-      <c r="E53" s="4">
-        <f t="shared" si="0"/>
-        <v>26769907188.32</v>
+      <c r="E53" s="6">
+        <v>27921060624.16</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1460,9 +1419,8 @@
       <c r="D54" s="4">
         <v>17527323843.169998</v>
       </c>
-      <c r="E54" s="4">
-        <f t="shared" si="0"/>
-        <v>26765961123.209999</v>
+      <c r="E54" s="6">
+        <v>27909404612.639999</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1478,9 +1436,8 @@
       <c r="D55" s="4">
         <v>17802031711.889999</v>
       </c>
-      <c r="E55" s="4">
-        <f t="shared" si="0"/>
-        <v>27191839755.379997</v>
+      <c r="E55" s="6">
+        <v>28354532374.73</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1496,9 +1453,8 @@
       <c r="D56" s="4">
         <v>17885536456.360001</v>
       </c>
-      <c r="E56" s="4">
-        <f t="shared" si="0"/>
-        <v>27325539811.990002</v>
+      <c r="E56" s="6">
+        <v>28489869257.919998</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1514,9 +1470,8 @@
       <c r="D57" s="4">
         <v>17771447283.099998</v>
       </c>
-      <c r="E57" s="4">
-        <f t="shared" si="0"/>
-        <v>27156693166.089996</v>
+      <c r="E57" s="6">
+        <v>28308010001.970001</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1532,9 +1487,8 @@
       <c r="D58" s="4">
         <v>18152061725.919998</v>
       </c>
-      <c r="E58" s="4">
-        <f t="shared" si="0"/>
-        <v>27744061638.859997</v>
+      <c r="E58" s="6">
+        <v>28917961679.599998</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1550,9 +1504,8 @@
       <c r="D59" s="4">
         <v>17760389482.459999</v>
       </c>
-      <c r="E59" s="4">
-        <f t="shared" si="0"/>
-        <v>27150516717.209999</v>
+      <c r="E59" s="6">
+        <v>28293891367.07</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,9 +1521,8 @@
       <c r="D60" s="4">
         <v>17913492320.950001</v>
       </c>
-      <c r="E60" s="4">
-        <f t="shared" si="0"/>
-        <v>27371582530.760002</v>
+      <c r="E60" s="6">
+        <v>28518964036.799999</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,9 +1538,8 @@
       <c r="D61" s="4">
         <v>18161633085.610001</v>
       </c>
-      <c r="E61" s="4">
-        <f t="shared" si="0"/>
-        <v>27755791534.099998</v>
+      <c r="E61" s="6">
+        <v>28914518945.389999</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,9 +1555,8 @@
       <c r="D62" s="4">
         <v>18347484059.09</v>
       </c>
-      <c r="E62" s="4">
-        <f t="shared" si="0"/>
-        <v>28782286672.540001</v>
+      <c r="E62" s="6">
+        <v>29933426906.93</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,9 +1572,8 @@
       <c r="D63" s="4">
         <v>18722609505.799999</v>
       </c>
-      <c r="E63" s="4">
-        <f t="shared" si="0"/>
-        <v>29377893373.27</v>
+      <c r="E63" s="6">
+        <v>30546096118.189999</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,9 +1589,8 @@
       <c r="D64" s="4">
         <v>18813632546.84</v>
       </c>
-      <c r="E64" s="4">
-        <f t="shared" si="0"/>
-        <v>29527582270.599998</v>
+      <c r="E64" s="6">
+        <v>30696855607.48</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1658,9 +1606,8 @@
       <c r="D65" s="4">
         <v>18773915353.099998</v>
       </c>
-      <c r="E65" s="4">
-        <f t="shared" si="0"/>
-        <v>29472066114.919998</v>
+      <c r="E65" s="6">
+        <v>30632004616.360001</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1676,9 +1623,8 @@
       <c r="D66" s="4">
         <v>18729047234.330002</v>
       </c>
-      <c r="E66" s="4">
-        <f t="shared" si="0"/>
-        <v>29408499309.230003</v>
+      <c r="E66" s="6">
+        <v>30559249675.119999</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,9 +1640,8 @@
       <c r="D67" s="4">
         <v>18647811742.490002</v>
       </c>
-      <c r="E67" s="4">
-        <f t="shared" ref="E67:E130" si="1">SUM(B67,C67,D67)</f>
-        <v>29287873259.310001</v>
+      <c r="E67" s="6">
+        <v>30428970231.220001</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1712,9 +1657,8 @@
       <c r="D68" s="4">
         <v>18237344817.240002</v>
       </c>
-      <c r="E68" s="4">
-        <f t="shared" si="1"/>
-        <v>28649880311.460003</v>
+      <c r="E68" s="6">
+        <v>29759345688.689999</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1730,9 +1674,8 @@
       <c r="D69" s="4">
         <v>18376949304.200001</v>
       </c>
-      <c r="E69" s="4">
-        <f t="shared" si="1"/>
-        <v>28876049490.889999</v>
+      <c r="E69" s="6">
+        <v>29987210157.07</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1748,9 +1691,8 @@
       <c r="D70" s="4">
         <v>17823822010.27</v>
       </c>
-      <c r="E70" s="4">
-        <f t="shared" si="1"/>
-        <v>28013794466.529999</v>
+      <c r="E70" s="6">
+        <v>29087224128.169998</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,9 +1708,8 @@
       <c r="D71" s="4">
         <v>17611674082.799999</v>
       </c>
-      <c r="E71" s="4">
-        <f t="shared" si="1"/>
-        <v>27687481033.779999</v>
+      <c r="E71" s="6">
+        <v>28741271523.360001</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,9 +1725,8 @@
       <c r="D72" s="4">
         <v>18048333376.560001</v>
       </c>
-      <c r="E72" s="4">
-        <f t="shared" si="1"/>
-        <v>28326214032.700001</v>
+      <c r="E72" s="6">
+        <v>29399949028.029999</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1802,9 +1742,8 @@
       <c r="D73" s="4">
         <v>17923305130.990002</v>
       </c>
-      <c r="E73" s="4">
-        <f t="shared" si="1"/>
-        <v>28136428854.080002</v>
+      <c r="E73" s="6">
+        <v>29197158765.16</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,9 +1759,8 @@
       <c r="D74" s="4">
         <v>17720678489.540001</v>
       </c>
-      <c r="E74" s="4">
-        <f t="shared" si="1"/>
-        <v>28846123319.360001</v>
+      <c r="E74" s="6">
+        <v>29885905466.18</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1838,9 +1776,8 @@
       <c r="D75" s="4">
         <v>17401580107.799999</v>
       </c>
-      <c r="E75" s="4">
-        <f t="shared" si="1"/>
-        <v>28336242435.290001</v>
+      <c r="E75" s="6">
+        <v>29353100386.619999</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,9 +1793,8 @@
       <c r="D76" s="4">
         <v>17468918255.400002</v>
       </c>
-      <c r="E76" s="4">
-        <f t="shared" si="1"/>
-        <v>28455548735.700001</v>
+      <c r="E76" s="6">
+        <v>29467835302.509998</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,9 +1810,8 @@
       <c r="D77" s="4">
         <v>18015825215.720001</v>
       </c>
-      <c r="E77" s="4">
-        <f t="shared" si="1"/>
-        <v>29356543183.02</v>
+      <c r="E77" s="6">
+        <v>30389909428.830002</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,9 +1827,8 @@
       <c r="D78" s="4">
         <v>18123427852.610001</v>
       </c>
-      <c r="E78" s="4">
-        <f t="shared" si="1"/>
-        <v>29541899253.779999</v>
+      <c r="E78" s="6">
+        <v>30575359781.75</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,9 +1844,8 @@
       <c r="D79" s="4">
         <v>18098420744.150002</v>
       </c>
-      <c r="E79" s="4">
-        <f t="shared" si="1"/>
-        <v>29511294102.970001</v>
+      <c r="E79" s="6">
+        <v>30535768990.07</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,9 +1861,8 @@
       <c r="D80" s="4">
         <v>18221304108.220001</v>
       </c>
-      <c r="E80" s="4">
-        <f t="shared" si="1"/>
-        <v>29721707293.18</v>
+      <c r="E80" s="6">
+        <v>30744352844.549999</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,9 +1878,8 @@
       <c r="D81" s="4">
         <v>18547786478.41</v>
       </c>
-      <c r="E81" s="4">
-        <f t="shared" si="1"/>
-        <v>30265017930.439999</v>
+      <c r="E81" s="6">
+        <v>31301432239.040001</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1964,9 +1895,8 @@
       <c r="D82" s="4">
         <v>18508832479.779999</v>
       </c>
-      <c r="E82" s="4">
-        <f t="shared" si="1"/>
-        <v>30212130836.659996</v>
+      <c r="E82" s="6">
+        <v>31237846759.509998</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1982,9 +1912,8 @@
       <c r="D83" s="4">
         <v>18773993442.110001</v>
       </c>
-      <c r="E83" s="4">
-        <f t="shared" si="1"/>
-        <v>31311065698.300003</v>
+      <c r="E83" s="6">
+        <v>32326760992.52</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2000,9 +1929,8 @@
       <c r="D84" s="4">
         <v>18430042970.950001</v>
       </c>
-      <c r="E84" s="4">
-        <f t="shared" si="1"/>
-        <v>30735579110.59</v>
+      <c r="E84" s="6">
+        <v>31730538776.110001</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2018,9 +1946,8 @@
       <c r="D85" s="4">
         <v>18157757460.240002</v>
       </c>
-      <c r="E85" s="4">
-        <f t="shared" si="1"/>
-        <v>30294027553</v>
+      <c r="E85" s="6">
+        <v>31285857687.939999</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,9 +1963,8 @@
       <c r="D86" s="4">
         <v>18519115493.09</v>
       </c>
-      <c r="E86" s="4">
-        <f t="shared" si="1"/>
-        <v>31134438714.84</v>
+      <c r="E86" s="6">
+        <v>32124148654.84</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2054,9 +1980,8 @@
       <c r="D87" s="4">
         <v>18672728045.689999</v>
       </c>
-      <c r="E87" s="4">
-        <f t="shared" si="1"/>
-        <v>31406508587.93</v>
+      <c r="E87" s="6">
+        <v>32552359403.169998</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,9 +1997,8 @@
       <c r="D88" s="4">
         <v>18935552854.389999</v>
       </c>
-      <c r="E88" s="4">
-        <f t="shared" si="1"/>
-        <v>31862808989.720001</v>
+      <c r="E88" s="6">
+        <v>33014243658.82</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,9 +2014,8 @@
       <c r="D89" s="4">
         <v>19799498475.639999</v>
       </c>
-      <c r="E89" s="4">
-        <f t="shared" si="1"/>
-        <v>34237099341.939999</v>
+      <c r="E89" s="6">
+        <v>35379767788.610001</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,9 +2031,8 @@
       <c r="D90" s="4">
         <v>20002234967.919998</v>
       </c>
-      <c r="E90" s="4">
-        <f t="shared" si="1"/>
-        <v>34601102374.349998</v>
+      <c r="E90" s="6">
+        <v>35747615697.139999</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2126,9 +2048,8 @@
       <c r="D91" s="4">
         <v>20236725707.75</v>
       </c>
-      <c r="E91" s="4">
-        <f t="shared" si="1"/>
-        <v>35025362965.57</v>
+      <c r="E91" s="6">
+        <v>36174501553.370003</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2144,9 +2065,8 @@
       <c r="D92" s="4">
         <v>20274704112.169998</v>
       </c>
-      <c r="E92" s="4">
-        <f t="shared" si="1"/>
-        <v>35106467417.43</v>
+      <c r="E92" s="6">
+        <v>36249436491.510002</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,9 +2082,8 @@
       <c r="D93" s="4">
         <v>20438444305.610001</v>
       </c>
-      <c r="E93" s="4">
-        <f t="shared" si="1"/>
-        <v>35405676882.5</v>
+      <c r="E93" s="6">
+        <v>36551051674.629997</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,9 +2099,8 @@
       <c r="D94" s="4">
         <v>20590369678.540001</v>
       </c>
-      <c r="E94" s="4">
-        <f t="shared" si="1"/>
-        <v>35685401140.059998</v>
+      <c r="E94" s="6">
+        <v>36829251113.449997</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,9 +2116,8 @@
       <c r="D95" s="4">
         <v>20690747320.220001</v>
       </c>
-      <c r="E95" s="4">
-        <f t="shared" si="1"/>
-        <v>35874830645.559998</v>
+      <c r="E95" s="6">
+        <v>37018338952.449997</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2216,9 +2133,8 @@
       <c r="D96" s="4">
         <v>20816031800.59</v>
       </c>
-      <c r="E96" s="4">
-        <f t="shared" si="1"/>
-        <v>36114807334.970001</v>
+      <c r="E96" s="6">
+        <v>37259533770.529999</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2234,9 +2150,8 @@
       <c r="D97" s="4">
         <v>21026669979.09</v>
       </c>
-      <c r="E97" s="4">
-        <f t="shared" si="1"/>
-        <v>36495501947.440002</v>
+      <c r="E97" s="6">
+        <v>37641705203.730003</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,9 +2167,8 @@
       <c r="D98" s="4">
         <v>24225492187.240002</v>
       </c>
-      <c r="E98" s="4">
-        <f t="shared" si="1"/>
-        <v>41855947325.630005</v>
+      <c r="E98" s="6">
+        <v>43166499653.269997</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2270,9 +2184,8 @@
       <c r="D99" s="4">
         <v>24550452831.880001</v>
       </c>
-      <c r="E99" s="4">
-        <f t="shared" si="1"/>
-        <v>42583608483.910004</v>
+      <c r="E99" s="6">
+        <v>42751912178.330002</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,9 +2201,8 @@
       <c r="D100" s="4">
         <v>23751543939.110001</v>
       </c>
-      <c r="E100" s="4">
-        <f t="shared" si="1"/>
-        <v>41211539283.339996</v>
+      <c r="E100" s="6">
+        <v>41366518430.559998</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,9 +2218,8 @@
       <c r="D101" s="4">
         <v>23895593642.490002</v>
       </c>
-      <c r="E101" s="4">
-        <f t="shared" si="1"/>
-        <v>41345361923.699997</v>
+      <c r="E101" s="6">
+        <v>41486713506.300003</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,9 +2235,8 @@
       <c r="D102" s="4">
         <v>23668065334.799999</v>
       </c>
-      <c r="E102" s="4">
-        <f t="shared" si="1"/>
-        <v>41046653376.559998</v>
+      <c r="E102" s="6">
+        <v>41175802555.07</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,9 +2252,8 @@
       <c r="D103" s="4">
         <v>23850014619.049999</v>
       </c>
-      <c r="E103" s="4">
-        <f t="shared" si="1"/>
-        <v>41313125652.080002</v>
+      <c r="E103" s="6">
+        <v>41428224342.330002</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,9 +2269,8 @@
       <c r="D104" s="4">
         <v>23743724505.990002</v>
       </c>
-      <c r="E104" s="4">
-        <f t="shared" si="1"/>
-        <v>41120926179.029999</v>
+      <c r="E104" s="6">
+        <v>41224185690.82</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,9 +2286,8 @@
       <c r="D105" s="4">
         <v>23810476668.130001</v>
       </c>
-      <c r="E105" s="4">
-        <f t="shared" si="1"/>
-        <v>41384483579.770004</v>
+      <c r="E105" s="6">
+        <v>41475360457.82</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,9 +2303,8 @@
       <c r="D106" s="4">
         <v>23982305364.470001</v>
       </c>
-      <c r="E106" s="4">
-        <f t="shared" si="1"/>
-        <v>41662699191.550003</v>
+      <c r="E106" s="6">
+        <v>41740319574.540001</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,9 +2320,8 @@
       <c r="D107" s="4">
         <v>23633877037.77</v>
       </c>
-      <c r="E107" s="4">
-        <f t="shared" si="1"/>
-        <v>41186844593.330002</v>
+      <c r="E107" s="6">
+        <v>41252645889.400002</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2432,9 +2337,8 @@
       <c r="D108" s="4">
         <v>22616086896.59</v>
       </c>
-      <c r="E108" s="4">
-        <f t="shared" si="1"/>
-        <v>39382932997.410004</v>
+      <c r="E108" s="6">
+        <v>39435224202.080002</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2450,9 +2354,8 @@
       <c r="D109" s="4">
         <v>22855316166.619999</v>
       </c>
-      <c r="E109" s="4">
-        <f t="shared" si="1"/>
-        <v>39775062674.709999</v>
+      <c r="E109" s="6">
+        <v>39813239334.160004</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2468,9 +2371,8 @@
       <c r="D110" s="4">
         <v>22914691512.650002</v>
       </c>
-      <c r="E110" s="4">
-        <f t="shared" si="1"/>
-        <v>39522884974.100006</v>
+      <c r="E110" s="6">
+        <v>39549019974.790001</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,9 +2388,8 @@
       <c r="D111" s="4">
         <v>23486649000.34</v>
       </c>
-      <c r="E111" s="4">
-        <f t="shared" si="1"/>
-        <v>40669954095.649994</v>
+      <c r="E111" s="6">
+        <v>40850732071.199997</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2504,9 +2405,8 @@
       <c r="D112" s="4">
         <v>23478741957.66</v>
       </c>
-      <c r="E112" s="4">
-        <f t="shared" si="1"/>
-        <v>40797714345.529999</v>
+      <c r="E112" s="6">
+        <v>40964178030.480003</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2522,9 +2422,8 @@
       <c r="D113" s="4">
         <v>24171159309.130001</v>
       </c>
-      <c r="E113" s="4">
-        <f t="shared" si="1"/>
-        <v>41816004324.669998</v>
+      <c r="E113" s="6">
+        <v>41967922183.889999</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,9 +2439,8 @@
       <c r="D114" s="4">
         <v>24607805892.509998</v>
       </c>
-      <c r="E114" s="4">
-        <f t="shared" si="1"/>
-        <v>42743010048.029999</v>
+      <c r="E114" s="6">
+        <v>42878715782.690002</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2558,9 +2456,8 @@
       <c r="D115" s="4">
         <v>25031219112.639999</v>
       </c>
-      <c r="E115" s="4">
-        <f t="shared" si="1"/>
-        <v>43049509347.520004</v>
+      <c r="E115" s="6">
+        <v>43167491096.489998</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2576,9 +2473,8 @@
       <c r="D116" s="4">
         <v>25624099438.360001</v>
       </c>
-      <c r="E116" s="4">
-        <f t="shared" si="1"/>
-        <v>44201801916.779999</v>
+      <c r="E116" s="6">
+        <v>44307261973.309998</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2594,9 +2490,8 @@
       <c r="D117" s="4">
         <v>25654690308.73</v>
       </c>
-      <c r="E117" s="4">
-        <f t="shared" si="1"/>
-        <v>44289184114.949997</v>
+      <c r="E117" s="6">
+        <v>44378304805.099998</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2612,9 +2507,8 @@
       <c r="D118" s="4">
         <v>27075142517.599998</v>
       </c>
-      <c r="E118" s="4">
-        <f t="shared" si="1"/>
-        <v>46120218348.729996</v>
+      <c r="E118" s="6">
+        <v>46193639398.860001</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2630,9 +2524,8 @@
       <c r="D119" s="4">
         <v>26732490993.099998</v>
       </c>
-      <c r="E119" s="4">
-        <f t="shared" si="1"/>
-        <v>46949500920.5</v>
+      <c r="E119" s="6">
+        <v>47008302558.07</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2648,9 +2541,8 @@
       <c r="D120" s="4">
         <v>26631956752.709999</v>
       </c>
-      <c r="E120" s="4">
-        <f t="shared" si="1"/>
-        <v>46865616845.860001</v>
+      <c r="E120" s="6">
+        <v>46907079969.540001</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2666,9 +2558,8 @@
       <c r="D121" s="4">
         <v>26718171624.689999</v>
       </c>
-      <c r="E121" s="4">
-        <f t="shared" si="1"/>
-        <v>47123526214.259995</v>
+      <c r="E121" s="6">
+        <v>47150658599.190002</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,9 +2575,8 @@
       <c r="D122" s="4">
         <v>25905410180.560001</v>
       </c>
-      <c r="E122" s="4">
-        <f t="shared" si="1"/>
-        <v>46141543427.790001</v>
+      <c r="E122" s="6">
+        <v>46150559028.18</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2702,9 +2592,8 @@
       <c r="D123" s="4">
         <v>26801714204.060001</v>
       </c>
-      <c r="E123" s="4">
-        <f t="shared" si="1"/>
-        <v>47197571777.949997</v>
+      <c r="E123" s="6">
+        <v>47370213576.629997</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2720,9 +2609,8 @@
       <c r="D124" s="4">
         <v>27210513709.580002</v>
       </c>
-      <c r="E124" s="4">
-        <f t="shared" si="1"/>
-        <v>47123736418.860001</v>
+      <c r="E124" s="6">
+        <v>47281129537.769997</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,9 +2626,8 @@
       <c r="D125" s="4">
         <v>26774758277.919998</v>
       </c>
-      <c r="E125" s="4">
-        <f t="shared" si="1"/>
-        <v>45203938859.300003</v>
+      <c r="E125" s="6">
+        <v>45345592259.529999</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2756,9 +2643,8 @@
       <c r="D126" s="4">
         <v>27673823035.060001</v>
       </c>
-      <c r="E126" s="4">
-        <f t="shared" si="1"/>
-        <v>47063924664.940002</v>
+      <c r="E126" s="6">
+        <v>47191532640.580002</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2774,9 +2660,8 @@
       <c r="D127" s="4">
         <v>27458625451.310001</v>
       </c>
-      <c r="E127" s="4">
-        <f t="shared" si="1"/>
-        <v>47081053140.339996</v>
+      <c r="E127" s="6">
+        <v>47196090458.669998</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2792,9 +2677,8 @@
       <c r="D128" s="4">
         <v>27604176824.200001</v>
       </c>
-      <c r="E128" s="4">
-        <f t="shared" si="1"/>
-        <v>47426479912.610001</v>
+      <c r="E128" s="6">
+        <v>47527020139.510002</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2810,9 +2694,8 @@
       <c r="D129" s="4">
         <v>28739709723.02</v>
       </c>
-      <c r="E129" s="4">
-        <f t="shared" si="1"/>
-        <v>49195581002.360001</v>
+      <c r="E129" s="6">
+        <v>49282616614.589996</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2828,9 +2711,8 @@
       <c r="D130" s="4">
         <v>28157559771.860001</v>
       </c>
-      <c r="E130" s="4">
-        <f t="shared" si="1"/>
-        <v>48906000373.669998</v>
+      <c r="E130" s="6">
+        <v>48979061078.919998</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2846,9 +2728,8 @@
       <c r="D131" s="4">
         <v>27927113005.669998</v>
       </c>
-      <c r="E131" s="4">
-        <f t="shared" ref="E131:E146" si="2">SUM(B131,C131,D131)</f>
-        <v>49328610123.339996</v>
+      <c r="E131" s="6">
+        <v>49388119184.849998</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2864,9 +2745,8 @@
       <c r="D132" s="4">
         <v>27087051809.869999</v>
       </c>
-      <c r="E132" s="4">
-        <f t="shared" si="2"/>
-        <v>48025973012.379997</v>
+      <c r="E132" s="6">
+        <v>48069804046.82</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2882,9 +2762,8 @@
       <c r="D133" s="4">
         <v>28190375144.73</v>
       </c>
-      <c r="E133" s="4">
-        <f t="shared" si="2"/>
-        <v>50439922757.960007</v>
+      <c r="E133" s="6">
+        <v>50470492262.639999</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2900,9 +2779,8 @@
       <c r="D134" s="4">
         <v>28978673408.57</v>
       </c>
-      <c r="E134" s="4">
-        <f t="shared" si="2"/>
-        <v>52788406154.489998</v>
+      <c r="E134" s="6">
+        <v>52801012910.010002</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,9 +2796,8 @@
       <c r="D135" s="4">
         <v>28129381368.68</v>
       </c>
-      <c r="E135" s="4">
-        <f t="shared" si="2"/>
-        <v>51587924289.860001</v>
+      <c r="E135" s="6">
+        <v>51762344845.860001</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2936,9 +2813,8 @@
       <c r="D136" s="4">
         <v>27127339708.720001</v>
       </c>
-      <c r="E136" s="4">
-        <f t="shared" si="2"/>
-        <v>50499267741.220001</v>
+      <c r="E136" s="6">
+        <v>50659125506.099998</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,9 +2830,8 @@
       <c r="D137" s="4">
         <v>26762917954.490002</v>
       </c>
-      <c r="E137" s="4">
-        <f t="shared" si="2"/>
-        <v>50392639291.639999</v>
+      <c r="E137" s="6">
+        <v>50536388590.989998</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2972,9 +2847,8 @@
       <c r="D138" s="4">
         <v>27451228205.639999</v>
       </c>
-      <c r="E138" s="4">
-        <f t="shared" si="2"/>
-        <v>51700906918.139999</v>
+      <c r="E138" s="6">
+        <v>51828094181.730003</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,9 +2864,8 @@
       <c r="D139" s="4">
         <v>27744608720.27</v>
       </c>
-      <c r="E139" s="4">
-        <f t="shared" si="2"/>
-        <v>52378479915.339996</v>
+      <c r="E139" s="6">
+        <v>52490521588.400002</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,9 +2881,8 @@
       <c r="D140" s="4">
         <v>28450323789.220001</v>
       </c>
-      <c r="E140" s="4">
-        <f t="shared" si="2"/>
-        <v>53479086658.270004</v>
+      <c r="E140" s="6">
+        <v>53576258408.43</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3026,9 +2898,8 @@
       <c r="D141" s="4">
         <v>29059023657.560001</v>
       </c>
-      <c r="E141" s="4">
-        <f t="shared" si="2"/>
-        <v>54428674790.350006</v>
+      <c r="E141" s="6">
+        <v>54510167608.660004</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,9 +2915,8 @@
       <c r="D142" s="4">
         <v>29181824781.040001</v>
       </c>
-      <c r="E142" s="4">
-        <f t="shared" si="2"/>
-        <v>54870263825.589996</v>
+      <c r="E142" s="6">
+        <v>54935083399.82</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,9 +2932,8 @@
       <c r="D143" s="4">
         <v>28189152287.09</v>
       </c>
-      <c r="E143" s="4">
-        <f t="shared" si="2"/>
-        <v>52900976752.919998</v>
+      <c r="E143" s="6">
+        <v>52951714531.589996</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3080,9 +2949,8 @@
       <c r="D144" s="4">
         <v>28782352603.84</v>
       </c>
-      <c r="E144" s="4">
-        <f t="shared" si="2"/>
-        <v>54300695591.470001</v>
+      <c r="E144" s="6">
+        <v>54334479694.480003</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3098,9 +2966,8 @@
       <c r="D145" s="4">
         <v>29177585592.27</v>
       </c>
-      <c r="E145" s="4">
-        <f t="shared" si="2"/>
-        <v>55089285603.900002</v>
+      <c r="E145" s="6">
+        <v>55103752896.349998</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3116,9 +2983,8 @@
       <c r="D146" s="4">
         <v>29368978607.23</v>
       </c>
-      <c r="E146" s="4">
-        <f t="shared" si="2"/>
-        <v>55524799409.729996</v>
+      <c r="E146" s="6">
+        <v>55592907273.010002</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3128,6 +2994,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A142">
     <sortCondition ref="A1"/>
   </sortState>
+  <conditionalFormatting sqref="E3:E146">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3137,7 +3008,7 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3174,9 +3045,6 @@
       <c r="D2">
         <v>-3.8365000000000003E-2</v>
       </c>
-      <c r="E2">
-        <v>-3.8365000000000003E-2</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -3191,9 +3059,6 @@
       <c r="D3">
         <v>-7.5599999999999999E-3</v>
       </c>
-      <c r="E3">
-        <v>-7.5599999999999999E-3</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -3208,9 +3073,6 @@
       <c r="D4">
         <v>-6.9950000000000003E-3</v>
       </c>
-      <c r="E4">
-        <v>-6.9950000000000003E-3</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -3225,9 +3087,6 @@
       <c r="D5">
         <v>2.7694E-2</v>
       </c>
-      <c r="E5">
-        <v>2.7694E-2</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -3242,9 +3101,6 @@
       <c r="D6">
         <v>7.6380000000000007E-3</v>
       </c>
-      <c r="E6">
-        <v>7.6380000000000007E-3</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -3259,9 +3115,6 @@
       <c r="D7">
         <v>-4.6011000000000003E-2</v>
       </c>
-      <c r="E7">
-        <v>-4.6011000000000003E-2</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -3276,9 +3129,6 @@
       <c r="D8">
         <v>-1.4590000000000001E-2</v>
       </c>
-      <c r="E8">
-        <v>-1.4590000000000001E-2</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3293,9 +3143,6 @@
       <c r="D9">
         <v>5.04E-4</v>
       </c>
-      <c r="E9">
-        <v>5.04E-4</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -3310,9 +3157,6 @@
       <c r="D10">
         <v>-7.9836000000000004E-2</v>
       </c>
-      <c r="E10">
-        <v>-7.9836000000000004E-2</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -3327,9 +3171,6 @@
       <c r="D11">
         <v>-0.121084</v>
       </c>
-      <c r="E11">
-        <v>-0.121084</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -3344,9 +3185,6 @@
       <c r="D12">
         <v>-1.4885000000000001E-2</v>
       </c>
-      <c r="E12">
-        <v>-1.4885000000000001E-2</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -3361,9 +3199,6 @@
       <c r="D13">
         <v>2.8576000000000001E-2</v>
       </c>
-      <c r="E13">
-        <v>2.8576000000000001E-2</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -3378,9 +3213,6 @@
       <c r="D14">
         <v>-5.5410000000000001E-2</v>
       </c>
-      <c r="E14">
-        <v>-5.5410000000000001E-2</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -3395,9 +3227,6 @@
       <c r="D15">
         <v>-5.4608999999999998E-2</v>
       </c>
-      <c r="E15">
-        <v>-5.4608999999999998E-2</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -3412,9 +3241,6 @@
       <c r="D16">
         <v>2.3186999999999999E-2</v>
       </c>
-      <c r="E16">
-        <v>2.3186999999999999E-2</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3429,9 +3255,6 @@
       <c r="D17">
         <v>4.6708999999999987E-2</v>
       </c>
-      <c r="E17">
-        <v>4.6708999999999987E-2</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3446,9 +3269,6 @@
       <c r="D18">
         <v>4.0049000000000001E-2</v>
       </c>
-      <c r="E18">
-        <v>4.0049000000000001E-2</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3463,9 +3283,6 @@
       <c r="D19">
         <v>3.3969999999999998E-3</v>
       </c>
-      <c r="E19">
-        <v>3.3969999999999998E-3</v>
-      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -3480,9 +3297,6 @@
       <c r="D20">
         <v>5.4760999999999997E-2</v>
       </c>
-      <c r="E20">
-        <v>5.4760999999999997E-2</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -3497,9 +3311,6 @@
       <c r="D21">
         <v>2.6283999999999998E-2</v>
       </c>
-      <c r="E21">
-        <v>2.6283999999999998E-2</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -3514,9 +3325,6 @@
       <c r="D22">
         <v>3.2212999999999999E-2</v>
       </c>
-      <c r="E22">
-        <v>3.2212999999999999E-2</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -3531,9 +3339,6 @@
       <c r="D23">
         <v>-1.3511E-2</v>
       </c>
-      <c r="E23">
-        <v>-1.3511E-2</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -3548,9 +3353,6 @@
       <c r="D24">
         <v>2.9205999999999999E-2</v>
       </c>
-      <c r="E24">
-        <v>2.9205999999999999E-2</v>
-      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -3565,9 +3367,6 @@
       <c r="D25">
         <v>1.2245000000000001E-2</v>
       </c>
-      <c r="E25">
-        <v>1.2245000000000001E-2</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -3583,7 +3382,7 @@
         <v>-1.3906E-2</v>
       </c>
       <c r="E26">
-        <v>-1.3906E-2</v>
+        <v>-1.3837E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3600,7 +3399,7 @@
         <v>1.3596E-2</v>
       </c>
       <c r="E27">
-        <v>1.3596E-2</v>
+        <v>1.3509E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3617,7 +3416,7 @@
         <v>3.9373999999999999E-2</v>
       </c>
       <c r="E28">
-        <v>3.9373999999999999E-2</v>
+        <v>3.9177999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3634,7 +3433,7 @@
         <v>2.1406000000000001E-2</v>
       </c>
       <c r="E29">
-        <v>2.1406000000000001E-2</v>
+        <v>2.1305999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3651,7 +3450,7 @@
         <v>-4.2691999999999987E-2</v>
       </c>
       <c r="E30">
-        <v>-4.2691999999999987E-2</v>
+        <v>-4.2678000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3668,7 +3467,7 @@
         <v>-1.0512000000000001E-2</v>
       </c>
       <c r="E31">
-        <v>-1.0512000000000001E-2</v>
+        <v>-1.0489E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3685,7 +3484,7 @@
         <v>4.3425000000000012E-2</v>
       </c>
       <c r="E32">
-        <v>4.3425000000000012E-2</v>
+        <v>4.3232E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3719,7 +3518,7 @@
         <v>4.5331000000000003E-2</v>
       </c>
       <c r="E34">
-        <v>4.5331000000000003E-2</v>
+        <v>4.5309000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3736,7 +3535,7 @@
         <v>9.7619999999999998E-3</v>
       </c>
       <c r="E35">
-        <v>9.7619999999999998E-3</v>
+        <v>9.836000000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3753,7 +3552,7 @@
         <v>-6.3109999999999998E-3</v>
       </c>
       <c r="E36">
-        <v>-6.3109999999999998E-3</v>
+        <v>-6.3090000000000004E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3770,7 +3569,7 @@
         <v>2.9354000000000002E-2</v>
       </c>
       <c r="E37">
-        <v>2.9354000000000002E-2</v>
+        <v>2.9333000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3787,7 +3586,7 @@
         <v>-1.1150000000000001E-3</v>
       </c>
       <c r="E38">
-        <v>-1.1150000000000001E-3</v>
+        <v>-1.1199999999999999E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3804,7 +3603,7 @@
         <v>2.3307999999999999E-2</v>
       </c>
       <c r="E39">
-        <v>2.3307999999999999E-2</v>
+        <v>2.3299E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3821,7 +3620,7 @@
         <v>2.4940000000000001E-3</v>
       </c>
       <c r="E40">
-        <v>2.4940000000000001E-3</v>
+        <v>2.493E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3838,7 +3637,7 @@
         <v>3.0134000000000001E-2</v>
       </c>
       <c r="E41">
-        <v>3.0134000000000001E-2</v>
+        <v>3.0117000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3855,7 +3654,7 @@
         <v>6.2509999999999996E-3</v>
       </c>
       <c r="E42">
-        <v>6.2509999999999996E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3872,7 +3671,7 @@
         <v>-1.6388E-2</v>
       </c>
       <c r="E43">
-        <v>-1.6388E-2</v>
+        <v>-1.6386000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,7 +3688,7 @@
         <v>1.0779E-2</v>
       </c>
       <c r="E44">
-        <v>1.0779E-2</v>
+        <v>1.0776000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3923,7 +3722,7 @@
         <v>1.2030000000000001E-3</v>
       </c>
       <c r="E46">
-        <v>1.2030000000000001E-3</v>
+        <v>1.2019999999999999E-3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3940,7 +3739,7 @@
         <v>3.5729999999999998E-2</v>
       </c>
       <c r="E47">
-        <v>3.5729999999999998E-2</v>
+        <v>3.5721999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3957,7 +3756,7 @@
         <v>-6.8320000000000004E-3</v>
       </c>
       <c r="E48">
-        <v>-6.8320000000000004E-3</v>
+        <v>-6.8300000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3974,7 +3773,7 @@
         <v>1.1629E-2</v>
       </c>
       <c r="E49">
-        <v>1.1629E-2</v>
+        <v>1.1625999999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3991,7 +3790,7 @@
         <v>2.7751000000000001E-2</v>
       </c>
       <c r="E50">
-        <v>2.7751000000000001E-2</v>
+        <v>2.7740999999999998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4008,7 +3807,7 @@
         <v>1.8407E-2</v>
       </c>
       <c r="E51">
-        <v>1.8407E-2</v>
+        <v>1.84E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4025,7 +3824,7 @@
         <v>-3.8400000000000001E-3</v>
       </c>
       <c r="E52">
-        <v>-3.8400000000000001E-3</v>
+        <v>-3.8370000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,7 +3841,7 @@
         <v>1.0168999999999999E-2</v>
       </c>
       <c r="E53">
-        <v>1.0168999999999999E-2</v>
+        <v>1.0167000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4059,7 +3858,7 @@
         <v>-7.1130000000000004E-3</v>
       </c>
       <c r="E54">
-        <v>-7.1130000000000004E-3</v>
+        <v>-7.1209999999999997E-3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4076,7 +3875,7 @@
         <v>1.3662000000000001E-2</v>
       </c>
       <c r="E55">
-        <v>1.3662000000000001E-2</v>
+        <v>1.3651999999999999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4093,7 +3892,7 @@
         <v>2.2415000000000001E-2</v>
       </c>
       <c r="E56">
-        <v>2.2415000000000001E-2</v>
+        <v>2.2415999999999998E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4110,7 +3909,7 @@
         <v>6.5459999999999997E-3</v>
       </c>
       <c r="E57">
-        <v>6.5459999999999997E-3</v>
+        <v>6.5420000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4127,7 +3926,7 @@
         <v>8.5970000000000005E-3</v>
       </c>
       <c r="E58">
-        <v>8.5970000000000005E-3</v>
+        <v>8.5830000000000004E-3</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4161,7 +3960,7 @@
         <v>7.5709999999999996E-3</v>
       </c>
       <c r="E60">
-        <v>7.5709999999999996E-3</v>
+        <v>7.5690000000000002E-3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4178,7 +3977,7 @@
         <v>8.1650000000000004E-3</v>
       </c>
       <c r="E61">
-        <v>8.1650000000000004E-3</v>
+        <v>8.1620000000000009E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4195,7 +3994,7 @@
         <v>1.3455999999999999E-2</v>
       </c>
       <c r="E62">
-        <v>1.3455999999999999E-2</v>
+        <v>1.3466000000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4212,7 +4011,7 @@
         <v>7.4700000000000001E-3</v>
       </c>
       <c r="E63">
-        <v>7.4700000000000001E-3</v>
+        <v>7.4550000000000007E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4229,7 +4028,7 @@
         <v>1.5023999999999999E-2</v>
       </c>
       <c r="E64">
-        <v>1.5023999999999999E-2</v>
+        <v>1.5018E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4246,7 +4045,7 @@
         <v>2.5086000000000001E-2</v>
       </c>
       <c r="E65">
-        <v>2.5086000000000001E-2</v>
+        <v>2.5075E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4263,7 +4062,7 @@
         <v>-1.6670000000000001E-2</v>
       </c>
       <c r="E66">
-        <v>-1.6670000000000001E-2</v>
+        <v>-1.6662E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4280,7 +4079,7 @@
         <v>-1.8159999999999999E-2</v>
       </c>
       <c r="E67">
-        <v>-1.8159999999999999E-2</v>
+        <v>-1.8151E-2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4297,7 +4096,7 @@
         <v>1.4252000000000001E-2</v>
       </c>
       <c r="E68">
-        <v>1.4252000000000001E-2</v>
+        <v>1.4245000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4314,7 +4113,7 @@
         <v>-1.1036000000000001E-2</v>
       </c>
       <c r="E69">
-        <v>-1.1036000000000001E-2</v>
+        <v>-1.1030999999999999E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4331,7 +4130,7 @@
         <v>2.0114E-2</v>
       </c>
       <c r="E70">
-        <v>2.0114E-2</v>
+        <v>2.0105000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4348,7 +4147,7 @@
         <v>2.2227E-2</v>
       </c>
       <c r="E71">
-        <v>2.2227E-2</v>
+        <v>2.2217000000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4365,7 +4164,7 @@
         <v>1.66E-3</v>
       </c>
       <c r="E72">
-        <v>1.66E-3</v>
+        <v>1.658E-3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4382,7 +4181,7 @@
         <v>7.3099999999999997E-3</v>
       </c>
       <c r="E73">
-        <v>7.3099999999999997E-3</v>
+        <v>7.3070000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4399,7 +4198,7 @@
         <v>1.8710000000000001E-3</v>
       </c>
       <c r="E74">
-        <v>1.8710000000000001E-3</v>
+        <v>1.869E-3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4416,7 +4215,7 @@
         <v>2.2973E-2</v>
       </c>
       <c r="E75">
-        <v>2.2973E-2</v>
+        <v>2.2942000000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4433,7 +4232,7 @@
         <v>7.5810000000000001E-3</v>
       </c>
       <c r="E76">
-        <v>7.5810000000000001E-3</v>
+        <v>7.5789999999999998E-3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4450,7 +4249,7 @@
         <v>2.565E-3</v>
       </c>
       <c r="E77">
-        <v>2.565E-3</v>
+        <v>2.562E-3</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4467,7 +4266,7 @@
         <v>1.8616000000000001E-2</v>
       </c>
       <c r="E78">
-        <v>1.8616000000000001E-2</v>
+        <v>1.8600999999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4484,7 +4283,7 @@
         <v>7.5900000000000004E-3</v>
       </c>
       <c r="E79">
-        <v>7.5900000000000004E-3</v>
+        <v>7.5860000000000007E-3</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4501,7 +4300,7 @@
         <v>-3.5339999999999998E-3</v>
       </c>
       <c r="E80">
-        <v>-3.5339999999999998E-3</v>
+        <v>-3.5330000000000001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4518,7 +4317,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
       <c r="E81">
-        <v>2.4400000000000002E-2</v>
+        <v>2.4381E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4535,7 +4334,7 @@
         <v>-1.8789E-2</v>
       </c>
       <c r="E82">
-        <v>-1.8789E-2</v>
+        <v>-1.8783000000000001E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4552,7 +4351,7 @@
         <v>1.2253999999999999E-2</v>
       </c>
       <c r="E83">
-        <v>1.2253999999999999E-2</v>
+        <v>1.2241999999999999E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4569,7 +4368,7 @@
         <v>1.6820000000000002E-2</v>
       </c>
       <c r="E84">
-        <v>1.6820000000000002E-2</v>
+        <v>1.6805E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4586,7 +4385,7 @@
         <v>2.0799999999999998E-3</v>
       </c>
       <c r="E85">
-        <v>2.0799999999999998E-3</v>
+        <v>2.0760000000000002E-3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,7 +4402,7 @@
         <v>2.3349999999999999E-2</v>
       </c>
       <c r="E86">
-        <v>2.3349999999999999E-2</v>
+        <v>2.3331999999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4620,7 +4419,7 @@
         <v>7.6709999999999999E-3</v>
       </c>
       <c r="E87">
-        <v>7.6709999999999999E-3</v>
+        <v>7.6680000000000003E-3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4637,7 +4436,7 @@
         <v>7.2499999999999995E-4</v>
       </c>
       <c r="E88">
-        <v>7.2499999999999995E-4</v>
+        <v>7.2599999999999997E-4</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4671,7 +4470,7 @@
         <v>-1.4469999999999999E-3</v>
       </c>
       <c r="E90">
-        <v>-1.4469999999999999E-3</v>
+        <v>-1.446E-3</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4688,7 +4487,7 @@
         <v>-1.9127000000000002E-2</v>
       </c>
       <c r="E91">
-        <v>-1.9127000000000002E-2</v>
+        <v>-1.9115E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4705,7 +4504,7 @@
         <v>1.0714E-2</v>
       </c>
       <c r="E92">
-        <v>1.0714E-2</v>
+        <v>1.0707E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4722,7 +4521,7 @@
         <v>-2.7125E-2</v>
       </c>
       <c r="E93">
-        <v>-2.7125E-2</v>
+        <v>-2.7105000000000001E-2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4739,7 +4538,7 @@
         <v>-8.7589999999999994E-3</v>
       </c>
       <c r="E94">
-        <v>-8.7589999999999994E-3</v>
+        <v>-8.7519999999999994E-3</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4756,7 +4555,7 @@
         <v>2.8798000000000001E-2</v>
       </c>
       <c r="E95">
-        <v>2.8798000000000001E-2</v>
+        <v>2.8750999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4773,7 +4572,7 @@
         <v>-3.8070000000000001E-3</v>
       </c>
       <c r="E96">
-        <v>-3.8070000000000001E-3</v>
+        <v>-3.81E-3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4790,7 +4589,7 @@
         <v>-8.1840000000000003E-3</v>
       </c>
       <c r="E97">
-        <v>-8.1840000000000003E-3</v>
+        <v>-8.1759999999999992E-3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,7 +4606,7 @@
         <v>-1.4826000000000001E-2</v>
       </c>
       <c r="E98">
-        <v>-1.4826000000000001E-2</v>
+        <v>-1.4812000000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,7 +4623,7 @@
         <v>7.1509999999999994E-3</v>
       </c>
       <c r="E99">
-        <v>7.1509999999999994E-3</v>
+        <v>7.143E-3</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4841,7 +4640,7 @@
         <v>3.4733E-2</v>
       </c>
       <c r="E100">
-        <v>3.4733E-2</v>
+        <v>3.4698E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4858,7 +4657,7 @@
         <v>9.2420000000000002E-3</v>
       </c>
       <c r="E101">
-        <v>9.2420000000000002E-3</v>
+        <v>9.2370000000000004E-3</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4875,7 +4674,7 @@
         <v>1.884E-3</v>
       </c>
       <c r="E102">
-        <v>1.884E-3</v>
+        <v>1.882E-3</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4892,7 +4691,7 @@
         <v>1.013E-2</v>
       </c>
       <c r="E103">
-        <v>1.013E-2</v>
+        <v>1.0104999999999999E-2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,7 +4708,7 @@
         <v>2.1264000000000002E-2</v>
       </c>
       <c r="E104">
-        <v>2.1264000000000002E-2</v>
+        <v>2.1250000000000002E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4926,7 +4725,7 @@
         <v>1.1460000000000001E-3</v>
       </c>
       <c r="E105">
-        <v>1.1460000000000001E-3</v>
+        <v>1.145E-3</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4943,7 +4742,7 @@
         <v>8.3000000000000001E-4</v>
       </c>
       <c r="E106">
-        <v>8.3000000000000001E-4</v>
+        <v>8.2899999999999998E-4</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4960,7 +4759,7 @@
         <v>-1.1778E-2</v>
       </c>
       <c r="E107">
-        <v>-1.1778E-2</v>
+        <v>-1.1769E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4977,7 +4776,7 @@
         <v>-1.1501000000000001E-2</v>
       </c>
       <c r="E108">
-        <v>-1.1501000000000001E-2</v>
+        <v>-1.1490999999999999E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4994,7 +4793,7 @@
         <v>1.0142999999999999E-2</v>
       </c>
       <c r="E109">
-        <v>1.0142999999999999E-2</v>
+        <v>1.0137E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5011,7 +4810,7 @@
         <v>1.1658E-2</v>
       </c>
       <c r="E110">
-        <v>1.1658E-2</v>
+        <v>1.1643000000000001E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5028,7 +4827,7 @@
         <v>1.7676999999999998E-2</v>
       </c>
       <c r="E111">
-        <v>1.7676999999999998E-2</v>
+        <v>1.7583000000000001E-2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5045,7 +4844,7 @@
         <v>5.195E-3</v>
       </c>
       <c r="E112">
-        <v>5.195E-3</v>
+        <v>5.1739999999999998E-3</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5062,7 +4861,7 @@
         <v>1.3598000000000001E-2</v>
       </c>
       <c r="E113">
-        <v>1.3598000000000001E-2</v>
+        <v>1.3544E-2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5079,7 +4878,7 @@
         <v>1.5262E-2</v>
       </c>
       <c r="E114">
-        <v>1.5262E-2</v>
+        <v>1.5206000000000001E-2</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5096,7 +4895,7 @@
         <v>5.2639999999999996E-3</v>
       </c>
       <c r="E115">
-        <v>5.2639999999999996E-3</v>
+        <v>5.241E-3</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5113,7 +4912,7 @@
         <v>1.1306E-2</v>
       </c>
       <c r="E116">
-        <v>1.1306E-2</v>
+        <v>1.1273999999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5130,7 +4929,7 @@
         <v>1.0725E-2</v>
       </c>
       <c r="E117">
-        <v>1.0725E-2</v>
+        <v>1.0697E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5147,7 +4946,7 @@
         <v>8.1069999999999996E-3</v>
       </c>
       <c r="E118">
-        <v>8.1069999999999996E-3</v>
+        <v>8.088999999999999E-3</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5164,7 +4963,7 @@
         <v>1.1963E-2</v>
       </c>
       <c r="E119">
-        <v>1.1963E-2</v>
+        <v>1.1939999999999999E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5181,7 +4980,7 @@
         <v>1.3356E-2</v>
       </c>
       <c r="E120">
-        <v>1.3356E-2</v>
+        <v>1.3332E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5198,7 +4997,7 @@
         <v>1.1977E-2</v>
       </c>
       <c r="E121">
-        <v>1.1977E-2</v>
+        <v>1.2012E-2</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5215,7 +5014,7 @@
         <v>1.6299000000000001E-2</v>
       </c>
       <c r="E122">
-        <v>1.6299000000000001E-2</v>
+        <v>1.9796999999999999E-2</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5232,7 +5031,7 @@
         <v>-2.9905000000000001E-2</v>
       </c>
       <c r="E123">
-        <v>-2.9905000000000001E-2</v>
+        <v>-2.9797000000000001E-2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5249,7 +5048,7 @@
         <v>8.9589999999999999E-3</v>
       </c>
       <c r="E124">
-        <v>8.9589999999999999E-3</v>
+        <v>5.7630000000000008E-3</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5266,7 +5065,7 @@
         <v>-6.6360000000000004E-3</v>
       </c>
       <c r="E125">
-        <v>-6.6360000000000004E-3</v>
+        <v>-4.6629999999999996E-3</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5283,7 +5082,7 @@
         <v>1.0673E-2</v>
       </c>
       <c r="E126">
-        <v>1.0673E-2</v>
+        <v>9.0679999999999997E-3</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5300,7 +5099,7 @@
         <v>-1.519E-3</v>
       </c>
       <c r="E127">
-        <v>-1.519E-3</v>
+        <v>-2.081E-3</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5317,7 +5116,7 @@
         <v>5.8109999999999993E-3</v>
       </c>
       <c r="E128">
-        <v>5.8109999999999993E-3</v>
+        <v>9.0229999999999998E-3</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5334,7 +5133,7 @@
         <v>1.0220999999999999E-2</v>
       </c>
       <c r="E129">
-        <v>1.0220999999999999E-2</v>
+        <v>9.3520000000000009E-3</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -5351,7 +5150,7 @@
         <v>-1.1547E-2</v>
       </c>
       <c r="E130">
-        <v>-1.1547E-2</v>
+        <v>-8.8139999999999989E-3</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -5368,7 +5167,7 @@
         <v>-3.9562E-2</v>
       </c>
       <c r="E131">
-        <v>-3.9562E-2</v>
+        <v>-3.9940000000000003E-2</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -5385,7 +5184,7 @@
         <v>1.3939E-2</v>
       </c>
       <c r="E132">
-        <v>1.3939E-2</v>
+        <v>1.2845000000000001E-2</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -5402,7 +5201,7 @@
         <v>5.9259999999999998E-3</v>
       </c>
       <c r="E133">
-        <v>5.9259999999999998E-3</v>
+        <v>-3.4880000000000002E-3</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5419,7 +5218,7 @@
         <v>2.8361999999999998E-2</v>
       </c>
       <c r="E134">
-        <v>2.8361999999999998E-2</v>
+        <v>3.1987000000000002E-2</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5436,7 +5235,7 @@
         <v>2.9329999999999998E-3</v>
       </c>
       <c r="E135">
-        <v>2.9329999999999998E-3</v>
+        <v>5.9430000000000004E-3</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5453,7 +5252,7 @@
         <v>3.2959000000000002E-2</v>
       </c>
       <c r="E136">
-        <v>3.2959000000000002E-2</v>
+        <v>2.7812E-2</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -5470,7 +5269,7 @@
         <v>1.077E-3</v>
       </c>
       <c r="E137">
-        <v>1.077E-3</v>
+        <v>5.058E-3</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5487,7 +5286,7 @@
         <v>2.0518999999999999E-2</v>
       </c>
       <c r="E138">
-        <v>2.0518999999999999E-2</v>
+        <v>9.951999999999999E-3</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -5504,7 +5303,7 @@
         <v>2.6977999999999999E-2</v>
       </c>
       <c r="E139">
-        <v>2.6977999999999999E-2</v>
+        <v>2.9571E-2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5521,7 +5320,7 @@
         <v>4.3940000000000003E-3</v>
       </c>
       <c r="E140">
-        <v>4.3940000000000003E-3</v>
+        <v>4.7410000000000004E-3</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5538,7 +5337,7 @@
         <v>5.8720000000000001E-2</v>
       </c>
       <c r="E141">
-        <v>5.8720000000000001E-2</v>
+        <v>4.4057000000000013E-2</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5555,7 +5354,7 @@
         <v>-9.6229999999999996E-3</v>
       </c>
       <c r="E142">
-        <v>-9.6229999999999996E-3</v>
+        <v>-4.6489999999999986E-3</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5572,7 +5371,7 @@
         <v>-1.5300000000000001E-4</v>
       </c>
       <c r="E143">
-        <v>-1.5300000000000001E-4</v>
+        <v>2.4169999999999999E-3</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5589,7 +5388,7 @@
         <v>6.3489999999999996E-3</v>
       </c>
       <c r="E144">
-        <v>6.3489999999999996E-3</v>
+        <v>8.1259999999999995E-3</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5606,7 +5405,7 @@
         <v>-7.5079999999999999E-3</v>
       </c>
       <c r="E145">
-        <v>-7.5079999999999999E-3</v>
+        <v>-7.7200000000000001E-4</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5623,7 +5422,7 @@
         <v>3.7941999999999997E-2</v>
       </c>
       <c r="E146">
-        <v>3.7941999999999997E-2</v>
+        <v>2.5590000000000002E-2</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -5640,7 +5439,7 @@
         <v>1.8638999999999999E-2</v>
       </c>
       <c r="E147">
-        <v>1.8638999999999999E-2</v>
+        <v>1.2279999999999999E-3</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -5657,7 +5456,7 @@
         <v>-1.2191E-2</v>
       </c>
       <c r="E148">
-        <v>-1.2191E-2</v>
+        <v>-3.7581999999999997E-2</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5674,7 +5473,7 @@
         <v>3.7446E-2</v>
       </c>
       <c r="E149">
-        <v>3.7446E-2</v>
+        <v>4.4326999999999998E-2</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5691,7 +5490,7 @@
         <v>-4.5329999999999997E-3</v>
       </c>
       <c r="E150">
-        <v>-4.5329999999999997E-3</v>
+        <v>3.2160000000000001E-3</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5708,7 +5507,7 @@
         <v>8.5900000000000004E-3</v>
       </c>
       <c r="E151">
-        <v>8.5900000000000004E-3</v>
+        <v>1.0196E-2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5725,7 +5524,7 @@
         <v>4.4461000000000001E-2</v>
       </c>
       <c r="E152">
-        <v>4.4461000000000001E-2</v>
+        <v>4.0127999999999997E-2</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5742,7 +5541,7 @@
         <v>-1.7264999999999999E-2</v>
       </c>
       <c r="E153">
-        <v>-1.7264999999999999E-2</v>
+        <v>-3.2039999999999998E-3</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5759,7 +5558,7 @@
         <v>-5.0549999999999996E-3</v>
       </c>
       <c r="E154">
-        <v>-5.0549999999999996E-3</v>
+        <v>-8.9339999999999992E-3</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5776,7 +5575,7 @@
         <v>-2.3545E-2</v>
       </c>
       <c r="E155">
-        <v>-2.3545E-2</v>
+        <v>-2.0372999999999999E-2</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5793,7 +5592,7 @@
         <v>4.4108000000000001E-2</v>
       </c>
       <c r="E156">
-        <v>4.4108000000000001E-2</v>
+        <v>5.3164999999999997E-2</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5810,7 +5609,7 @@
         <v>7.5290000000000001E-3</v>
       </c>
       <c r="E157">
-        <v>7.5290000000000001E-3</v>
+        <v>1.3905000000000001E-2</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5827,7 +5626,7 @@
         <v>-2.63E-2</v>
       </c>
       <c r="E158">
-        <v>-2.63E-2</v>
+        <v>-2.017E-2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5844,7 +5643,7 @@
         <v>-3.2485E-2</v>
       </c>
       <c r="E159">
-        <v>-3.2485E-2</v>
+        <v>-1.8411E-2</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5861,7 +5660,7 @@
         <v>-1.0056000000000001E-2</v>
       </c>
       <c r="E160">
-        <v>-1.0056000000000001E-2</v>
+        <v>6.7500000000000004E-4</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5878,7 +5677,7 @@
         <v>2.9309000000000002E-2</v>
       </c>
       <c r="E161">
-        <v>2.9309000000000002E-2</v>
+        <v>2.8785000000000002E-2</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5895,7 +5694,7 @@
         <v>1.4168E-2</v>
       </c>
       <c r="E162">
-        <v>1.4168E-2</v>
+        <v>1.5879000000000001E-2</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5912,7 +5711,7 @@
         <v>2.8979999999999999E-2</v>
       </c>
       <c r="E163">
-        <v>2.8979999999999999E-2</v>
+        <v>2.3814999999999999E-2</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5929,7 +5728,7 @@
         <v>2.4878999999999998E-2</v>
       </c>
       <c r="E164">
-        <v>2.4878999999999998E-2</v>
+        <v>2.0528999999999999E-2</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5946,7 +5745,7 @@
         <v>7.5929999999999999E-3</v>
       </c>
       <c r="E165">
-        <v>7.5929999999999999E-3</v>
+        <v>1.0843999999999999E-2</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5963,7 +5762,7 @@
         <v>-3.0726E-2</v>
       </c>
       <c r="E166">
-        <v>-3.0726E-2</v>
+        <v>-3.3208000000000001E-2</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5980,7 +5779,7 @@
         <v>2.7293999999999999E-2</v>
       </c>
       <c r="E167">
-        <v>2.7293999999999999E-2</v>
+        <v>3.1287000000000002E-2</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5997,7 +5796,7 @@
         <v>1.7181999999999999E-2</v>
       </c>
       <c r="E168">
-        <v>1.7181999999999999E-2</v>
+        <v>1.7323000000000002E-2</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6014,7 +5813,7 @@
         <v>5.3790000000000001E-3</v>
       </c>
       <c r="E169">
-        <v>5.3790000000000001E-3</v>
+        <v>8.2469999999999991E-3</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="mkt_value" sheetId="1" r:id="rId1"/>
     <sheet name="return" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -40,11 +35,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,27 +114,21 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot; #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+      <numFmt numFmtId="167" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -186,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,10 +207,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +241,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,17 +416,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALM147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:ALM148"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1001" width="21.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1001" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -456,29 +443,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>40209</v>
       </c>
       <c r="B2" s="1">
-        <v>932517206.41999996</v>
+        <v>932517206.42</v>
       </c>
       <c r="C2" s="1">
         <v>2102497497.95</v>
       </c>
       <c r="D2" s="1">
-        <v>12454714514.059999</v>
+        <v>12454714514.06</v>
       </c>
       <c r="E2" s="1">
         <v>15489729218.43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>40237</v>
       </c>
       <c r="B3" s="1">
-        <v>1064104134.0700001</v>
+        <v>1064104134.07</v>
       </c>
       <c r="C3" s="1">
         <v>2128528078.25</v>
@@ -487,18 +474,18 @@
         <v>12582416484.82</v>
       </c>
       <c r="E3" s="1">
-        <v>15775048697.139999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15775048697.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>40268</v>
       </c>
       <c r="B4" s="1">
-        <v>1475141834.8499999</v>
+        <v>1475141834.85</v>
       </c>
       <c r="C4" s="1">
-        <v>2204069195.0599999</v>
+        <v>2204069195.06</v>
       </c>
       <c r="D4" s="1">
         <v>13025662728.84</v>
@@ -507,24 +494,24 @@
         <v>16704873758.75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>40298</v>
       </c>
       <c r="B5" s="1">
-        <v>1622528988.0899999</v>
+        <v>1622528988.09</v>
       </c>
       <c r="C5" s="1">
         <v>2249160289.73</v>
       </c>
       <c r="D5" s="1">
-        <v>13260440725.690001</v>
+        <v>13260440725.69</v>
       </c>
       <c r="E5" s="1">
         <v>17132130003.51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>40329</v>
       </c>
@@ -532,16 +519,16 @@
         <v>1547543516.8</v>
       </c>
       <c r="C6" s="1">
-        <v>2151316976.4400001</v>
+        <v>2151316976.44</v>
       </c>
       <c r="D6" s="1">
-        <v>12652381383.559999</v>
+        <v>12652381383.56</v>
       </c>
       <c r="E6" s="1">
-        <v>16351241876.799999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16351241876.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>40359</v>
       </c>
@@ -549,50 +536,50 @@
         <v>1525381389.55</v>
       </c>
       <c r="C7" s="1">
-        <v>2126807551.9400001</v>
+        <v>2126807551.94</v>
       </c>
       <c r="D7" s="1">
-        <v>12475038374.799999</v>
+        <v>12475038374.8</v>
       </c>
       <c r="E7" s="1">
-        <v>16127227316.290001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16127227316.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>40390</v>
       </c>
       <c r="B8" s="1">
-        <v>1706992377.8800001</v>
+        <v>1706992377.88</v>
       </c>
       <c r="C8" s="1">
-        <v>2217049566.9200001</v>
+        <v>2217049566.92</v>
       </c>
       <c r="D8" s="1">
         <v>12970168980.82</v>
       </c>
       <c r="E8" s="1">
-        <v>16894210925.620001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16894210925.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>40421</v>
       </c>
       <c r="B9" s="1">
-        <v>1703519080.0799999</v>
+        <v>1703519080.08</v>
       </c>
       <c r="C9" s="1">
         <v>2218270319.77</v>
       </c>
       <c r="D9" s="1">
-        <v>12942973012.129999</v>
+        <v>12942973012.13</v>
       </c>
       <c r="E9" s="1">
         <v>16864762411.98</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>40451</v>
       </c>
@@ -606,10 +593,10 @@
         <v>13480205460.32</v>
       </c>
       <c r="E10" s="1">
-        <v>17683853962.580002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17683853962.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>40482</v>
       </c>
@@ -617,16 +604,16 @@
         <v>1900647341.72</v>
       </c>
       <c r="C11" s="1">
-        <v>2451294838.8699999</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D11" s="1">
-        <v>13443063041.030001</v>
+        <v>13443063041.03</v>
       </c>
       <c r="E11" s="1">
-        <v>17795005221.619999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17795005221.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>40512</v>
       </c>
@@ -634,16 +621,16 @@
         <v>1880986063.23</v>
       </c>
       <c r="C12" s="1">
-        <v>2932628117.6100001</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D12" s="1">
-        <v>14814700195.870001</v>
+        <v>14814700195.87</v>
       </c>
       <c r="E12" s="1">
-        <v>19628314376.709999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19628314376.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>40543</v>
       </c>
@@ -651,55 +638,55 @@
         <v>1928778379.47</v>
       </c>
       <c r="C13" s="1">
-        <v>3016301371.6999998</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D13" s="1">
-        <v>15090047197.559999</v>
+        <v>15090047197.56</v>
       </c>
       <c r="E13" s="1">
         <v>20035126948.73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>40574</v>
       </c>
       <c r="B14" s="1">
-        <v>3118038032.5700002</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C14" s="1">
-        <v>3010941131.6700001</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D14" s="1">
-        <v>15034722562.559999</v>
+        <v>15034722562.56</v>
       </c>
       <c r="E14" s="1">
-        <v>21163701726.799999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21163701726.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>40602</v>
       </c>
       <c r="B15" s="1">
-        <v>3181037518.5100002</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C15" s="1">
-        <v>3072606771.4099998</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D15" s="1">
         <v>15339223946.43</v>
       </c>
       <c r="E15" s="1">
-        <v>21592868236.349998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21592868236.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>40633</v>
       </c>
       <c r="B16" s="1">
-        <v>3181383242.4699998</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C16" s="1">
         <v>3077934373.48</v>
@@ -708,35 +695,35 @@
         <v>15338075937.65</v>
       </c>
       <c r="E16" s="1">
-        <v>21597393553.599998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21597393553.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>40663</v>
       </c>
       <c r="B17" s="1">
-        <v>3268994098.8600001</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C17" s="1">
-        <v>3168259937.3499999</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D17" s="1">
-        <v>15759188122.620001</v>
+        <v>15759188122.62</v>
       </c>
       <c r="E17" s="1">
-        <v>22196442158.830002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22196442158.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>40694</v>
       </c>
       <c r="B18" s="1">
-        <v>3281525082.0100002</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C18" s="1">
-        <v>3185699769.8800001</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D18" s="1">
         <v>15817399042.18</v>
@@ -745,80 +732,80 @@
         <v>22284623894.07</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>40724</v>
       </c>
       <c r="B19" s="1">
-        <v>3219718796.8299999</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C19" s="1">
         <v>3131056633.27</v>
       </c>
       <c r="D19" s="1">
-        <v>15518354156.139999</v>
+        <v>15518354156.14</v>
       </c>
       <c r="E19" s="1">
-        <v>21869129586.240002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21869129586.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>40755</v>
       </c>
       <c r="B20" s="1">
-        <v>3245901192.1500001</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C20" s="1">
-        <v>3162162793.9699998</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D20" s="1">
         <v>15643951036.32</v>
       </c>
       <c r="E20" s="1">
-        <v>22052015022.439999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22052015022.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>40786</v>
       </c>
       <c r="B21" s="1">
-        <v>3216438061.7600002</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C21" s="1">
         <v>3139082692.54</v>
       </c>
       <c r="D21" s="1">
-        <v>15501631744.309999</v>
+        <v>15501631744.31</v>
       </c>
       <c r="E21" s="1">
-        <v>21857152498.610001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21857152498.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>40816</v>
       </c>
       <c r="B22" s="1">
-        <v>3211645130.6300001</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C22" s="1">
-        <v>3200272417.1500001</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D22" s="1">
         <v>15478669634.76</v>
       </c>
       <c r="E22" s="1">
-        <v>21890587182.540001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21890587182.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>40847</v>
       </c>
       <c r="B23" s="1">
-        <v>3317215603.4000001</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C23" s="1">
         <v>3311931768.5</v>
@@ -830,117 +817,117 @@
         <v>22617832290.32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>40877</v>
       </c>
       <c r="B24" s="1">
-        <v>3279790855.1700001</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C24" s="1">
-        <v>3286738232.0300002</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D24" s="1">
-        <v>15838131556.610001</v>
+        <v>15838131556.61</v>
       </c>
       <c r="E24" s="1">
-        <v>22404660643.810001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22404660643.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>40908</v>
       </c>
       <c r="B25" s="1">
-        <v>3308515656.8299999</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C25" s="1">
-        <v>3322199318.5999999</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D25" s="1">
-        <v>15979851739.540001</v>
+        <v>15979851739.54</v>
       </c>
       <c r="E25" s="1">
-        <v>22610566714.970001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22610566714.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>40939</v>
       </c>
       <c r="B26" s="1">
-        <v>3390714253.3600001</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C26" s="1">
-        <v>3411636959.7800002</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D26" s="1">
-        <v>16380190274.370001</v>
+        <v>16380190274.37</v>
       </c>
       <c r="E26" s="1">
-        <v>23182541487.509998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23182541487.51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>40968</v>
       </c>
       <c r="B27" s="1">
-        <v>3441357193.0100002</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C27" s="1">
-        <v>3465240303.9000001</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D27" s="1">
         <v>16632293380.49</v>
       </c>
       <c r="E27" s="1">
-        <v>23538890877.400002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23538890877.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>40999</v>
       </c>
       <c r="B28" s="1">
-        <v>3594273253.8800001</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C28" s="1">
-        <v>3448893913.0500002</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D28" s="1">
         <v>16525290668.17</v>
       </c>
       <c r="E28" s="1">
-        <v>23568457835.099998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23568457835.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>41029</v>
       </c>
       <c r="B29" s="1">
-        <v>3620819218.9099998</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C29" s="1">
-        <v>3481026300.1199999</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D29" s="1">
-        <v>16649048720.639999</v>
+        <v>16649048720.64</v>
       </c>
       <c r="E29" s="1">
-        <v>23750894239.669998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23750894239.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>41060</v>
       </c>
       <c r="B30" s="1">
-        <v>3584994009.6500001</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C30" s="1">
-        <v>3453190328.1199999</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D30" s="1">
         <v>16487003754.48</v>
@@ -949,29 +936,29 @@
         <v>23525188092.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" s="3">
         <v>41090</v>
       </c>
       <c r="B31" s="1">
-        <v>3803025610.4400001</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C31" s="1">
-        <v>3497243829.1300001</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D31" s="1">
-        <v>16666683230.139999</v>
+        <v>16666683230.14</v>
       </c>
       <c r="E31" s="1">
-        <v>23966952669.709999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23966952669.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="3">
         <v>41121</v>
       </c>
       <c r="B32" s="1">
-        <v>3877728751.3899999</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C32" s="1">
         <v>3572637746.48</v>
@@ -980,95 +967,95 @@
         <v>16994661825.91</v>
       </c>
       <c r="E32" s="1">
-        <v>24445028323.779999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24445028323.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3">
         <v>41152</v>
       </c>
       <c r="B33" s="1">
-        <v>3892524075.6999998</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C33" s="1">
-        <v>3592909103.4099998</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D33" s="1">
-        <v>17060740670.370001</v>
+        <v>17060740670.37</v>
       </c>
       <c r="E33" s="1">
         <v>24546173849.48</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" s="3">
         <v>41182</v>
       </c>
       <c r="B34" s="1">
-        <v>3915294252.8000002</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C34" s="1">
-        <v>3620604152.5799999</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D34" s="1">
         <v>17161797379.67</v>
       </c>
       <c r="E34" s="1">
-        <v>24697695785.049999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24697695785.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="3">
         <v>41213</v>
       </c>
       <c r="B35" s="1">
-        <v>3910430761.8499999</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C35" s="1">
-        <v>3622924774.9499998</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D35" s="1">
-        <v>17142269583.370001</v>
+        <v>17142269583.37</v>
       </c>
       <c r="E35" s="1">
-        <v>24675625120.169998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24675625120.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="3">
         <v>41243</v>
       </c>
       <c r="B36" s="1">
-        <v>3929018216.4000001</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C36" s="1">
-        <v>3646999015.1599998</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D36" s="1">
-        <v>17226232669.720001</v>
+        <v>17226232669.72</v>
       </c>
       <c r="E36" s="1">
-        <v>24802249901.279999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24802249901.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="3">
         <v>41274</v>
       </c>
       <c r="B37" s="1">
-        <v>3949731061.5500002</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C37" s="1">
-        <v>3654809047.6500001</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D37" s="1">
-        <v>17291185714.259998</v>
+        <v>17291185714.26</v>
       </c>
       <c r="E37" s="1">
-        <v>24895725823.459999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24895725823.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="3">
         <v>41305</v>
       </c>
@@ -1076,24 +1063,24 @@
         <v>3991599105.71</v>
       </c>
       <c r="C38" s="1">
-        <v>4490569394.4099998</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D38" s="1">
-        <v>16688192891.540001</v>
+        <v>16688192891.54</v>
       </c>
       <c r="E38" s="1">
         <v>25170361391.66</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39" s="3">
         <v>41333</v>
       </c>
       <c r="B39" s="1">
-        <v>4007467353.7800002</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C39" s="1">
-        <v>4511270646.8800001</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D39" s="1">
         <v>16760318931.09</v>
@@ -1102,24 +1089,24 @@
         <v>25279056931.75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40" s="3">
         <v>41364</v>
       </c>
       <c r="B40" s="1">
-        <v>4055824611.3000002</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C40" s="1">
-        <v>4573664426.0299997</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D40" s="1">
         <v>16965972358.16</v>
       </c>
       <c r="E40" s="1">
-        <v>25595461395.490002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25595461395.49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="3">
         <v>41394</v>
       </c>
@@ -1127,84 +1114,84 @@
         <v>4145409199.46</v>
       </c>
       <c r="C41" s="1">
-        <v>4682846886.2700005</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D41" s="1">
-        <v>17344551325.700001</v>
+        <v>17344551325.7</v>
       </c>
       <c r="E41" s="1">
         <v>26172807411.43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" s="3">
         <v>41425</v>
       </c>
       <c r="B42" s="1">
-        <v>4064569702.6300001</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C42" s="1">
-        <v>4599347535.8999996</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D42" s="1">
-        <v>17009919681.780001</v>
+        <v>17009919681.78</v>
       </c>
       <c r="E42" s="1">
-        <v>25673836920.310001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25673836920.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="3">
         <v>41455</v>
       </c>
       <c r="B43" s="1">
-        <v>3978796970.0900002</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C43" s="1">
-        <v>4510251396.9099998</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D43" s="1">
-        <v>16655048859.379999</v>
+        <v>16655048859.38</v>
       </c>
       <c r="E43" s="1">
-        <v>25144097226.380001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25144097226.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="3">
         <v>41486</v>
       </c>
       <c r="B44" s="1">
-        <v>4023056820.8600001</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C44" s="1">
-        <v>4568724212.6999998</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D44" s="1">
-        <v>16844754449.469999</v>
+        <v>16844754449.47</v>
       </c>
       <c r="E44" s="1">
-        <v>25436535483.029999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25436535483.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="3">
         <v>41517</v>
       </c>
       <c r="B45" s="1">
-        <v>3966340296.0999999</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C45" s="1">
-        <v>4512507452.0299997</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D45" s="1">
         <v>16611704230.01</v>
       </c>
       <c r="E45" s="1">
-        <v>25090551978.139999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25090551978.14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="3">
         <v>41547</v>
       </c>
@@ -1212,50 +1199,50 @@
         <v>4033439753.48</v>
       </c>
       <c r="C46" s="1">
-        <v>4749762591.5299997</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D46" s="1">
         <v>16745140477.25</v>
       </c>
       <c r="E46" s="1">
-        <v>25528342822.259998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25528342822.26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="3">
         <v>41578</v>
       </c>
       <c r="B47" s="1">
-        <v>4110020215.5500002</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C47" s="1">
-        <v>4848589342.7200003</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D47" s="1">
         <v>17068600956.34</v>
       </c>
       <c r="E47" s="1">
-        <v>26027210514.610001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26027210514.61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="3">
         <v>41608</v>
       </c>
       <c r="B48" s="1">
-        <v>4104202981.7199998</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C48" s="1">
-        <v>4850653743.3999996</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D48" s="1">
-        <v>17048811459.129999</v>
+        <v>17048811459.13</v>
       </c>
       <c r="E48" s="1">
         <v>26003668184.25</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49" s="3">
         <v>41639</v>
       </c>
@@ -1263,21 +1250,21 @@
         <v>4121232839.29</v>
       </c>
       <c r="C49" s="1">
-        <v>4879983265.3800001</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D49" s="1">
-        <v>17124920453.700001</v>
+        <v>17124920453.7</v>
       </c>
       <c r="E49" s="1">
-        <v>26126136558.369999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26126136558.37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="3">
         <v>41670</v>
       </c>
       <c r="B50" s="1">
-        <v>4116223144.4400001</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C50" s="1">
         <v>4882894726.29</v>
@@ -1286,44 +1273,44 @@
         <v>17108427415.48</v>
       </c>
       <c r="E50" s="1">
-        <v>26107545286.209999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26107545286.21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="3">
         <v>41698</v>
       </c>
       <c r="B51" s="1">
-        <v>4197240949.3600001</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C51" s="1">
-        <v>4988729007.2700005</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D51" s="1">
-        <v>17452044700.369999</v>
+        <v>17452044700.37</v>
       </c>
       <c r="E51" s="1">
         <v>26638014657</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52" s="3">
         <v>41729</v>
       </c>
       <c r="B52" s="1">
-        <v>4215464347.8699999</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C52" s="1">
-        <v>5019984158.5799999</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D52" s="1">
-        <v>17534458681.869999</v>
+        <v>17534458681.87</v>
       </c>
       <c r="E52" s="1">
         <v>26769907188.32</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53" s="3">
         <v>41759</v>
       </c>
@@ -1331,50 +1318,50 @@
         <v>4212492467.73</v>
       </c>
       <c r="C53" s="1">
-        <v>5026144812.3100004</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D53" s="1">
-        <v>17527323843.169998</v>
+        <v>17527323843.17</v>
       </c>
       <c r="E53" s="1">
-        <v>26765961123.209999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26765961123.21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="3">
         <v>41790</v>
       </c>
       <c r="B54" s="1">
-        <v>4276832512.9299998</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C54" s="1">
-        <v>5112975530.5600004</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D54" s="1">
-        <v>17802031711.889999</v>
+        <v>17802031711.89</v>
       </c>
       <c r="E54" s="1">
-        <v>27191839755.380001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27191839755.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="3">
         <v>41820</v>
       </c>
       <c r="B55" s="1">
-        <v>4295140983.1099997</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C55" s="1">
-        <v>5144862372.5200005</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D55" s="1">
-        <v>17885536456.360001</v>
+        <v>17885536456.36</v>
       </c>
       <c r="E55" s="1">
-        <v>27325539811.990002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27325539811.99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="3">
         <v>41851</v>
       </c>
@@ -1382,33 +1369,33 @@
         <v>4265451845</v>
       </c>
       <c r="C56" s="1">
-        <v>5119794037.9899998</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D56" s="1">
-        <v>17771447283.099998</v>
+        <v>17771447283.1</v>
       </c>
       <c r="E56" s="1">
         <v>27156693166.09</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5">
       <c r="A57" s="3">
         <v>41882</v>
       </c>
       <c r="B57" s="1">
-        <v>4354547211.1199999</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C57" s="1">
-        <v>5237452701.8199997</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D57" s="1">
-        <v>18152061725.919998</v>
+        <v>18152061725.92</v>
       </c>
       <c r="E57" s="1">
-        <v>27744061638.860001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27744061638.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="3">
         <v>41912</v>
       </c>
@@ -1419,98 +1406,98 @@
         <v>5131976211.71</v>
       </c>
       <c r="D58" s="1">
-        <v>17760389482.459999</v>
+        <v>17760389482.46</v>
       </c>
       <c r="E58" s="1">
-        <v>27150516717.209999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27150516717.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="3">
         <v>41943</v>
       </c>
       <c r="B59" s="1">
-        <v>4285163976.8000002</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C59" s="1">
-        <v>5172926233.0100002</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D59" s="1">
-        <v>17913492320.950001</v>
+        <v>17913492320.95</v>
       </c>
       <c r="E59" s="1">
-        <v>27371582530.759998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27371582530.76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="3">
         <v>41973</v>
       </c>
       <c r="B60" s="1">
-        <v>4341696562.6499996</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C60" s="1">
-        <v>5252461885.8400002</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D60" s="1">
-        <v>18161633085.610001</v>
+        <v>18161633085.61</v>
       </c>
       <c r="E60" s="1">
-        <v>27755791534.099998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27755791534.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="3">
         <v>42004</v>
       </c>
       <c r="B61" s="1">
-        <v>4986611512.0699997</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C61" s="1">
-        <v>5448191101.3800001</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D61" s="1">
         <v>18347484059.09</v>
       </c>
       <c r="E61" s="1">
-        <v>28782286672.540001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28782286672.54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="3">
         <v>42035</v>
       </c>
       <c r="B62" s="1">
-        <v>5087365130.3500004</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C62" s="1">
-        <v>5567918737.1199999</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D62" s="1">
-        <v>18722609505.799999</v>
+        <v>18722609505.8</v>
       </c>
       <c r="E62" s="1">
         <v>29377893373.27</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5">
       <c r="A63" s="3">
         <v>42063</v>
       </c>
       <c r="B63" s="1">
-        <v>5110739057.8199997</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C63" s="1">
-        <v>5603210665.9399996</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D63" s="1">
         <v>18813632546.84</v>
       </c>
       <c r="E63" s="1">
-        <v>29527582270.599998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29527582270.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="3">
         <v>42094</v>
       </c>
@@ -1518,203 +1505,203 @@
         <v>5098528846.54</v>
       </c>
       <c r="C64" s="1">
-        <v>5599621915.2799997</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D64" s="1">
-        <v>18773915353.099998</v>
+        <v>18773915353.1</v>
       </c>
       <c r="E64" s="1">
-        <v>29472066114.919998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29472066114.92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="3">
         <v>42124</v>
       </c>
       <c r="B65" s="1">
-        <v>5084901351.0699997</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C65" s="1">
-        <v>5594550723.8299999</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D65" s="1">
-        <v>18729047234.330002</v>
+        <v>18729047234.33</v>
       </c>
       <c r="E65" s="1">
         <v>29408499309.23</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5">
       <c r="A66" s="3">
         <v>42155</v>
       </c>
       <c r="B66" s="1">
-        <v>5061385747.1499996</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C66" s="1">
-        <v>5578675769.6700001</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D66" s="1">
-        <v>18647811742.490002</v>
+        <v>18647811742.49</v>
       </c>
       <c r="E66" s="1">
-        <v>29287873259.310001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29287873259.31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="3">
         <v>42185</v>
       </c>
       <c r="B67" s="1">
-        <v>4948449143.5500002</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C67" s="1">
-        <v>5464086350.6700001</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D67" s="1">
-        <v>18237344817.240002</v>
+        <v>18237344817.24</v>
       </c>
       <c r="E67" s="1">
-        <v>28649880311.459999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28649880311.46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="3">
         <v>42216</v>
       </c>
       <c r="B68" s="1">
-        <v>4984734110.6599998</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C68" s="1">
-        <v>5514366076.0299997</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D68" s="1">
-        <v>18376949304.200001</v>
+        <v>18376949304.2</v>
       </c>
       <c r="E68" s="1">
-        <v>28876049490.889999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28876049490.89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="3">
         <v>42247</v>
       </c>
       <c r="B69" s="1">
-        <v>4833324327.1099997</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C69" s="1">
-        <v>5356648129.1499996</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D69" s="1">
         <v>17823822010.27</v>
       </c>
       <c r="E69" s="1">
-        <v>28013794466.529999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28013794466.53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="3">
         <v>42277</v>
       </c>
       <c r="B70" s="1">
-        <v>4774352359.5100002</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C70" s="1">
-        <v>5301454591.4700003</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D70" s="1">
-        <v>17611674082.799999</v>
+        <v>17611674082.8</v>
       </c>
       <c r="E70" s="1">
-        <v>27687481033.779999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27687481033.78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="3">
         <v>42308</v>
       </c>
       <c r="B71" s="1">
-        <v>4880247836.6499996</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C71" s="1">
-        <v>5397632819.4899998</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D71" s="1">
-        <v>18048333376.560001</v>
+        <v>18048333376.56</v>
       </c>
       <c r="E71" s="1">
-        <v>28326214032.700001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28326214032.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="3">
         <v>42338</v>
       </c>
       <c r="B72" s="1">
-        <v>4844551814.1099997</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C72" s="1">
-        <v>5368571908.9799995</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D72" s="1">
-        <v>17923305130.990002</v>
+        <v>17923305130.99</v>
       </c>
       <c r="E72" s="1">
-        <v>28136428854.080002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28136428854.08</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="3">
         <v>42369</v>
       </c>
       <c r="B73" s="1">
-        <v>5415576742.5500002</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C73" s="1">
-        <v>5709868087.2700005</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D73" s="1">
-        <v>17720678489.540001</v>
+        <v>17720678489.54</v>
       </c>
       <c r="E73" s="1">
-        <v>28846123319.360001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28846123319.36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="3">
         <v>42400</v>
       </c>
       <c r="B74" s="1">
-        <v>5318083756.3500004</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C74" s="1">
-        <v>5616578571.1400003</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D74" s="1">
-        <v>17401580107.799999</v>
+        <v>17401580107.8</v>
       </c>
       <c r="E74" s="1">
-        <v>28336242435.290001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28336242435.29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="3">
         <v>42429</v>
       </c>
       <c r="B75" s="1">
-        <v>5338694185.8500004</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C75" s="1">
-        <v>5647936294.4499998</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D75" s="1">
-        <v>17468918255.400002</v>
+        <v>17468918255.4</v>
       </c>
       <c r="E75" s="1">
-        <v>28455548735.700001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28455548735.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="3">
         <v>42460</v>
       </c>
@@ -1722,152 +1709,152 @@
         <v>5505915040.5</v>
       </c>
       <c r="C76" s="1">
-        <v>5834802926.8000002</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D76" s="1">
-        <v>18015825215.720001</v>
+        <v>18015825215.72</v>
       </c>
       <c r="E76" s="1">
         <v>29356543183.02</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5">
       <c r="A77" s="3">
         <v>42490</v>
       </c>
       <c r="B77" s="1">
-        <v>5538988181.4499998</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C77" s="1">
-        <v>5879483219.7200003</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D77" s="1">
-        <v>18123427852.610001</v>
+        <v>18123427852.61</v>
       </c>
       <c r="E77" s="1">
-        <v>29541899253.779999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29541899253.78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="3">
         <v>42521</v>
       </c>
       <c r="B78" s="1">
-        <v>5531594102.9499998</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C78" s="1">
-        <v>5881279255.8699999</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D78" s="1">
-        <v>18098420744.150002</v>
+        <v>18098420744.15</v>
       </c>
       <c r="E78" s="1">
-        <v>29511294102.970001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29511294102.97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="3">
         <v>42551</v>
       </c>
       <c r="B79" s="1">
-        <v>5569334217.7600002</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C79" s="1">
-        <v>5931068967.1999998</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D79" s="1">
-        <v>18221304108.220001</v>
+        <v>18221304108.22</v>
       </c>
       <c r="E79" s="1">
         <v>29721707293.18</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5">
       <c r="A80" s="3">
         <v>42582</v>
       </c>
       <c r="B80" s="1">
-        <v>5669685323.0900002</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C80" s="1">
-        <v>6047546128.9399996</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D80" s="1">
         <v>18547786478.41</v>
       </c>
       <c r="E80" s="1">
-        <v>30265017930.439999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>30265017930.44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="3">
         <v>42613</v>
       </c>
       <c r="B81" s="1">
-        <v>5658306874.6499996</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C81" s="1">
-        <v>6044991482.2299995</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D81" s="1">
-        <v>18508832479.779999</v>
+        <v>18508832479.78</v>
       </c>
       <c r="E81" s="1">
         <v>30212130836.66</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5">
       <c r="A82" s="3">
         <v>42643</v>
       </c>
       <c r="B82" s="1">
-        <v>6047292088.0200005</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C82" s="1">
-        <v>6489780168.1700001</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D82" s="1">
-        <v>18773993442.110001</v>
+        <v>18773993442.11</v>
       </c>
       <c r="E82" s="1">
-        <v>31311065698.299999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31311065698.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="3">
         <v>42674</v>
       </c>
       <c r="B83" s="1">
-        <v>5944249077.3100004</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C83" s="1">
-        <v>6361287062.3299999</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D83" s="1">
-        <v>18430042970.950001</v>
+        <v>18430042970.95</v>
       </c>
       <c r="E83" s="1">
         <v>30735579110.59</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5">
       <c r="A84" s="3">
         <v>42704</v>
       </c>
       <c r="B84" s="1">
-        <v>5857951330.0799999</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C84" s="1">
-        <v>6278318762.6800003</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D84" s="1">
-        <v>18157757460.240002</v>
+        <v>18157757460.24</v>
       </c>
       <c r="E84" s="1">
         <v>30294027553</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5">
       <c r="A85" s="3">
         <v>42735</v>
       </c>
@@ -1884,58 +1871,58 @@
         <v>31134438714.84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5">
       <c r="A86" s="3">
         <v>42766</v>
       </c>
       <c r="B86" s="1">
-        <v>6308462886.3400002</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C86" s="1">
-        <v>6425317655.8999996</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D86" s="1">
-        <v>18672728045.689999</v>
+        <v>18672728045.69</v>
       </c>
       <c r="E86" s="1">
         <v>31406508587.93</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5">
       <c r="A87" s="3">
         <v>42794</v>
       </c>
       <c r="B87" s="1">
-        <v>6400976668.1800003</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C87" s="1">
-        <v>6526279467.1499996</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D87" s="1">
-        <v>18935552854.389999</v>
+        <v>18935552854.39</v>
       </c>
       <c r="E87" s="1">
-        <v>31862808989.720001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31862808989.72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="3">
         <v>42825</v>
       </c>
       <c r="B88" s="1">
-        <v>7099971446.0200005</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C88" s="1">
-        <v>7337629420.2799997</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D88" s="1">
-        <v>19799498475.639999</v>
+        <v>19799498475.64</v>
       </c>
       <c r="E88" s="1">
-        <v>34237099341.939999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34237099341.94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="3">
         <v>42855</v>
       </c>
@@ -1943,24 +1930,24 @@
         <v>7176134170.54</v>
       </c>
       <c r="C89" s="1">
-        <v>7422733235.8900003</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D89" s="1">
-        <v>20002234967.919998</v>
+        <v>20002234967.92</v>
       </c>
       <c r="E89" s="1">
-        <v>34601102374.349998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34601102374.35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="3">
         <v>42886</v>
       </c>
       <c r="B90" s="1">
-        <v>7264954337.0500002</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C90" s="1">
-        <v>7523682920.7700005</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D90" s="1">
         <v>20236725707.75</v>
@@ -1969,228 +1956,228 @@
         <v>35025362965.57</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5">
       <c r="A91" s="3">
         <v>42916</v>
       </c>
       <c r="B91" s="1">
-        <v>7282406497.0799999</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C91" s="1">
-        <v>7549356808.1800003</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D91" s="1">
-        <v>20274704112.169998</v>
+        <v>20274704112.17</v>
       </c>
       <c r="E91" s="1">
         <v>35106467417.43</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5">
       <c r="A92" s="3">
         <v>42947</v>
       </c>
       <c r="B92" s="1">
-        <v>7343644210.3999996</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C92" s="1">
-        <v>7623588366.4899998</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D92" s="1">
-        <v>20438444305.610001</v>
+        <v>20438444305.61</v>
       </c>
       <c r="E92" s="1">
         <v>35405676882.5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5">
       <c r="A93" s="3">
         <v>42978</v>
       </c>
       <c r="B93" s="1">
-        <v>7401114464.4399996</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C93" s="1">
-        <v>7693916997.0799999</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D93" s="1">
-        <v>20590369678.540001</v>
+        <v>20590369678.54</v>
       </c>
       <c r="E93" s="1">
-        <v>35685401140.059998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>35685401140.06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="3">
         <v>43008</v>
       </c>
       <c r="B94" s="1">
-        <v>7439354518.6199999</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C94" s="1">
-        <v>7744728806.7200003</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D94" s="1">
-        <v>20690747320.220001</v>
+        <v>20690747320.22</v>
       </c>
       <c r="E94" s="1">
-        <v>35874830645.559998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>35874830645.56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="3">
         <v>43039</v>
       </c>
       <c r="B95" s="1">
-        <v>7501162607.2399998</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C95" s="1">
-        <v>7797612927.1400003</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D95" s="1">
         <v>20816031800.59</v>
       </c>
       <c r="E95" s="1">
-        <v>36114807334.970001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+        <v>36114807334.97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="3">
         <v>43069</v>
       </c>
       <c r="B96" s="1">
-        <v>7578785278.6599998</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C96" s="1">
-        <v>7890046689.6899996</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D96" s="1">
         <v>21026669979.09</v>
       </c>
       <c r="E96" s="1">
-        <v>36495501947.440002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>36495501947.44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="3">
         <v>43100</v>
       </c>
       <c r="B97" s="1">
-        <v>9002210135.4300003</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C97" s="1">
-        <v>8628245002.9599991</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D97" s="1">
-        <v>24225492187.240002</v>
+        <v>24225492187.24</v>
       </c>
       <c r="E97" s="1">
-        <v>41855947325.629997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41855947325.63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="3">
         <v>43131</v>
       </c>
       <c r="B98" s="1">
-        <v>9202610590.7199993</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C98" s="1">
-        <v>8830545061.3099995</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D98" s="1">
-        <v>24550452831.880001</v>
+        <v>24550452831.88</v>
       </c>
       <c r="E98" s="1">
-        <v>42583608483.910004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42583608483.91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="3">
         <v>43159</v>
       </c>
       <c r="B99" s="1">
-        <v>8905152042.1100006</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C99" s="1">
-        <v>8554843302.1199999</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D99" s="1">
-        <v>23751543939.110001</v>
+        <v>23751543939.11</v>
       </c>
       <c r="E99" s="1">
-        <v>41211539283.339996</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41211539283.34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="3">
         <v>43190</v>
       </c>
       <c r="B100" s="1">
-        <v>8894650969.9099998</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C100" s="1">
-        <v>8555117311.3000002</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D100" s="1">
-        <v>23895593642.490002</v>
+        <v>23895593642.49</v>
       </c>
       <c r="E100" s="1">
-        <v>41345361923.699997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41345361923.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="3">
         <v>43220</v>
       </c>
       <c r="B101" s="1">
-        <v>8853026337.9799995</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C101" s="1">
-        <v>8525561703.7799997</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D101" s="1">
-        <v>23668065334.799999</v>
+        <v>23668065334.8</v>
       </c>
       <c r="E101" s="1">
-        <v>41046653376.559998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41046653376.56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="3">
         <v>43251</v>
       </c>
       <c r="B102" s="1">
-        <v>8890561971.1299992</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C102" s="1">
-        <v>8572549061.8999996</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D102" s="1">
-        <v>23850014619.049999</v>
+        <v>23850014619.05</v>
       </c>
       <c r="E102" s="1">
-        <v>41313125652.080002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41313125652.08</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="3">
         <v>43281</v>
       </c>
       <c r="B103" s="1">
-        <v>8841470603.1499996</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C103" s="1">
-        <v>8535731069.8900003</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D103" s="1">
-        <v>23743724505.990002</v>
+        <v>23743724505.99</v>
       </c>
       <c r="E103" s="1">
-        <v>41120926179.029999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41120926179.03</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="3">
         <v>43312</v>
       </c>
@@ -2198,254 +2185,254 @@
         <v>8936073454</v>
       </c>
       <c r="C104" s="1">
-        <v>8637933457.6399994</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D104" s="1">
-        <v>23810476668.130001</v>
+        <v>23810476668.13</v>
       </c>
       <c r="E104" s="1">
-        <v>41384483579.769997</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41384483579.77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="3">
         <v>43343</v>
       </c>
       <c r="B105" s="1">
-        <v>8984375598.6599998</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C105" s="1">
-        <v>8696018228.4200001</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D105" s="1">
-        <v>23982305364.470001</v>
+        <v>23982305364.47</v>
       </c>
       <c r="E105" s="1">
-        <v>41662699191.550003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41662699191.55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="3">
         <v>43373</v>
       </c>
       <c r="B106" s="1">
-        <v>8913881251.3999996</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C106" s="1">
-        <v>8639086304.1599998</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D106" s="1">
         <v>23633877037.77</v>
       </c>
       <c r="E106" s="1">
-        <v>41186844593.330002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41186844593.33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="3">
         <v>43404</v>
       </c>
       <c r="B107" s="1">
-        <v>8522844994.3999996</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C107" s="1">
-        <v>8244001106.4200001</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D107" s="1">
         <v>22616086896.59</v>
       </c>
       <c r="E107" s="1">
-        <v>39382932997.410004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+        <v>39382932997.41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="3">
         <v>43434</v>
       </c>
       <c r="B108" s="1">
-        <v>8594776142.1399994</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C108" s="1">
-        <v>8324970365.9499998</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D108" s="1">
-        <v>22855316166.619999</v>
+        <v>22855316166.62</v>
       </c>
       <c r="E108" s="1">
-        <v>39775062674.709999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+        <v>39775062674.71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="3">
         <v>43465</v>
       </c>
       <c r="B109" s="1">
-        <v>8430913509.8800001</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C109" s="1">
-        <v>8177279951.5699997</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D109" s="1">
-        <v>22914691512.650002</v>
+        <v>22914691512.65</v>
       </c>
       <c r="E109" s="1">
-        <v>39522884974.099998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+        <v>39522884974.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="3">
         <v>43496</v>
       </c>
       <c r="B110" s="1">
-        <v>8716930851.9699993</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C110" s="1">
-        <v>8466374243.3400002</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D110" s="1">
         <v>23486649000.34</v>
       </c>
       <c r="E110" s="1">
-        <v>40669954095.650002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40669954095.65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="3">
         <v>43524</v>
       </c>
       <c r="B111" s="1">
-        <v>8780002278.0200005</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C111" s="1">
-        <v>8538970109.8500004</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D111" s="1">
         <v>23478741957.66</v>
       </c>
       <c r="E111" s="1">
-        <v>40797714345.529999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40797714345.53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="3">
         <v>43555</v>
       </c>
       <c r="B112" s="1">
-        <v>8939502054.1399994</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C112" s="1">
-        <v>8705342961.3999996</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D112" s="1">
-        <v>24171159309.130001</v>
+        <v>24171159309.13</v>
       </c>
       <c r="E112" s="1">
-        <v>41816004324.669998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41816004324.67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="3">
         <v>43585</v>
       </c>
       <c r="B113" s="1">
-        <v>9008244776.2800007</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C113" s="1">
-        <v>9126959379.2399998</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D113" s="1">
-        <v>24607805892.509998</v>
+        <v>24607805892.51</v>
       </c>
       <c r="E113" s="1">
-        <v>42743010048.029999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42743010048.03</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="3">
         <v>43616</v>
       </c>
       <c r="B114" s="1">
-        <v>8944260855.8600006</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C114" s="1">
-        <v>9074029379.0200005</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D114" s="1">
-        <v>25031219112.639999</v>
+        <v>25031219112.64</v>
       </c>
       <c r="E114" s="1">
-        <v>43049509347.519997</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43049509347.52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="3">
         <v>43646</v>
       </c>
       <c r="B115" s="1">
-        <v>9215995868.9500008</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C115" s="1">
-        <v>9361706609.4699993</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D115" s="1">
-        <v>25624099438.360001</v>
+        <v>25624099438.36</v>
       </c>
       <c r="E115" s="1">
-        <v>44201801916.779999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44201801916.78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="3">
         <v>43677</v>
       </c>
       <c r="B116" s="1">
-        <v>9238385070.6700001</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C116" s="1">
-        <v>9396108735.5499992</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D116" s="1">
         <v>25654690308.73</v>
       </c>
       <c r="E116" s="1">
-        <v>44289184114.949997</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44289184114.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="3">
         <v>43708</v>
       </c>
       <c r="B117" s="1">
-        <v>9436337524.5699997</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C117" s="1">
-        <v>9608738306.5599995</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D117" s="1">
-        <v>27075142517.599998</v>
+        <v>27075142517.6</v>
       </c>
       <c r="E117" s="1">
-        <v>46120218348.730003</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46120218348.73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="3">
         <v>43738</v>
       </c>
       <c r="B118" s="1">
-        <v>10602215448.620001</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C118" s="1">
-        <v>9614794478.7800007</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D118" s="1">
-        <v>26732490993.099998</v>
+        <v>26732490993.1</v>
       </c>
       <c r="E118" s="1">
         <v>46949500920.5</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5">
       <c r="A119" s="3">
         <v>43769</v>
       </c>
@@ -2453,16 +2440,16 @@
         <v>10608252625.24</v>
       </c>
       <c r="C119" s="1">
-        <v>9625407467.9099998</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D119" s="1">
-        <v>26631956752.709999</v>
+        <v>26631956752.71</v>
       </c>
       <c r="E119" s="1">
-        <v>46865616845.860001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46865616845.86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="3">
         <v>43799</v>
       </c>
@@ -2470,118 +2457,118 @@
         <v>10692316903.4</v>
       </c>
       <c r="C120" s="1">
-        <v>9713037686.1700001</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D120" s="1">
-        <v>26718171624.689999</v>
+        <v>26718171624.69</v>
       </c>
       <c r="E120" s="1">
-        <v>47123526214.260002</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47123526214.26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="3">
         <v>43830</v>
       </c>
       <c r="B121" s="1">
-        <v>10758442213.969999</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C121" s="1">
-        <v>9477691033.2600002</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D121" s="1">
-        <v>25905410180.560001</v>
+        <v>25905410180.56</v>
       </c>
       <c r="E121" s="1">
-        <v>46141543427.790001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46141543427.79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="3">
         <v>43861</v>
       </c>
       <c r="B122" s="1">
-        <v>10840639312.879999</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C122" s="1">
-        <v>9555218261.0100002</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D122" s="1">
-        <v>26801714204.060001</v>
+        <v>26801714204.06</v>
       </c>
       <c r="E122" s="1">
-        <v>47197571777.949997</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47197571777.95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="3">
         <v>43890</v>
       </c>
       <c r="B123" s="1">
-        <v>10574286223.879999</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C123" s="1">
-        <v>9338936485.3999996</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D123" s="1">
-        <v>27210513709.580002</v>
+        <v>27210513709.58</v>
       </c>
       <c r="E123" s="1">
-        <v>47123736418.860001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47123736418.86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="3">
         <v>43921</v>
       </c>
       <c r="B124" s="1">
-        <v>9764305551.3600006</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C124" s="1">
-        <v>8664875030.0200005</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D124" s="1">
-        <v>26774758277.919998</v>
+        <v>26774758277.92</v>
       </c>
       <c r="E124" s="1">
-        <v>45203938859.300003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45203938859.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="3">
         <v>43951</v>
       </c>
       <c r="B125" s="1">
-        <v>10283094677.360001</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C125" s="1">
-        <v>9107006952.5200005</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D125" s="1">
-        <v>27673823035.060001</v>
+        <v>27673823035.06</v>
       </c>
       <c r="E125" s="1">
-        <v>47063924664.940002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47063924664.94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="3">
         <v>43982</v>
       </c>
       <c r="B126" s="1">
-        <v>10409182664.049999</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C126" s="1">
-        <v>9213245024.9799995</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D126" s="1">
-        <v>27458625451.310001</v>
+        <v>27458625451.31</v>
       </c>
       <c r="E126" s="1">
-        <v>47081053140.339996</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47081053140.34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="3">
         <v>44012</v>
       </c>
@@ -2589,123 +2576,123 @@
         <v>10514205392.24</v>
       </c>
       <c r="C127" s="1">
-        <v>9308097696.1700001</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D127" s="1">
-        <v>27604176824.200001</v>
+        <v>27604176824.2</v>
       </c>
       <c r="E127" s="1">
-        <v>47426479912.610001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47426479912.61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="3">
         <v>44043</v>
       </c>
       <c r="B128" s="1">
-        <v>10849449410.809999</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C128" s="1">
-        <v>9606421868.5300007</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D128" s="1">
         <v>28739709723.02</v>
       </c>
       <c r="E128" s="1">
-        <v>49195581002.360001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+        <v>49195581002.36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="3">
         <v>44074</v>
       </c>
       <c r="B129" s="1">
-        <v>11005151438.129999</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C129" s="1">
-        <v>9743289163.6800003</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D129" s="1">
-        <v>28157559771.860001</v>
+        <v>28157559771.86</v>
       </c>
       <c r="E129" s="1">
-        <v>48906000373.669998</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+        <v>48906000373.67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="3">
         <v>44104</v>
       </c>
       <c r="B130" s="1">
-        <v>11506934819.120001</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C130" s="1">
-        <v>9894562298.5499992</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D130" s="1">
-        <v>27927113005.669998</v>
+        <v>27927113005.67</v>
       </c>
       <c r="E130" s="1">
-        <v>49328610123.339996</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+        <v>49328610123.34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="3">
         <v>44135</v>
       </c>
       <c r="B131" s="1">
-        <v>11238592497.879999</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C131" s="1">
-        <v>9700328704.6299992</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D131" s="1">
-        <v>27087051809.869999</v>
+        <v>27087051809.87</v>
       </c>
       <c r="E131" s="1">
-        <v>48025973012.379997</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+        <v>48025973012.38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="3">
         <v>44165</v>
       </c>
       <c r="B132" s="1">
-        <v>11941273405.450001</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C132" s="1">
-        <v>10308274207.780001</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D132" s="1">
         <v>28190375144.73</v>
       </c>
       <c r="E132" s="1">
-        <v>50439922757.959999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50439922757.96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="3">
         <v>44196</v>
       </c>
       <c r="B133" s="1">
-        <v>12756299620.309999</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C133" s="1">
-        <v>11053433125.610001</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D133" s="1">
         <v>28978673408.57</v>
       </c>
       <c r="E133" s="1">
-        <v>52788406154.489998</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+        <v>52788406154.49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="3">
         <v>44227</v>
       </c>
       <c r="B134" s="1">
-        <v>12558243414.610001</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C134" s="1">
         <v>10900299506.57</v>
@@ -2714,27 +2701,27 @@
         <v>28129381368.68</v>
       </c>
       <c r="E134" s="1">
-        <v>51587924289.860001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+        <v>51587924289.86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="3">
         <v>44255</v>
       </c>
       <c r="B135" s="1">
-        <v>12499730482.129999</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C135" s="1">
-        <v>10872197550.370001</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D135" s="1">
-        <v>27127339708.720001</v>
+        <v>27127339708.72</v>
       </c>
       <c r="E135" s="1">
-        <v>50499267741.220001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50499267741.22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="3">
         <v>44286</v>
       </c>
@@ -2745,30 +2732,30 @@
         <v>10999754121.32</v>
       </c>
       <c r="D136" s="1">
-        <v>26762917954.490002</v>
+        <v>26762917954.49</v>
       </c>
       <c r="E136" s="1">
-        <v>50392639291.639999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50392639291.64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="3">
         <v>44316</v>
       </c>
       <c r="B137" s="1">
-        <v>12959077328.639999</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C137" s="1">
-        <v>11290601383.860001</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D137" s="1">
-        <v>27451228205.639999</v>
+        <v>27451228205.64</v>
       </c>
       <c r="E137" s="1">
-        <v>51700906918.139999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+        <v>51700906918.14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="3">
         <v>44347</v>
       </c>
@@ -2776,50 +2763,50 @@
         <v>13155170030.18</v>
       </c>
       <c r="C138" s="1">
-        <v>11478701164.889999</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D138" s="1">
         <v>27744608720.27</v>
       </c>
       <c r="E138" s="1">
-        <v>52378479915.339996</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+        <v>52378479915.34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="3">
         <v>44377</v>
       </c>
       <c r="B139" s="1">
-        <v>13363308598.309999</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C139" s="1">
         <v>11665454270.74</v>
       </c>
       <c r="D139" s="1">
-        <v>28450323789.220001</v>
+        <v>28450323789.22</v>
       </c>
       <c r="E139" s="1">
-        <v>53479086658.269997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+        <v>53479086658.27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="3">
         <v>44408</v>
       </c>
       <c r="B140" s="1">
-        <v>13542680564.469999</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C140" s="1">
         <v>11826970568.32</v>
       </c>
       <c r="D140" s="1">
-        <v>29059023657.560001</v>
+        <v>29059023657.56</v>
       </c>
       <c r="E140" s="1">
-        <v>54428674790.349998</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+        <v>54428674790.35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="3">
         <v>44439</v>
       </c>
@@ -2830,13 +2817,13 @@
         <v>11980671064.48</v>
       </c>
       <c r="D141" s="1">
-        <v>29181824781.040001</v>
+        <v>29181824781.04</v>
       </c>
       <c r="E141" s="1">
-        <v>54870263825.589996</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+        <v>54870263825.59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="3">
         <v>44469</v>
       </c>
@@ -2850,10 +2837,10 @@
         <v>28189152287.09</v>
       </c>
       <c r="E142" s="1">
-        <v>52900976752.919998</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+        <v>52900976752.92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="3">
         <v>44500</v>
       </c>
@@ -2861,21 +2848,21 @@
         <v>13619689152.99</v>
       </c>
       <c r="C143" s="1">
-        <v>11898653834.639999</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D143" s="1">
         <v>28782352603.84</v>
       </c>
       <c r="E143" s="1">
-        <v>54300695591.470001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+        <v>54300695591.47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="3">
         <v>44530</v>
       </c>
       <c r="B144" s="1">
-        <v>13785068283.860001</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C144" s="1">
         <v>12126631727.77</v>
@@ -2884,27 +2871,27 @@
         <v>29177585592.27</v>
       </c>
       <c r="E144" s="1">
-        <v>55089285603.900002</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+        <v>55089285603.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="3">
         <v>44561</v>
       </c>
       <c r="B145" s="1">
-        <v>13933499672.219999</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C145" s="1">
-        <v>12222321130.280001</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D145" s="1">
         <v>29368978607.23</v>
       </c>
       <c r="E145" s="1">
-        <v>55524799409.730003</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+        <v>55524799409.73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="3">
         <v>44592</v>
       </c>
@@ -2912,21 +2899,21 @@
         <v>13228050556.07</v>
       </c>
       <c r="C146" s="1">
-        <v>11573834300.940001</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D146" s="1">
-        <v>27989441863.540001</v>
+        <v>27989441863.54</v>
       </c>
       <c r="E146" s="1">
-        <v>52791326720.550003</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+        <v>52791326720.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="3">
         <v>44620</v>
       </c>
       <c r="B147" s="1">
-        <v>12924236126.559999</v>
+        <v>12924236126.56</v>
       </c>
       <c r="C147" s="1">
         <v>11299022364.73</v>
@@ -2935,17 +2922,34 @@
         <v>27409938257.91</v>
       </c>
       <c r="E147" s="1">
-        <v>51633196749.199997</v>
+        <v>51633196749.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B148" s="1">
+        <v>12662771414.75</v>
+      </c>
+      <c r="C148" s="1">
+        <v>11031166589.13</v>
+      </c>
+      <c r="D148" s="1">
+        <v>26576281073.84</v>
+      </c>
+      <c r="E148" s="1">
+        <v>50270219077.72</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A147">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+  <conditionalFormatting sqref="A1:A148">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E147">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+  <conditionalFormatting sqref="B2:E148">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2954,17 +2958,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALM147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:ALM148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1001" width="21.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1001" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2981,2497 +2985,2517 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>40209</v>
       </c>
       <c r="B2" s="1">
-        <v>-1.2907E-2</v>
+        <v>-0.012907</v>
       </c>
       <c r="C2" s="1">
-        <v>-1.3845E-2</v>
+        <v>-0.013845</v>
       </c>
       <c r="D2" s="1">
-        <v>-1.3906E-2</v>
+        <v>-0.013906</v>
       </c>
       <c r="E2" s="1">
-        <v>-1.3840999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.013841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>40237</v>
       </c>
       <c r="B3" s="1">
-        <v>1.2753E-2</v>
+        <v>0.012753</v>
       </c>
       <c r="C3" s="1">
-        <v>1.3375E-2</v>
+        <v>0.013375</v>
       </c>
       <c r="D3" s="1">
-        <v>1.3596E-2</v>
+        <v>0.013596</v>
       </c>
       <c r="E3" s="1">
-        <v>1.3512E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.013512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>40268</v>
       </c>
       <c r="B4" s="1">
-        <v>3.7111999999999999E-2</v>
+        <v>0.037112</v>
       </c>
       <c r="C4" s="1">
-        <v>3.9344999999999998E-2</v>
+        <v>0.039345</v>
       </c>
       <c r="D4" s="1">
-        <v>3.9373999999999999E-2</v>
+        <v>0.039374</v>
       </c>
       <c r="E4" s="1">
-        <v>3.9191999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.039192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>40298</v>
       </c>
       <c r="B5" s="1">
-        <v>2.0455000000000001E-2</v>
+        <v>0.020455</v>
       </c>
       <c r="C5" s="1">
-        <v>2.1368000000000002E-2</v>
+        <v>0.021368</v>
       </c>
       <c r="D5" s="1">
-        <v>2.1406000000000001E-2</v>
+        <v>0.021406</v>
       </c>
       <c r="E5" s="1">
-        <v>2.1312999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.021313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>40329</v>
       </c>
       <c r="B6" s="1">
-        <v>-4.2701000000000003E-2</v>
+        <v>-0.042701</v>
       </c>
       <c r="C6" s="1">
-        <v>-4.2681999999999998E-2</v>
+        <v>-0.042682</v>
       </c>
       <c r="D6" s="1">
-        <v>-4.2691999999999987E-2</v>
+        <v>-0.04269199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>-4.2691E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.042691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>40359</v>
       </c>
       <c r="B7" s="1">
-        <v>-1.0430999999999999E-2</v>
+        <v>-0.010431</v>
       </c>
       <c r="C7" s="1">
-        <v>-1.0423999999999999E-2</v>
+        <v>-0.010424</v>
       </c>
       <c r="D7" s="1">
-        <v>-1.0512000000000001E-2</v>
+        <v>-0.010512</v>
       </c>
       <c r="E7" s="1">
-        <v>-1.0493000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.010493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>40390</v>
       </c>
       <c r="B8" s="1">
-        <v>4.1590000000000002E-2</v>
+        <v>0.04159</v>
       </c>
       <c r="C8" s="1">
-        <v>4.3416000000000003E-2</v>
+        <v>0.043416</v>
       </c>
       <c r="D8" s="1">
-        <v>4.3425000000000012E-2</v>
+        <v>0.04342500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>4.3243999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.043244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>40421</v>
       </c>
       <c r="B9" s="1">
-        <v>1.5479999999999999E-3</v>
+        <v>0.001548</v>
       </c>
       <c r="C9" s="1">
-        <v>1.5579999999999999E-3</v>
+        <v>0.001558</v>
       </c>
       <c r="D9" s="1">
-        <v>1.5499999999999999E-3</v>
+        <v>0.00155</v>
       </c>
       <c r="E9" s="1">
-        <v>1.5510000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.001551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>40451</v>
       </c>
       <c r="B10" s="1">
-        <v>4.5319999999999999E-2</v>
+        <v>0.04532</v>
       </c>
       <c r="C10" s="1">
-        <v>4.5332999999999998E-2</v>
+        <v>0.045333</v>
       </c>
       <c r="D10" s="1">
-        <v>4.5331000000000003E-2</v>
+        <v>0.045331</v>
       </c>
       <c r="E10" s="1">
-        <v>4.5330000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.04533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>40482</v>
       </c>
       <c r="B11" s="1">
-        <v>9.8240000000000011E-3</v>
+        <v>0.009824000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>9.8510000000000004E-3</v>
+        <v>0.009851</v>
       </c>
       <c r="D11" s="1">
-        <v>9.7619999999999998E-3</v>
+        <v>0.009762</v>
       </c>
       <c r="E11" s="1">
-        <v>9.7809999999999998E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.009781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>40512</v>
       </c>
       <c r="B12" s="1">
-        <v>-6.7620000000000006E-3</v>
+        <v>-0.006762000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>-5.9789999999999999E-3</v>
+        <v>-0.005979</v>
       </c>
       <c r="D12" s="1">
-        <v>-6.3109999999999998E-3</v>
+        <v>-0.006311</v>
       </c>
       <c r="E12" s="1">
-        <v>-6.3070000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.006307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>40543</v>
       </c>
       <c r="B13" s="1">
-        <v>2.9284000000000001E-2</v>
+        <v>0.029284</v>
       </c>
       <c r="C13" s="1">
-        <v>2.9312000000000001E-2</v>
+        <v>0.029312</v>
       </c>
       <c r="D13" s="1">
-        <v>2.9354000000000002E-2</v>
+        <v>0.029354</v>
       </c>
       <c r="E13" s="1">
-        <v>2.9340999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.029341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>40574</v>
       </c>
       <c r="B14" s="1">
-        <v>-1.15E-3</v>
+        <v>-0.00115</v>
       </c>
       <c r="C14" s="1">
-        <v>-1.119E-3</v>
+        <v>-0.001119</v>
       </c>
       <c r="D14" s="1">
-        <v>-1.1150000000000001E-3</v>
+        <v>-0.001115</v>
       </c>
       <c r="E14" s="1">
-        <v>-1.121E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.001121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>40602</v>
       </c>
       <c r="B15" s="1">
-        <v>2.3290999999999999E-2</v>
+        <v>0.023291</v>
       </c>
       <c r="C15" s="1">
-        <v>2.3317000000000001E-2</v>
+        <v>0.023317</v>
       </c>
       <c r="D15" s="1">
-        <v>2.3307999999999999E-2</v>
+        <v>0.023308</v>
       </c>
       <c r="E15" s="1">
-        <v>2.3307000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.023307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>40633</v>
       </c>
       <c r="B16" s="1">
-        <v>2.493E-3</v>
+        <v>0.002493</v>
       </c>
       <c r="C16" s="1">
-        <v>2.493E-3</v>
+        <v>0.002493</v>
       </c>
       <c r="D16" s="1">
-        <v>2.4940000000000001E-3</v>
+        <v>0.002494</v>
       </c>
       <c r="E16" s="1">
-        <v>2.4940000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.002494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>40663</v>
       </c>
       <c r="B17" s="1">
-        <v>3.0082000000000001E-2</v>
+        <v>0.030082</v>
       </c>
       <c r="C17" s="1">
-        <v>3.0134000000000001E-2</v>
+        <v>0.030134</v>
       </c>
       <c r="D17" s="1">
-        <v>3.0134000000000001E-2</v>
+        <v>0.030134</v>
       </c>
       <c r="E17" s="1">
-        <v>3.0126E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.030126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>40694</v>
       </c>
       <c r="B18" s="1">
-        <v>6.2509999999999996E-3</v>
+        <v>0.006251</v>
       </c>
       <c r="C18" s="1">
-        <v>6.2519999999999997E-3</v>
+        <v>0.006252</v>
       </c>
       <c r="D18" s="1">
-        <v>6.2509999999999996E-3</v>
+        <v>0.006251</v>
       </c>
       <c r="E18" s="1">
-        <v>6.2509999999999996E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.006251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>40724</v>
       </c>
       <c r="B19" s="1">
-        <v>-1.6393999999999999E-2</v>
+        <v>-0.016394</v>
       </c>
       <c r="C19" s="1">
-        <v>-1.6393000000000001E-2</v>
+        <v>-0.016393</v>
       </c>
       <c r="D19" s="1">
-        <v>-1.6388E-2</v>
+        <v>-0.016388</v>
       </c>
       <c r="E19" s="1">
-        <v>-1.6389000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.016389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>40755</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0779E-2</v>
+        <v>0.010779</v>
       </c>
       <c r="C20" s="1">
-        <v>1.0779E-2</v>
+        <v>0.010779</v>
       </c>
       <c r="D20" s="1">
-        <v>1.0779E-2</v>
+        <v>0.010779</v>
       </c>
       <c r="E20" s="1">
-        <v>1.0779E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.010779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>40786</v>
       </c>
       <c r="B21" s="1">
-        <v>-6.4949999999999999E-3</v>
+        <v>-0.006495</v>
       </c>
       <c r="C21" s="1">
-        <v>-6.4920000000000004E-3</v>
+        <v>-0.006492</v>
       </c>
       <c r="D21" s="1">
-        <v>-6.4880000000000007E-3</v>
+        <v>-0.006488000000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>-6.4900000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.00649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>40816</v>
       </c>
       <c r="B22" s="1">
-        <v>1.2019999999999999E-3</v>
+        <v>0.001202</v>
       </c>
       <c r="C22" s="1">
-        <v>1.2030000000000001E-3</v>
+        <v>0.001203</v>
       </c>
       <c r="D22" s="1">
-        <v>1.2030000000000001E-3</v>
+        <v>0.001203</v>
       </c>
       <c r="E22" s="1">
-        <v>1.2030000000000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.001203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>40847</v>
       </c>
       <c r="B23" s="1">
-        <v>3.5730999999999999E-2</v>
+        <v>0.035731</v>
       </c>
       <c r="C23" s="1">
-        <v>3.5735999999999997E-2</v>
+        <v>0.035736</v>
       </c>
       <c r="D23" s="1">
-        <v>3.5729999999999998E-2</v>
+        <v>0.03573</v>
       </c>
       <c r="E23" s="1">
-        <v>3.5730999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.035731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>40877</v>
       </c>
       <c r="B24" s="1">
-        <v>-6.8339999999999998E-3</v>
+        <v>-0.006834</v>
       </c>
       <c r="C24" s="1">
-        <v>-6.8339999999999998E-3</v>
+        <v>-0.006834</v>
       </c>
       <c r="D24" s="1">
-        <v>-6.8320000000000004E-3</v>
+        <v>-0.006832</v>
       </c>
       <c r="E24" s="1">
-        <v>-6.8320000000000004E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.006832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>40908</v>
       </c>
       <c r="B25" s="1">
-        <v>1.1627E-2</v>
+        <v>0.011627</v>
       </c>
       <c r="C25" s="1">
-        <v>1.1629E-2</v>
+        <v>0.011629</v>
       </c>
       <c r="D25" s="1">
-        <v>1.1629E-2</v>
+        <v>0.011629</v>
       </c>
       <c r="E25" s="1">
-        <v>1.1629E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.011629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>40939</v>
       </c>
       <c r="B26" s="1">
-        <v>2.7751000000000001E-2</v>
+        <v>0.027751</v>
       </c>
       <c r="C26" s="1">
-        <v>2.7758000000000001E-2</v>
+        <v>0.027758</v>
       </c>
       <c r="D26" s="1">
-        <v>2.7751000000000001E-2</v>
+        <v>0.027751</v>
       </c>
       <c r="E26" s="1">
-        <v>2.7751999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.027752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>40968</v>
       </c>
       <c r="B27" s="1">
-        <v>1.8401000000000001E-2</v>
+        <v>0.018401</v>
       </c>
       <c r="C27" s="1">
-        <v>1.8387000000000001E-2</v>
+        <v>0.018387</v>
       </c>
       <c r="D27" s="1">
-        <v>1.8407E-2</v>
+        <v>0.018407</v>
       </c>
       <c r="E27" s="1">
-        <v>1.8402999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.018403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>40999</v>
       </c>
       <c r="B28" s="1">
-        <v>-3.8270000000000001E-3</v>
+        <v>-0.003827</v>
       </c>
       <c r="C28" s="1">
-        <v>-3.8400000000000001E-3</v>
+        <v>-0.00384</v>
       </c>
       <c r="D28" s="1">
-        <v>-3.8400000000000001E-3</v>
+        <v>-0.00384</v>
       </c>
       <c r="E28" s="1">
-        <v>-3.8379999999999998E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.003838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>41029</v>
       </c>
       <c r="B29" s="1">
-        <v>1.0168999999999999E-2</v>
+        <v>0.010169</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0170999999999999E-2</v>
+        <v>0.010171</v>
       </c>
       <c r="D29" s="1">
-        <v>1.0168999999999999E-2</v>
+        <v>0.010169</v>
       </c>
       <c r="E29" s="1">
-        <v>1.0168999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.010169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>41060</v>
       </c>
       <c r="B30" s="1">
-        <v>-7.1469999999999997E-3</v>
+        <v>-0.007147</v>
       </c>
       <c r="C30" s="1">
-        <v>-7.141999999999999E-3</v>
+        <v>-0.007141999999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>-7.1130000000000004E-3</v>
+        <v>-0.007113</v>
       </c>
       <c r="E30" s="1">
-        <v>-7.1220000000000007E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.007122000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="3">
         <v>41090</v>
       </c>
       <c r="B31" s="1">
-        <v>1.3617000000000001E-2</v>
+        <v>0.013617</v>
       </c>
       <c r="C31" s="1">
-        <v>1.3665E-2</v>
+        <v>0.013665</v>
       </c>
       <c r="D31" s="1">
-        <v>1.3662000000000001E-2</v>
+        <v>0.013662</v>
       </c>
       <c r="E31" s="1">
-        <v>1.3655E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.013655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="3">
         <v>41121</v>
       </c>
       <c r="B32" s="1">
-        <v>2.2428E-2</v>
+        <v>0.022428</v>
       </c>
       <c r="C32" s="1">
-        <v>2.2445E-2</v>
+        <v>0.022445</v>
       </c>
       <c r="D32" s="1">
-        <v>2.2415000000000001E-2</v>
+        <v>0.022415</v>
       </c>
       <c r="E32" s="1">
-        <v>2.2421E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.022421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3">
         <v>41152</v>
       </c>
       <c r="B33" s="1">
-        <v>6.5459999999999997E-3</v>
+        <v>0.006546</v>
       </c>
       <c r="C33" s="1">
-        <v>6.5480000000000009E-3</v>
+        <v>0.006548000000000001</v>
       </c>
       <c r="D33" s="1">
-        <v>6.5459999999999997E-3</v>
+        <v>0.006546</v>
       </c>
       <c r="E33" s="1">
-        <v>6.5459999999999997E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.006546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="3">
         <v>41182</v>
       </c>
       <c r="B34" s="1">
-        <v>8.5959999999999995E-3</v>
+        <v>0.008595999999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>8.5979999999999997E-3</v>
+        <v>0.008598</v>
       </c>
       <c r="D34" s="1">
-        <v>8.5970000000000005E-3</v>
+        <v>0.008597</v>
       </c>
       <c r="E34" s="1">
-        <v>8.5970000000000005E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.008597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="3">
         <v>41213</v>
       </c>
       <c r="B35" s="1">
-        <v>1.5039999999999999E-3</v>
+        <v>0.001504</v>
       </c>
       <c r="C35" s="1">
-        <v>1.506E-3</v>
+        <v>0.001506</v>
       </c>
       <c r="D35" s="1">
-        <v>1.505E-3</v>
+        <v>0.001505</v>
       </c>
       <c r="E35" s="1">
-        <v>1.505E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.001505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="3">
         <v>41243</v>
       </c>
       <c r="B36" s="1">
-        <v>7.5690000000000002E-3</v>
+        <v>0.007569</v>
       </c>
       <c r="C36" s="1">
-        <v>7.5709999999999996E-3</v>
+        <v>0.007571</v>
       </c>
       <c r="D36" s="1">
-        <v>7.5709999999999996E-3</v>
+        <v>0.007571</v>
       </c>
       <c r="E36" s="1">
-        <v>7.5709999999999996E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.007571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="3">
         <v>41274</v>
       </c>
       <c r="B37" s="1">
-        <v>8.1569999999999993E-3</v>
+        <v>0.008156999999999999</v>
       </c>
       <c r="C37" s="1">
-        <v>8.1689999999999992E-3</v>
+        <v>0.008168999999999999</v>
       </c>
       <c r="D37" s="1">
-        <v>8.1650000000000004E-3</v>
+        <v>0.008165</v>
       </c>
       <c r="E37" s="1">
-        <v>8.1639999999999994E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.008163999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="3">
         <v>41305</v>
       </c>
       <c r="B38" s="1">
-        <v>1.3471E-2</v>
+        <v>0.013471</v>
       </c>
       <c r="C38" s="1">
-        <v>1.3571E-2</v>
+        <v>0.013571</v>
       </c>
       <c r="D38" s="1">
-        <v>1.3455999999999999E-2</v>
+        <v>0.013456</v>
       </c>
       <c r="E38" s="1">
-        <v>1.3479E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.013479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="3">
         <v>41333</v>
       </c>
       <c r="B39" s="1">
-        <v>7.4650000000000003E-3</v>
+        <v>0.007465</v>
       </c>
       <c r="C39" s="1">
-        <v>7.4580000000000002E-3</v>
+        <v>0.007458</v>
       </c>
       <c r="D39" s="1">
-        <v>7.4700000000000001E-3</v>
+        <v>0.00747</v>
       </c>
       <c r="E39" s="1">
-        <v>7.4670000000000014E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.007467000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="3">
         <v>41364</v>
       </c>
       <c r="B40" s="1">
-        <v>1.5025E-2</v>
+        <v>0.015025</v>
       </c>
       <c r="C40" s="1">
-        <v>1.5027E-2</v>
+        <v>0.015027</v>
       </c>
       <c r="D40" s="1">
-        <v>1.5023999999999999E-2</v>
+        <v>0.015024</v>
       </c>
       <c r="E40" s="1">
-        <v>1.5023999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.015024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="3">
         <v>41394</v>
       </c>
       <c r="B41" s="1">
-        <v>2.5087000000000002E-2</v>
+        <v>0.025087</v>
       </c>
       <c r="C41" s="1">
-        <v>2.5090999999999999E-2</v>
+        <v>0.025091</v>
       </c>
       <c r="D41" s="1">
-        <v>2.5086000000000001E-2</v>
+        <v>0.025086</v>
       </c>
       <c r="E41" s="1">
-        <v>2.5087000000000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.025087</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="3">
         <v>41425</v>
       </c>
       <c r="B42" s="1">
-        <v>-1.6670999999999998E-2</v>
+        <v>-0.016671</v>
       </c>
       <c r="C42" s="1">
-        <v>-1.6673E-2</v>
+        <v>-0.016673</v>
       </c>
       <c r="D42" s="1">
-        <v>-1.6670000000000001E-2</v>
+        <v>-0.01667</v>
       </c>
       <c r="E42" s="1">
-        <v>-1.6670000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.01667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="3">
         <v>41455</v>
       </c>
       <c r="B43" s="1">
-        <v>-1.8162999999999999E-2</v>
+        <v>-0.018163</v>
       </c>
       <c r="C43" s="1">
-        <v>-1.8165000000000001E-2</v>
+        <v>-0.018165</v>
       </c>
       <c r="D43" s="1">
-        <v>-1.8159999999999999E-2</v>
+        <v>-0.01816</v>
       </c>
       <c r="E43" s="1">
-        <v>-1.8162000000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.018162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="3">
         <v>41486</v>
       </c>
       <c r="B44" s="1">
-        <v>1.4253999999999999E-2</v>
+        <v>0.014254</v>
       </c>
       <c r="C44" s="1">
-        <v>1.4257000000000001E-2</v>
+        <v>0.014257</v>
       </c>
       <c r="D44" s="1">
-        <v>1.4252000000000001E-2</v>
+        <v>0.014252</v>
       </c>
       <c r="E44" s="1">
-        <v>1.4253E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.014253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="3">
         <v>41517</v>
       </c>
       <c r="B45" s="1">
-        <v>-1.1051E-2</v>
+        <v>-0.011051</v>
       </c>
       <c r="C45" s="1">
-        <v>-1.1022000000000001E-2</v>
+        <v>-0.011022</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.1036000000000001E-2</v>
+        <v>-0.011036</v>
       </c>
       <c r="E45" s="1">
-        <v>-1.1036000000000001E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.011036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="3">
         <v>41547</v>
       </c>
       <c r="B46" s="1">
-        <v>2.0116999999999999E-2</v>
+        <v>0.020117</v>
       </c>
       <c r="C46" s="1">
-        <v>2.0119999999999999E-2</v>
+        <v>0.02012</v>
       </c>
       <c r="D46" s="1">
-        <v>2.0114E-2</v>
+        <v>0.020114</v>
       </c>
       <c r="E46" s="1">
-        <v>2.0115999999999998E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.020116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="3">
         <v>41578</v>
       </c>
       <c r="B47" s="1">
-        <v>2.223E-2</v>
+        <v>0.02223</v>
       </c>
       <c r="C47" s="1">
-        <v>2.2235999999999999E-2</v>
+        <v>0.022236</v>
       </c>
       <c r="D47" s="1">
-        <v>2.2227E-2</v>
+        <v>0.022227</v>
       </c>
       <c r="E47" s="1">
-        <v>2.2228999999999999E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.022229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="3">
         <v>41608</v>
       </c>
       <c r="B48" s="1">
-        <v>1.6570000000000001E-3</v>
+        <v>0.001657</v>
       </c>
       <c r="C48" s="1">
-        <v>1.6570000000000001E-3</v>
+        <v>0.001657</v>
       </c>
       <c r="D48" s="1">
-        <v>1.66E-3</v>
+        <v>0.00166</v>
       </c>
       <c r="E48" s="1">
-        <v>1.6590000000000001E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.001659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="3">
         <v>41639</v>
       </c>
       <c r="B49" s="1">
-        <v>7.3109999999999998E-3</v>
+        <v>0.007311</v>
       </c>
       <c r="C49" s="1">
-        <v>7.3119999999999999E-3</v>
+        <v>0.007312</v>
       </c>
       <c r="D49" s="1">
-        <v>7.3099999999999997E-3</v>
+        <v>0.00731</v>
       </c>
       <c r="E49" s="1">
-        <v>7.3099999999999997E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.00731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="3">
         <v>41670</v>
       </c>
       <c r="B50" s="1">
-        <v>1.869E-3</v>
+        <v>0.001869</v>
       </c>
       <c r="C50" s="1">
-        <v>1.8710000000000001E-3</v>
+        <v>0.001871</v>
       </c>
       <c r="D50" s="1">
-        <v>1.8710000000000001E-3</v>
+        <v>0.001871</v>
       </c>
       <c r="E50" s="1">
-        <v>1.8710000000000001E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.001871</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="3">
         <v>41698</v>
       </c>
       <c r="B51" s="1">
-        <v>2.2898999999999999E-2</v>
+        <v>0.022899</v>
       </c>
       <c r="C51" s="1">
-        <v>2.2970000000000001E-2</v>
+        <v>0.02297</v>
       </c>
       <c r="D51" s="1">
-        <v>2.2973E-2</v>
+        <v>0.022973</v>
       </c>
       <c r="E51" s="1">
-        <v>2.2960000000000001E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.02296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="3">
         <v>41729</v>
       </c>
       <c r="B52" s="1">
-        <v>7.5810000000000001E-3</v>
+        <v>0.007581</v>
       </c>
       <c r="C52" s="1">
-        <v>7.5820000000000002E-3</v>
+        <v>0.007582</v>
       </c>
       <c r="D52" s="1">
-        <v>7.5810000000000001E-3</v>
+        <v>0.007581</v>
       </c>
       <c r="E52" s="1">
-        <v>7.5810000000000001E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.007581</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="3">
         <v>41759</v>
       </c>
       <c r="B53" s="1">
-        <v>2.5590000000000001E-3</v>
+        <v>0.002559</v>
       </c>
       <c r="C53" s="1">
-        <v>2.5590000000000001E-3</v>
+        <v>0.002559</v>
       </c>
       <c r="D53" s="1">
-        <v>2.565E-3</v>
+        <v>0.002565</v>
       </c>
       <c r="E53" s="1">
-        <v>2.5630000000000002E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.002563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="3">
         <v>41790</v>
       </c>
       <c r="B54" s="1">
-        <v>1.8616000000000001E-2</v>
+        <v>0.018616</v>
       </c>
       <c r="C54" s="1">
-        <v>1.8622E-2</v>
+        <v>0.018622</v>
       </c>
       <c r="D54" s="1">
-        <v>1.8616000000000001E-2</v>
+        <v>0.018616</v>
       </c>
       <c r="E54" s="1">
-        <v>1.8617000000000002E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.018617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="3">
         <v>41820</v>
       </c>
       <c r="B55" s="1">
-        <v>7.5919999999999998E-3</v>
+        <v>0.007592</v>
       </c>
       <c r="C55" s="1">
-        <v>7.5919999999999998E-3</v>
+        <v>0.007592</v>
       </c>
       <c r="D55" s="1">
-        <v>7.5900000000000004E-3</v>
+        <v>0.00759</v>
       </c>
       <c r="E55" s="1">
-        <v>7.5909999999999997E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.007591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="3">
         <v>41851</v>
       </c>
       <c r="B56" s="1">
-        <v>-3.5370000000000002E-3</v>
+        <v>-0.003537</v>
       </c>
       <c r="C56" s="1">
-        <v>-3.5360000000000001E-3</v>
+        <v>-0.003536</v>
       </c>
       <c r="D56" s="1">
-        <v>-3.5339999999999998E-3</v>
+        <v>-0.003534</v>
       </c>
       <c r="E56" s="1">
-        <v>-3.5349999999999999E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.003535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="3">
         <v>41882</v>
       </c>
       <c r="B57" s="1">
-        <v>2.4396000000000001E-2</v>
+        <v>0.024396</v>
       </c>
       <c r="C57" s="1">
-        <v>2.4396000000000001E-2</v>
+        <v>0.024396</v>
       </c>
       <c r="D57" s="1">
-        <v>2.4400000000000002E-2</v>
+        <v>0.0244</v>
       </c>
       <c r="E57" s="1">
-        <v>2.4399000000000001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.024399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="3">
         <v>41912</v>
       </c>
       <c r="B58" s="1">
-        <v>-1.8814000000000001E-2</v>
+        <v>-0.018814</v>
       </c>
       <c r="C58" s="1">
-        <v>-1.8804000000000001E-2</v>
+        <v>-0.018804</v>
       </c>
       <c r="D58" s="1">
-        <v>-1.8789E-2</v>
+        <v>-0.018789</v>
       </c>
       <c r="E58" s="1">
-        <v>-1.8796E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.018796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="3">
         <v>41943</v>
       </c>
       <c r="B59" s="1">
-        <v>1.2246E-2</v>
+        <v>0.012246</v>
       </c>
       <c r="C59" s="1">
-        <v>1.2244E-2</v>
+        <v>0.012244</v>
       </c>
       <c r="D59" s="1">
-        <v>1.2253999999999999E-2</v>
+        <v>0.012254</v>
       </c>
       <c r="E59" s="1">
-        <v>1.2251E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.012251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="3">
         <v>41973</v>
       </c>
       <c r="B60" s="1">
-        <v>1.6811E-2</v>
+        <v>0.016811</v>
       </c>
       <c r="C60" s="1">
-        <v>1.6820000000000002E-2</v>
+        <v>0.01682</v>
       </c>
       <c r="D60" s="1">
-        <v>1.6820000000000002E-2</v>
+        <v>0.01682</v>
       </c>
       <c r="E60" s="1">
-        <v>1.6818E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.016818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="3">
         <v>42004</v>
       </c>
       <c r="B61" s="1">
-        <v>2.068E-3</v>
+        <v>0.002068</v>
       </c>
       <c r="C61" s="1">
-        <v>2.0760000000000002E-3</v>
+        <v>0.002076</v>
       </c>
       <c r="D61" s="1">
-        <v>2.0799999999999998E-3</v>
+        <v>0.00208</v>
       </c>
       <c r="E61" s="1">
-        <v>2.0769999999999999E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.002077</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="3">
         <v>42035</v>
       </c>
       <c r="B62" s="1">
-        <v>2.3362000000000001E-2</v>
+        <v>0.023362</v>
       </c>
       <c r="C62" s="1">
-        <v>2.3356999999999999E-2</v>
+        <v>0.023357</v>
       </c>
       <c r="D62" s="1">
-        <v>2.3349999999999999E-2</v>
+        <v>0.02335</v>
       </c>
       <c r="E62" s="1">
-        <v>2.3352999999999999E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.023353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="3">
         <v>42063</v>
       </c>
       <c r="B63" s="1">
-        <v>7.672E-3</v>
+        <v>0.007672</v>
       </c>
       <c r="C63" s="1">
-        <v>7.672E-3</v>
+        <v>0.007672</v>
       </c>
       <c r="D63" s="1">
-        <v>7.6709999999999999E-3</v>
+        <v>0.007671</v>
       </c>
       <c r="E63" s="1">
-        <v>7.6709999999999999E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.007671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="3">
         <v>42094</v>
       </c>
       <c r="B64" s="1">
-        <v>7.2499999999999995E-4</v>
+        <v>0.000725</v>
       </c>
       <c r="C64" s="1">
-        <v>7.3099999999999999E-4</v>
+        <v>0.000731</v>
       </c>
       <c r="D64" s="1">
-        <v>7.2499999999999995E-4</v>
+        <v>0.000725</v>
       </c>
       <c r="E64" s="1">
-        <v>7.2599999999999997E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.000726</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="3">
         <v>42124</v>
       </c>
       <c r="B65" s="1">
-        <v>4.8299999999999998E-4</v>
+        <v>0.000483</v>
       </c>
       <c r="C65" s="1">
-        <v>4.8299999999999998E-4</v>
+        <v>0.000483</v>
       </c>
       <c r="D65" s="1">
-        <v>4.8299999999999998E-4</v>
+        <v>0.000483</v>
       </c>
       <c r="E65" s="1">
-        <v>4.8299999999999998E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.000483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="3">
         <v>42155</v>
       </c>
       <c r="B66" s="1">
-        <v>-1.4469999999999999E-3</v>
+        <v>-0.001447</v>
       </c>
       <c r="C66" s="1">
-        <v>-1.4469999999999999E-3</v>
+        <v>-0.001447</v>
       </c>
       <c r="D66" s="1">
-        <v>-1.4469999999999999E-3</v>
+        <v>-0.001447</v>
       </c>
       <c r="E66" s="1">
-        <v>-1.4469999999999999E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.001447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="3">
         <v>42185</v>
       </c>
       <c r="B67" s="1">
-        <v>-1.9129E-2</v>
+        <v>-0.019129</v>
       </c>
       <c r="C67" s="1">
-        <v>-1.9129E-2</v>
+        <v>-0.019129</v>
       </c>
       <c r="D67" s="1">
-        <v>-1.9127000000000002E-2</v>
+        <v>-0.019127</v>
       </c>
       <c r="E67" s="1">
-        <v>-1.9127999999999999E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.019128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="3">
         <v>42216</v>
       </c>
       <c r="B68" s="1">
-        <v>1.0715000000000001E-2</v>
+        <v>0.010715</v>
       </c>
       <c r="C68" s="1">
-        <v>1.0715000000000001E-2</v>
+        <v>0.010715</v>
       </c>
       <c r="D68" s="1">
-        <v>1.0714E-2</v>
+        <v>0.010714</v>
       </c>
       <c r="E68" s="1">
-        <v>1.0714E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.010714</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="3">
         <v>42247</v>
       </c>
       <c r="B69" s="1">
-        <v>-2.7127999999999999E-2</v>
+        <v>-0.027128</v>
       </c>
       <c r="C69" s="1">
-        <v>-2.7126000000000001E-2</v>
+        <v>-0.027126</v>
       </c>
       <c r="D69" s="1">
-        <v>-2.7125E-2</v>
+        <v>-0.027125</v>
       </c>
       <c r="E69" s="1">
-        <v>-2.7126000000000001E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.027126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="3">
         <v>42277</v>
       </c>
       <c r="B70" s="1">
-        <v>-8.7600000000000004E-3</v>
+        <v>-0.00876</v>
       </c>
       <c r="C70" s="1">
-        <v>-8.7600000000000004E-3</v>
+        <v>-0.00876</v>
       </c>
       <c r="D70" s="1">
-        <v>-8.7589999999999994E-3</v>
+        <v>-0.008758999999999999</v>
       </c>
       <c r="E70" s="1">
-        <v>-8.7600000000000004E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.00876</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="3">
         <v>42308</v>
       </c>
       <c r="B71" s="1">
-        <v>2.8753000000000001E-2</v>
+        <v>0.028753</v>
       </c>
       <c r="C71" s="1">
-        <v>2.8715999999999998E-2</v>
+        <v>0.028716</v>
       </c>
       <c r="D71" s="1">
-        <v>2.8798000000000001E-2</v>
+        <v>0.028798</v>
       </c>
       <c r="E71" s="1">
-        <v>2.8774999999999998E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.028775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="3">
         <v>42338</v>
       </c>
       <c r="B72" s="1">
-        <v>-3.8279999999999998E-3</v>
+        <v>-0.003828</v>
       </c>
       <c r="C72" s="1">
-        <v>-3.8189999999999999E-3</v>
+        <v>-0.003819</v>
       </c>
       <c r="D72" s="1">
-        <v>-3.8070000000000001E-3</v>
+        <v>-0.003807</v>
       </c>
       <c r="E72" s="1">
-        <v>-3.813E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.003813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="3">
         <v>42369</v>
       </c>
       <c r="B73" s="1">
-        <v>-8.1869999999999998E-3</v>
+        <v>-0.008187</v>
       </c>
       <c r="C73" s="1">
-        <v>-8.1869999999999998E-3</v>
+        <v>-0.008187</v>
       </c>
       <c r="D73" s="1">
-        <v>-8.1840000000000003E-3</v>
+        <v>-0.008184</v>
       </c>
       <c r="E73" s="1">
-        <v>-8.1849999999999996E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.008185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="3">
         <v>42400</v>
       </c>
       <c r="B74" s="1">
-        <v>-1.4827E-2</v>
+        <v>-0.014827</v>
       </c>
       <c r="C74" s="1">
-        <v>-1.4829999999999999E-2</v>
+        <v>-0.01483</v>
       </c>
       <c r="D74" s="1">
-        <v>-1.4826000000000001E-2</v>
+        <v>-0.014826</v>
       </c>
       <c r="E74" s="1">
-        <v>-1.4827E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.014827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="3">
         <v>42429</v>
       </c>
       <c r="B75" s="1">
-        <v>7.1479999999999998E-3</v>
+        <v>0.007148</v>
       </c>
       <c r="C75" s="1">
-        <v>7.1479999999999998E-3</v>
+        <v>0.007148</v>
       </c>
       <c r="D75" s="1">
-        <v>7.1509999999999994E-3</v>
+        <v>0.007150999999999999</v>
       </c>
       <c r="E75" s="1">
-        <v>7.1500000000000001E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.00715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="3">
         <v>42460</v>
       </c>
       <c r="B76" s="1">
-        <v>3.4736999999999997E-2</v>
+        <v>0.034737</v>
       </c>
       <c r="C76" s="1">
-        <v>3.4736000000000003E-2</v>
+        <v>0.034736</v>
       </c>
       <c r="D76" s="1">
-        <v>3.4733E-2</v>
+        <v>0.034733</v>
       </c>
       <c r="E76" s="1">
-        <v>3.4734000000000001E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.034734</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="3">
         <v>42490</v>
       </c>
       <c r="B77" s="1">
-        <v>9.2429999999999995E-3</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>9.2429999999999995E-3</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="D77" s="1">
-        <v>9.2420000000000002E-3</v>
+        <v>0.009242</v>
       </c>
       <c r="E77" s="1">
-        <v>9.2429999999999995E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.009242999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="3">
         <v>42521</v>
       </c>
       <c r="B78" s="1">
-        <v>1.8810000000000001E-3</v>
+        <v>0.001881</v>
       </c>
       <c r="C78" s="1">
-        <v>1.8829999999999999E-3</v>
+        <v>0.001883</v>
       </c>
       <c r="D78" s="1">
-        <v>1.884E-3</v>
+        <v>0.001884</v>
       </c>
       <c r="E78" s="1">
-        <v>1.8829999999999999E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.001883</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="3">
         <v>42551</v>
       </c>
       <c r="B79" s="1">
-        <v>1.0067E-2</v>
+        <v>0.010067</v>
       </c>
       <c r="C79" s="1">
-        <v>1.0097999999999999E-2</v>
+        <v>0.010098</v>
       </c>
       <c r="D79" s="1">
-        <v>1.013E-2</v>
+        <v>0.01013</v>
       </c>
       <c r="E79" s="1">
-        <v>1.0111999999999999E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.010112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="3">
         <v>42582</v>
       </c>
       <c r="B80" s="1">
-        <v>2.1267000000000001E-2</v>
+        <v>0.021267</v>
       </c>
       <c r="C80" s="1">
-        <v>2.1267000000000001E-2</v>
+        <v>0.021267</v>
       </c>
       <c r="D80" s="1">
-        <v>2.1264000000000002E-2</v>
+        <v>0.021264</v>
       </c>
       <c r="E80" s="1">
-        <v>2.1264999999999999E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.021265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="3">
         <v>42613</v>
       </c>
       <c r="B81" s="1">
-        <v>1.1429999999999999E-3</v>
+        <v>0.001143</v>
       </c>
       <c r="C81" s="1">
-        <v>1.1460000000000001E-3</v>
+        <v>0.001146</v>
       </c>
       <c r="D81" s="1">
-        <v>1.1460000000000001E-3</v>
+        <v>0.001146</v>
       </c>
       <c r="E81" s="1">
-        <v>1.145E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.001145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="3">
         <v>42643</v>
       </c>
       <c r="B82" s="1">
-        <v>8.3000000000000001E-4</v>
+        <v>0.00083</v>
       </c>
       <c r="C82" s="1">
-        <v>8.3099999999999992E-4</v>
+        <v>0.0008309999999999999</v>
       </c>
       <c r="D82" s="1">
-        <v>8.3000000000000001E-4</v>
+        <v>0.00083</v>
       </c>
       <c r="E82" s="1">
-        <v>8.3000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.00083</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="3">
         <v>42674</v>
       </c>
       <c r="B83" s="1">
-        <v>-1.1783999999999999E-2</v>
+        <v>-0.011784</v>
       </c>
       <c r="C83" s="1">
-        <v>-1.1773E-2</v>
+        <v>-0.011773</v>
       </c>
       <c r="D83" s="1">
-        <v>-1.1778E-2</v>
+        <v>-0.011778</v>
       </c>
       <c r="E83" s="1">
-        <v>-1.1778E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.011778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="3">
         <v>42704</v>
       </c>
       <c r="B84" s="1">
-        <v>-1.1504E-2</v>
+        <v>-0.011504</v>
       </c>
       <c r="C84" s="1">
-        <v>-1.1502999999999999E-2</v>
+        <v>-0.011503</v>
       </c>
       <c r="D84" s="1">
-        <v>-1.1501000000000001E-2</v>
+        <v>-0.011501</v>
       </c>
       <c r="E84" s="1">
-        <v>-1.1502E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.011502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="3">
         <v>42735</v>
       </c>
       <c r="B85" s="1">
-        <v>1.0278000000000001E-2</v>
+        <v>0.010278</v>
       </c>
       <c r="C85" s="1">
-        <v>1.0005999999999999E-2</v>
+        <v>0.010006</v>
       </c>
       <c r="D85" s="1">
-        <v>1.0142999999999999E-2</v>
+        <v>0.010143</v>
       </c>
       <c r="E85" s="1">
-        <v>1.0141000000000001E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.010141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="3">
         <v>42766</v>
       </c>
       <c r="B86" s="1">
-        <v>1.1690000000000001E-2</v>
+        <v>0.01169</v>
       </c>
       <c r="C86" s="1">
-        <v>1.1613999999999999E-2</v>
+        <v>0.011614</v>
       </c>
       <c r="D86" s="1">
-        <v>1.1658E-2</v>
+        <v>0.011658</v>
       </c>
       <c r="E86" s="1">
-        <v>1.1655E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.011655</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="3">
         <v>42794</v>
       </c>
       <c r="B87" s="1">
-        <v>1.7668E-2</v>
+        <v>0.017668</v>
       </c>
       <c r="C87" s="1">
-        <v>1.7672E-2</v>
+        <v>0.017672</v>
       </c>
       <c r="D87" s="1">
-        <v>1.7676999999999998E-2</v>
+        <v>0.017677</v>
       </c>
       <c r="E87" s="1">
-        <v>1.7673999999999999E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.017674</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="3">
         <v>42825</v>
       </c>
       <c r="B88" s="1">
-        <v>5.195E-3</v>
+        <v>0.005195</v>
       </c>
       <c r="C88" s="1">
-        <v>5.195E-3</v>
+        <v>0.005195</v>
       </c>
       <c r="D88" s="1">
-        <v>5.195E-3</v>
+        <v>0.005195</v>
       </c>
       <c r="E88" s="1">
-        <v>5.195E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.005195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="3">
         <v>42855</v>
       </c>
       <c r="B89" s="1">
-        <v>1.3597E-2</v>
+        <v>0.013597</v>
       </c>
       <c r="C89" s="1">
-        <v>1.3599999999999999E-2</v>
+        <v>0.0136</v>
       </c>
       <c r="D89" s="1">
-        <v>1.3598000000000001E-2</v>
+        <v>0.013598</v>
       </c>
       <c r="E89" s="1">
-        <v>1.3598000000000001E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.013598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="3">
         <v>42886</v>
       </c>
       <c r="B90" s="1">
-        <v>1.5261E-2</v>
+        <v>0.015261</v>
       </c>
       <c r="C90" s="1">
-        <v>1.5261E-2</v>
+        <v>0.015261</v>
       </c>
       <c r="D90" s="1">
-        <v>1.5262E-2</v>
+        <v>0.015262</v>
       </c>
       <c r="E90" s="1">
-        <v>1.5262E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.015262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="3">
         <v>42916</v>
       </c>
       <c r="B91" s="1">
-        <v>5.2459999999999998E-3</v>
+        <v>0.005246</v>
       </c>
       <c r="C91" s="1">
-        <v>5.2490000000000002E-3</v>
+        <v>0.005249</v>
       </c>
       <c r="D91" s="1">
-        <v>5.2639999999999996E-3</v>
+        <v>0.005264</v>
       </c>
       <c r="E91" s="1">
-        <v>5.2570000000000004E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.005257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="3">
         <v>42947</v>
       </c>
       <c r="B92" s="1">
-        <v>1.1306999999999999E-2</v>
+        <v>0.011307</v>
       </c>
       <c r="C92" s="1">
-        <v>1.1306999999999999E-2</v>
+        <v>0.011307</v>
       </c>
       <c r="D92" s="1">
-        <v>1.1306E-2</v>
+        <v>0.011306</v>
       </c>
       <c r="E92" s="1">
-        <v>1.1306999999999999E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.011307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="3">
         <v>42978</v>
       </c>
       <c r="B93" s="1">
-        <v>1.0725E-2</v>
+        <v>0.010725</v>
       </c>
       <c r="C93" s="1">
-        <v>1.0723999999999999E-2</v>
+        <v>0.010724</v>
       </c>
       <c r="D93" s="1">
-        <v>1.0725E-2</v>
+        <v>0.010725</v>
       </c>
       <c r="E93" s="1">
-        <v>1.0725E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.010725</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="3">
         <v>43008</v>
       </c>
       <c r="B94" s="1">
-        <v>8.1079999999999989E-3</v>
+        <v>0.008107999999999999</v>
       </c>
       <c r="C94" s="1">
-        <v>8.1069999999999996E-3</v>
+        <v>0.008107</v>
       </c>
       <c r="D94" s="1">
-        <v>8.1069999999999996E-3</v>
+        <v>0.008107</v>
       </c>
       <c r="E94" s="1">
-        <v>8.1069999999999996E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.008107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="3">
         <v>43039</v>
       </c>
       <c r="B95" s="1">
-        <v>1.1965E-2</v>
+        <v>0.011965</v>
       </c>
       <c r="C95" s="1">
-        <v>1.1963E-2</v>
+        <v>0.011963</v>
       </c>
       <c r="D95" s="1">
-        <v>1.1963E-2</v>
+        <v>0.011963</v>
       </c>
       <c r="E95" s="1">
-        <v>1.1964000000000001E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.011964</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="3">
         <v>43069</v>
       </c>
       <c r="B96" s="1">
-        <v>1.3354E-2</v>
+        <v>0.013354</v>
       </c>
       <c r="C96" s="1">
-        <v>1.3354E-2</v>
+        <v>0.013354</v>
       </c>
       <c r="D96" s="1">
-        <v>1.3356E-2</v>
+        <v>0.013356</v>
       </c>
       <c r="E96" s="1">
-        <v>1.3355000000000001E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.013355</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="3">
         <v>43100</v>
       </c>
       <c r="B97" s="1">
-        <v>1.1831E-2</v>
+        <v>0.011831</v>
       </c>
       <c r="C97" s="1">
-        <v>1.2307999999999999E-2</v>
+        <v>0.012308</v>
       </c>
       <c r="D97" s="1">
-        <v>1.1977E-2</v>
+        <v>0.011977</v>
       </c>
       <c r="E97" s="1">
-        <v>1.2016000000000001E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.012016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="3">
         <v>43131</v>
       </c>
       <c r="B98" s="1">
-        <v>2.4716999999999999E-2</v>
+        <v>0.024717</v>
       </c>
       <c r="C98" s="1">
-        <v>2.4777E-2</v>
+        <v>0.024777</v>
       </c>
       <c r="D98" s="1">
-        <v>1.6299000000000001E-2</v>
+        <v>0.016299</v>
       </c>
       <c r="E98" s="1">
-        <v>1.9876000000000001E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.019876</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="3">
         <v>43159</v>
       </c>
       <c r="B99" s="1">
-        <v>-2.9926000000000001E-2</v>
+        <v>-0.029926</v>
       </c>
       <c r="C99" s="1">
-        <v>-2.9923999999999999E-2</v>
+        <v>-0.029924</v>
       </c>
       <c r="D99" s="1">
-        <v>-2.9905000000000001E-2</v>
+        <v>-0.029905</v>
       </c>
       <c r="E99" s="1">
-        <v>-2.9912999999999999E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.029913</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="3">
         <v>43190</v>
       </c>
       <c r="B100" s="1">
-        <v>1.4580000000000001E-3</v>
+        <v>0.001458</v>
       </c>
       <c r="C100" s="1">
-        <v>1.4580000000000001E-3</v>
+        <v>0.001458</v>
       </c>
       <c r="D100" s="1">
-        <v>8.9589999999999999E-3</v>
+        <v>0.008959</v>
       </c>
       <c r="E100" s="1">
-        <v>5.7789999999999994E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.005778999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="3">
         <v>43220</v>
       </c>
       <c r="B101" s="1">
-        <v>-2.0089999999999999E-3</v>
+        <v>-0.002009</v>
       </c>
       <c r="C101" s="1">
-        <v>-2.0089999999999999E-3</v>
+        <v>-0.002009</v>
       </c>
       <c r="D101" s="1">
-        <v>-6.6360000000000004E-3</v>
+        <v>-0.006636</v>
       </c>
       <c r="E101" s="1">
-        <v>-4.6820000000000004E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.004682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="3">
         <v>43251</v>
       </c>
       <c r="B102" s="1">
-        <v>6.9710000000000006E-3</v>
+        <v>0.006971000000000001</v>
       </c>
       <c r="C102" s="1">
-        <v>6.9649999999999998E-3</v>
+        <v>0.006965</v>
       </c>
       <c r="D102" s="1">
-        <v>1.0673E-2</v>
+        <v>0.010673</v>
       </c>
       <c r="E102" s="1">
-        <v>9.103E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.009103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="3">
         <v>43281</v>
       </c>
       <c r="B103" s="1">
-        <v>-2.8159999999999999E-3</v>
+        <v>-0.002816</v>
       </c>
       <c r="C103" s="1">
-        <v>-2.8400000000000001E-3</v>
+        <v>-0.00284</v>
       </c>
       <c r="D103" s="1">
-        <v>-1.519E-3</v>
+        <v>-0.001519</v>
       </c>
       <c r="E103" s="1">
-        <v>-2.0730000000000002E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.002073</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="3">
         <v>43312</v>
       </c>
       <c r="B104" s="1">
-        <v>1.3499000000000001E-2</v>
+        <v>0.013499</v>
       </c>
       <c r="C104" s="1">
-        <v>1.3494000000000001E-2</v>
+        <v>0.013494</v>
       </c>
       <c r="D104" s="1">
-        <v>5.8109999999999993E-3</v>
+        <v>0.005810999999999999</v>
       </c>
       <c r="E104" s="1">
-        <v>9.0609999999999996E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.009061</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="3">
         <v>43343</v>
       </c>
       <c r="B105" s="1">
-        <v>8.2159999999999993E-3</v>
+        <v>0.008215999999999999</v>
       </c>
       <c r="C105" s="1">
-        <v>8.2199999999999999E-3</v>
+        <v>0.00822</v>
       </c>
       <c r="D105" s="1">
-        <v>1.0220999999999999E-2</v>
+        <v>0.010221</v>
       </c>
       <c r="E105" s="1">
-        <v>9.3699999999999999E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.00937</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="3">
         <v>43373</v>
       </c>
       <c r="B106" s="1">
-        <v>-5.0639999999999999E-3</v>
+        <v>-0.005064</v>
       </c>
       <c r="C106" s="1">
-        <v>-5.0649999999999992E-3</v>
+        <v>-0.005064999999999999</v>
       </c>
       <c r="D106" s="1">
-        <v>-1.1547E-2</v>
+        <v>-0.011547</v>
       </c>
       <c r="E106" s="1">
-        <v>-8.7939999999999997E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.008794</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="3">
         <v>43404</v>
       </c>
       <c r="B107" s="1">
-        <v>-4.0555000000000001E-2</v>
+        <v>-0.040555</v>
       </c>
       <c r="C107" s="1">
-        <v>-4.0550999999999997E-2</v>
+        <v>-0.040551</v>
       </c>
       <c r="D107" s="1">
-        <v>-3.9562E-2</v>
+        <v>-0.039562</v>
       </c>
       <c r="E107" s="1">
-        <v>-3.9983999999999999E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.039984</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="3">
         <v>43434</v>
       </c>
       <c r="B108" s="1">
-        <v>1.145E-2</v>
+        <v>0.01145</v>
       </c>
       <c r="C108" s="1">
-        <v>1.1447000000000001E-2</v>
+        <v>0.011447</v>
       </c>
       <c r="D108" s="1">
-        <v>1.3939E-2</v>
+        <v>0.013939</v>
       </c>
       <c r="E108" s="1">
-        <v>1.2878000000000001E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.012878</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="3">
         <v>43465</v>
       </c>
       <c r="B109" s="1">
-        <v>-1.6159E-2</v>
+        <v>-0.016159</v>
       </c>
       <c r="C109" s="1">
-        <v>-1.617E-2</v>
+        <v>-0.01617</v>
       </c>
       <c r="D109" s="1">
-        <v>5.9259999999999998E-3</v>
+        <v>0.005926</v>
       </c>
       <c r="E109" s="1">
-        <v>-3.4770000000000001E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.003477</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="3">
         <v>43496</v>
       </c>
       <c r="B110" s="1">
-        <v>3.7034999999999998E-2</v>
+        <v>0.037035</v>
       </c>
       <c r="C110" s="1">
-        <v>3.7039000000000002E-2</v>
+        <v>0.037039</v>
       </c>
       <c r="D110" s="1">
-        <v>2.8361999999999998E-2</v>
+        <v>0.028362</v>
       </c>
       <c r="E110" s="1">
-        <v>3.2009000000000003E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.032009</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="3">
         <v>43524</v>
       </c>
       <c r="B111" s="1">
-        <v>1.0187999999999999E-2</v>
+        <v>0.010188</v>
       </c>
       <c r="C111" s="1">
-        <v>1.0184E-2</v>
+        <v>0.010184</v>
       </c>
       <c r="D111" s="1">
-        <v>2.9329999999999998E-3</v>
+        <v>0.002933</v>
       </c>
       <c r="E111" s="1">
-        <v>5.999E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.005999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="3">
         <v>43555</v>
       </c>
       <c r="B112" s="1">
-        <v>2.1135000000000001E-2</v>
+        <v>0.021135</v>
       </c>
       <c r="C112" s="1">
-        <v>2.1127E-2</v>
+        <v>0.021127</v>
       </c>
       <c r="D112" s="1">
-        <v>3.2959000000000002E-2</v>
+        <v>0.032959</v>
       </c>
       <c r="E112" s="1">
-        <v>2.7935000000000001E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.027935</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="3">
         <v>43585</v>
       </c>
       <c r="B113" s="1">
-        <v>1.0592000000000001E-2</v>
+        <v>0.010592</v>
       </c>
       <c r="C113" s="1">
-        <v>1.0584E-2</v>
+        <v>0.010584</v>
       </c>
       <c r="D113" s="1">
-        <v>1.077E-3</v>
+        <v>0.001077</v>
       </c>
       <c r="E113" s="1">
-        <v>5.0899999999999999E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.00509</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="3">
         <v>43616</v>
       </c>
       <c r="B114" s="1">
-        <v>-4.2509999999999996E-3</v>
+        <v>-0.004251</v>
       </c>
       <c r="C114" s="1">
-        <v>-4.2550000000000001E-3</v>
+        <v>-0.004255</v>
       </c>
       <c r="D114" s="1">
-        <v>2.0518999999999999E-2</v>
+        <v>0.020519</v>
       </c>
       <c r="E114" s="1">
-        <v>1.0002E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.010002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="3">
         <v>43646</v>
       </c>
       <c r="B115" s="1">
-        <v>3.3343999999999999E-2</v>
+        <v>0.033344</v>
       </c>
       <c r="C115" s="1">
-        <v>3.3341000000000003E-2</v>
+        <v>0.033341</v>
       </c>
       <c r="D115" s="1">
-        <v>2.6977999999999999E-2</v>
+        <v>0.026978</v>
       </c>
       <c r="E115" s="1">
-        <v>2.9644E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.029644</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="3">
         <v>43677</v>
       </c>
       <c r="B116" s="1">
-        <v>5.2379999999999996E-3</v>
+        <v>0.005238</v>
       </c>
       <c r="C116" s="1">
-        <v>5.2300000000000003E-3</v>
+        <v>0.00523</v>
       </c>
       <c r="D116" s="1">
-        <v>4.3940000000000003E-3</v>
+        <v>0.004394</v>
       </c>
       <c r="E116" s="1">
-        <v>4.7470000000000004E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.004747</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="3">
         <v>43708</v>
       </c>
       <c r="B117" s="1">
-        <v>2.4274E-2</v>
+        <v>0.024274</v>
       </c>
       <c r="C117" s="1">
-        <v>2.4212999999999998E-2</v>
+        <v>0.024213</v>
       </c>
       <c r="D117" s="1">
-        <v>5.8720000000000001E-2</v>
+        <v>0.05872</v>
       </c>
       <c r="E117" s="1">
-        <v>4.4206000000000002E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.044206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="3">
         <v>43738</v>
       </c>
       <c r="B118" s="1">
-        <v>2.153E-3</v>
+        <v>0.002153</v>
       </c>
       <c r="C118" s="1">
-        <v>2.2179999999999999E-3</v>
+        <v>0.002218</v>
       </c>
       <c r="D118" s="1">
-        <v>-9.6229999999999996E-3</v>
+        <v>-0.009623</v>
       </c>
       <c r="E118" s="1">
-        <v>-4.6350000000000002E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.004635</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="3">
         <v>43769</v>
       </c>
       <c r="B119" s="1">
-        <v>5.6810000000000003E-3</v>
+        <v>0.005681</v>
       </c>
       <c r="C119" s="1">
-        <v>6.0850000000000001E-3</v>
+        <v>0.006085</v>
       </c>
       <c r="D119" s="1">
-        <v>-1.5300000000000001E-4</v>
+        <v>-0.000153</v>
       </c>
       <c r="E119" s="1">
-        <v>2.441E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.002441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="3">
         <v>43799</v>
       </c>
       <c r="B120" s="1">
-        <v>1.0361E-2</v>
+        <v>0.010361</v>
       </c>
       <c r="C120" s="1">
-        <v>1.0704999999999999E-2</v>
+        <v>0.010705</v>
       </c>
       <c r="D120" s="1">
-        <v>6.3489999999999996E-3</v>
+        <v>0.006349</v>
       </c>
       <c r="E120" s="1">
-        <v>8.1530000000000005E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.008153000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="3">
         <v>43830</v>
       </c>
       <c r="B121" s="1">
-        <v>8.6289999999999995E-3</v>
+        <v>0.008629</v>
       </c>
       <c r="C121" s="1">
-        <v>7.443E-3</v>
+        <v>0.007443</v>
       </c>
       <c r="D121" s="1">
-        <v>-7.5079999999999999E-3</v>
+        <v>-0.007508</v>
       </c>
       <c r="E121" s="1">
-        <v>-7.5100000000000004E-4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.000751</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="3">
         <v>43861</v>
       </c>
       <c r="B122" s="1">
-        <v>1.0016000000000001E-2</v>
+        <v>0.010016</v>
       </c>
       <c r="C122" s="1">
-        <v>9.7920000000000004E-3</v>
+        <v>0.009792</v>
       </c>
       <c r="D122" s="1">
-        <v>3.7941999999999997E-2</v>
+        <v>0.037942</v>
       </c>
       <c r="E122" s="1">
-        <v>2.564E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.02564</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="3">
         <v>43890</v>
       </c>
       <c r="B123" s="1">
-        <v>-2.2207999999999999E-2</v>
+        <v>-0.022208</v>
       </c>
       <c r="C123" s="1">
-        <v>-2.0781000000000001E-2</v>
+        <v>-0.020781</v>
       </c>
       <c r="D123" s="1">
-        <v>1.8638999999999999E-2</v>
+        <v>0.018639</v>
       </c>
       <c r="E123" s="1">
-        <v>1.266E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.001266</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="3">
         <v>43921</v>
       </c>
       <c r="B124" s="1">
-        <v>-7.4191000000000007E-2</v>
+        <v>-0.07419100000000001</v>
       </c>
       <c r="C124" s="1">
-        <v>-7.0510000000000003E-2</v>
+        <v>-0.07051</v>
       </c>
       <c r="D124" s="1">
-        <v>-1.2191E-2</v>
+        <v>-0.012191</v>
       </c>
       <c r="E124" s="1">
-        <v>-3.7684000000000002E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.037684</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="3">
         <v>43951</v>
       </c>
       <c r="B125" s="1">
-        <v>5.6168000000000003E-2</v>
+        <v>0.056168</v>
       </c>
       <c r="C125" s="1">
-        <v>5.305E-2</v>
+        <v>0.05305</v>
       </c>
       <c r="D125" s="1">
-        <v>3.7446E-2</v>
+        <v>0.037446</v>
       </c>
       <c r="E125" s="1">
-        <v>4.4485999999999998E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.044486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="3">
         <v>43982</v>
       </c>
       <c r="B126" s="1">
-        <v>1.5041000000000001E-2</v>
+        <v>0.015041</v>
       </c>
       <c r="C126" s="1">
-        <v>1.3544E-2</v>
+        <v>0.013544</v>
       </c>
       <c r="D126" s="1">
-        <v>-4.5329999999999997E-3</v>
+        <v>-0.004533</v>
       </c>
       <c r="E126" s="1">
-        <v>3.2460000000000002E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.003246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="3">
         <v>44012</v>
       </c>
       <c r="B127" s="1">
-        <v>1.2864E-2</v>
+        <v>0.012864</v>
       </c>
       <c r="C127" s="1">
-        <v>1.2182999999999999E-2</v>
+        <v>0.012183</v>
       </c>
       <c r="D127" s="1">
-        <v>8.5900000000000004E-3</v>
+        <v>0.00859</v>
       </c>
       <c r="E127" s="1">
-        <v>1.0239E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.010239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="3">
         <v>44043</v>
       </c>
       <c r="B128" s="1">
-        <v>3.4785999999999997E-2</v>
+        <v>0.034786</v>
       </c>
       <c r="C128" s="1">
-        <v>3.3862999999999997E-2</v>
+        <v>0.033863</v>
       </c>
       <c r="D128" s="1">
-        <v>4.4461000000000001E-2</v>
+        <v>0.044461</v>
       </c>
       <c r="E128" s="1">
-        <v>4.0233999999999999E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.040234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="3">
         <v>44074</v>
       </c>
       <c r="B129" s="1">
-        <v>1.7061E-2</v>
+        <v>0.017061</v>
       </c>
       <c r="C129" s="1">
-        <v>1.6036000000000002E-2</v>
+        <v>0.016036</v>
       </c>
       <c r="D129" s="1">
-        <v>-1.7264999999999999E-2</v>
+        <v>-0.017265</v>
       </c>
       <c r="E129" s="1">
-        <v>-3.186E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.003186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="3">
         <v>44104</v>
       </c>
       <c r="B130" s="1">
-        <v>-1.4281E-2</v>
+        <v>-0.014281</v>
       </c>
       <c r="C130" s="1">
-        <v>-1.3697000000000001E-2</v>
+        <v>-0.013697</v>
       </c>
       <c r="D130" s="1">
-        <v>-5.0549999999999996E-3</v>
+        <v>-0.005055</v>
       </c>
       <c r="E130" s="1">
-        <v>-8.9249999999999989E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.008924999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="3">
         <v>44135</v>
       </c>
       <c r="B131" s="1">
-        <v>-1.6704E-2</v>
+        <v>-0.016704</v>
       </c>
       <c r="C131" s="1">
-        <v>-1.5702000000000001E-2</v>
+        <v>-0.015702</v>
       </c>
       <c r="D131" s="1">
-        <v>-2.3545E-2</v>
+        <v>-0.023545</v>
       </c>
       <c r="E131" s="1">
-        <v>-2.0374E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.020374</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="3">
         <v>44165</v>
       </c>
       <c r="B132" s="1">
-        <v>6.5381999999999996E-2</v>
+        <v>0.065382</v>
       </c>
       <c r="C132" s="1">
-        <v>6.4576000000000008E-2</v>
+        <v>0.06457600000000001</v>
       </c>
       <c r="D132" s="1">
-        <v>4.4108000000000001E-2</v>
+        <v>0.044108</v>
       </c>
       <c r="E132" s="1">
-        <v>5.3226000000000002E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.053226</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="3">
         <v>44196</v>
       </c>
       <c r="B133" s="1">
-        <v>2.1767000000000002E-2</v>
+        <v>0.021767</v>
       </c>
       <c r="C133" s="1">
-        <v>2.2151000000000001E-2</v>
+        <v>0.022151</v>
       </c>
       <c r="D133" s="1">
-        <v>7.5290000000000001E-3</v>
+        <v>0.007529</v>
       </c>
       <c r="E133" s="1">
-        <v>1.3932999999999999E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.013933</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="3">
         <v>44227</v>
       </c>
       <c r="B134" s="1">
-        <v>-1.3167999999999999E-2</v>
+        <v>-0.013168</v>
       </c>
       <c r="C134" s="1">
-        <v>-1.2300999999999999E-2</v>
+        <v>-0.012301</v>
       </c>
       <c r="D134" s="1">
-        <v>-2.63E-2</v>
+        <v>-0.0263</v>
       </c>
       <c r="E134" s="1">
-        <v>-2.0192000000000002E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.020192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="3">
         <v>44255</v>
       </c>
       <c r="B135" s="1">
-        <v>-2.2339999999999999E-3</v>
+        <v>-0.002234</v>
       </c>
       <c r="C135" s="1">
-        <v>-9.6100000000000005E-4</v>
+        <v>-0.000961</v>
       </c>
       <c r="D135" s="1">
-        <v>-3.2485E-2</v>
+        <v>-0.032485</v>
       </c>
       <c r="E135" s="1">
-        <v>-1.8450999999999999E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.018451</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="3">
         <v>44286</v>
       </c>
       <c r="B136" s="1">
-        <v>1.294E-2</v>
+        <v>0.01294</v>
       </c>
       <c r="C136" s="1">
-        <v>1.3419E-2</v>
+        <v>0.013419</v>
       </c>
       <c r="D136" s="1">
-        <v>-1.0056000000000001E-2</v>
+        <v>-0.010056</v>
       </c>
       <c r="E136" s="1">
-        <v>6.9800000000000005E-4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.0006980000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="3">
         <v>44316</v>
       </c>
       <c r="B137" s="1">
-        <v>2.8613E-2</v>
+        <v>0.028613</v>
       </c>
       <c r="C137" s="1">
-        <v>2.8164000000000002E-2</v>
+        <v>0.028164</v>
       </c>
       <c r="D137" s="1">
-        <v>2.9309000000000002E-2</v>
+        <v>0.029309</v>
       </c>
       <c r="E137" s="1">
-        <v>2.8885000000000001E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.028885</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="3">
         <v>44347</v>
       </c>
       <c r="B138" s="1">
-        <v>1.7590999999999999E-2</v>
+        <v>0.017591</v>
       </c>
       <c r="C138" s="1">
-        <v>1.8329000000000002E-2</v>
+        <v>0.018329</v>
       </c>
       <c r="D138" s="1">
-        <v>1.4168E-2</v>
+        <v>0.014168</v>
       </c>
       <c r="E138" s="1">
-        <v>1.5935999999999999E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.015936</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="3">
         <v>44377</v>
       </c>
       <c r="B139" s="1">
-        <v>1.8305999999999999E-2</v>
+        <v>0.018306</v>
       </c>
       <c r="C139" s="1">
-        <v>1.7975999999999999E-2</v>
+        <v>0.017976</v>
       </c>
       <c r="D139" s="1">
-        <v>2.8979999999999999E-2</v>
+        <v>0.02898</v>
       </c>
       <c r="E139" s="1">
-        <v>2.3883999999999999E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.023884</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="3">
         <v>44408</v>
       </c>
       <c r="B140" s="1">
-        <v>1.5858000000000001E-2</v>
+        <v>0.015858</v>
       </c>
       <c r="C140" s="1">
-        <v>1.554E-2</v>
+        <v>0.01554</v>
       </c>
       <c r="D140" s="1">
-        <v>2.4878999999999998E-2</v>
+        <v>0.024879</v>
       </c>
       <c r="E140" s="1">
-        <v>2.0584000000000002E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.020584</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="3">
         <v>44439</v>
       </c>
       <c r="B141" s="1">
-        <v>1.4596E-2</v>
+        <v>0.014596</v>
       </c>
       <c r="C141" s="1">
-        <v>1.4694E-2</v>
+        <v>0.014694</v>
       </c>
       <c r="D141" s="1">
-        <v>7.5929999999999999E-3</v>
+        <v>0.007593</v>
       </c>
       <c r="E141" s="1">
-        <v>1.0881E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.010881</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="3">
         <v>44469</v>
       </c>
       <c r="B142" s="1">
-        <v>-3.4500999999999997E-2</v>
+        <v>-0.034501</v>
       </c>
       <c r="C142" s="1">
-        <v>-3.7831999999999998E-2</v>
+        <v>-0.037832</v>
       </c>
       <c r="D142" s="1">
-        <v>-3.0726E-2</v>
+        <v>-0.030726</v>
       </c>
       <c r="E142" s="1">
-        <v>-3.3223000000000003E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.033223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="3">
         <v>44500</v>
       </c>
       <c r="B143" s="1">
-        <v>3.4062000000000002E-2</v>
+        <v>0.034062</v>
       </c>
       <c r="C143" s="1">
-        <v>3.8085000000000001E-2</v>
+        <v>0.038085</v>
       </c>
       <c r="D143" s="1">
-        <v>2.7293999999999999E-2</v>
+        <v>0.027294</v>
       </c>
       <c r="E143" s="1">
-        <v>3.1335000000000002E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.031335</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="3">
         <v>44530</v>
       </c>
       <c r="B144" s="1">
-        <v>1.4583E-2</v>
+        <v>0.014583</v>
       </c>
       <c r="C144" s="1">
-        <v>2.0934000000000001E-2</v>
+        <v>0.020934</v>
       </c>
       <c r="D144" s="1">
-        <v>1.7181999999999999E-2</v>
+        <v>0.017182</v>
       </c>
       <c r="E144" s="1">
-        <v>1.7353E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.017353</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="3">
         <v>44561</v>
       </c>
       <c r="B145" s="1">
-        <v>1.3202E-2</v>
+        <v>0.013202</v>
       </c>
       <c r="C145" s="1">
-        <v>9.613E-3</v>
+        <v>0.009613</v>
       </c>
       <c r="D145" s="1">
-        <v>5.3790000000000001E-3</v>
+        <v>0.005379</v>
       </c>
       <c r="E145" s="1">
-        <v>8.2699999999999996E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.00827</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="3">
         <v>44592</v>
       </c>
       <c r="B146" s="1">
-        <v>-4.8358999999999999E-2</v>
+        <v>-0.048359</v>
       </c>
       <c r="C146" s="1">
-        <v>-5.1443999999999997E-2</v>
+        <v>-0.051444</v>
       </c>
       <c r="D146" s="1">
-        <v>-4.3722999999999998E-2</v>
+        <v>-0.043723</v>
       </c>
       <c r="E146" s="1">
-        <v>-4.6587999999999997E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.046588</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="3">
         <v>44620</v>
       </c>
       <c r="B147" s="1">
-        <v>-2.0497999999999999E-2</v>
+        <v>-0.020498</v>
       </c>
       <c r="C147" s="1">
-        <v>-2.1975999999999999E-2</v>
+        <v>-0.021976</v>
       </c>
       <c r="D147" s="1">
-        <v>-1.7198999999999999E-2</v>
+        <v>-0.017199</v>
       </c>
       <c r="E147" s="1">
-        <v>-1.9075000000000002E-2</v>
+        <v>-0.019075</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B148" s="1">
+        <v>-0.017631</v>
+      </c>
+      <c r="C148" s="1">
+        <v>-0.021784</v>
+      </c>
+      <c r="D148" s="1">
+        <v>-0.026753</v>
+      </c>
+      <c r="E148" s="1">
+        <v>-0.02338</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A147">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A1:A148">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E147">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+  <conditionalFormatting sqref="B2:E148">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -454,10 +454,10 @@
         <v>2102497497.95</v>
       </c>
       <c r="D2" s="1">
-        <v>12454714514.06</v>
+        <v>12454906728.13</v>
       </c>
       <c r="E2" s="1">
-        <v>15489729218.43</v>
+        <v>15489921432.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -471,10 +471,10 @@
         <v>2128528078.25</v>
       </c>
       <c r="D3" s="1">
-        <v>12582416484.82</v>
+        <v>12582607840.79</v>
       </c>
       <c r="E3" s="1">
-        <v>15775048697.14</v>
+        <v>15775240053.11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -488,10 +488,10 @@
         <v>2204069195.06</v>
       </c>
       <c r="D4" s="1">
-        <v>13025662728.84</v>
+        <v>13025853226.71</v>
       </c>
       <c r="E4" s="1">
-        <v>16704873758.75</v>
+        <v>16705064256.62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -505,10 +505,10 @@
         <v>2249160289.73</v>
       </c>
       <c r="D5" s="1">
-        <v>13260440725.69</v>
+        <v>13260630365.46</v>
       </c>
       <c r="E5" s="1">
-        <v>17132130003.51</v>
+        <v>17132319643.28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -522,10 +522,10 @@
         <v>2151316976.44</v>
       </c>
       <c r="D6" s="1">
-        <v>12652381383.56</v>
+        <v>12652570165.23</v>
       </c>
       <c r="E6" s="1">
-        <v>16351241876.8</v>
+        <v>16351430658.47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -539,10 +539,10 @@
         <v>2126807551.94</v>
       </c>
       <c r="D7" s="1">
-        <v>12475038374.8</v>
+        <v>12475226298.37</v>
       </c>
       <c r="E7" s="1">
-        <v>16127227316.29</v>
+        <v>16127415239.86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -556,10 +556,10 @@
         <v>2217049566.92</v>
       </c>
       <c r="D8" s="1">
-        <v>12970168980.82</v>
+        <v>12970356046.29</v>
       </c>
       <c r="E8" s="1">
-        <v>16894210925.62</v>
+        <v>16894397991.09</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -573,10 +573,10 @@
         <v>2218270319.77</v>
       </c>
       <c r="D9" s="1">
-        <v>12942973012.13</v>
+        <v>12943159219.5</v>
       </c>
       <c r="E9" s="1">
-        <v>16864762411.98</v>
+        <v>16864948619.35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -590,10 +590,10 @@
         <v>2429501039.02</v>
       </c>
       <c r="D10" s="1">
-        <v>13480205460.32</v>
+        <v>13480390809.59</v>
       </c>
       <c r="E10" s="1">
-        <v>17683853962.58</v>
+        <v>17684039311.85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -607,10 +607,10 @@
         <v>2451294838.87</v>
       </c>
       <c r="D11" s="1">
-        <v>13443063041.03</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E11" s="1">
-        <v>17795005221.62</v>
+        <v>17795189712.79</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -624,10 +624,10 @@
         <v>2932628117.61</v>
       </c>
       <c r="D12" s="1">
-        <v>14814700195.87</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E12" s="1">
-        <v>19628314376.71</v>
+        <v>19628498009.78</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -641,10 +641,10 @@
         <v>3016301371.7</v>
       </c>
       <c r="D13" s="1">
-        <v>15090047197.56</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E13" s="1">
-        <v>20035126948.73</v>
+        <v>20035309723.7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -658,10 +658,10 @@
         <v>3010941131.67</v>
       </c>
       <c r="D14" s="1">
-        <v>15034722562.56</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E14" s="1">
-        <v>21163701726.8</v>
+        <v>21163883643.67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -675,10 +675,10 @@
         <v>3072606771.41</v>
       </c>
       <c r="D15" s="1">
-        <v>15339223946.43</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E15" s="1">
-        <v>21592868236.35</v>
+        <v>21593049295.12</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -692,10 +692,10 @@
         <v>3077934373.48</v>
       </c>
       <c r="D16" s="1">
-        <v>15338075937.65</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E16" s="1">
-        <v>21597393553.6</v>
+        <v>21597573754.27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -709,10 +709,10 @@
         <v>3168259937.35</v>
       </c>
       <c r="D17" s="1">
-        <v>15759188122.62</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E17" s="1">
-        <v>22196442158.83</v>
+        <v>22196621501.4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -726,10 +726,10 @@
         <v>3185699769.88</v>
       </c>
       <c r="D18" s="1">
-        <v>15817399042.18</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E18" s="1">
-        <v>22284623894.07</v>
+        <v>22284802378.54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -743,10 +743,10 @@
         <v>3131056633.27</v>
       </c>
       <c r="D19" s="1">
-        <v>15518354156.14</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E19" s="1">
-        <v>21869129586.24</v>
+        <v>21869307212.61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -760,10 +760,10 @@
         <v>3162162793.97</v>
       </c>
       <c r="D20" s="1">
-        <v>15643951036.32</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E20" s="1">
-        <v>22052015022.44</v>
+        <v>22052191790.71</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -777,10 +777,10 @@
         <v>3139082692.54</v>
       </c>
       <c r="D21" s="1">
-        <v>15501631744.31</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E21" s="1">
-        <v>21857152498.61</v>
+        <v>21857328408.78</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -794,10 +794,10 @@
         <v>3200272417.15</v>
       </c>
       <c r="D22" s="1">
-        <v>15478669634.76</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E22" s="1">
-        <v>21890587182.54</v>
+        <v>21890762234.61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -811,10 +811,10 @@
         <v>3311931768.5</v>
       </c>
       <c r="D23" s="1">
-        <v>15988684918.42</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E23" s="1">
-        <v>22617832290.32</v>
+        <v>22618006484.29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -828,10 +828,10 @@
         <v>3286738232.03</v>
       </c>
       <c r="D24" s="1">
-        <v>15838131556.61</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E24" s="1">
-        <v>22404660643.81</v>
+        <v>22404833979.68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -845,10 +845,10 @@
         <v>3322199318.6</v>
       </c>
       <c r="D25" s="1">
-        <v>15979851739.54</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E25" s="1">
-        <v>22610566714.97</v>
+        <v>22610739192.74</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -862,10 +862,10 @@
         <v>3411636959.78</v>
       </c>
       <c r="D26" s="1">
-        <v>16380190274.37</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E26" s="1">
-        <v>23182541487.51</v>
+        <v>23182713107.18</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -879,10 +879,10 @@
         <v>3465240303.9</v>
       </c>
       <c r="D27" s="1">
-        <v>16632293380.49</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E27" s="1">
-        <v>23538890877.4</v>
+        <v>23539061638.97</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -896,10 +896,10 @@
         <v>3448893913.05</v>
       </c>
       <c r="D28" s="1">
-        <v>16525290668.17</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E28" s="1">
-        <v>23568457835.1</v>
+        <v>23568627738.57</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -913,10 +913,10 @@
         <v>3481026300.12</v>
       </c>
       <c r="D29" s="1">
-        <v>16649048720.64</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E29" s="1">
-        <v>23750894239.67</v>
+        <v>23751063285.04</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -930,10 +930,10 @@
         <v>3453190328.12</v>
       </c>
       <c r="D30" s="1">
-        <v>16487003754.48</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E30" s="1">
-        <v>23525188092.25</v>
+        <v>23525356279.52</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -947,10 +947,10 @@
         <v>3497243829.13</v>
       </c>
       <c r="D31" s="1">
-        <v>16666683230.14</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E31" s="1">
-        <v>23966952669.71</v>
+        <v>23967119998.88</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -964,10 +964,10 @@
         <v>3572637746.48</v>
       </c>
       <c r="D32" s="1">
-        <v>16994661825.91</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E32" s="1">
-        <v>24445028323.78</v>
+        <v>24445194794.85</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -981,10 +981,10 @@
         <v>3592909103.41</v>
       </c>
       <c r="D33" s="1">
-        <v>17060740670.37</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E33" s="1">
-        <v>24546173849.48</v>
+        <v>24546339462.45</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -998,10 +998,10 @@
         <v>3620604152.58</v>
       </c>
       <c r="D34" s="1">
-        <v>17161797379.67</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E34" s="1">
-        <v>24697695785.05</v>
+        <v>24697860539.92</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>3622924774.95</v>
       </c>
       <c r="D35" s="1">
-        <v>17142269583.37</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E35" s="1">
-        <v>24675625120.17</v>
+        <v>24675789016.94</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1032,10 +1032,10 @@
         <v>3646999015.16</v>
       </c>
       <c r="D36" s="1">
-        <v>17226232669.72</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E36" s="1">
-        <v>24802249901.28</v>
+        <v>24802412939.95</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1049,10 +1049,10 @@
         <v>3654809047.65</v>
       </c>
       <c r="D37" s="1">
-        <v>17291185714.26</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E37" s="1">
-        <v>24895725823.46</v>
+        <v>24895888004.03</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>4490569394.41</v>
       </c>
       <c r="D38" s="1">
-        <v>16688192891.54</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E38" s="1">
-        <v>25170361391.66</v>
+        <v>25170522714.13</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1083,10 +1083,10 @@
         <v>4511270646.88</v>
       </c>
       <c r="D39" s="1">
-        <v>16760318931.09</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E39" s="1">
-        <v>25279056931.75</v>
+        <v>25279217396.12</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>4573664426.03</v>
       </c>
       <c r="D40" s="1">
-        <v>16965972358.16</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E40" s="1">
-        <v>25595461395.49</v>
+        <v>25595621001.76</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1117,10 +1117,10 @@
         <v>4682846886.27</v>
       </c>
       <c r="D41" s="1">
-        <v>17344551325.7</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E41" s="1">
-        <v>26172807411.43</v>
+        <v>26172966159.6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1134,10 +1134,10 @@
         <v>4599347535.9</v>
       </c>
       <c r="D42" s="1">
-        <v>17009919681.78</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E42" s="1">
-        <v>25673836920.31</v>
+        <v>25673994810.38</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1151,10 +1151,10 @@
         <v>4510251396.91</v>
       </c>
       <c r="D43" s="1">
-        <v>16655048859.38</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E43" s="1">
-        <v>25144097226.38</v>
+        <v>25144254258.35</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1168,10 +1168,10 @@
         <v>4568724212.7</v>
       </c>
       <c r="D44" s="1">
-        <v>16844754449.47</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E44" s="1">
-        <v>25436535483.03</v>
+        <v>25436691656.9</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1185,10 +1185,10 @@
         <v>4512507452.03</v>
       </c>
       <c r="D45" s="1">
-        <v>16611704230.01</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E45" s="1">
-        <v>25090551978.14</v>
+        <v>25090707293.91</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1202,10 +1202,10 @@
         <v>4749762591.53</v>
       </c>
       <c r="D46" s="1">
-        <v>16745140477.25</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E46" s="1">
-        <v>25528342822.26</v>
+        <v>25528497279.93</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1219,10 +1219,10 @@
         <v>4848589342.72</v>
       </c>
       <c r="D47" s="1">
-        <v>17068600956.34</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E47" s="1">
-        <v>26027210514.61</v>
+        <v>26027364114.18</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1236,10 +1236,10 @@
         <v>4850653743.4</v>
       </c>
       <c r="D48" s="1">
-        <v>17048811459.13</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E48" s="1">
-        <v>26003668184.25</v>
+        <v>26003820925.72</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1253,10 +1253,10 @@
         <v>4879983265.38</v>
       </c>
       <c r="D49" s="1">
-        <v>17124920453.7</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E49" s="1">
-        <v>26126136558.37</v>
+        <v>26126288441.74</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1270,10 +1270,10 @@
         <v>4882894726.29</v>
       </c>
       <c r="D50" s="1">
-        <v>17108427415.48</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E50" s="1">
-        <v>26107545286.21</v>
+        <v>26107696311.48</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>4988729007.27</v>
       </c>
       <c r="D51" s="1">
-        <v>17452044700.37</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E51" s="1">
-        <v>26638014657</v>
+        <v>26638164824.17</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>5019984158.58</v>
       </c>
       <c r="D52" s="1">
-        <v>17534458681.87</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E52" s="1">
-        <v>26769907188.32</v>
+        <v>26770056497.39</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>5026144812.31</v>
       </c>
       <c r="D53" s="1">
-        <v>17527323843.17</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E53" s="1">
-        <v>26765961123.21</v>
+        <v>26766109574.18</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>5112975530.56</v>
       </c>
       <c r="D54" s="1">
-        <v>17802031711.89</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E54" s="1">
-        <v>27191839755.38</v>
+        <v>27191987348.25</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>5144862372.52</v>
       </c>
       <c r="D55" s="1">
-        <v>17885536456.36</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E55" s="1">
-        <v>27325539811.99</v>
+        <v>27325686546.76</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>5119794037.99</v>
       </c>
       <c r="D56" s="1">
-        <v>17771447283.1</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E56" s="1">
-        <v>27156693166.09</v>
+        <v>27156839042.76</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>5237452701.82</v>
       </c>
       <c r="D57" s="1">
-        <v>18152061725.92</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E57" s="1">
-        <v>27744061638.86</v>
+        <v>27744206657.43</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>5131976211.71</v>
       </c>
       <c r="D58" s="1">
-        <v>17760389482.46</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E58" s="1">
-        <v>27150516717.21</v>
+        <v>27150660877.68</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>5172926233.01</v>
       </c>
       <c r="D59" s="1">
-        <v>17913492320.95</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E59" s="1">
-        <v>27371582530.76</v>
+        <v>27371725833.13</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>5252461885.84</v>
       </c>
       <c r="D60" s="1">
-        <v>18161633085.61</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E60" s="1">
-        <v>27755791534.1</v>
+        <v>27755933978.37</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>5448191101.38</v>
       </c>
       <c r="D61" s="1">
-        <v>18347484059.09</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E61" s="1">
-        <v>28782286672.54</v>
+        <v>28782428258.71</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>5567918737.12</v>
       </c>
       <c r="D62" s="1">
-        <v>18722609505.8</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E62" s="1">
-        <v>29377893373.27</v>
+        <v>29378034101.34</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>5603210665.94</v>
       </c>
       <c r="D63" s="1">
-        <v>18813632546.84</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E63" s="1">
-        <v>29527582270.6</v>
+        <v>29527722140.57</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,10 +1508,10 @@
         <v>5599621915.28</v>
       </c>
       <c r="D64" s="1">
-        <v>18773915353.1</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E64" s="1">
-        <v>29472066114.92</v>
+        <v>29472205126.79</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>5594550723.83</v>
       </c>
       <c r="D65" s="1">
-        <v>18729047234.33</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E65" s="1">
-        <v>29408499309.23</v>
+        <v>29408637463</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>5578675769.67</v>
       </c>
       <c r="D66" s="1">
-        <v>18647811742.49</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E66" s="1">
-        <v>29287873259.31</v>
+        <v>29288010554.98</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>5464086350.67</v>
       </c>
       <c r="D67" s="1">
-        <v>18237344817.24</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E67" s="1">
-        <v>28649880311.46</v>
+        <v>28650016749.03</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>5514366076.03</v>
       </c>
       <c r="D68" s="1">
-        <v>18376949304.2</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E68" s="1">
-        <v>28876049490.89</v>
+        <v>28876185070.36</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>5356648129.15</v>
       </c>
       <c r="D69" s="1">
-        <v>17823822010.27</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E69" s="1">
-        <v>28013794466.53</v>
+        <v>28013929187.9</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>5301454591.47</v>
       </c>
       <c r="D70" s="1">
-        <v>17611674082.8</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E70" s="1">
-        <v>27687481033.78</v>
+        <v>27687614897.05</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>5397632819.49</v>
       </c>
       <c r="D71" s="1">
-        <v>18048333376.56</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E71" s="1">
-        <v>28326214032.7</v>
+        <v>28326347037.87</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>5368571908.98</v>
       </c>
       <c r="D72" s="1">
-        <v>17923305130.99</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E72" s="1">
-        <v>28136428854.08</v>
+        <v>28136561001.15</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>5709868087.27</v>
       </c>
       <c r="D73" s="1">
-        <v>17720678489.54</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E73" s="1">
-        <v>28846123319.36</v>
+        <v>28846254608.33</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>5616578571.14</v>
       </c>
       <c r="D74" s="1">
-        <v>17401580107.8</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E74" s="1">
-        <v>28336242435.29</v>
+        <v>28336372866.16</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>5647936294.45</v>
       </c>
       <c r="D75" s="1">
-        <v>17468918255.4</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E75" s="1">
-        <v>28455548735.7</v>
+        <v>28455678308.47</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1712,10 +1712,10 @@
         <v>5834802926.8</v>
       </c>
       <c r="D76" s="1">
-        <v>18015825215.72</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E76" s="1">
-        <v>29356543183.02</v>
+        <v>29356671897.69</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1729,10 +1729,10 @@
         <v>5879483219.72</v>
       </c>
       <c r="D77" s="1">
-        <v>18123427852.61</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E77" s="1">
-        <v>29541899253.78</v>
+        <v>29542027110.35</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1746,10 +1746,10 @@
         <v>5881279255.87</v>
       </c>
       <c r="D78" s="1">
-        <v>18098420744.15</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E78" s="1">
-        <v>29511294102.97</v>
+        <v>29511421101.44</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1763,10 +1763,10 @@
         <v>5931068967.2</v>
       </c>
       <c r="D79" s="1">
-        <v>18221304108.22</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E79" s="1">
-        <v>29721707293.18</v>
+        <v>29721833433.55</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1780,10 +1780,10 @@
         <v>6047546128.94</v>
       </c>
       <c r="D80" s="1">
-        <v>18547786478.41</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E80" s="1">
-        <v>30265017930.44</v>
+        <v>30265143212.71</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1797,10 +1797,10 @@
         <v>6044991482.23</v>
       </c>
       <c r="D81" s="1">
-        <v>18508832479.78</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E81" s="1">
-        <v>30212130836.66</v>
+        <v>30212255260.83</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1814,10 +1814,10 @@
         <v>6489780168.17</v>
       </c>
       <c r="D82" s="1">
-        <v>18773993442.11</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E82" s="1">
-        <v>31311065698.3</v>
+        <v>31311189264.37</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1831,10 +1831,10 @@
         <v>6361287062.33</v>
       </c>
       <c r="D83" s="1">
-        <v>18430042970.95</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E83" s="1">
-        <v>30735579110.59</v>
+        <v>30735701818.56</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1848,10 +1848,10 @@
         <v>6278318762.68</v>
       </c>
       <c r="D84" s="1">
-        <v>18157757460.24</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E84" s="1">
-        <v>30294027553</v>
+        <v>30294149402.87</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1865,10 +1865,10 @@
         <v>6361809245.25</v>
       </c>
       <c r="D85" s="1">
-        <v>18519115493.09</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E85" s="1">
-        <v>31134438714.84</v>
+        <v>31134559706.61</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1882,10 +1882,10 @@
         <v>6425317655.9</v>
       </c>
       <c r="D86" s="1">
-        <v>18672728045.69</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E86" s="1">
-        <v>31406508587.93</v>
+        <v>31406628721.6</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1899,10 +1899,10 @@
         <v>6526279467.15</v>
       </c>
       <c r="D87" s="1">
-        <v>18935552854.39</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E87" s="1">
-        <v>31862808989.72</v>
+        <v>31862928265.29</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1916,10 +1916,10 @@
         <v>7337629420.28</v>
       </c>
       <c r="D88" s="1">
-        <v>19799498475.64</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E88" s="1">
-        <v>34237099341.94</v>
+        <v>34237217759.41</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1933,10 +1933,10 @@
         <v>7422733235.89</v>
       </c>
       <c r="D89" s="1">
-        <v>20002234967.92</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E89" s="1">
-        <v>34601102374.35</v>
+        <v>34601219933.72</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1950,10 +1950,10 @@
         <v>7523682920.77</v>
       </c>
       <c r="D90" s="1">
-        <v>20236725707.75</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E90" s="1">
-        <v>35025362965.57</v>
+        <v>35025479666.84</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1967,10 +1967,10 @@
         <v>7549356808.18</v>
       </c>
       <c r="D91" s="1">
-        <v>20274704112.17</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E91" s="1">
-        <v>35106467417.43</v>
+        <v>35106583260.6</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1984,10 +1984,10 @@
         <v>7623588366.49</v>
       </c>
       <c r="D92" s="1">
-        <v>20438444305.61</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E92" s="1">
-        <v>35405676882.5</v>
+        <v>35405791867.57</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2001,10 +2001,10 @@
         <v>7693916997.08</v>
       </c>
       <c r="D93" s="1">
-        <v>20590369678.54</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E93" s="1">
-        <v>35685401140.06</v>
+        <v>35685515267.03</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2018,10 +2018,10 @@
         <v>7744728806.72</v>
       </c>
       <c r="D94" s="1">
-        <v>20690747320.22</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E94" s="1">
-        <v>35874830645.56</v>
+        <v>35874943914.43</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2035,10 +2035,10 @@
         <v>7797612927.14</v>
       </c>
       <c r="D95" s="1">
-        <v>20816031800.59</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E95" s="1">
-        <v>36114807334.97</v>
+        <v>36114919745.74</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2052,10 +2052,10 @@
         <v>7890046689.69</v>
       </c>
       <c r="D96" s="1">
-        <v>21026669979.09</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E96" s="1">
-        <v>36495501947.44</v>
+        <v>36495613500.11</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2069,10 +2069,10 @@
         <v>8628245002.959999</v>
       </c>
       <c r="D97" s="1">
-        <v>24225492187.24</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E97" s="1">
-        <v>41855947325.63</v>
+        <v>41856058020.2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2086,10 +2086,10 @@
         <v>8830545061.309999</v>
       </c>
       <c r="D98" s="1">
-        <v>24550452831.88</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E98" s="1">
-        <v>42583608483.91</v>
+        <v>42583718320.38</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2103,10 +2103,10 @@
         <v>8554843302.12</v>
       </c>
       <c r="D99" s="1">
-        <v>23751543939.11</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E99" s="1">
-        <v>41211539283.34</v>
+        <v>41211648261.71</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2120,10 +2120,10 @@
         <v>8555117311.3</v>
       </c>
       <c r="D100" s="1">
-        <v>23895593642.49</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E100" s="1">
-        <v>41345361923.7</v>
+        <v>41345470043.96999</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2137,10 +2137,10 @@
         <v>8525561703.78</v>
       </c>
       <c r="D101" s="1">
-        <v>23668065334.8</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E101" s="1">
-        <v>41046653376.56</v>
+        <v>41046760638.73</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2154,10 +2154,10 @@
         <v>8572549061.9</v>
       </c>
       <c r="D102" s="1">
-        <v>23850014619.05</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E102" s="1">
-        <v>41313125652.08</v>
+        <v>41313232056.15</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2171,10 +2171,10 @@
         <v>8535731069.89</v>
       </c>
       <c r="D103" s="1">
-        <v>23743724505.99</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E103" s="1">
-        <v>41120926179.03</v>
+        <v>41121031725</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2188,10 +2188,10 @@
         <v>8637933457.639999</v>
       </c>
       <c r="D104" s="1">
-        <v>23810476668.13</v>
+        <v>23810581356</v>
       </c>
       <c r="E104" s="1">
-        <v>41384483579.77</v>
+        <v>41384588267.64</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2205,10 +2205,10 @@
         <v>8696018228.42</v>
       </c>
       <c r="D105" s="1">
-        <v>23982305364.47</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E105" s="1">
-        <v>41662699191.55</v>
+        <v>41662803021.32</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2222,10 +2222,10 @@
         <v>8639086304.16</v>
       </c>
       <c r="D106" s="1">
-        <v>23633877037.77</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E106" s="1">
-        <v>41186844593.33</v>
+        <v>41186947565</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2239,10 +2239,10 @@
         <v>8244001106.42</v>
       </c>
       <c r="D107" s="1">
-        <v>22616086896.59</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E107" s="1">
-        <v>39382932997.41</v>
+        <v>39383035110.98</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2256,10 +2256,10 @@
         <v>8324970365.95</v>
       </c>
       <c r="D108" s="1">
-        <v>22855316166.62</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E108" s="1">
-        <v>39775062674.71</v>
+        <v>39775163930.18</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2273,10 +2273,10 @@
         <v>8177279951.57</v>
       </c>
       <c r="D109" s="1">
-        <v>22914691512.65</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E109" s="1">
-        <v>39522884974.1</v>
+        <v>39522985371.47</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2290,10 +2290,10 @@
         <v>8466374243.34</v>
       </c>
       <c r="D110" s="1">
-        <v>23486649000.34</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E110" s="1">
-        <v>40669954095.65</v>
+        <v>40670053634.92</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2307,10 +2307,10 @@
         <v>8538970109.85</v>
       </c>
       <c r="D111" s="1">
-        <v>23478741957.66</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E111" s="1">
-        <v>40797714345.53</v>
+        <v>40797813026.7</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2324,10 +2324,10 @@
         <v>8705342961.4</v>
       </c>
       <c r="D112" s="1">
-        <v>24171159309.13</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E112" s="1">
-        <v>41816004324.67</v>
+        <v>41816102147.74</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2341,10 +2341,10 @@
         <v>9126959379.24</v>
       </c>
       <c r="D113" s="1">
-        <v>24607805892.51</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E113" s="1">
-        <v>42743010048.03</v>
+        <v>42743107013</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2358,10 +2358,10 @@
         <v>9074029379.02</v>
       </c>
       <c r="D114" s="1">
-        <v>25031219112.64</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E114" s="1">
-        <v>43049509347.52</v>
+        <v>43049605454.39</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2375,10 +2375,10 @@
         <v>9361706609.469999</v>
       </c>
       <c r="D115" s="1">
-        <v>25624099438.36</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E115" s="1">
-        <v>44201801916.78</v>
+        <v>44201897165.55</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2392,10 +2392,10 @@
         <v>9396108735.549999</v>
       </c>
       <c r="D116" s="1">
-        <v>25654690308.73</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E116" s="1">
-        <v>44289184114.95</v>
+        <v>44289278505.62</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2409,10 +2409,10 @@
         <v>9608738306.559999</v>
       </c>
       <c r="D117" s="1">
-        <v>27075142517.6</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E117" s="1">
-        <v>46120218348.73</v>
+        <v>46120311881.3</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2426,10 +2426,10 @@
         <v>9614794478.780001</v>
       </c>
       <c r="D118" s="1">
-        <v>26732490993.1</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E118" s="1">
-        <v>46949500920.5</v>
+        <v>46949593594.97</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2443,10 +2443,10 @@
         <v>9625407467.91</v>
       </c>
       <c r="D119" s="1">
-        <v>26631956752.71</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E119" s="1">
-        <v>46865616845.86</v>
+        <v>46865708662.23</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2460,10 +2460,10 @@
         <v>9713037686.17</v>
       </c>
       <c r="D120" s="1">
-        <v>26718171624.69</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E120" s="1">
-        <v>47123526214.26</v>
+        <v>47123617172.53</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2477,10 +2477,10 @@
         <v>9477691033.26</v>
       </c>
       <c r="D121" s="1">
-        <v>25905410180.56</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E121" s="1">
-        <v>46141543427.79</v>
+        <v>46141633527.96</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2494,10 +2494,10 @@
         <v>9555218261.01</v>
       </c>
       <c r="D122" s="1">
-        <v>26801714204.06</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E122" s="1">
-        <v>47197571777.95</v>
+        <v>47197661020.02</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2511,10 +2511,10 @@
         <v>9338936485.4</v>
       </c>
       <c r="D123" s="1">
-        <v>27210513709.58</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E123" s="1">
-        <v>47123736418.86</v>
+        <v>47123824802.83</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2528,10 +2528,10 @@
         <v>8664875030.02</v>
       </c>
       <c r="D124" s="1">
-        <v>26774758277.92</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E124" s="1">
-        <v>45203938859.3</v>
+        <v>45204026385.17001</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2545,10 +2545,10 @@
         <v>9107006952.52</v>
       </c>
       <c r="D125" s="1">
-        <v>27673823035.06</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E125" s="1">
-        <v>47063924664.94</v>
+        <v>47064011332.71</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2562,10 +2562,10 @@
         <v>9213245024.98</v>
       </c>
       <c r="D126" s="1">
-        <v>27458625451.31</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E126" s="1">
-        <v>47081053140.34</v>
+        <v>47081138950.00999</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2579,10 +2579,10 @@
         <v>9308097696.17</v>
       </c>
       <c r="D127" s="1">
-        <v>27604176824.2</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E127" s="1">
-        <v>47426479912.61</v>
+        <v>47426564864.18</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2596,10 +2596,10 @@
         <v>9606421868.530001</v>
       </c>
       <c r="D128" s="1">
-        <v>28739709723.02</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E128" s="1">
-        <v>49195581002.36</v>
+        <v>49195665095.83</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2613,10 +2613,10 @@
         <v>9743289163.68</v>
       </c>
       <c r="D129" s="1">
-        <v>28157559771.86</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E129" s="1">
-        <v>48906000373.67</v>
+        <v>48906083609.04</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2630,10 +2630,10 @@
         <v>9894562298.549999</v>
       </c>
       <c r="D130" s="1">
-        <v>27927113005.67</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E130" s="1">
-        <v>49328610123.34</v>
+        <v>49328692500.60999</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2647,10 +2647,10 @@
         <v>9700328704.629999</v>
       </c>
       <c r="D131" s="1">
-        <v>27087051809.87</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E131" s="1">
-        <v>48025973012.38</v>
+        <v>48026054531.55</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2664,10 +2664,10 @@
         <v>10308274207.78</v>
       </c>
       <c r="D132" s="1">
-        <v>28190375144.73</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E132" s="1">
-        <v>50439922757.96</v>
+        <v>50440003419.03</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2681,10 +2681,10 @@
         <v>11053433125.61</v>
       </c>
       <c r="D133" s="1">
-        <v>28978673408.57</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E133" s="1">
-        <v>52788406154.49</v>
+        <v>52788485957.46</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2698,10 +2698,10 @@
         <v>10900299506.57</v>
       </c>
       <c r="D134" s="1">
-        <v>28129381368.68</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E134" s="1">
-        <v>51587924289.86</v>
+        <v>51588003234.73</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2715,10 +2715,10 @@
         <v>10872197550.37</v>
       </c>
       <c r="D135" s="1">
-        <v>27127339708.72</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E135" s="1">
-        <v>50499267741.22</v>
+        <v>50499345827.99</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2732,10 +2732,10 @@
         <v>10999754121.32</v>
       </c>
       <c r="D136" s="1">
-        <v>26762917954.49</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E136" s="1">
-        <v>50392639291.64</v>
+        <v>50392716520.31</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2749,10 +2749,10 @@
         <v>11290601383.86</v>
       </c>
       <c r="D137" s="1">
-        <v>27451228205.64</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E137" s="1">
-        <v>51700906918.14</v>
+        <v>51700983288.71</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2766,10 +2766,10 @@
         <v>11478701164.89</v>
       </c>
       <c r="D138" s="1">
-        <v>27744608720.27</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E138" s="1">
-        <v>52378479915.34</v>
+        <v>52378555427.81</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2783,10 +2783,10 @@
         <v>11665454270.74</v>
       </c>
       <c r="D139" s="1">
-        <v>28450323789.22</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E139" s="1">
-        <v>53479086658.27</v>
+        <v>53479161312.64</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2800,10 +2800,10 @@
         <v>11826970568.32</v>
       </c>
       <c r="D140" s="1">
-        <v>29059023657.56</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E140" s="1">
-        <v>54428674790.35</v>
+        <v>54428748586.62</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2817,10 +2817,10 @@
         <v>11980671064.48</v>
       </c>
       <c r="D141" s="1">
-        <v>29181824781.04</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E141" s="1">
-        <v>54870263825.59</v>
+        <v>54870336763.75999</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2834,10 +2834,10 @@
         <v>11508277149.59</v>
       </c>
       <c r="D142" s="1">
-        <v>28189152287.09</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E142" s="1">
-        <v>52900976752.92</v>
+        <v>52901048832.99</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2851,10 +2851,10 @@
         <v>11898653834.64</v>
       </c>
       <c r="D143" s="1">
-        <v>28782352603.84</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E143" s="1">
-        <v>54300695591.47</v>
+        <v>54300766813.44</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2868,10 +2868,10 @@
         <v>12126631727.77</v>
       </c>
       <c r="D144" s="1">
-        <v>29177585592.27</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E144" s="1">
-        <v>55089285603.9</v>
+        <v>55089355967.77</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2885,10 +2885,10 @@
         <v>12222321130.28</v>
       </c>
       <c r="D145" s="1">
-        <v>29368978607.23</v>
+        <v>29369048113</v>
       </c>
       <c r="E145" s="1">
-        <v>55524799409.73</v>
+        <v>55524868915.5</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2902,10 +2902,10 @@
         <v>11573834300.94</v>
       </c>
       <c r="D146" s="1">
-        <v>27989441863.54</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E146" s="1">
-        <v>52791326720.55</v>
+        <v>52791395368.22</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2919,10 +2919,10 @@
         <v>11299022364.73</v>
       </c>
       <c r="D147" s="1">
-        <v>27409938257.91</v>
+        <v>27410006047.48</v>
       </c>
       <c r="E147" s="1">
-        <v>51633196749.2</v>
+        <v>51633264538.77</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2936,10 +2936,10 @@
         <v>11031166589.13</v>
       </c>
       <c r="D148" s="1">
-        <v>26576281073.84</v>
+        <v>26576348005.31</v>
       </c>
       <c r="E148" s="1">
-        <v>50270219077.72</v>
+        <v>50270286009.19</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM148"/>
+  <dimension ref="A1:ALM147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,2510 +445,2493 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40209</v>
+        <v>40268</v>
       </c>
       <c r="B2" s="1">
-        <v>932517206.42</v>
+        <v>1475141834.85</v>
       </c>
       <c r="C2" s="1">
-        <v>2102497497.95</v>
+        <v>2204069195.06</v>
       </c>
       <c r="D2" s="1">
-        <v>12454906728.13</v>
+        <v>13025853226.71</v>
       </c>
       <c r="E2" s="1">
-        <v>15489921432.5</v>
+        <v>16705064256.62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40237</v>
+        <v>40298</v>
       </c>
       <c r="B3" s="1">
-        <v>1064104134.07</v>
+        <v>1622528988.09</v>
       </c>
       <c r="C3" s="1">
-        <v>2128528078.25</v>
+        <v>2249160289.73</v>
       </c>
       <c r="D3" s="1">
-        <v>12582607840.79</v>
+        <v>13260630365.46</v>
       </c>
       <c r="E3" s="1">
-        <v>15775240053.11</v>
+        <v>17132319643.28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40268</v>
+        <v>40329</v>
       </c>
       <c r="B4" s="1">
-        <v>1475141834.85</v>
+        <v>1547543516.8</v>
       </c>
       <c r="C4" s="1">
-        <v>2204069195.06</v>
+        <v>2151316976.44</v>
       </c>
       <c r="D4" s="1">
-        <v>13025853226.71</v>
+        <v>12652570165.23</v>
       </c>
       <c r="E4" s="1">
-        <v>16705064256.62</v>
+        <v>16351430658.47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40298</v>
+        <v>40359</v>
       </c>
       <c r="B5" s="1">
-        <v>1622528988.09</v>
+        <v>1525381389.55</v>
       </c>
       <c r="C5" s="1">
-        <v>2249160289.73</v>
+        <v>2126807551.94</v>
       </c>
       <c r="D5" s="1">
-        <v>13260630365.46</v>
+        <v>12475226298.37</v>
       </c>
       <c r="E5" s="1">
-        <v>17132319643.28</v>
+        <v>16127415239.86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40329</v>
+        <v>40390</v>
       </c>
       <c r="B6" s="1">
-        <v>1547543516.8</v>
+        <v>1706992377.88</v>
       </c>
       <c r="C6" s="1">
-        <v>2151316976.44</v>
+        <v>2217049566.92</v>
       </c>
       <c r="D6" s="1">
-        <v>12652570165.23</v>
+        <v>12970356046.29</v>
       </c>
       <c r="E6" s="1">
-        <v>16351430658.47</v>
+        <v>16894397991.09</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40359</v>
+        <v>40421</v>
       </c>
       <c r="B7" s="1">
-        <v>1525381389.55</v>
+        <v>1703519080.08</v>
       </c>
       <c r="C7" s="1">
-        <v>2126807551.94</v>
+        <v>2218270319.77</v>
       </c>
       <c r="D7" s="1">
-        <v>12475226298.37</v>
+        <v>12943159219.5</v>
       </c>
       <c r="E7" s="1">
-        <v>16127415239.86</v>
+        <v>16864948619.35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40390</v>
+        <v>40451</v>
       </c>
       <c r="B8" s="1">
-        <v>1706992377.88</v>
+        <v>1774147463.24</v>
       </c>
       <c r="C8" s="1">
-        <v>2217049566.92</v>
+        <v>2429501039.02</v>
       </c>
       <c r="D8" s="1">
-        <v>12970356046.29</v>
+        <v>13480390809.59</v>
       </c>
       <c r="E8" s="1">
-        <v>16894397991.09</v>
+        <v>17684039311.85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40421</v>
+        <v>40482</v>
       </c>
       <c r="B9" s="1">
-        <v>1703519080.08</v>
+        <v>1900647341.72</v>
       </c>
       <c r="C9" s="1">
-        <v>2218270319.77</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D9" s="1">
-        <v>12943159219.5</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E9" s="1">
-        <v>16864948619.35</v>
+        <v>17795189712.79</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40451</v>
+        <v>40512</v>
       </c>
       <c r="B10" s="1">
-        <v>1774147463.24</v>
+        <v>1880986063.23</v>
       </c>
       <c r="C10" s="1">
-        <v>2429501039.02</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D10" s="1">
-        <v>13480390809.59</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E10" s="1">
-        <v>17684039311.85</v>
+        <v>19628498009.78</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40482</v>
+        <v>40543</v>
       </c>
       <c r="B11" s="1">
-        <v>1900647341.72</v>
+        <v>1928778379.47</v>
       </c>
       <c r="C11" s="1">
-        <v>2451294838.87</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D11" s="1">
-        <v>13443247532.2</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E11" s="1">
-        <v>17795189712.79</v>
+        <v>20035309723.7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40512</v>
+        <v>40574</v>
       </c>
       <c r="B12" s="1">
-        <v>1880986063.23</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C12" s="1">
-        <v>2932628117.61</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D12" s="1">
-        <v>14814883828.94</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E12" s="1">
-        <v>19628498009.78</v>
+        <v>21163883643.67</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40543</v>
+        <v>40602</v>
       </c>
       <c r="B13" s="1">
-        <v>1928778379.47</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C13" s="1">
-        <v>3016301371.7</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D13" s="1">
-        <v>15090229972.53</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E13" s="1">
-        <v>20035309723.7</v>
+        <v>21593049295.12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40574</v>
+        <v>40633</v>
       </c>
       <c r="B14" s="1">
-        <v>3118038032.57</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C14" s="1">
-        <v>3010941131.67</v>
+        <v>3077934373.48</v>
       </c>
       <c r="D14" s="1">
-        <v>15034904479.43</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E14" s="1">
-        <v>21163883643.67</v>
+        <v>21597573754.27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40602</v>
+        <v>40663</v>
       </c>
       <c r="B15" s="1">
-        <v>3181037518.51</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C15" s="1">
-        <v>3072606771.41</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D15" s="1">
-        <v>15339405005.2</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E15" s="1">
-        <v>21593049295.12</v>
+        <v>22196621501.4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40633</v>
+        <v>40694</v>
       </c>
       <c r="B16" s="1">
-        <v>3181383242.47</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C16" s="1">
-        <v>3077934373.48</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D16" s="1">
-        <v>15338256138.32</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E16" s="1">
-        <v>21597573754.27</v>
+        <v>22284802378.54</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40663</v>
+        <v>40724</v>
       </c>
       <c r="B17" s="1">
-        <v>3268994098.86</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C17" s="1">
-        <v>3168259937.35</v>
+        <v>3131056633.27</v>
       </c>
       <c r="D17" s="1">
-        <v>15759367465.19</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E17" s="1">
-        <v>22196621501.4</v>
+        <v>21869307212.61</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40694</v>
+        <v>40755</v>
       </c>
       <c r="B18" s="1">
-        <v>3281525082.01</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C18" s="1">
-        <v>3185699769.88</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D18" s="1">
-        <v>15817577526.65</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E18" s="1">
-        <v>22284802378.54</v>
+        <v>22052191790.71</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40724</v>
+        <v>40786</v>
       </c>
       <c r="B19" s="1">
-        <v>3219718796.83</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C19" s="1">
-        <v>3131056633.27</v>
+        <v>3139082692.54</v>
       </c>
       <c r="D19" s="1">
-        <v>15518531782.51</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E19" s="1">
-        <v>21869307212.61</v>
+        <v>21857328408.78</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40755</v>
+        <v>40816</v>
       </c>
       <c r="B20" s="1">
-        <v>3245901192.15</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C20" s="1">
-        <v>3162162793.97</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D20" s="1">
-        <v>15644127804.59</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E20" s="1">
-        <v>22052191790.71</v>
+        <v>21890762234.61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40786</v>
+        <v>40847</v>
       </c>
       <c r="B21" s="1">
-        <v>3216438061.76</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C21" s="1">
-        <v>3139082692.54</v>
+        <v>3311931768.5</v>
       </c>
       <c r="D21" s="1">
-        <v>15501807654.48</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E21" s="1">
-        <v>21857328408.78</v>
+        <v>22618006484.29</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40816</v>
+        <v>40877</v>
       </c>
       <c r="B22" s="1">
-        <v>3211645130.63</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C22" s="1">
-        <v>3200272417.15</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D22" s="1">
-        <v>15478844686.83</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E22" s="1">
-        <v>21890762234.61</v>
+        <v>22404833979.68</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40847</v>
+        <v>40908</v>
       </c>
       <c r="B23" s="1">
-        <v>3317215603.4</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C23" s="1">
-        <v>3311931768.5</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D23" s="1">
-        <v>15988859112.39</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E23" s="1">
-        <v>22618006484.29</v>
+        <v>22610739192.74</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40877</v>
+        <v>40939</v>
       </c>
       <c r="B24" s="1">
-        <v>3279790855.17</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C24" s="1">
-        <v>3286738232.03</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D24" s="1">
-        <v>15838304892.48</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E24" s="1">
-        <v>22404833979.68</v>
+        <v>23182713107.18</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40908</v>
+        <v>40968</v>
       </c>
       <c r="B25" s="1">
-        <v>3308515656.83</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C25" s="1">
-        <v>3322199318.6</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D25" s="1">
-        <v>15980024217.31</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E25" s="1">
-        <v>22610739192.74</v>
+        <v>23539061638.97</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>40939</v>
+        <v>40999</v>
       </c>
       <c r="B26" s="1">
-        <v>3390714253.36</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C26" s="1">
-        <v>3411636959.78</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D26" s="1">
-        <v>16380361894.04</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E26" s="1">
-        <v>23182713107.18</v>
+        <v>23568627738.57</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>40968</v>
+        <v>41029</v>
       </c>
       <c r="B27" s="1">
-        <v>3441357193.01</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C27" s="1">
-        <v>3465240303.9</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D27" s="1">
-        <v>16632464142.06</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E27" s="1">
-        <v>23539061638.97</v>
+        <v>23751063285.04</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>40999</v>
+        <v>41060</v>
       </c>
       <c r="B28" s="1">
-        <v>3594273253.88</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C28" s="1">
-        <v>3448893913.05</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D28" s="1">
-        <v>16525460571.64</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E28" s="1">
-        <v>23568627738.57</v>
+        <v>23525356279.52</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41029</v>
+        <v>41090</v>
       </c>
       <c r="B29" s="1">
-        <v>3620819218.91</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C29" s="1">
-        <v>3481026300.12</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D29" s="1">
-        <v>16649217766.01</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E29" s="1">
-        <v>23751063285.04</v>
+        <v>23967119998.88</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41060</v>
+        <v>41121</v>
       </c>
       <c r="B30" s="1">
-        <v>3584994009.65</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C30" s="1">
-        <v>3453190328.12</v>
+        <v>3572637746.48</v>
       </c>
       <c r="D30" s="1">
-        <v>16487171941.75</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E30" s="1">
-        <v>23525356279.52</v>
+        <v>24445194794.85</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41090</v>
+        <v>41152</v>
       </c>
       <c r="B31" s="1">
-        <v>3803025610.44</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C31" s="1">
-        <v>3497243829.13</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D31" s="1">
-        <v>16666850559.31</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E31" s="1">
-        <v>23967119998.88</v>
+        <v>24546339462.45</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41121</v>
+        <v>41182</v>
       </c>
       <c r="B32" s="1">
-        <v>3877728751.39</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C32" s="1">
-        <v>3572637746.48</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D32" s="1">
-        <v>16994828296.98</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E32" s="1">
-        <v>24445194794.85</v>
+        <v>24697860539.92</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41152</v>
+        <v>41213</v>
       </c>
       <c r="B33" s="1">
-        <v>3892524075.7</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C33" s="1">
-        <v>3592909103.41</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D33" s="1">
-        <v>17060906283.34</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E33" s="1">
-        <v>24546339462.45</v>
+        <v>24675789016.94</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41182</v>
+        <v>41243</v>
       </c>
       <c r="B34" s="1">
-        <v>3915294252.8</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C34" s="1">
-        <v>3620604152.58</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D34" s="1">
-        <v>17161962134.54</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E34" s="1">
-        <v>24697860539.92</v>
+        <v>24802412939.95</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41213</v>
+        <v>41274</v>
       </c>
       <c r="B35" s="1">
-        <v>3910430761.85</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C35" s="1">
-        <v>3622924774.95</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D35" s="1">
-        <v>17142433480.14</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E35" s="1">
-        <v>24675789016.94</v>
+        <v>24895888004.03</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41243</v>
+        <v>41305</v>
       </c>
       <c r="B36" s="1">
-        <v>3929018216.4</v>
+        <v>3991599105.71</v>
       </c>
       <c r="C36" s="1">
-        <v>3646999015.16</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D36" s="1">
-        <v>17226395708.39</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E36" s="1">
-        <v>24802412939.95</v>
+        <v>25170522714.13</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41274</v>
+        <v>41333</v>
       </c>
       <c r="B37" s="1">
-        <v>3949731061.55</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C37" s="1">
-        <v>3654809047.65</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D37" s="1">
-        <v>17291347894.83</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E37" s="1">
-        <v>24895888004.03</v>
+        <v>25279217396.12</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41305</v>
+        <v>41364</v>
       </c>
       <c r="B38" s="1">
-        <v>3991599105.71</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C38" s="1">
-        <v>4490569394.41</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D38" s="1">
-        <v>16688354214.01</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E38" s="1">
-        <v>25170522714.13</v>
+        <v>25595621001.76</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41333</v>
+        <v>41394</v>
       </c>
       <c r="B39" s="1">
-        <v>4007467353.78</v>
+        <v>4145409199.46</v>
       </c>
       <c r="C39" s="1">
-        <v>4511270646.88</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D39" s="1">
-        <v>16760479395.46</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E39" s="1">
-        <v>25279217396.12</v>
+        <v>26172966159.6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41364</v>
+        <v>41425</v>
       </c>
       <c r="B40" s="1">
-        <v>4055824611.3</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C40" s="1">
-        <v>4573664426.03</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D40" s="1">
-        <v>16966131964.43</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E40" s="1">
-        <v>25595621001.76</v>
+        <v>25673994810.38</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41394</v>
+        <v>41455</v>
       </c>
       <c r="B41" s="1">
-        <v>4145409199.46</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C41" s="1">
-        <v>4682846886.27</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D41" s="1">
-        <v>17344710073.87</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E41" s="1">
-        <v>26172966159.6</v>
+        <v>25144254258.35</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41425</v>
+        <v>41486</v>
       </c>
       <c r="B42" s="1">
-        <v>4064569702.63</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C42" s="1">
-        <v>4599347535.9</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D42" s="1">
-        <v>17010077571.85</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E42" s="1">
-        <v>25673994810.38</v>
+        <v>25436691656.9</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41455</v>
+        <v>41517</v>
       </c>
       <c r="B43" s="1">
-        <v>3978796970.09</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C43" s="1">
-        <v>4510251396.91</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D43" s="1">
-        <v>16655205891.35</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E43" s="1">
-        <v>25144254258.35</v>
+        <v>25090707293.91</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41486</v>
+        <v>41547</v>
       </c>
       <c r="B44" s="1">
-        <v>4023056820.86</v>
+        <v>4033439753.48</v>
       </c>
       <c r="C44" s="1">
-        <v>4568724212.7</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D44" s="1">
-        <v>16844910623.34</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E44" s="1">
-        <v>25436691656.9</v>
+        <v>25528497279.93</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41517</v>
+        <v>41578</v>
       </c>
       <c r="B45" s="1">
-        <v>3966340296.1</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C45" s="1">
-        <v>4512507452.03</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D45" s="1">
-        <v>16611859545.78</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E45" s="1">
-        <v>25090707293.91</v>
+        <v>26027364114.18</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41547</v>
+        <v>41608</v>
       </c>
       <c r="B46" s="1">
-        <v>4033439753.48</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C46" s="1">
-        <v>4749762591.53</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D46" s="1">
-        <v>16745294934.92</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E46" s="1">
-        <v>25528497279.93</v>
+        <v>26003820925.72</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41578</v>
+        <v>41639</v>
       </c>
       <c r="B47" s="1">
-        <v>4110020215.55</v>
+        <v>4121232839.29</v>
       </c>
       <c r="C47" s="1">
-        <v>4848589342.72</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D47" s="1">
-        <v>17068754555.91</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E47" s="1">
-        <v>26027364114.18</v>
+        <v>26126288441.74</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41608</v>
+        <v>41670</v>
       </c>
       <c r="B48" s="1">
-        <v>4104202981.72</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C48" s="1">
-        <v>4850653743.4</v>
+        <v>4882894726.29</v>
       </c>
       <c r="D48" s="1">
-        <v>17048964200.6</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E48" s="1">
-        <v>26003820925.72</v>
+        <v>26107696311.48</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41639</v>
+        <v>41698</v>
       </c>
       <c r="B49" s="1">
-        <v>4121232839.29</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C49" s="1">
-        <v>4879983265.38</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D49" s="1">
-        <v>17125072337.07</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E49" s="1">
-        <v>26126288441.74</v>
+        <v>26638164824.17</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41670</v>
+        <v>41729</v>
       </c>
       <c r="B50" s="1">
-        <v>4116223144.44</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C50" s="1">
-        <v>4882894726.29</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D50" s="1">
-        <v>17108578440.75</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E50" s="1">
-        <v>26107696311.48</v>
+        <v>26770056497.39</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41698</v>
+        <v>41759</v>
       </c>
       <c r="B51" s="1">
-        <v>4197240949.36</v>
+        <v>4212492467.73</v>
       </c>
       <c r="C51" s="1">
-        <v>4988729007.27</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D51" s="1">
-        <v>17452194867.54</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E51" s="1">
-        <v>26638164824.17</v>
+        <v>26766109574.18</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41729</v>
+        <v>41790</v>
       </c>
       <c r="B52" s="1">
-        <v>4215464347.87</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C52" s="1">
-        <v>5019984158.58</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D52" s="1">
-        <v>17534607990.94</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E52" s="1">
-        <v>26770056497.39</v>
+        <v>27191987348.25</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41759</v>
+        <v>41820</v>
       </c>
       <c r="B53" s="1">
-        <v>4212492467.73</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C53" s="1">
-        <v>5026144812.31</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D53" s="1">
-        <v>17527472294.14</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E53" s="1">
-        <v>26766109574.18</v>
+        <v>27325686546.76</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41790</v>
+        <v>41851</v>
       </c>
       <c r="B54" s="1">
-        <v>4276832512.93</v>
+        <v>4265451845</v>
       </c>
       <c r="C54" s="1">
-        <v>5112975530.56</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D54" s="1">
-        <v>17802179304.76</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E54" s="1">
-        <v>27191987348.25</v>
+        <v>27156839042.76</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41820</v>
+        <v>41882</v>
       </c>
       <c r="B55" s="1">
-        <v>4295140983.11</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C55" s="1">
-        <v>5144862372.52</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D55" s="1">
-        <v>17885683191.13</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E55" s="1">
-        <v>27325686546.76</v>
+        <v>27744206657.43</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41851</v>
+        <v>41912</v>
       </c>
       <c r="B56" s="1">
-        <v>4265451845</v>
+        <v>4258151023.04</v>
       </c>
       <c r="C56" s="1">
-        <v>5119794037.99</v>
+        <v>5131976211.71</v>
       </c>
       <c r="D56" s="1">
-        <v>17771593159.77</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E56" s="1">
-        <v>27156839042.76</v>
+        <v>27150660877.68</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41882</v>
+        <v>41943</v>
       </c>
       <c r="B57" s="1">
-        <v>4354547211.12</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C57" s="1">
-        <v>5237452701.82</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D57" s="1">
-        <v>18152206744.49</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E57" s="1">
-        <v>27744206657.43</v>
+        <v>27371725833.13</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>41912</v>
+        <v>41973</v>
       </c>
       <c r="B58" s="1">
-        <v>4258151023.04</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C58" s="1">
-        <v>5131976211.71</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D58" s="1">
-        <v>17760533642.93</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E58" s="1">
-        <v>27150660877.68</v>
+        <v>27755933978.37</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>41943</v>
+        <v>42004</v>
       </c>
       <c r="B59" s="1">
-        <v>4285163976.8</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C59" s="1">
-        <v>5172926233.01</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D59" s="1">
-        <v>17913635623.32</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E59" s="1">
-        <v>27371725833.13</v>
+        <v>28782428258.71</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="B60" s="1">
-        <v>4341696562.65</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C60" s="1">
-        <v>5252461885.84</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D60" s="1">
-        <v>18161775529.88</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E60" s="1">
-        <v>27755933978.37</v>
+        <v>29378034101.34</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42004</v>
+        <v>42063</v>
       </c>
       <c r="B61" s="1">
-        <v>4986611512.07</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C61" s="1">
-        <v>5448191101.38</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D61" s="1">
-        <v>18347625645.26</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E61" s="1">
-        <v>28782428258.71</v>
+        <v>29527722140.57</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42035</v>
+        <v>42094</v>
       </c>
       <c r="B62" s="1">
-        <v>5087365130.35</v>
+        <v>5098528846.54</v>
       </c>
       <c r="C62" s="1">
-        <v>5567918737.12</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D62" s="1">
-        <v>18722750233.87</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E62" s="1">
-        <v>29378034101.34</v>
+        <v>29472205126.79</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42063</v>
+        <v>42124</v>
       </c>
       <c r="B63" s="1">
-        <v>5110739057.82</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C63" s="1">
-        <v>5603210665.94</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D63" s="1">
-        <v>18813772416.81</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E63" s="1">
-        <v>29527722140.57</v>
+        <v>29408637463</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42094</v>
+        <v>42155</v>
       </c>
       <c r="B64" s="1">
-        <v>5098528846.54</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C64" s="1">
-        <v>5599621915.28</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D64" s="1">
-        <v>18774054364.97</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E64" s="1">
-        <v>29472205126.79</v>
+        <v>29288010554.98</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42124</v>
+        <v>42185</v>
       </c>
       <c r="B65" s="1">
-        <v>5084901351.07</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C65" s="1">
-        <v>5594550723.83</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D65" s="1">
-        <v>18729185388.1</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E65" s="1">
-        <v>29408637463</v>
+        <v>28650016749.03</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42155</v>
+        <v>42216</v>
       </c>
       <c r="B66" s="1">
-        <v>5061385747.15</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C66" s="1">
-        <v>5578675769.67</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D66" s="1">
-        <v>18647949038.16</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E66" s="1">
-        <v>29288010554.98</v>
+        <v>28876185070.36</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42185</v>
+        <v>42247</v>
       </c>
       <c r="B67" s="1">
-        <v>4948449143.55</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C67" s="1">
-        <v>5464086350.67</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D67" s="1">
-        <v>18237481254.81</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E67" s="1">
-        <v>28650016749.03</v>
+        <v>28013929187.9</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42216</v>
+        <v>42277</v>
       </c>
       <c r="B68" s="1">
-        <v>4984734110.66</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C68" s="1">
-        <v>5514366076.03</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D68" s="1">
-        <v>18377084883.67</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E68" s="1">
-        <v>28876185070.36</v>
+        <v>27687614897.05</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42247</v>
+        <v>42308</v>
       </c>
       <c r="B69" s="1">
-        <v>4833324327.11</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C69" s="1">
-        <v>5356648129.15</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D69" s="1">
-        <v>17823956731.64</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E69" s="1">
-        <v>28013929187.9</v>
+        <v>28326347037.87</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42277</v>
+        <v>42338</v>
       </c>
       <c r="B70" s="1">
-        <v>4774352359.51</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C70" s="1">
-        <v>5301454591.47</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D70" s="1">
-        <v>17611807946.07</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E70" s="1">
-        <v>27687614897.05</v>
+        <v>28136561001.15</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42308</v>
+        <v>42369</v>
       </c>
       <c r="B71" s="1">
-        <v>4880247836.65</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C71" s="1">
-        <v>5397632819.49</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D71" s="1">
-        <v>18048466381.73</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E71" s="1">
-        <v>28326347037.87</v>
+        <v>28846254608.33</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42338</v>
+        <v>42400</v>
       </c>
       <c r="B72" s="1">
-        <v>4844551814.11</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C72" s="1">
-        <v>5368571908.98</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D72" s="1">
-        <v>17923437278.06</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E72" s="1">
-        <v>28136561001.15</v>
+        <v>28336372866.16</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42369</v>
+        <v>42429</v>
       </c>
       <c r="B73" s="1">
-        <v>5415576742.55</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C73" s="1">
-        <v>5709868087.27</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D73" s="1">
-        <v>17720809778.51</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E73" s="1">
-        <v>28846254608.33</v>
+        <v>28455678308.47</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42400</v>
+        <v>42460</v>
       </c>
       <c r="B74" s="1">
-        <v>5318083756.35</v>
+        <v>5505915040.5</v>
       </c>
       <c r="C74" s="1">
-        <v>5616578571.14</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D74" s="1">
-        <v>17401710538.67</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E74" s="1">
-        <v>28336372866.16</v>
+        <v>29356671897.69</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42429</v>
+        <v>42490</v>
       </c>
       <c r="B75" s="1">
-        <v>5338694185.85</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C75" s="1">
-        <v>5647936294.45</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D75" s="1">
-        <v>17469047828.17</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E75" s="1">
-        <v>28455678308.47</v>
+        <v>29542027110.35</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42460</v>
+        <v>42521</v>
       </c>
       <c r="B76" s="1">
-        <v>5505915040.5</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C76" s="1">
-        <v>5834802926.8</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D76" s="1">
-        <v>18015953930.39</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E76" s="1">
-        <v>29356671897.69</v>
+        <v>29511421101.44</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42490</v>
+        <v>42551</v>
       </c>
       <c r="B77" s="1">
-        <v>5538988181.45</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C77" s="1">
-        <v>5879483219.72</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D77" s="1">
-        <v>18123555709.18</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E77" s="1">
-        <v>29542027110.35</v>
+        <v>29721833433.55</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42521</v>
+        <v>42582</v>
       </c>
       <c r="B78" s="1">
-        <v>5531594102.95</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C78" s="1">
-        <v>5881279255.87</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D78" s="1">
-        <v>18098547742.62</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E78" s="1">
-        <v>29511421101.44</v>
+        <v>30265143212.71</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42551</v>
+        <v>42613</v>
       </c>
       <c r="B79" s="1">
-        <v>5569334217.76</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C79" s="1">
-        <v>5931068967.2</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D79" s="1">
-        <v>18221430248.59</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E79" s="1">
-        <v>29721833433.55</v>
+        <v>30212255260.83</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42582</v>
+        <v>42643</v>
       </c>
       <c r="B80" s="1">
-        <v>5669685323.09</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C80" s="1">
-        <v>6047546128.94</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D80" s="1">
-        <v>18547911760.68</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E80" s="1">
-        <v>30265143212.71</v>
+        <v>31311189264.37</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42613</v>
+        <v>42674</v>
       </c>
       <c r="B81" s="1">
-        <v>5658306874.65</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C81" s="1">
-        <v>6044991482.23</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D81" s="1">
-        <v>18508956903.95</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E81" s="1">
-        <v>30212255260.83</v>
+        <v>30735701818.56</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42643</v>
+        <v>42704</v>
       </c>
       <c r="B82" s="1">
-        <v>6047292088.02</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C82" s="1">
-        <v>6489780168.17</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D82" s="1">
-        <v>18774117008.18</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E82" s="1">
-        <v>31311189264.37</v>
+        <v>30294149402.87</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42674</v>
+        <v>42735</v>
       </c>
       <c r="B83" s="1">
-        <v>5944249077.31</v>
+        <v>6253513976.5</v>
       </c>
       <c r="C83" s="1">
-        <v>6361287062.33</v>
+        <v>6361809245.25</v>
       </c>
       <c r="D83" s="1">
-        <v>18430165678.92</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E83" s="1">
-        <v>30735701818.56</v>
+        <v>31134559706.61</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42704</v>
+        <v>42766</v>
       </c>
       <c r="B84" s="1">
-        <v>5857951330.08</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C84" s="1">
-        <v>6278318762.68</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D84" s="1">
-        <v>18157879310.11</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E84" s="1">
-        <v>30294149402.87</v>
+        <v>31406628721.6</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42735</v>
+        <v>42794</v>
       </c>
       <c r="B85" s="1">
-        <v>6253513976.5</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C85" s="1">
-        <v>6361809245.25</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D85" s="1">
-        <v>18519236484.86</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E85" s="1">
-        <v>31134559706.61</v>
+        <v>31862928265.29</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42766</v>
+        <v>42825</v>
       </c>
       <c r="B86" s="1">
-        <v>6308462886.34</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C86" s="1">
-        <v>6425317655.9</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D86" s="1">
-        <v>18672848179.36</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E86" s="1">
-        <v>31406628721.6</v>
+        <v>34237217759.41</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42794</v>
+        <v>42855</v>
       </c>
       <c r="B87" s="1">
-        <v>6400976668.18</v>
+        <v>7176134170.54</v>
       </c>
       <c r="C87" s="1">
-        <v>6526279467.15</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D87" s="1">
-        <v>18935672129.96</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E87" s="1">
-        <v>31862928265.29</v>
+        <v>34601219933.72</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42825</v>
+        <v>42886</v>
       </c>
       <c r="B88" s="1">
-        <v>7099971446.02</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C88" s="1">
-        <v>7337629420.28</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D88" s="1">
-        <v>19799616893.11</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E88" s="1">
-        <v>34237217759.41</v>
+        <v>35025479666.84</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42855</v>
+        <v>42916</v>
       </c>
       <c r="B89" s="1">
-        <v>7176134170.54</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C89" s="1">
-        <v>7422733235.89</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D89" s="1">
-        <v>20002352527.29</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E89" s="1">
-        <v>34601219933.72</v>
+        <v>35106583260.6</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42886</v>
+        <v>42947</v>
       </c>
       <c r="B90" s="1">
-        <v>7264954337.05</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C90" s="1">
-        <v>7523682920.77</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D90" s="1">
-        <v>20236842409.02</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E90" s="1">
-        <v>35025479666.84</v>
+        <v>35405791867.57</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>42916</v>
+        <v>42978</v>
       </c>
       <c r="B91" s="1">
-        <v>7282406497.08</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C91" s="1">
-        <v>7549356808.18</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D91" s="1">
-        <v>20274819955.34</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E91" s="1">
-        <v>35106583260.6</v>
+        <v>35685515267.03</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>42947</v>
+        <v>43008</v>
       </c>
       <c r="B92" s="1">
-        <v>7343644210.4</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C92" s="1">
-        <v>7623588366.49</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D92" s="1">
-        <v>20438559290.68</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E92" s="1">
-        <v>35405791867.57</v>
+        <v>35874943914.43</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>42978</v>
+        <v>43039</v>
       </c>
       <c r="B93" s="1">
-        <v>7401114464.44</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C93" s="1">
-        <v>7693916997.08</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D93" s="1">
-        <v>20590483805.51</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E93" s="1">
-        <v>35685515267.03</v>
+        <v>36114919745.74</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43008</v>
+        <v>43069</v>
       </c>
       <c r="B94" s="1">
-        <v>7439354518.62</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C94" s="1">
-        <v>7744728806.72</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D94" s="1">
-        <v>20690860589.09</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E94" s="1">
-        <v>35874943914.43</v>
+        <v>36495613500.11</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43039</v>
+        <v>43100</v>
       </c>
       <c r="B95" s="1">
-        <v>7501162607.24</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C95" s="1">
-        <v>7797612927.14</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D95" s="1">
-        <v>20816144211.36</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E95" s="1">
-        <v>36114919745.74</v>
+        <v>41856058020.2</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43069</v>
+        <v>43131</v>
       </c>
       <c r="B96" s="1">
-        <v>7578785278.66</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C96" s="1">
-        <v>7890046689.69</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D96" s="1">
-        <v>21026781531.76</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E96" s="1">
-        <v>36495613500.11</v>
+        <v>42583718320.38</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43100</v>
+        <v>43159</v>
       </c>
       <c r="B97" s="1">
-        <v>9002210135.43</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C97" s="1">
-        <v>8628245002.959999</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D97" s="1">
-        <v>24225602881.81</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E97" s="1">
-        <v>41856058020.2</v>
+        <v>41211648261.71</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43131</v>
+        <v>43190</v>
       </c>
       <c r="B98" s="1">
-        <v>9202610590.719999</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C98" s="1">
-        <v>8830545061.309999</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D98" s="1">
-        <v>24550562668.35</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E98" s="1">
-        <v>42583718320.38</v>
+        <v>41345470043.96999</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43159</v>
+        <v>43220</v>
       </c>
       <c r="B99" s="1">
-        <v>8905152042.110001</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C99" s="1">
-        <v>8554843302.12</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D99" s="1">
-        <v>23751652917.48</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E99" s="1">
-        <v>41211648261.71</v>
+        <v>41046760638.73</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43190</v>
+        <v>43251</v>
       </c>
       <c r="B100" s="1">
-        <v>8894650969.91</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C100" s="1">
-        <v>8555117311.3</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D100" s="1">
-        <v>23895701762.76</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E100" s="1">
-        <v>41345470043.96999</v>
+        <v>41313232056.15</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43220</v>
+        <v>43281</v>
       </c>
       <c r="B101" s="1">
-        <v>8853026337.98</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C101" s="1">
-        <v>8525561703.78</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D101" s="1">
-        <v>23668172596.97</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E101" s="1">
-        <v>41046760638.73</v>
+        <v>41121031725</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43251</v>
+        <v>43312</v>
       </c>
       <c r="B102" s="1">
-        <v>8890561971.129999</v>
+        <v>8936073454</v>
       </c>
       <c r="C102" s="1">
-        <v>8572549061.9</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D102" s="1">
-        <v>23850121023.12</v>
+        <v>23810581356</v>
       </c>
       <c r="E102" s="1">
-        <v>41313232056.15</v>
+        <v>41384588267.64</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43281</v>
+        <v>43343</v>
       </c>
       <c r="B103" s="1">
-        <v>8841470603.15</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C103" s="1">
-        <v>8535731069.89</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D103" s="1">
-        <v>23743830051.96</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E103" s="1">
-        <v>41121031725</v>
+        <v>41662803021.32</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43312</v>
+        <v>43373</v>
       </c>
       <c r="B104" s="1">
-        <v>8936073454</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C104" s="1">
-        <v>8637933457.639999</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D104" s="1">
-        <v>23810581356</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E104" s="1">
-        <v>41384588267.64</v>
+        <v>41186947565</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43343</v>
+        <v>43404</v>
       </c>
       <c r="B105" s="1">
-        <v>8984375598.66</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C105" s="1">
-        <v>8696018228.42</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D105" s="1">
-        <v>23982409194.24</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E105" s="1">
-        <v>41662803021.32</v>
+        <v>39383035110.98</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43373</v>
+        <v>43434</v>
       </c>
       <c r="B106" s="1">
-        <v>8913881251.4</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C106" s="1">
-        <v>8639086304.16</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D106" s="1">
-        <v>23633980009.44</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E106" s="1">
-        <v>41186947565</v>
+        <v>39775163930.18</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="B107" s="1">
-        <v>8522844994.4</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C107" s="1">
-        <v>8244001106.42</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D107" s="1">
-        <v>22616189010.16</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E107" s="1">
-        <v>39383035110.98</v>
+        <v>39522985371.47</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43434</v>
+        <v>43496</v>
       </c>
       <c r="B108" s="1">
-        <v>8594776142.139999</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C108" s="1">
-        <v>8324970365.95</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D108" s="1">
-        <v>22855417422.09</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E108" s="1">
-        <v>39775163930.18</v>
+        <v>40670053634.92</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43465</v>
+        <v>43524</v>
       </c>
       <c r="B109" s="1">
-        <v>8430913509.88</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C109" s="1">
-        <v>8177279951.57</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D109" s="1">
-        <v>22914791910.02</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E109" s="1">
-        <v>39522985371.47</v>
+        <v>40797813026.7</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43496</v>
+        <v>43555</v>
       </c>
       <c r="B110" s="1">
-        <v>8716930851.969999</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C110" s="1">
-        <v>8466374243.34</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D110" s="1">
-        <v>23486748539.61</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E110" s="1">
-        <v>40670053634.92</v>
+        <v>41816102147.74</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43524</v>
+        <v>43585</v>
       </c>
       <c r="B111" s="1">
-        <v>8780002278.02</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C111" s="1">
-        <v>8538970109.85</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D111" s="1">
-        <v>23478840638.83</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E111" s="1">
-        <v>40797813026.7</v>
+        <v>42743107013</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43555</v>
+        <v>43616</v>
       </c>
       <c r="B112" s="1">
-        <v>8939502054.139999</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C112" s="1">
-        <v>8705342961.4</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D112" s="1">
-        <v>24171257132.2</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E112" s="1">
-        <v>41816102147.74</v>
+        <v>43049605454.39</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43585</v>
+        <v>43646</v>
       </c>
       <c r="B113" s="1">
-        <v>9008244776.280001</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C113" s="1">
-        <v>9126959379.24</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D113" s="1">
-        <v>24607902857.48</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E113" s="1">
-        <v>42743107013</v>
+        <v>44201897165.55</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43616</v>
+        <v>43677</v>
       </c>
       <c r="B114" s="1">
-        <v>8944260855.860001</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C114" s="1">
-        <v>9074029379.02</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D114" s="1">
-        <v>25031315219.51</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E114" s="1">
-        <v>43049605454.39</v>
+        <v>44289278505.62</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43646</v>
+        <v>43708</v>
       </c>
       <c r="B115" s="1">
-        <v>9215995868.950001</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C115" s="1">
-        <v>9361706609.469999</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D115" s="1">
-        <v>25624194687.13</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E115" s="1">
-        <v>44201897165.55</v>
+        <v>46120311881.3</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43677</v>
+        <v>43738</v>
       </c>
       <c r="B116" s="1">
-        <v>9238385070.67</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C116" s="1">
-        <v>9396108735.549999</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D116" s="1">
-        <v>25654784699.4</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E116" s="1">
-        <v>44289278505.62</v>
+        <v>46949593594.97</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43708</v>
+        <v>43769</v>
       </c>
       <c r="B117" s="1">
-        <v>9436337524.57</v>
+        <v>10608252625.24</v>
       </c>
       <c r="C117" s="1">
-        <v>9608738306.559999</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D117" s="1">
-        <v>27075236050.17</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E117" s="1">
-        <v>46120311881.3</v>
+        <v>46865708662.23</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43738</v>
+        <v>43799</v>
       </c>
       <c r="B118" s="1">
-        <v>10602215448.62</v>
+        <v>10692316903.4</v>
       </c>
       <c r="C118" s="1">
-        <v>9614794478.780001</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D118" s="1">
-        <v>26732583667.57</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E118" s="1">
-        <v>46949593594.97</v>
+        <v>47123617172.53</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43769</v>
+        <v>43830</v>
       </c>
       <c r="B119" s="1">
-        <v>10608252625.24</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C119" s="1">
-        <v>9625407467.91</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D119" s="1">
-        <v>26632048569.08</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E119" s="1">
-        <v>46865708662.23</v>
+        <v>46141633527.96</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43799</v>
+        <v>43861</v>
       </c>
       <c r="B120" s="1">
-        <v>10692316903.4</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C120" s="1">
-        <v>9713037686.17</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D120" s="1">
-        <v>26718262582.96</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E120" s="1">
-        <v>47123617172.53</v>
+        <v>47197661020.02</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43830</v>
+        <v>43890</v>
       </c>
       <c r="B121" s="1">
-        <v>10758442213.97</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C121" s="1">
-        <v>9477691033.26</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D121" s="1">
-        <v>25905500280.73</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E121" s="1">
-        <v>46141633527.96</v>
+        <v>47123824802.83</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43861</v>
+        <v>43921</v>
       </c>
       <c r="B122" s="1">
-        <v>10840639312.88</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C122" s="1">
-        <v>9555218261.01</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D122" s="1">
-        <v>26801803446.13</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E122" s="1">
-        <v>47197661020.02</v>
+        <v>45204026385.17001</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43890</v>
+        <v>43951</v>
       </c>
       <c r="B123" s="1">
-        <v>10574286223.88</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C123" s="1">
-        <v>9338936485.4</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D123" s="1">
-        <v>27210602093.55</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E123" s="1">
-        <v>47123824802.83</v>
+        <v>47064011332.71</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>43921</v>
+        <v>43982</v>
       </c>
       <c r="B124" s="1">
-        <v>9764305551.360001</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C124" s="1">
-        <v>8664875030.02</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D124" s="1">
-        <v>26774845803.79</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E124" s="1">
-        <v>45204026385.17001</v>
+        <v>47081138950.00999</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>43951</v>
+        <v>44012</v>
       </c>
       <c r="B125" s="1">
-        <v>10283094677.36</v>
+        <v>10514205392.24</v>
       </c>
       <c r="C125" s="1">
-        <v>9107006952.52</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D125" s="1">
-        <v>27673909702.83</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E125" s="1">
-        <v>47064011332.71</v>
+        <v>47426564864.18</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>43982</v>
+        <v>44043</v>
       </c>
       <c r="B126" s="1">
-        <v>10409182664.05</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C126" s="1">
-        <v>9213245024.98</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D126" s="1">
-        <v>27458711260.98</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E126" s="1">
-        <v>47081138950.00999</v>
+        <v>49195665095.83</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44012</v>
+        <v>44074</v>
       </c>
       <c r="B127" s="1">
-        <v>10514205392.24</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C127" s="1">
-        <v>9308097696.17</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D127" s="1">
-        <v>27604261775.77</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E127" s="1">
-        <v>47426564864.18</v>
+        <v>48906083609.04</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44043</v>
+        <v>44104</v>
       </c>
       <c r="B128" s="1">
-        <v>10849449410.81</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C128" s="1">
-        <v>9606421868.530001</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D128" s="1">
-        <v>28739793816.49</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E128" s="1">
-        <v>49195665095.83</v>
+        <v>49328692500.60999</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44074</v>
+        <v>44135</v>
       </c>
       <c r="B129" s="1">
-        <v>11005151438.13</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C129" s="1">
-        <v>9743289163.68</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D129" s="1">
-        <v>28157643007.23</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E129" s="1">
-        <v>48906083609.04</v>
+        <v>48026054531.55</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44104</v>
+        <v>44165</v>
       </c>
       <c r="B130" s="1">
-        <v>11506934819.12</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C130" s="1">
-        <v>9894562298.549999</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D130" s="1">
-        <v>27927195382.94</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E130" s="1">
-        <v>49328692500.60999</v>
+        <v>50440003419.03</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44135</v>
+        <v>44196</v>
       </c>
       <c r="B131" s="1">
-        <v>11238592497.88</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C131" s="1">
-        <v>9700328704.629999</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D131" s="1">
-        <v>27087133329.04</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E131" s="1">
-        <v>48026054531.55</v>
+        <v>52788485957.46</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44165</v>
+        <v>44227</v>
       </c>
       <c r="B132" s="1">
-        <v>11941273405.45</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C132" s="1">
-        <v>10308274207.78</v>
+        <v>10900299506.57</v>
       </c>
       <c r="D132" s="1">
-        <v>28190455805.8</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E132" s="1">
-        <v>50440003419.03</v>
+        <v>51588003234.73</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44196</v>
+        <v>44255</v>
       </c>
       <c r="B133" s="1">
-        <v>12756299620.31</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C133" s="1">
-        <v>11053433125.61</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D133" s="1">
-        <v>28978753211.54</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E133" s="1">
-        <v>52788485957.46</v>
+        <v>50499345827.99</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44227</v>
+        <v>44286</v>
       </c>
       <c r="B134" s="1">
-        <v>12558243414.61</v>
+        <v>12629967215.83</v>
       </c>
       <c r="C134" s="1">
-        <v>10900299506.57</v>
+        <v>10999754121.32</v>
       </c>
       <c r="D134" s="1">
-        <v>28129460313.55</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E134" s="1">
-        <v>51588003234.73</v>
+        <v>50392716520.31</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44255</v>
+        <v>44316</v>
       </c>
       <c r="B135" s="1">
-        <v>12499730482.13</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C135" s="1">
-        <v>10872197550.37</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D135" s="1">
-        <v>27127417795.49</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E135" s="1">
-        <v>50499345827.99</v>
+        <v>51700983288.71</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44286</v>
+        <v>44347</v>
       </c>
       <c r="B136" s="1">
-        <v>12629967215.83</v>
+        <v>13155170030.18</v>
       </c>
       <c r="C136" s="1">
-        <v>10999754121.32</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D136" s="1">
-        <v>26762995183.16</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E136" s="1">
-        <v>50392716520.31</v>
+        <v>52378555427.81</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="B137" s="1">
-        <v>12959077328.64</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C137" s="1">
-        <v>11290601383.86</v>
+        <v>11665454270.74</v>
       </c>
       <c r="D137" s="1">
-        <v>27451304576.21</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E137" s="1">
-        <v>51700983288.71</v>
+        <v>53479161312.64</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44347</v>
+        <v>44408</v>
       </c>
       <c r="B138" s="1">
-        <v>13155170030.18</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C138" s="1">
-        <v>11478701164.89</v>
+        <v>11826970568.32</v>
       </c>
       <c r="D138" s="1">
-        <v>27744684232.74</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E138" s="1">
-        <v>52378555427.81</v>
+        <v>54428748586.62</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44377</v>
+        <v>44439</v>
       </c>
       <c r="B139" s="1">
-        <v>13363308598.31</v>
+        <v>13707767980.07</v>
       </c>
       <c r="C139" s="1">
-        <v>11665454270.74</v>
+        <v>11980671064.48</v>
       </c>
       <c r="D139" s="1">
-        <v>28450398443.59</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E139" s="1">
-        <v>53479161312.64</v>
+        <v>54870336763.75999</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44408</v>
+        <v>44469</v>
       </c>
       <c r="B140" s="1">
-        <v>13542680564.47</v>
+        <v>13203547316.24</v>
       </c>
       <c r="C140" s="1">
-        <v>11826970568.32</v>
+        <v>11508277149.59</v>
       </c>
       <c r="D140" s="1">
-        <v>29059097453.83</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E140" s="1">
-        <v>54428748586.62</v>
+        <v>52901048832.99</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44439</v>
+        <v>44500</v>
       </c>
       <c r="B141" s="1">
-        <v>13707767980.07</v>
+        <v>13619689152.99</v>
       </c>
       <c r="C141" s="1">
-        <v>11980671064.48</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D141" s="1">
-        <v>29181897719.21</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E141" s="1">
-        <v>54870336763.75999</v>
+        <v>54300766813.44</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44469</v>
+        <v>44530</v>
       </c>
       <c r="B142" s="1">
-        <v>13203547316.24</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C142" s="1">
-        <v>11508277149.59</v>
+        <v>12126631727.77</v>
       </c>
       <c r="D142" s="1">
-        <v>28189224367.16</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E142" s="1">
-        <v>52901048832.99</v>
+        <v>55089355967.77</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44500</v>
+        <v>44561</v>
       </c>
       <c r="B143" s="1">
-        <v>13619689152.99</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C143" s="1">
-        <v>11898653834.64</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D143" s="1">
-        <v>28782423825.81</v>
+        <v>29369048113</v>
       </c>
       <c r="E143" s="1">
-        <v>54300766813.44</v>
+        <v>55524868915.5</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44530</v>
+        <v>44592</v>
       </c>
       <c r="B144" s="1">
-        <v>13785068283.86</v>
+        <v>13228050556.07</v>
       </c>
       <c r="C144" s="1">
-        <v>12126631727.77</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D144" s="1">
-        <v>29177655956.14</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E144" s="1">
-        <v>55089355967.77</v>
+        <v>52791395368.22</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44561</v>
+        <v>44620</v>
       </c>
       <c r="B145" s="1">
-        <v>13933499672.22</v>
+        <v>12924236126.56</v>
       </c>
       <c r="C145" s="1">
-        <v>12222321130.28</v>
+        <v>11299022364.73</v>
       </c>
       <c r="D145" s="1">
-        <v>29369048113</v>
+        <v>27410006047.48</v>
       </c>
       <c r="E145" s="1">
-        <v>55524868915.5</v>
+        <v>51633264538.77</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44592</v>
+        <v>44651</v>
       </c>
       <c r="B146" s="1">
-        <v>13228050556.07</v>
+        <v>12662771414.75</v>
       </c>
       <c r="C146" s="1">
-        <v>11573834300.94</v>
+        <v>11031166589.13</v>
       </c>
       <c r="D146" s="1">
-        <v>27989510511.21</v>
+        <v>26576348005.31</v>
       </c>
       <c r="E146" s="1">
-        <v>52791395368.22</v>
+        <v>50270286009.19</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>44620</v>
+        <v>44681</v>
       </c>
       <c r="B147" s="1">
-        <v>12924236126.56</v>
+        <v>11715402918.77</v>
       </c>
       <c r="C147" s="1">
-        <v>11299022364.73</v>
+        <v>10142966770.06</v>
       </c>
       <c r="D147" s="1">
-        <v>27410006047.48</v>
+        <v>24440641700.16</v>
       </c>
       <c r="E147" s="1">
-        <v>51633264538.77</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="3">
-        <v>44651</v>
-      </c>
-      <c r="B148" s="1">
-        <v>12662771414.75</v>
-      </c>
-      <c r="C148" s="1">
-        <v>11031166589.13</v>
-      </c>
-      <c r="D148" s="1">
-        <v>26576348005.31</v>
-      </c>
-      <c r="E148" s="1">
-        <v>50270286009.19</v>
+        <v>46299011388.99001</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A148">
+  <conditionalFormatting sqref="A1:A147">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E148">
+  <conditionalFormatting sqref="B2:E147">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
@@ -2959,7 +2942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM148"/>
+  <dimension ref="A1:ALM147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2987,2510 +2970,2493 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40209</v>
+        <v>40268</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.012907</v>
+        <v>0.037112</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.013845</v>
+        <v>0.039345</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.013906</v>
+        <v>0.039374</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.013841</v>
+        <v>0.039192</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40237</v>
+        <v>40298</v>
       </c>
       <c r="B3" s="1">
-        <v>0.012753</v>
+        <v>0.020455</v>
       </c>
       <c r="C3" s="1">
-        <v>0.013375</v>
+        <v>0.021368</v>
       </c>
       <c r="D3" s="1">
-        <v>0.013596</v>
+        <v>0.021406</v>
       </c>
       <c r="E3" s="1">
-        <v>0.013512</v>
+        <v>0.021313</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40268</v>
+        <v>40329</v>
       </c>
       <c r="B4" s="1">
-        <v>0.037112</v>
+        <v>-0.042701</v>
       </c>
       <c r="C4" s="1">
-        <v>0.039345</v>
+        <v>-0.042682</v>
       </c>
       <c r="D4" s="1">
-        <v>0.039374</v>
+        <v>-0.04269199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.039192</v>
+        <v>-0.042691</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40298</v>
+        <v>40359</v>
       </c>
       <c r="B5" s="1">
-        <v>0.020455</v>
+        <v>-0.010431</v>
       </c>
       <c r="C5" s="1">
-        <v>0.021368</v>
+        <v>-0.010424</v>
       </c>
       <c r="D5" s="1">
-        <v>0.021406</v>
+        <v>-0.010512</v>
       </c>
       <c r="E5" s="1">
-        <v>0.021313</v>
+        <v>-0.010493</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40329</v>
+        <v>40390</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.042701</v>
+        <v>0.04159</v>
       </c>
       <c r="C6" s="1">
-        <v>-0.042682</v>
+        <v>0.043416</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.04269199999999999</v>
+        <v>0.04342500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.042691</v>
+        <v>0.043244</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40359</v>
+        <v>40421</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.010431</v>
+        <v>0.001548</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.010424</v>
+        <v>0.001558</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.010512</v>
+        <v>0.00155</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.010493</v>
+        <v>0.001551</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40390</v>
+        <v>40451</v>
       </c>
       <c r="B8" s="1">
-        <v>0.04159</v>
+        <v>0.04532</v>
       </c>
       <c r="C8" s="1">
-        <v>0.043416</v>
+        <v>0.045333</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04342500000000001</v>
+        <v>0.045331</v>
       </c>
       <c r="E8" s="1">
-        <v>0.043244</v>
+        <v>0.04533</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40421</v>
+        <v>40482</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001548</v>
+        <v>0.009824000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>0.001558</v>
+        <v>0.009851</v>
       </c>
       <c r="D9" s="1">
-        <v>0.00155</v>
+        <v>0.009762</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001551</v>
+        <v>0.009781</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40451</v>
+        <v>40512</v>
       </c>
       <c r="B10" s="1">
-        <v>0.04532</v>
+        <v>-0.006762000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>0.045333</v>
+        <v>-0.005979</v>
       </c>
       <c r="D10" s="1">
-        <v>0.045331</v>
+        <v>-0.006311</v>
       </c>
       <c r="E10" s="1">
-        <v>0.04533</v>
+        <v>-0.006307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40482</v>
+        <v>40543</v>
       </c>
       <c r="B11" s="1">
-        <v>0.009824000000000001</v>
+        <v>0.029284</v>
       </c>
       <c r="C11" s="1">
-        <v>0.009851</v>
+        <v>0.029312</v>
       </c>
       <c r="D11" s="1">
-        <v>0.009762</v>
+        <v>0.029354</v>
       </c>
       <c r="E11" s="1">
-        <v>0.009781</v>
+        <v>0.029341</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40512</v>
+        <v>40574</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.006762000000000001</v>
+        <v>-0.00115</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.005979</v>
+        <v>-0.001119</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.006311</v>
+        <v>-0.001115</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006307</v>
+        <v>-0.001121</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40543</v>
+        <v>40602</v>
       </c>
       <c r="B13" s="1">
-        <v>0.029284</v>
+        <v>0.023291</v>
       </c>
       <c r="C13" s="1">
-        <v>0.029312</v>
+        <v>0.023317</v>
       </c>
       <c r="D13" s="1">
-        <v>0.029354</v>
+        <v>0.023308</v>
       </c>
       <c r="E13" s="1">
-        <v>0.029341</v>
+        <v>0.023307</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40574</v>
+        <v>40633</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.00115</v>
+        <v>0.002493</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.001119</v>
+        <v>0.002493</v>
       </c>
       <c r="D14" s="1">
-        <v>-0.001115</v>
+        <v>0.002494</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001121</v>
+        <v>0.002494</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40602</v>
+        <v>40663</v>
       </c>
       <c r="B15" s="1">
-        <v>0.023291</v>
+        <v>0.030082</v>
       </c>
       <c r="C15" s="1">
-        <v>0.023317</v>
+        <v>0.030134</v>
       </c>
       <c r="D15" s="1">
-        <v>0.023308</v>
+        <v>0.030134</v>
       </c>
       <c r="E15" s="1">
-        <v>0.023307</v>
+        <v>0.030126</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40633</v>
+        <v>40694</v>
       </c>
       <c r="B16" s="1">
-        <v>0.002493</v>
+        <v>0.006251</v>
       </c>
       <c r="C16" s="1">
-        <v>0.002493</v>
+        <v>0.006252</v>
       </c>
       <c r="D16" s="1">
-        <v>0.002494</v>
+        <v>0.006251</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002494</v>
+        <v>0.006251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40663</v>
+        <v>40724</v>
       </c>
       <c r="B17" s="1">
-        <v>0.030082</v>
+        <v>-0.016394</v>
       </c>
       <c r="C17" s="1">
-        <v>0.030134</v>
+        <v>-0.016393</v>
       </c>
       <c r="D17" s="1">
-        <v>0.030134</v>
+        <v>-0.016388</v>
       </c>
       <c r="E17" s="1">
-        <v>0.030126</v>
+        <v>-0.016389</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40694</v>
+        <v>40755</v>
       </c>
       <c r="B18" s="1">
-        <v>0.006251</v>
+        <v>0.010779</v>
       </c>
       <c r="C18" s="1">
-        <v>0.006252</v>
+        <v>0.010779</v>
       </c>
       <c r="D18" s="1">
-        <v>0.006251</v>
+        <v>0.010779</v>
       </c>
       <c r="E18" s="1">
-        <v>0.006251</v>
+        <v>0.010779</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40724</v>
+        <v>40786</v>
       </c>
       <c r="B19" s="1">
-        <v>-0.016394</v>
+        <v>-0.006495</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.016393</v>
+        <v>-0.006492</v>
       </c>
       <c r="D19" s="1">
-        <v>-0.016388</v>
+        <v>-0.006488000000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.016389</v>
+        <v>-0.00649</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40755</v>
+        <v>40816</v>
       </c>
       <c r="B20" s="1">
-        <v>0.010779</v>
+        <v>0.001202</v>
       </c>
       <c r="C20" s="1">
-        <v>0.010779</v>
+        <v>0.001203</v>
       </c>
       <c r="D20" s="1">
-        <v>0.010779</v>
+        <v>0.001203</v>
       </c>
       <c r="E20" s="1">
-        <v>0.010779</v>
+        <v>0.001203</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40786</v>
+        <v>40847</v>
       </c>
       <c r="B21" s="1">
-        <v>-0.006495</v>
+        <v>0.035731</v>
       </c>
       <c r="C21" s="1">
-        <v>-0.006492</v>
+        <v>0.035736</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.006488000000000001</v>
+        <v>0.03573</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.00649</v>
+        <v>0.035731</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40816</v>
+        <v>40877</v>
       </c>
       <c r="B22" s="1">
-        <v>0.001202</v>
+        <v>-0.006834</v>
       </c>
       <c r="C22" s="1">
-        <v>0.001203</v>
+        <v>-0.006834</v>
       </c>
       <c r="D22" s="1">
-        <v>0.001203</v>
+        <v>-0.006832</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001203</v>
+        <v>-0.006832</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40847</v>
+        <v>40908</v>
       </c>
       <c r="B23" s="1">
-        <v>0.035731</v>
+        <v>0.011627</v>
       </c>
       <c r="C23" s="1">
-        <v>0.035736</v>
+        <v>0.011629</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03573</v>
+        <v>0.011629</v>
       </c>
       <c r="E23" s="1">
-        <v>0.035731</v>
+        <v>0.011629</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40877</v>
+        <v>40939</v>
       </c>
       <c r="B24" s="1">
-        <v>-0.006834</v>
+        <v>0.027751</v>
       </c>
       <c r="C24" s="1">
-        <v>-0.006834</v>
+        <v>0.027758</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.006832</v>
+        <v>0.027751</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.006832</v>
+        <v>0.027752</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40908</v>
+        <v>40968</v>
       </c>
       <c r="B25" s="1">
-        <v>0.011627</v>
+        <v>0.018401</v>
       </c>
       <c r="C25" s="1">
-        <v>0.011629</v>
+        <v>0.018387</v>
       </c>
       <c r="D25" s="1">
-        <v>0.011629</v>
+        <v>0.018407</v>
       </c>
       <c r="E25" s="1">
-        <v>0.011629</v>
+        <v>0.018403</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>40939</v>
+        <v>40999</v>
       </c>
       <c r="B26" s="1">
-        <v>0.027751</v>
+        <v>-0.003827</v>
       </c>
       <c r="C26" s="1">
-        <v>0.027758</v>
+        <v>-0.00384</v>
       </c>
       <c r="D26" s="1">
-        <v>0.027751</v>
+        <v>-0.00384</v>
       </c>
       <c r="E26" s="1">
-        <v>0.027752</v>
+        <v>-0.003838</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>40968</v>
+        <v>41029</v>
       </c>
       <c r="B27" s="1">
-        <v>0.018401</v>
+        <v>0.010169</v>
       </c>
       <c r="C27" s="1">
-        <v>0.018387</v>
+        <v>0.010171</v>
       </c>
       <c r="D27" s="1">
-        <v>0.018407</v>
+        <v>0.010169</v>
       </c>
       <c r="E27" s="1">
-        <v>0.018403</v>
+        <v>0.010169</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>40999</v>
+        <v>41060</v>
       </c>
       <c r="B28" s="1">
-        <v>-0.003827</v>
+        <v>-0.007147</v>
       </c>
       <c r="C28" s="1">
-        <v>-0.00384</v>
+        <v>-0.007141999999999999</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.00384</v>
+        <v>-0.007113</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003838</v>
+        <v>-0.007122000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41029</v>
+        <v>41090</v>
       </c>
       <c r="B29" s="1">
-        <v>0.010169</v>
+        <v>0.013617</v>
       </c>
       <c r="C29" s="1">
-        <v>0.010171</v>
+        <v>0.013665</v>
       </c>
       <c r="D29" s="1">
-        <v>0.010169</v>
+        <v>0.013662</v>
       </c>
       <c r="E29" s="1">
-        <v>0.010169</v>
+        <v>0.013655</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41060</v>
+        <v>41121</v>
       </c>
       <c r="B30" s="1">
-        <v>-0.007147</v>
+        <v>0.022428</v>
       </c>
       <c r="C30" s="1">
-        <v>-0.007141999999999999</v>
+        <v>0.022445</v>
       </c>
       <c r="D30" s="1">
-        <v>-0.007113</v>
+        <v>0.022415</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.007122000000000001</v>
+        <v>0.022421</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41090</v>
+        <v>41152</v>
       </c>
       <c r="B31" s="1">
-        <v>0.013617</v>
+        <v>0.006546</v>
       </c>
       <c r="C31" s="1">
-        <v>0.013665</v>
+        <v>0.006548000000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>0.013662</v>
+        <v>0.006546</v>
       </c>
       <c r="E31" s="1">
-        <v>0.013655</v>
+        <v>0.006546</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41121</v>
+        <v>41182</v>
       </c>
       <c r="B32" s="1">
-        <v>0.022428</v>
+        <v>0.008595999999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>0.022445</v>
+        <v>0.008598</v>
       </c>
       <c r="D32" s="1">
-        <v>0.022415</v>
+        <v>0.008597</v>
       </c>
       <c r="E32" s="1">
-        <v>0.022421</v>
+        <v>0.008597</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41152</v>
+        <v>41213</v>
       </c>
       <c r="B33" s="1">
-        <v>0.006546</v>
+        <v>0.001504</v>
       </c>
       <c r="C33" s="1">
-        <v>0.006548000000000001</v>
+        <v>0.001506</v>
       </c>
       <c r="D33" s="1">
-        <v>0.006546</v>
+        <v>0.001505</v>
       </c>
       <c r="E33" s="1">
-        <v>0.006546</v>
+        <v>0.001505</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41182</v>
+        <v>41243</v>
       </c>
       <c r="B34" s="1">
-        <v>0.008595999999999999</v>
+        <v>0.007569</v>
       </c>
       <c r="C34" s="1">
-        <v>0.008598</v>
+        <v>0.007571</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008597</v>
+        <v>0.007571</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008597</v>
+        <v>0.007571</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41213</v>
+        <v>41274</v>
       </c>
       <c r="B35" s="1">
-        <v>0.001504</v>
+        <v>0.008156999999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>0.001506</v>
+        <v>0.008168999999999999</v>
       </c>
       <c r="D35" s="1">
-        <v>0.001505</v>
+        <v>0.008165</v>
       </c>
       <c r="E35" s="1">
-        <v>0.001505</v>
+        <v>0.008163999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41243</v>
+        <v>41305</v>
       </c>
       <c r="B36" s="1">
-        <v>0.007569</v>
+        <v>0.013471</v>
       </c>
       <c r="C36" s="1">
-        <v>0.007571</v>
+        <v>0.013571</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007571</v>
+        <v>0.013456</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007571</v>
+        <v>0.013479</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41274</v>
+        <v>41333</v>
       </c>
       <c r="B37" s="1">
-        <v>0.008156999999999999</v>
+        <v>0.007465</v>
       </c>
       <c r="C37" s="1">
-        <v>0.008168999999999999</v>
+        <v>0.007458</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008165</v>
+        <v>0.00747</v>
       </c>
       <c r="E37" s="1">
-        <v>0.008163999999999999</v>
+        <v>0.007467000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41305</v>
+        <v>41364</v>
       </c>
       <c r="B38" s="1">
-        <v>0.013471</v>
+        <v>0.015025</v>
       </c>
       <c r="C38" s="1">
-        <v>0.013571</v>
+        <v>0.015027</v>
       </c>
       <c r="D38" s="1">
-        <v>0.013456</v>
+        <v>0.015024</v>
       </c>
       <c r="E38" s="1">
-        <v>0.013479</v>
+        <v>0.015024</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41333</v>
+        <v>41394</v>
       </c>
       <c r="B39" s="1">
-        <v>0.007465</v>
+        <v>0.025087</v>
       </c>
       <c r="C39" s="1">
-        <v>0.007458</v>
+        <v>0.025091</v>
       </c>
       <c r="D39" s="1">
-        <v>0.00747</v>
+        <v>0.025086</v>
       </c>
       <c r="E39" s="1">
-        <v>0.007467000000000001</v>
+        <v>0.025087</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41364</v>
+        <v>41425</v>
       </c>
       <c r="B40" s="1">
-        <v>0.015025</v>
+        <v>-0.016671</v>
       </c>
       <c r="C40" s="1">
-        <v>0.015027</v>
+        <v>-0.016673</v>
       </c>
       <c r="D40" s="1">
-        <v>0.015024</v>
+        <v>-0.01667</v>
       </c>
       <c r="E40" s="1">
-        <v>0.015024</v>
+        <v>-0.01667</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41394</v>
+        <v>41455</v>
       </c>
       <c r="B41" s="1">
-        <v>0.025087</v>
+        <v>-0.018163</v>
       </c>
       <c r="C41" s="1">
-        <v>0.025091</v>
+        <v>-0.018165</v>
       </c>
       <c r="D41" s="1">
-        <v>0.025086</v>
+        <v>-0.01816</v>
       </c>
       <c r="E41" s="1">
-        <v>0.025087</v>
+        <v>-0.018162</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41425</v>
+        <v>41486</v>
       </c>
       <c r="B42" s="1">
-        <v>-0.016671</v>
+        <v>0.014254</v>
       </c>
       <c r="C42" s="1">
-        <v>-0.016673</v>
+        <v>0.014257</v>
       </c>
       <c r="D42" s="1">
-        <v>-0.01667</v>
+        <v>0.014252</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01667</v>
+        <v>0.014253</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41455</v>
+        <v>41517</v>
       </c>
       <c r="B43" s="1">
-        <v>-0.018163</v>
+        <v>-0.011051</v>
       </c>
       <c r="C43" s="1">
-        <v>-0.018165</v>
+        <v>-0.011022</v>
       </c>
       <c r="D43" s="1">
-        <v>-0.01816</v>
+        <v>-0.011036</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.018162</v>
+        <v>-0.011036</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41486</v>
+        <v>41547</v>
       </c>
       <c r="B44" s="1">
-        <v>0.014254</v>
+        <v>0.020117</v>
       </c>
       <c r="C44" s="1">
-        <v>0.014257</v>
+        <v>0.02012</v>
       </c>
       <c r="D44" s="1">
-        <v>0.014252</v>
+        <v>0.020114</v>
       </c>
       <c r="E44" s="1">
-        <v>0.014253</v>
+        <v>0.020116</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41517</v>
+        <v>41578</v>
       </c>
       <c r="B45" s="1">
-        <v>-0.011051</v>
+        <v>0.02223</v>
       </c>
       <c r="C45" s="1">
-        <v>-0.011022</v>
+        <v>0.022236</v>
       </c>
       <c r="D45" s="1">
-        <v>-0.011036</v>
+        <v>0.022227</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.011036</v>
+        <v>0.022229</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41547</v>
+        <v>41608</v>
       </c>
       <c r="B46" s="1">
-        <v>0.020117</v>
+        <v>0.001657</v>
       </c>
       <c r="C46" s="1">
-        <v>0.02012</v>
+        <v>0.001657</v>
       </c>
       <c r="D46" s="1">
-        <v>0.020114</v>
+        <v>0.00166</v>
       </c>
       <c r="E46" s="1">
-        <v>0.020116</v>
+        <v>0.001659</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41578</v>
+        <v>41639</v>
       </c>
       <c r="B47" s="1">
-        <v>0.02223</v>
+        <v>0.007311</v>
       </c>
       <c r="C47" s="1">
-        <v>0.022236</v>
+        <v>0.007312</v>
       </c>
       <c r="D47" s="1">
-        <v>0.022227</v>
+        <v>0.00731</v>
       </c>
       <c r="E47" s="1">
-        <v>0.022229</v>
+        <v>0.00731</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41608</v>
+        <v>41670</v>
       </c>
       <c r="B48" s="1">
-        <v>0.001657</v>
+        <v>0.001869</v>
       </c>
       <c r="C48" s="1">
-        <v>0.001657</v>
+        <v>0.001871</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00166</v>
+        <v>0.001871</v>
       </c>
       <c r="E48" s="1">
-        <v>0.001659</v>
+        <v>0.001871</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41639</v>
+        <v>41698</v>
       </c>
       <c r="B49" s="1">
-        <v>0.007311</v>
+        <v>0.022899</v>
       </c>
       <c r="C49" s="1">
-        <v>0.007312</v>
+        <v>0.02297</v>
       </c>
       <c r="D49" s="1">
-        <v>0.00731</v>
+        <v>0.022973</v>
       </c>
       <c r="E49" s="1">
-        <v>0.00731</v>
+        <v>0.02296</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41670</v>
+        <v>41729</v>
       </c>
       <c r="B50" s="1">
-        <v>0.001869</v>
+        <v>0.007581</v>
       </c>
       <c r="C50" s="1">
-        <v>0.001871</v>
+        <v>0.007582</v>
       </c>
       <c r="D50" s="1">
-        <v>0.001871</v>
+        <v>0.007581</v>
       </c>
       <c r="E50" s="1">
-        <v>0.001871</v>
+        <v>0.007581</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41698</v>
+        <v>41759</v>
       </c>
       <c r="B51" s="1">
-        <v>0.022899</v>
+        <v>0.002559</v>
       </c>
       <c r="C51" s="1">
-        <v>0.02297</v>
+        <v>0.002559</v>
       </c>
       <c r="D51" s="1">
-        <v>0.022973</v>
+        <v>0.002565</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02296</v>
+        <v>0.002563</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41729</v>
+        <v>41790</v>
       </c>
       <c r="B52" s="1">
-        <v>0.007581</v>
+        <v>0.018616</v>
       </c>
       <c r="C52" s="1">
-        <v>0.007582</v>
+        <v>0.018622</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007581</v>
+        <v>0.018616</v>
       </c>
       <c r="E52" s="1">
-        <v>0.007581</v>
+        <v>0.018617</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41759</v>
+        <v>41820</v>
       </c>
       <c r="B53" s="1">
-        <v>0.002559</v>
+        <v>0.007592</v>
       </c>
       <c r="C53" s="1">
-        <v>0.002559</v>
+        <v>0.007592</v>
       </c>
       <c r="D53" s="1">
-        <v>0.002565</v>
+        <v>0.00759</v>
       </c>
       <c r="E53" s="1">
-        <v>0.002563</v>
+        <v>0.007591</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41790</v>
+        <v>41851</v>
       </c>
       <c r="B54" s="1">
-        <v>0.018616</v>
+        <v>-0.003537</v>
       </c>
       <c r="C54" s="1">
-        <v>0.018622</v>
+        <v>-0.003536</v>
       </c>
       <c r="D54" s="1">
-        <v>0.018616</v>
+        <v>-0.003534</v>
       </c>
       <c r="E54" s="1">
-        <v>0.018617</v>
+        <v>-0.003535</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41820</v>
+        <v>41882</v>
       </c>
       <c r="B55" s="1">
-        <v>0.007592</v>
+        <v>0.024396</v>
       </c>
       <c r="C55" s="1">
-        <v>0.007592</v>
+        <v>0.024396</v>
       </c>
       <c r="D55" s="1">
-        <v>0.00759</v>
+        <v>0.0244</v>
       </c>
       <c r="E55" s="1">
-        <v>0.007591</v>
+        <v>0.024399</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41851</v>
+        <v>41912</v>
       </c>
       <c r="B56" s="1">
-        <v>-0.003537</v>
+        <v>-0.018814</v>
       </c>
       <c r="C56" s="1">
-        <v>-0.003536</v>
+        <v>-0.018804</v>
       </c>
       <c r="D56" s="1">
-        <v>-0.003534</v>
+        <v>-0.018789</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.003535</v>
+        <v>-0.018796</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41882</v>
+        <v>41943</v>
       </c>
       <c r="B57" s="1">
-        <v>0.024396</v>
+        <v>0.012246</v>
       </c>
       <c r="C57" s="1">
-        <v>0.024396</v>
+        <v>0.012244</v>
       </c>
       <c r="D57" s="1">
-        <v>0.0244</v>
+        <v>0.012254</v>
       </c>
       <c r="E57" s="1">
-        <v>0.024399</v>
+        <v>0.012251</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>41912</v>
+        <v>41973</v>
       </c>
       <c r="B58" s="1">
-        <v>-0.018814</v>
+        <v>0.016811</v>
       </c>
       <c r="C58" s="1">
-        <v>-0.018804</v>
+        <v>0.01682</v>
       </c>
       <c r="D58" s="1">
-        <v>-0.018789</v>
+        <v>0.01682</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.018796</v>
+        <v>0.016818</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>41943</v>
+        <v>42004</v>
       </c>
       <c r="B59" s="1">
-        <v>0.012246</v>
+        <v>0.002068</v>
       </c>
       <c r="C59" s="1">
-        <v>0.012244</v>
+        <v>0.002076</v>
       </c>
       <c r="D59" s="1">
-        <v>0.012254</v>
+        <v>0.00208</v>
       </c>
       <c r="E59" s="1">
-        <v>0.012251</v>
+        <v>0.002077</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="B60" s="1">
-        <v>0.016811</v>
+        <v>0.023362</v>
       </c>
       <c r="C60" s="1">
-        <v>0.01682</v>
+        <v>0.023357</v>
       </c>
       <c r="D60" s="1">
-        <v>0.01682</v>
+        <v>0.02335</v>
       </c>
       <c r="E60" s="1">
-        <v>0.016818</v>
+        <v>0.023353</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42004</v>
+        <v>42063</v>
       </c>
       <c r="B61" s="1">
-        <v>0.002068</v>
+        <v>0.007672</v>
       </c>
       <c r="C61" s="1">
-        <v>0.002076</v>
+        <v>0.007672</v>
       </c>
       <c r="D61" s="1">
-        <v>0.00208</v>
+        <v>0.007671</v>
       </c>
       <c r="E61" s="1">
-        <v>0.002077</v>
+        <v>0.007671</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42035</v>
+        <v>42094</v>
       </c>
       <c r="B62" s="1">
-        <v>0.023362</v>
+        <v>0.000725</v>
       </c>
       <c r="C62" s="1">
-        <v>0.023357</v>
+        <v>0.000731</v>
       </c>
       <c r="D62" s="1">
-        <v>0.02335</v>
+        <v>0.000725</v>
       </c>
       <c r="E62" s="1">
-        <v>0.023353</v>
+        <v>0.000726</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42063</v>
+        <v>42124</v>
       </c>
       <c r="B63" s="1">
-        <v>0.007672</v>
+        <v>0.000483</v>
       </c>
       <c r="C63" s="1">
-        <v>0.007672</v>
+        <v>0.000483</v>
       </c>
       <c r="D63" s="1">
-        <v>0.007671</v>
+        <v>0.000483</v>
       </c>
       <c r="E63" s="1">
-        <v>0.007671</v>
+        <v>0.000483</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42094</v>
+        <v>42155</v>
       </c>
       <c r="B64" s="1">
-        <v>0.000725</v>
+        <v>-0.001447</v>
       </c>
       <c r="C64" s="1">
-        <v>0.000731</v>
+        <v>-0.001447</v>
       </c>
       <c r="D64" s="1">
-        <v>0.000725</v>
+        <v>-0.001447</v>
       </c>
       <c r="E64" s="1">
-        <v>0.000726</v>
+        <v>-0.001447</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42124</v>
+        <v>42185</v>
       </c>
       <c r="B65" s="1">
-        <v>0.000483</v>
+        <v>-0.019129</v>
       </c>
       <c r="C65" s="1">
-        <v>0.000483</v>
+        <v>-0.019129</v>
       </c>
       <c r="D65" s="1">
-        <v>0.000483</v>
+        <v>-0.019127</v>
       </c>
       <c r="E65" s="1">
-        <v>0.000483</v>
+        <v>-0.019128</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42155</v>
+        <v>42216</v>
       </c>
       <c r="B66" s="1">
-        <v>-0.001447</v>
+        <v>0.010715</v>
       </c>
       <c r="C66" s="1">
-        <v>-0.001447</v>
+        <v>0.010715</v>
       </c>
       <c r="D66" s="1">
-        <v>-0.001447</v>
+        <v>0.010714</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.001447</v>
+        <v>0.010714</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42185</v>
+        <v>42247</v>
       </c>
       <c r="B67" s="1">
-        <v>-0.019129</v>
+        <v>-0.027128</v>
       </c>
       <c r="C67" s="1">
-        <v>-0.019129</v>
+        <v>-0.027126</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.019127</v>
+        <v>-0.027125</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.019128</v>
+        <v>-0.027126</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42216</v>
+        <v>42277</v>
       </c>
       <c r="B68" s="1">
-        <v>0.010715</v>
+        <v>-0.00876</v>
       </c>
       <c r="C68" s="1">
-        <v>0.010715</v>
+        <v>-0.00876</v>
       </c>
       <c r="D68" s="1">
-        <v>0.010714</v>
+        <v>-0.008758999999999999</v>
       </c>
       <c r="E68" s="1">
-        <v>0.010714</v>
+        <v>-0.00876</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42247</v>
+        <v>42308</v>
       </c>
       <c r="B69" s="1">
-        <v>-0.027128</v>
+        <v>0.028753</v>
       </c>
       <c r="C69" s="1">
-        <v>-0.027126</v>
+        <v>0.028716</v>
       </c>
       <c r="D69" s="1">
-        <v>-0.027125</v>
+        <v>0.028798</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.027126</v>
+        <v>0.028775</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42277</v>
+        <v>42338</v>
       </c>
       <c r="B70" s="1">
-        <v>-0.00876</v>
+        <v>-0.003828</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.00876</v>
+        <v>-0.003819</v>
       </c>
       <c r="D70" s="1">
-        <v>-0.008758999999999999</v>
+        <v>-0.003807</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.00876</v>
+        <v>-0.003813</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42308</v>
+        <v>42369</v>
       </c>
       <c r="B71" s="1">
-        <v>0.028753</v>
+        <v>-0.008187</v>
       </c>
       <c r="C71" s="1">
-        <v>0.028716</v>
+        <v>-0.008187</v>
       </c>
       <c r="D71" s="1">
-        <v>0.028798</v>
+        <v>-0.008184</v>
       </c>
       <c r="E71" s="1">
-        <v>0.028775</v>
+        <v>-0.008185</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42338</v>
+        <v>42400</v>
       </c>
       <c r="B72" s="1">
-        <v>-0.003828</v>
+        <v>-0.014827</v>
       </c>
       <c r="C72" s="1">
-        <v>-0.003819</v>
+        <v>-0.01483</v>
       </c>
       <c r="D72" s="1">
-        <v>-0.003807</v>
+        <v>-0.014826</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.003813</v>
+        <v>-0.014827</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42369</v>
+        <v>42429</v>
       </c>
       <c r="B73" s="1">
-        <v>-0.008187</v>
+        <v>0.007148</v>
       </c>
       <c r="C73" s="1">
-        <v>-0.008187</v>
+        <v>0.007148</v>
       </c>
       <c r="D73" s="1">
-        <v>-0.008184</v>
+        <v>0.007150999999999999</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.008185</v>
+        <v>0.00715</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42400</v>
+        <v>42460</v>
       </c>
       <c r="B74" s="1">
-        <v>-0.014827</v>
+        <v>0.034737</v>
       </c>
       <c r="C74" s="1">
-        <v>-0.01483</v>
+        <v>0.034736</v>
       </c>
       <c r="D74" s="1">
-        <v>-0.014826</v>
+        <v>0.034733</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.014827</v>
+        <v>0.034734</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42429</v>
+        <v>42490</v>
       </c>
       <c r="B75" s="1">
-        <v>0.007148</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>0.007148</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="D75" s="1">
-        <v>0.007150999999999999</v>
+        <v>0.009242</v>
       </c>
       <c r="E75" s="1">
-        <v>0.00715</v>
+        <v>0.009242999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42460</v>
+        <v>42521</v>
       </c>
       <c r="B76" s="1">
-        <v>0.034737</v>
+        <v>0.001881</v>
       </c>
       <c r="C76" s="1">
-        <v>0.034736</v>
+        <v>0.001883</v>
       </c>
       <c r="D76" s="1">
-        <v>0.034733</v>
+        <v>0.001884</v>
       </c>
       <c r="E76" s="1">
-        <v>0.034734</v>
+        <v>0.001883</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42490</v>
+        <v>42551</v>
       </c>
       <c r="B77" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.010067</v>
       </c>
       <c r="C77" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.010098</v>
       </c>
       <c r="D77" s="1">
-        <v>0.009242</v>
+        <v>0.01013</v>
       </c>
       <c r="E77" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.010112</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42521</v>
+        <v>42582</v>
       </c>
       <c r="B78" s="1">
-        <v>0.001881</v>
+        <v>0.021267</v>
       </c>
       <c r="C78" s="1">
-        <v>0.001883</v>
+        <v>0.021267</v>
       </c>
       <c r="D78" s="1">
-        <v>0.001884</v>
+        <v>0.021264</v>
       </c>
       <c r="E78" s="1">
-        <v>0.001883</v>
+        <v>0.021265</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42551</v>
+        <v>42613</v>
       </c>
       <c r="B79" s="1">
-        <v>0.010067</v>
+        <v>0.001143</v>
       </c>
       <c r="C79" s="1">
-        <v>0.010098</v>
+        <v>0.001146</v>
       </c>
       <c r="D79" s="1">
-        <v>0.01013</v>
+        <v>0.001146</v>
       </c>
       <c r="E79" s="1">
-        <v>0.010112</v>
+        <v>0.001145</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42582</v>
+        <v>42643</v>
       </c>
       <c r="B80" s="1">
-        <v>0.021267</v>
+        <v>0.00083</v>
       </c>
       <c r="C80" s="1">
-        <v>0.021267</v>
+        <v>0.0008309999999999999</v>
       </c>
       <c r="D80" s="1">
-        <v>0.021264</v>
+        <v>0.00083</v>
       </c>
       <c r="E80" s="1">
-        <v>0.021265</v>
+        <v>0.00083</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42613</v>
+        <v>42674</v>
       </c>
       <c r="B81" s="1">
-        <v>0.001143</v>
+        <v>-0.011784</v>
       </c>
       <c r="C81" s="1">
-        <v>0.001146</v>
+        <v>-0.011773</v>
       </c>
       <c r="D81" s="1">
-        <v>0.001146</v>
+        <v>-0.011778</v>
       </c>
       <c r="E81" s="1">
-        <v>0.001145</v>
+        <v>-0.011778</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42643</v>
+        <v>42704</v>
       </c>
       <c r="B82" s="1">
-        <v>0.00083</v>
+        <v>-0.011504</v>
       </c>
       <c r="C82" s="1">
-        <v>0.0008309999999999999</v>
+        <v>-0.011503</v>
       </c>
       <c r="D82" s="1">
-        <v>0.00083</v>
+        <v>-0.011501</v>
       </c>
       <c r="E82" s="1">
-        <v>0.00083</v>
+        <v>-0.011502</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42674</v>
+        <v>42735</v>
       </c>
       <c r="B83" s="1">
-        <v>-0.011784</v>
+        <v>0.010278</v>
       </c>
       <c r="C83" s="1">
-        <v>-0.011773</v>
+        <v>0.010006</v>
       </c>
       <c r="D83" s="1">
-        <v>-0.011778</v>
+        <v>0.010143</v>
       </c>
       <c r="E83" s="1">
-        <v>-0.011778</v>
+        <v>0.010141</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42704</v>
+        <v>42766</v>
       </c>
       <c r="B84" s="1">
-        <v>-0.011504</v>
+        <v>0.01169</v>
       </c>
       <c r="C84" s="1">
-        <v>-0.011503</v>
+        <v>0.011614</v>
       </c>
       <c r="D84" s="1">
-        <v>-0.011501</v>
+        <v>0.011658</v>
       </c>
       <c r="E84" s="1">
-        <v>-0.011502</v>
+        <v>0.011655</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42735</v>
+        <v>42794</v>
       </c>
       <c r="B85" s="1">
-        <v>0.010278</v>
+        <v>0.017668</v>
       </c>
       <c r="C85" s="1">
-        <v>0.010006</v>
+        <v>0.017672</v>
       </c>
       <c r="D85" s="1">
-        <v>0.010143</v>
+        <v>0.017677</v>
       </c>
       <c r="E85" s="1">
-        <v>0.010141</v>
+        <v>0.017674</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42766</v>
+        <v>42825</v>
       </c>
       <c r="B86" s="1">
-        <v>0.01169</v>
+        <v>0.005195</v>
       </c>
       <c r="C86" s="1">
-        <v>0.011614</v>
+        <v>0.005195</v>
       </c>
       <c r="D86" s="1">
-        <v>0.011658</v>
+        <v>0.005195</v>
       </c>
       <c r="E86" s="1">
-        <v>0.011655</v>
+        <v>0.005195</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42794</v>
+        <v>42855</v>
       </c>
       <c r="B87" s="1">
-        <v>0.017668</v>
+        <v>0.013597</v>
       </c>
       <c r="C87" s="1">
-        <v>0.017672</v>
+        <v>0.0136</v>
       </c>
       <c r="D87" s="1">
-        <v>0.017677</v>
+        <v>0.013598</v>
       </c>
       <c r="E87" s="1">
-        <v>0.017674</v>
+        <v>0.013598</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42825</v>
+        <v>42886</v>
       </c>
       <c r="B88" s="1">
-        <v>0.005195</v>
+        <v>0.015261</v>
       </c>
       <c r="C88" s="1">
-        <v>0.005195</v>
+        <v>0.015261</v>
       </c>
       <c r="D88" s="1">
-        <v>0.005195</v>
+        <v>0.015262</v>
       </c>
       <c r="E88" s="1">
-        <v>0.005195</v>
+        <v>0.015262</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42855</v>
+        <v>42916</v>
       </c>
       <c r="B89" s="1">
-        <v>0.013597</v>
+        <v>0.005246</v>
       </c>
       <c r="C89" s="1">
-        <v>0.0136</v>
+        <v>0.005249</v>
       </c>
       <c r="D89" s="1">
-        <v>0.013598</v>
+        <v>0.005264</v>
       </c>
       <c r="E89" s="1">
-        <v>0.013598</v>
+        <v>0.005257</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42886</v>
+        <v>42947</v>
       </c>
       <c r="B90" s="1">
-        <v>0.015261</v>
+        <v>0.011307</v>
       </c>
       <c r="C90" s="1">
-        <v>0.015261</v>
+        <v>0.011307</v>
       </c>
       <c r="D90" s="1">
-        <v>0.015262</v>
+        <v>0.011306</v>
       </c>
       <c r="E90" s="1">
-        <v>0.015262</v>
+        <v>0.011307</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>42916</v>
+        <v>42978</v>
       </c>
       <c r="B91" s="1">
-        <v>0.005246</v>
+        <v>0.010725</v>
       </c>
       <c r="C91" s="1">
-        <v>0.005249</v>
+        <v>0.010724</v>
       </c>
       <c r="D91" s="1">
-        <v>0.005264</v>
+        <v>0.010725</v>
       </c>
       <c r="E91" s="1">
-        <v>0.005257</v>
+        <v>0.010725</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>42947</v>
+        <v>43008</v>
       </c>
       <c r="B92" s="1">
-        <v>0.011307</v>
+        <v>0.008107999999999999</v>
       </c>
       <c r="C92" s="1">
-        <v>0.011307</v>
+        <v>0.008107</v>
       </c>
       <c r="D92" s="1">
-        <v>0.011306</v>
+        <v>0.008107</v>
       </c>
       <c r="E92" s="1">
-        <v>0.011307</v>
+        <v>0.008107</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>42978</v>
+        <v>43039</v>
       </c>
       <c r="B93" s="1">
-        <v>0.010725</v>
+        <v>0.011965</v>
       </c>
       <c r="C93" s="1">
-        <v>0.010724</v>
+        <v>0.011963</v>
       </c>
       <c r="D93" s="1">
-        <v>0.010725</v>
+        <v>0.011963</v>
       </c>
       <c r="E93" s="1">
-        <v>0.010725</v>
+        <v>0.011964</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43008</v>
+        <v>43069</v>
       </c>
       <c r="B94" s="1">
-        <v>0.008107999999999999</v>
+        <v>0.013354</v>
       </c>
       <c r="C94" s="1">
-        <v>0.008107</v>
+        <v>0.013354</v>
       </c>
       <c r="D94" s="1">
-        <v>0.008107</v>
+        <v>0.013356</v>
       </c>
       <c r="E94" s="1">
-        <v>0.008107</v>
+        <v>0.013355</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43039</v>
+        <v>43100</v>
       </c>
       <c r="B95" s="1">
-        <v>0.011965</v>
+        <v>0.011831</v>
       </c>
       <c r="C95" s="1">
-        <v>0.011963</v>
+        <v>0.012308</v>
       </c>
       <c r="D95" s="1">
-        <v>0.011963</v>
+        <v>0.011977</v>
       </c>
       <c r="E95" s="1">
-        <v>0.011964</v>
+        <v>0.012016</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43069</v>
+        <v>43131</v>
       </c>
       <c r="B96" s="1">
-        <v>0.013354</v>
+        <v>0.024717</v>
       </c>
       <c r="C96" s="1">
-        <v>0.013354</v>
+        <v>0.024777</v>
       </c>
       <c r="D96" s="1">
-        <v>0.013356</v>
+        <v>0.016299</v>
       </c>
       <c r="E96" s="1">
-        <v>0.013355</v>
+        <v>0.019876</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43100</v>
+        <v>43159</v>
       </c>
       <c r="B97" s="1">
-        <v>0.011831</v>
+        <v>-0.029926</v>
       </c>
       <c r="C97" s="1">
-        <v>0.012308</v>
+        <v>-0.029924</v>
       </c>
       <c r="D97" s="1">
-        <v>0.011977</v>
+        <v>-0.029905</v>
       </c>
       <c r="E97" s="1">
-        <v>0.012016</v>
+        <v>-0.029913</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43131</v>
+        <v>43190</v>
       </c>
       <c r="B98" s="1">
-        <v>0.024717</v>
+        <v>0.001458</v>
       </c>
       <c r="C98" s="1">
-        <v>0.024777</v>
+        <v>0.001458</v>
       </c>
       <c r="D98" s="1">
-        <v>0.016299</v>
+        <v>0.008959</v>
       </c>
       <c r="E98" s="1">
-        <v>0.019876</v>
+        <v>0.005778999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43159</v>
+        <v>43220</v>
       </c>
       <c r="B99" s="1">
-        <v>-0.029926</v>
+        <v>-0.002009</v>
       </c>
       <c r="C99" s="1">
-        <v>-0.029924</v>
+        <v>-0.002009</v>
       </c>
       <c r="D99" s="1">
-        <v>-0.029905</v>
+        <v>-0.006636</v>
       </c>
       <c r="E99" s="1">
-        <v>-0.029913</v>
+        <v>-0.004682</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43190</v>
+        <v>43251</v>
       </c>
       <c r="B100" s="1">
-        <v>0.001458</v>
+        <v>0.006971000000000001</v>
       </c>
       <c r="C100" s="1">
-        <v>0.001458</v>
+        <v>0.006965</v>
       </c>
       <c r="D100" s="1">
-        <v>0.008959</v>
+        <v>0.010673</v>
       </c>
       <c r="E100" s="1">
-        <v>0.005778999999999999</v>
+        <v>0.009103</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43220</v>
+        <v>43281</v>
       </c>
       <c r="B101" s="1">
-        <v>-0.002009</v>
+        <v>-0.002816</v>
       </c>
       <c r="C101" s="1">
-        <v>-0.002009</v>
+        <v>-0.00284</v>
       </c>
       <c r="D101" s="1">
-        <v>-0.006636</v>
+        <v>-0.001519</v>
       </c>
       <c r="E101" s="1">
-        <v>-0.004682</v>
+        <v>-0.002073</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43251</v>
+        <v>43312</v>
       </c>
       <c r="B102" s="1">
-        <v>0.006971000000000001</v>
+        <v>0.013499</v>
       </c>
       <c r="C102" s="1">
-        <v>0.006965</v>
+        <v>0.013494</v>
       </c>
       <c r="D102" s="1">
-        <v>0.010673</v>
+        <v>0.005810999999999999</v>
       </c>
       <c r="E102" s="1">
-        <v>0.009103</v>
+        <v>0.009061</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43281</v>
+        <v>43343</v>
       </c>
       <c r="B103" s="1">
-        <v>-0.002816</v>
+        <v>0.008215999999999999</v>
       </c>
       <c r="C103" s="1">
-        <v>-0.00284</v>
+        <v>0.00822</v>
       </c>
       <c r="D103" s="1">
-        <v>-0.001519</v>
+        <v>0.010221</v>
       </c>
       <c r="E103" s="1">
-        <v>-0.002073</v>
+        <v>0.00937</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43312</v>
+        <v>43373</v>
       </c>
       <c r="B104" s="1">
-        <v>0.013499</v>
+        <v>-0.005064</v>
       </c>
       <c r="C104" s="1">
-        <v>0.013494</v>
+        <v>-0.005064999999999999</v>
       </c>
       <c r="D104" s="1">
-        <v>0.005810999999999999</v>
+        <v>-0.011547</v>
       </c>
       <c r="E104" s="1">
-        <v>0.009061</v>
+        <v>-0.008794</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43343</v>
+        <v>43404</v>
       </c>
       <c r="B105" s="1">
-        <v>0.008215999999999999</v>
+        <v>-0.040555</v>
       </c>
       <c r="C105" s="1">
-        <v>0.00822</v>
+        <v>-0.040551</v>
       </c>
       <c r="D105" s="1">
-        <v>0.010221</v>
+        <v>-0.039562</v>
       </c>
       <c r="E105" s="1">
-        <v>0.00937</v>
+        <v>-0.039984</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43373</v>
+        <v>43434</v>
       </c>
       <c r="B106" s="1">
-        <v>-0.005064</v>
+        <v>0.01145</v>
       </c>
       <c r="C106" s="1">
-        <v>-0.005064999999999999</v>
+        <v>0.011447</v>
       </c>
       <c r="D106" s="1">
-        <v>-0.011547</v>
+        <v>0.013939</v>
       </c>
       <c r="E106" s="1">
-        <v>-0.008794</v>
+        <v>0.012878</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="B107" s="1">
-        <v>-0.040555</v>
+        <v>-0.016159</v>
       </c>
       <c r="C107" s="1">
-        <v>-0.040551</v>
+        <v>-0.01617</v>
       </c>
       <c r="D107" s="1">
-        <v>-0.039562</v>
+        <v>0.005926</v>
       </c>
       <c r="E107" s="1">
-        <v>-0.039984</v>
+        <v>-0.003477</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43434</v>
+        <v>43496</v>
       </c>
       <c r="B108" s="1">
-        <v>0.01145</v>
+        <v>0.037035</v>
       </c>
       <c r="C108" s="1">
-        <v>0.011447</v>
+        <v>0.037039</v>
       </c>
       <c r="D108" s="1">
-        <v>0.013939</v>
+        <v>0.028362</v>
       </c>
       <c r="E108" s="1">
-        <v>0.012878</v>
+        <v>0.032009</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43465</v>
+        <v>43524</v>
       </c>
       <c r="B109" s="1">
-        <v>-0.016159</v>
+        <v>0.010188</v>
       </c>
       <c r="C109" s="1">
-        <v>-0.01617</v>
+        <v>0.010184</v>
       </c>
       <c r="D109" s="1">
-        <v>0.005926</v>
+        <v>0.002933</v>
       </c>
       <c r="E109" s="1">
-        <v>-0.003477</v>
+        <v>0.005999</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43496</v>
+        <v>43555</v>
       </c>
       <c r="B110" s="1">
-        <v>0.037035</v>
+        <v>0.021135</v>
       </c>
       <c r="C110" s="1">
-        <v>0.037039</v>
+        <v>0.021127</v>
       </c>
       <c r="D110" s="1">
-        <v>0.028362</v>
+        <v>0.032959</v>
       </c>
       <c r="E110" s="1">
-        <v>0.032009</v>
+        <v>0.027935</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43524</v>
+        <v>43585</v>
       </c>
       <c r="B111" s="1">
-        <v>0.010188</v>
+        <v>0.010592</v>
       </c>
       <c r="C111" s="1">
-        <v>0.010184</v>
+        <v>0.010584</v>
       </c>
       <c r="D111" s="1">
-        <v>0.002933</v>
+        <v>0.001077</v>
       </c>
       <c r="E111" s="1">
-        <v>0.005999</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43555</v>
+        <v>43616</v>
       </c>
       <c r="B112" s="1">
-        <v>0.021135</v>
+        <v>-0.004251</v>
       </c>
       <c r="C112" s="1">
-        <v>0.021127</v>
+        <v>-0.004255</v>
       </c>
       <c r="D112" s="1">
-        <v>0.032959</v>
+        <v>0.020519</v>
       </c>
       <c r="E112" s="1">
-        <v>0.027935</v>
+        <v>0.010002</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43585</v>
+        <v>43646</v>
       </c>
       <c r="B113" s="1">
-        <v>0.010592</v>
+        <v>0.033344</v>
       </c>
       <c r="C113" s="1">
-        <v>0.010584</v>
+        <v>0.033341</v>
       </c>
       <c r="D113" s="1">
-        <v>0.001077</v>
+        <v>0.026978</v>
       </c>
       <c r="E113" s="1">
-        <v>0.00509</v>
+        <v>0.029644</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43616</v>
+        <v>43677</v>
       </c>
       <c r="B114" s="1">
-        <v>-0.004251</v>
+        <v>0.005238</v>
       </c>
       <c r="C114" s="1">
-        <v>-0.004255</v>
+        <v>0.00523</v>
       </c>
       <c r="D114" s="1">
-        <v>0.020519</v>
+        <v>0.004394</v>
       </c>
       <c r="E114" s="1">
-        <v>0.010002</v>
+        <v>0.004747</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43646</v>
+        <v>43708</v>
       </c>
       <c r="B115" s="1">
-        <v>0.033344</v>
+        <v>0.024274</v>
       </c>
       <c r="C115" s="1">
-        <v>0.033341</v>
+        <v>0.024213</v>
       </c>
       <c r="D115" s="1">
-        <v>0.026978</v>
+        <v>0.05872</v>
       </c>
       <c r="E115" s="1">
-        <v>0.029644</v>
+        <v>0.044206</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43677</v>
+        <v>43738</v>
       </c>
       <c r="B116" s="1">
-        <v>0.005238</v>
+        <v>0.002153</v>
       </c>
       <c r="C116" s="1">
-        <v>0.00523</v>
+        <v>0.002218</v>
       </c>
       <c r="D116" s="1">
-        <v>0.004394</v>
+        <v>-0.009623</v>
       </c>
       <c r="E116" s="1">
-        <v>0.004747</v>
+        <v>-0.004635</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43708</v>
+        <v>43769</v>
       </c>
       <c r="B117" s="1">
-        <v>0.024274</v>
+        <v>0.005681</v>
       </c>
       <c r="C117" s="1">
-        <v>0.024213</v>
+        <v>0.006085</v>
       </c>
       <c r="D117" s="1">
-        <v>0.05872</v>
+        <v>-0.000153</v>
       </c>
       <c r="E117" s="1">
-        <v>0.044206</v>
+        <v>0.002441</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43738</v>
+        <v>43799</v>
       </c>
       <c r="B118" s="1">
-        <v>0.002153</v>
+        <v>0.010361</v>
       </c>
       <c r="C118" s="1">
-        <v>0.002218</v>
+        <v>0.010705</v>
       </c>
       <c r="D118" s="1">
-        <v>-0.009623</v>
+        <v>0.006349</v>
       </c>
       <c r="E118" s="1">
-        <v>-0.004635</v>
+        <v>0.008153000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43769</v>
+        <v>43830</v>
       </c>
       <c r="B119" s="1">
-        <v>0.005681</v>
+        <v>0.008629</v>
       </c>
       <c r="C119" s="1">
-        <v>0.006085</v>
+        <v>0.007443</v>
       </c>
       <c r="D119" s="1">
-        <v>-0.000153</v>
+        <v>-0.007508</v>
       </c>
       <c r="E119" s="1">
-        <v>0.002441</v>
+        <v>-0.000751</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43799</v>
+        <v>43861</v>
       </c>
       <c r="B120" s="1">
-        <v>0.010361</v>
+        <v>0.010016</v>
       </c>
       <c r="C120" s="1">
-        <v>0.010705</v>
+        <v>0.009792</v>
       </c>
       <c r="D120" s="1">
-        <v>0.006349</v>
+        <v>0.037942</v>
       </c>
       <c r="E120" s="1">
-        <v>0.008153000000000001</v>
+        <v>0.02564</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43830</v>
+        <v>43890</v>
       </c>
       <c r="B121" s="1">
-        <v>0.008629</v>
+        <v>-0.022208</v>
       </c>
       <c r="C121" s="1">
-        <v>0.007443</v>
+        <v>-0.020781</v>
       </c>
       <c r="D121" s="1">
-        <v>-0.007508</v>
+        <v>0.018639</v>
       </c>
       <c r="E121" s="1">
-        <v>-0.000751</v>
+        <v>0.001266</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43861</v>
+        <v>43921</v>
       </c>
       <c r="B122" s="1">
-        <v>0.010016</v>
+        <v>-0.07419100000000001</v>
       </c>
       <c r="C122" s="1">
-        <v>0.009792</v>
+        <v>-0.07051</v>
       </c>
       <c r="D122" s="1">
-        <v>0.037942</v>
+        <v>-0.012191</v>
       </c>
       <c r="E122" s="1">
-        <v>0.02564</v>
+        <v>-0.037684</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43890</v>
+        <v>43951</v>
       </c>
       <c r="B123" s="1">
-        <v>-0.022208</v>
+        <v>0.056168</v>
       </c>
       <c r="C123" s="1">
-        <v>-0.020781</v>
+        <v>0.05305</v>
       </c>
       <c r="D123" s="1">
-        <v>0.018639</v>
+        <v>0.037446</v>
       </c>
       <c r="E123" s="1">
-        <v>0.001266</v>
+        <v>0.044486</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>43921</v>
+        <v>43982</v>
       </c>
       <c r="B124" s="1">
-        <v>-0.07419100000000001</v>
+        <v>0.015041</v>
       </c>
       <c r="C124" s="1">
-        <v>-0.07051</v>
+        <v>0.013544</v>
       </c>
       <c r="D124" s="1">
-        <v>-0.012191</v>
+        <v>-0.004533</v>
       </c>
       <c r="E124" s="1">
-        <v>-0.037684</v>
+        <v>0.003246</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>43951</v>
+        <v>44012</v>
       </c>
       <c r="B125" s="1">
-        <v>0.056168</v>
+        <v>0.012864</v>
       </c>
       <c r="C125" s="1">
-        <v>0.05305</v>
+        <v>0.012183</v>
       </c>
       <c r="D125" s="1">
-        <v>0.037446</v>
+        <v>0.00859</v>
       </c>
       <c r="E125" s="1">
-        <v>0.044486</v>
+        <v>0.010239</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>43982</v>
+        <v>44043</v>
       </c>
       <c r="B126" s="1">
-        <v>0.015041</v>
+        <v>0.034786</v>
       </c>
       <c r="C126" s="1">
-        <v>0.013544</v>
+        <v>0.033863</v>
       </c>
       <c r="D126" s="1">
-        <v>-0.004533</v>
+        <v>0.044461</v>
       </c>
       <c r="E126" s="1">
-        <v>0.003246</v>
+        <v>0.040234</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44012</v>
+        <v>44074</v>
       </c>
       <c r="B127" s="1">
-        <v>0.012864</v>
+        <v>0.017061</v>
       </c>
       <c r="C127" s="1">
-        <v>0.012183</v>
+        <v>0.016036</v>
       </c>
       <c r="D127" s="1">
-        <v>0.00859</v>
+        <v>-0.017265</v>
       </c>
       <c r="E127" s="1">
-        <v>0.010239</v>
+        <v>-0.003186</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44043</v>
+        <v>44104</v>
       </c>
       <c r="B128" s="1">
-        <v>0.034786</v>
+        <v>-0.014281</v>
       </c>
       <c r="C128" s="1">
-        <v>0.033863</v>
+        <v>-0.013697</v>
       </c>
       <c r="D128" s="1">
-        <v>0.044461</v>
+        <v>-0.005055</v>
       </c>
       <c r="E128" s="1">
-        <v>0.040234</v>
+        <v>-0.008924999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44074</v>
+        <v>44135</v>
       </c>
       <c r="B129" s="1">
-        <v>0.017061</v>
+        <v>-0.016704</v>
       </c>
       <c r="C129" s="1">
-        <v>0.016036</v>
+        <v>-0.015702</v>
       </c>
       <c r="D129" s="1">
-        <v>-0.017265</v>
+        <v>-0.023545</v>
       </c>
       <c r="E129" s="1">
-        <v>-0.003186</v>
+        <v>-0.020374</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44104</v>
+        <v>44165</v>
       </c>
       <c r="B130" s="1">
-        <v>-0.014281</v>
+        <v>0.065382</v>
       </c>
       <c r="C130" s="1">
-        <v>-0.013697</v>
+        <v>0.06457600000000001</v>
       </c>
       <c r="D130" s="1">
-        <v>-0.005055</v>
+        <v>0.044108</v>
       </c>
       <c r="E130" s="1">
-        <v>-0.008924999999999999</v>
+        <v>0.053226</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44135</v>
+        <v>44196</v>
       </c>
       <c r="B131" s="1">
-        <v>-0.016704</v>
+        <v>0.021767</v>
       </c>
       <c r="C131" s="1">
-        <v>-0.015702</v>
+        <v>0.022151</v>
       </c>
       <c r="D131" s="1">
-        <v>-0.023545</v>
+        <v>0.007529</v>
       </c>
       <c r="E131" s="1">
-        <v>-0.020374</v>
+        <v>0.013933</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44165</v>
+        <v>44227</v>
       </c>
       <c r="B132" s="1">
-        <v>0.065382</v>
+        <v>-0.013168</v>
       </c>
       <c r="C132" s="1">
-        <v>0.06457600000000001</v>
+        <v>-0.012301</v>
       </c>
       <c r="D132" s="1">
-        <v>0.044108</v>
+        <v>-0.0263</v>
       </c>
       <c r="E132" s="1">
-        <v>0.053226</v>
+        <v>-0.020192</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44196</v>
+        <v>44255</v>
       </c>
       <c r="B133" s="1">
-        <v>0.021767</v>
+        <v>-0.002234</v>
       </c>
       <c r="C133" s="1">
-        <v>0.022151</v>
+        <v>-0.000961</v>
       </c>
       <c r="D133" s="1">
-        <v>0.007529</v>
+        <v>-0.032485</v>
       </c>
       <c r="E133" s="1">
-        <v>0.013933</v>
+        <v>-0.018451</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44227</v>
+        <v>44286</v>
       </c>
       <c r="B134" s="1">
-        <v>-0.013168</v>
+        <v>0.01294</v>
       </c>
       <c r="C134" s="1">
-        <v>-0.012301</v>
+        <v>0.013419</v>
       </c>
       <c r="D134" s="1">
-        <v>-0.0263</v>
+        <v>-0.010056</v>
       </c>
       <c r="E134" s="1">
-        <v>-0.020192</v>
+        <v>0.0006980000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44255</v>
+        <v>44316</v>
       </c>
       <c r="B135" s="1">
-        <v>-0.002234</v>
+        <v>0.028613</v>
       </c>
       <c r="C135" s="1">
-        <v>-0.000961</v>
+        <v>0.028164</v>
       </c>
       <c r="D135" s="1">
-        <v>-0.032485</v>
+        <v>0.029309</v>
       </c>
       <c r="E135" s="1">
-        <v>-0.018451</v>
+        <v>0.028885</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44286</v>
+        <v>44347</v>
       </c>
       <c r="B136" s="1">
-        <v>0.01294</v>
+        <v>0.017591</v>
       </c>
       <c r="C136" s="1">
-        <v>0.013419</v>
+        <v>0.018329</v>
       </c>
       <c r="D136" s="1">
-        <v>-0.010056</v>
+        <v>0.014168</v>
       </c>
       <c r="E136" s="1">
-        <v>0.0006980000000000001</v>
+        <v>0.015936</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="B137" s="1">
-        <v>0.028613</v>
+        <v>0.018306</v>
       </c>
       <c r="C137" s="1">
-        <v>0.028164</v>
+        <v>0.017976</v>
       </c>
       <c r="D137" s="1">
-        <v>0.029309</v>
+        <v>0.02898</v>
       </c>
       <c r="E137" s="1">
-        <v>0.028885</v>
+        <v>0.023884</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44347</v>
+        <v>44408</v>
       </c>
       <c r="B138" s="1">
-        <v>0.017591</v>
+        <v>0.015858</v>
       </c>
       <c r="C138" s="1">
-        <v>0.018329</v>
+        <v>0.01554</v>
       </c>
       <c r="D138" s="1">
-        <v>0.014168</v>
+        <v>0.024879</v>
       </c>
       <c r="E138" s="1">
-        <v>0.015936</v>
+        <v>0.020584</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44377</v>
+        <v>44439</v>
       </c>
       <c r="B139" s="1">
-        <v>0.018306</v>
+        <v>0.014596</v>
       </c>
       <c r="C139" s="1">
-        <v>0.017976</v>
+        <v>0.014694</v>
       </c>
       <c r="D139" s="1">
-        <v>0.02898</v>
+        <v>0.007593</v>
       </c>
       <c r="E139" s="1">
-        <v>0.023884</v>
+        <v>0.010881</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44408</v>
+        <v>44469</v>
       </c>
       <c r="B140" s="1">
-        <v>0.015858</v>
+        <v>-0.034501</v>
       </c>
       <c r="C140" s="1">
-        <v>0.01554</v>
+        <v>-0.037832</v>
       </c>
       <c r="D140" s="1">
-        <v>0.024879</v>
+        <v>-0.030726</v>
       </c>
       <c r="E140" s="1">
-        <v>0.020584</v>
+        <v>-0.033223</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44439</v>
+        <v>44500</v>
       </c>
       <c r="B141" s="1">
-        <v>0.014596</v>
+        <v>0.034062</v>
       </c>
       <c r="C141" s="1">
-        <v>0.014694</v>
+        <v>0.038085</v>
       </c>
       <c r="D141" s="1">
-        <v>0.007593</v>
+        <v>0.027294</v>
       </c>
       <c r="E141" s="1">
-        <v>0.010881</v>
+        <v>0.031335</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44469</v>
+        <v>44530</v>
       </c>
       <c r="B142" s="1">
-        <v>-0.034501</v>
+        <v>0.014583</v>
       </c>
       <c r="C142" s="1">
-        <v>-0.037832</v>
+        <v>0.020934</v>
       </c>
       <c r="D142" s="1">
-        <v>-0.030726</v>
+        <v>0.017182</v>
       </c>
       <c r="E142" s="1">
-        <v>-0.033223</v>
+        <v>0.017353</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44500</v>
+        <v>44561</v>
       </c>
       <c r="B143" s="1">
-        <v>0.034062</v>
+        <v>0.013202</v>
       </c>
       <c r="C143" s="1">
-        <v>0.038085</v>
+        <v>0.009613</v>
       </c>
       <c r="D143" s="1">
-        <v>0.027294</v>
+        <v>0.005379</v>
       </c>
       <c r="E143" s="1">
-        <v>0.031335</v>
+        <v>0.00827</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44530</v>
+        <v>44592</v>
       </c>
       <c r="B144" s="1">
-        <v>0.014583</v>
+        <v>-0.048359</v>
       </c>
       <c r="C144" s="1">
-        <v>0.020934</v>
+        <v>-0.051444</v>
       </c>
       <c r="D144" s="1">
-        <v>0.017182</v>
+        <v>-0.043723</v>
       </c>
       <c r="E144" s="1">
-        <v>0.017353</v>
+        <v>-0.046588</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44561</v>
+        <v>44620</v>
       </c>
       <c r="B145" s="1">
-        <v>0.013202</v>
+        <v>-0.020498</v>
       </c>
       <c r="C145" s="1">
-        <v>0.009613</v>
+        <v>-0.021976</v>
       </c>
       <c r="D145" s="1">
-        <v>0.005379</v>
+        <v>-0.017199</v>
       </c>
       <c r="E145" s="1">
-        <v>0.00827</v>
+        <v>-0.019075</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44592</v>
+        <v>44651</v>
       </c>
       <c r="B146" s="1">
-        <v>-0.048359</v>
+        <v>-0.017631</v>
       </c>
       <c r="C146" s="1">
-        <v>-0.051444</v>
+        <v>-0.021784</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.043723</v>
+        <v>-0.026753</v>
       </c>
       <c r="E146" s="1">
-        <v>-0.046588</v>
+        <v>-0.02338</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>44620</v>
+        <v>44681</v>
       </c>
       <c r="B147" s="1">
-        <v>-0.020498</v>
+        <v>-0.072297</v>
       </c>
       <c r="C147" s="1">
-        <v>-0.021976</v>
+        <v>-0.07865800000000001</v>
       </c>
       <c r="D147" s="1">
-        <v>-0.017199</v>
+        <v>-0.076793</v>
       </c>
       <c r="E147" s="1">
-        <v>-0.019075</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="3">
-        <v>44651</v>
-      </c>
-      <c r="B148" s="1">
-        <v>-0.017631</v>
-      </c>
-      <c r="C148" s="1">
-        <v>-0.021784</v>
-      </c>
-      <c r="D148" s="1">
-        <v>-0.026753</v>
-      </c>
-      <c r="E148" s="1">
-        <v>-0.02338</v>
+        <v>-0.07607</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A148">
+  <conditionalFormatting sqref="A1:A147">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E148">
+  <conditionalFormatting sqref="B2:E147">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM147"/>
+  <dimension ref="A1:ALM148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,2493 +445,2510 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40268</v>
+        <v>40237</v>
       </c>
       <c r="B2" s="1">
-        <v>1475141834.85</v>
+        <v>1064104134.07</v>
       </c>
       <c r="C2" s="1">
-        <v>2204069195.06</v>
+        <v>2128528078.25</v>
       </c>
       <c r="D2" s="1">
-        <v>13025853226.71</v>
+        <v>12582607840.79</v>
       </c>
       <c r="E2" s="1">
-        <v>16705064256.62</v>
+        <v>15775240053.11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40298</v>
+        <v>40268</v>
       </c>
       <c r="B3" s="1">
-        <v>1622528988.09</v>
+        <v>1475141834.85</v>
       </c>
       <c r="C3" s="1">
-        <v>2249160289.73</v>
+        <v>2204069195.06</v>
       </c>
       <c r="D3" s="1">
-        <v>13260630365.46</v>
+        <v>13025853226.71</v>
       </c>
       <c r="E3" s="1">
-        <v>17132319643.28</v>
+        <v>16705064256.62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40329</v>
+        <v>40298</v>
       </c>
       <c r="B4" s="1">
-        <v>1547543516.8</v>
+        <v>1622528988.09</v>
       </c>
       <c r="C4" s="1">
-        <v>2151316976.44</v>
+        <v>2249160289.73</v>
       </c>
       <c r="D4" s="1">
-        <v>12652570165.23</v>
+        <v>13260630365.46</v>
       </c>
       <c r="E4" s="1">
-        <v>16351430658.47</v>
+        <v>17132319643.28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40359</v>
+        <v>40329</v>
       </c>
       <c r="B5" s="1">
-        <v>1525381389.55</v>
+        <v>1547543516.8</v>
       </c>
       <c r="C5" s="1">
-        <v>2126807551.94</v>
+        <v>2151316976.44</v>
       </c>
       <c r="D5" s="1">
-        <v>12475226298.37</v>
+        <v>12652570165.23</v>
       </c>
       <c r="E5" s="1">
-        <v>16127415239.86</v>
+        <v>16351430658.47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40390</v>
+        <v>40359</v>
       </c>
       <c r="B6" s="1">
-        <v>1706992377.88</v>
+        <v>1525381389.55</v>
       </c>
       <c r="C6" s="1">
-        <v>2217049566.92</v>
+        <v>2126807551.94</v>
       </c>
       <c r="D6" s="1">
-        <v>12970356046.29</v>
+        <v>12475226298.37</v>
       </c>
       <c r="E6" s="1">
-        <v>16894397991.09</v>
+        <v>16127415239.86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40421</v>
+        <v>40390</v>
       </c>
       <c r="B7" s="1">
-        <v>1703519080.08</v>
+        <v>1706992377.88</v>
       </c>
       <c r="C7" s="1">
-        <v>2218270319.77</v>
+        <v>2217049566.92</v>
       </c>
       <c r="D7" s="1">
-        <v>12943159219.5</v>
+        <v>12970356046.29</v>
       </c>
       <c r="E7" s="1">
-        <v>16864948619.35</v>
+        <v>16894397991.09</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40451</v>
+        <v>40421</v>
       </c>
       <c r="B8" s="1">
-        <v>1774147463.24</v>
+        <v>1703519080.08</v>
       </c>
       <c r="C8" s="1">
-        <v>2429501039.02</v>
+        <v>2218270319.77</v>
       </c>
       <c r="D8" s="1">
-        <v>13480390809.59</v>
+        <v>12943159219.5</v>
       </c>
       <c r="E8" s="1">
-        <v>17684039311.85</v>
+        <v>16864948619.35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40482</v>
+        <v>40451</v>
       </c>
       <c r="B9" s="1">
-        <v>1900647341.72</v>
+        <v>1774147463.24</v>
       </c>
       <c r="C9" s="1">
-        <v>2451294838.87</v>
+        <v>2429501039.02</v>
       </c>
       <c r="D9" s="1">
-        <v>13443247532.2</v>
+        <v>13480390809.59</v>
       </c>
       <c r="E9" s="1">
-        <v>17795189712.79</v>
+        <v>17684039311.85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40512</v>
+        <v>40482</v>
       </c>
       <c r="B10" s="1">
-        <v>1880986063.23</v>
+        <v>1900647341.72</v>
       </c>
       <c r="C10" s="1">
-        <v>2932628117.61</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D10" s="1">
-        <v>14814883828.94</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E10" s="1">
-        <v>19628498009.78</v>
+        <v>17795189712.79</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40543</v>
+        <v>40512</v>
       </c>
       <c r="B11" s="1">
-        <v>1928778379.47</v>
+        <v>1880986063.23</v>
       </c>
       <c r="C11" s="1">
-        <v>3016301371.7</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D11" s="1">
-        <v>15090229972.53</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E11" s="1">
-        <v>20035309723.7</v>
+        <v>19628498009.78</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40574</v>
+        <v>40543</v>
       </c>
       <c r="B12" s="1">
-        <v>3118038032.57</v>
+        <v>1928778379.47</v>
       </c>
       <c r="C12" s="1">
-        <v>3010941131.67</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D12" s="1">
-        <v>15034904479.43</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E12" s="1">
-        <v>21163883643.67</v>
+        <v>20035309723.7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40602</v>
+        <v>40574</v>
       </c>
       <c r="B13" s="1">
-        <v>3181037518.51</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C13" s="1">
-        <v>3072606771.41</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D13" s="1">
-        <v>15339405005.2</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E13" s="1">
-        <v>21593049295.12</v>
+        <v>21163883643.67</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40633</v>
+        <v>40602</v>
       </c>
       <c r="B14" s="1">
-        <v>3181383242.47</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C14" s="1">
-        <v>3077934373.48</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D14" s="1">
-        <v>15338256138.32</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E14" s="1">
-        <v>21597573754.27</v>
+        <v>21593049295.12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40663</v>
+        <v>40633</v>
       </c>
       <c r="B15" s="1">
-        <v>3268994098.86</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C15" s="1">
-        <v>3168259937.35</v>
+        <v>3077934373.48</v>
       </c>
       <c r="D15" s="1">
-        <v>15759367465.19</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E15" s="1">
-        <v>22196621501.4</v>
+        <v>21597573754.27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40694</v>
+        <v>40663</v>
       </c>
       <c r="B16" s="1">
-        <v>3281525082.01</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C16" s="1">
-        <v>3185699769.88</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D16" s="1">
-        <v>15817577526.65</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E16" s="1">
-        <v>22284802378.54</v>
+        <v>22196621501.4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40724</v>
+        <v>40694</v>
       </c>
       <c r="B17" s="1">
-        <v>3219718796.83</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C17" s="1">
-        <v>3131056633.27</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D17" s="1">
-        <v>15518531782.51</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E17" s="1">
-        <v>21869307212.61</v>
+        <v>22284802378.54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40755</v>
+        <v>40724</v>
       </c>
       <c r="B18" s="1">
-        <v>3245901192.15</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C18" s="1">
-        <v>3162162793.97</v>
+        <v>3131056633.27</v>
       </c>
       <c r="D18" s="1">
-        <v>15644127804.59</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E18" s="1">
-        <v>22052191790.71</v>
+        <v>21869307212.61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40786</v>
+        <v>40755</v>
       </c>
       <c r="B19" s="1">
-        <v>3216438061.76</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C19" s="1">
-        <v>3139082692.54</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D19" s="1">
-        <v>15501807654.48</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E19" s="1">
-        <v>21857328408.78</v>
+        <v>22052191790.71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40816</v>
+        <v>40786</v>
       </c>
       <c r="B20" s="1">
-        <v>3211645130.63</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C20" s="1">
-        <v>3200272417.15</v>
+        <v>3139082692.54</v>
       </c>
       <c r="D20" s="1">
-        <v>15478844686.83</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E20" s="1">
-        <v>21890762234.61</v>
+        <v>21857328408.78</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40847</v>
+        <v>40816</v>
       </c>
       <c r="B21" s="1">
-        <v>3317215603.4</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C21" s="1">
-        <v>3311931768.5</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D21" s="1">
-        <v>15988859112.39</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E21" s="1">
-        <v>22618006484.29</v>
+        <v>21890762234.61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40877</v>
+        <v>40847</v>
       </c>
       <c r="B22" s="1">
-        <v>3279790855.17</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C22" s="1">
-        <v>3286738232.03</v>
+        <v>3311931768.5</v>
       </c>
       <c r="D22" s="1">
-        <v>15838304892.48</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E22" s="1">
-        <v>22404833979.68</v>
+        <v>22618006484.29</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40908</v>
+        <v>40877</v>
       </c>
       <c r="B23" s="1">
-        <v>3308515656.83</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C23" s="1">
-        <v>3322199318.6</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D23" s="1">
-        <v>15980024217.31</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E23" s="1">
-        <v>22610739192.74</v>
+        <v>22404833979.68</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40939</v>
+        <v>40908</v>
       </c>
       <c r="B24" s="1">
-        <v>3390714253.36</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C24" s="1">
-        <v>3411636959.78</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D24" s="1">
-        <v>16380361894.04</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E24" s="1">
-        <v>23182713107.18</v>
+        <v>22610739192.74</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40968</v>
+        <v>40939</v>
       </c>
       <c r="B25" s="1">
-        <v>3441357193.01</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C25" s="1">
-        <v>3465240303.9</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D25" s="1">
-        <v>16632464142.06</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E25" s="1">
-        <v>23539061638.97</v>
+        <v>23182713107.18</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>40999</v>
+        <v>40968</v>
       </c>
       <c r="B26" s="1">
-        <v>3594273253.88</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C26" s="1">
-        <v>3448893913.05</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D26" s="1">
-        <v>16525460571.64</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E26" s="1">
-        <v>23568627738.57</v>
+        <v>23539061638.97</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41029</v>
+        <v>40999</v>
       </c>
       <c r="B27" s="1">
-        <v>3620819218.91</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C27" s="1">
-        <v>3481026300.12</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D27" s="1">
-        <v>16649217766.01</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E27" s="1">
-        <v>23751063285.04</v>
+        <v>23568627738.57</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41060</v>
+        <v>41029</v>
       </c>
       <c r="B28" s="1">
-        <v>3584994009.65</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C28" s="1">
-        <v>3453190328.12</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D28" s="1">
-        <v>16487171941.75</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E28" s="1">
-        <v>23525356279.52</v>
+        <v>23751063285.04</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41090</v>
+        <v>41060</v>
       </c>
       <c r="B29" s="1">
-        <v>3803025610.44</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C29" s="1">
-        <v>3497243829.13</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D29" s="1">
-        <v>16666850559.31</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E29" s="1">
-        <v>23967119998.88</v>
+        <v>23525356279.52</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41121</v>
+        <v>41090</v>
       </c>
       <c r="B30" s="1">
-        <v>3877728751.39</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C30" s="1">
-        <v>3572637746.48</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D30" s="1">
-        <v>16994828296.98</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E30" s="1">
-        <v>24445194794.85</v>
+        <v>23967119998.88</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41152</v>
+        <v>41121</v>
       </c>
       <c r="B31" s="1">
-        <v>3892524075.7</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C31" s="1">
-        <v>3592909103.41</v>
+        <v>3572637746.48</v>
       </c>
       <c r="D31" s="1">
-        <v>17060906283.34</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E31" s="1">
-        <v>24546339462.45</v>
+        <v>24445194794.85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41182</v>
+        <v>41152</v>
       </c>
       <c r="B32" s="1">
-        <v>3915294252.8</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C32" s="1">
-        <v>3620604152.58</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D32" s="1">
-        <v>17161962134.54</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E32" s="1">
-        <v>24697860539.92</v>
+        <v>24546339462.45</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41213</v>
+        <v>41182</v>
       </c>
       <c r="B33" s="1">
-        <v>3910430761.85</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C33" s="1">
-        <v>3622924774.95</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D33" s="1">
-        <v>17142433480.14</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E33" s="1">
-        <v>24675789016.94</v>
+        <v>24697860539.92</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41243</v>
+        <v>41213</v>
       </c>
       <c r="B34" s="1">
-        <v>3929018216.4</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C34" s="1">
-        <v>3646999015.16</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D34" s="1">
-        <v>17226395708.39</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E34" s="1">
-        <v>24802412939.95</v>
+        <v>24675789016.94</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41274</v>
+        <v>41243</v>
       </c>
       <c r="B35" s="1">
-        <v>3949731061.55</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C35" s="1">
-        <v>3654809047.65</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D35" s="1">
-        <v>17291347894.83</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E35" s="1">
-        <v>24895888004.03</v>
+        <v>24802412939.95</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41305</v>
+        <v>41274</v>
       </c>
       <c r="B36" s="1">
-        <v>3991599105.71</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C36" s="1">
-        <v>4490569394.41</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D36" s="1">
-        <v>16688354214.01</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E36" s="1">
-        <v>25170522714.13</v>
+        <v>24895888004.03</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41333</v>
+        <v>41305</v>
       </c>
       <c r="B37" s="1">
-        <v>4007467353.78</v>
+        <v>3991599105.71</v>
       </c>
       <c r="C37" s="1">
-        <v>4511270646.88</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D37" s="1">
-        <v>16760479395.46</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E37" s="1">
-        <v>25279217396.12</v>
+        <v>25170522714.13</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41364</v>
+        <v>41333</v>
       </c>
       <c r="B38" s="1">
-        <v>4055824611.3</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C38" s="1">
-        <v>4573664426.03</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D38" s="1">
-        <v>16966131964.43</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E38" s="1">
-        <v>25595621001.76</v>
+        <v>25279217396.12</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41394</v>
+        <v>41364</v>
       </c>
       <c r="B39" s="1">
-        <v>4145409199.46</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C39" s="1">
-        <v>4682846886.27</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D39" s="1">
-        <v>17344710073.87</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E39" s="1">
-        <v>26172966159.6</v>
+        <v>25595621001.76</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41425</v>
+        <v>41394</v>
       </c>
       <c r="B40" s="1">
-        <v>4064569702.63</v>
+        <v>4145409199.46</v>
       </c>
       <c r="C40" s="1">
-        <v>4599347535.9</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D40" s="1">
-        <v>17010077571.85</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E40" s="1">
-        <v>25673994810.38</v>
+        <v>26172966159.6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41455</v>
+        <v>41425</v>
       </c>
       <c r="B41" s="1">
-        <v>3978796970.09</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C41" s="1">
-        <v>4510251396.91</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D41" s="1">
-        <v>16655205891.35</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E41" s="1">
-        <v>25144254258.35</v>
+        <v>25673994810.38</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41486</v>
+        <v>41455</v>
       </c>
       <c r="B42" s="1">
-        <v>4023056820.86</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C42" s="1">
-        <v>4568724212.7</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D42" s="1">
-        <v>16844910623.34</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E42" s="1">
-        <v>25436691656.9</v>
+        <v>25144254258.35</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41517</v>
+        <v>41486</v>
       </c>
       <c r="B43" s="1">
-        <v>3966340296.1</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C43" s="1">
-        <v>4512507452.03</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D43" s="1">
-        <v>16611859545.78</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E43" s="1">
-        <v>25090707293.91</v>
+        <v>25436691656.9</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41547</v>
+        <v>41517</v>
       </c>
       <c r="B44" s="1">
-        <v>4033439753.48</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C44" s="1">
-        <v>4749762591.53</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D44" s="1">
-        <v>16745294934.92</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E44" s="1">
-        <v>25528497279.93</v>
+        <v>25090707293.91</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41578</v>
+        <v>41547</v>
       </c>
       <c r="B45" s="1">
-        <v>4110020215.55</v>
+        <v>4033439753.48</v>
       </c>
       <c r="C45" s="1">
-        <v>4848589342.72</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D45" s="1">
-        <v>17068754555.91</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E45" s="1">
-        <v>26027364114.18</v>
+        <v>25528497279.93</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41608</v>
+        <v>41578</v>
       </c>
       <c r="B46" s="1">
-        <v>4104202981.72</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C46" s="1">
-        <v>4850653743.4</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D46" s="1">
-        <v>17048964200.6</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E46" s="1">
-        <v>26003820925.72</v>
+        <v>26027364114.18</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41639</v>
+        <v>41608</v>
       </c>
       <c r="B47" s="1">
-        <v>4121232839.29</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C47" s="1">
-        <v>4879983265.38</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D47" s="1">
-        <v>17125072337.07</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E47" s="1">
-        <v>26126288441.74</v>
+        <v>26003820925.72</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41670</v>
+        <v>41639</v>
       </c>
       <c r="B48" s="1">
-        <v>4116223144.44</v>
+        <v>4121232839.29</v>
       </c>
       <c r="C48" s="1">
-        <v>4882894726.29</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D48" s="1">
-        <v>17108578440.75</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E48" s="1">
-        <v>26107696311.48</v>
+        <v>26126288441.74</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="B49" s="1">
-        <v>4197240949.36</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C49" s="1">
-        <v>4988729007.27</v>
+        <v>4882894726.29</v>
       </c>
       <c r="D49" s="1">
-        <v>17452194867.54</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E49" s="1">
-        <v>26638164824.17</v>
+        <v>26107696311.48</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="B50" s="1">
-        <v>4215464347.87</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C50" s="1">
-        <v>5019984158.58</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D50" s="1">
-        <v>17534607990.94</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E50" s="1">
-        <v>26770056497.39</v>
+        <v>26638164824.17</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="B51" s="1">
-        <v>4212492467.73</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C51" s="1">
-        <v>5026144812.31</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D51" s="1">
-        <v>17527472294.14</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E51" s="1">
-        <v>26766109574.18</v>
+        <v>26770056497.39</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="B52" s="1">
-        <v>4276832512.93</v>
+        <v>4212492467.73</v>
       </c>
       <c r="C52" s="1">
-        <v>5112975530.56</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D52" s="1">
-        <v>17802179304.76</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E52" s="1">
-        <v>27191987348.25</v>
+        <v>26766109574.18</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="B53" s="1">
-        <v>4295140983.11</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C53" s="1">
-        <v>5144862372.52</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D53" s="1">
-        <v>17885683191.13</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E53" s="1">
-        <v>27325686546.76</v>
+        <v>27191987348.25</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="B54" s="1">
-        <v>4265451845</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C54" s="1">
-        <v>5119794037.99</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D54" s="1">
-        <v>17771593159.77</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E54" s="1">
-        <v>27156839042.76</v>
+        <v>27325686546.76</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="B55" s="1">
-        <v>4354547211.12</v>
+        <v>4265451845</v>
       </c>
       <c r="C55" s="1">
-        <v>5237452701.82</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D55" s="1">
-        <v>18152206744.49</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E55" s="1">
-        <v>27744206657.43</v>
+        <v>27156839042.76</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="B56" s="1">
-        <v>4258151023.04</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C56" s="1">
-        <v>5131976211.71</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D56" s="1">
-        <v>17760533642.93</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E56" s="1">
-        <v>27150660877.68</v>
+        <v>27744206657.43</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="B57" s="1">
-        <v>4285163976.8</v>
+        <v>4258151023.04</v>
       </c>
       <c r="C57" s="1">
-        <v>5172926233.01</v>
+        <v>5131976211.71</v>
       </c>
       <c r="D57" s="1">
-        <v>17913635623.32</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E57" s="1">
-        <v>27371725833.13</v>
+        <v>27150660877.68</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="B58" s="1">
-        <v>4341696562.65</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C58" s="1">
-        <v>5252461885.84</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D58" s="1">
-        <v>18161775529.88</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E58" s="1">
-        <v>27755933978.37</v>
+        <v>27371725833.13</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="B59" s="1">
-        <v>4986611512.07</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C59" s="1">
-        <v>5448191101.38</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D59" s="1">
-        <v>18347625645.26</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E59" s="1">
-        <v>28782428258.71</v>
+        <v>27755933978.37</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="B60" s="1">
-        <v>5087365130.35</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C60" s="1">
-        <v>5567918737.12</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D60" s="1">
-        <v>18722750233.87</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E60" s="1">
-        <v>29378034101.34</v>
+        <v>28782428258.71</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="B61" s="1">
-        <v>5110739057.82</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C61" s="1">
-        <v>5603210665.94</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D61" s="1">
-        <v>18813772416.81</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E61" s="1">
-        <v>29527722140.57</v>
+        <v>29378034101.34</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="B62" s="1">
-        <v>5098528846.54</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C62" s="1">
-        <v>5599621915.28</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D62" s="1">
-        <v>18774054364.97</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E62" s="1">
-        <v>29472205126.79</v>
+        <v>29527722140.57</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="B63" s="1">
-        <v>5084901351.07</v>
+        <v>5098528846.54</v>
       </c>
       <c r="C63" s="1">
-        <v>5594550723.83</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D63" s="1">
-        <v>18729185388.1</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E63" s="1">
-        <v>29408637463</v>
+        <v>29472205126.79</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="B64" s="1">
-        <v>5061385747.15</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C64" s="1">
-        <v>5578675769.67</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D64" s="1">
-        <v>18647949038.16</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E64" s="1">
-        <v>29288010554.98</v>
+        <v>29408637463</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="B65" s="1">
-        <v>4948449143.55</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C65" s="1">
-        <v>5464086350.67</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D65" s="1">
-        <v>18237481254.81</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E65" s="1">
-        <v>28650016749.03</v>
+        <v>29288010554.98</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="B66" s="1">
-        <v>4984734110.66</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C66" s="1">
-        <v>5514366076.03</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D66" s="1">
-        <v>18377084883.67</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E66" s="1">
-        <v>28876185070.36</v>
+        <v>28650016749.03</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="B67" s="1">
-        <v>4833324327.11</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C67" s="1">
-        <v>5356648129.15</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D67" s="1">
-        <v>17823956731.64</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E67" s="1">
-        <v>28013929187.9</v>
+        <v>28876185070.36</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="B68" s="1">
-        <v>4774352359.51</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C68" s="1">
-        <v>5301454591.47</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D68" s="1">
-        <v>17611807946.07</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E68" s="1">
-        <v>27687614897.05</v>
+        <v>28013929187.9</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="B69" s="1">
-        <v>4880247836.65</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C69" s="1">
-        <v>5397632819.49</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D69" s="1">
-        <v>18048466381.73</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E69" s="1">
-        <v>28326347037.87</v>
+        <v>27687614897.05</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="B70" s="1">
-        <v>4844551814.11</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C70" s="1">
-        <v>5368571908.98</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D70" s="1">
-        <v>17923437278.06</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E70" s="1">
-        <v>28136561001.15</v>
+        <v>28326347037.87</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="B71" s="1">
-        <v>5415576742.55</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C71" s="1">
-        <v>5709868087.27</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D71" s="1">
-        <v>17720809778.51</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E71" s="1">
-        <v>28846254608.33</v>
+        <v>28136561001.15</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="B72" s="1">
-        <v>5318083756.35</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C72" s="1">
-        <v>5616578571.14</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D72" s="1">
-        <v>17401710538.67</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E72" s="1">
-        <v>28336372866.16</v>
+        <v>28846254608.33</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="B73" s="1">
-        <v>5338694185.85</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C73" s="1">
-        <v>5647936294.45</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D73" s="1">
-        <v>17469047828.17</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E73" s="1">
-        <v>28455678308.47</v>
+        <v>28336372866.16</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="B74" s="1">
-        <v>5505915040.5</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C74" s="1">
-        <v>5834802926.8</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D74" s="1">
-        <v>18015953930.39</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E74" s="1">
-        <v>29356671897.69</v>
+        <v>28455678308.47</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="B75" s="1">
-        <v>5538988181.45</v>
+        <v>5505915040.5</v>
       </c>
       <c r="C75" s="1">
-        <v>5879483219.72</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D75" s="1">
-        <v>18123555709.18</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E75" s="1">
-        <v>29542027110.35</v>
+        <v>29356671897.69</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="B76" s="1">
-        <v>5531594102.95</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C76" s="1">
-        <v>5881279255.87</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D76" s="1">
-        <v>18098547742.62</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E76" s="1">
-        <v>29511421101.44</v>
+        <v>29542027110.35</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="B77" s="1">
-        <v>5569334217.76</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C77" s="1">
-        <v>5931068967.2</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D77" s="1">
-        <v>18221430248.59</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E77" s="1">
-        <v>29721833433.55</v>
+        <v>29511421101.44</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="B78" s="1">
-        <v>5669685323.09</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C78" s="1">
-        <v>6047546128.94</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D78" s="1">
-        <v>18547911760.68</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E78" s="1">
-        <v>30265143212.71</v>
+        <v>29721833433.55</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="B79" s="1">
-        <v>5658306874.65</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C79" s="1">
-        <v>6044991482.23</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D79" s="1">
-        <v>18508956903.95</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E79" s="1">
-        <v>30212255260.83</v>
+        <v>30265143212.71</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="B80" s="1">
-        <v>6047292088.02</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C80" s="1">
-        <v>6489780168.17</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D80" s="1">
-        <v>18774117008.18</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E80" s="1">
-        <v>31311189264.37</v>
+        <v>30212255260.83</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="B81" s="1">
-        <v>5944249077.31</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C81" s="1">
-        <v>6361287062.33</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D81" s="1">
-        <v>18430165678.92</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E81" s="1">
-        <v>30735701818.56</v>
+        <v>31311189264.37</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="B82" s="1">
-        <v>5857951330.08</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C82" s="1">
-        <v>6278318762.68</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D82" s="1">
-        <v>18157879310.11</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E82" s="1">
-        <v>30294149402.87</v>
+        <v>30735701818.56</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="B83" s="1">
-        <v>6253513976.5</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C83" s="1">
-        <v>6361809245.25</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D83" s="1">
-        <v>18519236484.86</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E83" s="1">
-        <v>31134559706.61</v>
+        <v>30294149402.87</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="B84" s="1">
-        <v>6308462886.34</v>
+        <v>6253513976.5</v>
       </c>
       <c r="C84" s="1">
-        <v>6425317655.9</v>
+        <v>6361809245.25</v>
       </c>
       <c r="D84" s="1">
-        <v>18672848179.36</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E84" s="1">
-        <v>31406628721.6</v>
+        <v>31134559706.61</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="B85" s="1">
-        <v>6400976668.18</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C85" s="1">
-        <v>6526279467.15</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D85" s="1">
-        <v>18935672129.96</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E85" s="1">
-        <v>31862928265.29</v>
+        <v>31406628721.6</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="B86" s="1">
-        <v>7099971446.02</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C86" s="1">
-        <v>7337629420.28</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D86" s="1">
-        <v>19799616893.11</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E86" s="1">
-        <v>34237217759.41</v>
+        <v>31862928265.29</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="B87" s="1">
-        <v>7176134170.54</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C87" s="1">
-        <v>7422733235.89</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D87" s="1">
-        <v>20002352527.29</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E87" s="1">
-        <v>34601219933.72</v>
+        <v>34237217759.41</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="B88" s="1">
-        <v>7264954337.05</v>
+        <v>7176134170.54</v>
       </c>
       <c r="C88" s="1">
-        <v>7523682920.77</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D88" s="1">
-        <v>20236842409.02</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E88" s="1">
-        <v>35025479666.84</v>
+        <v>34601219933.72</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="B89" s="1">
-        <v>7282406497.08</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C89" s="1">
-        <v>7549356808.18</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D89" s="1">
-        <v>20274819955.34</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E89" s="1">
-        <v>35106583260.6</v>
+        <v>35025479666.84</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="B90" s="1">
-        <v>7343644210.4</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C90" s="1">
-        <v>7623588366.49</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D90" s="1">
-        <v>20438559290.68</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E90" s="1">
-        <v>35405791867.57</v>
+        <v>35106583260.6</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="B91" s="1">
-        <v>7401114464.44</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C91" s="1">
-        <v>7693916997.08</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D91" s="1">
-        <v>20590483805.51</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E91" s="1">
-        <v>35685515267.03</v>
+        <v>35405791867.57</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="B92" s="1">
-        <v>7439354518.62</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C92" s="1">
-        <v>7744728806.72</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D92" s="1">
-        <v>20690860589.09</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E92" s="1">
-        <v>35874943914.43</v>
+        <v>35685515267.03</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="B93" s="1">
-        <v>7501162607.24</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C93" s="1">
-        <v>7797612927.14</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D93" s="1">
-        <v>20816144211.36</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E93" s="1">
-        <v>36114919745.74</v>
+        <v>35874943914.43</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="B94" s="1">
-        <v>7578785278.66</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C94" s="1">
-        <v>7890046689.69</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D94" s="1">
-        <v>21026781531.76</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E94" s="1">
-        <v>36495613500.11</v>
+        <v>36114919745.74</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="B95" s="1">
-        <v>9002210135.43</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C95" s="1">
-        <v>8628245002.959999</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D95" s="1">
-        <v>24225602881.81</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E95" s="1">
-        <v>41856058020.2</v>
+        <v>36495613500.11</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="B96" s="1">
-        <v>9202610590.719999</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C96" s="1">
-        <v>8830545061.309999</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D96" s="1">
-        <v>24550562668.35</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E96" s="1">
-        <v>42583718320.38</v>
+        <v>41856058020.2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B97" s="1">
-        <v>8905152042.110001</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C97" s="1">
-        <v>8554843302.12</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D97" s="1">
-        <v>23751652917.48</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E97" s="1">
-        <v>41211648261.71</v>
+        <v>42583718320.38</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B98" s="1">
-        <v>8894650969.91</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C98" s="1">
-        <v>8555117311.3</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D98" s="1">
-        <v>23895701762.76</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E98" s="1">
-        <v>41345470043.96999</v>
+        <v>41211648261.71</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="B99" s="1">
-        <v>8853026337.98</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C99" s="1">
-        <v>8525561703.78</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D99" s="1">
-        <v>23668172596.97</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E99" s="1">
-        <v>41046760638.73</v>
+        <v>41345470043.96999</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="B100" s="1">
-        <v>8890561971.129999</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C100" s="1">
-        <v>8572549061.9</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D100" s="1">
-        <v>23850121023.12</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E100" s="1">
-        <v>41313232056.15</v>
+        <v>41046760638.73</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="B101" s="1">
-        <v>8841470603.15</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C101" s="1">
-        <v>8535731069.89</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D101" s="1">
-        <v>23743830051.96</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E101" s="1">
-        <v>41121031725</v>
+        <v>41313232056.15</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="B102" s="1">
-        <v>8936073454</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C102" s="1">
-        <v>8637933457.639999</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D102" s="1">
-        <v>23810581356</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E102" s="1">
-        <v>41384588267.64</v>
+        <v>41121031725</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="B103" s="1">
-        <v>8984375598.66</v>
+        <v>8936073454</v>
       </c>
       <c r="C103" s="1">
-        <v>8696018228.42</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D103" s="1">
-        <v>23982409194.24</v>
+        <v>23810581356</v>
       </c>
       <c r="E103" s="1">
-        <v>41662803021.32</v>
+        <v>41384588267.64</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="B104" s="1">
-        <v>8913881251.4</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C104" s="1">
-        <v>8639086304.16</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D104" s="1">
-        <v>23633980009.44</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E104" s="1">
-        <v>41186947565</v>
+        <v>41662803021.32</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="B105" s="1">
-        <v>8522844994.4</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C105" s="1">
-        <v>8244001106.42</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D105" s="1">
-        <v>22616189010.16</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E105" s="1">
-        <v>39383035110.98</v>
+        <v>41186947565</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="B106" s="1">
-        <v>8594776142.139999</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C106" s="1">
-        <v>8324970365.95</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D106" s="1">
-        <v>22855417422.09</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E106" s="1">
-        <v>39775163930.18</v>
+        <v>39383035110.98</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="B107" s="1">
-        <v>8430913509.88</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C107" s="1">
-        <v>8177279951.57</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D107" s="1">
-        <v>22914791910.02</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E107" s="1">
-        <v>39522985371.47</v>
+        <v>39775163930.18</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="B108" s="1">
-        <v>8716930851.969999</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C108" s="1">
-        <v>8466374243.34</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D108" s="1">
-        <v>23486748539.61</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E108" s="1">
-        <v>40670053634.92</v>
+        <v>39522985371.47</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="B109" s="1">
-        <v>8780002278.02</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C109" s="1">
-        <v>8538970109.85</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D109" s="1">
-        <v>23478840638.83</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E109" s="1">
-        <v>40797813026.7</v>
+        <v>40670053634.92</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="B110" s="1">
-        <v>8939502054.139999</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C110" s="1">
-        <v>8705342961.4</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D110" s="1">
-        <v>24171257132.2</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E110" s="1">
-        <v>41816102147.74</v>
+        <v>40797813026.7</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="B111" s="1">
-        <v>9008244776.280001</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C111" s="1">
-        <v>9126959379.24</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D111" s="1">
-        <v>24607902857.48</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E111" s="1">
-        <v>42743107013</v>
+        <v>41816102147.74</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="B112" s="1">
-        <v>8944260855.860001</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C112" s="1">
-        <v>9074029379.02</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D112" s="1">
-        <v>25031315219.51</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E112" s="1">
-        <v>43049605454.39</v>
+        <v>42743107013</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="B113" s="1">
-        <v>9215995868.950001</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C113" s="1">
-        <v>9361706609.469999</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D113" s="1">
-        <v>25624194687.13</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E113" s="1">
-        <v>44201897165.55</v>
+        <v>43049605454.39</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="B114" s="1">
-        <v>9238385070.67</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C114" s="1">
-        <v>9396108735.549999</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D114" s="1">
-        <v>25654784699.4</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E114" s="1">
-        <v>44289278505.62</v>
+        <v>44201897165.55</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="B115" s="1">
-        <v>9436337524.57</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C115" s="1">
-        <v>9608738306.559999</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D115" s="1">
-        <v>27075236050.17</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E115" s="1">
-        <v>46120311881.3</v>
+        <v>44289278505.62</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="B116" s="1">
-        <v>10602215448.62</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C116" s="1">
-        <v>9614794478.780001</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D116" s="1">
-        <v>26732583667.57</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E116" s="1">
-        <v>46949593594.97</v>
+        <v>46120311881.3</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="B117" s="1">
-        <v>10608252625.24</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C117" s="1">
-        <v>9625407467.91</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D117" s="1">
-        <v>26632048569.08</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E117" s="1">
-        <v>46865708662.23</v>
+        <v>46949593594.97</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="B118" s="1">
-        <v>10692316903.4</v>
+        <v>10608252625.24</v>
       </c>
       <c r="C118" s="1">
-        <v>9713037686.17</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D118" s="1">
-        <v>26718262582.96</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E118" s="1">
-        <v>47123617172.53</v>
+        <v>46865708662.23</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="B119" s="1">
-        <v>10758442213.97</v>
+        <v>10692316903.4</v>
       </c>
       <c r="C119" s="1">
-        <v>9477691033.26</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D119" s="1">
-        <v>25905500280.73</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E119" s="1">
-        <v>46141633527.96</v>
+        <v>47123617172.53</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="B120" s="1">
-        <v>10840639312.88</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C120" s="1">
-        <v>9555218261.01</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D120" s="1">
-        <v>26801803446.13</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E120" s="1">
-        <v>47197661020.02</v>
+        <v>46141633527.96</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="B121" s="1">
-        <v>10574286223.88</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C121" s="1">
-        <v>9338936485.4</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D121" s="1">
-        <v>27210602093.55</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E121" s="1">
-        <v>47123824802.83</v>
+        <v>47197661020.02</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="B122" s="1">
-        <v>9764305551.360001</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C122" s="1">
-        <v>8664875030.02</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D122" s="1">
-        <v>26774845803.79</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E122" s="1">
-        <v>45204026385.17001</v>
+        <v>47123824802.83</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="B123" s="1">
-        <v>10283094677.36</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C123" s="1">
-        <v>9107006952.52</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D123" s="1">
-        <v>27673909702.83</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E123" s="1">
-        <v>47064011332.71</v>
+        <v>45204026385.17001</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="B124" s="1">
-        <v>10409182664.05</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C124" s="1">
-        <v>9213245024.98</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D124" s="1">
-        <v>27458711260.98</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E124" s="1">
-        <v>47081138950.00999</v>
+        <v>47064011332.71</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="B125" s="1">
-        <v>10514205392.24</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C125" s="1">
-        <v>9308097696.17</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D125" s="1">
-        <v>27604261775.77</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E125" s="1">
-        <v>47426564864.18</v>
+        <v>47081138950.00999</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="B126" s="1">
-        <v>10849449410.81</v>
+        <v>10514205392.24</v>
       </c>
       <c r="C126" s="1">
-        <v>9606421868.530001</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D126" s="1">
-        <v>28739793816.49</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E126" s="1">
-        <v>49195665095.83</v>
+        <v>47426564864.18</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="B127" s="1">
-        <v>11005151438.13</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C127" s="1">
-        <v>9743289163.68</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D127" s="1">
-        <v>28157643007.23</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E127" s="1">
-        <v>48906083609.04</v>
+        <v>49195665095.83</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="B128" s="1">
-        <v>11506934819.12</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C128" s="1">
-        <v>9894562298.549999</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D128" s="1">
-        <v>27927195382.94</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E128" s="1">
-        <v>49328692500.60999</v>
+        <v>48906083609.04</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="B129" s="1">
-        <v>11238592497.88</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C129" s="1">
-        <v>9700328704.629999</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D129" s="1">
-        <v>27087133329.04</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E129" s="1">
-        <v>48026054531.55</v>
+        <v>49328692500.60999</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="B130" s="1">
-        <v>11941273405.45</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C130" s="1">
-        <v>10308274207.78</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D130" s="1">
-        <v>28190455805.8</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E130" s="1">
-        <v>50440003419.03</v>
+        <v>48026054531.55</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="B131" s="1">
-        <v>12756299620.31</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C131" s="1">
-        <v>11053433125.61</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D131" s="1">
-        <v>28978753211.54</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E131" s="1">
-        <v>52788485957.46</v>
+        <v>50440003419.03</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="B132" s="1">
-        <v>12558243414.61</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C132" s="1">
-        <v>10900299506.57</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D132" s="1">
-        <v>28129460313.55</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E132" s="1">
-        <v>51588003234.73</v>
+        <v>52788485957.46</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44255</v>
+        <v>44227</v>
       </c>
       <c r="B133" s="1">
-        <v>12499730482.13</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C133" s="1">
-        <v>10872197550.37</v>
+        <v>10900299506.57</v>
       </c>
       <c r="D133" s="1">
-        <v>27127417795.49</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E133" s="1">
-        <v>50499345827.99</v>
+        <v>51588003234.73</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44286</v>
+        <v>44255</v>
       </c>
       <c r="B134" s="1">
-        <v>12629967215.83</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C134" s="1">
-        <v>10999754121.32</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D134" s="1">
-        <v>26762995183.16</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E134" s="1">
-        <v>50392716520.31</v>
+        <v>50499345827.99</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44316</v>
+        <v>44286</v>
       </c>
       <c r="B135" s="1">
-        <v>12959077328.64</v>
+        <v>12629967215.83</v>
       </c>
       <c r="C135" s="1">
-        <v>11290601383.86</v>
+        <v>10999754121.32</v>
       </c>
       <c r="D135" s="1">
-        <v>27451304576.21</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E135" s="1">
-        <v>51700983288.71</v>
+        <v>50392716520.31</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44347</v>
+        <v>44316</v>
       </c>
       <c r="B136" s="1">
-        <v>13155170030.18</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C136" s="1">
-        <v>11478701164.89</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D136" s="1">
-        <v>27744684232.74</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E136" s="1">
-        <v>52378555427.81</v>
+        <v>51700983288.71</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44377</v>
+        <v>44347</v>
       </c>
       <c r="B137" s="1">
-        <v>13363308598.31</v>
+        <v>13155170030.18</v>
       </c>
       <c r="C137" s="1">
-        <v>11665454270.74</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D137" s="1">
-        <v>28450398443.59</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E137" s="1">
-        <v>53479161312.64</v>
+        <v>52378555427.81</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44408</v>
+        <v>44377</v>
       </c>
       <c r="B138" s="1">
-        <v>13542680564.47</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C138" s="1">
-        <v>11826970568.32</v>
+        <v>11665454270.74</v>
       </c>
       <c r="D138" s="1">
-        <v>29059097453.83</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E138" s="1">
-        <v>54428748586.62</v>
+        <v>53479161312.64</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44439</v>
+        <v>44408</v>
       </c>
       <c r="B139" s="1">
-        <v>13707767980.07</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C139" s="1">
-        <v>11980671064.48</v>
+        <v>11826970568.32</v>
       </c>
       <c r="D139" s="1">
-        <v>29181897719.21</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E139" s="1">
-        <v>54870336763.75999</v>
+        <v>54428748586.62</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44469</v>
+        <v>44439</v>
       </c>
       <c r="B140" s="1">
-        <v>13203547316.24</v>
+        <v>13707767980.07</v>
       </c>
       <c r="C140" s="1">
-        <v>11508277149.59</v>
+        <v>11980671064.48</v>
       </c>
       <c r="D140" s="1">
-        <v>28189224367.16</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E140" s="1">
-        <v>52901048832.99</v>
+        <v>54870336763.75999</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44500</v>
+        <v>44469</v>
       </c>
       <c r="B141" s="1">
-        <v>13619689152.99</v>
+        <v>13203547316.24</v>
       </c>
       <c r="C141" s="1">
-        <v>11898653834.64</v>
+        <v>11508277149.59</v>
       </c>
       <c r="D141" s="1">
-        <v>28782423825.81</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E141" s="1">
-        <v>54300766813.44</v>
+        <v>52901048832.99</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44530</v>
+        <v>44500</v>
       </c>
       <c r="B142" s="1">
-        <v>13785068283.86</v>
+        <v>13619689152.99</v>
       </c>
       <c r="C142" s="1">
-        <v>12126631727.77</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D142" s="1">
-        <v>29177655956.14</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E142" s="1">
-        <v>55089355967.77</v>
+        <v>54300766813.44</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44561</v>
+        <v>44530</v>
       </c>
       <c r="B143" s="1">
-        <v>13933499672.22</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C143" s="1">
-        <v>12222321130.28</v>
+        <v>12126631727.77</v>
       </c>
       <c r="D143" s="1">
-        <v>29369048113</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E143" s="1">
-        <v>55524868915.5</v>
+        <v>55089355967.77</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44592</v>
+        <v>44561</v>
       </c>
       <c r="B144" s="1">
-        <v>13228050556.07</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C144" s="1">
-        <v>11573834300.94</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D144" s="1">
-        <v>27989510511.21</v>
+        <v>29369048113</v>
       </c>
       <c r="E144" s="1">
-        <v>52791395368.22</v>
+        <v>55524868915.5</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44620</v>
+        <v>44592</v>
       </c>
       <c r="B145" s="1">
-        <v>12924236126.56</v>
+        <v>13228050556.07</v>
       </c>
       <c r="C145" s="1">
-        <v>11299022364.73</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D145" s="1">
-        <v>27410006047.48</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E145" s="1">
-        <v>51633264538.77</v>
+        <v>52791395368.22</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="B146" s="1">
-        <v>12662771414.75</v>
+        <v>12924236126.56</v>
       </c>
       <c r="C146" s="1">
-        <v>11031166589.13</v>
+        <v>11299022364.73</v>
       </c>
       <c r="D146" s="1">
-        <v>26576348005.31</v>
+        <v>27410006047.48</v>
       </c>
       <c r="E146" s="1">
-        <v>50270286009.19</v>
+        <v>51633264538.77</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B147" s="1">
+        <v>12662771414.75</v>
+      </c>
+      <c r="C147" s="1">
+        <v>11031166589.13</v>
+      </c>
+      <c r="D147" s="1">
+        <v>26576348005.31</v>
+      </c>
+      <c r="E147" s="1">
+        <v>50270286009.19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
         <v>44681</v>
       </c>
-      <c r="B147" s="1">
-        <v>11715402918.77</v>
-      </c>
-      <c r="C147" s="1">
-        <v>10142966770.06</v>
-      </c>
-      <c r="D147" s="1">
-        <v>24440641700.16</v>
-      </c>
-      <c r="E147" s="1">
-        <v>46299011388.99001</v>
+      <c r="B148" s="1">
+        <v>11666882480.45</v>
+      </c>
+      <c r="C148" s="1">
+        <v>10097030956.61</v>
+      </c>
+      <c r="D148" s="1">
+        <v>24343752751.24</v>
+      </c>
+      <c r="E148" s="1">
+        <v>46107666188.3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A147">
+  <conditionalFormatting sqref="A1:A148">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E147">
+  <conditionalFormatting sqref="B2:E148">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
@@ -2942,7 +2959,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM147"/>
+  <dimension ref="A1:ALM148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2970,2493 +2987,2510 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40268</v>
+        <v>40237</v>
       </c>
       <c r="B2" s="1">
-        <v>0.037112</v>
+        <v>0.012753</v>
       </c>
       <c r="C2" s="1">
-        <v>0.039345</v>
+        <v>0.013375</v>
       </c>
       <c r="D2" s="1">
-        <v>0.039374</v>
+        <v>0.013596</v>
       </c>
       <c r="E2" s="1">
-        <v>0.039192</v>
+        <v>0.013512</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40298</v>
+        <v>40268</v>
       </c>
       <c r="B3" s="1">
-        <v>0.020455</v>
+        <v>0.037112</v>
       </c>
       <c r="C3" s="1">
-        <v>0.021368</v>
+        <v>0.039345</v>
       </c>
       <c r="D3" s="1">
-        <v>0.021406</v>
+        <v>0.039374</v>
       </c>
       <c r="E3" s="1">
-        <v>0.021313</v>
+        <v>0.039192</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40329</v>
+        <v>40298</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.042701</v>
+        <v>0.020455</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.042682</v>
+        <v>0.021368</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.04269199999999999</v>
+        <v>0.021406</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.042691</v>
+        <v>0.021313</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40359</v>
+        <v>40329</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.010431</v>
+        <v>-0.042701</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.010424</v>
+        <v>-0.042682</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.010512</v>
+        <v>-0.04269199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.010493</v>
+        <v>-0.042691</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40390</v>
+        <v>40359</v>
       </c>
       <c r="B6" s="1">
-        <v>0.04159</v>
+        <v>-0.010431</v>
       </c>
       <c r="C6" s="1">
-        <v>0.043416</v>
+        <v>-0.010424</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04342500000000001</v>
+        <v>-0.010512</v>
       </c>
       <c r="E6" s="1">
-        <v>0.043244</v>
+        <v>-0.010493</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40421</v>
+        <v>40390</v>
       </c>
       <c r="B7" s="1">
-        <v>0.001548</v>
+        <v>0.04159</v>
       </c>
       <c r="C7" s="1">
-        <v>0.001558</v>
+        <v>0.043416</v>
       </c>
       <c r="D7" s="1">
-        <v>0.00155</v>
+        <v>0.04342500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001551</v>
+        <v>0.043244</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40451</v>
+        <v>40421</v>
       </c>
       <c r="B8" s="1">
-        <v>0.04532</v>
+        <v>0.001548</v>
       </c>
       <c r="C8" s="1">
-        <v>0.045333</v>
+        <v>0.001558</v>
       </c>
       <c r="D8" s="1">
-        <v>0.045331</v>
+        <v>0.00155</v>
       </c>
       <c r="E8" s="1">
-        <v>0.04533</v>
+        <v>0.001551</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40482</v>
+        <v>40451</v>
       </c>
       <c r="B9" s="1">
-        <v>0.009824000000000001</v>
+        <v>0.04532</v>
       </c>
       <c r="C9" s="1">
-        <v>0.009851</v>
+        <v>0.045333</v>
       </c>
       <c r="D9" s="1">
-        <v>0.009762</v>
+        <v>0.045331</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009781</v>
+        <v>0.04533</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40512</v>
+        <v>40482</v>
       </c>
       <c r="B10" s="1">
-        <v>-0.006762000000000001</v>
+        <v>0.009824000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>-0.005979</v>
+        <v>0.009851</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.006311</v>
+        <v>0.009762</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006307</v>
+        <v>0.009781</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40543</v>
+        <v>40512</v>
       </c>
       <c r="B11" s="1">
-        <v>0.029284</v>
+        <v>-0.006762000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>0.029312</v>
+        <v>-0.005979</v>
       </c>
       <c r="D11" s="1">
-        <v>0.029354</v>
+        <v>-0.006311</v>
       </c>
       <c r="E11" s="1">
-        <v>0.029341</v>
+        <v>-0.006307</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40574</v>
+        <v>40543</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.00115</v>
+        <v>0.029284</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.001119</v>
+        <v>0.029312</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.001115</v>
+        <v>0.029354</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001121</v>
+        <v>0.029341</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40602</v>
+        <v>40574</v>
       </c>
       <c r="B13" s="1">
-        <v>0.023291</v>
+        <v>-0.00115</v>
       </c>
       <c r="C13" s="1">
-        <v>0.023317</v>
+        <v>-0.001119</v>
       </c>
       <c r="D13" s="1">
-        <v>0.023308</v>
+        <v>-0.001115</v>
       </c>
       <c r="E13" s="1">
-        <v>0.023307</v>
+        <v>-0.001121</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40633</v>
+        <v>40602</v>
       </c>
       <c r="B14" s="1">
-        <v>0.002493</v>
+        <v>0.023291</v>
       </c>
       <c r="C14" s="1">
-        <v>0.002493</v>
+        <v>0.023317</v>
       </c>
       <c r="D14" s="1">
-        <v>0.002494</v>
+        <v>0.023308</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002494</v>
+        <v>0.023307</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40663</v>
+        <v>40633</v>
       </c>
       <c r="B15" s="1">
-        <v>0.030082</v>
+        <v>0.002493</v>
       </c>
       <c r="C15" s="1">
-        <v>0.030134</v>
+        <v>0.002493</v>
       </c>
       <c r="D15" s="1">
-        <v>0.030134</v>
+        <v>0.002494</v>
       </c>
       <c r="E15" s="1">
-        <v>0.030126</v>
+        <v>0.002494</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40694</v>
+        <v>40663</v>
       </c>
       <c r="B16" s="1">
-        <v>0.006251</v>
+        <v>0.030082</v>
       </c>
       <c r="C16" s="1">
-        <v>0.006252</v>
+        <v>0.030134</v>
       </c>
       <c r="D16" s="1">
-        <v>0.006251</v>
+        <v>0.030134</v>
       </c>
       <c r="E16" s="1">
-        <v>0.006251</v>
+        <v>0.030126</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40724</v>
+        <v>40694</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.016394</v>
+        <v>0.006251</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.016393</v>
+        <v>0.006252</v>
       </c>
       <c r="D17" s="1">
-        <v>-0.016388</v>
+        <v>0.006251</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.016389</v>
+        <v>0.006251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40755</v>
+        <v>40724</v>
       </c>
       <c r="B18" s="1">
-        <v>0.010779</v>
+        <v>-0.016394</v>
       </c>
       <c r="C18" s="1">
-        <v>0.010779</v>
+        <v>-0.016393</v>
       </c>
       <c r="D18" s="1">
-        <v>0.010779</v>
+        <v>-0.016388</v>
       </c>
       <c r="E18" s="1">
-        <v>0.010779</v>
+        <v>-0.016389</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40786</v>
+        <v>40755</v>
       </c>
       <c r="B19" s="1">
-        <v>-0.006495</v>
+        <v>0.010779</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.006492</v>
+        <v>0.010779</v>
       </c>
       <c r="D19" s="1">
-        <v>-0.006488000000000001</v>
+        <v>0.010779</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.00649</v>
+        <v>0.010779</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40816</v>
+        <v>40786</v>
       </c>
       <c r="B20" s="1">
-        <v>0.001202</v>
+        <v>-0.006495</v>
       </c>
       <c r="C20" s="1">
-        <v>0.001203</v>
+        <v>-0.006492</v>
       </c>
       <c r="D20" s="1">
-        <v>0.001203</v>
+        <v>-0.006488000000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001203</v>
+        <v>-0.00649</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40847</v>
+        <v>40816</v>
       </c>
       <c r="B21" s="1">
-        <v>0.035731</v>
+        <v>0.001202</v>
       </c>
       <c r="C21" s="1">
-        <v>0.035736</v>
+        <v>0.001203</v>
       </c>
       <c r="D21" s="1">
-        <v>0.03573</v>
+        <v>0.001203</v>
       </c>
       <c r="E21" s="1">
-        <v>0.035731</v>
+        <v>0.001203</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40877</v>
+        <v>40847</v>
       </c>
       <c r="B22" s="1">
-        <v>-0.006834</v>
+        <v>0.035731</v>
       </c>
       <c r="C22" s="1">
-        <v>-0.006834</v>
+        <v>0.035736</v>
       </c>
       <c r="D22" s="1">
-        <v>-0.006832</v>
+        <v>0.03573</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.006832</v>
+        <v>0.035731</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40908</v>
+        <v>40877</v>
       </c>
       <c r="B23" s="1">
-        <v>0.011627</v>
+        <v>-0.006834</v>
       </c>
       <c r="C23" s="1">
-        <v>0.011629</v>
+        <v>-0.006834</v>
       </c>
       <c r="D23" s="1">
-        <v>0.011629</v>
+        <v>-0.006832</v>
       </c>
       <c r="E23" s="1">
-        <v>0.011629</v>
+        <v>-0.006832</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40939</v>
+        <v>40908</v>
       </c>
       <c r="B24" s="1">
-        <v>0.027751</v>
+        <v>0.011627</v>
       </c>
       <c r="C24" s="1">
-        <v>0.027758</v>
+        <v>0.011629</v>
       </c>
       <c r="D24" s="1">
-        <v>0.027751</v>
+        <v>0.011629</v>
       </c>
       <c r="E24" s="1">
-        <v>0.027752</v>
+        <v>0.011629</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40968</v>
+        <v>40939</v>
       </c>
       <c r="B25" s="1">
-        <v>0.018401</v>
+        <v>0.027751</v>
       </c>
       <c r="C25" s="1">
-        <v>0.018387</v>
+        <v>0.027758</v>
       </c>
       <c r="D25" s="1">
-        <v>0.018407</v>
+        <v>0.027751</v>
       </c>
       <c r="E25" s="1">
-        <v>0.018403</v>
+        <v>0.027752</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>40999</v>
+        <v>40968</v>
       </c>
       <c r="B26" s="1">
-        <v>-0.003827</v>
+        <v>0.018401</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.00384</v>
+        <v>0.018387</v>
       </c>
       <c r="D26" s="1">
-        <v>-0.00384</v>
+        <v>0.018407</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.003838</v>
+        <v>0.018403</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41029</v>
+        <v>40999</v>
       </c>
       <c r="B27" s="1">
-        <v>0.010169</v>
+        <v>-0.003827</v>
       </c>
       <c r="C27" s="1">
-        <v>0.010171</v>
+        <v>-0.00384</v>
       </c>
       <c r="D27" s="1">
-        <v>0.010169</v>
+        <v>-0.00384</v>
       </c>
       <c r="E27" s="1">
-        <v>0.010169</v>
+        <v>-0.003838</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41060</v>
+        <v>41029</v>
       </c>
       <c r="B28" s="1">
-        <v>-0.007147</v>
+        <v>0.010169</v>
       </c>
       <c r="C28" s="1">
-        <v>-0.007141999999999999</v>
+        <v>0.010171</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.007113</v>
+        <v>0.010169</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.007122000000000001</v>
+        <v>0.010169</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41090</v>
+        <v>41060</v>
       </c>
       <c r="B29" s="1">
-        <v>0.013617</v>
+        <v>-0.007147</v>
       </c>
       <c r="C29" s="1">
-        <v>0.013665</v>
+        <v>-0.007141999999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>0.013662</v>
+        <v>-0.007113</v>
       </c>
       <c r="E29" s="1">
-        <v>0.013655</v>
+        <v>-0.007122000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41121</v>
+        <v>41090</v>
       </c>
       <c r="B30" s="1">
-        <v>0.022428</v>
+        <v>0.013617</v>
       </c>
       <c r="C30" s="1">
-        <v>0.022445</v>
+        <v>0.013665</v>
       </c>
       <c r="D30" s="1">
-        <v>0.022415</v>
+        <v>0.013662</v>
       </c>
       <c r="E30" s="1">
-        <v>0.022421</v>
+        <v>0.013655</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41152</v>
+        <v>41121</v>
       </c>
       <c r="B31" s="1">
-        <v>0.006546</v>
+        <v>0.022428</v>
       </c>
       <c r="C31" s="1">
-        <v>0.006548000000000001</v>
+        <v>0.022445</v>
       </c>
       <c r="D31" s="1">
-        <v>0.006546</v>
+        <v>0.022415</v>
       </c>
       <c r="E31" s="1">
-        <v>0.006546</v>
+        <v>0.022421</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41182</v>
+        <v>41152</v>
       </c>
       <c r="B32" s="1">
-        <v>0.008595999999999999</v>
+        <v>0.006546</v>
       </c>
       <c r="C32" s="1">
-        <v>0.008598</v>
+        <v>0.006548000000000001</v>
       </c>
       <c r="D32" s="1">
-        <v>0.008597</v>
+        <v>0.006546</v>
       </c>
       <c r="E32" s="1">
-        <v>0.008597</v>
+        <v>0.006546</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41213</v>
+        <v>41182</v>
       </c>
       <c r="B33" s="1">
-        <v>0.001504</v>
+        <v>0.008595999999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>0.001506</v>
+        <v>0.008598</v>
       </c>
       <c r="D33" s="1">
-        <v>0.001505</v>
+        <v>0.008597</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001505</v>
+        <v>0.008597</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41243</v>
+        <v>41213</v>
       </c>
       <c r="B34" s="1">
-        <v>0.007569</v>
+        <v>0.001504</v>
       </c>
       <c r="C34" s="1">
-        <v>0.007571</v>
+        <v>0.001506</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007571</v>
+        <v>0.001505</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007571</v>
+        <v>0.001505</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41274</v>
+        <v>41243</v>
       </c>
       <c r="B35" s="1">
-        <v>0.008156999999999999</v>
+        <v>0.007569</v>
       </c>
       <c r="C35" s="1">
-        <v>0.008168999999999999</v>
+        <v>0.007571</v>
       </c>
       <c r="D35" s="1">
-        <v>0.008165</v>
+        <v>0.007571</v>
       </c>
       <c r="E35" s="1">
-        <v>0.008163999999999999</v>
+        <v>0.007571</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41305</v>
+        <v>41274</v>
       </c>
       <c r="B36" s="1">
-        <v>0.013471</v>
+        <v>0.008156999999999999</v>
       </c>
       <c r="C36" s="1">
-        <v>0.013571</v>
+        <v>0.008168999999999999</v>
       </c>
       <c r="D36" s="1">
-        <v>0.013456</v>
+        <v>0.008165</v>
       </c>
       <c r="E36" s="1">
-        <v>0.013479</v>
+        <v>0.008163999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41333</v>
+        <v>41305</v>
       </c>
       <c r="B37" s="1">
-        <v>0.007465</v>
+        <v>0.013471</v>
       </c>
       <c r="C37" s="1">
-        <v>0.007458</v>
+        <v>0.013571</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00747</v>
+        <v>0.013456</v>
       </c>
       <c r="E37" s="1">
-        <v>0.007467000000000001</v>
+        <v>0.013479</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41364</v>
+        <v>41333</v>
       </c>
       <c r="B38" s="1">
-        <v>0.015025</v>
+        <v>0.007465</v>
       </c>
       <c r="C38" s="1">
-        <v>0.015027</v>
+        <v>0.007458</v>
       </c>
       <c r="D38" s="1">
-        <v>0.015024</v>
+        <v>0.00747</v>
       </c>
       <c r="E38" s="1">
-        <v>0.015024</v>
+        <v>0.007467000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41394</v>
+        <v>41364</v>
       </c>
       <c r="B39" s="1">
-        <v>0.025087</v>
+        <v>0.015025</v>
       </c>
       <c r="C39" s="1">
-        <v>0.025091</v>
+        <v>0.015027</v>
       </c>
       <c r="D39" s="1">
-        <v>0.025086</v>
+        <v>0.015024</v>
       </c>
       <c r="E39" s="1">
-        <v>0.025087</v>
+        <v>0.015024</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41425</v>
+        <v>41394</v>
       </c>
       <c r="B40" s="1">
-        <v>-0.016671</v>
+        <v>0.025087</v>
       </c>
       <c r="C40" s="1">
-        <v>-0.016673</v>
+        <v>0.025091</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.01667</v>
+        <v>0.025086</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01667</v>
+        <v>0.025087</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41455</v>
+        <v>41425</v>
       </c>
       <c r="B41" s="1">
-        <v>-0.018163</v>
+        <v>-0.016671</v>
       </c>
       <c r="C41" s="1">
-        <v>-0.018165</v>
+        <v>-0.016673</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.01816</v>
+        <v>-0.01667</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.018162</v>
+        <v>-0.01667</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41486</v>
+        <v>41455</v>
       </c>
       <c r="B42" s="1">
-        <v>0.014254</v>
+        <v>-0.018163</v>
       </c>
       <c r="C42" s="1">
-        <v>0.014257</v>
+        <v>-0.018165</v>
       </c>
       <c r="D42" s="1">
-        <v>0.014252</v>
+        <v>-0.01816</v>
       </c>
       <c r="E42" s="1">
-        <v>0.014253</v>
+        <v>-0.018162</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41517</v>
+        <v>41486</v>
       </c>
       <c r="B43" s="1">
-        <v>-0.011051</v>
+        <v>0.014254</v>
       </c>
       <c r="C43" s="1">
-        <v>-0.011022</v>
+        <v>0.014257</v>
       </c>
       <c r="D43" s="1">
-        <v>-0.011036</v>
+        <v>0.014252</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.011036</v>
+        <v>0.014253</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41547</v>
+        <v>41517</v>
       </c>
       <c r="B44" s="1">
-        <v>0.020117</v>
+        <v>-0.011051</v>
       </c>
       <c r="C44" s="1">
-        <v>0.02012</v>
+        <v>-0.011022</v>
       </c>
       <c r="D44" s="1">
-        <v>0.020114</v>
+        <v>-0.011036</v>
       </c>
       <c r="E44" s="1">
-        <v>0.020116</v>
+        <v>-0.011036</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41578</v>
+        <v>41547</v>
       </c>
       <c r="B45" s="1">
-        <v>0.02223</v>
+        <v>0.020117</v>
       </c>
       <c r="C45" s="1">
-        <v>0.022236</v>
+        <v>0.02012</v>
       </c>
       <c r="D45" s="1">
-        <v>0.022227</v>
+        <v>0.020114</v>
       </c>
       <c r="E45" s="1">
-        <v>0.022229</v>
+        <v>0.020116</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41608</v>
+        <v>41578</v>
       </c>
       <c r="B46" s="1">
-        <v>0.001657</v>
+        <v>0.02223</v>
       </c>
       <c r="C46" s="1">
-        <v>0.001657</v>
+        <v>0.022236</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00166</v>
+        <v>0.022227</v>
       </c>
       <c r="E46" s="1">
-        <v>0.001659</v>
+        <v>0.022229</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41639</v>
+        <v>41608</v>
       </c>
       <c r="B47" s="1">
-        <v>0.007311</v>
+        <v>0.001657</v>
       </c>
       <c r="C47" s="1">
-        <v>0.007312</v>
+        <v>0.001657</v>
       </c>
       <c r="D47" s="1">
-        <v>0.00731</v>
+        <v>0.00166</v>
       </c>
       <c r="E47" s="1">
-        <v>0.00731</v>
+        <v>0.001659</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41670</v>
+        <v>41639</v>
       </c>
       <c r="B48" s="1">
-        <v>0.001869</v>
+        <v>0.007311</v>
       </c>
       <c r="C48" s="1">
-        <v>0.001871</v>
+        <v>0.007312</v>
       </c>
       <c r="D48" s="1">
-        <v>0.001871</v>
+        <v>0.00731</v>
       </c>
       <c r="E48" s="1">
-        <v>0.001871</v>
+        <v>0.00731</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="B49" s="1">
-        <v>0.022899</v>
+        <v>0.001869</v>
       </c>
       <c r="C49" s="1">
-        <v>0.02297</v>
+        <v>0.001871</v>
       </c>
       <c r="D49" s="1">
-        <v>0.022973</v>
+        <v>0.001871</v>
       </c>
       <c r="E49" s="1">
-        <v>0.02296</v>
+        <v>0.001871</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="B50" s="1">
-        <v>0.007581</v>
+        <v>0.022899</v>
       </c>
       <c r="C50" s="1">
-        <v>0.007582</v>
+        <v>0.02297</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007581</v>
+        <v>0.022973</v>
       </c>
       <c r="E50" s="1">
-        <v>0.007581</v>
+        <v>0.02296</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="B51" s="1">
-        <v>0.002559</v>
+        <v>0.007581</v>
       </c>
       <c r="C51" s="1">
-        <v>0.002559</v>
+        <v>0.007582</v>
       </c>
       <c r="D51" s="1">
-        <v>0.002565</v>
+        <v>0.007581</v>
       </c>
       <c r="E51" s="1">
-        <v>0.002563</v>
+        <v>0.007581</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="B52" s="1">
-        <v>0.018616</v>
+        <v>0.002559</v>
       </c>
       <c r="C52" s="1">
-        <v>0.018622</v>
+        <v>0.002559</v>
       </c>
       <c r="D52" s="1">
-        <v>0.018616</v>
+        <v>0.002565</v>
       </c>
       <c r="E52" s="1">
-        <v>0.018617</v>
+        <v>0.002563</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="B53" s="1">
-        <v>0.007592</v>
+        <v>0.018616</v>
       </c>
       <c r="C53" s="1">
-        <v>0.007592</v>
+        <v>0.018622</v>
       </c>
       <c r="D53" s="1">
-        <v>0.00759</v>
+        <v>0.018616</v>
       </c>
       <c r="E53" s="1">
-        <v>0.007591</v>
+        <v>0.018617</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="B54" s="1">
-        <v>-0.003537</v>
+        <v>0.007592</v>
       </c>
       <c r="C54" s="1">
-        <v>-0.003536</v>
+        <v>0.007592</v>
       </c>
       <c r="D54" s="1">
-        <v>-0.003534</v>
+        <v>0.00759</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.003535</v>
+        <v>0.007591</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="B55" s="1">
-        <v>0.024396</v>
+        <v>-0.003537</v>
       </c>
       <c r="C55" s="1">
-        <v>0.024396</v>
+        <v>-0.003536</v>
       </c>
       <c r="D55" s="1">
-        <v>0.0244</v>
+        <v>-0.003534</v>
       </c>
       <c r="E55" s="1">
-        <v>0.024399</v>
+        <v>-0.003535</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="B56" s="1">
-        <v>-0.018814</v>
+        <v>0.024396</v>
       </c>
       <c r="C56" s="1">
-        <v>-0.018804</v>
+        <v>0.024396</v>
       </c>
       <c r="D56" s="1">
-        <v>-0.018789</v>
+        <v>0.0244</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.018796</v>
+        <v>0.024399</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="B57" s="1">
-        <v>0.012246</v>
+        <v>-0.018814</v>
       </c>
       <c r="C57" s="1">
-        <v>0.012244</v>
+        <v>-0.018804</v>
       </c>
       <c r="D57" s="1">
-        <v>0.012254</v>
+        <v>-0.018789</v>
       </c>
       <c r="E57" s="1">
-        <v>0.012251</v>
+        <v>-0.018796</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="B58" s="1">
-        <v>0.016811</v>
+        <v>0.012246</v>
       </c>
       <c r="C58" s="1">
-        <v>0.01682</v>
+        <v>0.012244</v>
       </c>
       <c r="D58" s="1">
-        <v>0.01682</v>
+        <v>0.012254</v>
       </c>
       <c r="E58" s="1">
-        <v>0.016818</v>
+        <v>0.012251</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="B59" s="1">
-        <v>0.002068</v>
+        <v>0.016811</v>
       </c>
       <c r="C59" s="1">
-        <v>0.002076</v>
+        <v>0.01682</v>
       </c>
       <c r="D59" s="1">
-        <v>0.00208</v>
+        <v>0.01682</v>
       </c>
       <c r="E59" s="1">
-        <v>0.002077</v>
+        <v>0.016818</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="B60" s="1">
-        <v>0.023362</v>
+        <v>0.002068</v>
       </c>
       <c r="C60" s="1">
-        <v>0.023357</v>
+        <v>0.002076</v>
       </c>
       <c r="D60" s="1">
-        <v>0.02335</v>
+        <v>0.00208</v>
       </c>
       <c r="E60" s="1">
-        <v>0.023353</v>
+        <v>0.002077</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="B61" s="1">
-        <v>0.007672</v>
+        <v>0.023362</v>
       </c>
       <c r="C61" s="1">
-        <v>0.007672</v>
+        <v>0.023357</v>
       </c>
       <c r="D61" s="1">
-        <v>0.007671</v>
+        <v>0.02335</v>
       </c>
       <c r="E61" s="1">
-        <v>0.007671</v>
+        <v>0.023353</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="B62" s="1">
-        <v>0.000725</v>
+        <v>0.007672</v>
       </c>
       <c r="C62" s="1">
-        <v>0.000731</v>
+        <v>0.007672</v>
       </c>
       <c r="D62" s="1">
-        <v>0.000725</v>
+        <v>0.007671</v>
       </c>
       <c r="E62" s="1">
-        <v>0.000726</v>
+        <v>0.007671</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="B63" s="1">
-        <v>0.000483</v>
+        <v>0.000725</v>
       </c>
       <c r="C63" s="1">
-        <v>0.000483</v>
+        <v>0.000731</v>
       </c>
       <c r="D63" s="1">
-        <v>0.000483</v>
+        <v>0.000725</v>
       </c>
       <c r="E63" s="1">
-        <v>0.000483</v>
+        <v>0.000726</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="B64" s="1">
-        <v>-0.001447</v>
+        <v>0.000483</v>
       </c>
       <c r="C64" s="1">
-        <v>-0.001447</v>
+        <v>0.000483</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.001447</v>
+        <v>0.000483</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.001447</v>
+        <v>0.000483</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="B65" s="1">
-        <v>-0.019129</v>
+        <v>-0.001447</v>
       </c>
       <c r="C65" s="1">
-        <v>-0.019129</v>
+        <v>-0.001447</v>
       </c>
       <c r="D65" s="1">
-        <v>-0.019127</v>
+        <v>-0.001447</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.019128</v>
+        <v>-0.001447</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="B66" s="1">
-        <v>0.010715</v>
+        <v>-0.019129</v>
       </c>
       <c r="C66" s="1">
-        <v>0.010715</v>
+        <v>-0.019129</v>
       </c>
       <c r="D66" s="1">
-        <v>0.010714</v>
+        <v>-0.019127</v>
       </c>
       <c r="E66" s="1">
-        <v>0.010714</v>
+        <v>-0.019128</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="B67" s="1">
-        <v>-0.027128</v>
+        <v>0.010715</v>
       </c>
       <c r="C67" s="1">
-        <v>-0.027126</v>
+        <v>0.010715</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.027125</v>
+        <v>0.010714</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.027126</v>
+        <v>0.010714</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="B68" s="1">
-        <v>-0.00876</v>
+        <v>-0.027128</v>
       </c>
       <c r="C68" s="1">
-        <v>-0.00876</v>
+        <v>-0.027126</v>
       </c>
       <c r="D68" s="1">
-        <v>-0.008758999999999999</v>
+        <v>-0.027125</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.00876</v>
+        <v>-0.027126</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="B69" s="1">
-        <v>0.028753</v>
+        <v>-0.00876</v>
       </c>
       <c r="C69" s="1">
-        <v>0.028716</v>
+        <v>-0.00876</v>
       </c>
       <c r="D69" s="1">
-        <v>0.028798</v>
+        <v>-0.008758999999999999</v>
       </c>
       <c r="E69" s="1">
-        <v>0.028775</v>
+        <v>-0.00876</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="B70" s="1">
-        <v>-0.003828</v>
+        <v>0.028753</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.003819</v>
+        <v>0.028716</v>
       </c>
       <c r="D70" s="1">
-        <v>-0.003807</v>
+        <v>0.028798</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.003813</v>
+        <v>0.028775</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="B71" s="1">
-        <v>-0.008187</v>
+        <v>-0.003828</v>
       </c>
       <c r="C71" s="1">
-        <v>-0.008187</v>
+        <v>-0.003819</v>
       </c>
       <c r="D71" s="1">
-        <v>-0.008184</v>
+        <v>-0.003807</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.008185</v>
+        <v>-0.003813</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="B72" s="1">
-        <v>-0.014827</v>
+        <v>-0.008187</v>
       </c>
       <c r="C72" s="1">
-        <v>-0.01483</v>
+        <v>-0.008187</v>
       </c>
       <c r="D72" s="1">
-        <v>-0.014826</v>
+        <v>-0.008184</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.014827</v>
+        <v>-0.008185</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="B73" s="1">
-        <v>0.007148</v>
+        <v>-0.014827</v>
       </c>
       <c r="C73" s="1">
-        <v>0.007148</v>
+        <v>-0.01483</v>
       </c>
       <c r="D73" s="1">
-        <v>0.007150999999999999</v>
+        <v>-0.014826</v>
       </c>
       <c r="E73" s="1">
-        <v>0.00715</v>
+        <v>-0.014827</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="B74" s="1">
-        <v>0.034737</v>
+        <v>0.007148</v>
       </c>
       <c r="C74" s="1">
-        <v>0.034736</v>
+        <v>0.007148</v>
       </c>
       <c r="D74" s="1">
-        <v>0.034733</v>
+        <v>0.007150999999999999</v>
       </c>
       <c r="E74" s="1">
-        <v>0.034734</v>
+        <v>0.00715</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="B75" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.034737</v>
       </c>
       <c r="C75" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.034736</v>
       </c>
       <c r="D75" s="1">
-        <v>0.009242</v>
+        <v>0.034733</v>
       </c>
       <c r="E75" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.034734</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="B76" s="1">
-        <v>0.001881</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="C76" s="1">
-        <v>0.001883</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001884</v>
+        <v>0.009242</v>
       </c>
       <c r="E76" s="1">
-        <v>0.001883</v>
+        <v>0.009242999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="B77" s="1">
-        <v>0.010067</v>
+        <v>0.001881</v>
       </c>
       <c r="C77" s="1">
-        <v>0.010098</v>
+        <v>0.001883</v>
       </c>
       <c r="D77" s="1">
-        <v>0.01013</v>
+        <v>0.001884</v>
       </c>
       <c r="E77" s="1">
-        <v>0.010112</v>
+        <v>0.001883</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="B78" s="1">
-        <v>0.021267</v>
+        <v>0.010067</v>
       </c>
       <c r="C78" s="1">
-        <v>0.021267</v>
+        <v>0.010098</v>
       </c>
       <c r="D78" s="1">
-        <v>0.021264</v>
+        <v>0.01013</v>
       </c>
       <c r="E78" s="1">
-        <v>0.021265</v>
+        <v>0.010112</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="B79" s="1">
-        <v>0.001143</v>
+        <v>0.021267</v>
       </c>
       <c r="C79" s="1">
-        <v>0.001146</v>
+        <v>0.021267</v>
       </c>
       <c r="D79" s="1">
-        <v>0.001146</v>
+        <v>0.021264</v>
       </c>
       <c r="E79" s="1">
-        <v>0.001145</v>
+        <v>0.021265</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="B80" s="1">
-        <v>0.00083</v>
+        <v>0.001143</v>
       </c>
       <c r="C80" s="1">
-        <v>0.0008309999999999999</v>
+        <v>0.001146</v>
       </c>
       <c r="D80" s="1">
-        <v>0.00083</v>
+        <v>0.001146</v>
       </c>
       <c r="E80" s="1">
-        <v>0.00083</v>
+        <v>0.001145</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="B81" s="1">
-        <v>-0.011784</v>
+        <v>0.00083</v>
       </c>
       <c r="C81" s="1">
-        <v>-0.011773</v>
+        <v>0.0008309999999999999</v>
       </c>
       <c r="D81" s="1">
-        <v>-0.011778</v>
+        <v>0.00083</v>
       </c>
       <c r="E81" s="1">
-        <v>-0.011778</v>
+        <v>0.00083</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="B82" s="1">
-        <v>-0.011504</v>
+        <v>-0.011784</v>
       </c>
       <c r="C82" s="1">
-        <v>-0.011503</v>
+        <v>-0.011773</v>
       </c>
       <c r="D82" s="1">
-        <v>-0.011501</v>
+        <v>-0.011778</v>
       </c>
       <c r="E82" s="1">
-        <v>-0.011502</v>
+        <v>-0.011778</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="B83" s="1">
-        <v>0.010278</v>
+        <v>-0.011504</v>
       </c>
       <c r="C83" s="1">
-        <v>0.010006</v>
+        <v>-0.011503</v>
       </c>
       <c r="D83" s="1">
-        <v>0.010143</v>
+        <v>-0.011501</v>
       </c>
       <c r="E83" s="1">
-        <v>0.010141</v>
+        <v>-0.011502</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="B84" s="1">
-        <v>0.01169</v>
+        <v>0.010278</v>
       </c>
       <c r="C84" s="1">
-        <v>0.011614</v>
+        <v>0.010006</v>
       </c>
       <c r="D84" s="1">
-        <v>0.011658</v>
+        <v>0.010143</v>
       </c>
       <c r="E84" s="1">
-        <v>0.011655</v>
+        <v>0.010141</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="B85" s="1">
-        <v>0.017668</v>
+        <v>0.01169</v>
       </c>
       <c r="C85" s="1">
-        <v>0.017672</v>
+        <v>0.011614</v>
       </c>
       <c r="D85" s="1">
-        <v>0.017677</v>
+        <v>0.011658</v>
       </c>
       <c r="E85" s="1">
-        <v>0.017674</v>
+        <v>0.011655</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="B86" s="1">
-        <v>0.005195</v>
+        <v>0.017668</v>
       </c>
       <c r="C86" s="1">
-        <v>0.005195</v>
+        <v>0.017672</v>
       </c>
       <c r="D86" s="1">
-        <v>0.005195</v>
+        <v>0.017677</v>
       </c>
       <c r="E86" s="1">
-        <v>0.005195</v>
+        <v>0.017674</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="B87" s="1">
-        <v>0.013597</v>
+        <v>0.005195</v>
       </c>
       <c r="C87" s="1">
-        <v>0.0136</v>
+        <v>0.005195</v>
       </c>
       <c r="D87" s="1">
-        <v>0.013598</v>
+        <v>0.005195</v>
       </c>
       <c r="E87" s="1">
-        <v>0.013598</v>
+        <v>0.005195</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="B88" s="1">
-        <v>0.015261</v>
+        <v>0.013597</v>
       </c>
       <c r="C88" s="1">
-        <v>0.015261</v>
+        <v>0.0136</v>
       </c>
       <c r="D88" s="1">
-        <v>0.015262</v>
+        <v>0.013598</v>
       </c>
       <c r="E88" s="1">
-        <v>0.015262</v>
+        <v>0.013598</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="B89" s="1">
-        <v>0.005246</v>
+        <v>0.015261</v>
       </c>
       <c r="C89" s="1">
-        <v>0.005249</v>
+        <v>0.015261</v>
       </c>
       <c r="D89" s="1">
-        <v>0.005264</v>
+        <v>0.015262</v>
       </c>
       <c r="E89" s="1">
-        <v>0.005257</v>
+        <v>0.015262</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="B90" s="1">
-        <v>0.011307</v>
+        <v>0.005246</v>
       </c>
       <c r="C90" s="1">
-        <v>0.011307</v>
+        <v>0.005249</v>
       </c>
       <c r="D90" s="1">
-        <v>0.011306</v>
+        <v>0.005264</v>
       </c>
       <c r="E90" s="1">
-        <v>0.011307</v>
+        <v>0.005257</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="B91" s="1">
-        <v>0.010725</v>
+        <v>0.011307</v>
       </c>
       <c r="C91" s="1">
-        <v>0.010724</v>
+        <v>0.011307</v>
       </c>
       <c r="D91" s="1">
-        <v>0.010725</v>
+        <v>0.011306</v>
       </c>
       <c r="E91" s="1">
-        <v>0.010725</v>
+        <v>0.011307</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="B92" s="1">
-        <v>0.008107999999999999</v>
+        <v>0.010725</v>
       </c>
       <c r="C92" s="1">
-        <v>0.008107</v>
+        <v>0.010724</v>
       </c>
       <c r="D92" s="1">
-        <v>0.008107</v>
+        <v>0.010725</v>
       </c>
       <c r="E92" s="1">
-        <v>0.008107</v>
+        <v>0.010725</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="B93" s="1">
-        <v>0.011965</v>
+        <v>0.008107999999999999</v>
       </c>
       <c r="C93" s="1">
-        <v>0.011963</v>
+        <v>0.008107</v>
       </c>
       <c r="D93" s="1">
-        <v>0.011963</v>
+        <v>0.008107</v>
       </c>
       <c r="E93" s="1">
-        <v>0.011964</v>
+        <v>0.008107</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="B94" s="1">
-        <v>0.013354</v>
+        <v>0.011965</v>
       </c>
       <c r="C94" s="1">
-        <v>0.013354</v>
+        <v>0.011963</v>
       </c>
       <c r="D94" s="1">
-        <v>0.013356</v>
+        <v>0.011963</v>
       </c>
       <c r="E94" s="1">
-        <v>0.013355</v>
+        <v>0.011964</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="B95" s="1">
-        <v>0.011831</v>
+        <v>0.013354</v>
       </c>
       <c r="C95" s="1">
-        <v>0.012308</v>
+        <v>0.013354</v>
       </c>
       <c r="D95" s="1">
-        <v>0.011977</v>
+        <v>0.013356</v>
       </c>
       <c r="E95" s="1">
-        <v>0.012016</v>
+        <v>0.013355</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="B96" s="1">
-        <v>0.024717</v>
+        <v>0.011831</v>
       </c>
       <c r="C96" s="1">
-        <v>0.024777</v>
+        <v>0.012308</v>
       </c>
       <c r="D96" s="1">
-        <v>0.016299</v>
+        <v>0.011977</v>
       </c>
       <c r="E96" s="1">
-        <v>0.019876</v>
+        <v>0.012016</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B97" s="1">
-        <v>-0.029926</v>
+        <v>0.024717</v>
       </c>
       <c r="C97" s="1">
-        <v>-0.029924</v>
+        <v>0.024777</v>
       </c>
       <c r="D97" s="1">
-        <v>-0.029905</v>
+        <v>0.016299</v>
       </c>
       <c r="E97" s="1">
-        <v>-0.029913</v>
+        <v>0.019876</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B98" s="1">
-        <v>0.001458</v>
+        <v>-0.029926</v>
       </c>
       <c r="C98" s="1">
-        <v>0.001458</v>
+        <v>-0.029924</v>
       </c>
       <c r="D98" s="1">
-        <v>0.008959</v>
+        <v>-0.029905</v>
       </c>
       <c r="E98" s="1">
-        <v>0.005778999999999999</v>
+        <v>-0.029913</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="B99" s="1">
-        <v>-0.002009</v>
+        <v>0.001458</v>
       </c>
       <c r="C99" s="1">
-        <v>-0.002009</v>
+        <v>0.001458</v>
       </c>
       <c r="D99" s="1">
-        <v>-0.006636</v>
+        <v>0.008959</v>
       </c>
       <c r="E99" s="1">
-        <v>-0.004682</v>
+        <v>0.005778999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="B100" s="1">
-        <v>0.006971000000000001</v>
+        <v>-0.002009</v>
       </c>
       <c r="C100" s="1">
-        <v>0.006965</v>
+        <v>-0.002009</v>
       </c>
       <c r="D100" s="1">
-        <v>0.010673</v>
+        <v>-0.006636</v>
       </c>
       <c r="E100" s="1">
-        <v>0.009103</v>
+        <v>-0.004682</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="B101" s="1">
-        <v>-0.002816</v>
+        <v>0.006971000000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>-0.00284</v>
+        <v>0.006965</v>
       </c>
       <c r="D101" s="1">
-        <v>-0.001519</v>
+        <v>0.010673</v>
       </c>
       <c r="E101" s="1">
-        <v>-0.002073</v>
+        <v>0.009103</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="B102" s="1">
-        <v>0.013499</v>
+        <v>-0.002816</v>
       </c>
       <c r="C102" s="1">
-        <v>0.013494</v>
+        <v>-0.00284</v>
       </c>
       <c r="D102" s="1">
-        <v>0.005810999999999999</v>
+        <v>-0.001519</v>
       </c>
       <c r="E102" s="1">
-        <v>0.009061</v>
+        <v>-0.002073</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="B103" s="1">
-        <v>0.008215999999999999</v>
+        <v>0.013499</v>
       </c>
       <c r="C103" s="1">
-        <v>0.00822</v>
+        <v>0.013494</v>
       </c>
       <c r="D103" s="1">
-        <v>0.010221</v>
+        <v>0.005810999999999999</v>
       </c>
       <c r="E103" s="1">
-        <v>0.00937</v>
+        <v>0.009061</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="B104" s="1">
-        <v>-0.005064</v>
+        <v>0.008215999999999999</v>
       </c>
       <c r="C104" s="1">
-        <v>-0.005064999999999999</v>
+        <v>0.00822</v>
       </c>
       <c r="D104" s="1">
-        <v>-0.011547</v>
+        <v>0.010221</v>
       </c>
       <c r="E104" s="1">
-        <v>-0.008794</v>
+        <v>0.00937</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="B105" s="1">
-        <v>-0.040555</v>
+        <v>-0.005064</v>
       </c>
       <c r="C105" s="1">
-        <v>-0.040551</v>
+        <v>-0.005064999999999999</v>
       </c>
       <c r="D105" s="1">
-        <v>-0.039562</v>
+        <v>-0.011547</v>
       </c>
       <c r="E105" s="1">
-        <v>-0.039984</v>
+        <v>-0.008794</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="B106" s="1">
-        <v>0.01145</v>
+        <v>-0.040555</v>
       </c>
       <c r="C106" s="1">
-        <v>0.011447</v>
+        <v>-0.040551</v>
       </c>
       <c r="D106" s="1">
-        <v>0.013939</v>
+        <v>-0.039562</v>
       </c>
       <c r="E106" s="1">
-        <v>0.012878</v>
+        <v>-0.039984</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="B107" s="1">
-        <v>-0.016159</v>
+        <v>0.01145</v>
       </c>
       <c r="C107" s="1">
-        <v>-0.01617</v>
+        <v>0.011447</v>
       </c>
       <c r="D107" s="1">
-        <v>0.005926</v>
+        <v>0.013939</v>
       </c>
       <c r="E107" s="1">
-        <v>-0.003477</v>
+        <v>0.012878</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="B108" s="1">
-        <v>0.037035</v>
+        <v>-0.016159</v>
       </c>
       <c r="C108" s="1">
-        <v>0.037039</v>
+        <v>-0.01617</v>
       </c>
       <c r="D108" s="1">
-        <v>0.028362</v>
+        <v>0.005926</v>
       </c>
       <c r="E108" s="1">
-        <v>0.032009</v>
+        <v>-0.003477</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="B109" s="1">
-        <v>0.010188</v>
+        <v>0.037035</v>
       </c>
       <c r="C109" s="1">
-        <v>0.010184</v>
+        <v>0.037039</v>
       </c>
       <c r="D109" s="1">
-        <v>0.002933</v>
+        <v>0.028362</v>
       </c>
       <c r="E109" s="1">
-        <v>0.005999</v>
+        <v>0.032009</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="B110" s="1">
-        <v>0.021135</v>
+        <v>0.010188</v>
       </c>
       <c r="C110" s="1">
-        <v>0.021127</v>
+        <v>0.010184</v>
       </c>
       <c r="D110" s="1">
-        <v>0.032959</v>
+        <v>0.002933</v>
       </c>
       <c r="E110" s="1">
-        <v>0.027935</v>
+        <v>0.005999</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="B111" s="1">
-        <v>0.010592</v>
+        <v>0.021135</v>
       </c>
       <c r="C111" s="1">
-        <v>0.010584</v>
+        <v>0.021127</v>
       </c>
       <c r="D111" s="1">
-        <v>0.001077</v>
+        <v>0.032959</v>
       </c>
       <c r="E111" s="1">
-        <v>0.00509</v>
+        <v>0.027935</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="B112" s="1">
-        <v>-0.004251</v>
+        <v>0.010592</v>
       </c>
       <c r="C112" s="1">
-        <v>-0.004255</v>
+        <v>0.010584</v>
       </c>
       <c r="D112" s="1">
-        <v>0.020519</v>
+        <v>0.001077</v>
       </c>
       <c r="E112" s="1">
-        <v>0.010002</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="B113" s="1">
-        <v>0.033344</v>
+        <v>-0.004251</v>
       </c>
       <c r="C113" s="1">
-        <v>0.033341</v>
+        <v>-0.004255</v>
       </c>
       <c r="D113" s="1">
-        <v>0.026978</v>
+        <v>0.020519</v>
       </c>
       <c r="E113" s="1">
-        <v>0.029644</v>
+        <v>0.010002</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="B114" s="1">
-        <v>0.005238</v>
+        <v>0.033344</v>
       </c>
       <c r="C114" s="1">
-        <v>0.00523</v>
+        <v>0.033341</v>
       </c>
       <c r="D114" s="1">
-        <v>0.004394</v>
+        <v>0.026978</v>
       </c>
       <c r="E114" s="1">
-        <v>0.004747</v>
+        <v>0.029644</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="B115" s="1">
-        <v>0.024274</v>
+        <v>0.005238</v>
       </c>
       <c r="C115" s="1">
-        <v>0.024213</v>
+        <v>0.00523</v>
       </c>
       <c r="D115" s="1">
-        <v>0.05872</v>
+        <v>0.004394</v>
       </c>
       <c r="E115" s="1">
-        <v>0.044206</v>
+        <v>0.004747</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="B116" s="1">
-        <v>0.002153</v>
+        <v>0.024274</v>
       </c>
       <c r="C116" s="1">
-        <v>0.002218</v>
+        <v>0.024213</v>
       </c>
       <c r="D116" s="1">
-        <v>-0.009623</v>
+        <v>0.05872</v>
       </c>
       <c r="E116" s="1">
-        <v>-0.004635</v>
+        <v>0.044206</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="B117" s="1">
-        <v>0.005681</v>
+        <v>0.002153</v>
       </c>
       <c r="C117" s="1">
-        <v>0.006085</v>
+        <v>0.002218</v>
       </c>
       <c r="D117" s="1">
-        <v>-0.000153</v>
+        <v>-0.009623</v>
       </c>
       <c r="E117" s="1">
-        <v>0.002441</v>
+        <v>-0.004635</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="B118" s="1">
-        <v>0.010361</v>
+        <v>0.005681</v>
       </c>
       <c r="C118" s="1">
-        <v>0.010705</v>
+        <v>0.006085</v>
       </c>
       <c r="D118" s="1">
-        <v>0.006349</v>
+        <v>-0.000153</v>
       </c>
       <c r="E118" s="1">
-        <v>0.008153000000000001</v>
+        <v>0.002441</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="B119" s="1">
-        <v>0.008629</v>
+        <v>0.010361</v>
       </c>
       <c r="C119" s="1">
-        <v>0.007443</v>
+        <v>0.010705</v>
       </c>
       <c r="D119" s="1">
-        <v>-0.007508</v>
+        <v>0.006349</v>
       </c>
       <c r="E119" s="1">
-        <v>-0.000751</v>
+        <v>0.008153000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="B120" s="1">
-        <v>0.010016</v>
+        <v>0.008629</v>
       </c>
       <c r="C120" s="1">
-        <v>0.009792</v>
+        <v>0.007443</v>
       </c>
       <c r="D120" s="1">
-        <v>0.037942</v>
+        <v>-0.007508</v>
       </c>
       <c r="E120" s="1">
-        <v>0.02564</v>
+        <v>-0.000751</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="B121" s="1">
-        <v>-0.022208</v>
+        <v>0.010016</v>
       </c>
       <c r="C121" s="1">
-        <v>-0.020781</v>
+        <v>0.009792</v>
       </c>
       <c r="D121" s="1">
-        <v>0.018639</v>
+        <v>0.037942</v>
       </c>
       <c r="E121" s="1">
-        <v>0.001266</v>
+        <v>0.02564</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="B122" s="1">
-        <v>-0.07419100000000001</v>
+        <v>-0.022208</v>
       </c>
       <c r="C122" s="1">
-        <v>-0.07051</v>
+        <v>-0.020781</v>
       </c>
       <c r="D122" s="1">
-        <v>-0.012191</v>
+        <v>0.018639</v>
       </c>
       <c r="E122" s="1">
-        <v>-0.037684</v>
+        <v>0.001266</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="B123" s="1">
-        <v>0.056168</v>
+        <v>-0.07419100000000001</v>
       </c>
       <c r="C123" s="1">
-        <v>0.05305</v>
+        <v>-0.07051</v>
       </c>
       <c r="D123" s="1">
-        <v>0.037446</v>
+        <v>-0.012191</v>
       </c>
       <c r="E123" s="1">
-        <v>0.044486</v>
+        <v>-0.037684</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="B124" s="1">
-        <v>0.015041</v>
+        <v>0.056168</v>
       </c>
       <c r="C124" s="1">
-        <v>0.013544</v>
+        <v>0.05305</v>
       </c>
       <c r="D124" s="1">
-        <v>-0.004533</v>
+        <v>0.037446</v>
       </c>
       <c r="E124" s="1">
-        <v>0.003246</v>
+        <v>0.044486</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="B125" s="1">
-        <v>0.012864</v>
+        <v>0.015041</v>
       </c>
       <c r="C125" s="1">
-        <v>0.012183</v>
+        <v>0.013544</v>
       </c>
       <c r="D125" s="1">
-        <v>0.00859</v>
+        <v>-0.004533</v>
       </c>
       <c r="E125" s="1">
-        <v>0.010239</v>
+        <v>0.003246</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="B126" s="1">
-        <v>0.034786</v>
+        <v>0.012864</v>
       </c>
       <c r="C126" s="1">
-        <v>0.033863</v>
+        <v>0.012183</v>
       </c>
       <c r="D126" s="1">
-        <v>0.044461</v>
+        <v>0.00859</v>
       </c>
       <c r="E126" s="1">
-        <v>0.040234</v>
+        <v>0.010239</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="B127" s="1">
-        <v>0.017061</v>
+        <v>0.034786</v>
       </c>
       <c r="C127" s="1">
-        <v>0.016036</v>
+        <v>0.033863</v>
       </c>
       <c r="D127" s="1">
-        <v>-0.017265</v>
+        <v>0.044461</v>
       </c>
       <c r="E127" s="1">
-        <v>-0.003186</v>
+        <v>0.040234</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="B128" s="1">
-        <v>-0.014281</v>
+        <v>0.017061</v>
       </c>
       <c r="C128" s="1">
-        <v>-0.013697</v>
+        <v>0.016036</v>
       </c>
       <c r="D128" s="1">
-        <v>-0.005055</v>
+        <v>-0.017265</v>
       </c>
       <c r="E128" s="1">
-        <v>-0.008924999999999999</v>
+        <v>-0.003186</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="B129" s="1">
-        <v>-0.016704</v>
+        <v>-0.014281</v>
       </c>
       <c r="C129" s="1">
-        <v>-0.015702</v>
+        <v>-0.013697</v>
       </c>
       <c r="D129" s="1">
-        <v>-0.023545</v>
+        <v>-0.005055</v>
       </c>
       <c r="E129" s="1">
-        <v>-0.020374</v>
+        <v>-0.008924999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="B130" s="1">
-        <v>0.065382</v>
+        <v>-0.016704</v>
       </c>
       <c r="C130" s="1">
-        <v>0.06457600000000001</v>
+        <v>-0.015702</v>
       </c>
       <c r="D130" s="1">
-        <v>0.044108</v>
+        <v>-0.023545</v>
       </c>
       <c r="E130" s="1">
-        <v>0.053226</v>
+        <v>-0.020374</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="B131" s="1">
-        <v>0.021767</v>
+        <v>0.065382</v>
       </c>
       <c r="C131" s="1">
-        <v>0.022151</v>
+        <v>0.06457600000000001</v>
       </c>
       <c r="D131" s="1">
-        <v>0.007529</v>
+        <v>0.044108</v>
       </c>
       <c r="E131" s="1">
-        <v>0.013933</v>
+        <v>0.053226</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="B132" s="1">
-        <v>-0.013168</v>
+        <v>0.021767</v>
       </c>
       <c r="C132" s="1">
-        <v>-0.012301</v>
+        <v>0.022151</v>
       </c>
       <c r="D132" s="1">
-        <v>-0.0263</v>
+        <v>0.007529</v>
       </c>
       <c r="E132" s="1">
-        <v>-0.020192</v>
+        <v>0.013933</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44255</v>
+        <v>44227</v>
       </c>
       <c r="B133" s="1">
-        <v>-0.002234</v>
+        <v>-0.013168</v>
       </c>
       <c r="C133" s="1">
-        <v>-0.000961</v>
+        <v>-0.012301</v>
       </c>
       <c r="D133" s="1">
-        <v>-0.032485</v>
+        <v>-0.0263</v>
       </c>
       <c r="E133" s="1">
-        <v>-0.018451</v>
+        <v>-0.020192</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44286</v>
+        <v>44255</v>
       </c>
       <c r="B134" s="1">
-        <v>0.01294</v>
+        <v>-0.002234</v>
       </c>
       <c r="C134" s="1">
-        <v>0.013419</v>
+        <v>-0.000961</v>
       </c>
       <c r="D134" s="1">
-        <v>-0.010056</v>
+        <v>-0.032485</v>
       </c>
       <c r="E134" s="1">
-        <v>0.0006980000000000001</v>
+        <v>-0.018451</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44316</v>
+        <v>44286</v>
       </c>
       <c r="B135" s="1">
-        <v>0.028613</v>
+        <v>0.01294</v>
       </c>
       <c r="C135" s="1">
-        <v>0.028164</v>
+        <v>0.013419</v>
       </c>
       <c r="D135" s="1">
-        <v>0.029309</v>
+        <v>-0.010056</v>
       </c>
       <c r="E135" s="1">
-        <v>0.028885</v>
+        <v>0.0006980000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44347</v>
+        <v>44316</v>
       </c>
       <c r="B136" s="1">
-        <v>0.017591</v>
+        <v>0.028613</v>
       </c>
       <c r="C136" s="1">
-        <v>0.018329</v>
+        <v>0.028164</v>
       </c>
       <c r="D136" s="1">
-        <v>0.014168</v>
+        <v>0.029309</v>
       </c>
       <c r="E136" s="1">
-        <v>0.015936</v>
+        <v>0.028885</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44377</v>
+        <v>44347</v>
       </c>
       <c r="B137" s="1">
-        <v>0.018306</v>
+        <v>0.017591</v>
       </c>
       <c r="C137" s="1">
-        <v>0.017976</v>
+        <v>0.018329</v>
       </c>
       <c r="D137" s="1">
-        <v>0.02898</v>
+        <v>0.014168</v>
       </c>
       <c r="E137" s="1">
-        <v>0.023884</v>
+        <v>0.015936</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44408</v>
+        <v>44377</v>
       </c>
       <c r="B138" s="1">
-        <v>0.015858</v>
+        <v>0.018306</v>
       </c>
       <c r="C138" s="1">
-        <v>0.01554</v>
+        <v>0.017976</v>
       </c>
       <c r="D138" s="1">
-        <v>0.024879</v>
+        <v>0.02898</v>
       </c>
       <c r="E138" s="1">
-        <v>0.020584</v>
+        <v>0.023884</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44439</v>
+        <v>44408</v>
       </c>
       <c r="B139" s="1">
-        <v>0.014596</v>
+        <v>0.015858</v>
       </c>
       <c r="C139" s="1">
-        <v>0.014694</v>
+        <v>0.01554</v>
       </c>
       <c r="D139" s="1">
-        <v>0.007593</v>
+        <v>0.024879</v>
       </c>
       <c r="E139" s="1">
-        <v>0.010881</v>
+        <v>0.020584</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44469</v>
+        <v>44439</v>
       </c>
       <c r="B140" s="1">
-        <v>-0.034501</v>
+        <v>0.014596</v>
       </c>
       <c r="C140" s="1">
-        <v>-0.037832</v>
+        <v>0.014694</v>
       </c>
       <c r="D140" s="1">
-        <v>-0.030726</v>
+        <v>0.007593</v>
       </c>
       <c r="E140" s="1">
-        <v>-0.033223</v>
+        <v>0.010881</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44500</v>
+        <v>44469</v>
       </c>
       <c r="B141" s="1">
-        <v>0.034062</v>
+        <v>-0.034501</v>
       </c>
       <c r="C141" s="1">
-        <v>0.038085</v>
+        <v>-0.037832</v>
       </c>
       <c r="D141" s="1">
-        <v>0.027294</v>
+        <v>-0.030726</v>
       </c>
       <c r="E141" s="1">
-        <v>0.031335</v>
+        <v>-0.033223</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44530</v>
+        <v>44500</v>
       </c>
       <c r="B142" s="1">
-        <v>0.014583</v>
+        <v>0.034062</v>
       </c>
       <c r="C142" s="1">
-        <v>0.020934</v>
+        <v>0.038085</v>
       </c>
       <c r="D142" s="1">
-        <v>0.017182</v>
+        <v>0.027294</v>
       </c>
       <c r="E142" s="1">
-        <v>0.017353</v>
+        <v>0.031335</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44561</v>
+        <v>44530</v>
       </c>
       <c r="B143" s="1">
-        <v>0.013202</v>
+        <v>0.014583</v>
       </c>
       <c r="C143" s="1">
-        <v>0.009613</v>
+        <v>0.020934</v>
       </c>
       <c r="D143" s="1">
-        <v>0.005379</v>
+        <v>0.017182</v>
       </c>
       <c r="E143" s="1">
-        <v>0.00827</v>
+        <v>0.017353</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44592</v>
+        <v>44561</v>
       </c>
       <c r="B144" s="1">
-        <v>-0.048359</v>
+        <v>0.013202</v>
       </c>
       <c r="C144" s="1">
-        <v>-0.051444</v>
+        <v>0.009613</v>
       </c>
       <c r="D144" s="1">
-        <v>-0.043723</v>
+        <v>0.005379</v>
       </c>
       <c r="E144" s="1">
-        <v>-0.046588</v>
+        <v>0.00827</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44620</v>
+        <v>44592</v>
       </c>
       <c r="B145" s="1">
-        <v>-0.020498</v>
+        <v>-0.048359</v>
       </c>
       <c r="C145" s="1">
-        <v>-0.021976</v>
+        <v>-0.051444</v>
       </c>
       <c r="D145" s="1">
-        <v>-0.017199</v>
+        <v>-0.043723</v>
       </c>
       <c r="E145" s="1">
-        <v>-0.019075</v>
+        <v>-0.046588</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="B146" s="1">
-        <v>-0.017631</v>
+        <v>-0.020498</v>
       </c>
       <c r="C146" s="1">
-        <v>-0.021784</v>
+        <v>-0.021976</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.026753</v>
+        <v>-0.017199</v>
       </c>
       <c r="E146" s="1">
-        <v>-0.02338</v>
+        <v>-0.019075</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B147" s="1">
+        <v>-0.017631</v>
+      </c>
+      <c r="C147" s="1">
+        <v>-0.021784</v>
+      </c>
+      <c r="D147" s="1">
+        <v>-0.026753</v>
+      </c>
+      <c r="E147" s="1">
+        <v>-0.02338</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
         <v>44681</v>
       </c>
-      <c r="B147" s="1">
-        <v>-0.072297</v>
-      </c>
-      <c r="C147" s="1">
-        <v>-0.07865800000000001</v>
-      </c>
-      <c r="D147" s="1">
-        <v>-0.076793</v>
-      </c>
-      <c r="E147" s="1">
-        <v>-0.07607</v>
+      <c r="B148" s="1">
+        <v>-0.07614499999999999</v>
+      </c>
+      <c r="C148" s="1">
+        <v>-0.08283599999999999</v>
+      </c>
+      <c r="D148" s="1">
+        <v>-0.080459</v>
+      </c>
+      <c r="E148" s="1">
+        <v>-0.07989399999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A147">
+  <conditionalFormatting sqref="A1:A148">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E147">
+  <conditionalFormatting sqref="B2:E148">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -445,2484 +445,2484 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40268</v>
+        <v>40298</v>
       </c>
       <c r="B2" s="1">
-        <v>1475141834.85</v>
+        <v>1622528988.09</v>
       </c>
       <c r="C2" s="1">
-        <v>2204069195.06</v>
+        <v>2249160289.73</v>
       </c>
       <c r="D2" s="1">
-        <v>13025853226.71</v>
+        <v>13260630365.46</v>
       </c>
       <c r="E2" s="1">
-        <v>16705064256.62</v>
+        <v>17132319643.28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40298</v>
+        <v>40329</v>
       </c>
       <c r="B3" s="1">
-        <v>1622528988.09</v>
+        <v>1547543516.8</v>
       </c>
       <c r="C3" s="1">
-        <v>2249160289.73</v>
+        <v>2151316976.44</v>
       </c>
       <c r="D3" s="1">
-        <v>13260630365.46</v>
+        <v>12652570165.23</v>
       </c>
       <c r="E3" s="1">
-        <v>17132319643.28</v>
+        <v>16351430658.47</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40329</v>
+        <v>40359</v>
       </c>
       <c r="B4" s="1">
-        <v>1547543516.8</v>
+        <v>1525381389.55</v>
       </c>
       <c r="C4" s="1">
-        <v>2151316976.44</v>
+        <v>2126807551.94</v>
       </c>
       <c r="D4" s="1">
-        <v>12652570165.23</v>
+        <v>12475226298.37</v>
       </c>
       <c r="E4" s="1">
-        <v>16351430658.47</v>
+        <v>16127415239.86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40359</v>
+        <v>40390</v>
       </c>
       <c r="B5" s="1">
-        <v>1525381389.55</v>
+        <v>1706992377.88</v>
       </c>
       <c r="C5" s="1">
-        <v>2126807551.94</v>
+        <v>2217049566.92</v>
       </c>
       <c r="D5" s="1">
-        <v>12475226298.37</v>
+        <v>12970356046.29</v>
       </c>
       <c r="E5" s="1">
-        <v>16127415239.86</v>
+        <v>16894397991.09</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40390</v>
+        <v>40421</v>
       </c>
       <c r="B6" s="1">
-        <v>1706992377.88</v>
+        <v>1703519080.08</v>
       </c>
       <c r="C6" s="1">
-        <v>2217049566.92</v>
+        <v>2218270319.77</v>
       </c>
       <c r="D6" s="1">
-        <v>12970356046.29</v>
+        <v>12943159219.5</v>
       </c>
       <c r="E6" s="1">
-        <v>16894397991.09</v>
+        <v>16864948619.35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40421</v>
+        <v>40451</v>
       </c>
       <c r="B7" s="1">
-        <v>1703519080.08</v>
+        <v>1774147463.24</v>
       </c>
       <c r="C7" s="1">
-        <v>2218270319.77</v>
+        <v>2429501039.02</v>
       </c>
       <c r="D7" s="1">
-        <v>12943159219.5</v>
+        <v>13480390809.59</v>
       </c>
       <c r="E7" s="1">
-        <v>16864948619.35</v>
+        <v>17684039311.85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40451</v>
+        <v>40482</v>
       </c>
       <c r="B8" s="1">
-        <v>1774147463.24</v>
+        <v>1900647341.72</v>
       </c>
       <c r="C8" s="1">
-        <v>2429501039.02</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D8" s="1">
-        <v>13480390809.59</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E8" s="1">
-        <v>17684039311.85</v>
+        <v>17795189712.79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40482</v>
+        <v>40512</v>
       </c>
       <c r="B9" s="1">
-        <v>1900647341.72</v>
+        <v>1880986063.23</v>
       </c>
       <c r="C9" s="1">
-        <v>2451294838.87</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D9" s="1">
-        <v>13443247532.2</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E9" s="1">
-        <v>17795189712.79</v>
+        <v>19628498009.78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40512</v>
+        <v>40543</v>
       </c>
       <c r="B10" s="1">
-        <v>1880986063.23</v>
+        <v>1928778379.47</v>
       </c>
       <c r="C10" s="1">
-        <v>2932628117.61</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D10" s="1">
-        <v>14814883828.94</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E10" s="1">
-        <v>19628498009.78</v>
+        <v>20035309723.7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40543</v>
+        <v>40574</v>
       </c>
       <c r="B11" s="1">
-        <v>1928778379.47</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C11" s="1">
-        <v>3016301371.7</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D11" s="1">
-        <v>15090229972.53</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E11" s="1">
-        <v>20035309723.7</v>
+        <v>21163883643.67</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40574</v>
+        <v>40602</v>
       </c>
       <c r="B12" s="1">
-        <v>3118038032.57</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C12" s="1">
-        <v>3010941131.67</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D12" s="1">
-        <v>15034904479.43</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E12" s="1">
-        <v>21163883643.67</v>
+        <v>21593049295.12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40602</v>
+        <v>40633</v>
       </c>
       <c r="B13" s="1">
-        <v>3181037518.51</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C13" s="1">
-        <v>3072606771.41</v>
+        <v>3077934373.48</v>
       </c>
       <c r="D13" s="1">
-        <v>15339405005.2</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E13" s="1">
-        <v>21593049295.12</v>
+        <v>21597573754.27</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40633</v>
+        <v>40663</v>
       </c>
       <c r="B14" s="1">
-        <v>3181383242.47</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C14" s="1">
-        <v>3077934373.48</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D14" s="1">
-        <v>15338256138.32</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E14" s="1">
-        <v>21597573754.27</v>
+        <v>22196621501.4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40663</v>
+        <v>40694</v>
       </c>
       <c r="B15" s="1">
-        <v>3268994098.86</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C15" s="1">
-        <v>3168259937.35</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D15" s="1">
-        <v>15759367465.19</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E15" s="1">
-        <v>22196621501.4</v>
+        <v>22284802378.54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40694</v>
+        <v>40724</v>
       </c>
       <c r="B16" s="1">
-        <v>3281525082.01</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C16" s="1">
-        <v>3185699769.88</v>
+        <v>3131056633.27</v>
       </c>
       <c r="D16" s="1">
-        <v>15817577526.65</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E16" s="1">
-        <v>22284802378.54</v>
+        <v>21869307212.61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40724</v>
+        <v>40755</v>
       </c>
       <c r="B17" s="1">
-        <v>3219718796.83</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C17" s="1">
-        <v>3131056633.27</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D17" s="1">
-        <v>15518531782.51</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E17" s="1">
-        <v>21869307212.61</v>
+        <v>22052191790.71</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40755</v>
+        <v>40786</v>
       </c>
       <c r="B18" s="1">
-        <v>3245901192.15</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C18" s="1">
-        <v>3162162793.97</v>
+        <v>3139082692.54</v>
       </c>
       <c r="D18" s="1">
-        <v>15644127804.59</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E18" s="1">
-        <v>22052191790.71</v>
+        <v>21857328408.78</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40786</v>
+        <v>40816</v>
       </c>
       <c r="B19" s="1">
-        <v>3216438061.76</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C19" s="1">
-        <v>3139082692.54</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D19" s="1">
-        <v>15501807654.48</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E19" s="1">
-        <v>21857328408.78</v>
+        <v>21890762234.61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40816</v>
+        <v>40847</v>
       </c>
       <c r="B20" s="1">
-        <v>3211645130.63</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C20" s="1">
-        <v>3200272417.15</v>
+        <v>3311931768.5</v>
       </c>
       <c r="D20" s="1">
-        <v>15478844686.83</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E20" s="1">
-        <v>21890762234.61</v>
+        <v>22618006484.29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40847</v>
+        <v>40877</v>
       </c>
       <c r="B21" s="1">
-        <v>3317215603.4</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C21" s="1">
-        <v>3311931768.5</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D21" s="1">
-        <v>15988859112.39</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E21" s="1">
-        <v>22618006484.29</v>
+        <v>22404833979.68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40877</v>
+        <v>40908</v>
       </c>
       <c r="B22" s="1">
-        <v>3279790855.17</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C22" s="1">
-        <v>3286738232.03</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D22" s="1">
-        <v>15838304892.48</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E22" s="1">
-        <v>22404833979.68</v>
+        <v>22610739192.74</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40908</v>
+        <v>40939</v>
       </c>
       <c r="B23" s="1">
-        <v>3308515656.83</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C23" s="1">
-        <v>3322199318.6</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D23" s="1">
-        <v>15980024217.31</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E23" s="1">
-        <v>22610739192.74</v>
+        <v>23182713107.18</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40939</v>
+        <v>40968</v>
       </c>
       <c r="B24" s="1">
-        <v>3390714253.36</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C24" s="1">
-        <v>3411636959.78</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D24" s="1">
-        <v>16380361894.04</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E24" s="1">
-        <v>23182713107.18</v>
+        <v>23539061638.97</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40968</v>
+        <v>40999</v>
       </c>
       <c r="B25" s="1">
-        <v>3441357193.01</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C25" s="1">
-        <v>3465240303.9</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D25" s="1">
-        <v>16632464142.06</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E25" s="1">
-        <v>23539061638.97</v>
+        <v>23568627738.57</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>40999</v>
+        <v>41029</v>
       </c>
       <c r="B26" s="1">
-        <v>3594273253.88</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C26" s="1">
-        <v>3448893913.05</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D26" s="1">
-        <v>16525460571.64</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E26" s="1">
-        <v>23568627738.57</v>
+        <v>23751063285.04</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41029</v>
+        <v>41060</v>
       </c>
       <c r="B27" s="1">
-        <v>3620819218.91</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C27" s="1">
-        <v>3481026300.12</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D27" s="1">
-        <v>16649217766.01</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E27" s="1">
-        <v>23751063285.04</v>
+        <v>23525356279.52</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41060</v>
+        <v>41090</v>
       </c>
       <c r="B28" s="1">
-        <v>3584994009.65</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C28" s="1">
-        <v>3453190328.12</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D28" s="1">
-        <v>16487171941.75</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E28" s="1">
-        <v>23525356279.52</v>
+        <v>23967119998.88</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41090</v>
+        <v>41121</v>
       </c>
       <c r="B29" s="1">
-        <v>3803025610.44</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C29" s="1">
-        <v>3497243829.13</v>
+        <v>3572637746.48</v>
       </c>
       <c r="D29" s="1">
-        <v>16666850559.31</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E29" s="1">
-        <v>23967119998.88</v>
+        <v>24445194794.85</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41121</v>
+        <v>41152</v>
       </c>
       <c r="B30" s="1">
-        <v>3877728751.39</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C30" s="1">
-        <v>3572637746.48</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D30" s="1">
-        <v>16994828296.98</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E30" s="1">
-        <v>24445194794.85</v>
+        <v>24546339462.45</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41152</v>
+        <v>41182</v>
       </c>
       <c r="B31" s="1">
-        <v>3892524075.7</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C31" s="1">
-        <v>3592909103.41</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D31" s="1">
-        <v>17060906283.34</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E31" s="1">
-        <v>24546339462.45</v>
+        <v>24697860539.92</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41182</v>
+        <v>41213</v>
       </c>
       <c r="B32" s="1">
-        <v>3915294252.8</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C32" s="1">
-        <v>3620604152.58</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D32" s="1">
-        <v>17161962134.54</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E32" s="1">
-        <v>24697860539.92</v>
+        <v>24675789016.94</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41213</v>
+        <v>41243</v>
       </c>
       <c r="B33" s="1">
-        <v>3910430761.85</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C33" s="1">
-        <v>3622924774.95</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D33" s="1">
-        <v>17142433480.14</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E33" s="1">
-        <v>24675789016.94</v>
+        <v>24802412939.95</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41243</v>
+        <v>41274</v>
       </c>
       <c r="B34" s="1">
-        <v>3929018216.4</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C34" s="1">
-        <v>3646999015.16</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D34" s="1">
-        <v>17226395708.39</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E34" s="1">
-        <v>24802412939.95</v>
+        <v>24895888004.03</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41274</v>
+        <v>41305</v>
       </c>
       <c r="B35" s="1">
-        <v>3949731061.55</v>
+        <v>3991599105.71</v>
       </c>
       <c r="C35" s="1">
-        <v>3654809047.65</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D35" s="1">
-        <v>17291347894.83</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E35" s="1">
-        <v>24895888004.03</v>
+        <v>25170522714.13</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41305</v>
+        <v>41333</v>
       </c>
       <c r="B36" s="1">
-        <v>3991599105.71</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C36" s="1">
-        <v>4490569394.41</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D36" s="1">
-        <v>16688354214.01</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E36" s="1">
-        <v>25170522714.13</v>
+        <v>25279217396.12</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41333</v>
+        <v>41364</v>
       </c>
       <c r="B37" s="1">
-        <v>4007467353.78</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C37" s="1">
-        <v>4511270646.88</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D37" s="1">
-        <v>16760479395.46</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E37" s="1">
-        <v>25279217396.12</v>
+        <v>25595621001.76</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41364</v>
+        <v>41394</v>
       </c>
       <c r="B38" s="1">
-        <v>4055824611.3</v>
+        <v>4145409199.46</v>
       </c>
       <c r="C38" s="1">
-        <v>4573664426.03</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D38" s="1">
-        <v>16966131964.43</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E38" s="1">
-        <v>25595621001.76</v>
+        <v>26172966159.6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41394</v>
+        <v>41425</v>
       </c>
       <c r="B39" s="1">
-        <v>4145409199.46</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C39" s="1">
-        <v>4682846886.27</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D39" s="1">
-        <v>17344710073.87</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E39" s="1">
-        <v>26172966159.6</v>
+        <v>25673994810.38</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41425</v>
+        <v>41455</v>
       </c>
       <c r="B40" s="1">
-        <v>4064569702.63</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C40" s="1">
-        <v>4599347535.9</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D40" s="1">
-        <v>17010077571.85</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E40" s="1">
-        <v>25673994810.38</v>
+        <v>25144254258.35</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41455</v>
+        <v>41486</v>
       </c>
       <c r="B41" s="1">
-        <v>3978796970.09</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C41" s="1">
-        <v>4510251396.91</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D41" s="1">
-        <v>16655205891.35</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E41" s="1">
-        <v>25144254258.35</v>
+        <v>25436691656.9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41486</v>
+        <v>41517</v>
       </c>
       <c r="B42" s="1">
-        <v>4023056820.86</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C42" s="1">
-        <v>4568724212.7</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D42" s="1">
-        <v>16844910623.34</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E42" s="1">
-        <v>25436691656.9</v>
+        <v>25090707293.91</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41517</v>
+        <v>41547</v>
       </c>
       <c r="B43" s="1">
-        <v>3966340296.1</v>
+        <v>4033439753.48</v>
       </c>
       <c r="C43" s="1">
-        <v>4512507452.03</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D43" s="1">
-        <v>16611859545.78</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E43" s="1">
-        <v>25090707293.91</v>
+        <v>25528497279.93</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41547</v>
+        <v>41578</v>
       </c>
       <c r="B44" s="1">
-        <v>4033439753.48</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C44" s="1">
-        <v>4749762591.53</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D44" s="1">
-        <v>16745294934.92</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E44" s="1">
-        <v>25528497279.93</v>
+        <v>26027364114.18</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41578</v>
+        <v>41608</v>
       </c>
       <c r="B45" s="1">
-        <v>4110020215.55</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C45" s="1">
-        <v>4848589342.72</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D45" s="1">
-        <v>17068754555.91</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E45" s="1">
-        <v>26027364114.18</v>
+        <v>26003820925.72</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41608</v>
+        <v>41639</v>
       </c>
       <c r="B46" s="1">
-        <v>4104202981.72</v>
+        <v>4121232839.29</v>
       </c>
       <c r="C46" s="1">
-        <v>4850653743.4</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D46" s="1">
-        <v>17048964200.6</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E46" s="1">
-        <v>26003820925.72</v>
+        <v>26126288441.74</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41639</v>
+        <v>41670</v>
       </c>
       <c r="B47" s="1">
-        <v>4121232839.29</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C47" s="1">
-        <v>4879983265.38</v>
+        <v>4882894726.29</v>
       </c>
       <c r="D47" s="1">
-        <v>17125072337.07</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E47" s="1">
-        <v>26126288441.74</v>
+        <v>26107696311.48</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41670</v>
+        <v>41698</v>
       </c>
       <c r="B48" s="1">
-        <v>4116223144.44</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C48" s="1">
-        <v>4882894726.29</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D48" s="1">
-        <v>17108578440.75</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E48" s="1">
-        <v>26107696311.48</v>
+        <v>26638164824.17</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41698</v>
+        <v>41729</v>
       </c>
       <c r="B49" s="1">
-        <v>4197240949.36</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C49" s="1">
-        <v>4988729007.27</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D49" s="1">
-        <v>17452194867.54</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E49" s="1">
-        <v>26638164824.17</v>
+        <v>26770056497.39</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41729</v>
+        <v>41759</v>
       </c>
       <c r="B50" s="1">
-        <v>4215464347.87</v>
+        <v>4212492467.73</v>
       </c>
       <c r="C50" s="1">
-        <v>5019984158.58</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D50" s="1">
-        <v>17534607990.94</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E50" s="1">
-        <v>26770056497.39</v>
+        <v>26766109574.18</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41759</v>
+        <v>41790</v>
       </c>
       <c r="B51" s="1">
-        <v>4212492467.73</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C51" s="1">
-        <v>5026144812.31</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D51" s="1">
-        <v>17527472294.14</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E51" s="1">
-        <v>26766109574.18</v>
+        <v>27191987348.25</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41790</v>
+        <v>41820</v>
       </c>
       <c r="B52" s="1">
-        <v>4276832512.93</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C52" s="1">
-        <v>5112975530.56</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D52" s="1">
-        <v>17802179304.76</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E52" s="1">
-        <v>27191987348.25</v>
+        <v>27325686546.76</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B53" s="1">
-        <v>4295140983.11</v>
+        <v>4265451845</v>
       </c>
       <c r="C53" s="1">
-        <v>5144862372.52</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D53" s="1">
-        <v>17885683191.13</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E53" s="1">
-        <v>27325686546.76</v>
+        <v>27156839042.76</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41851</v>
+        <v>41882</v>
       </c>
       <c r="B54" s="1">
-        <v>4265451845</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C54" s="1">
-        <v>5119794037.99</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D54" s="1">
-        <v>17771593159.77</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E54" s="1">
-        <v>27156839042.76</v>
+        <v>27744206657.43</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="B55" s="1">
-        <v>4354547211.12</v>
+        <v>4258151023.04</v>
       </c>
       <c r="C55" s="1">
-        <v>5237452701.82</v>
+        <v>5131976211.71</v>
       </c>
       <c r="D55" s="1">
-        <v>18152206744.49</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E55" s="1">
-        <v>27744206657.43</v>
+        <v>27150660877.68</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41912</v>
+        <v>41943</v>
       </c>
       <c r="B56" s="1">
-        <v>4258151023.04</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C56" s="1">
-        <v>5131976211.71</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D56" s="1">
-        <v>17760533642.93</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E56" s="1">
-        <v>27150660877.68</v>
+        <v>27371725833.13</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="B57" s="1">
-        <v>4285163976.8</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C57" s="1">
-        <v>5172926233.01</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D57" s="1">
-        <v>17913635623.32</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E57" s="1">
-        <v>27371725833.13</v>
+        <v>27755933978.37</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="B58" s="1">
-        <v>4341696562.65</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C58" s="1">
-        <v>5252461885.84</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D58" s="1">
-        <v>18161775529.88</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E58" s="1">
-        <v>27755933978.37</v>
+        <v>28782428258.71</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="B59" s="1">
-        <v>4986611512.07</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C59" s="1">
-        <v>5448191101.38</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D59" s="1">
-        <v>18347625645.26</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E59" s="1">
-        <v>28782428258.71</v>
+        <v>29378034101.34</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="B60" s="1">
-        <v>5087365130.35</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C60" s="1">
-        <v>5567918737.12</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D60" s="1">
-        <v>18722750233.87</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E60" s="1">
-        <v>29378034101.34</v>
+        <v>29527722140.57</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="B61" s="1">
-        <v>5110739057.82</v>
+        <v>5098528846.54</v>
       </c>
       <c r="C61" s="1">
-        <v>5603210665.94</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D61" s="1">
-        <v>18813772416.81</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E61" s="1">
-        <v>29527722140.57</v>
+        <v>29472205126.79</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="B62" s="1">
-        <v>5098528846.54</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C62" s="1">
-        <v>5599621915.28</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D62" s="1">
-        <v>18774054364.97</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E62" s="1">
-        <v>29472205126.79</v>
+        <v>29408637463</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42124</v>
+        <v>42155</v>
       </c>
       <c r="B63" s="1">
-        <v>5084901351.07</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C63" s="1">
-        <v>5594550723.83</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D63" s="1">
-        <v>18729185388.1</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E63" s="1">
-        <v>29408637463</v>
+        <v>29288010554.98</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42155</v>
+        <v>42185</v>
       </c>
       <c r="B64" s="1">
-        <v>5061385747.15</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C64" s="1">
-        <v>5578675769.67</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D64" s="1">
-        <v>18647949038.16</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E64" s="1">
-        <v>29288010554.98</v>
+        <v>28650016749.03</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="B65" s="1">
-        <v>4948449143.55</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C65" s="1">
-        <v>5464086350.67</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D65" s="1">
-        <v>18237481254.81</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E65" s="1">
-        <v>28650016749.03</v>
+        <v>28876185070.36</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="B66" s="1">
-        <v>4984734110.66</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C66" s="1">
-        <v>5514366076.03</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D66" s="1">
-        <v>18377084883.67</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E66" s="1">
-        <v>28876185070.36</v>
+        <v>28013929187.9</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="B67" s="1">
-        <v>4833324327.11</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C67" s="1">
-        <v>5356648129.15</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D67" s="1">
-        <v>17823956731.64</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E67" s="1">
-        <v>28013929187.9</v>
+        <v>27687614897.05</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B68" s="1">
-        <v>4774352359.51</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C68" s="1">
-        <v>5301454591.47</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D68" s="1">
-        <v>17611807946.07</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E68" s="1">
-        <v>27687614897.05</v>
+        <v>28326347037.87</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B69" s="1">
-        <v>4880247836.65</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C69" s="1">
-        <v>5397632819.49</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D69" s="1">
-        <v>18048466381.73</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E69" s="1">
-        <v>28326347037.87</v>
+        <v>28136561001.15</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B70" s="1">
-        <v>4844551814.11</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C70" s="1">
-        <v>5368571908.98</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D70" s="1">
-        <v>17923437278.06</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E70" s="1">
-        <v>28136561001.15</v>
+        <v>28846254608.33</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B71" s="1">
-        <v>5415576742.55</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C71" s="1">
-        <v>5709868087.27</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D71" s="1">
-        <v>17720809778.51</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E71" s="1">
-        <v>28846254608.33</v>
+        <v>28336372866.16</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B72" s="1">
-        <v>5318083756.35</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C72" s="1">
-        <v>5616578571.14</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D72" s="1">
-        <v>17401710538.67</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E72" s="1">
-        <v>28336372866.16</v>
+        <v>28455678308.47</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B73" s="1">
-        <v>5338694185.85</v>
+        <v>5505915040.5</v>
       </c>
       <c r="C73" s="1">
-        <v>5647936294.45</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D73" s="1">
-        <v>17469047828.17</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E73" s="1">
-        <v>28455678308.47</v>
+        <v>29356671897.69</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B74" s="1">
-        <v>5505915040.5</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C74" s="1">
-        <v>5834802926.8</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D74" s="1">
-        <v>18015953930.39</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E74" s="1">
-        <v>29356671897.69</v>
+        <v>29542027110.35</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B75" s="1">
-        <v>5538988181.45</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C75" s="1">
-        <v>5879483219.72</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D75" s="1">
-        <v>18123555709.18</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E75" s="1">
-        <v>29542027110.35</v>
+        <v>29511421101.44</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B76" s="1">
-        <v>5531594102.95</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C76" s="1">
-        <v>5881279255.87</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D76" s="1">
-        <v>18098547742.62</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E76" s="1">
-        <v>29511421101.44</v>
+        <v>29721833433.55</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B77" s="1">
-        <v>5569334217.76</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C77" s="1">
-        <v>5931068967.2</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D77" s="1">
-        <v>18221430248.59</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E77" s="1">
-        <v>29721833433.55</v>
+        <v>30265143212.71</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B78" s="1">
-        <v>5669685323.09</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C78" s="1">
-        <v>6047546128.94</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D78" s="1">
-        <v>18547911760.68</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E78" s="1">
-        <v>30265143212.71</v>
+        <v>30212255260.83</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B79" s="1">
-        <v>5658306874.65</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C79" s="1">
-        <v>6044991482.23</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D79" s="1">
-        <v>18508956903.95</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E79" s="1">
-        <v>30212255260.83</v>
+        <v>31311189264.37</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B80" s="1">
-        <v>6047292088.02</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C80" s="1">
-        <v>6489780168.17</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D80" s="1">
-        <v>18774117008.18</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E80" s="1">
-        <v>31311189264.37</v>
+        <v>30735701818.56</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B81" s="1">
-        <v>5944249077.31</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C81" s="1">
-        <v>6361287062.33</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D81" s="1">
-        <v>18430165678.92</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E81" s="1">
-        <v>30735701818.56</v>
+        <v>30294149402.87</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B82" s="1">
-        <v>5857951330.08</v>
+        <v>6253513976.5</v>
       </c>
       <c r="C82" s="1">
-        <v>6278318762.68</v>
+        <v>6361809245.25</v>
       </c>
       <c r="D82" s="1">
-        <v>18157879310.11</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E82" s="1">
-        <v>30294149402.87</v>
+        <v>31134559706.61</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B83" s="1">
-        <v>6253513976.5</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C83" s="1">
-        <v>6361809245.25</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D83" s="1">
-        <v>18519236484.86</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E83" s="1">
-        <v>31134559706.61</v>
+        <v>31406628721.6</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B84" s="1">
-        <v>6308462886.34</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C84" s="1">
-        <v>6425317655.9</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D84" s="1">
-        <v>18672848179.36</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E84" s="1">
-        <v>31406628721.6</v>
+        <v>31862928265.29</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B85" s="1">
-        <v>6400976668.18</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C85" s="1">
-        <v>6526279467.15</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D85" s="1">
-        <v>18935672129.96</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E85" s="1">
-        <v>31862928265.29</v>
+        <v>34237217759.41</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B86" s="1">
-        <v>7099971446.02</v>
+        <v>7176134170.54</v>
       </c>
       <c r="C86" s="1">
-        <v>7337629420.28</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D86" s="1">
-        <v>19799616893.11</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E86" s="1">
-        <v>34237217759.41</v>
+        <v>34601219933.72</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B87" s="1">
-        <v>7176134170.54</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C87" s="1">
-        <v>7422733235.89</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D87" s="1">
-        <v>20002352527.29</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E87" s="1">
-        <v>34601219933.72</v>
+        <v>35025479666.84</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B88" s="1">
-        <v>7264954337.05</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C88" s="1">
-        <v>7523682920.77</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D88" s="1">
-        <v>20236842409.02</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E88" s="1">
-        <v>35025479666.84</v>
+        <v>35106583260.6</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B89" s="1">
-        <v>7282406497.08</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C89" s="1">
-        <v>7549356808.18</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D89" s="1">
-        <v>20274819955.34</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E89" s="1">
-        <v>35106583260.6</v>
+        <v>35405791867.57</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B90" s="1">
-        <v>7343644210.4</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C90" s="1">
-        <v>7623588366.49</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D90" s="1">
-        <v>20438559290.68</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E90" s="1">
-        <v>35405791867.57</v>
+        <v>35685515267.03</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B91" s="1">
-        <v>7401114464.44</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C91" s="1">
-        <v>7693916997.08</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D91" s="1">
-        <v>20590483805.51</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E91" s="1">
-        <v>35685515267.03</v>
+        <v>35874943914.43</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B92" s="1">
-        <v>7439354518.62</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C92" s="1">
-        <v>7744728806.72</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D92" s="1">
-        <v>20690860589.09</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E92" s="1">
-        <v>35874943914.43</v>
+        <v>36114919745.74</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B93" s="1">
-        <v>7501162607.24</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C93" s="1">
-        <v>7797612927.14</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D93" s="1">
-        <v>20816144211.36</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E93" s="1">
-        <v>36114919745.74</v>
+        <v>36495613500.11</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B94" s="1">
-        <v>7578785278.66</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C94" s="1">
-        <v>7890046689.69</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D94" s="1">
-        <v>21026781531.76</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E94" s="1">
-        <v>36495613500.11</v>
+        <v>41856058020.2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B95" s="1">
-        <v>9002210135.43</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C95" s="1">
-        <v>8628245002.959999</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D95" s="1">
-        <v>24225602881.81</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E95" s="1">
-        <v>41856058020.2</v>
+        <v>42583718320.38</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B96" s="1">
-        <v>9202610590.719999</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C96" s="1">
-        <v>8830545061.309999</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D96" s="1">
-        <v>24550562668.35</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E96" s="1">
-        <v>42583718320.38</v>
+        <v>41211648261.71</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B97" s="1">
-        <v>8905152042.110001</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C97" s="1">
-        <v>8554843302.12</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D97" s="1">
-        <v>23751652917.48</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E97" s="1">
-        <v>41211648261.71</v>
+        <v>41345470043.96999</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B98" s="1">
-        <v>8894650969.91</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C98" s="1">
-        <v>8555117311.3</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D98" s="1">
-        <v>23895701762.76</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E98" s="1">
-        <v>41345470043.96999</v>
+        <v>41046760638.73</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B99" s="1">
-        <v>8853026337.98</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C99" s="1">
-        <v>8525561703.78</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D99" s="1">
-        <v>23668172596.97</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E99" s="1">
-        <v>41046760638.73</v>
+        <v>41313232056.15</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B100" s="1">
-        <v>8890561971.129999</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C100" s="1">
-        <v>8572549061.9</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D100" s="1">
-        <v>23850121023.12</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E100" s="1">
-        <v>41313232056.15</v>
+        <v>41121031725</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B101" s="1">
-        <v>8841470603.15</v>
+        <v>8936073454</v>
       </c>
       <c r="C101" s="1">
-        <v>8535731069.89</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D101" s="1">
-        <v>23743830051.96</v>
+        <v>23810581356</v>
       </c>
       <c r="E101" s="1">
-        <v>41121031725</v>
+        <v>41384588267.64</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B102" s="1">
-        <v>8936073454</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C102" s="1">
-        <v>8637933457.639999</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D102" s="1">
-        <v>23810581356</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E102" s="1">
-        <v>41384588267.64</v>
+        <v>41662803021.32</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B103" s="1">
-        <v>8984375598.66</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C103" s="1">
-        <v>8696018228.42</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D103" s="1">
-        <v>23982409194.24</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E103" s="1">
-        <v>41662803021.32</v>
+        <v>41186947565</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B104" s="1">
-        <v>8913881251.4</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C104" s="1">
-        <v>8639086304.16</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D104" s="1">
-        <v>23633980009.44</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E104" s="1">
-        <v>41186947565</v>
+        <v>39383035110.98</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B105" s="1">
-        <v>8522844994.4</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C105" s="1">
-        <v>8244001106.42</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D105" s="1">
-        <v>22616189010.16</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E105" s="1">
-        <v>39383035110.98</v>
+        <v>39775163930.18</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B106" s="1">
-        <v>8594776142.139999</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C106" s="1">
-        <v>8324970365.95</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D106" s="1">
-        <v>22855417422.09</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E106" s="1">
-        <v>39775163930.18</v>
+        <v>39522985371.47</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B107" s="1">
-        <v>8430913509.88</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C107" s="1">
-        <v>8177279951.57</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D107" s="1">
-        <v>22914791910.02</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E107" s="1">
-        <v>39522985371.47</v>
+        <v>40670053634.92</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B108" s="1">
-        <v>8716930851.969999</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C108" s="1">
-        <v>8466374243.34</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D108" s="1">
-        <v>23486748539.61</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E108" s="1">
-        <v>40670053634.92</v>
+        <v>40797813026.7</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B109" s="1">
-        <v>8780002278.02</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C109" s="1">
-        <v>8538970109.85</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D109" s="1">
-        <v>23478840638.83</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E109" s="1">
-        <v>40797813026.7</v>
+        <v>41816102147.74</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B110" s="1">
-        <v>8939502054.139999</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C110" s="1">
-        <v>8705342961.4</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D110" s="1">
-        <v>24171257132.2</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E110" s="1">
-        <v>41816102147.74</v>
+        <v>42743107013</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B111" s="1">
-        <v>9008244776.280001</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C111" s="1">
-        <v>9126959379.24</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D111" s="1">
-        <v>24607902857.48</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E111" s="1">
-        <v>42743107013</v>
+        <v>43049605454.39</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B112" s="1">
-        <v>8944260855.860001</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C112" s="1">
-        <v>9074029379.02</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D112" s="1">
-        <v>25031315219.51</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E112" s="1">
-        <v>43049605454.39</v>
+        <v>44201897165.55</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B113" s="1">
-        <v>9215995868.950001</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C113" s="1">
-        <v>9361706609.469999</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D113" s="1">
-        <v>25624194687.13</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E113" s="1">
-        <v>44201897165.55</v>
+        <v>44289278505.62</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B114" s="1">
-        <v>9238385070.67</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C114" s="1">
-        <v>9396108735.549999</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D114" s="1">
-        <v>25654784699.4</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E114" s="1">
-        <v>44289278505.62</v>
+        <v>46120311881.3</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B115" s="1">
-        <v>9436337524.57</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C115" s="1">
-        <v>9608738306.559999</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D115" s="1">
-        <v>27075236050.17</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E115" s="1">
-        <v>46120311881.3</v>
+        <v>46949593594.97</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B116" s="1">
-        <v>10602215448.62</v>
+        <v>10608252625.24</v>
       </c>
       <c r="C116" s="1">
-        <v>9614794478.780001</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D116" s="1">
-        <v>26732583667.57</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E116" s="1">
-        <v>46949593594.97</v>
+        <v>46865708662.23</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B117" s="1">
-        <v>10608252625.24</v>
+        <v>10692316903.4</v>
       </c>
       <c r="C117" s="1">
-        <v>9625407467.91</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D117" s="1">
-        <v>26632048569.08</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E117" s="1">
-        <v>46865708662.23</v>
+        <v>47123617172.53</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B118" s="1">
-        <v>10692316903.4</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C118" s="1">
-        <v>9713037686.17</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D118" s="1">
-        <v>26718262582.96</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E118" s="1">
-        <v>47123617172.53</v>
+        <v>46141633527.96</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B119" s="1">
-        <v>10758442213.97</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C119" s="1">
-        <v>9477691033.26</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D119" s="1">
-        <v>25905500280.73</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E119" s="1">
-        <v>46141633527.96</v>
+        <v>47197661020.02</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B120" s="1">
-        <v>10840639312.88</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C120" s="1">
-        <v>9555218261.01</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D120" s="1">
-        <v>26801803446.13</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E120" s="1">
-        <v>47197661020.02</v>
+        <v>47123824802.83</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B121" s="1">
-        <v>10574286223.88</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C121" s="1">
-        <v>9338936485.4</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D121" s="1">
-        <v>27210602093.55</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E121" s="1">
-        <v>47123824802.83</v>
+        <v>45204026385.17001</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B122" s="1">
-        <v>9764305551.360001</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C122" s="1">
-        <v>8664875030.02</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D122" s="1">
-        <v>26774845803.79</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E122" s="1">
-        <v>45204026385.17001</v>
+        <v>47064011332.71</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B123" s="1">
-        <v>10283094677.36</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C123" s="1">
-        <v>9107006952.52</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D123" s="1">
-        <v>27673909702.83</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E123" s="1">
-        <v>47064011332.71</v>
+        <v>47081138950.00999</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B124" s="1">
-        <v>10409182664.05</v>
+        <v>10514205392.24</v>
       </c>
       <c r="C124" s="1">
-        <v>9213245024.98</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D124" s="1">
-        <v>27458711260.98</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E124" s="1">
-        <v>47081138950.00999</v>
+        <v>47426564864.18</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B125" s="1">
-        <v>10514205392.24</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C125" s="1">
-        <v>9308097696.17</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D125" s="1">
-        <v>27604261775.77</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E125" s="1">
-        <v>47426564864.18</v>
+        <v>49195665095.83</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B126" s="1">
-        <v>10849449410.81</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C126" s="1">
-        <v>9606421868.530001</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D126" s="1">
-        <v>28739793816.49</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E126" s="1">
-        <v>49195665095.83</v>
+        <v>48906083609.04</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B127" s="1">
-        <v>11005151438.13</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C127" s="1">
-        <v>9743289163.68</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D127" s="1">
-        <v>28157643007.23</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E127" s="1">
-        <v>48906083609.04</v>
+        <v>49328692500.60999</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B128" s="1">
-        <v>11506934819.12</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C128" s="1">
-        <v>9894562298.549999</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D128" s="1">
-        <v>27927195382.94</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E128" s="1">
-        <v>49328692500.60999</v>
+        <v>48026054531.55</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B129" s="1">
-        <v>11238592497.88</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C129" s="1">
-        <v>9700328704.629999</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D129" s="1">
-        <v>27087133329.04</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E129" s="1">
-        <v>48026054531.55</v>
+        <v>50440003419.03</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B130" s="1">
-        <v>11941273405.45</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C130" s="1">
-        <v>10308274207.78</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D130" s="1">
-        <v>28190455805.8</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E130" s="1">
-        <v>50440003419.03</v>
+        <v>52788485957.46</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B131" s="1">
-        <v>12756299620.31</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C131" s="1">
-        <v>11053433125.61</v>
+        <v>10900299506.57</v>
       </c>
       <c r="D131" s="1">
-        <v>28978753211.54</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E131" s="1">
-        <v>52788485957.46</v>
+        <v>51588003234.73</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B132" s="1">
-        <v>12558243414.61</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C132" s="1">
-        <v>10900299506.57</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D132" s="1">
-        <v>28129460313.55</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E132" s="1">
-        <v>51588003234.73</v>
+        <v>50499345827.99</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B133" s="1">
-        <v>12499730482.13</v>
+        <v>12629967215.83</v>
       </c>
       <c r="C133" s="1">
-        <v>10872197550.37</v>
+        <v>10999754121.32</v>
       </c>
       <c r="D133" s="1">
-        <v>27127417795.49</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E133" s="1">
-        <v>50499345827.99</v>
+        <v>50392716520.31</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B134" s="1">
-        <v>12629967215.83</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C134" s="1">
-        <v>10999754121.32</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D134" s="1">
-        <v>26762995183.16</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E134" s="1">
-        <v>50392716520.31</v>
+        <v>51700983288.71</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B135" s="1">
-        <v>12959077328.64</v>
+        <v>13155170030.18</v>
       </c>
       <c r="C135" s="1">
-        <v>11290601383.86</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D135" s="1">
-        <v>27451304576.21</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E135" s="1">
-        <v>51700983288.71</v>
+        <v>52378555427.81</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B136" s="1">
-        <v>13155170030.18</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C136" s="1">
-        <v>11478701164.89</v>
+        <v>11665454270.74</v>
       </c>
       <c r="D136" s="1">
-        <v>27744684232.74</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E136" s="1">
-        <v>52378555427.81</v>
+        <v>53479161312.64</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B137" s="1">
-        <v>13363308598.31</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C137" s="1">
-        <v>11665454270.74</v>
+        <v>11826970568.32</v>
       </c>
       <c r="D137" s="1">
-        <v>28450398443.59</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E137" s="1">
-        <v>53479161312.64</v>
+        <v>54428748586.62</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B138" s="1">
-        <v>13542680564.47</v>
+        <v>13707767980.07</v>
       </c>
       <c r="C138" s="1">
-        <v>11826970568.32</v>
+        <v>11980671064.48</v>
       </c>
       <c r="D138" s="1">
-        <v>29059097453.83</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E138" s="1">
-        <v>54428748586.62</v>
+        <v>54870336763.75999</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B139" s="1">
-        <v>13707767980.07</v>
+        <v>13203547316.24</v>
       </c>
       <c r="C139" s="1">
-        <v>11980671064.48</v>
+        <v>11508277149.59</v>
       </c>
       <c r="D139" s="1">
-        <v>29181897719.21</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E139" s="1">
-        <v>54870336763.75999</v>
+        <v>52901048832.99</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B140" s="1">
-        <v>13203547316.24</v>
+        <v>13619689152.99</v>
       </c>
       <c r="C140" s="1">
-        <v>11508277149.59</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D140" s="1">
-        <v>28189224367.16</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E140" s="1">
-        <v>52901048832.99</v>
+        <v>54300766813.44</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B141" s="1">
-        <v>13619689152.99</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C141" s="1">
-        <v>11898653834.64</v>
+        <v>12126631727.77</v>
       </c>
       <c r="D141" s="1">
-        <v>28782423825.81</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E141" s="1">
-        <v>54300766813.44</v>
+        <v>55089355967.77</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B142" s="1">
-        <v>13785068283.86</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C142" s="1">
-        <v>12126631727.77</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D142" s="1">
-        <v>29177655956.14</v>
+        <v>29369048113</v>
       </c>
       <c r="E142" s="1">
-        <v>55089355967.77</v>
+        <v>55524868915.5</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B143" s="1">
-        <v>13933499672.22</v>
+        <v>13228050556.07</v>
       </c>
       <c r="C143" s="1">
-        <v>12222321130.28</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D143" s="1">
-        <v>29369048113</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E143" s="1">
-        <v>55524868915.5</v>
+        <v>52791395368.22</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B144" s="1">
-        <v>13228050556.07</v>
+        <v>12924236126.56</v>
       </c>
       <c r="C144" s="1">
-        <v>11573834300.94</v>
+        <v>11299022364.73</v>
       </c>
       <c r="D144" s="1">
-        <v>27989510511.21</v>
+        <v>27410006047.48</v>
       </c>
       <c r="E144" s="1">
-        <v>52791395368.22</v>
+        <v>51633264538.77</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B145" s="1">
-        <v>12924236126.56</v>
+        <v>12662771414.75</v>
       </c>
       <c r="C145" s="1">
-        <v>11299022364.73</v>
+        <v>11031166589.13</v>
       </c>
       <c r="D145" s="1">
-        <v>27410006047.48</v>
+        <v>26576348005.31</v>
       </c>
       <c r="E145" s="1">
-        <v>51633264538.77</v>
+        <v>50270286009.19</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B146" s="1">
-        <v>12662771414.75</v>
+        <v>11666882480.45</v>
       </c>
       <c r="C146" s="1">
-        <v>11031166589.13</v>
+        <v>10097030956.61</v>
       </c>
       <c r="D146" s="1">
-        <v>26576348005.31</v>
+        <v>24343752751.24</v>
       </c>
       <c r="E146" s="1">
-        <v>50270286009.19</v>
+        <v>46107666188.3</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B147" s="1">
-        <v>11715402918.77</v>
+        <v>11506881422.34</v>
       </c>
       <c r="C147" s="1">
-        <v>10142966770.06</v>
+        <v>9932226543.780001</v>
       </c>
       <c r="D147" s="1">
-        <v>24440641700.16</v>
+        <v>24079986770.42</v>
       </c>
       <c r="E147" s="1">
-        <v>46299011388.99001</v>
+        <v>45519094736.53999</v>
       </c>
     </row>
   </sheetData>
@@ -2970,2484 +2970,2484 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40268</v>
+        <v>40298</v>
       </c>
       <c r="B2" s="1">
-        <v>0.037112</v>
+        <v>0.020455</v>
       </c>
       <c r="C2" s="1">
-        <v>0.039345</v>
+        <v>0.021368</v>
       </c>
       <c r="D2" s="1">
-        <v>0.039374</v>
+        <v>0.021406</v>
       </c>
       <c r="E2" s="1">
-        <v>0.039192</v>
+        <v>0.021313</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40298</v>
+        <v>40329</v>
       </c>
       <c r="B3" s="1">
-        <v>0.020455</v>
+        <v>-0.042701</v>
       </c>
       <c r="C3" s="1">
-        <v>0.021368</v>
+        <v>-0.042682</v>
       </c>
       <c r="D3" s="1">
-        <v>0.021406</v>
+        <v>-0.04269199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.021313</v>
+        <v>-0.042691</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40329</v>
+        <v>40359</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.042701</v>
+        <v>-0.010431</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.042682</v>
+        <v>-0.010424</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.04269199999999999</v>
+        <v>-0.010512</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.042691</v>
+        <v>-0.010493</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40359</v>
+        <v>40390</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.010431</v>
+        <v>0.04159</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.010424</v>
+        <v>0.043416</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.010512</v>
+        <v>0.04342500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.010493</v>
+        <v>0.043244</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40390</v>
+        <v>40421</v>
       </c>
       <c r="B6" s="1">
-        <v>0.04159</v>
+        <v>0.001548</v>
       </c>
       <c r="C6" s="1">
-        <v>0.043416</v>
+        <v>0.001558</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04342500000000001</v>
+        <v>0.00155</v>
       </c>
       <c r="E6" s="1">
-        <v>0.043244</v>
+        <v>0.001551</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40421</v>
+        <v>40451</v>
       </c>
       <c r="B7" s="1">
-        <v>0.001548</v>
+        <v>0.04532</v>
       </c>
       <c r="C7" s="1">
-        <v>0.001558</v>
+        <v>0.045333</v>
       </c>
       <c r="D7" s="1">
-        <v>0.00155</v>
+        <v>0.045331</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001551</v>
+        <v>0.04533</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40451</v>
+        <v>40482</v>
       </c>
       <c r="B8" s="1">
-        <v>0.04532</v>
+        <v>0.009824000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.045333</v>
+        <v>0.009851</v>
       </c>
       <c r="D8" s="1">
-        <v>0.045331</v>
+        <v>0.009762</v>
       </c>
       <c r="E8" s="1">
-        <v>0.04533</v>
+        <v>0.009781</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40482</v>
+        <v>40512</v>
       </c>
       <c r="B9" s="1">
-        <v>0.009824000000000001</v>
+        <v>-0.006762000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>0.009851</v>
+        <v>-0.005979</v>
       </c>
       <c r="D9" s="1">
-        <v>0.009762</v>
+        <v>-0.006311</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009781</v>
+        <v>-0.006307</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40512</v>
+        <v>40543</v>
       </c>
       <c r="B10" s="1">
-        <v>-0.006762000000000001</v>
+        <v>0.029284</v>
       </c>
       <c r="C10" s="1">
-        <v>-0.005979</v>
+        <v>0.029312</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.006311</v>
+        <v>0.029354</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006307</v>
+        <v>0.029341</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40543</v>
+        <v>40574</v>
       </c>
       <c r="B11" s="1">
-        <v>0.029284</v>
+        <v>-0.00115</v>
       </c>
       <c r="C11" s="1">
-        <v>0.029312</v>
+        <v>-0.001119</v>
       </c>
       <c r="D11" s="1">
-        <v>0.029354</v>
+        <v>-0.001115</v>
       </c>
       <c r="E11" s="1">
-        <v>0.029341</v>
+        <v>-0.001121</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40574</v>
+        <v>40602</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.00115</v>
+        <v>0.023291</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.001119</v>
+        <v>0.023317</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.001115</v>
+        <v>0.023308</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001121</v>
+        <v>0.023307</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40602</v>
+        <v>40633</v>
       </c>
       <c r="B13" s="1">
-        <v>0.023291</v>
+        <v>0.002493</v>
       </c>
       <c r="C13" s="1">
-        <v>0.023317</v>
+        <v>0.002493</v>
       </c>
       <c r="D13" s="1">
-        <v>0.023308</v>
+        <v>0.002494</v>
       </c>
       <c r="E13" s="1">
-        <v>0.023307</v>
+        <v>0.002494</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40633</v>
+        <v>40663</v>
       </c>
       <c r="B14" s="1">
-        <v>0.002493</v>
+        <v>0.030082</v>
       </c>
       <c r="C14" s="1">
-        <v>0.002493</v>
+        <v>0.030134</v>
       </c>
       <c r="D14" s="1">
-        <v>0.002494</v>
+        <v>0.030134</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002494</v>
+        <v>0.030126</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40663</v>
+        <v>40694</v>
       </c>
       <c r="B15" s="1">
-        <v>0.030082</v>
+        <v>0.006251</v>
       </c>
       <c r="C15" s="1">
-        <v>0.030134</v>
+        <v>0.006252</v>
       </c>
       <c r="D15" s="1">
-        <v>0.030134</v>
+        <v>0.006251</v>
       </c>
       <c r="E15" s="1">
-        <v>0.030126</v>
+        <v>0.006251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40694</v>
+        <v>40724</v>
       </c>
       <c r="B16" s="1">
-        <v>0.006251</v>
+        <v>-0.016394</v>
       </c>
       <c r="C16" s="1">
-        <v>0.006252</v>
+        <v>-0.016393</v>
       </c>
       <c r="D16" s="1">
-        <v>0.006251</v>
+        <v>-0.016388</v>
       </c>
       <c r="E16" s="1">
-        <v>0.006251</v>
+        <v>-0.016389</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40724</v>
+        <v>40755</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.016394</v>
+        <v>0.010779</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.016393</v>
+        <v>0.010779</v>
       </c>
       <c r="D17" s="1">
-        <v>-0.016388</v>
+        <v>0.010779</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.016389</v>
+        <v>0.010779</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40755</v>
+        <v>40786</v>
       </c>
       <c r="B18" s="1">
-        <v>0.010779</v>
+        <v>-0.006495</v>
       </c>
       <c r="C18" s="1">
-        <v>0.010779</v>
+        <v>-0.006492</v>
       </c>
       <c r="D18" s="1">
-        <v>0.010779</v>
+        <v>-0.006488000000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.010779</v>
+        <v>-0.00649</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40786</v>
+        <v>40816</v>
       </c>
       <c r="B19" s="1">
-        <v>-0.006495</v>
+        <v>0.001202</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.006492</v>
+        <v>0.001203</v>
       </c>
       <c r="D19" s="1">
-        <v>-0.006488000000000001</v>
+        <v>0.001203</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.00649</v>
+        <v>0.001203</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40816</v>
+        <v>40847</v>
       </c>
       <c r="B20" s="1">
-        <v>0.001202</v>
+        <v>0.035731</v>
       </c>
       <c r="C20" s="1">
-        <v>0.001203</v>
+        <v>0.035736</v>
       </c>
       <c r="D20" s="1">
-        <v>0.001203</v>
+        <v>0.03573</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001203</v>
+        <v>0.035731</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40847</v>
+        <v>40877</v>
       </c>
       <c r="B21" s="1">
-        <v>0.035731</v>
+        <v>-0.006834</v>
       </c>
       <c r="C21" s="1">
-        <v>0.035736</v>
+        <v>-0.006834</v>
       </c>
       <c r="D21" s="1">
-        <v>0.03573</v>
+        <v>-0.006832</v>
       </c>
       <c r="E21" s="1">
-        <v>0.035731</v>
+        <v>-0.006832</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40877</v>
+        <v>40908</v>
       </c>
       <c r="B22" s="1">
-        <v>-0.006834</v>
+        <v>0.011627</v>
       </c>
       <c r="C22" s="1">
-        <v>-0.006834</v>
+        <v>0.011629</v>
       </c>
       <c r="D22" s="1">
-        <v>-0.006832</v>
+        <v>0.011629</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.006832</v>
+        <v>0.011629</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40908</v>
+        <v>40939</v>
       </c>
       <c r="B23" s="1">
-        <v>0.011627</v>
+        <v>0.027751</v>
       </c>
       <c r="C23" s="1">
-        <v>0.011629</v>
+        <v>0.027758</v>
       </c>
       <c r="D23" s="1">
-        <v>0.011629</v>
+        <v>0.027751</v>
       </c>
       <c r="E23" s="1">
-        <v>0.011629</v>
+        <v>0.027752</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40939</v>
+        <v>40968</v>
       </c>
       <c r="B24" s="1">
-        <v>0.027751</v>
+        <v>0.018401</v>
       </c>
       <c r="C24" s="1">
-        <v>0.027758</v>
+        <v>0.018387</v>
       </c>
       <c r="D24" s="1">
-        <v>0.027751</v>
+        <v>0.018407</v>
       </c>
       <c r="E24" s="1">
-        <v>0.027752</v>
+        <v>0.018403</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40968</v>
+        <v>40999</v>
       </c>
       <c r="B25" s="1">
-        <v>0.018401</v>
+        <v>-0.003827</v>
       </c>
       <c r="C25" s="1">
-        <v>0.018387</v>
+        <v>-0.00384</v>
       </c>
       <c r="D25" s="1">
-        <v>0.018407</v>
+        <v>-0.00384</v>
       </c>
       <c r="E25" s="1">
-        <v>0.018403</v>
+        <v>-0.003838</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>40999</v>
+        <v>41029</v>
       </c>
       <c r="B26" s="1">
-        <v>-0.003827</v>
+        <v>0.010169</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.00384</v>
+        <v>0.010171</v>
       </c>
       <c r="D26" s="1">
-        <v>-0.00384</v>
+        <v>0.010169</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.003838</v>
+        <v>0.010169</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41029</v>
+        <v>41060</v>
       </c>
       <c r="B27" s="1">
-        <v>0.010169</v>
+        <v>-0.007147</v>
       </c>
       <c r="C27" s="1">
-        <v>0.010171</v>
+        <v>-0.007141999999999999</v>
       </c>
       <c r="D27" s="1">
-        <v>0.010169</v>
+        <v>-0.007113</v>
       </c>
       <c r="E27" s="1">
-        <v>0.010169</v>
+        <v>-0.007122000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41060</v>
+        <v>41090</v>
       </c>
       <c r="B28" s="1">
-        <v>-0.007147</v>
+        <v>0.013617</v>
       </c>
       <c r="C28" s="1">
-        <v>-0.007141999999999999</v>
+        <v>0.013665</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.007113</v>
+        <v>0.013662</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.007122000000000001</v>
+        <v>0.013655</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41090</v>
+        <v>41121</v>
       </c>
       <c r="B29" s="1">
-        <v>0.013617</v>
+        <v>0.022428</v>
       </c>
       <c r="C29" s="1">
-        <v>0.013665</v>
+        <v>0.022445</v>
       </c>
       <c r="D29" s="1">
-        <v>0.013662</v>
+        <v>0.022415</v>
       </c>
       <c r="E29" s="1">
-        <v>0.013655</v>
+        <v>0.022421</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41121</v>
+        <v>41152</v>
       </c>
       <c r="B30" s="1">
-        <v>0.022428</v>
+        <v>0.006546</v>
       </c>
       <c r="C30" s="1">
-        <v>0.022445</v>
+        <v>0.006548000000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>0.022415</v>
+        <v>0.006546</v>
       </c>
       <c r="E30" s="1">
-        <v>0.022421</v>
+        <v>0.006546</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41152</v>
+        <v>41182</v>
       </c>
       <c r="B31" s="1">
-        <v>0.006546</v>
+        <v>0.008595999999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>0.006548000000000001</v>
+        <v>0.008598</v>
       </c>
       <c r="D31" s="1">
-        <v>0.006546</v>
+        <v>0.008597</v>
       </c>
       <c r="E31" s="1">
-        <v>0.006546</v>
+        <v>0.008597</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41182</v>
+        <v>41213</v>
       </c>
       <c r="B32" s="1">
-        <v>0.008595999999999999</v>
+        <v>0.001504</v>
       </c>
       <c r="C32" s="1">
-        <v>0.008598</v>
+        <v>0.001506</v>
       </c>
       <c r="D32" s="1">
-        <v>0.008597</v>
+        <v>0.001505</v>
       </c>
       <c r="E32" s="1">
-        <v>0.008597</v>
+        <v>0.001505</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41213</v>
+        <v>41243</v>
       </c>
       <c r="B33" s="1">
-        <v>0.001504</v>
+        <v>0.007569</v>
       </c>
       <c r="C33" s="1">
-        <v>0.001506</v>
+        <v>0.007571</v>
       </c>
       <c r="D33" s="1">
-        <v>0.001505</v>
+        <v>0.007571</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001505</v>
+        <v>0.007571</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41243</v>
+        <v>41274</v>
       </c>
       <c r="B34" s="1">
-        <v>0.007569</v>
+        <v>0.008156999999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>0.007571</v>
+        <v>0.008168999999999999</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007571</v>
+        <v>0.008165</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007571</v>
+        <v>0.008163999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41274</v>
+        <v>41305</v>
       </c>
       <c r="B35" s="1">
-        <v>0.008156999999999999</v>
+        <v>0.013471</v>
       </c>
       <c r="C35" s="1">
-        <v>0.008168999999999999</v>
+        <v>0.013571</v>
       </c>
       <c r="D35" s="1">
-        <v>0.008165</v>
+        <v>0.013456</v>
       </c>
       <c r="E35" s="1">
-        <v>0.008163999999999999</v>
+        <v>0.013479</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41305</v>
+        <v>41333</v>
       </c>
       <c r="B36" s="1">
-        <v>0.013471</v>
+        <v>0.007465</v>
       </c>
       <c r="C36" s="1">
-        <v>0.013571</v>
+        <v>0.007458</v>
       </c>
       <c r="D36" s="1">
-        <v>0.013456</v>
+        <v>0.00747</v>
       </c>
       <c r="E36" s="1">
-        <v>0.013479</v>
+        <v>0.007467000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41333</v>
+        <v>41364</v>
       </c>
       <c r="B37" s="1">
-        <v>0.007465</v>
+        <v>0.015025</v>
       </c>
       <c r="C37" s="1">
-        <v>0.007458</v>
+        <v>0.015027</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00747</v>
+        <v>0.015024</v>
       </c>
       <c r="E37" s="1">
-        <v>0.007467000000000001</v>
+        <v>0.015024</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41364</v>
+        <v>41394</v>
       </c>
       <c r="B38" s="1">
-        <v>0.015025</v>
+        <v>0.025087</v>
       </c>
       <c r="C38" s="1">
-        <v>0.015027</v>
+        <v>0.025091</v>
       </c>
       <c r="D38" s="1">
-        <v>0.015024</v>
+        <v>0.025086</v>
       </c>
       <c r="E38" s="1">
-        <v>0.015024</v>
+        <v>0.025087</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41394</v>
+        <v>41425</v>
       </c>
       <c r="B39" s="1">
-        <v>0.025087</v>
+        <v>-0.016671</v>
       </c>
       <c r="C39" s="1">
-        <v>0.025091</v>
+        <v>-0.016673</v>
       </c>
       <c r="D39" s="1">
-        <v>0.025086</v>
+        <v>-0.01667</v>
       </c>
       <c r="E39" s="1">
-        <v>0.025087</v>
+        <v>-0.01667</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41425</v>
+        <v>41455</v>
       </c>
       <c r="B40" s="1">
-        <v>-0.016671</v>
+        <v>-0.018163</v>
       </c>
       <c r="C40" s="1">
-        <v>-0.016673</v>
+        <v>-0.018165</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.01667</v>
+        <v>-0.01816</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01667</v>
+        <v>-0.018162</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41455</v>
+        <v>41486</v>
       </c>
       <c r="B41" s="1">
-        <v>-0.018163</v>
+        <v>0.014254</v>
       </c>
       <c r="C41" s="1">
-        <v>-0.018165</v>
+        <v>0.014257</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.01816</v>
+        <v>0.014252</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.018162</v>
+        <v>0.014253</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41486</v>
+        <v>41517</v>
       </c>
       <c r="B42" s="1">
-        <v>0.014254</v>
+        <v>-0.011051</v>
       </c>
       <c r="C42" s="1">
-        <v>0.014257</v>
+        <v>-0.011022</v>
       </c>
       <c r="D42" s="1">
-        <v>0.014252</v>
+        <v>-0.011036</v>
       </c>
       <c r="E42" s="1">
-        <v>0.014253</v>
+        <v>-0.011036</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41517</v>
+        <v>41547</v>
       </c>
       <c r="B43" s="1">
-        <v>-0.011051</v>
+        <v>0.020117</v>
       </c>
       <c r="C43" s="1">
-        <v>-0.011022</v>
+        <v>0.02012</v>
       </c>
       <c r="D43" s="1">
-        <v>-0.011036</v>
+        <v>0.020114</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.011036</v>
+        <v>0.020116</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41547</v>
+        <v>41578</v>
       </c>
       <c r="B44" s="1">
-        <v>0.020117</v>
+        <v>0.02223</v>
       </c>
       <c r="C44" s="1">
-        <v>0.02012</v>
+        <v>0.022236</v>
       </c>
       <c r="D44" s="1">
-        <v>0.020114</v>
+        <v>0.022227</v>
       </c>
       <c r="E44" s="1">
-        <v>0.020116</v>
+        <v>0.022229</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41578</v>
+        <v>41608</v>
       </c>
       <c r="B45" s="1">
-        <v>0.02223</v>
+        <v>0.001657</v>
       </c>
       <c r="C45" s="1">
-        <v>0.022236</v>
+        <v>0.001657</v>
       </c>
       <c r="D45" s="1">
-        <v>0.022227</v>
+        <v>0.00166</v>
       </c>
       <c r="E45" s="1">
-        <v>0.022229</v>
+        <v>0.001659</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41608</v>
+        <v>41639</v>
       </c>
       <c r="B46" s="1">
-        <v>0.001657</v>
+        <v>0.007311</v>
       </c>
       <c r="C46" s="1">
-        <v>0.001657</v>
+        <v>0.007312</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00166</v>
+        <v>0.00731</v>
       </c>
       <c r="E46" s="1">
-        <v>0.001659</v>
+        <v>0.00731</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41639</v>
+        <v>41670</v>
       </c>
       <c r="B47" s="1">
-        <v>0.007311</v>
+        <v>0.001869</v>
       </c>
       <c r="C47" s="1">
-        <v>0.007312</v>
+        <v>0.001871</v>
       </c>
       <c r="D47" s="1">
-        <v>0.00731</v>
+        <v>0.001871</v>
       </c>
       <c r="E47" s="1">
-        <v>0.00731</v>
+        <v>0.001871</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41670</v>
+        <v>41698</v>
       </c>
       <c r="B48" s="1">
-        <v>0.001869</v>
+        <v>0.022899</v>
       </c>
       <c r="C48" s="1">
-        <v>0.001871</v>
+        <v>0.02297</v>
       </c>
       <c r="D48" s="1">
-        <v>0.001871</v>
+        <v>0.022973</v>
       </c>
       <c r="E48" s="1">
-        <v>0.001871</v>
+        <v>0.02296</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41698</v>
+        <v>41729</v>
       </c>
       <c r="B49" s="1">
-        <v>0.022899</v>
+        <v>0.007581</v>
       </c>
       <c r="C49" s="1">
-        <v>0.02297</v>
+        <v>0.007582</v>
       </c>
       <c r="D49" s="1">
-        <v>0.022973</v>
+        <v>0.007581</v>
       </c>
       <c r="E49" s="1">
-        <v>0.02296</v>
+        <v>0.007581</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41729</v>
+        <v>41759</v>
       </c>
       <c r="B50" s="1">
-        <v>0.007581</v>
+        <v>0.002559</v>
       </c>
       <c r="C50" s="1">
-        <v>0.007582</v>
+        <v>0.002559</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007581</v>
+        <v>0.002565</v>
       </c>
       <c r="E50" s="1">
-        <v>0.007581</v>
+        <v>0.002563</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41759</v>
+        <v>41790</v>
       </c>
       <c r="B51" s="1">
-        <v>0.002559</v>
+        <v>0.018616</v>
       </c>
       <c r="C51" s="1">
-        <v>0.002559</v>
+        <v>0.018622</v>
       </c>
       <c r="D51" s="1">
-        <v>0.002565</v>
+        <v>0.018616</v>
       </c>
       <c r="E51" s="1">
-        <v>0.002563</v>
+        <v>0.018617</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41790</v>
+        <v>41820</v>
       </c>
       <c r="B52" s="1">
-        <v>0.018616</v>
+        <v>0.007592</v>
       </c>
       <c r="C52" s="1">
-        <v>0.018622</v>
+        <v>0.007592</v>
       </c>
       <c r="D52" s="1">
-        <v>0.018616</v>
+        <v>0.00759</v>
       </c>
       <c r="E52" s="1">
-        <v>0.018617</v>
+        <v>0.007591</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B53" s="1">
-        <v>0.007592</v>
+        <v>-0.003537</v>
       </c>
       <c r="C53" s="1">
-        <v>0.007592</v>
+        <v>-0.003536</v>
       </c>
       <c r="D53" s="1">
-        <v>0.00759</v>
+        <v>-0.003534</v>
       </c>
       <c r="E53" s="1">
-        <v>0.007591</v>
+        <v>-0.003535</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41851</v>
+        <v>41882</v>
       </c>
       <c r="B54" s="1">
-        <v>-0.003537</v>
+        <v>0.024396</v>
       </c>
       <c r="C54" s="1">
-        <v>-0.003536</v>
+        <v>0.024396</v>
       </c>
       <c r="D54" s="1">
-        <v>-0.003534</v>
+        <v>0.0244</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.003535</v>
+        <v>0.024399</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="B55" s="1">
-        <v>0.024396</v>
+        <v>-0.018814</v>
       </c>
       <c r="C55" s="1">
-        <v>0.024396</v>
+        <v>-0.018804</v>
       </c>
       <c r="D55" s="1">
-        <v>0.0244</v>
+        <v>-0.018789</v>
       </c>
       <c r="E55" s="1">
-        <v>0.024399</v>
+        <v>-0.018796</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41912</v>
+        <v>41943</v>
       </c>
       <c r="B56" s="1">
-        <v>-0.018814</v>
+        <v>0.012246</v>
       </c>
       <c r="C56" s="1">
-        <v>-0.018804</v>
+        <v>0.012244</v>
       </c>
       <c r="D56" s="1">
-        <v>-0.018789</v>
+        <v>0.012254</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.018796</v>
+        <v>0.012251</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="B57" s="1">
-        <v>0.012246</v>
+        <v>0.016811</v>
       </c>
       <c r="C57" s="1">
-        <v>0.012244</v>
+        <v>0.01682</v>
       </c>
       <c r="D57" s="1">
-        <v>0.012254</v>
+        <v>0.01682</v>
       </c>
       <c r="E57" s="1">
-        <v>0.012251</v>
+        <v>0.016818</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="B58" s="1">
-        <v>0.016811</v>
+        <v>0.002068</v>
       </c>
       <c r="C58" s="1">
-        <v>0.01682</v>
+        <v>0.002076</v>
       </c>
       <c r="D58" s="1">
-        <v>0.01682</v>
+        <v>0.00208</v>
       </c>
       <c r="E58" s="1">
-        <v>0.016818</v>
+        <v>0.002077</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="B59" s="1">
-        <v>0.002068</v>
+        <v>0.023362</v>
       </c>
       <c r="C59" s="1">
-        <v>0.002076</v>
+        <v>0.023357</v>
       </c>
       <c r="D59" s="1">
-        <v>0.00208</v>
+        <v>0.02335</v>
       </c>
       <c r="E59" s="1">
-        <v>0.002077</v>
+        <v>0.023353</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="B60" s="1">
-        <v>0.023362</v>
+        <v>0.007672</v>
       </c>
       <c r="C60" s="1">
-        <v>0.023357</v>
+        <v>0.007672</v>
       </c>
       <c r="D60" s="1">
-        <v>0.02335</v>
+        <v>0.007671</v>
       </c>
       <c r="E60" s="1">
-        <v>0.023353</v>
+        <v>0.007671</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="B61" s="1">
-        <v>0.007672</v>
+        <v>0.000725</v>
       </c>
       <c r="C61" s="1">
-        <v>0.007672</v>
+        <v>0.000731</v>
       </c>
       <c r="D61" s="1">
-        <v>0.007671</v>
+        <v>0.000725</v>
       </c>
       <c r="E61" s="1">
-        <v>0.007671</v>
+        <v>0.000726</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="B62" s="1">
-        <v>0.000725</v>
+        <v>0.000483</v>
       </c>
       <c r="C62" s="1">
-        <v>0.000731</v>
+        <v>0.000483</v>
       </c>
       <c r="D62" s="1">
-        <v>0.000725</v>
+        <v>0.000483</v>
       </c>
       <c r="E62" s="1">
-        <v>0.000726</v>
+        <v>0.000483</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42124</v>
+        <v>42155</v>
       </c>
       <c r="B63" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="C63" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="D63" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="E63" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42155</v>
+        <v>42185</v>
       </c>
       <c r="B64" s="1">
-        <v>-0.001447</v>
+        <v>-0.019129</v>
       </c>
       <c r="C64" s="1">
-        <v>-0.001447</v>
+        <v>-0.019129</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.001447</v>
+        <v>-0.019127</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.001447</v>
+        <v>-0.019128</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="B65" s="1">
-        <v>-0.019129</v>
+        <v>0.010715</v>
       </c>
       <c r="C65" s="1">
-        <v>-0.019129</v>
+        <v>0.010715</v>
       </c>
       <c r="D65" s="1">
-        <v>-0.019127</v>
+        <v>0.010714</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.019128</v>
+        <v>0.010714</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="B66" s="1">
-        <v>0.010715</v>
+        <v>-0.027128</v>
       </c>
       <c r="C66" s="1">
-        <v>0.010715</v>
+        <v>-0.027126</v>
       </c>
       <c r="D66" s="1">
-        <v>0.010714</v>
+        <v>-0.027125</v>
       </c>
       <c r="E66" s="1">
-        <v>0.010714</v>
+        <v>-0.027126</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="B67" s="1">
-        <v>-0.027128</v>
+        <v>-0.00876</v>
       </c>
       <c r="C67" s="1">
-        <v>-0.027126</v>
+        <v>-0.00876</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.027125</v>
+        <v>-0.008758999999999999</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.027126</v>
+        <v>-0.00876</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B68" s="1">
-        <v>-0.00876</v>
+        <v>0.028753</v>
       </c>
       <c r="C68" s="1">
-        <v>-0.00876</v>
+        <v>0.028716</v>
       </c>
       <c r="D68" s="1">
-        <v>-0.008758999999999999</v>
+        <v>0.028798</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.00876</v>
+        <v>0.028775</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B69" s="1">
-        <v>0.028753</v>
+        <v>-0.003828</v>
       </c>
       <c r="C69" s="1">
-        <v>0.028716</v>
+        <v>-0.003819</v>
       </c>
       <c r="D69" s="1">
-        <v>0.028798</v>
+        <v>-0.003807</v>
       </c>
       <c r="E69" s="1">
-        <v>0.028775</v>
+        <v>-0.003813</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B70" s="1">
-        <v>-0.003828</v>
+        <v>-0.008187</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.003819</v>
+        <v>-0.008187</v>
       </c>
       <c r="D70" s="1">
-        <v>-0.003807</v>
+        <v>-0.008184</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.003813</v>
+        <v>-0.008185</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B71" s="1">
-        <v>-0.008187</v>
+        <v>-0.014827</v>
       </c>
       <c r="C71" s="1">
-        <v>-0.008187</v>
+        <v>-0.01483</v>
       </c>
       <c r="D71" s="1">
-        <v>-0.008184</v>
+        <v>-0.014826</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.008185</v>
+        <v>-0.014827</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B72" s="1">
-        <v>-0.014827</v>
+        <v>0.007148</v>
       </c>
       <c r="C72" s="1">
-        <v>-0.01483</v>
+        <v>0.007148</v>
       </c>
       <c r="D72" s="1">
-        <v>-0.014826</v>
+        <v>0.007150999999999999</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.014827</v>
+        <v>0.00715</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B73" s="1">
-        <v>0.007148</v>
+        <v>0.034737</v>
       </c>
       <c r="C73" s="1">
-        <v>0.007148</v>
+        <v>0.034736</v>
       </c>
       <c r="D73" s="1">
-        <v>0.007150999999999999</v>
+        <v>0.034733</v>
       </c>
       <c r="E73" s="1">
-        <v>0.00715</v>
+        <v>0.034734</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B74" s="1">
-        <v>0.034737</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="C74" s="1">
-        <v>0.034736</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="D74" s="1">
-        <v>0.034733</v>
+        <v>0.009242</v>
       </c>
       <c r="E74" s="1">
-        <v>0.034734</v>
+        <v>0.009242999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B75" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001881</v>
       </c>
       <c r="C75" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001883</v>
       </c>
       <c r="D75" s="1">
-        <v>0.009242</v>
+        <v>0.001884</v>
       </c>
       <c r="E75" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001883</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B76" s="1">
-        <v>0.001881</v>
+        <v>0.010067</v>
       </c>
       <c r="C76" s="1">
-        <v>0.001883</v>
+        <v>0.010098</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001884</v>
+        <v>0.01013</v>
       </c>
       <c r="E76" s="1">
-        <v>0.001883</v>
+        <v>0.010112</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B77" s="1">
-        <v>0.010067</v>
+        <v>0.021267</v>
       </c>
       <c r="C77" s="1">
-        <v>0.010098</v>
+        <v>0.021267</v>
       </c>
       <c r="D77" s="1">
-        <v>0.01013</v>
+        <v>0.021264</v>
       </c>
       <c r="E77" s="1">
-        <v>0.010112</v>
+        <v>0.021265</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B78" s="1">
-        <v>0.021267</v>
+        <v>0.001143</v>
       </c>
       <c r="C78" s="1">
-        <v>0.021267</v>
+        <v>0.001146</v>
       </c>
       <c r="D78" s="1">
-        <v>0.021264</v>
+        <v>0.001146</v>
       </c>
       <c r="E78" s="1">
-        <v>0.021265</v>
+        <v>0.001145</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B79" s="1">
-        <v>0.001143</v>
+        <v>0.00083</v>
       </c>
       <c r="C79" s="1">
-        <v>0.001146</v>
+        <v>0.0008309999999999999</v>
       </c>
       <c r="D79" s="1">
-        <v>0.001146</v>
+        <v>0.00083</v>
       </c>
       <c r="E79" s="1">
-        <v>0.001145</v>
+        <v>0.00083</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B80" s="1">
-        <v>0.00083</v>
+        <v>-0.011784</v>
       </c>
       <c r="C80" s="1">
-        <v>0.0008309999999999999</v>
+        <v>-0.011773</v>
       </c>
       <c r="D80" s="1">
-        <v>0.00083</v>
+        <v>-0.011778</v>
       </c>
       <c r="E80" s="1">
-        <v>0.00083</v>
+        <v>-0.011778</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B81" s="1">
-        <v>-0.011784</v>
+        <v>-0.011504</v>
       </c>
       <c r="C81" s="1">
-        <v>-0.011773</v>
+        <v>-0.011503</v>
       </c>
       <c r="D81" s="1">
-        <v>-0.011778</v>
+        <v>-0.011501</v>
       </c>
       <c r="E81" s="1">
-        <v>-0.011778</v>
+        <v>-0.011502</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B82" s="1">
-        <v>-0.011504</v>
+        <v>0.010278</v>
       </c>
       <c r="C82" s="1">
-        <v>-0.011503</v>
+        <v>0.010006</v>
       </c>
       <c r="D82" s="1">
-        <v>-0.011501</v>
+        <v>0.010143</v>
       </c>
       <c r="E82" s="1">
-        <v>-0.011502</v>
+        <v>0.010141</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B83" s="1">
-        <v>0.010278</v>
+        <v>0.01169</v>
       </c>
       <c r="C83" s="1">
-        <v>0.010006</v>
+        <v>0.011614</v>
       </c>
       <c r="D83" s="1">
-        <v>0.010143</v>
+        <v>0.011658</v>
       </c>
       <c r="E83" s="1">
-        <v>0.010141</v>
+        <v>0.011655</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B84" s="1">
-        <v>0.01169</v>
+        <v>0.017668</v>
       </c>
       <c r="C84" s="1">
-        <v>0.011614</v>
+        <v>0.017672</v>
       </c>
       <c r="D84" s="1">
-        <v>0.011658</v>
+        <v>0.017677</v>
       </c>
       <c r="E84" s="1">
-        <v>0.011655</v>
+        <v>0.017674</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B85" s="1">
-        <v>0.017668</v>
+        <v>0.005195</v>
       </c>
       <c r="C85" s="1">
-        <v>0.017672</v>
+        <v>0.005195</v>
       </c>
       <c r="D85" s="1">
-        <v>0.017677</v>
+        <v>0.005195</v>
       </c>
       <c r="E85" s="1">
-        <v>0.017674</v>
+        <v>0.005195</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B86" s="1">
-        <v>0.005195</v>
+        <v>0.013597</v>
       </c>
       <c r="C86" s="1">
-        <v>0.005195</v>
+        <v>0.0136</v>
       </c>
       <c r="D86" s="1">
-        <v>0.005195</v>
+        <v>0.013598</v>
       </c>
       <c r="E86" s="1">
-        <v>0.005195</v>
+        <v>0.013598</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B87" s="1">
-        <v>0.013597</v>
+        <v>0.015261</v>
       </c>
       <c r="C87" s="1">
-        <v>0.0136</v>
+        <v>0.015261</v>
       </c>
       <c r="D87" s="1">
-        <v>0.013598</v>
+        <v>0.015262</v>
       </c>
       <c r="E87" s="1">
-        <v>0.013598</v>
+        <v>0.015262</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B88" s="1">
-        <v>0.015261</v>
+        <v>0.005246</v>
       </c>
       <c r="C88" s="1">
-        <v>0.015261</v>
+        <v>0.005249</v>
       </c>
       <c r="D88" s="1">
-        <v>0.015262</v>
+        <v>0.005264</v>
       </c>
       <c r="E88" s="1">
-        <v>0.015262</v>
+        <v>0.005257</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B89" s="1">
-        <v>0.005246</v>
+        <v>0.011307</v>
       </c>
       <c r="C89" s="1">
-        <v>0.005249</v>
+        <v>0.011307</v>
       </c>
       <c r="D89" s="1">
-        <v>0.005264</v>
+        <v>0.011306</v>
       </c>
       <c r="E89" s="1">
-        <v>0.005257</v>
+        <v>0.011307</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B90" s="1">
-        <v>0.011307</v>
+        <v>0.010725</v>
       </c>
       <c r="C90" s="1">
-        <v>0.011307</v>
+        <v>0.010724</v>
       </c>
       <c r="D90" s="1">
-        <v>0.011306</v>
+        <v>0.010725</v>
       </c>
       <c r="E90" s="1">
-        <v>0.011307</v>
+        <v>0.010725</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B91" s="1">
-        <v>0.010725</v>
+        <v>0.008107999999999999</v>
       </c>
       <c r="C91" s="1">
-        <v>0.010724</v>
+        <v>0.008107</v>
       </c>
       <c r="D91" s="1">
-        <v>0.010725</v>
+        <v>0.008107</v>
       </c>
       <c r="E91" s="1">
-        <v>0.010725</v>
+        <v>0.008107</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B92" s="1">
-        <v>0.008107999999999999</v>
+        <v>0.011965</v>
       </c>
       <c r="C92" s="1">
-        <v>0.008107</v>
+        <v>0.011963</v>
       </c>
       <c r="D92" s="1">
-        <v>0.008107</v>
+        <v>0.011963</v>
       </c>
       <c r="E92" s="1">
-        <v>0.008107</v>
+        <v>0.011964</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B93" s="1">
-        <v>0.011965</v>
+        <v>0.013354</v>
       </c>
       <c r="C93" s="1">
-        <v>0.011963</v>
+        <v>0.013354</v>
       </c>
       <c r="D93" s="1">
-        <v>0.011963</v>
+        <v>0.013356</v>
       </c>
       <c r="E93" s="1">
-        <v>0.011964</v>
+        <v>0.013355</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B94" s="1">
-        <v>0.013354</v>
+        <v>0.011831</v>
       </c>
       <c r="C94" s="1">
-        <v>0.013354</v>
+        <v>0.012308</v>
       </c>
       <c r="D94" s="1">
-        <v>0.013356</v>
+        <v>0.011977</v>
       </c>
       <c r="E94" s="1">
-        <v>0.013355</v>
+        <v>0.012016</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B95" s="1">
-        <v>0.011831</v>
+        <v>0.024717</v>
       </c>
       <c r="C95" s="1">
-        <v>0.012308</v>
+        <v>0.024777</v>
       </c>
       <c r="D95" s="1">
-        <v>0.011977</v>
+        <v>0.016299</v>
       </c>
       <c r="E95" s="1">
-        <v>0.012016</v>
+        <v>0.019876</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B96" s="1">
-        <v>0.024717</v>
+        <v>-0.029926</v>
       </c>
       <c r="C96" s="1">
-        <v>0.024777</v>
+        <v>-0.029924</v>
       </c>
       <c r="D96" s="1">
-        <v>0.016299</v>
+        <v>-0.029905</v>
       </c>
       <c r="E96" s="1">
-        <v>0.019876</v>
+        <v>-0.029913</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B97" s="1">
-        <v>-0.029926</v>
+        <v>0.001458</v>
       </c>
       <c r="C97" s="1">
-        <v>-0.029924</v>
+        <v>0.001458</v>
       </c>
       <c r="D97" s="1">
-        <v>-0.029905</v>
+        <v>0.008959</v>
       </c>
       <c r="E97" s="1">
-        <v>-0.029913</v>
+        <v>0.005778999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B98" s="1">
-        <v>0.001458</v>
+        <v>-0.002009</v>
       </c>
       <c r="C98" s="1">
-        <v>0.001458</v>
+        <v>-0.002009</v>
       </c>
       <c r="D98" s="1">
-        <v>0.008959</v>
+        <v>-0.006636</v>
       </c>
       <c r="E98" s="1">
-        <v>0.005778999999999999</v>
+        <v>-0.004682</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B99" s="1">
-        <v>-0.002009</v>
+        <v>0.006971000000000001</v>
       </c>
       <c r="C99" s="1">
-        <v>-0.002009</v>
+        <v>0.006965</v>
       </c>
       <c r="D99" s="1">
-        <v>-0.006636</v>
+        <v>0.010673</v>
       </c>
       <c r="E99" s="1">
-        <v>-0.004682</v>
+        <v>0.009103</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B100" s="1">
-        <v>0.006971000000000001</v>
+        <v>-0.002816</v>
       </c>
       <c r="C100" s="1">
-        <v>0.006965</v>
+        <v>-0.00284</v>
       </c>
       <c r="D100" s="1">
-        <v>0.010673</v>
+        <v>-0.001519</v>
       </c>
       <c r="E100" s="1">
-        <v>0.009103</v>
+        <v>-0.002073</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B101" s="1">
-        <v>-0.002816</v>
+        <v>0.013499</v>
       </c>
       <c r="C101" s="1">
-        <v>-0.00284</v>
+        <v>0.013494</v>
       </c>
       <c r="D101" s="1">
-        <v>-0.001519</v>
+        <v>0.005810999999999999</v>
       </c>
       <c r="E101" s="1">
-        <v>-0.002073</v>
+        <v>0.009061</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B102" s="1">
-        <v>0.013499</v>
+        <v>0.008215999999999999</v>
       </c>
       <c r="C102" s="1">
-        <v>0.013494</v>
+        <v>0.00822</v>
       </c>
       <c r="D102" s="1">
-        <v>0.005810999999999999</v>
+        <v>0.010221</v>
       </c>
       <c r="E102" s="1">
-        <v>0.009061</v>
+        <v>0.00937</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B103" s="1">
-        <v>0.008215999999999999</v>
+        <v>-0.005064</v>
       </c>
       <c r="C103" s="1">
-        <v>0.00822</v>
+        <v>-0.005064999999999999</v>
       </c>
       <c r="D103" s="1">
-        <v>0.010221</v>
+        <v>-0.011547</v>
       </c>
       <c r="E103" s="1">
-        <v>0.00937</v>
+        <v>-0.008794</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B104" s="1">
-        <v>-0.005064</v>
+        <v>-0.040555</v>
       </c>
       <c r="C104" s="1">
-        <v>-0.005064999999999999</v>
+        <v>-0.040551</v>
       </c>
       <c r="D104" s="1">
-        <v>-0.011547</v>
+        <v>-0.039562</v>
       </c>
       <c r="E104" s="1">
-        <v>-0.008794</v>
+        <v>-0.039984</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B105" s="1">
-        <v>-0.040555</v>
+        <v>0.01145</v>
       </c>
       <c r="C105" s="1">
-        <v>-0.040551</v>
+        <v>0.011447</v>
       </c>
       <c r="D105" s="1">
-        <v>-0.039562</v>
+        <v>0.013939</v>
       </c>
       <c r="E105" s="1">
-        <v>-0.039984</v>
+        <v>0.012878</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B106" s="1">
-        <v>0.01145</v>
+        <v>-0.016159</v>
       </c>
       <c r="C106" s="1">
-        <v>0.011447</v>
+        <v>-0.01617</v>
       </c>
       <c r="D106" s="1">
-        <v>0.013939</v>
+        <v>0.005926</v>
       </c>
       <c r="E106" s="1">
-        <v>0.012878</v>
+        <v>-0.003477</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B107" s="1">
-        <v>-0.016159</v>
+        <v>0.037035</v>
       </c>
       <c r="C107" s="1">
-        <v>-0.01617</v>
+        <v>0.037039</v>
       </c>
       <c r="D107" s="1">
-        <v>0.005926</v>
+        <v>0.028362</v>
       </c>
       <c r="E107" s="1">
-        <v>-0.003477</v>
+        <v>0.032009</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B108" s="1">
-        <v>0.037035</v>
+        <v>0.010188</v>
       </c>
       <c r="C108" s="1">
-        <v>0.037039</v>
+        <v>0.010184</v>
       </c>
       <c r="D108" s="1">
-        <v>0.028362</v>
+        <v>0.002933</v>
       </c>
       <c r="E108" s="1">
-        <v>0.032009</v>
+        <v>0.005999</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B109" s="1">
-        <v>0.010188</v>
+        <v>0.021135</v>
       </c>
       <c r="C109" s="1">
-        <v>0.010184</v>
+        <v>0.021127</v>
       </c>
       <c r="D109" s="1">
-        <v>0.002933</v>
+        <v>0.032959</v>
       </c>
       <c r="E109" s="1">
-        <v>0.005999</v>
+        <v>0.027935</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B110" s="1">
-        <v>0.021135</v>
+        <v>0.010592</v>
       </c>
       <c r="C110" s="1">
-        <v>0.021127</v>
+        <v>0.010584</v>
       </c>
       <c r="D110" s="1">
-        <v>0.032959</v>
+        <v>0.001077</v>
       </c>
       <c r="E110" s="1">
-        <v>0.027935</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B111" s="1">
-        <v>0.010592</v>
+        <v>-0.004251</v>
       </c>
       <c r="C111" s="1">
-        <v>0.010584</v>
+        <v>-0.004255</v>
       </c>
       <c r="D111" s="1">
-        <v>0.001077</v>
+        <v>0.020519</v>
       </c>
       <c r="E111" s="1">
-        <v>0.00509</v>
+        <v>0.010002</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B112" s="1">
-        <v>-0.004251</v>
+        <v>0.033344</v>
       </c>
       <c r="C112" s="1">
-        <v>-0.004255</v>
+        <v>0.033341</v>
       </c>
       <c r="D112" s="1">
-        <v>0.020519</v>
+        <v>0.026978</v>
       </c>
       <c r="E112" s="1">
-        <v>0.010002</v>
+        <v>0.029644</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B113" s="1">
-        <v>0.033344</v>
+        <v>0.005238</v>
       </c>
       <c r="C113" s="1">
-        <v>0.033341</v>
+        <v>0.00523</v>
       </c>
       <c r="D113" s="1">
-        <v>0.026978</v>
+        <v>0.004394</v>
       </c>
       <c r="E113" s="1">
-        <v>0.029644</v>
+        <v>0.004747</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B114" s="1">
-        <v>0.005238</v>
+        <v>0.024274</v>
       </c>
       <c r="C114" s="1">
-        <v>0.00523</v>
+        <v>0.024213</v>
       </c>
       <c r="D114" s="1">
-        <v>0.004394</v>
+        <v>0.05872</v>
       </c>
       <c r="E114" s="1">
-        <v>0.004747</v>
+        <v>0.044206</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B115" s="1">
-        <v>0.024274</v>
+        <v>0.002153</v>
       </c>
       <c r="C115" s="1">
-        <v>0.024213</v>
+        <v>0.002218</v>
       </c>
       <c r="D115" s="1">
-        <v>0.05872</v>
+        <v>-0.009623</v>
       </c>
       <c r="E115" s="1">
-        <v>0.044206</v>
+        <v>-0.004635</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B116" s="1">
-        <v>0.002153</v>
+        <v>0.005681</v>
       </c>
       <c r="C116" s="1">
-        <v>0.002218</v>
+        <v>0.006085</v>
       </c>
       <c r="D116" s="1">
-        <v>-0.009623</v>
+        <v>-0.000153</v>
       </c>
       <c r="E116" s="1">
-        <v>-0.004635</v>
+        <v>0.002441</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B117" s="1">
-        <v>0.005681</v>
+        <v>0.010361</v>
       </c>
       <c r="C117" s="1">
-        <v>0.006085</v>
+        <v>0.010705</v>
       </c>
       <c r="D117" s="1">
-        <v>-0.000153</v>
+        <v>0.006349</v>
       </c>
       <c r="E117" s="1">
-        <v>0.002441</v>
+        <v>0.008153000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B118" s="1">
-        <v>0.010361</v>
+        <v>0.008629</v>
       </c>
       <c r="C118" s="1">
-        <v>0.010705</v>
+        <v>0.007443</v>
       </c>
       <c r="D118" s="1">
-        <v>0.006349</v>
+        <v>-0.007508</v>
       </c>
       <c r="E118" s="1">
-        <v>0.008153000000000001</v>
+        <v>-0.000751</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B119" s="1">
-        <v>0.008629</v>
+        <v>0.010016</v>
       </c>
       <c r="C119" s="1">
-        <v>0.007443</v>
+        <v>0.009792</v>
       </c>
       <c r="D119" s="1">
-        <v>-0.007508</v>
+        <v>0.037942</v>
       </c>
       <c r="E119" s="1">
-        <v>-0.000751</v>
+        <v>0.02564</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B120" s="1">
-        <v>0.010016</v>
+        <v>-0.022208</v>
       </c>
       <c r="C120" s="1">
-        <v>0.009792</v>
+        <v>-0.020781</v>
       </c>
       <c r="D120" s="1">
-        <v>0.037942</v>
+        <v>0.018639</v>
       </c>
       <c r="E120" s="1">
-        <v>0.02564</v>
+        <v>0.001266</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B121" s="1">
-        <v>-0.022208</v>
+        <v>-0.07419100000000001</v>
       </c>
       <c r="C121" s="1">
-        <v>-0.020781</v>
+        <v>-0.07051</v>
       </c>
       <c r="D121" s="1">
-        <v>0.018639</v>
+        <v>-0.012191</v>
       </c>
       <c r="E121" s="1">
-        <v>0.001266</v>
+        <v>-0.037684</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B122" s="1">
-        <v>-0.07419100000000001</v>
+        <v>0.056168</v>
       </c>
       <c r="C122" s="1">
-        <v>-0.07051</v>
+        <v>0.05305</v>
       </c>
       <c r="D122" s="1">
-        <v>-0.012191</v>
+        <v>0.037446</v>
       </c>
       <c r="E122" s="1">
-        <v>-0.037684</v>
+        <v>0.044486</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B123" s="1">
-        <v>0.056168</v>
+        <v>0.015041</v>
       </c>
       <c r="C123" s="1">
-        <v>0.05305</v>
+        <v>0.013544</v>
       </c>
       <c r="D123" s="1">
-        <v>0.037446</v>
+        <v>-0.004533</v>
       </c>
       <c r="E123" s="1">
-        <v>0.044486</v>
+        <v>0.003246</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B124" s="1">
-        <v>0.015041</v>
+        <v>0.012864</v>
       </c>
       <c r="C124" s="1">
-        <v>0.013544</v>
+        <v>0.012183</v>
       </c>
       <c r="D124" s="1">
-        <v>-0.004533</v>
+        <v>0.00859</v>
       </c>
       <c r="E124" s="1">
-        <v>0.003246</v>
+        <v>0.010239</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B125" s="1">
-        <v>0.012864</v>
+        <v>0.034786</v>
       </c>
       <c r="C125" s="1">
-        <v>0.012183</v>
+        <v>0.033863</v>
       </c>
       <c r="D125" s="1">
-        <v>0.00859</v>
+        <v>0.044461</v>
       </c>
       <c r="E125" s="1">
-        <v>0.010239</v>
+        <v>0.040234</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B126" s="1">
-        <v>0.034786</v>
+        <v>0.017061</v>
       </c>
       <c r="C126" s="1">
-        <v>0.033863</v>
+        <v>0.016036</v>
       </c>
       <c r="D126" s="1">
-        <v>0.044461</v>
+        <v>-0.017265</v>
       </c>
       <c r="E126" s="1">
-        <v>0.040234</v>
+        <v>-0.003186</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B127" s="1">
-        <v>0.017061</v>
+        <v>-0.014281</v>
       </c>
       <c r="C127" s="1">
-        <v>0.016036</v>
+        <v>-0.013697</v>
       </c>
       <c r="D127" s="1">
-        <v>-0.017265</v>
+        <v>-0.005055</v>
       </c>
       <c r="E127" s="1">
-        <v>-0.003186</v>
+        <v>-0.008924999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B128" s="1">
-        <v>-0.014281</v>
+        <v>-0.016704</v>
       </c>
       <c r="C128" s="1">
-        <v>-0.013697</v>
+        <v>-0.015702</v>
       </c>
       <c r="D128" s="1">
-        <v>-0.005055</v>
+        <v>-0.023545</v>
       </c>
       <c r="E128" s="1">
-        <v>-0.008924999999999999</v>
+        <v>-0.020374</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B129" s="1">
-        <v>-0.016704</v>
+        <v>0.065382</v>
       </c>
       <c r="C129" s="1">
-        <v>-0.015702</v>
+        <v>0.06457600000000001</v>
       </c>
       <c r="D129" s="1">
-        <v>-0.023545</v>
+        <v>0.044108</v>
       </c>
       <c r="E129" s="1">
-        <v>-0.020374</v>
+        <v>0.053226</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B130" s="1">
-        <v>0.065382</v>
+        <v>0.021767</v>
       </c>
       <c r="C130" s="1">
-        <v>0.06457600000000001</v>
+        <v>0.022151</v>
       </c>
       <c r="D130" s="1">
-        <v>0.044108</v>
+        <v>0.007529</v>
       </c>
       <c r="E130" s="1">
-        <v>0.053226</v>
+        <v>0.013933</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B131" s="1">
-        <v>0.021767</v>
+        <v>-0.013168</v>
       </c>
       <c r="C131" s="1">
-        <v>0.022151</v>
+        <v>-0.012301</v>
       </c>
       <c r="D131" s="1">
-        <v>0.007529</v>
+        <v>-0.0263</v>
       </c>
       <c r="E131" s="1">
-        <v>0.013933</v>
+        <v>-0.020192</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B132" s="1">
-        <v>-0.013168</v>
+        <v>-0.002234</v>
       </c>
       <c r="C132" s="1">
-        <v>-0.012301</v>
+        <v>-0.000961</v>
       </c>
       <c r="D132" s="1">
-        <v>-0.0263</v>
+        <v>-0.032485</v>
       </c>
       <c r="E132" s="1">
-        <v>-0.020192</v>
+        <v>-0.018451</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B133" s="1">
-        <v>-0.002234</v>
+        <v>0.01294</v>
       </c>
       <c r="C133" s="1">
-        <v>-0.000961</v>
+        <v>0.013419</v>
       </c>
       <c r="D133" s="1">
-        <v>-0.032485</v>
+        <v>-0.010056</v>
       </c>
       <c r="E133" s="1">
-        <v>-0.018451</v>
+        <v>0.0006980000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B134" s="1">
-        <v>0.01294</v>
+        <v>0.028613</v>
       </c>
       <c r="C134" s="1">
-        <v>0.013419</v>
+        <v>0.028164</v>
       </c>
       <c r="D134" s="1">
-        <v>-0.010056</v>
+        <v>0.029309</v>
       </c>
       <c r="E134" s="1">
-        <v>0.0006980000000000001</v>
+        <v>0.028885</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B135" s="1">
-        <v>0.028613</v>
+        <v>0.017591</v>
       </c>
       <c r="C135" s="1">
-        <v>0.028164</v>
+        <v>0.018329</v>
       </c>
       <c r="D135" s="1">
-        <v>0.029309</v>
+        <v>0.014168</v>
       </c>
       <c r="E135" s="1">
-        <v>0.028885</v>
+        <v>0.015936</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B136" s="1">
-        <v>0.017591</v>
+        <v>0.018306</v>
       </c>
       <c r="C136" s="1">
-        <v>0.018329</v>
+        <v>0.017976</v>
       </c>
       <c r="D136" s="1">
-        <v>0.014168</v>
+        <v>0.02898</v>
       </c>
       <c r="E136" s="1">
-        <v>0.015936</v>
+        <v>0.023884</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B137" s="1">
-        <v>0.018306</v>
+        <v>0.015858</v>
       </c>
       <c r="C137" s="1">
-        <v>0.017976</v>
+        <v>0.01554</v>
       </c>
       <c r="D137" s="1">
-        <v>0.02898</v>
+        <v>0.024879</v>
       </c>
       <c r="E137" s="1">
-        <v>0.023884</v>
+        <v>0.020584</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B138" s="1">
-        <v>0.015858</v>
+        <v>0.014596</v>
       </c>
       <c r="C138" s="1">
-        <v>0.01554</v>
+        <v>0.014694</v>
       </c>
       <c r="D138" s="1">
-        <v>0.024879</v>
+        <v>0.007593</v>
       </c>
       <c r="E138" s="1">
-        <v>0.020584</v>
+        <v>0.010881</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B139" s="1">
-        <v>0.014596</v>
+        <v>-0.034501</v>
       </c>
       <c r="C139" s="1">
-        <v>0.014694</v>
+        <v>-0.037832</v>
       </c>
       <c r="D139" s="1">
-        <v>0.007593</v>
+        <v>-0.030726</v>
       </c>
       <c r="E139" s="1">
-        <v>0.010881</v>
+        <v>-0.033223</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B140" s="1">
-        <v>-0.034501</v>
+        <v>0.034062</v>
       </c>
       <c r="C140" s="1">
-        <v>-0.037832</v>
+        <v>0.038085</v>
       </c>
       <c r="D140" s="1">
-        <v>-0.030726</v>
+        <v>0.027294</v>
       </c>
       <c r="E140" s="1">
-        <v>-0.033223</v>
+        <v>0.031335</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B141" s="1">
-        <v>0.034062</v>
+        <v>0.014583</v>
       </c>
       <c r="C141" s="1">
-        <v>0.038085</v>
+        <v>0.020934</v>
       </c>
       <c r="D141" s="1">
-        <v>0.027294</v>
+        <v>0.017182</v>
       </c>
       <c r="E141" s="1">
-        <v>0.031335</v>
+        <v>0.017353</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B142" s="1">
-        <v>0.014583</v>
+        <v>0.013202</v>
       </c>
       <c r="C142" s="1">
-        <v>0.020934</v>
+        <v>0.009613</v>
       </c>
       <c r="D142" s="1">
-        <v>0.017182</v>
+        <v>0.005379</v>
       </c>
       <c r="E142" s="1">
-        <v>0.017353</v>
+        <v>0.00827</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B143" s="1">
-        <v>0.013202</v>
+        <v>-0.048359</v>
       </c>
       <c r="C143" s="1">
-        <v>0.009613</v>
+        <v>-0.051444</v>
       </c>
       <c r="D143" s="1">
-        <v>0.005379</v>
+        <v>-0.043723</v>
       </c>
       <c r="E143" s="1">
-        <v>0.00827</v>
+        <v>-0.046588</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B144" s="1">
-        <v>-0.048359</v>
+        <v>-0.020498</v>
       </c>
       <c r="C144" s="1">
-        <v>-0.051444</v>
+        <v>-0.021976</v>
       </c>
       <c r="D144" s="1">
-        <v>-0.043723</v>
+        <v>-0.017199</v>
       </c>
       <c r="E144" s="1">
-        <v>-0.046588</v>
+        <v>-0.019075</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B145" s="1">
-        <v>-0.020498</v>
+        <v>-0.017631</v>
       </c>
       <c r="C145" s="1">
-        <v>-0.021976</v>
+        <v>-0.021784</v>
       </c>
       <c r="D145" s="1">
-        <v>-0.017199</v>
+        <v>-0.026753</v>
       </c>
       <c r="E145" s="1">
-        <v>-0.019075</v>
+        <v>-0.02338</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B146" s="1">
-        <v>-0.017631</v>
+        <v>-0.07614499999999999</v>
       </c>
       <c r="C146" s="1">
-        <v>-0.021784</v>
+        <v>-0.08283599999999999</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.026753</v>
+        <v>-0.080459</v>
       </c>
       <c r="E146" s="1">
-        <v>-0.02338</v>
+        <v>-0.07989399999999999</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B147" s="1">
-        <v>-0.072297</v>
+        <v>-0.010776</v>
       </c>
       <c r="C147" s="1">
-        <v>-0.07865800000000001</v>
+        <v>-0.014128</v>
       </c>
       <c r="D147" s="1">
-        <v>-0.076793</v>
+        <v>-0.006677</v>
       </c>
       <c r="E147" s="1">
-        <v>-0.07607</v>
+        <v>-0.009348</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -445,2484 +445,2484 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40298</v>
+        <v>40329</v>
       </c>
       <c r="B2" s="1">
-        <v>1622528988.09</v>
+        <v>1547543516.8</v>
       </c>
       <c r="C2" s="1">
-        <v>2249160289.73</v>
+        <v>2151316976.44</v>
       </c>
       <c r="D2" s="1">
-        <v>13260630365.46</v>
+        <v>12652570165.23</v>
       </c>
       <c r="E2" s="1">
-        <v>17132319643.28</v>
+        <v>16351430658.47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40329</v>
+        <v>40359</v>
       </c>
       <c r="B3" s="1">
-        <v>1547543516.8</v>
+        <v>1525381389.55</v>
       </c>
       <c r="C3" s="1">
-        <v>2151316976.44</v>
+        <v>2126807551.94</v>
       </c>
       <c r="D3" s="1">
-        <v>12652570165.23</v>
+        <v>12475226298.37</v>
       </c>
       <c r="E3" s="1">
-        <v>16351430658.47</v>
+        <v>16127415239.86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40359</v>
+        <v>40390</v>
       </c>
       <c r="B4" s="1">
-        <v>1525381389.55</v>
+        <v>1706992377.88</v>
       </c>
       <c r="C4" s="1">
-        <v>2126807551.94</v>
+        <v>2217049566.92</v>
       </c>
       <c r="D4" s="1">
-        <v>12475226298.37</v>
+        <v>12970356046.29</v>
       </c>
       <c r="E4" s="1">
-        <v>16127415239.86</v>
+        <v>16894397991.09</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40390</v>
+        <v>40421</v>
       </c>
       <c r="B5" s="1">
-        <v>1706992377.88</v>
+        <v>1703519080.08</v>
       </c>
       <c r="C5" s="1">
-        <v>2217049566.92</v>
+        <v>2218270319.77</v>
       </c>
       <c r="D5" s="1">
-        <v>12970356046.29</v>
+        <v>12943159219.5</v>
       </c>
       <c r="E5" s="1">
-        <v>16894397991.09</v>
+        <v>16864948619.35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40421</v>
+        <v>40451</v>
       </c>
       <c r="B6" s="1">
-        <v>1703519080.08</v>
+        <v>1774147463.24</v>
       </c>
       <c r="C6" s="1">
-        <v>2218270319.77</v>
+        <v>2429501039.02</v>
       </c>
       <c r="D6" s="1">
-        <v>12943159219.5</v>
+        <v>13480390809.59</v>
       </c>
       <c r="E6" s="1">
-        <v>16864948619.35</v>
+        <v>17684039311.85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40451</v>
+        <v>40482</v>
       </c>
       <c r="B7" s="1">
-        <v>1774147463.24</v>
+        <v>1900647341.72</v>
       </c>
       <c r="C7" s="1">
-        <v>2429501039.02</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D7" s="1">
-        <v>13480390809.59</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E7" s="1">
-        <v>17684039311.85</v>
+        <v>17795189712.79</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40482</v>
+        <v>40512</v>
       </c>
       <c r="B8" s="1">
-        <v>1900647341.72</v>
+        <v>1880986063.23</v>
       </c>
       <c r="C8" s="1">
-        <v>2451294838.87</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D8" s="1">
-        <v>13443247532.2</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E8" s="1">
-        <v>17795189712.79</v>
+        <v>19628498009.78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40512</v>
+        <v>40543</v>
       </c>
       <c r="B9" s="1">
-        <v>1880986063.23</v>
+        <v>1928778379.47</v>
       </c>
       <c r="C9" s="1">
-        <v>2932628117.61</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D9" s="1">
-        <v>14814883828.94</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E9" s="1">
-        <v>19628498009.78</v>
+        <v>20035309723.7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40543</v>
+        <v>40574</v>
       </c>
       <c r="B10" s="1">
-        <v>1928778379.47</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C10" s="1">
-        <v>3016301371.7</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D10" s="1">
-        <v>15090229972.53</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E10" s="1">
-        <v>20035309723.7</v>
+        <v>21163883643.67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40574</v>
+        <v>40602</v>
       </c>
       <c r="B11" s="1">
-        <v>3118038032.57</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C11" s="1">
-        <v>3010941131.67</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D11" s="1">
-        <v>15034904479.43</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E11" s="1">
-        <v>21163883643.67</v>
+        <v>21593049295.12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40602</v>
+        <v>40633</v>
       </c>
       <c r="B12" s="1">
-        <v>3181037518.51</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C12" s="1">
-        <v>3072606771.41</v>
+        <v>3077934373.48</v>
       </c>
       <c r="D12" s="1">
-        <v>15339405005.2</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E12" s="1">
-        <v>21593049295.12</v>
+        <v>21597573754.27</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40633</v>
+        <v>40663</v>
       </c>
       <c r="B13" s="1">
-        <v>3181383242.47</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C13" s="1">
-        <v>3077934373.48</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D13" s="1">
-        <v>15338256138.32</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E13" s="1">
-        <v>21597573754.27</v>
+        <v>22196621501.4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40663</v>
+        <v>40694</v>
       </c>
       <c r="B14" s="1">
-        <v>3268994098.86</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C14" s="1">
-        <v>3168259937.35</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D14" s="1">
-        <v>15759367465.19</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E14" s="1">
-        <v>22196621501.4</v>
+        <v>22284802378.54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40694</v>
+        <v>40724</v>
       </c>
       <c r="B15" s="1">
-        <v>3281525082.01</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C15" s="1">
-        <v>3185699769.88</v>
+        <v>3131056633.27</v>
       </c>
       <c r="D15" s="1">
-        <v>15817577526.65</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E15" s="1">
-        <v>22284802378.54</v>
+        <v>21869307212.61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40724</v>
+        <v>40755</v>
       </c>
       <c r="B16" s="1">
-        <v>3219718796.83</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C16" s="1">
-        <v>3131056633.27</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D16" s="1">
-        <v>15518531782.51</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E16" s="1">
-        <v>21869307212.61</v>
+        <v>22052191790.71</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40755</v>
+        <v>40786</v>
       </c>
       <c r="B17" s="1">
-        <v>3245901192.15</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C17" s="1">
-        <v>3162162793.97</v>
+        <v>3139082692.54</v>
       </c>
       <c r="D17" s="1">
-        <v>15644127804.59</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E17" s="1">
-        <v>22052191790.71</v>
+        <v>21857328408.78</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40786</v>
+        <v>40816</v>
       </c>
       <c r="B18" s="1">
-        <v>3216438061.76</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C18" s="1">
-        <v>3139082692.54</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D18" s="1">
-        <v>15501807654.48</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E18" s="1">
-        <v>21857328408.78</v>
+        <v>21890762234.61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40816</v>
+        <v>40847</v>
       </c>
       <c r="B19" s="1">
-        <v>3211645130.63</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C19" s="1">
-        <v>3200272417.15</v>
+        <v>3311931768.5</v>
       </c>
       <c r="D19" s="1">
-        <v>15478844686.83</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E19" s="1">
-        <v>21890762234.61</v>
+        <v>22618006484.29</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40847</v>
+        <v>40877</v>
       </c>
       <c r="B20" s="1">
-        <v>3317215603.4</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C20" s="1">
-        <v>3311931768.5</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D20" s="1">
-        <v>15988859112.39</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E20" s="1">
-        <v>22618006484.29</v>
+        <v>22404833979.68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40877</v>
+        <v>40908</v>
       </c>
       <c r="B21" s="1">
-        <v>3279790855.17</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C21" s="1">
-        <v>3286738232.03</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D21" s="1">
-        <v>15838304892.48</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E21" s="1">
-        <v>22404833979.68</v>
+        <v>22610739192.74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40908</v>
+        <v>40939</v>
       </c>
       <c r="B22" s="1">
-        <v>3308515656.83</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C22" s="1">
-        <v>3322199318.6</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D22" s="1">
-        <v>15980024217.31</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E22" s="1">
-        <v>22610739192.74</v>
+        <v>23182713107.18</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40939</v>
+        <v>40968</v>
       </c>
       <c r="B23" s="1">
-        <v>3390714253.36</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C23" s="1">
-        <v>3411636959.78</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D23" s="1">
-        <v>16380361894.04</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E23" s="1">
-        <v>23182713107.18</v>
+        <v>23539061638.97</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40968</v>
+        <v>40999</v>
       </c>
       <c r="B24" s="1">
-        <v>3441357193.01</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C24" s="1">
-        <v>3465240303.9</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D24" s="1">
-        <v>16632464142.06</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E24" s="1">
-        <v>23539061638.97</v>
+        <v>23568627738.57</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40999</v>
+        <v>41029</v>
       </c>
       <c r="B25" s="1">
-        <v>3594273253.88</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C25" s="1">
-        <v>3448893913.05</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D25" s="1">
-        <v>16525460571.64</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E25" s="1">
-        <v>23568627738.57</v>
+        <v>23751063285.04</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>41029</v>
+        <v>41060</v>
       </c>
       <c r="B26" s="1">
-        <v>3620819218.91</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C26" s="1">
-        <v>3481026300.12</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D26" s="1">
-        <v>16649217766.01</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E26" s="1">
-        <v>23751063285.04</v>
+        <v>23525356279.52</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41060</v>
+        <v>41090</v>
       </c>
       <c r="B27" s="1">
-        <v>3584994009.65</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C27" s="1">
-        <v>3453190328.12</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D27" s="1">
-        <v>16487171941.75</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E27" s="1">
-        <v>23525356279.52</v>
+        <v>23967119998.88</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41090</v>
+        <v>41121</v>
       </c>
       <c r="B28" s="1">
-        <v>3803025610.44</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C28" s="1">
-        <v>3497243829.13</v>
+        <v>3572637746.48</v>
       </c>
       <c r="D28" s="1">
-        <v>16666850559.31</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E28" s="1">
-        <v>23967119998.88</v>
+        <v>24445194794.85</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41121</v>
+        <v>41152</v>
       </c>
       <c r="B29" s="1">
-        <v>3877728751.39</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C29" s="1">
-        <v>3572637746.48</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D29" s="1">
-        <v>16994828296.98</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E29" s="1">
-        <v>24445194794.85</v>
+        <v>24546339462.45</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41152</v>
+        <v>41182</v>
       </c>
       <c r="B30" s="1">
-        <v>3892524075.7</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C30" s="1">
-        <v>3592909103.41</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D30" s="1">
-        <v>17060906283.34</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E30" s="1">
-        <v>24546339462.45</v>
+        <v>24697860539.92</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41182</v>
+        <v>41213</v>
       </c>
       <c r="B31" s="1">
-        <v>3915294252.8</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C31" s="1">
-        <v>3620604152.58</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D31" s="1">
-        <v>17161962134.54</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E31" s="1">
-        <v>24697860539.92</v>
+        <v>24675789016.94</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41213</v>
+        <v>41243</v>
       </c>
       <c r="B32" s="1">
-        <v>3910430761.85</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C32" s="1">
-        <v>3622924774.95</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D32" s="1">
-        <v>17142433480.14</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E32" s="1">
-        <v>24675789016.94</v>
+        <v>24802412939.95</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41243</v>
+        <v>41274</v>
       </c>
       <c r="B33" s="1">
-        <v>3929018216.4</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C33" s="1">
-        <v>3646999015.16</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D33" s="1">
-        <v>17226395708.39</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E33" s="1">
-        <v>24802412939.95</v>
+        <v>24895888004.03</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41274</v>
+        <v>41305</v>
       </c>
       <c r="B34" s="1">
-        <v>3949731061.55</v>
+        <v>3991599105.71</v>
       </c>
       <c r="C34" s="1">
-        <v>3654809047.65</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D34" s="1">
-        <v>17291347894.83</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E34" s="1">
-        <v>24895888004.03</v>
+        <v>25170522714.13</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41305</v>
+        <v>41333</v>
       </c>
       <c r="B35" s="1">
-        <v>3991599105.71</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C35" s="1">
-        <v>4490569394.41</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D35" s="1">
-        <v>16688354214.01</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E35" s="1">
-        <v>25170522714.13</v>
+        <v>25279217396.12</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41333</v>
+        <v>41364</v>
       </c>
       <c r="B36" s="1">
-        <v>4007467353.78</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C36" s="1">
-        <v>4511270646.88</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D36" s="1">
-        <v>16760479395.46</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E36" s="1">
-        <v>25279217396.12</v>
+        <v>25595621001.76</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41364</v>
+        <v>41394</v>
       </c>
       <c r="B37" s="1">
-        <v>4055824611.3</v>
+        <v>4145409199.46</v>
       </c>
       <c r="C37" s="1">
-        <v>4573664426.03</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D37" s="1">
-        <v>16966131964.43</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E37" s="1">
-        <v>25595621001.76</v>
+        <v>26172966159.6</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41394</v>
+        <v>41425</v>
       </c>
       <c r="B38" s="1">
-        <v>4145409199.46</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C38" s="1">
-        <v>4682846886.27</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D38" s="1">
-        <v>17344710073.87</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E38" s="1">
-        <v>26172966159.6</v>
+        <v>25673994810.38</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41425</v>
+        <v>41455</v>
       </c>
       <c r="B39" s="1">
-        <v>4064569702.63</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C39" s="1">
-        <v>4599347535.9</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D39" s="1">
-        <v>17010077571.85</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E39" s="1">
-        <v>25673994810.38</v>
+        <v>25144254258.35</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41455</v>
+        <v>41486</v>
       </c>
       <c r="B40" s="1">
-        <v>3978796970.09</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C40" s="1">
-        <v>4510251396.91</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D40" s="1">
-        <v>16655205891.35</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E40" s="1">
-        <v>25144254258.35</v>
+        <v>25436691656.9</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41486</v>
+        <v>41517</v>
       </c>
       <c r="B41" s="1">
-        <v>4023056820.86</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C41" s="1">
-        <v>4568724212.7</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D41" s="1">
-        <v>16844910623.34</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E41" s="1">
-        <v>25436691656.9</v>
+        <v>25090707293.91</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41517</v>
+        <v>41547</v>
       </c>
       <c r="B42" s="1">
-        <v>3966340296.1</v>
+        <v>4033439753.48</v>
       </c>
       <c r="C42" s="1">
-        <v>4512507452.03</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D42" s="1">
-        <v>16611859545.78</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E42" s="1">
-        <v>25090707293.91</v>
+        <v>25528497279.93</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41547</v>
+        <v>41578</v>
       </c>
       <c r="B43" s="1">
-        <v>4033439753.48</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C43" s="1">
-        <v>4749762591.53</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D43" s="1">
-        <v>16745294934.92</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E43" s="1">
-        <v>25528497279.93</v>
+        <v>26027364114.18</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41578</v>
+        <v>41608</v>
       </c>
       <c r="B44" s="1">
-        <v>4110020215.55</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C44" s="1">
-        <v>4848589342.72</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D44" s="1">
-        <v>17068754555.91</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E44" s="1">
-        <v>26027364114.18</v>
+        <v>26003820925.72</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41608</v>
+        <v>41639</v>
       </c>
       <c r="B45" s="1">
-        <v>4104202981.72</v>
+        <v>4121232839.29</v>
       </c>
       <c r="C45" s="1">
-        <v>4850653743.4</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D45" s="1">
-        <v>17048964200.6</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E45" s="1">
-        <v>26003820925.72</v>
+        <v>26126288441.74</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41639</v>
+        <v>41670</v>
       </c>
       <c r="B46" s="1">
-        <v>4121232839.29</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C46" s="1">
-        <v>4879983265.38</v>
+        <v>4882894726.29</v>
       </c>
       <c r="D46" s="1">
-        <v>17125072337.07</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E46" s="1">
-        <v>26126288441.74</v>
+        <v>26107696311.48</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41670</v>
+        <v>41698</v>
       </c>
       <c r="B47" s="1">
-        <v>4116223144.44</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C47" s="1">
-        <v>4882894726.29</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D47" s="1">
-        <v>17108578440.75</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E47" s="1">
-        <v>26107696311.48</v>
+        <v>26638164824.17</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41698</v>
+        <v>41729</v>
       </c>
       <c r="B48" s="1">
-        <v>4197240949.36</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C48" s="1">
-        <v>4988729007.27</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D48" s="1">
-        <v>17452194867.54</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E48" s="1">
-        <v>26638164824.17</v>
+        <v>26770056497.39</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41729</v>
+        <v>41759</v>
       </c>
       <c r="B49" s="1">
-        <v>4215464347.87</v>
+        <v>4212492467.73</v>
       </c>
       <c r="C49" s="1">
-        <v>5019984158.58</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D49" s="1">
-        <v>17534607990.94</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E49" s="1">
-        <v>26770056497.39</v>
+        <v>26766109574.18</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41759</v>
+        <v>41790</v>
       </c>
       <c r="B50" s="1">
-        <v>4212492467.73</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C50" s="1">
-        <v>5026144812.31</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D50" s="1">
-        <v>17527472294.14</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E50" s="1">
-        <v>26766109574.18</v>
+        <v>27191987348.25</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41790</v>
+        <v>41820</v>
       </c>
       <c r="B51" s="1">
-        <v>4276832512.93</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C51" s="1">
-        <v>5112975530.56</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D51" s="1">
-        <v>17802179304.76</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E51" s="1">
-        <v>27191987348.25</v>
+        <v>27325686546.76</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B52" s="1">
-        <v>4295140983.11</v>
+        <v>4265451845</v>
       </c>
       <c r="C52" s="1">
-        <v>5144862372.52</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D52" s="1">
-        <v>17885683191.13</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E52" s="1">
-        <v>27325686546.76</v>
+        <v>27156839042.76</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41851</v>
+        <v>41882</v>
       </c>
       <c r="B53" s="1">
-        <v>4265451845</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C53" s="1">
-        <v>5119794037.99</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D53" s="1">
-        <v>17771593159.77</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E53" s="1">
-        <v>27156839042.76</v>
+        <v>27744206657.43</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="B54" s="1">
-        <v>4354547211.12</v>
+        <v>4258151023.04</v>
       </c>
       <c r="C54" s="1">
-        <v>5237452701.82</v>
+        <v>5131976211.71</v>
       </c>
       <c r="D54" s="1">
-        <v>18152206744.49</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E54" s="1">
-        <v>27744206657.43</v>
+        <v>27150660877.68</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41912</v>
+        <v>41943</v>
       </c>
       <c r="B55" s="1">
-        <v>4258151023.04</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C55" s="1">
-        <v>5131976211.71</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D55" s="1">
-        <v>17760533642.93</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E55" s="1">
-        <v>27150660877.68</v>
+        <v>27371725833.13</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="B56" s="1">
-        <v>4285163976.8</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C56" s="1">
-        <v>5172926233.01</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D56" s="1">
-        <v>17913635623.32</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E56" s="1">
-        <v>27371725833.13</v>
+        <v>27755933978.37</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="B57" s="1">
-        <v>4341696562.65</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C57" s="1">
-        <v>5252461885.84</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D57" s="1">
-        <v>18161775529.88</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E57" s="1">
-        <v>27755933978.37</v>
+        <v>28782428258.71</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="B58" s="1">
-        <v>4986611512.07</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C58" s="1">
-        <v>5448191101.38</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D58" s="1">
-        <v>18347625645.26</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E58" s="1">
-        <v>28782428258.71</v>
+        <v>29378034101.34</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="B59" s="1">
-        <v>5087365130.35</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C59" s="1">
-        <v>5567918737.12</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D59" s="1">
-        <v>18722750233.87</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E59" s="1">
-        <v>29378034101.34</v>
+        <v>29527722140.57</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="B60" s="1">
-        <v>5110739057.82</v>
+        <v>5098528846.54</v>
       </c>
       <c r="C60" s="1">
-        <v>5603210665.94</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D60" s="1">
-        <v>18813772416.81</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E60" s="1">
-        <v>29527722140.57</v>
+        <v>29472205126.79</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="B61" s="1">
-        <v>5098528846.54</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C61" s="1">
-        <v>5599621915.28</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D61" s="1">
-        <v>18774054364.97</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E61" s="1">
-        <v>29472205126.79</v>
+        <v>29408637463</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42124</v>
+        <v>42155</v>
       </c>
       <c r="B62" s="1">
-        <v>5084901351.07</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C62" s="1">
-        <v>5594550723.83</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D62" s="1">
-        <v>18729185388.1</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E62" s="1">
-        <v>29408637463</v>
+        <v>29288010554.98</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42155</v>
+        <v>42185</v>
       </c>
       <c r="B63" s="1">
-        <v>5061385747.15</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C63" s="1">
-        <v>5578675769.67</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D63" s="1">
-        <v>18647949038.16</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E63" s="1">
-        <v>29288010554.98</v>
+        <v>28650016749.03</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="B64" s="1">
-        <v>4948449143.55</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C64" s="1">
-        <v>5464086350.67</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D64" s="1">
-        <v>18237481254.81</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E64" s="1">
-        <v>28650016749.03</v>
+        <v>28876185070.36</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="B65" s="1">
-        <v>4984734110.66</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C65" s="1">
-        <v>5514366076.03</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D65" s="1">
-        <v>18377084883.67</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E65" s="1">
-        <v>28876185070.36</v>
+        <v>28013929187.9</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="B66" s="1">
-        <v>4833324327.11</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C66" s="1">
-        <v>5356648129.15</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D66" s="1">
-        <v>17823956731.64</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E66" s="1">
-        <v>28013929187.9</v>
+        <v>27687614897.05</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B67" s="1">
-        <v>4774352359.51</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C67" s="1">
-        <v>5301454591.47</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D67" s="1">
-        <v>17611807946.07</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E67" s="1">
-        <v>27687614897.05</v>
+        <v>28326347037.87</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B68" s="1">
-        <v>4880247836.65</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C68" s="1">
-        <v>5397632819.49</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D68" s="1">
-        <v>18048466381.73</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E68" s="1">
-        <v>28326347037.87</v>
+        <v>28136561001.15</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B69" s="1">
-        <v>4844551814.11</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C69" s="1">
-        <v>5368571908.98</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D69" s="1">
-        <v>17923437278.06</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E69" s="1">
-        <v>28136561001.15</v>
+        <v>28846254608.33</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B70" s="1">
-        <v>5415576742.55</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C70" s="1">
-        <v>5709868087.27</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D70" s="1">
-        <v>17720809778.51</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E70" s="1">
-        <v>28846254608.33</v>
+        <v>28336372866.16</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B71" s="1">
-        <v>5318083756.35</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C71" s="1">
-        <v>5616578571.14</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D71" s="1">
-        <v>17401710538.67</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E71" s="1">
-        <v>28336372866.16</v>
+        <v>28455678308.47</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B72" s="1">
-        <v>5338694185.85</v>
+        <v>5505915040.5</v>
       </c>
       <c r="C72" s="1">
-        <v>5647936294.45</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D72" s="1">
-        <v>17469047828.17</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E72" s="1">
-        <v>28455678308.47</v>
+        <v>29356671897.69</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B73" s="1">
-        <v>5505915040.5</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C73" s="1">
-        <v>5834802926.8</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D73" s="1">
-        <v>18015953930.39</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E73" s="1">
-        <v>29356671897.69</v>
+        <v>29542027110.35</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B74" s="1">
-        <v>5538988181.45</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C74" s="1">
-        <v>5879483219.72</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D74" s="1">
-        <v>18123555709.18</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E74" s="1">
-        <v>29542027110.35</v>
+        <v>29511421101.44</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B75" s="1">
-        <v>5531594102.95</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C75" s="1">
-        <v>5881279255.87</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D75" s="1">
-        <v>18098547742.62</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E75" s="1">
-        <v>29511421101.44</v>
+        <v>29721833433.55</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B76" s="1">
-        <v>5569334217.76</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C76" s="1">
-        <v>5931068967.2</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D76" s="1">
-        <v>18221430248.59</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E76" s="1">
-        <v>29721833433.55</v>
+        <v>30265143212.71</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B77" s="1">
-        <v>5669685323.09</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C77" s="1">
-        <v>6047546128.94</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D77" s="1">
-        <v>18547911760.68</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E77" s="1">
-        <v>30265143212.71</v>
+        <v>30212255260.83</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B78" s="1">
-        <v>5658306874.65</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C78" s="1">
-        <v>6044991482.23</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D78" s="1">
-        <v>18508956903.95</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E78" s="1">
-        <v>30212255260.83</v>
+        <v>31311189264.37</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B79" s="1">
-        <v>6047292088.02</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C79" s="1">
-        <v>6489780168.17</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D79" s="1">
-        <v>18774117008.18</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E79" s="1">
-        <v>31311189264.37</v>
+        <v>30735701818.56</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B80" s="1">
-        <v>5944249077.31</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C80" s="1">
-        <v>6361287062.33</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D80" s="1">
-        <v>18430165678.92</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E80" s="1">
-        <v>30735701818.56</v>
+        <v>30294149402.87</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B81" s="1">
-        <v>5857951330.08</v>
+        <v>6253513976.5</v>
       </c>
       <c r="C81" s="1">
-        <v>6278318762.68</v>
+        <v>6361809245.25</v>
       </c>
       <c r="D81" s="1">
-        <v>18157879310.11</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E81" s="1">
-        <v>30294149402.87</v>
+        <v>31134559706.61</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B82" s="1">
-        <v>6253513976.5</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C82" s="1">
-        <v>6361809245.25</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D82" s="1">
-        <v>18519236484.86</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E82" s="1">
-        <v>31134559706.61</v>
+        <v>31406628721.6</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B83" s="1">
-        <v>6308462886.34</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C83" s="1">
-        <v>6425317655.9</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D83" s="1">
-        <v>18672848179.36</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E83" s="1">
-        <v>31406628721.6</v>
+        <v>31862928265.29</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B84" s="1">
-        <v>6400976668.18</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C84" s="1">
-        <v>6526279467.15</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D84" s="1">
-        <v>18935672129.96</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E84" s="1">
-        <v>31862928265.29</v>
+        <v>34237217759.41</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B85" s="1">
-        <v>7099971446.02</v>
+        <v>7176134170.54</v>
       </c>
       <c r="C85" s="1">
-        <v>7337629420.28</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D85" s="1">
-        <v>19799616893.11</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E85" s="1">
-        <v>34237217759.41</v>
+        <v>34601219933.72</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B86" s="1">
-        <v>7176134170.54</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C86" s="1">
-        <v>7422733235.89</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D86" s="1">
-        <v>20002352527.29</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E86" s="1">
-        <v>34601219933.72</v>
+        <v>35025479666.84</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B87" s="1">
-        <v>7264954337.05</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C87" s="1">
-        <v>7523682920.77</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D87" s="1">
-        <v>20236842409.02</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E87" s="1">
-        <v>35025479666.84</v>
+        <v>35106583260.6</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B88" s="1">
-        <v>7282406497.08</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C88" s="1">
-        <v>7549356808.18</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D88" s="1">
-        <v>20274819955.34</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E88" s="1">
-        <v>35106583260.6</v>
+        <v>35405791867.57</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B89" s="1">
-        <v>7343644210.4</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C89" s="1">
-        <v>7623588366.49</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D89" s="1">
-        <v>20438559290.68</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E89" s="1">
-        <v>35405791867.57</v>
+        <v>35685515267.03</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B90" s="1">
-        <v>7401114464.44</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C90" s="1">
-        <v>7693916997.08</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D90" s="1">
-        <v>20590483805.51</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E90" s="1">
-        <v>35685515267.03</v>
+        <v>35874943914.43</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B91" s="1">
-        <v>7439354518.62</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C91" s="1">
-        <v>7744728806.72</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D91" s="1">
-        <v>20690860589.09</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E91" s="1">
-        <v>35874943914.43</v>
+        <v>36114919745.74</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B92" s="1">
-        <v>7501162607.24</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C92" s="1">
-        <v>7797612927.14</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D92" s="1">
-        <v>20816144211.36</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E92" s="1">
-        <v>36114919745.74</v>
+        <v>36495613500.11</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B93" s="1">
-        <v>7578785278.66</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C93" s="1">
-        <v>7890046689.69</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D93" s="1">
-        <v>21026781531.76</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E93" s="1">
-        <v>36495613500.11</v>
+        <v>41856058020.2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B94" s="1">
-        <v>9002210135.43</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C94" s="1">
-        <v>8628245002.959999</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D94" s="1">
-        <v>24225602881.81</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E94" s="1">
-        <v>41856058020.2</v>
+        <v>42583718320.38</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B95" s="1">
-        <v>9202610590.719999</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C95" s="1">
-        <v>8830545061.309999</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D95" s="1">
-        <v>24550562668.35</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E95" s="1">
-        <v>42583718320.38</v>
+        <v>41211648261.71</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B96" s="1">
-        <v>8905152042.110001</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C96" s="1">
-        <v>8554843302.12</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D96" s="1">
-        <v>23751652917.48</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E96" s="1">
-        <v>41211648261.71</v>
+        <v>41345470043.96999</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B97" s="1">
-        <v>8894650969.91</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C97" s="1">
-        <v>8555117311.3</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D97" s="1">
-        <v>23895701762.76</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E97" s="1">
-        <v>41345470043.96999</v>
+        <v>41046760638.73</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B98" s="1">
-        <v>8853026337.98</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C98" s="1">
-        <v>8525561703.78</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D98" s="1">
-        <v>23668172596.97</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E98" s="1">
-        <v>41046760638.73</v>
+        <v>41313232056.15</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B99" s="1">
-        <v>8890561971.129999</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C99" s="1">
-        <v>8572549061.9</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D99" s="1">
-        <v>23850121023.12</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E99" s="1">
-        <v>41313232056.15</v>
+        <v>41121031725</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B100" s="1">
-        <v>8841470603.15</v>
+        <v>8936073454</v>
       </c>
       <c r="C100" s="1">
-        <v>8535731069.89</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D100" s="1">
-        <v>23743830051.96</v>
+        <v>23810581356</v>
       </c>
       <c r="E100" s="1">
-        <v>41121031725</v>
+        <v>41384588267.64</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B101" s="1">
-        <v>8936073454</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C101" s="1">
-        <v>8637933457.639999</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D101" s="1">
-        <v>23810581356</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E101" s="1">
-        <v>41384588267.64</v>
+        <v>41662803021.32</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B102" s="1">
-        <v>8984375598.66</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C102" s="1">
-        <v>8696018228.42</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D102" s="1">
-        <v>23982409194.24</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E102" s="1">
-        <v>41662803021.32</v>
+        <v>41186947565</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B103" s="1">
-        <v>8913881251.4</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C103" s="1">
-        <v>8639086304.16</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D103" s="1">
-        <v>23633980009.44</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E103" s="1">
-        <v>41186947565</v>
+        <v>39383035110.98</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B104" s="1">
-        <v>8522844994.4</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C104" s="1">
-        <v>8244001106.42</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D104" s="1">
-        <v>22616189010.16</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E104" s="1">
-        <v>39383035110.98</v>
+        <v>39775163930.18</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B105" s="1">
-        <v>8594776142.139999</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C105" s="1">
-        <v>8324970365.95</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D105" s="1">
-        <v>22855417422.09</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E105" s="1">
-        <v>39775163930.18</v>
+        <v>39522985371.47</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B106" s="1">
-        <v>8430913509.88</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C106" s="1">
-        <v>8177279951.57</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D106" s="1">
-        <v>22914791910.02</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E106" s="1">
-        <v>39522985371.47</v>
+        <v>40670053634.92</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B107" s="1">
-        <v>8716930851.969999</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C107" s="1">
-        <v>8466374243.34</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D107" s="1">
-        <v>23486748539.61</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E107" s="1">
-        <v>40670053634.92</v>
+        <v>40797813026.7</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B108" s="1">
-        <v>8780002278.02</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C108" s="1">
-        <v>8538970109.85</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D108" s="1">
-        <v>23478840638.83</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E108" s="1">
-        <v>40797813026.7</v>
+        <v>41816102147.74</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B109" s="1">
-        <v>8939502054.139999</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C109" s="1">
-        <v>8705342961.4</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D109" s="1">
-        <v>24171257132.2</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E109" s="1">
-        <v>41816102147.74</v>
+        <v>42743107013</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B110" s="1">
-        <v>9008244776.280001</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C110" s="1">
-        <v>9126959379.24</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D110" s="1">
-        <v>24607902857.48</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E110" s="1">
-        <v>42743107013</v>
+        <v>43049605454.39</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B111" s="1">
-        <v>8944260855.860001</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C111" s="1">
-        <v>9074029379.02</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D111" s="1">
-        <v>25031315219.51</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E111" s="1">
-        <v>43049605454.39</v>
+        <v>44201897165.55</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B112" s="1">
-        <v>9215995868.950001</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C112" s="1">
-        <v>9361706609.469999</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D112" s="1">
-        <v>25624194687.13</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E112" s="1">
-        <v>44201897165.55</v>
+        <v>44289278505.62</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B113" s="1">
-        <v>9238385070.67</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C113" s="1">
-        <v>9396108735.549999</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D113" s="1">
-        <v>25654784699.4</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E113" s="1">
-        <v>44289278505.62</v>
+        <v>46120311881.3</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B114" s="1">
-        <v>9436337524.57</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C114" s="1">
-        <v>9608738306.559999</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D114" s="1">
-        <v>27075236050.17</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E114" s="1">
-        <v>46120311881.3</v>
+        <v>46949593594.97</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B115" s="1">
-        <v>10602215448.62</v>
+        <v>10608252625.24</v>
       </c>
       <c r="C115" s="1">
-        <v>9614794478.780001</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D115" s="1">
-        <v>26732583667.57</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E115" s="1">
-        <v>46949593594.97</v>
+        <v>46865708662.23</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B116" s="1">
-        <v>10608252625.24</v>
+        <v>10692316903.4</v>
       </c>
       <c r="C116" s="1">
-        <v>9625407467.91</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D116" s="1">
-        <v>26632048569.08</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E116" s="1">
-        <v>46865708662.23</v>
+        <v>47123617172.53</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B117" s="1">
-        <v>10692316903.4</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C117" s="1">
-        <v>9713037686.17</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D117" s="1">
-        <v>26718262582.96</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E117" s="1">
-        <v>47123617172.53</v>
+        <v>46141633527.96</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B118" s="1">
-        <v>10758442213.97</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C118" s="1">
-        <v>9477691033.26</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D118" s="1">
-        <v>25905500280.73</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E118" s="1">
-        <v>46141633527.96</v>
+        <v>47197661020.02</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B119" s="1">
-        <v>10840639312.88</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C119" s="1">
-        <v>9555218261.01</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D119" s="1">
-        <v>26801803446.13</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E119" s="1">
-        <v>47197661020.02</v>
+        <v>47123824802.83</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B120" s="1">
-        <v>10574286223.88</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C120" s="1">
-        <v>9338936485.4</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D120" s="1">
-        <v>27210602093.55</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E120" s="1">
-        <v>47123824802.83</v>
+        <v>45204026385.17001</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B121" s="1">
-        <v>9764305551.360001</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C121" s="1">
-        <v>8664875030.02</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D121" s="1">
-        <v>26774845803.79</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E121" s="1">
-        <v>45204026385.17001</v>
+        <v>47064011332.71</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B122" s="1">
-        <v>10283094677.36</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C122" s="1">
-        <v>9107006952.52</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D122" s="1">
-        <v>27673909702.83</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E122" s="1">
-        <v>47064011332.71</v>
+        <v>47081138950.00999</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B123" s="1">
-        <v>10409182664.05</v>
+        <v>10514205392.24</v>
       </c>
       <c r="C123" s="1">
-        <v>9213245024.98</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D123" s="1">
-        <v>27458711260.98</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E123" s="1">
-        <v>47081138950.00999</v>
+        <v>47426564864.18</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B124" s="1">
-        <v>10514205392.24</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C124" s="1">
-        <v>9308097696.17</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D124" s="1">
-        <v>27604261775.77</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E124" s="1">
-        <v>47426564864.18</v>
+        <v>49195665095.83</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B125" s="1">
-        <v>10849449410.81</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C125" s="1">
-        <v>9606421868.530001</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D125" s="1">
-        <v>28739793816.49</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E125" s="1">
-        <v>49195665095.83</v>
+        <v>48906083609.04</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B126" s="1">
-        <v>11005151438.13</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C126" s="1">
-        <v>9743289163.68</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D126" s="1">
-        <v>28157643007.23</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E126" s="1">
-        <v>48906083609.04</v>
+        <v>49328692500.60999</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B127" s="1">
-        <v>11506934819.12</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C127" s="1">
-        <v>9894562298.549999</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D127" s="1">
-        <v>27927195382.94</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E127" s="1">
-        <v>49328692500.60999</v>
+        <v>48026054531.55</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B128" s="1">
-        <v>11238592497.88</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C128" s="1">
-        <v>9700328704.629999</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D128" s="1">
-        <v>27087133329.04</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E128" s="1">
-        <v>48026054531.55</v>
+        <v>50440003419.03</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B129" s="1">
-        <v>11941273405.45</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C129" s="1">
-        <v>10308274207.78</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D129" s="1">
-        <v>28190455805.8</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E129" s="1">
-        <v>50440003419.03</v>
+        <v>52788485957.46</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B130" s="1">
-        <v>12756299620.31</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C130" s="1">
-        <v>11053433125.61</v>
+        <v>10900299506.57</v>
       </c>
       <c r="D130" s="1">
-        <v>28978753211.54</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E130" s="1">
-        <v>52788485957.46</v>
+        <v>51588003234.73</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B131" s="1">
-        <v>12558243414.61</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C131" s="1">
-        <v>10900299506.57</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D131" s="1">
-        <v>28129460313.55</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E131" s="1">
-        <v>51588003234.73</v>
+        <v>50499345827.99</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B132" s="1">
-        <v>12499730482.13</v>
+        <v>12629967215.83</v>
       </c>
       <c r="C132" s="1">
-        <v>10872197550.37</v>
+        <v>10999754121.32</v>
       </c>
       <c r="D132" s="1">
-        <v>27127417795.49</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E132" s="1">
-        <v>50499345827.99</v>
+        <v>50392716520.31</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B133" s="1">
-        <v>12629967215.83</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C133" s="1">
-        <v>10999754121.32</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D133" s="1">
-        <v>26762995183.16</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E133" s="1">
-        <v>50392716520.31</v>
+        <v>51700983288.71</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B134" s="1">
-        <v>12959077328.64</v>
+        <v>13155170030.18</v>
       </c>
       <c r="C134" s="1">
-        <v>11290601383.86</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D134" s="1">
-        <v>27451304576.21</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E134" s="1">
-        <v>51700983288.71</v>
+        <v>52378555427.81</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B135" s="1">
-        <v>13155170030.18</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C135" s="1">
-        <v>11478701164.89</v>
+        <v>11665454270.74</v>
       </c>
       <c r="D135" s="1">
-        <v>27744684232.74</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E135" s="1">
-        <v>52378555427.81</v>
+        <v>53479161312.64</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B136" s="1">
-        <v>13363308598.31</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C136" s="1">
-        <v>11665454270.74</v>
+        <v>11826970568.32</v>
       </c>
       <c r="D136" s="1">
-        <v>28450398443.59</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E136" s="1">
-        <v>53479161312.64</v>
+        <v>54428748586.62</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B137" s="1">
-        <v>13542680564.47</v>
+        <v>13707767980.07</v>
       </c>
       <c r="C137" s="1">
-        <v>11826970568.32</v>
+        <v>11980671064.48</v>
       </c>
       <c r="D137" s="1">
-        <v>29059097453.83</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E137" s="1">
-        <v>54428748586.62</v>
+        <v>54870336763.75999</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B138" s="1">
-        <v>13707767980.07</v>
+        <v>13203547316.24</v>
       </c>
       <c r="C138" s="1">
-        <v>11980671064.48</v>
+        <v>11508277149.59</v>
       </c>
       <c r="D138" s="1">
-        <v>29181897719.21</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E138" s="1">
-        <v>54870336763.75999</v>
+        <v>52901048832.99</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B139" s="1">
-        <v>13203547316.24</v>
+        <v>13619689152.99</v>
       </c>
       <c r="C139" s="1">
-        <v>11508277149.59</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D139" s="1">
-        <v>28189224367.16</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E139" s="1">
-        <v>52901048832.99</v>
+        <v>54300766813.44</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B140" s="1">
-        <v>13619689152.99</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C140" s="1">
-        <v>11898653834.64</v>
+        <v>12126631727.77</v>
       </c>
       <c r="D140" s="1">
-        <v>28782423825.81</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E140" s="1">
-        <v>54300766813.44</v>
+        <v>55089355967.77</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B141" s="1">
-        <v>13785068283.86</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C141" s="1">
-        <v>12126631727.77</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D141" s="1">
-        <v>29177655956.14</v>
+        <v>29369048113</v>
       </c>
       <c r="E141" s="1">
-        <v>55089355967.77</v>
+        <v>55524868915.5</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B142" s="1">
-        <v>13933499672.22</v>
+        <v>13228050556.07</v>
       </c>
       <c r="C142" s="1">
-        <v>12222321130.28</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D142" s="1">
-        <v>29369048113</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E142" s="1">
-        <v>55524868915.5</v>
+        <v>52791395368.22</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B143" s="1">
-        <v>13228050556.07</v>
+        <v>12924236126.56</v>
       </c>
       <c r="C143" s="1">
-        <v>11573834300.94</v>
+        <v>11299022364.73</v>
       </c>
       <c r="D143" s="1">
-        <v>27989510511.21</v>
+        <v>27410006047.48</v>
       </c>
       <c r="E143" s="1">
-        <v>52791395368.22</v>
+        <v>51633264538.77</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B144" s="1">
-        <v>12924236126.56</v>
+        <v>12662771414.75</v>
       </c>
       <c r="C144" s="1">
-        <v>11299022364.73</v>
+        <v>11031166589.13</v>
       </c>
       <c r="D144" s="1">
-        <v>27410006047.48</v>
+        <v>26576348005.31</v>
       </c>
       <c r="E144" s="1">
-        <v>51633264538.77</v>
+        <v>50270286009.19</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B145" s="1">
-        <v>12662771414.75</v>
+        <v>11666882480.45</v>
       </c>
       <c r="C145" s="1">
-        <v>11031166589.13</v>
+        <v>10097030956.61</v>
       </c>
       <c r="D145" s="1">
-        <v>26576348005.31</v>
+        <v>24343752751.24</v>
       </c>
       <c r="E145" s="1">
-        <v>50270286009.19</v>
+        <v>46107666188.3</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B146" s="1">
-        <v>11666882480.45</v>
+        <v>11506881422.34</v>
       </c>
       <c r="C146" s="1">
-        <v>10097030956.61</v>
+        <v>9932226543.780001</v>
       </c>
       <c r="D146" s="1">
-        <v>24343752751.24</v>
+        <v>24079986770.42</v>
       </c>
       <c r="E146" s="1">
-        <v>46107666188.3</v>
+        <v>45519094736.53999</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B147" s="1">
-        <v>11506881422.34</v>
+        <v>11065097064.85</v>
       </c>
       <c r="C147" s="1">
-        <v>9932226543.780001</v>
+        <v>9580933722.4</v>
       </c>
       <c r="D147" s="1">
-        <v>24079986770.42</v>
+        <v>23101412415.21</v>
       </c>
       <c r="E147" s="1">
-        <v>45519094736.53999</v>
+        <v>43747443202.46</v>
       </c>
     </row>
   </sheetData>
@@ -2970,2484 +2970,2484 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40298</v>
+        <v>40329</v>
       </c>
       <c r="B2" s="1">
-        <v>0.020455</v>
+        <v>-0.042701</v>
       </c>
       <c r="C2" s="1">
-        <v>0.021368</v>
+        <v>-0.042682</v>
       </c>
       <c r="D2" s="1">
-        <v>0.021406</v>
+        <v>-0.04269199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.021313</v>
+        <v>-0.042691</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40329</v>
+        <v>40359</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.042701</v>
+        <v>-0.010431</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.042682</v>
+        <v>-0.010424</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.04269199999999999</v>
+        <v>-0.010512</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.042691</v>
+        <v>-0.010493</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40359</v>
+        <v>40390</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.010431</v>
+        <v>0.04159</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.010424</v>
+        <v>0.043416</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.010512</v>
+        <v>0.04342500000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.010493</v>
+        <v>0.043244</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40390</v>
+        <v>40421</v>
       </c>
       <c r="B5" s="1">
-        <v>0.04159</v>
+        <v>0.001548</v>
       </c>
       <c r="C5" s="1">
-        <v>0.043416</v>
+        <v>0.001558</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04342500000000001</v>
+        <v>0.00155</v>
       </c>
       <c r="E5" s="1">
-        <v>0.043244</v>
+        <v>0.001551</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40421</v>
+        <v>40451</v>
       </c>
       <c r="B6" s="1">
-        <v>0.001548</v>
+        <v>0.04532</v>
       </c>
       <c r="C6" s="1">
-        <v>0.001558</v>
+        <v>0.045333</v>
       </c>
       <c r="D6" s="1">
-        <v>0.00155</v>
+        <v>0.045331</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001551</v>
+        <v>0.04533</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40451</v>
+        <v>40482</v>
       </c>
       <c r="B7" s="1">
-        <v>0.04532</v>
+        <v>0.009824000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>0.045333</v>
+        <v>0.009851</v>
       </c>
       <c r="D7" s="1">
-        <v>0.045331</v>
+        <v>0.009762</v>
       </c>
       <c r="E7" s="1">
-        <v>0.04533</v>
+        <v>0.009781</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40482</v>
+        <v>40512</v>
       </c>
       <c r="B8" s="1">
-        <v>0.009824000000000001</v>
+        <v>-0.006762000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.009851</v>
+        <v>-0.005979</v>
       </c>
       <c r="D8" s="1">
-        <v>0.009762</v>
+        <v>-0.006311</v>
       </c>
       <c r="E8" s="1">
-        <v>0.009781</v>
+        <v>-0.006307</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40512</v>
+        <v>40543</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.006762000000000001</v>
+        <v>0.029284</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.005979</v>
+        <v>0.029312</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.006311</v>
+        <v>0.029354</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006307</v>
+        <v>0.029341</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40543</v>
+        <v>40574</v>
       </c>
       <c r="B10" s="1">
-        <v>0.029284</v>
+        <v>-0.00115</v>
       </c>
       <c r="C10" s="1">
-        <v>0.029312</v>
+        <v>-0.001119</v>
       </c>
       <c r="D10" s="1">
-        <v>0.029354</v>
+        <v>-0.001115</v>
       </c>
       <c r="E10" s="1">
-        <v>0.029341</v>
+        <v>-0.001121</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40574</v>
+        <v>40602</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.00115</v>
+        <v>0.023291</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.001119</v>
+        <v>0.023317</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.001115</v>
+        <v>0.023308</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001121</v>
+        <v>0.023307</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40602</v>
+        <v>40633</v>
       </c>
       <c r="B12" s="1">
-        <v>0.023291</v>
+        <v>0.002493</v>
       </c>
       <c r="C12" s="1">
-        <v>0.023317</v>
+        <v>0.002493</v>
       </c>
       <c r="D12" s="1">
-        <v>0.023308</v>
+        <v>0.002494</v>
       </c>
       <c r="E12" s="1">
-        <v>0.023307</v>
+        <v>0.002494</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40633</v>
+        <v>40663</v>
       </c>
       <c r="B13" s="1">
-        <v>0.002493</v>
+        <v>0.030082</v>
       </c>
       <c r="C13" s="1">
-        <v>0.002493</v>
+        <v>0.030134</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002494</v>
+        <v>0.030134</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002494</v>
+        <v>0.030126</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40663</v>
+        <v>40694</v>
       </c>
       <c r="B14" s="1">
-        <v>0.030082</v>
+        <v>0.006251</v>
       </c>
       <c r="C14" s="1">
-        <v>0.030134</v>
+        <v>0.006252</v>
       </c>
       <c r="D14" s="1">
-        <v>0.030134</v>
+        <v>0.006251</v>
       </c>
       <c r="E14" s="1">
-        <v>0.030126</v>
+        <v>0.006251</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40694</v>
+        <v>40724</v>
       </c>
       <c r="B15" s="1">
-        <v>0.006251</v>
+        <v>-0.016394</v>
       </c>
       <c r="C15" s="1">
-        <v>0.006252</v>
+        <v>-0.016393</v>
       </c>
       <c r="D15" s="1">
-        <v>0.006251</v>
+        <v>-0.016388</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006251</v>
+        <v>-0.016389</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40724</v>
+        <v>40755</v>
       </c>
       <c r="B16" s="1">
-        <v>-0.016394</v>
+        <v>0.010779</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.016393</v>
+        <v>0.010779</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.016388</v>
+        <v>0.010779</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.016389</v>
+        <v>0.010779</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40755</v>
+        <v>40786</v>
       </c>
       <c r="B17" s="1">
-        <v>0.010779</v>
+        <v>-0.006495</v>
       </c>
       <c r="C17" s="1">
-        <v>0.010779</v>
+        <v>-0.006492</v>
       </c>
       <c r="D17" s="1">
-        <v>0.010779</v>
+        <v>-0.006488000000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.010779</v>
+        <v>-0.00649</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40786</v>
+        <v>40816</v>
       </c>
       <c r="B18" s="1">
-        <v>-0.006495</v>
+        <v>0.001202</v>
       </c>
       <c r="C18" s="1">
-        <v>-0.006492</v>
+        <v>0.001203</v>
       </c>
       <c r="D18" s="1">
-        <v>-0.006488000000000001</v>
+        <v>0.001203</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00649</v>
+        <v>0.001203</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40816</v>
+        <v>40847</v>
       </c>
       <c r="B19" s="1">
-        <v>0.001202</v>
+        <v>0.035731</v>
       </c>
       <c r="C19" s="1">
-        <v>0.001203</v>
+        <v>0.035736</v>
       </c>
       <c r="D19" s="1">
-        <v>0.001203</v>
+        <v>0.03573</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001203</v>
+        <v>0.035731</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40847</v>
+        <v>40877</v>
       </c>
       <c r="B20" s="1">
-        <v>0.035731</v>
+        <v>-0.006834</v>
       </c>
       <c r="C20" s="1">
-        <v>0.035736</v>
+        <v>-0.006834</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03573</v>
+        <v>-0.006832</v>
       </c>
       <c r="E20" s="1">
-        <v>0.035731</v>
+        <v>-0.006832</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40877</v>
+        <v>40908</v>
       </c>
       <c r="B21" s="1">
-        <v>-0.006834</v>
+        <v>0.011627</v>
       </c>
       <c r="C21" s="1">
-        <v>-0.006834</v>
+        <v>0.011629</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.006832</v>
+        <v>0.011629</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.006832</v>
+        <v>0.011629</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40908</v>
+        <v>40939</v>
       </c>
       <c r="B22" s="1">
-        <v>0.011627</v>
+        <v>0.027751</v>
       </c>
       <c r="C22" s="1">
-        <v>0.011629</v>
+        <v>0.027758</v>
       </c>
       <c r="D22" s="1">
-        <v>0.011629</v>
+        <v>0.027751</v>
       </c>
       <c r="E22" s="1">
-        <v>0.011629</v>
+        <v>0.027752</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40939</v>
+        <v>40968</v>
       </c>
       <c r="B23" s="1">
-        <v>0.027751</v>
+        <v>0.018401</v>
       </c>
       <c r="C23" s="1">
-        <v>0.027758</v>
+        <v>0.018387</v>
       </c>
       <c r="D23" s="1">
-        <v>0.027751</v>
+        <v>0.018407</v>
       </c>
       <c r="E23" s="1">
-        <v>0.027752</v>
+        <v>0.018403</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40968</v>
+        <v>40999</v>
       </c>
       <c r="B24" s="1">
-        <v>0.018401</v>
+        <v>-0.003827</v>
       </c>
       <c r="C24" s="1">
-        <v>0.018387</v>
+        <v>-0.00384</v>
       </c>
       <c r="D24" s="1">
-        <v>0.018407</v>
+        <v>-0.00384</v>
       </c>
       <c r="E24" s="1">
-        <v>0.018403</v>
+        <v>-0.003838</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40999</v>
+        <v>41029</v>
       </c>
       <c r="B25" s="1">
-        <v>-0.003827</v>
+        <v>0.010169</v>
       </c>
       <c r="C25" s="1">
-        <v>-0.00384</v>
+        <v>0.010171</v>
       </c>
       <c r="D25" s="1">
-        <v>-0.00384</v>
+        <v>0.010169</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.003838</v>
+        <v>0.010169</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>41029</v>
+        <v>41060</v>
       </c>
       <c r="B26" s="1">
-        <v>0.010169</v>
+        <v>-0.007147</v>
       </c>
       <c r="C26" s="1">
-        <v>0.010171</v>
+        <v>-0.007141999999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>0.010169</v>
+        <v>-0.007113</v>
       </c>
       <c r="E26" s="1">
-        <v>0.010169</v>
+        <v>-0.007122000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41060</v>
+        <v>41090</v>
       </c>
       <c r="B27" s="1">
-        <v>-0.007147</v>
+        <v>0.013617</v>
       </c>
       <c r="C27" s="1">
-        <v>-0.007141999999999999</v>
+        <v>0.013665</v>
       </c>
       <c r="D27" s="1">
-        <v>-0.007113</v>
+        <v>0.013662</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.007122000000000001</v>
+        <v>0.013655</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41090</v>
+        <v>41121</v>
       </c>
       <c r="B28" s="1">
-        <v>0.013617</v>
+        <v>0.022428</v>
       </c>
       <c r="C28" s="1">
-        <v>0.013665</v>
+        <v>0.022445</v>
       </c>
       <c r="D28" s="1">
-        <v>0.013662</v>
+        <v>0.022415</v>
       </c>
       <c r="E28" s="1">
-        <v>0.013655</v>
+        <v>0.022421</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41121</v>
+        <v>41152</v>
       </c>
       <c r="B29" s="1">
-        <v>0.022428</v>
+        <v>0.006546</v>
       </c>
       <c r="C29" s="1">
-        <v>0.022445</v>
+        <v>0.006548000000000001</v>
       </c>
       <c r="D29" s="1">
-        <v>0.022415</v>
+        <v>0.006546</v>
       </c>
       <c r="E29" s="1">
-        <v>0.022421</v>
+        <v>0.006546</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41152</v>
+        <v>41182</v>
       </c>
       <c r="B30" s="1">
-        <v>0.006546</v>
+        <v>0.008595999999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>0.006548000000000001</v>
+        <v>0.008598</v>
       </c>
       <c r="D30" s="1">
-        <v>0.006546</v>
+        <v>0.008597</v>
       </c>
       <c r="E30" s="1">
-        <v>0.006546</v>
+        <v>0.008597</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41182</v>
+        <v>41213</v>
       </c>
       <c r="B31" s="1">
-        <v>0.008595999999999999</v>
+        <v>0.001504</v>
       </c>
       <c r="C31" s="1">
-        <v>0.008598</v>
+        <v>0.001506</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008597</v>
+        <v>0.001505</v>
       </c>
       <c r="E31" s="1">
-        <v>0.008597</v>
+        <v>0.001505</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41213</v>
+        <v>41243</v>
       </c>
       <c r="B32" s="1">
-        <v>0.001504</v>
+        <v>0.007569</v>
       </c>
       <c r="C32" s="1">
-        <v>0.001506</v>
+        <v>0.007571</v>
       </c>
       <c r="D32" s="1">
-        <v>0.001505</v>
+        <v>0.007571</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001505</v>
+        <v>0.007571</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41243</v>
+        <v>41274</v>
       </c>
       <c r="B33" s="1">
-        <v>0.007569</v>
+        <v>0.008156999999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>0.007571</v>
+        <v>0.008168999999999999</v>
       </c>
       <c r="D33" s="1">
-        <v>0.007571</v>
+        <v>0.008165</v>
       </c>
       <c r="E33" s="1">
-        <v>0.007571</v>
+        <v>0.008163999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41274</v>
+        <v>41305</v>
       </c>
       <c r="B34" s="1">
-        <v>0.008156999999999999</v>
+        <v>0.013471</v>
       </c>
       <c r="C34" s="1">
-        <v>0.008168999999999999</v>
+        <v>0.013571</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008165</v>
+        <v>0.013456</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008163999999999999</v>
+        <v>0.013479</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41305</v>
+        <v>41333</v>
       </c>
       <c r="B35" s="1">
-        <v>0.013471</v>
+        <v>0.007465</v>
       </c>
       <c r="C35" s="1">
-        <v>0.013571</v>
+        <v>0.007458</v>
       </c>
       <c r="D35" s="1">
-        <v>0.013456</v>
+        <v>0.00747</v>
       </c>
       <c r="E35" s="1">
-        <v>0.013479</v>
+        <v>0.007467000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41333</v>
+        <v>41364</v>
       </c>
       <c r="B36" s="1">
-        <v>0.007465</v>
+        <v>0.015025</v>
       </c>
       <c r="C36" s="1">
-        <v>0.007458</v>
+        <v>0.015027</v>
       </c>
       <c r="D36" s="1">
-        <v>0.00747</v>
+        <v>0.015024</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007467000000000001</v>
+        <v>0.015024</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41364</v>
+        <v>41394</v>
       </c>
       <c r="B37" s="1">
-        <v>0.015025</v>
+        <v>0.025087</v>
       </c>
       <c r="C37" s="1">
-        <v>0.015027</v>
+        <v>0.025091</v>
       </c>
       <c r="D37" s="1">
-        <v>0.015024</v>
+        <v>0.025086</v>
       </c>
       <c r="E37" s="1">
-        <v>0.015024</v>
+        <v>0.025087</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41394</v>
+        <v>41425</v>
       </c>
       <c r="B38" s="1">
-        <v>0.025087</v>
+        <v>-0.016671</v>
       </c>
       <c r="C38" s="1">
-        <v>0.025091</v>
+        <v>-0.016673</v>
       </c>
       <c r="D38" s="1">
-        <v>0.025086</v>
+        <v>-0.01667</v>
       </c>
       <c r="E38" s="1">
-        <v>0.025087</v>
+        <v>-0.01667</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41425</v>
+        <v>41455</v>
       </c>
       <c r="B39" s="1">
-        <v>-0.016671</v>
+        <v>-0.018163</v>
       </c>
       <c r="C39" s="1">
-        <v>-0.016673</v>
+        <v>-0.018165</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.01667</v>
+        <v>-0.01816</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01667</v>
+        <v>-0.018162</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41455</v>
+        <v>41486</v>
       </c>
       <c r="B40" s="1">
-        <v>-0.018163</v>
+        <v>0.014254</v>
       </c>
       <c r="C40" s="1">
-        <v>-0.018165</v>
+        <v>0.014257</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.01816</v>
+        <v>0.014252</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.018162</v>
+        <v>0.014253</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41486</v>
+        <v>41517</v>
       </c>
       <c r="B41" s="1">
-        <v>0.014254</v>
+        <v>-0.011051</v>
       </c>
       <c r="C41" s="1">
-        <v>0.014257</v>
+        <v>-0.011022</v>
       </c>
       <c r="D41" s="1">
-        <v>0.014252</v>
+        <v>-0.011036</v>
       </c>
       <c r="E41" s="1">
-        <v>0.014253</v>
+        <v>-0.011036</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41517</v>
+        <v>41547</v>
       </c>
       <c r="B42" s="1">
-        <v>-0.011051</v>
+        <v>0.020117</v>
       </c>
       <c r="C42" s="1">
-        <v>-0.011022</v>
+        <v>0.02012</v>
       </c>
       <c r="D42" s="1">
-        <v>-0.011036</v>
+        <v>0.020114</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.011036</v>
+        <v>0.020116</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41547</v>
+        <v>41578</v>
       </c>
       <c r="B43" s="1">
-        <v>0.020117</v>
+        <v>0.02223</v>
       </c>
       <c r="C43" s="1">
-        <v>0.02012</v>
+        <v>0.022236</v>
       </c>
       <c r="D43" s="1">
-        <v>0.020114</v>
+        <v>0.022227</v>
       </c>
       <c r="E43" s="1">
-        <v>0.020116</v>
+        <v>0.022229</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41578</v>
+        <v>41608</v>
       </c>
       <c r="B44" s="1">
-        <v>0.02223</v>
+        <v>0.001657</v>
       </c>
       <c r="C44" s="1">
-        <v>0.022236</v>
+        <v>0.001657</v>
       </c>
       <c r="D44" s="1">
-        <v>0.022227</v>
+        <v>0.00166</v>
       </c>
       <c r="E44" s="1">
-        <v>0.022229</v>
+        <v>0.001659</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41608</v>
+        <v>41639</v>
       </c>
       <c r="B45" s="1">
-        <v>0.001657</v>
+        <v>0.007311</v>
       </c>
       <c r="C45" s="1">
-        <v>0.001657</v>
+        <v>0.007312</v>
       </c>
       <c r="D45" s="1">
-        <v>0.00166</v>
+        <v>0.00731</v>
       </c>
       <c r="E45" s="1">
-        <v>0.001659</v>
+        <v>0.00731</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41639</v>
+        <v>41670</v>
       </c>
       <c r="B46" s="1">
-        <v>0.007311</v>
+        <v>0.001869</v>
       </c>
       <c r="C46" s="1">
-        <v>0.007312</v>
+        <v>0.001871</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00731</v>
+        <v>0.001871</v>
       </c>
       <c r="E46" s="1">
-        <v>0.00731</v>
+        <v>0.001871</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41670</v>
+        <v>41698</v>
       </c>
       <c r="B47" s="1">
-        <v>0.001869</v>
+        <v>0.022899</v>
       </c>
       <c r="C47" s="1">
-        <v>0.001871</v>
+        <v>0.02297</v>
       </c>
       <c r="D47" s="1">
-        <v>0.001871</v>
+        <v>0.022973</v>
       </c>
       <c r="E47" s="1">
-        <v>0.001871</v>
+        <v>0.02296</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41698</v>
+        <v>41729</v>
       </c>
       <c r="B48" s="1">
-        <v>0.022899</v>
+        <v>0.007581</v>
       </c>
       <c r="C48" s="1">
-        <v>0.02297</v>
+        <v>0.007582</v>
       </c>
       <c r="D48" s="1">
-        <v>0.022973</v>
+        <v>0.007581</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02296</v>
+        <v>0.007581</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41729</v>
+        <v>41759</v>
       </c>
       <c r="B49" s="1">
-        <v>0.007581</v>
+        <v>0.002559</v>
       </c>
       <c r="C49" s="1">
-        <v>0.007582</v>
+        <v>0.002559</v>
       </c>
       <c r="D49" s="1">
-        <v>0.007581</v>
+        <v>0.002565</v>
       </c>
       <c r="E49" s="1">
-        <v>0.007581</v>
+        <v>0.002563</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41759</v>
+        <v>41790</v>
       </c>
       <c r="B50" s="1">
-        <v>0.002559</v>
+        <v>0.018616</v>
       </c>
       <c r="C50" s="1">
-        <v>0.002559</v>
+        <v>0.018622</v>
       </c>
       <c r="D50" s="1">
-        <v>0.002565</v>
+        <v>0.018616</v>
       </c>
       <c r="E50" s="1">
-        <v>0.002563</v>
+        <v>0.018617</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41790</v>
+        <v>41820</v>
       </c>
       <c r="B51" s="1">
-        <v>0.018616</v>
+        <v>0.007592</v>
       </c>
       <c r="C51" s="1">
-        <v>0.018622</v>
+        <v>0.007592</v>
       </c>
       <c r="D51" s="1">
-        <v>0.018616</v>
+        <v>0.00759</v>
       </c>
       <c r="E51" s="1">
-        <v>0.018617</v>
+        <v>0.007591</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B52" s="1">
-        <v>0.007592</v>
+        <v>-0.003537</v>
       </c>
       <c r="C52" s="1">
-        <v>0.007592</v>
+        <v>-0.003536</v>
       </c>
       <c r="D52" s="1">
-        <v>0.00759</v>
+        <v>-0.003534</v>
       </c>
       <c r="E52" s="1">
-        <v>0.007591</v>
+        <v>-0.003535</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41851</v>
+        <v>41882</v>
       </c>
       <c r="B53" s="1">
-        <v>-0.003537</v>
+        <v>0.024396</v>
       </c>
       <c r="C53" s="1">
-        <v>-0.003536</v>
+        <v>0.024396</v>
       </c>
       <c r="D53" s="1">
-        <v>-0.003534</v>
+        <v>0.0244</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.003535</v>
+        <v>0.024399</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="B54" s="1">
-        <v>0.024396</v>
+        <v>-0.018814</v>
       </c>
       <c r="C54" s="1">
-        <v>0.024396</v>
+        <v>-0.018804</v>
       </c>
       <c r="D54" s="1">
-        <v>0.0244</v>
+        <v>-0.018789</v>
       </c>
       <c r="E54" s="1">
-        <v>0.024399</v>
+        <v>-0.018796</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41912</v>
+        <v>41943</v>
       </c>
       <c r="B55" s="1">
-        <v>-0.018814</v>
+        <v>0.012246</v>
       </c>
       <c r="C55" s="1">
-        <v>-0.018804</v>
+        <v>0.012244</v>
       </c>
       <c r="D55" s="1">
-        <v>-0.018789</v>
+        <v>0.012254</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.018796</v>
+        <v>0.012251</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="B56" s="1">
-        <v>0.012246</v>
+        <v>0.016811</v>
       </c>
       <c r="C56" s="1">
-        <v>0.012244</v>
+        <v>0.01682</v>
       </c>
       <c r="D56" s="1">
-        <v>0.012254</v>
+        <v>0.01682</v>
       </c>
       <c r="E56" s="1">
-        <v>0.012251</v>
+        <v>0.016818</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="B57" s="1">
-        <v>0.016811</v>
+        <v>0.002068</v>
       </c>
       <c r="C57" s="1">
-        <v>0.01682</v>
+        <v>0.002076</v>
       </c>
       <c r="D57" s="1">
-        <v>0.01682</v>
+        <v>0.00208</v>
       </c>
       <c r="E57" s="1">
-        <v>0.016818</v>
+        <v>0.002077</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="B58" s="1">
-        <v>0.002068</v>
+        <v>0.023362</v>
       </c>
       <c r="C58" s="1">
-        <v>0.002076</v>
+        <v>0.023357</v>
       </c>
       <c r="D58" s="1">
-        <v>0.00208</v>
+        <v>0.02335</v>
       </c>
       <c r="E58" s="1">
-        <v>0.002077</v>
+        <v>0.023353</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="B59" s="1">
-        <v>0.023362</v>
+        <v>0.007672</v>
       </c>
       <c r="C59" s="1">
-        <v>0.023357</v>
+        <v>0.007672</v>
       </c>
       <c r="D59" s="1">
-        <v>0.02335</v>
+        <v>0.007671</v>
       </c>
       <c r="E59" s="1">
-        <v>0.023353</v>
+        <v>0.007671</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="B60" s="1">
-        <v>0.007672</v>
+        <v>0.000725</v>
       </c>
       <c r="C60" s="1">
-        <v>0.007672</v>
+        <v>0.000731</v>
       </c>
       <c r="D60" s="1">
-        <v>0.007671</v>
+        <v>0.000725</v>
       </c>
       <c r="E60" s="1">
-        <v>0.007671</v>
+        <v>0.000726</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="B61" s="1">
-        <v>0.000725</v>
+        <v>0.000483</v>
       </c>
       <c r="C61" s="1">
-        <v>0.000731</v>
+        <v>0.000483</v>
       </c>
       <c r="D61" s="1">
-        <v>0.000725</v>
+        <v>0.000483</v>
       </c>
       <c r="E61" s="1">
-        <v>0.000726</v>
+        <v>0.000483</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42124</v>
+        <v>42155</v>
       </c>
       <c r="B62" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="C62" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="D62" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="E62" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42155</v>
+        <v>42185</v>
       </c>
       <c r="B63" s="1">
-        <v>-0.001447</v>
+        <v>-0.019129</v>
       </c>
       <c r="C63" s="1">
-        <v>-0.001447</v>
+        <v>-0.019129</v>
       </c>
       <c r="D63" s="1">
-        <v>-0.001447</v>
+        <v>-0.019127</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.001447</v>
+        <v>-0.019128</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="B64" s="1">
-        <v>-0.019129</v>
+        <v>0.010715</v>
       </c>
       <c r="C64" s="1">
-        <v>-0.019129</v>
+        <v>0.010715</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.019127</v>
+        <v>0.010714</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.019128</v>
+        <v>0.010714</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="B65" s="1">
-        <v>0.010715</v>
+        <v>-0.027128</v>
       </c>
       <c r="C65" s="1">
-        <v>0.010715</v>
+        <v>-0.027126</v>
       </c>
       <c r="D65" s="1">
-        <v>0.010714</v>
+        <v>-0.027125</v>
       </c>
       <c r="E65" s="1">
-        <v>0.010714</v>
+        <v>-0.027126</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="B66" s="1">
-        <v>-0.027128</v>
+        <v>-0.00876</v>
       </c>
       <c r="C66" s="1">
-        <v>-0.027126</v>
+        <v>-0.00876</v>
       </c>
       <c r="D66" s="1">
-        <v>-0.027125</v>
+        <v>-0.008758999999999999</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.027126</v>
+        <v>-0.00876</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B67" s="1">
-        <v>-0.00876</v>
+        <v>0.028753</v>
       </c>
       <c r="C67" s="1">
-        <v>-0.00876</v>
+        <v>0.028716</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.008758999999999999</v>
+        <v>0.028798</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.00876</v>
+        <v>0.028775</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B68" s="1">
-        <v>0.028753</v>
+        <v>-0.003828</v>
       </c>
       <c r="C68" s="1">
-        <v>0.028716</v>
+        <v>-0.003819</v>
       </c>
       <c r="D68" s="1">
-        <v>0.028798</v>
+        <v>-0.003807</v>
       </c>
       <c r="E68" s="1">
-        <v>0.028775</v>
+        <v>-0.003813</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B69" s="1">
-        <v>-0.003828</v>
+        <v>-0.008187</v>
       </c>
       <c r="C69" s="1">
-        <v>-0.003819</v>
+        <v>-0.008187</v>
       </c>
       <c r="D69" s="1">
-        <v>-0.003807</v>
+        <v>-0.008184</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.003813</v>
+        <v>-0.008185</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B70" s="1">
-        <v>-0.008187</v>
+        <v>-0.014827</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.008187</v>
+        <v>-0.01483</v>
       </c>
       <c r="D70" s="1">
-        <v>-0.008184</v>
+        <v>-0.014826</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.008185</v>
+        <v>-0.014827</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B71" s="1">
-        <v>-0.014827</v>
+        <v>0.007148</v>
       </c>
       <c r="C71" s="1">
-        <v>-0.01483</v>
+        <v>0.007148</v>
       </c>
       <c r="D71" s="1">
-        <v>-0.014826</v>
+        <v>0.007150999999999999</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.014827</v>
+        <v>0.00715</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B72" s="1">
-        <v>0.007148</v>
+        <v>0.034737</v>
       </c>
       <c r="C72" s="1">
-        <v>0.007148</v>
+        <v>0.034736</v>
       </c>
       <c r="D72" s="1">
-        <v>0.007150999999999999</v>
+        <v>0.034733</v>
       </c>
       <c r="E72" s="1">
-        <v>0.00715</v>
+        <v>0.034734</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B73" s="1">
-        <v>0.034737</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="C73" s="1">
-        <v>0.034736</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="D73" s="1">
-        <v>0.034733</v>
+        <v>0.009242</v>
       </c>
       <c r="E73" s="1">
-        <v>0.034734</v>
+        <v>0.009242999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B74" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001881</v>
       </c>
       <c r="C74" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001883</v>
       </c>
       <c r="D74" s="1">
-        <v>0.009242</v>
+        <v>0.001884</v>
       </c>
       <c r="E74" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001883</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B75" s="1">
-        <v>0.001881</v>
+        <v>0.010067</v>
       </c>
       <c r="C75" s="1">
-        <v>0.001883</v>
+        <v>0.010098</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001884</v>
+        <v>0.01013</v>
       </c>
       <c r="E75" s="1">
-        <v>0.001883</v>
+        <v>0.010112</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B76" s="1">
-        <v>0.010067</v>
+        <v>0.021267</v>
       </c>
       <c r="C76" s="1">
-        <v>0.010098</v>
+        <v>0.021267</v>
       </c>
       <c r="D76" s="1">
-        <v>0.01013</v>
+        <v>0.021264</v>
       </c>
       <c r="E76" s="1">
-        <v>0.010112</v>
+        <v>0.021265</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B77" s="1">
-        <v>0.021267</v>
+        <v>0.001143</v>
       </c>
       <c r="C77" s="1">
-        <v>0.021267</v>
+        <v>0.001146</v>
       </c>
       <c r="D77" s="1">
-        <v>0.021264</v>
+        <v>0.001146</v>
       </c>
       <c r="E77" s="1">
-        <v>0.021265</v>
+        <v>0.001145</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B78" s="1">
-        <v>0.001143</v>
+        <v>0.00083</v>
       </c>
       <c r="C78" s="1">
-        <v>0.001146</v>
+        <v>0.0008309999999999999</v>
       </c>
       <c r="D78" s="1">
-        <v>0.001146</v>
+        <v>0.00083</v>
       </c>
       <c r="E78" s="1">
-        <v>0.001145</v>
+        <v>0.00083</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B79" s="1">
-        <v>0.00083</v>
+        <v>-0.011784</v>
       </c>
       <c r="C79" s="1">
-        <v>0.0008309999999999999</v>
+        <v>-0.011773</v>
       </c>
       <c r="D79" s="1">
-        <v>0.00083</v>
+        <v>-0.011778</v>
       </c>
       <c r="E79" s="1">
-        <v>0.00083</v>
+        <v>-0.011778</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B80" s="1">
-        <v>-0.011784</v>
+        <v>-0.011504</v>
       </c>
       <c r="C80" s="1">
-        <v>-0.011773</v>
+        <v>-0.011503</v>
       </c>
       <c r="D80" s="1">
-        <v>-0.011778</v>
+        <v>-0.011501</v>
       </c>
       <c r="E80" s="1">
-        <v>-0.011778</v>
+        <v>-0.011502</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B81" s="1">
-        <v>-0.011504</v>
+        <v>0.010278</v>
       </c>
       <c r="C81" s="1">
-        <v>-0.011503</v>
+        <v>0.010006</v>
       </c>
       <c r="D81" s="1">
-        <v>-0.011501</v>
+        <v>0.010143</v>
       </c>
       <c r="E81" s="1">
-        <v>-0.011502</v>
+        <v>0.010141</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B82" s="1">
-        <v>0.010278</v>
+        <v>0.01169</v>
       </c>
       <c r="C82" s="1">
-        <v>0.010006</v>
+        <v>0.011614</v>
       </c>
       <c r="D82" s="1">
-        <v>0.010143</v>
+        <v>0.011658</v>
       </c>
       <c r="E82" s="1">
-        <v>0.010141</v>
+        <v>0.011655</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B83" s="1">
-        <v>0.01169</v>
+        <v>0.017668</v>
       </c>
       <c r="C83" s="1">
-        <v>0.011614</v>
+        <v>0.017672</v>
       </c>
       <c r="D83" s="1">
-        <v>0.011658</v>
+        <v>0.017677</v>
       </c>
       <c r="E83" s="1">
-        <v>0.011655</v>
+        <v>0.017674</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B84" s="1">
-        <v>0.017668</v>
+        <v>0.005195</v>
       </c>
       <c r="C84" s="1">
-        <v>0.017672</v>
+        <v>0.005195</v>
       </c>
       <c r="D84" s="1">
-        <v>0.017677</v>
+        <v>0.005195</v>
       </c>
       <c r="E84" s="1">
-        <v>0.017674</v>
+        <v>0.005195</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B85" s="1">
-        <v>0.005195</v>
+        <v>0.013597</v>
       </c>
       <c r="C85" s="1">
-        <v>0.005195</v>
+        <v>0.0136</v>
       </c>
       <c r="D85" s="1">
-        <v>0.005195</v>
+        <v>0.013598</v>
       </c>
       <c r="E85" s="1">
-        <v>0.005195</v>
+        <v>0.013598</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B86" s="1">
-        <v>0.013597</v>
+        <v>0.015261</v>
       </c>
       <c r="C86" s="1">
-        <v>0.0136</v>
+        <v>0.015261</v>
       </c>
       <c r="D86" s="1">
-        <v>0.013598</v>
+        <v>0.015262</v>
       </c>
       <c r="E86" s="1">
-        <v>0.013598</v>
+        <v>0.015262</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B87" s="1">
-        <v>0.015261</v>
+        <v>0.005246</v>
       </c>
       <c r="C87" s="1">
-        <v>0.015261</v>
+        <v>0.005249</v>
       </c>
       <c r="D87" s="1">
-        <v>0.015262</v>
+        <v>0.005264</v>
       </c>
       <c r="E87" s="1">
-        <v>0.015262</v>
+        <v>0.005257</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B88" s="1">
-        <v>0.005246</v>
+        <v>0.011307</v>
       </c>
       <c r="C88" s="1">
-        <v>0.005249</v>
+        <v>0.011307</v>
       </c>
       <c r="D88" s="1">
-        <v>0.005264</v>
+        <v>0.011306</v>
       </c>
       <c r="E88" s="1">
-        <v>0.005257</v>
+        <v>0.011307</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B89" s="1">
-        <v>0.011307</v>
+        <v>0.010725</v>
       </c>
       <c r="C89" s="1">
-        <v>0.011307</v>
+        <v>0.010724</v>
       </c>
       <c r="D89" s="1">
-        <v>0.011306</v>
+        <v>0.010725</v>
       </c>
       <c r="E89" s="1">
-        <v>0.011307</v>
+        <v>0.010725</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B90" s="1">
-        <v>0.010725</v>
+        <v>0.008107999999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>0.010724</v>
+        <v>0.008107</v>
       </c>
       <c r="D90" s="1">
-        <v>0.010725</v>
+        <v>0.008107</v>
       </c>
       <c r="E90" s="1">
-        <v>0.010725</v>
+        <v>0.008107</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B91" s="1">
-        <v>0.008107999999999999</v>
+        <v>0.011965</v>
       </c>
       <c r="C91" s="1">
-        <v>0.008107</v>
+        <v>0.011963</v>
       </c>
       <c r="D91" s="1">
-        <v>0.008107</v>
+        <v>0.011963</v>
       </c>
       <c r="E91" s="1">
-        <v>0.008107</v>
+        <v>0.011964</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B92" s="1">
-        <v>0.011965</v>
+        <v>0.013354</v>
       </c>
       <c r="C92" s="1">
-        <v>0.011963</v>
+        <v>0.013354</v>
       </c>
       <c r="D92" s="1">
-        <v>0.011963</v>
+        <v>0.013356</v>
       </c>
       <c r="E92" s="1">
-        <v>0.011964</v>
+        <v>0.013355</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B93" s="1">
-        <v>0.013354</v>
+        <v>0.011831</v>
       </c>
       <c r="C93" s="1">
-        <v>0.013354</v>
+        <v>0.012308</v>
       </c>
       <c r="D93" s="1">
-        <v>0.013356</v>
+        <v>0.011977</v>
       </c>
       <c r="E93" s="1">
-        <v>0.013355</v>
+        <v>0.012016</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B94" s="1">
-        <v>0.011831</v>
+        <v>0.024717</v>
       </c>
       <c r="C94" s="1">
-        <v>0.012308</v>
+        <v>0.024777</v>
       </c>
       <c r="D94" s="1">
-        <v>0.011977</v>
+        <v>0.016299</v>
       </c>
       <c r="E94" s="1">
-        <v>0.012016</v>
+        <v>0.019876</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B95" s="1">
-        <v>0.024717</v>
+        <v>-0.029926</v>
       </c>
       <c r="C95" s="1">
-        <v>0.024777</v>
+        <v>-0.029924</v>
       </c>
       <c r="D95" s="1">
-        <v>0.016299</v>
+        <v>-0.029905</v>
       </c>
       <c r="E95" s="1">
-        <v>0.019876</v>
+        <v>-0.029913</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B96" s="1">
-        <v>-0.029926</v>
+        <v>0.001458</v>
       </c>
       <c r="C96" s="1">
-        <v>-0.029924</v>
+        <v>0.001458</v>
       </c>
       <c r="D96" s="1">
-        <v>-0.029905</v>
+        <v>0.008959</v>
       </c>
       <c r="E96" s="1">
-        <v>-0.029913</v>
+        <v>0.005778999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B97" s="1">
-        <v>0.001458</v>
+        <v>-0.002009</v>
       </c>
       <c r="C97" s="1">
-        <v>0.001458</v>
+        <v>-0.002009</v>
       </c>
       <c r="D97" s="1">
-        <v>0.008959</v>
+        <v>-0.006636</v>
       </c>
       <c r="E97" s="1">
-        <v>0.005778999999999999</v>
+        <v>-0.004682</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B98" s="1">
-        <v>-0.002009</v>
+        <v>0.006971000000000001</v>
       </c>
       <c r="C98" s="1">
-        <v>-0.002009</v>
+        <v>0.006965</v>
       </c>
       <c r="D98" s="1">
-        <v>-0.006636</v>
+        <v>0.010673</v>
       </c>
       <c r="E98" s="1">
-        <v>-0.004682</v>
+        <v>0.009103</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B99" s="1">
-        <v>0.006971000000000001</v>
+        <v>-0.002816</v>
       </c>
       <c r="C99" s="1">
-        <v>0.006965</v>
+        <v>-0.00284</v>
       </c>
       <c r="D99" s="1">
-        <v>0.010673</v>
+        <v>-0.001519</v>
       </c>
       <c r="E99" s="1">
-        <v>0.009103</v>
+        <v>-0.002073</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B100" s="1">
-        <v>-0.002816</v>
+        <v>0.013499</v>
       </c>
       <c r="C100" s="1">
-        <v>-0.00284</v>
+        <v>0.013494</v>
       </c>
       <c r="D100" s="1">
-        <v>-0.001519</v>
+        <v>0.005810999999999999</v>
       </c>
       <c r="E100" s="1">
-        <v>-0.002073</v>
+        <v>0.009061</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B101" s="1">
-        <v>0.013499</v>
+        <v>0.008215999999999999</v>
       </c>
       <c r="C101" s="1">
-        <v>0.013494</v>
+        <v>0.00822</v>
       </c>
       <c r="D101" s="1">
-        <v>0.005810999999999999</v>
+        <v>0.010221</v>
       </c>
       <c r="E101" s="1">
-        <v>0.009061</v>
+        <v>0.00937</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B102" s="1">
-        <v>0.008215999999999999</v>
+        <v>-0.005064</v>
       </c>
       <c r="C102" s="1">
-        <v>0.00822</v>
+        <v>-0.005064999999999999</v>
       </c>
       <c r="D102" s="1">
-        <v>0.010221</v>
+        <v>-0.011547</v>
       </c>
       <c r="E102" s="1">
-        <v>0.00937</v>
+        <v>-0.008794</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B103" s="1">
-        <v>-0.005064</v>
+        <v>-0.040555</v>
       </c>
       <c r="C103" s="1">
-        <v>-0.005064999999999999</v>
+        <v>-0.040551</v>
       </c>
       <c r="D103" s="1">
-        <v>-0.011547</v>
+        <v>-0.039562</v>
       </c>
       <c r="E103" s="1">
-        <v>-0.008794</v>
+        <v>-0.039984</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B104" s="1">
-        <v>-0.040555</v>
+        <v>0.01145</v>
       </c>
       <c r="C104" s="1">
-        <v>-0.040551</v>
+        <v>0.011447</v>
       </c>
       <c r="D104" s="1">
-        <v>-0.039562</v>
+        <v>0.013939</v>
       </c>
       <c r="E104" s="1">
-        <v>-0.039984</v>
+        <v>0.012878</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B105" s="1">
-        <v>0.01145</v>
+        <v>-0.016159</v>
       </c>
       <c r="C105" s="1">
-        <v>0.011447</v>
+        <v>-0.01617</v>
       </c>
       <c r="D105" s="1">
-        <v>0.013939</v>
+        <v>0.005926</v>
       </c>
       <c r="E105" s="1">
-        <v>0.012878</v>
+        <v>-0.003477</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B106" s="1">
-        <v>-0.016159</v>
+        <v>0.037035</v>
       </c>
       <c r="C106" s="1">
-        <v>-0.01617</v>
+        <v>0.037039</v>
       </c>
       <c r="D106" s="1">
-        <v>0.005926</v>
+        <v>0.028362</v>
       </c>
       <c r="E106" s="1">
-        <v>-0.003477</v>
+        <v>0.032009</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B107" s="1">
-        <v>0.037035</v>
+        <v>0.010188</v>
       </c>
       <c r="C107" s="1">
-        <v>0.037039</v>
+        <v>0.010184</v>
       </c>
       <c r="D107" s="1">
-        <v>0.028362</v>
+        <v>0.002933</v>
       </c>
       <c r="E107" s="1">
-        <v>0.032009</v>
+        <v>0.005999</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B108" s="1">
-        <v>0.010188</v>
+        <v>0.021135</v>
       </c>
       <c r="C108" s="1">
-        <v>0.010184</v>
+        <v>0.021127</v>
       </c>
       <c r="D108" s="1">
-        <v>0.002933</v>
+        <v>0.032959</v>
       </c>
       <c r="E108" s="1">
-        <v>0.005999</v>
+        <v>0.027935</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B109" s="1">
-        <v>0.021135</v>
+        <v>0.010592</v>
       </c>
       <c r="C109" s="1">
-        <v>0.021127</v>
+        <v>0.010584</v>
       </c>
       <c r="D109" s="1">
-        <v>0.032959</v>
+        <v>0.001077</v>
       </c>
       <c r="E109" s="1">
-        <v>0.027935</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B110" s="1">
-        <v>0.010592</v>
+        <v>-0.004251</v>
       </c>
       <c r="C110" s="1">
-        <v>0.010584</v>
+        <v>-0.004255</v>
       </c>
       <c r="D110" s="1">
-        <v>0.001077</v>
+        <v>0.020519</v>
       </c>
       <c r="E110" s="1">
-        <v>0.00509</v>
+        <v>0.010002</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B111" s="1">
-        <v>-0.004251</v>
+        <v>0.033344</v>
       </c>
       <c r="C111" s="1">
-        <v>-0.004255</v>
+        <v>0.033341</v>
       </c>
       <c r="D111" s="1">
-        <v>0.020519</v>
+        <v>0.026978</v>
       </c>
       <c r="E111" s="1">
-        <v>0.010002</v>
+        <v>0.029644</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B112" s="1">
-        <v>0.033344</v>
+        <v>0.005238</v>
       </c>
       <c r="C112" s="1">
-        <v>0.033341</v>
+        <v>0.00523</v>
       </c>
       <c r="D112" s="1">
-        <v>0.026978</v>
+        <v>0.004394</v>
       </c>
       <c r="E112" s="1">
-        <v>0.029644</v>
+        <v>0.004747</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B113" s="1">
-        <v>0.005238</v>
+        <v>0.024274</v>
       </c>
       <c r="C113" s="1">
-        <v>0.00523</v>
+        <v>0.024213</v>
       </c>
       <c r="D113" s="1">
-        <v>0.004394</v>
+        <v>0.05872</v>
       </c>
       <c r="E113" s="1">
-        <v>0.004747</v>
+        <v>0.044206</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B114" s="1">
-        <v>0.024274</v>
+        <v>0.002153</v>
       </c>
       <c r="C114" s="1">
-        <v>0.024213</v>
+        <v>0.002218</v>
       </c>
       <c r="D114" s="1">
-        <v>0.05872</v>
+        <v>-0.009623</v>
       </c>
       <c r="E114" s="1">
-        <v>0.044206</v>
+        <v>-0.004635</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B115" s="1">
-        <v>0.002153</v>
+        <v>0.005681</v>
       </c>
       <c r="C115" s="1">
-        <v>0.002218</v>
+        <v>0.006085</v>
       </c>
       <c r="D115" s="1">
-        <v>-0.009623</v>
+        <v>-0.000153</v>
       </c>
       <c r="E115" s="1">
-        <v>-0.004635</v>
+        <v>0.002441</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B116" s="1">
-        <v>0.005681</v>
+        <v>0.010361</v>
       </c>
       <c r="C116" s="1">
-        <v>0.006085</v>
+        <v>0.010705</v>
       </c>
       <c r="D116" s="1">
-        <v>-0.000153</v>
+        <v>0.006349</v>
       </c>
       <c r="E116" s="1">
-        <v>0.002441</v>
+        <v>0.008153000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B117" s="1">
-        <v>0.010361</v>
+        <v>0.008629</v>
       </c>
       <c r="C117" s="1">
-        <v>0.010705</v>
+        <v>0.007443</v>
       </c>
       <c r="D117" s="1">
-        <v>0.006349</v>
+        <v>-0.007508</v>
       </c>
       <c r="E117" s="1">
-        <v>0.008153000000000001</v>
+        <v>-0.000751</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B118" s="1">
-        <v>0.008629</v>
+        <v>0.010016</v>
       </c>
       <c r="C118" s="1">
-        <v>0.007443</v>
+        <v>0.009792</v>
       </c>
       <c r="D118" s="1">
-        <v>-0.007508</v>
+        <v>0.037942</v>
       </c>
       <c r="E118" s="1">
-        <v>-0.000751</v>
+        <v>0.02564</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B119" s="1">
-        <v>0.010016</v>
+        <v>-0.022208</v>
       </c>
       <c r="C119" s="1">
-        <v>0.009792</v>
+        <v>-0.020781</v>
       </c>
       <c r="D119" s="1">
-        <v>0.037942</v>
+        <v>0.018639</v>
       </c>
       <c r="E119" s="1">
-        <v>0.02564</v>
+        <v>0.001266</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B120" s="1">
-        <v>-0.022208</v>
+        <v>-0.07419100000000001</v>
       </c>
       <c r="C120" s="1">
-        <v>-0.020781</v>
+        <v>-0.07051</v>
       </c>
       <c r="D120" s="1">
-        <v>0.018639</v>
+        <v>-0.012191</v>
       </c>
       <c r="E120" s="1">
-        <v>0.001266</v>
+        <v>-0.037684</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B121" s="1">
-        <v>-0.07419100000000001</v>
+        <v>0.056168</v>
       </c>
       <c r="C121" s="1">
-        <v>-0.07051</v>
+        <v>0.05305</v>
       </c>
       <c r="D121" s="1">
-        <v>-0.012191</v>
+        <v>0.037446</v>
       </c>
       <c r="E121" s="1">
-        <v>-0.037684</v>
+        <v>0.044486</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B122" s="1">
-        <v>0.056168</v>
+        <v>0.015041</v>
       </c>
       <c r="C122" s="1">
-        <v>0.05305</v>
+        <v>0.013544</v>
       </c>
       <c r="D122" s="1">
-        <v>0.037446</v>
+        <v>-0.004533</v>
       </c>
       <c r="E122" s="1">
-        <v>0.044486</v>
+        <v>0.003246</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B123" s="1">
-        <v>0.015041</v>
+        <v>0.012864</v>
       </c>
       <c r="C123" s="1">
-        <v>0.013544</v>
+        <v>0.012183</v>
       </c>
       <c r="D123" s="1">
-        <v>-0.004533</v>
+        <v>0.00859</v>
       </c>
       <c r="E123" s="1">
-        <v>0.003246</v>
+        <v>0.010239</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B124" s="1">
-        <v>0.012864</v>
+        <v>0.034786</v>
       </c>
       <c r="C124" s="1">
-        <v>0.012183</v>
+        <v>0.033863</v>
       </c>
       <c r="D124" s="1">
-        <v>0.00859</v>
+        <v>0.044461</v>
       </c>
       <c r="E124" s="1">
-        <v>0.010239</v>
+        <v>0.040234</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B125" s="1">
-        <v>0.034786</v>
+        <v>0.017061</v>
       </c>
       <c r="C125" s="1">
-        <v>0.033863</v>
+        <v>0.016036</v>
       </c>
       <c r="D125" s="1">
-        <v>0.044461</v>
+        <v>-0.017265</v>
       </c>
       <c r="E125" s="1">
-        <v>0.040234</v>
+        <v>-0.003186</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B126" s="1">
-        <v>0.017061</v>
+        <v>-0.014281</v>
       </c>
       <c r="C126" s="1">
-        <v>0.016036</v>
+        <v>-0.013697</v>
       </c>
       <c r="D126" s="1">
-        <v>-0.017265</v>
+        <v>-0.005055</v>
       </c>
       <c r="E126" s="1">
-        <v>-0.003186</v>
+        <v>-0.008924999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B127" s="1">
-        <v>-0.014281</v>
+        <v>-0.016704</v>
       </c>
       <c r="C127" s="1">
-        <v>-0.013697</v>
+        <v>-0.015702</v>
       </c>
       <c r="D127" s="1">
-        <v>-0.005055</v>
+        <v>-0.023545</v>
       </c>
       <c r="E127" s="1">
-        <v>-0.008924999999999999</v>
+        <v>-0.020374</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B128" s="1">
-        <v>-0.016704</v>
+        <v>0.065382</v>
       </c>
       <c r="C128" s="1">
-        <v>-0.015702</v>
+        <v>0.06457600000000001</v>
       </c>
       <c r="D128" s="1">
-        <v>-0.023545</v>
+        <v>0.044108</v>
       </c>
       <c r="E128" s="1">
-        <v>-0.020374</v>
+        <v>0.053226</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B129" s="1">
-        <v>0.065382</v>
+        <v>0.021767</v>
       </c>
       <c r="C129" s="1">
-        <v>0.06457600000000001</v>
+        <v>0.022151</v>
       </c>
       <c r="D129" s="1">
-        <v>0.044108</v>
+        <v>0.007529</v>
       </c>
       <c r="E129" s="1">
-        <v>0.053226</v>
+        <v>0.013933</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B130" s="1">
-        <v>0.021767</v>
+        <v>-0.013168</v>
       </c>
       <c r="C130" s="1">
-        <v>0.022151</v>
+        <v>-0.012301</v>
       </c>
       <c r="D130" s="1">
-        <v>0.007529</v>
+        <v>-0.0263</v>
       </c>
       <c r="E130" s="1">
-        <v>0.013933</v>
+        <v>-0.020192</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B131" s="1">
-        <v>-0.013168</v>
+        <v>-0.002234</v>
       </c>
       <c r="C131" s="1">
-        <v>-0.012301</v>
+        <v>-0.000961</v>
       </c>
       <c r="D131" s="1">
-        <v>-0.0263</v>
+        <v>-0.032485</v>
       </c>
       <c r="E131" s="1">
-        <v>-0.020192</v>
+        <v>-0.018451</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B132" s="1">
-        <v>-0.002234</v>
+        <v>0.01294</v>
       </c>
       <c r="C132" s="1">
-        <v>-0.000961</v>
+        <v>0.013419</v>
       </c>
       <c r="D132" s="1">
-        <v>-0.032485</v>
+        <v>-0.010056</v>
       </c>
       <c r="E132" s="1">
-        <v>-0.018451</v>
+        <v>0.0006980000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B133" s="1">
-        <v>0.01294</v>
+        <v>0.028613</v>
       </c>
       <c r="C133" s="1">
-        <v>0.013419</v>
+        <v>0.028164</v>
       </c>
       <c r="D133" s="1">
-        <v>-0.010056</v>
+        <v>0.029309</v>
       </c>
       <c r="E133" s="1">
-        <v>0.0006980000000000001</v>
+        <v>0.028885</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B134" s="1">
-        <v>0.028613</v>
+        <v>0.017591</v>
       </c>
       <c r="C134" s="1">
-        <v>0.028164</v>
+        <v>0.018329</v>
       </c>
       <c r="D134" s="1">
-        <v>0.029309</v>
+        <v>0.014168</v>
       </c>
       <c r="E134" s="1">
-        <v>0.028885</v>
+        <v>0.015936</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B135" s="1">
-        <v>0.017591</v>
+        <v>0.018306</v>
       </c>
       <c r="C135" s="1">
-        <v>0.018329</v>
+        <v>0.017976</v>
       </c>
       <c r="D135" s="1">
-        <v>0.014168</v>
+        <v>0.02898</v>
       </c>
       <c r="E135" s="1">
-        <v>0.015936</v>
+        <v>0.023884</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B136" s="1">
-        <v>0.018306</v>
+        <v>0.015858</v>
       </c>
       <c r="C136" s="1">
-        <v>0.017976</v>
+        <v>0.01554</v>
       </c>
       <c r="D136" s="1">
-        <v>0.02898</v>
+        <v>0.024879</v>
       </c>
       <c r="E136" s="1">
-        <v>0.023884</v>
+        <v>0.020584</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B137" s="1">
-        <v>0.015858</v>
+        <v>0.014596</v>
       </c>
       <c r="C137" s="1">
-        <v>0.01554</v>
+        <v>0.014694</v>
       </c>
       <c r="D137" s="1">
-        <v>0.024879</v>
+        <v>0.007593</v>
       </c>
       <c r="E137" s="1">
-        <v>0.020584</v>
+        <v>0.010881</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B138" s="1">
-        <v>0.014596</v>
+        <v>-0.034501</v>
       </c>
       <c r="C138" s="1">
-        <v>0.014694</v>
+        <v>-0.037832</v>
       </c>
       <c r="D138" s="1">
-        <v>0.007593</v>
+        <v>-0.030726</v>
       </c>
       <c r="E138" s="1">
-        <v>0.010881</v>
+        <v>-0.033223</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B139" s="1">
-        <v>-0.034501</v>
+        <v>0.034062</v>
       </c>
       <c r="C139" s="1">
-        <v>-0.037832</v>
+        <v>0.038085</v>
       </c>
       <c r="D139" s="1">
-        <v>-0.030726</v>
+        <v>0.027294</v>
       </c>
       <c r="E139" s="1">
-        <v>-0.033223</v>
+        <v>0.031335</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B140" s="1">
-        <v>0.034062</v>
+        <v>0.014583</v>
       </c>
       <c r="C140" s="1">
-        <v>0.038085</v>
+        <v>0.020934</v>
       </c>
       <c r="D140" s="1">
-        <v>0.027294</v>
+        <v>0.017182</v>
       </c>
       <c r="E140" s="1">
-        <v>0.031335</v>
+        <v>0.017353</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B141" s="1">
-        <v>0.014583</v>
+        <v>0.013202</v>
       </c>
       <c r="C141" s="1">
-        <v>0.020934</v>
+        <v>0.009613</v>
       </c>
       <c r="D141" s="1">
-        <v>0.017182</v>
+        <v>0.005379</v>
       </c>
       <c r="E141" s="1">
-        <v>0.017353</v>
+        <v>0.00827</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B142" s="1">
-        <v>0.013202</v>
+        <v>-0.048359</v>
       </c>
       <c r="C142" s="1">
-        <v>0.009613</v>
+        <v>-0.051444</v>
       </c>
       <c r="D142" s="1">
-        <v>0.005379</v>
+        <v>-0.043723</v>
       </c>
       <c r="E142" s="1">
-        <v>0.00827</v>
+        <v>-0.046588</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B143" s="1">
-        <v>-0.048359</v>
+        <v>-0.020498</v>
       </c>
       <c r="C143" s="1">
-        <v>-0.051444</v>
+        <v>-0.021976</v>
       </c>
       <c r="D143" s="1">
-        <v>-0.043723</v>
+        <v>-0.017199</v>
       </c>
       <c r="E143" s="1">
-        <v>-0.046588</v>
+        <v>-0.019075</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B144" s="1">
-        <v>-0.020498</v>
+        <v>-0.017631</v>
       </c>
       <c r="C144" s="1">
-        <v>-0.021976</v>
+        <v>-0.021784</v>
       </c>
       <c r="D144" s="1">
-        <v>-0.017199</v>
+        <v>-0.026753</v>
       </c>
       <c r="E144" s="1">
-        <v>-0.019075</v>
+        <v>-0.02338</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B145" s="1">
-        <v>-0.017631</v>
+        <v>-0.07614499999999999</v>
       </c>
       <c r="C145" s="1">
-        <v>-0.021784</v>
+        <v>-0.08283599999999999</v>
       </c>
       <c r="D145" s="1">
-        <v>-0.026753</v>
+        <v>-0.080459</v>
       </c>
       <c r="E145" s="1">
-        <v>-0.02338</v>
+        <v>-0.07989399999999999</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B146" s="1">
-        <v>-0.07614499999999999</v>
+        <v>-0.010776</v>
       </c>
       <c r="C146" s="1">
-        <v>-0.08283599999999999</v>
+        <v>-0.014128</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.080459</v>
+        <v>-0.006677</v>
       </c>
       <c r="E146" s="1">
-        <v>-0.07989399999999999</v>
+        <v>-0.009348</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B147" s="1">
-        <v>-0.010776</v>
+        <v>-0.035471</v>
       </c>
       <c r="C147" s="1">
-        <v>-0.014128</v>
+        <v>-0.033153</v>
       </c>
       <c r="D147" s="1">
-        <v>-0.006677</v>
+        <v>-0.036546</v>
       </c>
       <c r="E147" s="1">
-        <v>-0.009348</v>
+        <v>-0.035533</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -445,2484 +445,2484 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40329</v>
+        <v>40359</v>
       </c>
       <c r="B2" s="1">
-        <v>1547543516.8</v>
+        <v>1525381389.55</v>
       </c>
       <c r="C2" s="1">
-        <v>2151316976.44</v>
+        <v>2126807551.94</v>
       </c>
       <c r="D2" s="1">
-        <v>12652570165.23</v>
+        <v>12475226298.37</v>
       </c>
       <c r="E2" s="1">
-        <v>16351430658.47</v>
+        <v>16127415239.86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40359</v>
+        <v>40390</v>
       </c>
       <c r="B3" s="1">
-        <v>1525381389.55</v>
+        <v>1706992377.88</v>
       </c>
       <c r="C3" s="1">
-        <v>2126807551.94</v>
+        <v>2217049566.92</v>
       </c>
       <c r="D3" s="1">
-        <v>12475226298.37</v>
+        <v>12970356046.29</v>
       </c>
       <c r="E3" s="1">
-        <v>16127415239.86</v>
+        <v>16894397991.09</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40390</v>
+        <v>40421</v>
       </c>
       <c r="B4" s="1">
-        <v>1706992377.88</v>
+        <v>1703519080.08</v>
       </c>
       <c r="C4" s="1">
-        <v>2217049566.92</v>
+        <v>2218270319.77</v>
       </c>
       <c r="D4" s="1">
-        <v>12970356046.29</v>
+        <v>12943159219.5</v>
       </c>
       <c r="E4" s="1">
-        <v>16894397991.09</v>
+        <v>16864948619.35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40421</v>
+        <v>40451</v>
       </c>
       <c r="B5" s="1">
-        <v>1703519080.08</v>
+        <v>1774147463.24</v>
       </c>
       <c r="C5" s="1">
-        <v>2218270319.77</v>
+        <v>2429501039.02</v>
       </c>
       <c r="D5" s="1">
-        <v>12943159219.5</v>
+        <v>13480390809.59</v>
       </c>
       <c r="E5" s="1">
-        <v>16864948619.35</v>
+        <v>17684039311.85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40451</v>
+        <v>40482</v>
       </c>
       <c r="B6" s="1">
-        <v>1774147463.24</v>
+        <v>1900647341.72</v>
       </c>
       <c r="C6" s="1">
-        <v>2429501039.02</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D6" s="1">
-        <v>13480390809.59</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E6" s="1">
-        <v>17684039311.85</v>
+        <v>17795189712.79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40482</v>
+        <v>40512</v>
       </c>
       <c r="B7" s="1">
-        <v>1900647341.72</v>
+        <v>1880986063.23</v>
       </c>
       <c r="C7" s="1">
-        <v>2451294838.87</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D7" s="1">
-        <v>13443247532.2</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E7" s="1">
-        <v>17795189712.79</v>
+        <v>19628498009.78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40512</v>
+        <v>40543</v>
       </c>
       <c r="B8" s="1">
-        <v>1880986063.23</v>
+        <v>1928778379.47</v>
       </c>
       <c r="C8" s="1">
-        <v>2932628117.61</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D8" s="1">
-        <v>14814883828.94</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E8" s="1">
-        <v>19628498009.78</v>
+        <v>20035309723.7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40543</v>
+        <v>40574</v>
       </c>
       <c r="B9" s="1">
-        <v>1928778379.47</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C9" s="1">
-        <v>3016301371.7</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D9" s="1">
-        <v>15090229972.53</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E9" s="1">
-        <v>20035309723.7</v>
+        <v>21163883643.67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40574</v>
+        <v>40602</v>
       </c>
       <c r="B10" s="1">
-        <v>3118038032.57</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C10" s="1">
-        <v>3010941131.67</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D10" s="1">
-        <v>15034904479.43</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E10" s="1">
-        <v>21163883643.67</v>
+        <v>21593049295.12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40602</v>
+        <v>40633</v>
       </c>
       <c r="B11" s="1">
-        <v>3181037518.51</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C11" s="1">
-        <v>3072606771.41</v>
+        <v>3077934373.48</v>
       </c>
       <c r="D11" s="1">
-        <v>15339405005.2</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E11" s="1">
-        <v>21593049295.12</v>
+        <v>21597573754.27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40633</v>
+        <v>40663</v>
       </c>
       <c r="B12" s="1">
-        <v>3181383242.47</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C12" s="1">
-        <v>3077934373.48</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D12" s="1">
-        <v>15338256138.32</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E12" s="1">
-        <v>21597573754.27</v>
+        <v>22196621501.4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40663</v>
+        <v>40694</v>
       </c>
       <c r="B13" s="1">
-        <v>3268994098.86</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C13" s="1">
-        <v>3168259937.35</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D13" s="1">
-        <v>15759367465.19</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E13" s="1">
-        <v>22196621501.4</v>
+        <v>22284802378.54</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40694</v>
+        <v>40724</v>
       </c>
       <c r="B14" s="1">
-        <v>3281525082.01</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C14" s="1">
-        <v>3185699769.88</v>
+        <v>3131056633.27</v>
       </c>
       <c r="D14" s="1">
-        <v>15817577526.65</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E14" s="1">
-        <v>22284802378.54</v>
+        <v>21869307212.61</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40724</v>
+        <v>40755</v>
       </c>
       <c r="B15" s="1">
-        <v>3219718796.83</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C15" s="1">
-        <v>3131056633.27</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D15" s="1">
-        <v>15518531782.51</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E15" s="1">
-        <v>21869307212.61</v>
+        <v>22052191790.71</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40755</v>
+        <v>40786</v>
       </c>
       <c r="B16" s="1">
-        <v>3245901192.15</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C16" s="1">
-        <v>3162162793.97</v>
+        <v>3139082692.54</v>
       </c>
       <c r="D16" s="1">
-        <v>15644127804.59</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E16" s="1">
-        <v>22052191790.71</v>
+        <v>21857328408.78</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40786</v>
+        <v>40816</v>
       </c>
       <c r="B17" s="1">
-        <v>3216438061.76</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C17" s="1">
-        <v>3139082692.54</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D17" s="1">
-        <v>15501807654.48</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E17" s="1">
-        <v>21857328408.78</v>
+        <v>21890762234.61</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40816</v>
+        <v>40847</v>
       </c>
       <c r="B18" s="1">
-        <v>3211645130.63</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C18" s="1">
-        <v>3200272417.15</v>
+        <v>3311931768.5</v>
       </c>
       <c r="D18" s="1">
-        <v>15478844686.83</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E18" s="1">
-        <v>21890762234.61</v>
+        <v>22618006484.29</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40847</v>
+        <v>40877</v>
       </c>
       <c r="B19" s="1">
-        <v>3317215603.4</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C19" s="1">
-        <v>3311931768.5</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D19" s="1">
-        <v>15988859112.39</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E19" s="1">
-        <v>22618006484.29</v>
+        <v>22404833979.68</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40877</v>
+        <v>40908</v>
       </c>
       <c r="B20" s="1">
-        <v>3279790855.17</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C20" s="1">
-        <v>3286738232.03</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D20" s="1">
-        <v>15838304892.48</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E20" s="1">
-        <v>22404833979.68</v>
+        <v>22610739192.74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40908</v>
+        <v>40939</v>
       </c>
       <c r="B21" s="1">
-        <v>3308515656.83</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C21" s="1">
-        <v>3322199318.6</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D21" s="1">
-        <v>15980024217.31</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E21" s="1">
-        <v>22610739192.74</v>
+        <v>23182713107.18</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40939</v>
+        <v>40968</v>
       </c>
       <c r="B22" s="1">
-        <v>3390714253.36</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C22" s="1">
-        <v>3411636959.78</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D22" s="1">
-        <v>16380361894.04</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E22" s="1">
-        <v>23182713107.18</v>
+        <v>23539061638.97</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40968</v>
+        <v>40999</v>
       </c>
       <c r="B23" s="1">
-        <v>3441357193.01</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C23" s="1">
-        <v>3465240303.9</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D23" s="1">
-        <v>16632464142.06</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E23" s="1">
-        <v>23539061638.97</v>
+        <v>23568627738.57</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40999</v>
+        <v>41029</v>
       </c>
       <c r="B24" s="1">
-        <v>3594273253.88</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C24" s="1">
-        <v>3448893913.05</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D24" s="1">
-        <v>16525460571.64</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E24" s="1">
-        <v>23568627738.57</v>
+        <v>23751063285.04</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>41029</v>
+        <v>41060</v>
       </c>
       <c r="B25" s="1">
-        <v>3620819218.91</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C25" s="1">
-        <v>3481026300.12</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D25" s="1">
-        <v>16649217766.01</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E25" s="1">
-        <v>23751063285.04</v>
+        <v>23525356279.52</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>41060</v>
+        <v>41090</v>
       </c>
       <c r="B26" s="1">
-        <v>3584994009.65</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C26" s="1">
-        <v>3453190328.12</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D26" s="1">
-        <v>16487171941.75</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E26" s="1">
-        <v>23525356279.52</v>
+        <v>23967119998.88</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41090</v>
+        <v>41121</v>
       </c>
       <c r="B27" s="1">
-        <v>3803025610.44</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C27" s="1">
-        <v>3497243829.13</v>
+        <v>3572637746.48</v>
       </c>
       <c r="D27" s="1">
-        <v>16666850559.31</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E27" s="1">
-        <v>23967119998.88</v>
+        <v>24445194794.85</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41121</v>
+        <v>41152</v>
       </c>
       <c r="B28" s="1">
-        <v>3877728751.39</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C28" s="1">
-        <v>3572637746.48</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D28" s="1">
-        <v>16994828296.98</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E28" s="1">
-        <v>24445194794.85</v>
+        <v>24546339462.45</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41152</v>
+        <v>41182</v>
       </c>
       <c r="B29" s="1">
-        <v>3892524075.7</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C29" s="1">
-        <v>3592909103.41</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D29" s="1">
-        <v>17060906283.34</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E29" s="1">
-        <v>24546339462.45</v>
+        <v>24697860539.92</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41182</v>
+        <v>41213</v>
       </c>
       <c r="B30" s="1">
-        <v>3915294252.8</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C30" s="1">
-        <v>3620604152.58</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D30" s="1">
-        <v>17161962134.54</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E30" s="1">
-        <v>24697860539.92</v>
+        <v>24675789016.94</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41213</v>
+        <v>41243</v>
       </c>
       <c r="B31" s="1">
-        <v>3910430761.85</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C31" s="1">
-        <v>3622924774.95</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D31" s="1">
-        <v>17142433480.14</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E31" s="1">
-        <v>24675789016.94</v>
+        <v>24802412939.95</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41243</v>
+        <v>41274</v>
       </c>
       <c r="B32" s="1">
-        <v>3929018216.4</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C32" s="1">
-        <v>3646999015.16</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D32" s="1">
-        <v>17226395708.39</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E32" s="1">
-        <v>24802412939.95</v>
+        <v>24895888004.03</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41274</v>
+        <v>41305</v>
       </c>
       <c r="B33" s="1">
-        <v>3949731061.55</v>
+        <v>3991599105.71</v>
       </c>
       <c r="C33" s="1">
-        <v>3654809047.65</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D33" s="1">
-        <v>17291347894.83</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E33" s="1">
-        <v>24895888004.03</v>
+        <v>25170522714.13</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41305</v>
+        <v>41333</v>
       </c>
       <c r="B34" s="1">
-        <v>3991599105.71</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C34" s="1">
-        <v>4490569394.41</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D34" s="1">
-        <v>16688354214.01</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E34" s="1">
-        <v>25170522714.13</v>
+        <v>25279217396.12</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41333</v>
+        <v>41364</v>
       </c>
       <c r="B35" s="1">
-        <v>4007467353.78</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C35" s="1">
-        <v>4511270646.88</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D35" s="1">
-        <v>16760479395.46</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E35" s="1">
-        <v>25279217396.12</v>
+        <v>25595621001.76</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41364</v>
+        <v>41394</v>
       </c>
       <c r="B36" s="1">
-        <v>4055824611.3</v>
+        <v>4145409199.46</v>
       </c>
       <c r="C36" s="1">
-        <v>4573664426.03</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D36" s="1">
-        <v>16966131964.43</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E36" s="1">
-        <v>25595621001.76</v>
+        <v>26172966159.6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41394</v>
+        <v>41425</v>
       </c>
       <c r="B37" s="1">
-        <v>4145409199.46</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C37" s="1">
-        <v>4682846886.27</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D37" s="1">
-        <v>17344710073.87</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E37" s="1">
-        <v>26172966159.6</v>
+        <v>25673994810.38</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41425</v>
+        <v>41455</v>
       </c>
       <c r="B38" s="1">
-        <v>4064569702.63</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C38" s="1">
-        <v>4599347535.9</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D38" s="1">
-        <v>17010077571.85</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E38" s="1">
-        <v>25673994810.38</v>
+        <v>25144254258.35</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41455</v>
+        <v>41486</v>
       </c>
       <c r="B39" s="1">
-        <v>3978796970.09</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C39" s="1">
-        <v>4510251396.91</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D39" s="1">
-        <v>16655205891.35</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E39" s="1">
-        <v>25144254258.35</v>
+        <v>25436691656.9</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41486</v>
+        <v>41517</v>
       </c>
       <c r="B40" s="1">
-        <v>4023056820.86</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C40" s="1">
-        <v>4568724212.7</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D40" s="1">
-        <v>16844910623.34</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E40" s="1">
-        <v>25436691656.9</v>
+        <v>25090707293.91</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41517</v>
+        <v>41547</v>
       </c>
       <c r="B41" s="1">
-        <v>3966340296.1</v>
+        <v>4033439753.48</v>
       </c>
       <c r="C41" s="1">
-        <v>4512507452.03</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D41" s="1">
-        <v>16611859545.78</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E41" s="1">
-        <v>25090707293.91</v>
+        <v>25528497279.93</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41547</v>
+        <v>41578</v>
       </c>
       <c r="B42" s="1">
-        <v>4033439753.48</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C42" s="1">
-        <v>4749762591.53</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D42" s="1">
-        <v>16745294934.92</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E42" s="1">
-        <v>25528497279.93</v>
+        <v>26027364114.18</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41578</v>
+        <v>41608</v>
       </c>
       <c r="B43" s="1">
-        <v>4110020215.55</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C43" s="1">
-        <v>4848589342.72</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D43" s="1">
-        <v>17068754555.91</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E43" s="1">
-        <v>26027364114.18</v>
+        <v>26003820925.72</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41608</v>
+        <v>41639</v>
       </c>
       <c r="B44" s="1">
-        <v>4104202981.72</v>
+        <v>4121232839.29</v>
       </c>
       <c r="C44" s="1">
-        <v>4850653743.4</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D44" s="1">
-        <v>17048964200.6</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E44" s="1">
-        <v>26003820925.72</v>
+        <v>26126288441.74</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41639</v>
+        <v>41670</v>
       </c>
       <c r="B45" s="1">
-        <v>4121232839.29</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C45" s="1">
-        <v>4879983265.38</v>
+        <v>4882894726.29</v>
       </c>
       <c r="D45" s="1">
-        <v>17125072337.07</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E45" s="1">
-        <v>26126288441.74</v>
+        <v>26107696311.48</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41670</v>
+        <v>41698</v>
       </c>
       <c r="B46" s="1">
-        <v>4116223144.44</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C46" s="1">
-        <v>4882894726.29</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D46" s="1">
-        <v>17108578440.75</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E46" s="1">
-        <v>26107696311.48</v>
+        <v>26638164824.17</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41698</v>
+        <v>41729</v>
       </c>
       <c r="B47" s="1">
-        <v>4197240949.36</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C47" s="1">
-        <v>4988729007.27</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D47" s="1">
-        <v>17452194867.54</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E47" s="1">
-        <v>26638164824.17</v>
+        <v>26770056497.39</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41729</v>
+        <v>41759</v>
       </c>
       <c r="B48" s="1">
-        <v>4215464347.87</v>
+        <v>4212492467.73</v>
       </c>
       <c r="C48" s="1">
-        <v>5019984158.58</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D48" s="1">
-        <v>17534607990.94</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E48" s="1">
-        <v>26770056497.39</v>
+        <v>26766109574.18</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41759</v>
+        <v>41790</v>
       </c>
       <c r="B49" s="1">
-        <v>4212492467.73</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C49" s="1">
-        <v>5026144812.31</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D49" s="1">
-        <v>17527472294.14</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E49" s="1">
-        <v>26766109574.18</v>
+        <v>27191987348.25</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41790</v>
+        <v>41820</v>
       </c>
       <c r="B50" s="1">
-        <v>4276832512.93</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C50" s="1">
-        <v>5112975530.56</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D50" s="1">
-        <v>17802179304.76</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E50" s="1">
-        <v>27191987348.25</v>
+        <v>27325686546.76</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B51" s="1">
-        <v>4295140983.11</v>
+        <v>4265451845</v>
       </c>
       <c r="C51" s="1">
-        <v>5144862372.52</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D51" s="1">
-        <v>17885683191.13</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E51" s="1">
-        <v>27325686546.76</v>
+        <v>27156839042.76</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41851</v>
+        <v>41882</v>
       </c>
       <c r="B52" s="1">
-        <v>4265451845</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C52" s="1">
-        <v>5119794037.99</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D52" s="1">
-        <v>17771593159.77</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E52" s="1">
-        <v>27156839042.76</v>
+        <v>27744206657.43</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="B53" s="1">
-        <v>4354547211.12</v>
+        <v>4258151023.04</v>
       </c>
       <c r="C53" s="1">
-        <v>5237452701.82</v>
+        <v>5131976211.71</v>
       </c>
       <c r="D53" s="1">
-        <v>18152206744.49</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E53" s="1">
-        <v>27744206657.43</v>
+        <v>27150660877.68</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41912</v>
+        <v>41943</v>
       </c>
       <c r="B54" s="1">
-        <v>4258151023.04</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C54" s="1">
-        <v>5131976211.71</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D54" s="1">
-        <v>17760533642.93</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E54" s="1">
-        <v>27150660877.68</v>
+        <v>27371725833.13</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="B55" s="1">
-        <v>4285163976.8</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C55" s="1">
-        <v>5172926233.01</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D55" s="1">
-        <v>17913635623.32</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E55" s="1">
-        <v>27371725833.13</v>
+        <v>27755933978.37</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="B56" s="1">
-        <v>4341696562.65</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C56" s="1">
-        <v>5252461885.84</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D56" s="1">
-        <v>18161775529.88</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E56" s="1">
-        <v>27755933978.37</v>
+        <v>28782428258.71</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="B57" s="1">
-        <v>4986611512.07</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C57" s="1">
-        <v>5448191101.38</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D57" s="1">
-        <v>18347625645.26</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E57" s="1">
-        <v>28782428258.71</v>
+        <v>29378034101.34</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="B58" s="1">
-        <v>5087365130.35</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C58" s="1">
-        <v>5567918737.12</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D58" s="1">
-        <v>18722750233.87</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E58" s="1">
-        <v>29378034101.34</v>
+        <v>29527722140.57</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="B59" s="1">
-        <v>5110739057.82</v>
+        <v>5098528846.54</v>
       </c>
       <c r="C59" s="1">
-        <v>5603210665.94</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D59" s="1">
-        <v>18813772416.81</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E59" s="1">
-        <v>29527722140.57</v>
+        <v>29472205126.79</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="B60" s="1">
-        <v>5098528846.54</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C60" s="1">
-        <v>5599621915.28</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D60" s="1">
-        <v>18774054364.97</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E60" s="1">
-        <v>29472205126.79</v>
+        <v>29408637463</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42124</v>
+        <v>42155</v>
       </c>
       <c r="B61" s="1">
-        <v>5084901351.07</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C61" s="1">
-        <v>5594550723.83</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D61" s="1">
-        <v>18729185388.1</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E61" s="1">
-        <v>29408637463</v>
+        <v>29288010554.98</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42155</v>
+        <v>42185</v>
       </c>
       <c r="B62" s="1">
-        <v>5061385747.15</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C62" s="1">
-        <v>5578675769.67</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D62" s="1">
-        <v>18647949038.16</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E62" s="1">
-        <v>29288010554.98</v>
+        <v>28650016749.03</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="B63" s="1">
-        <v>4948449143.55</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C63" s="1">
-        <v>5464086350.67</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D63" s="1">
-        <v>18237481254.81</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E63" s="1">
-        <v>28650016749.03</v>
+        <v>28876185070.36</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="B64" s="1">
-        <v>4984734110.66</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C64" s="1">
-        <v>5514366076.03</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D64" s="1">
-        <v>18377084883.67</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E64" s="1">
-        <v>28876185070.36</v>
+        <v>28013929187.9</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="B65" s="1">
-        <v>4833324327.11</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C65" s="1">
-        <v>5356648129.15</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D65" s="1">
-        <v>17823956731.64</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E65" s="1">
-        <v>28013929187.9</v>
+        <v>27687614897.05</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B66" s="1">
-        <v>4774352359.51</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C66" s="1">
-        <v>5301454591.47</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D66" s="1">
-        <v>17611807946.07</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E66" s="1">
-        <v>27687614897.05</v>
+        <v>28326347037.87</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B67" s="1">
-        <v>4880247836.65</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C67" s="1">
-        <v>5397632819.49</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D67" s="1">
-        <v>18048466381.73</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E67" s="1">
-        <v>28326347037.87</v>
+        <v>28136561001.15</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B68" s="1">
-        <v>4844551814.11</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C68" s="1">
-        <v>5368571908.98</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D68" s="1">
-        <v>17923437278.06</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E68" s="1">
-        <v>28136561001.15</v>
+        <v>28846254608.33</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B69" s="1">
-        <v>5415576742.55</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C69" s="1">
-        <v>5709868087.27</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D69" s="1">
-        <v>17720809778.51</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E69" s="1">
-        <v>28846254608.33</v>
+        <v>28336372866.16</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B70" s="1">
-        <v>5318083756.35</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C70" s="1">
-        <v>5616578571.14</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D70" s="1">
-        <v>17401710538.67</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E70" s="1">
-        <v>28336372866.16</v>
+        <v>28455678308.47</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B71" s="1">
-        <v>5338694185.85</v>
+        <v>5505915040.5</v>
       </c>
       <c r="C71" s="1">
-        <v>5647936294.45</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D71" s="1">
-        <v>17469047828.17</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E71" s="1">
-        <v>28455678308.47</v>
+        <v>29356671897.69</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B72" s="1">
-        <v>5505915040.5</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C72" s="1">
-        <v>5834802926.8</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D72" s="1">
-        <v>18015953930.39</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E72" s="1">
-        <v>29356671897.69</v>
+        <v>29542027110.35</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B73" s="1">
-        <v>5538988181.45</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C73" s="1">
-        <v>5879483219.72</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D73" s="1">
-        <v>18123555709.18</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E73" s="1">
-        <v>29542027110.35</v>
+        <v>29511421101.44</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B74" s="1">
-        <v>5531594102.95</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C74" s="1">
-        <v>5881279255.87</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D74" s="1">
-        <v>18098547742.62</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E74" s="1">
-        <v>29511421101.44</v>
+        <v>29721833433.55</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B75" s="1">
-        <v>5569334217.76</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C75" s="1">
-        <v>5931068967.2</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D75" s="1">
-        <v>18221430248.59</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E75" s="1">
-        <v>29721833433.55</v>
+        <v>30265143212.71</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B76" s="1">
-        <v>5669685323.09</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C76" s="1">
-        <v>6047546128.94</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D76" s="1">
-        <v>18547911760.68</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E76" s="1">
-        <v>30265143212.71</v>
+        <v>30212255260.83</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B77" s="1">
-        <v>5658306874.65</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C77" s="1">
-        <v>6044991482.23</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D77" s="1">
-        <v>18508956903.95</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E77" s="1">
-        <v>30212255260.83</v>
+        <v>31311189264.37</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B78" s="1">
-        <v>6047292088.02</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C78" s="1">
-        <v>6489780168.17</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D78" s="1">
-        <v>18774117008.18</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E78" s="1">
-        <v>31311189264.37</v>
+        <v>30735701818.56</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B79" s="1">
-        <v>5944249077.31</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C79" s="1">
-        <v>6361287062.33</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D79" s="1">
-        <v>18430165678.92</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E79" s="1">
-        <v>30735701818.56</v>
+        <v>30294149402.87</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B80" s="1">
-        <v>5857951330.08</v>
+        <v>6253513976.5</v>
       </c>
       <c r="C80" s="1">
-        <v>6278318762.68</v>
+        <v>6361809245.25</v>
       </c>
       <c r="D80" s="1">
-        <v>18157879310.11</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E80" s="1">
-        <v>30294149402.87</v>
+        <v>31134559706.61</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B81" s="1">
-        <v>6253513976.5</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C81" s="1">
-        <v>6361809245.25</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D81" s="1">
-        <v>18519236484.86</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E81" s="1">
-        <v>31134559706.61</v>
+        <v>31406628721.6</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B82" s="1">
-        <v>6308462886.34</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C82" s="1">
-        <v>6425317655.9</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D82" s="1">
-        <v>18672848179.36</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E82" s="1">
-        <v>31406628721.6</v>
+        <v>31862928265.29</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B83" s="1">
-        <v>6400976668.18</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C83" s="1">
-        <v>6526279467.15</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D83" s="1">
-        <v>18935672129.96</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E83" s="1">
-        <v>31862928265.29</v>
+        <v>34237217759.41</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B84" s="1">
-        <v>7099971446.02</v>
+        <v>7176134170.54</v>
       </c>
       <c r="C84" s="1">
-        <v>7337629420.28</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D84" s="1">
-        <v>19799616893.11</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E84" s="1">
-        <v>34237217759.41</v>
+        <v>34601219933.72</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B85" s="1">
-        <v>7176134170.54</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C85" s="1">
-        <v>7422733235.89</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D85" s="1">
-        <v>20002352527.29</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E85" s="1">
-        <v>34601219933.72</v>
+        <v>35025479666.84</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B86" s="1">
-        <v>7264954337.05</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C86" s="1">
-        <v>7523682920.77</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D86" s="1">
-        <v>20236842409.02</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E86" s="1">
-        <v>35025479666.84</v>
+        <v>35106583260.6</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B87" s="1">
-        <v>7282406497.08</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C87" s="1">
-        <v>7549356808.18</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D87" s="1">
-        <v>20274819955.34</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E87" s="1">
-        <v>35106583260.6</v>
+        <v>35405791867.57</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B88" s="1">
-        <v>7343644210.4</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C88" s="1">
-        <v>7623588366.49</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D88" s="1">
-        <v>20438559290.68</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E88" s="1">
-        <v>35405791867.57</v>
+        <v>35685515267.03</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B89" s="1">
-        <v>7401114464.44</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C89" s="1">
-        <v>7693916997.08</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D89" s="1">
-        <v>20590483805.51</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E89" s="1">
-        <v>35685515267.03</v>
+        <v>35874943914.43</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B90" s="1">
-        <v>7439354518.62</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C90" s="1">
-        <v>7744728806.72</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D90" s="1">
-        <v>20690860589.09</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E90" s="1">
-        <v>35874943914.43</v>
+        <v>36114919745.74</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B91" s="1">
-        <v>7501162607.24</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C91" s="1">
-        <v>7797612927.14</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D91" s="1">
-        <v>20816144211.36</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E91" s="1">
-        <v>36114919745.74</v>
+        <v>36495613500.11</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B92" s="1">
-        <v>7578785278.66</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C92" s="1">
-        <v>7890046689.69</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D92" s="1">
-        <v>21026781531.76</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E92" s="1">
-        <v>36495613500.11</v>
+        <v>41856058020.2</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B93" s="1">
-        <v>9002210135.43</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C93" s="1">
-        <v>8628245002.959999</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D93" s="1">
-        <v>24225602881.81</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E93" s="1">
-        <v>41856058020.2</v>
+        <v>42583718320.38</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B94" s="1">
-        <v>9202610590.719999</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C94" s="1">
-        <v>8830545061.309999</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D94" s="1">
-        <v>24550562668.35</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E94" s="1">
-        <v>42583718320.38</v>
+        <v>41211648261.71</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B95" s="1">
-        <v>8905152042.110001</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C95" s="1">
-        <v>8554843302.12</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D95" s="1">
-        <v>23751652917.48</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E95" s="1">
-        <v>41211648261.71</v>
+        <v>41345470043.96999</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B96" s="1">
-        <v>8894650969.91</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C96" s="1">
-        <v>8555117311.3</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D96" s="1">
-        <v>23895701762.76</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E96" s="1">
-        <v>41345470043.96999</v>
+        <v>41046760638.73</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B97" s="1">
-        <v>8853026337.98</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C97" s="1">
-        <v>8525561703.78</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D97" s="1">
-        <v>23668172596.97</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E97" s="1">
-        <v>41046760638.73</v>
+        <v>41313232056.15</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B98" s="1">
-        <v>8890561971.129999</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C98" s="1">
-        <v>8572549061.9</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D98" s="1">
-        <v>23850121023.12</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E98" s="1">
-        <v>41313232056.15</v>
+        <v>41121031725</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B99" s="1">
-        <v>8841470603.15</v>
+        <v>8936073454</v>
       </c>
       <c r="C99" s="1">
-        <v>8535731069.89</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D99" s="1">
-        <v>23743830051.96</v>
+        <v>23810581356</v>
       </c>
       <c r="E99" s="1">
-        <v>41121031725</v>
+        <v>41384588267.64</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B100" s="1">
-        <v>8936073454</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C100" s="1">
-        <v>8637933457.639999</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D100" s="1">
-        <v>23810581356</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E100" s="1">
-        <v>41384588267.64</v>
+        <v>41662803021.32</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B101" s="1">
-        <v>8984375598.66</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C101" s="1">
-        <v>8696018228.42</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D101" s="1">
-        <v>23982409194.24</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E101" s="1">
-        <v>41662803021.32</v>
+        <v>41186947565</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B102" s="1">
-        <v>8913881251.4</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C102" s="1">
-        <v>8639086304.16</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D102" s="1">
-        <v>23633980009.44</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E102" s="1">
-        <v>41186947565</v>
+        <v>39383035110.98</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B103" s="1">
-        <v>8522844994.4</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C103" s="1">
-        <v>8244001106.42</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D103" s="1">
-        <v>22616189010.16</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E103" s="1">
-        <v>39383035110.98</v>
+        <v>39775163930.18</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B104" s="1">
-        <v>8594776142.139999</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C104" s="1">
-        <v>8324970365.95</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D104" s="1">
-        <v>22855417422.09</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E104" s="1">
-        <v>39775163930.18</v>
+        <v>39522985371.47</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B105" s="1">
-        <v>8430913509.88</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C105" s="1">
-        <v>8177279951.57</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D105" s="1">
-        <v>22914791910.02</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E105" s="1">
-        <v>39522985371.47</v>
+        <v>40670053634.92</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B106" s="1">
-        <v>8716930851.969999</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C106" s="1">
-        <v>8466374243.34</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D106" s="1">
-        <v>23486748539.61</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E106" s="1">
-        <v>40670053634.92</v>
+        <v>40797813026.7</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B107" s="1">
-        <v>8780002278.02</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C107" s="1">
-        <v>8538970109.85</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D107" s="1">
-        <v>23478840638.83</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E107" s="1">
-        <v>40797813026.7</v>
+        <v>41816102147.74</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B108" s="1">
-        <v>8939502054.139999</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C108" s="1">
-        <v>8705342961.4</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D108" s="1">
-        <v>24171257132.2</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E108" s="1">
-        <v>41816102147.74</v>
+        <v>42743107013</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B109" s="1">
-        <v>9008244776.280001</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C109" s="1">
-        <v>9126959379.24</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D109" s="1">
-        <v>24607902857.48</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E109" s="1">
-        <v>42743107013</v>
+        <v>43049605454.39</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B110" s="1">
-        <v>8944260855.860001</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C110" s="1">
-        <v>9074029379.02</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D110" s="1">
-        <v>25031315219.51</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E110" s="1">
-        <v>43049605454.39</v>
+        <v>44201897165.55</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B111" s="1">
-        <v>9215995868.950001</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C111" s="1">
-        <v>9361706609.469999</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D111" s="1">
-        <v>25624194687.13</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E111" s="1">
-        <v>44201897165.55</v>
+        <v>44289278505.62</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B112" s="1">
-        <v>9238385070.67</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C112" s="1">
-        <v>9396108735.549999</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D112" s="1">
-        <v>25654784699.4</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E112" s="1">
-        <v>44289278505.62</v>
+        <v>46120311881.3</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B113" s="1">
-        <v>9436337524.57</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C113" s="1">
-        <v>9608738306.559999</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D113" s="1">
-        <v>27075236050.17</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E113" s="1">
-        <v>46120311881.3</v>
+        <v>46949593594.97</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B114" s="1">
-        <v>10602215448.62</v>
+        <v>10608252625.24</v>
       </c>
       <c r="C114" s="1">
-        <v>9614794478.780001</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D114" s="1">
-        <v>26732583667.57</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E114" s="1">
-        <v>46949593594.97</v>
+        <v>46865708662.23</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B115" s="1">
-        <v>10608252625.24</v>
+        <v>10692316903.4</v>
       </c>
       <c r="C115" s="1">
-        <v>9625407467.91</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D115" s="1">
-        <v>26632048569.08</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E115" s="1">
-        <v>46865708662.23</v>
+        <v>47123617172.53</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B116" s="1">
-        <v>10692316903.4</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C116" s="1">
-        <v>9713037686.17</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D116" s="1">
-        <v>26718262582.96</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E116" s="1">
-        <v>47123617172.53</v>
+        <v>46141633527.96</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B117" s="1">
-        <v>10758442213.97</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C117" s="1">
-        <v>9477691033.26</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D117" s="1">
-        <v>25905500280.73</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E117" s="1">
-        <v>46141633527.96</v>
+        <v>47197661020.02</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B118" s="1">
-        <v>10840639312.88</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C118" s="1">
-        <v>9555218261.01</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D118" s="1">
-        <v>26801803446.13</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E118" s="1">
-        <v>47197661020.02</v>
+        <v>47123824802.83</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B119" s="1">
-        <v>10574286223.88</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C119" s="1">
-        <v>9338936485.4</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D119" s="1">
-        <v>27210602093.55</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E119" s="1">
-        <v>47123824802.83</v>
+        <v>45204026385.17001</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B120" s="1">
-        <v>9764305551.360001</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C120" s="1">
-        <v>8664875030.02</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D120" s="1">
-        <v>26774845803.79</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E120" s="1">
-        <v>45204026385.17001</v>
+        <v>47064011332.71</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B121" s="1">
-        <v>10283094677.36</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C121" s="1">
-        <v>9107006952.52</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D121" s="1">
-        <v>27673909702.83</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E121" s="1">
-        <v>47064011332.71</v>
+        <v>47081138950.00999</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B122" s="1">
-        <v>10409182664.05</v>
+        <v>10514205392.24</v>
       </c>
       <c r="C122" s="1">
-        <v>9213245024.98</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D122" s="1">
-        <v>27458711260.98</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E122" s="1">
-        <v>47081138950.00999</v>
+        <v>47426564864.18</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B123" s="1">
-        <v>10514205392.24</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C123" s="1">
-        <v>9308097696.17</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D123" s="1">
-        <v>27604261775.77</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E123" s="1">
-        <v>47426564864.18</v>
+        <v>49195665095.83</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B124" s="1">
-        <v>10849449410.81</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C124" s="1">
-        <v>9606421868.530001</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D124" s="1">
-        <v>28739793816.49</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E124" s="1">
-        <v>49195665095.83</v>
+        <v>48906083609.04</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B125" s="1">
-        <v>11005151438.13</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C125" s="1">
-        <v>9743289163.68</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D125" s="1">
-        <v>28157643007.23</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E125" s="1">
-        <v>48906083609.04</v>
+        <v>49328692500.60999</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B126" s="1">
-        <v>11506934819.12</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C126" s="1">
-        <v>9894562298.549999</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D126" s="1">
-        <v>27927195382.94</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E126" s="1">
-        <v>49328692500.60999</v>
+        <v>48026054531.55</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B127" s="1">
-        <v>11238592497.88</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C127" s="1">
-        <v>9700328704.629999</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D127" s="1">
-        <v>27087133329.04</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E127" s="1">
-        <v>48026054531.55</v>
+        <v>50440003419.03</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B128" s="1">
-        <v>11941273405.45</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C128" s="1">
-        <v>10308274207.78</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D128" s="1">
-        <v>28190455805.8</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E128" s="1">
-        <v>50440003419.03</v>
+        <v>52788485957.46</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B129" s="1">
-        <v>12756299620.31</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C129" s="1">
-        <v>11053433125.61</v>
+        <v>10900299506.57</v>
       </c>
       <c r="D129" s="1">
-        <v>28978753211.54</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E129" s="1">
-        <v>52788485957.46</v>
+        <v>51588003234.73</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B130" s="1">
-        <v>12558243414.61</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C130" s="1">
-        <v>10900299506.57</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D130" s="1">
-        <v>28129460313.55</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E130" s="1">
-        <v>51588003234.73</v>
+        <v>50499345827.99</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B131" s="1">
-        <v>12499730482.13</v>
+        <v>12629967215.83</v>
       </c>
       <c r="C131" s="1">
-        <v>10872197550.37</v>
+        <v>10999754121.32</v>
       </c>
       <c r="D131" s="1">
-        <v>27127417795.49</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E131" s="1">
-        <v>50499345827.99</v>
+        <v>50392716520.31</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B132" s="1">
-        <v>12629967215.83</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C132" s="1">
-        <v>10999754121.32</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D132" s="1">
-        <v>26762995183.16</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E132" s="1">
-        <v>50392716520.31</v>
+        <v>51700983288.71</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B133" s="1">
-        <v>12959077328.64</v>
+        <v>13155170030.18</v>
       </c>
       <c r="C133" s="1">
-        <v>11290601383.86</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D133" s="1">
-        <v>27451304576.21</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E133" s="1">
-        <v>51700983288.71</v>
+        <v>52378555427.81</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B134" s="1">
-        <v>13155170030.18</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C134" s="1">
-        <v>11478701164.89</v>
+        <v>11665454270.74</v>
       </c>
       <c r="D134" s="1">
-        <v>27744684232.74</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E134" s="1">
-        <v>52378555427.81</v>
+        <v>53479161312.64</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B135" s="1">
-        <v>13363308598.31</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C135" s="1">
-        <v>11665454270.74</v>
+        <v>11826970568.32</v>
       </c>
       <c r="D135" s="1">
-        <v>28450398443.59</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E135" s="1">
-        <v>53479161312.64</v>
+        <v>54428748586.62</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B136" s="1">
-        <v>13542680564.47</v>
+        <v>13707767980.07</v>
       </c>
       <c r="C136" s="1">
-        <v>11826970568.32</v>
+        <v>11980671064.48</v>
       </c>
       <c r="D136" s="1">
-        <v>29059097453.83</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E136" s="1">
-        <v>54428748586.62</v>
+        <v>54870336763.75999</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B137" s="1">
-        <v>13707767980.07</v>
+        <v>13203547316.24</v>
       </c>
       <c r="C137" s="1">
-        <v>11980671064.48</v>
+        <v>11508277149.59</v>
       </c>
       <c r="D137" s="1">
-        <v>29181897719.21</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E137" s="1">
-        <v>54870336763.75999</v>
+        <v>52901048832.99</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B138" s="1">
-        <v>13203547316.24</v>
+        <v>13619689152.99</v>
       </c>
       <c r="C138" s="1">
-        <v>11508277149.59</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D138" s="1">
-        <v>28189224367.16</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E138" s="1">
-        <v>52901048832.99</v>
+        <v>54300766813.44</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B139" s="1">
-        <v>13619689152.99</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C139" s="1">
-        <v>11898653834.64</v>
+        <v>12126631727.77</v>
       </c>
       <c r="D139" s="1">
-        <v>28782423825.81</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E139" s="1">
-        <v>54300766813.44</v>
+        <v>55089355967.77</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B140" s="1">
-        <v>13785068283.86</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C140" s="1">
-        <v>12126631727.77</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D140" s="1">
-        <v>29177655956.14</v>
+        <v>29369048113</v>
       </c>
       <c r="E140" s="1">
-        <v>55089355967.77</v>
+        <v>55524868915.5</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B141" s="1">
-        <v>13933499672.22</v>
+        <v>13228050556.07</v>
       </c>
       <c r="C141" s="1">
-        <v>12222321130.28</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D141" s="1">
-        <v>29369048113</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E141" s="1">
-        <v>55524868915.5</v>
+        <v>52791395368.22</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B142" s="1">
-        <v>13228050556.07</v>
+        <v>12924236126.56</v>
       </c>
       <c r="C142" s="1">
-        <v>11573834300.94</v>
+        <v>11299022364.73</v>
       </c>
       <c r="D142" s="1">
-        <v>27989510511.21</v>
+        <v>27410006047.48</v>
       </c>
       <c r="E142" s="1">
-        <v>52791395368.22</v>
+        <v>51633264538.77</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B143" s="1">
-        <v>12924236126.56</v>
+        <v>12662771414.75</v>
       </c>
       <c r="C143" s="1">
-        <v>11299022364.73</v>
+        <v>11031166589.13</v>
       </c>
       <c r="D143" s="1">
-        <v>27410006047.48</v>
+        <v>26576348005.31</v>
       </c>
       <c r="E143" s="1">
-        <v>51633264538.77</v>
+        <v>50270286009.19</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B144" s="1">
-        <v>12662771414.75</v>
+        <v>11666882480.45</v>
       </c>
       <c r="C144" s="1">
-        <v>11031166589.13</v>
+        <v>10097030956.61</v>
       </c>
       <c r="D144" s="1">
-        <v>26576348005.31</v>
+        <v>24343752751.24</v>
       </c>
       <c r="E144" s="1">
-        <v>50270286009.19</v>
+        <v>46107666188.3</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B145" s="1">
-        <v>11666882480.45</v>
+        <v>11506881422.34</v>
       </c>
       <c r="C145" s="1">
-        <v>10097030956.61</v>
+        <v>9932226543.780001</v>
       </c>
       <c r="D145" s="1">
-        <v>24343752751.24</v>
+        <v>24079986770.42</v>
       </c>
       <c r="E145" s="1">
-        <v>46107666188.3</v>
+        <v>45519094736.53999</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B146" s="1">
-        <v>11506881422.34</v>
+        <v>11065097064.85</v>
       </c>
       <c r="C146" s="1">
-        <v>9932226543.780001</v>
+        <v>9580933722.4</v>
       </c>
       <c r="D146" s="1">
-        <v>24079986770.42</v>
+        <v>23101412415.21</v>
       </c>
       <c r="E146" s="1">
-        <v>45519094736.53999</v>
+        <v>43747443202.46</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B147" s="1">
-        <v>11065097064.85</v>
+        <v>11516596677.6</v>
       </c>
       <c r="C147" s="1">
-        <v>9580933722.4</v>
+        <v>9978900548.299999</v>
       </c>
       <c r="D147" s="1">
-        <v>23101412415.21</v>
+        <v>24108818048.94</v>
       </c>
       <c r="E147" s="1">
-        <v>43747443202.46</v>
+        <v>45604315274.84</v>
       </c>
     </row>
   </sheetData>
@@ -2970,2484 +2970,2484 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40329</v>
+        <v>40359</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.042701</v>
+        <v>-0.010431</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.042682</v>
+        <v>-0.010424</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.04269199999999999</v>
+        <v>-0.010512</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.042691</v>
+        <v>-0.010493</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40359</v>
+        <v>40390</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.010431</v>
+        <v>0.04159</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.010424</v>
+        <v>0.043416</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.010512</v>
+        <v>0.04342500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.010493</v>
+        <v>0.043244</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40390</v>
+        <v>40421</v>
       </c>
       <c r="B4" s="1">
-        <v>0.04159</v>
+        <v>0.001548</v>
       </c>
       <c r="C4" s="1">
-        <v>0.043416</v>
+        <v>0.001558</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04342500000000001</v>
+        <v>0.00155</v>
       </c>
       <c r="E4" s="1">
-        <v>0.043244</v>
+        <v>0.001551</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40421</v>
+        <v>40451</v>
       </c>
       <c r="B5" s="1">
-        <v>0.001548</v>
+        <v>0.04532</v>
       </c>
       <c r="C5" s="1">
-        <v>0.001558</v>
+        <v>0.045333</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00155</v>
+        <v>0.045331</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001551</v>
+        <v>0.04533</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40451</v>
+        <v>40482</v>
       </c>
       <c r="B6" s="1">
-        <v>0.04532</v>
+        <v>0.009824000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>0.045333</v>
+        <v>0.009851</v>
       </c>
       <c r="D6" s="1">
-        <v>0.045331</v>
+        <v>0.009762</v>
       </c>
       <c r="E6" s="1">
-        <v>0.04533</v>
+        <v>0.009781</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40482</v>
+        <v>40512</v>
       </c>
       <c r="B7" s="1">
-        <v>0.009824000000000001</v>
+        <v>-0.006762000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>0.009851</v>
+        <v>-0.005979</v>
       </c>
       <c r="D7" s="1">
-        <v>0.009762</v>
+        <v>-0.006311</v>
       </c>
       <c r="E7" s="1">
-        <v>0.009781</v>
+        <v>-0.006307</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40512</v>
+        <v>40543</v>
       </c>
       <c r="B8" s="1">
-        <v>-0.006762000000000001</v>
+        <v>0.029284</v>
       </c>
       <c r="C8" s="1">
-        <v>-0.005979</v>
+        <v>0.029312</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.006311</v>
+        <v>0.029354</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006307</v>
+        <v>0.029341</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40543</v>
+        <v>40574</v>
       </c>
       <c r="B9" s="1">
-        <v>0.029284</v>
+        <v>-0.00115</v>
       </c>
       <c r="C9" s="1">
-        <v>0.029312</v>
+        <v>-0.001119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.029354</v>
+        <v>-0.001115</v>
       </c>
       <c r="E9" s="1">
-        <v>0.029341</v>
+        <v>-0.001121</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40574</v>
+        <v>40602</v>
       </c>
       <c r="B10" s="1">
-        <v>-0.00115</v>
+        <v>0.023291</v>
       </c>
       <c r="C10" s="1">
-        <v>-0.001119</v>
+        <v>0.023317</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.001115</v>
+        <v>0.023308</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001121</v>
+        <v>0.023307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40602</v>
+        <v>40633</v>
       </c>
       <c r="B11" s="1">
-        <v>0.023291</v>
+        <v>0.002493</v>
       </c>
       <c r="C11" s="1">
-        <v>0.023317</v>
+        <v>0.002493</v>
       </c>
       <c r="D11" s="1">
-        <v>0.023308</v>
+        <v>0.002494</v>
       </c>
       <c r="E11" s="1">
-        <v>0.023307</v>
+        <v>0.002494</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40633</v>
+        <v>40663</v>
       </c>
       <c r="B12" s="1">
-        <v>0.002493</v>
+        <v>0.030082</v>
       </c>
       <c r="C12" s="1">
-        <v>0.002493</v>
+        <v>0.030134</v>
       </c>
       <c r="D12" s="1">
-        <v>0.002494</v>
+        <v>0.030134</v>
       </c>
       <c r="E12" s="1">
-        <v>0.002494</v>
+        <v>0.030126</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40663</v>
+        <v>40694</v>
       </c>
       <c r="B13" s="1">
-        <v>0.030082</v>
+        <v>0.006251</v>
       </c>
       <c r="C13" s="1">
-        <v>0.030134</v>
+        <v>0.006252</v>
       </c>
       <c r="D13" s="1">
-        <v>0.030134</v>
+        <v>0.006251</v>
       </c>
       <c r="E13" s="1">
-        <v>0.030126</v>
+        <v>0.006251</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40694</v>
+        <v>40724</v>
       </c>
       <c r="B14" s="1">
-        <v>0.006251</v>
+        <v>-0.016394</v>
       </c>
       <c r="C14" s="1">
-        <v>0.006252</v>
+        <v>-0.016393</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006251</v>
+        <v>-0.016388</v>
       </c>
       <c r="E14" s="1">
-        <v>0.006251</v>
+        <v>-0.016389</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40724</v>
+        <v>40755</v>
       </c>
       <c r="B15" s="1">
-        <v>-0.016394</v>
+        <v>0.010779</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.016393</v>
+        <v>0.010779</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.016388</v>
+        <v>0.010779</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.016389</v>
+        <v>0.010779</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40755</v>
+        <v>40786</v>
       </c>
       <c r="B16" s="1">
-        <v>0.010779</v>
+        <v>-0.006495</v>
       </c>
       <c r="C16" s="1">
-        <v>0.010779</v>
+        <v>-0.006492</v>
       </c>
       <c r="D16" s="1">
-        <v>0.010779</v>
+        <v>-0.006488000000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.010779</v>
+        <v>-0.00649</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40786</v>
+        <v>40816</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.006495</v>
+        <v>0.001202</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.006492</v>
+        <v>0.001203</v>
       </c>
       <c r="D17" s="1">
-        <v>-0.006488000000000001</v>
+        <v>0.001203</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.00649</v>
+        <v>0.001203</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40816</v>
+        <v>40847</v>
       </c>
       <c r="B18" s="1">
-        <v>0.001202</v>
+        <v>0.035731</v>
       </c>
       <c r="C18" s="1">
-        <v>0.001203</v>
+        <v>0.035736</v>
       </c>
       <c r="D18" s="1">
-        <v>0.001203</v>
+        <v>0.03573</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001203</v>
+        <v>0.035731</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40847</v>
+        <v>40877</v>
       </c>
       <c r="B19" s="1">
-        <v>0.035731</v>
+        <v>-0.006834</v>
       </c>
       <c r="C19" s="1">
-        <v>0.035736</v>
+        <v>-0.006834</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03573</v>
+        <v>-0.006832</v>
       </c>
       <c r="E19" s="1">
-        <v>0.035731</v>
+        <v>-0.006832</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40877</v>
+        <v>40908</v>
       </c>
       <c r="B20" s="1">
-        <v>-0.006834</v>
+        <v>0.011627</v>
       </c>
       <c r="C20" s="1">
-        <v>-0.006834</v>
+        <v>0.011629</v>
       </c>
       <c r="D20" s="1">
-        <v>-0.006832</v>
+        <v>0.011629</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.006832</v>
+        <v>0.011629</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40908</v>
+        <v>40939</v>
       </c>
       <c r="B21" s="1">
-        <v>0.011627</v>
+        <v>0.027751</v>
       </c>
       <c r="C21" s="1">
-        <v>0.011629</v>
+        <v>0.027758</v>
       </c>
       <c r="D21" s="1">
-        <v>0.011629</v>
+        <v>0.027751</v>
       </c>
       <c r="E21" s="1">
-        <v>0.011629</v>
+        <v>0.027752</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40939</v>
+        <v>40968</v>
       </c>
       <c r="B22" s="1">
-        <v>0.027751</v>
+        <v>0.018401</v>
       </c>
       <c r="C22" s="1">
-        <v>0.027758</v>
+        <v>0.018387</v>
       </c>
       <c r="D22" s="1">
-        <v>0.027751</v>
+        <v>0.018407</v>
       </c>
       <c r="E22" s="1">
-        <v>0.027752</v>
+        <v>0.018403</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40968</v>
+        <v>40999</v>
       </c>
       <c r="B23" s="1">
-        <v>0.018401</v>
+        <v>-0.003827</v>
       </c>
       <c r="C23" s="1">
-        <v>0.018387</v>
+        <v>-0.00384</v>
       </c>
       <c r="D23" s="1">
-        <v>0.018407</v>
+        <v>-0.00384</v>
       </c>
       <c r="E23" s="1">
-        <v>0.018403</v>
+        <v>-0.003838</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40999</v>
+        <v>41029</v>
       </c>
       <c r="B24" s="1">
-        <v>-0.003827</v>
+        <v>0.010169</v>
       </c>
       <c r="C24" s="1">
-        <v>-0.00384</v>
+        <v>0.010171</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.00384</v>
+        <v>0.010169</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.003838</v>
+        <v>0.010169</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>41029</v>
+        <v>41060</v>
       </c>
       <c r="B25" s="1">
-        <v>0.010169</v>
+        <v>-0.007147</v>
       </c>
       <c r="C25" s="1">
-        <v>0.010171</v>
+        <v>-0.007141999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>0.010169</v>
+        <v>-0.007113</v>
       </c>
       <c r="E25" s="1">
-        <v>0.010169</v>
+        <v>-0.007122000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>41060</v>
+        <v>41090</v>
       </c>
       <c r="B26" s="1">
-        <v>-0.007147</v>
+        <v>0.013617</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.007141999999999999</v>
+        <v>0.013665</v>
       </c>
       <c r="D26" s="1">
-        <v>-0.007113</v>
+        <v>0.013662</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.007122000000000001</v>
+        <v>0.013655</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41090</v>
+        <v>41121</v>
       </c>
       <c r="B27" s="1">
-        <v>0.013617</v>
+        <v>0.022428</v>
       </c>
       <c r="C27" s="1">
-        <v>0.013665</v>
+        <v>0.022445</v>
       </c>
       <c r="D27" s="1">
-        <v>0.013662</v>
+        <v>0.022415</v>
       </c>
       <c r="E27" s="1">
-        <v>0.013655</v>
+        <v>0.022421</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41121</v>
+        <v>41152</v>
       </c>
       <c r="B28" s="1">
-        <v>0.022428</v>
+        <v>0.006546</v>
       </c>
       <c r="C28" s="1">
-        <v>0.022445</v>
+        <v>0.006548000000000001</v>
       </c>
       <c r="D28" s="1">
-        <v>0.022415</v>
+        <v>0.006546</v>
       </c>
       <c r="E28" s="1">
-        <v>0.022421</v>
+        <v>0.006546</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41152</v>
+        <v>41182</v>
       </c>
       <c r="B29" s="1">
-        <v>0.006546</v>
+        <v>0.008595999999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>0.006548000000000001</v>
+        <v>0.008598</v>
       </c>
       <c r="D29" s="1">
-        <v>0.006546</v>
+        <v>0.008597</v>
       </c>
       <c r="E29" s="1">
-        <v>0.006546</v>
+        <v>0.008597</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41182</v>
+        <v>41213</v>
       </c>
       <c r="B30" s="1">
-        <v>0.008595999999999999</v>
+        <v>0.001504</v>
       </c>
       <c r="C30" s="1">
-        <v>0.008598</v>
+        <v>0.001506</v>
       </c>
       <c r="D30" s="1">
-        <v>0.008597</v>
+        <v>0.001505</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008597</v>
+        <v>0.001505</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41213</v>
+        <v>41243</v>
       </c>
       <c r="B31" s="1">
-        <v>0.001504</v>
+        <v>0.007569</v>
       </c>
       <c r="C31" s="1">
-        <v>0.001506</v>
+        <v>0.007571</v>
       </c>
       <c r="D31" s="1">
-        <v>0.001505</v>
+        <v>0.007571</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001505</v>
+        <v>0.007571</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41243</v>
+        <v>41274</v>
       </c>
       <c r="B32" s="1">
-        <v>0.007569</v>
+        <v>0.008156999999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>0.007571</v>
+        <v>0.008168999999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>0.007571</v>
+        <v>0.008165</v>
       </c>
       <c r="E32" s="1">
-        <v>0.007571</v>
+        <v>0.008163999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41274</v>
+        <v>41305</v>
       </c>
       <c r="B33" s="1">
-        <v>0.008156999999999999</v>
+        <v>0.013471</v>
       </c>
       <c r="C33" s="1">
-        <v>0.008168999999999999</v>
+        <v>0.013571</v>
       </c>
       <c r="D33" s="1">
-        <v>0.008165</v>
+        <v>0.013456</v>
       </c>
       <c r="E33" s="1">
-        <v>0.008163999999999999</v>
+        <v>0.013479</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41305</v>
+        <v>41333</v>
       </c>
       <c r="B34" s="1">
-        <v>0.013471</v>
+        <v>0.007465</v>
       </c>
       <c r="C34" s="1">
-        <v>0.013571</v>
+        <v>0.007458</v>
       </c>
       <c r="D34" s="1">
-        <v>0.013456</v>
+        <v>0.00747</v>
       </c>
       <c r="E34" s="1">
-        <v>0.013479</v>
+        <v>0.007467000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41333</v>
+        <v>41364</v>
       </c>
       <c r="B35" s="1">
-        <v>0.007465</v>
+        <v>0.015025</v>
       </c>
       <c r="C35" s="1">
-        <v>0.007458</v>
+        <v>0.015027</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00747</v>
+        <v>0.015024</v>
       </c>
       <c r="E35" s="1">
-        <v>0.007467000000000001</v>
+        <v>0.015024</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41364</v>
+        <v>41394</v>
       </c>
       <c r="B36" s="1">
-        <v>0.015025</v>
+        <v>0.025087</v>
       </c>
       <c r="C36" s="1">
-        <v>0.015027</v>
+        <v>0.025091</v>
       </c>
       <c r="D36" s="1">
-        <v>0.015024</v>
+        <v>0.025086</v>
       </c>
       <c r="E36" s="1">
-        <v>0.015024</v>
+        <v>0.025087</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41394</v>
+        <v>41425</v>
       </c>
       <c r="B37" s="1">
-        <v>0.025087</v>
+        <v>-0.016671</v>
       </c>
       <c r="C37" s="1">
-        <v>0.025091</v>
+        <v>-0.016673</v>
       </c>
       <c r="D37" s="1">
-        <v>0.025086</v>
+        <v>-0.01667</v>
       </c>
       <c r="E37" s="1">
-        <v>0.025087</v>
+        <v>-0.01667</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41425</v>
+        <v>41455</v>
       </c>
       <c r="B38" s="1">
-        <v>-0.016671</v>
+        <v>-0.018163</v>
       </c>
       <c r="C38" s="1">
-        <v>-0.016673</v>
+        <v>-0.018165</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.01667</v>
+        <v>-0.01816</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01667</v>
+        <v>-0.018162</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41455</v>
+        <v>41486</v>
       </c>
       <c r="B39" s="1">
-        <v>-0.018163</v>
+        <v>0.014254</v>
       </c>
       <c r="C39" s="1">
-        <v>-0.018165</v>
+        <v>0.014257</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.01816</v>
+        <v>0.014252</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.018162</v>
+        <v>0.014253</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41486</v>
+        <v>41517</v>
       </c>
       <c r="B40" s="1">
-        <v>0.014254</v>
+        <v>-0.011051</v>
       </c>
       <c r="C40" s="1">
-        <v>0.014257</v>
+        <v>-0.011022</v>
       </c>
       <c r="D40" s="1">
-        <v>0.014252</v>
+        <v>-0.011036</v>
       </c>
       <c r="E40" s="1">
-        <v>0.014253</v>
+        <v>-0.011036</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41517</v>
+        <v>41547</v>
       </c>
       <c r="B41" s="1">
-        <v>-0.011051</v>
+        <v>0.020117</v>
       </c>
       <c r="C41" s="1">
-        <v>-0.011022</v>
+        <v>0.02012</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.011036</v>
+        <v>0.020114</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.011036</v>
+        <v>0.020116</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41547</v>
+        <v>41578</v>
       </c>
       <c r="B42" s="1">
-        <v>0.020117</v>
+        <v>0.02223</v>
       </c>
       <c r="C42" s="1">
-        <v>0.02012</v>
+        <v>0.022236</v>
       </c>
       <c r="D42" s="1">
-        <v>0.020114</v>
+        <v>0.022227</v>
       </c>
       <c r="E42" s="1">
-        <v>0.020116</v>
+        <v>0.022229</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41578</v>
+        <v>41608</v>
       </c>
       <c r="B43" s="1">
-        <v>0.02223</v>
+        <v>0.001657</v>
       </c>
       <c r="C43" s="1">
-        <v>0.022236</v>
+        <v>0.001657</v>
       </c>
       <c r="D43" s="1">
-        <v>0.022227</v>
+        <v>0.00166</v>
       </c>
       <c r="E43" s="1">
-        <v>0.022229</v>
+        <v>0.001659</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41608</v>
+        <v>41639</v>
       </c>
       <c r="B44" s="1">
-        <v>0.001657</v>
+        <v>0.007311</v>
       </c>
       <c r="C44" s="1">
-        <v>0.001657</v>
+        <v>0.007312</v>
       </c>
       <c r="D44" s="1">
-        <v>0.00166</v>
+        <v>0.00731</v>
       </c>
       <c r="E44" s="1">
-        <v>0.001659</v>
+        <v>0.00731</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41639</v>
+        <v>41670</v>
       </c>
       <c r="B45" s="1">
-        <v>0.007311</v>
+        <v>0.001869</v>
       </c>
       <c r="C45" s="1">
-        <v>0.007312</v>
+        <v>0.001871</v>
       </c>
       <c r="D45" s="1">
-        <v>0.00731</v>
+        <v>0.001871</v>
       </c>
       <c r="E45" s="1">
-        <v>0.00731</v>
+        <v>0.001871</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41670</v>
+        <v>41698</v>
       </c>
       <c r="B46" s="1">
-        <v>0.001869</v>
+        <v>0.022899</v>
       </c>
       <c r="C46" s="1">
-        <v>0.001871</v>
+        <v>0.02297</v>
       </c>
       <c r="D46" s="1">
-        <v>0.001871</v>
+        <v>0.022973</v>
       </c>
       <c r="E46" s="1">
-        <v>0.001871</v>
+        <v>0.02296</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41698</v>
+        <v>41729</v>
       </c>
       <c r="B47" s="1">
-        <v>0.022899</v>
+        <v>0.007581</v>
       </c>
       <c r="C47" s="1">
-        <v>0.02297</v>
+        <v>0.007582</v>
       </c>
       <c r="D47" s="1">
-        <v>0.022973</v>
+        <v>0.007581</v>
       </c>
       <c r="E47" s="1">
-        <v>0.02296</v>
+        <v>0.007581</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41729</v>
+        <v>41759</v>
       </c>
       <c r="B48" s="1">
-        <v>0.007581</v>
+        <v>0.002559</v>
       </c>
       <c r="C48" s="1">
-        <v>0.007582</v>
+        <v>0.002559</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007581</v>
+        <v>0.002565</v>
       </c>
       <c r="E48" s="1">
-        <v>0.007581</v>
+        <v>0.002563</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41759</v>
+        <v>41790</v>
       </c>
       <c r="B49" s="1">
-        <v>0.002559</v>
+        <v>0.018616</v>
       </c>
       <c r="C49" s="1">
-        <v>0.002559</v>
+        <v>0.018622</v>
       </c>
       <c r="D49" s="1">
-        <v>0.002565</v>
+        <v>0.018616</v>
       </c>
       <c r="E49" s="1">
-        <v>0.002563</v>
+        <v>0.018617</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41790</v>
+        <v>41820</v>
       </c>
       <c r="B50" s="1">
-        <v>0.018616</v>
+        <v>0.007592</v>
       </c>
       <c r="C50" s="1">
-        <v>0.018622</v>
+        <v>0.007592</v>
       </c>
       <c r="D50" s="1">
-        <v>0.018616</v>
+        <v>0.00759</v>
       </c>
       <c r="E50" s="1">
-        <v>0.018617</v>
+        <v>0.007591</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B51" s="1">
-        <v>0.007592</v>
+        <v>-0.003537</v>
       </c>
       <c r="C51" s="1">
-        <v>0.007592</v>
+        <v>-0.003536</v>
       </c>
       <c r="D51" s="1">
-        <v>0.00759</v>
+        <v>-0.003534</v>
       </c>
       <c r="E51" s="1">
-        <v>0.007591</v>
+        <v>-0.003535</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41851</v>
+        <v>41882</v>
       </c>
       <c r="B52" s="1">
-        <v>-0.003537</v>
+        <v>0.024396</v>
       </c>
       <c r="C52" s="1">
-        <v>-0.003536</v>
+        <v>0.024396</v>
       </c>
       <c r="D52" s="1">
-        <v>-0.003534</v>
+        <v>0.0244</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.003535</v>
+        <v>0.024399</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="B53" s="1">
-        <v>0.024396</v>
+        <v>-0.018814</v>
       </c>
       <c r="C53" s="1">
-        <v>0.024396</v>
+        <v>-0.018804</v>
       </c>
       <c r="D53" s="1">
-        <v>0.0244</v>
+        <v>-0.018789</v>
       </c>
       <c r="E53" s="1">
-        <v>0.024399</v>
+        <v>-0.018796</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41912</v>
+        <v>41943</v>
       </c>
       <c r="B54" s="1">
-        <v>-0.018814</v>
+        <v>0.012246</v>
       </c>
       <c r="C54" s="1">
-        <v>-0.018804</v>
+        <v>0.012244</v>
       </c>
       <c r="D54" s="1">
-        <v>-0.018789</v>
+        <v>0.012254</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.018796</v>
+        <v>0.012251</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="B55" s="1">
-        <v>0.012246</v>
+        <v>0.016811</v>
       </c>
       <c r="C55" s="1">
-        <v>0.012244</v>
+        <v>0.01682</v>
       </c>
       <c r="D55" s="1">
-        <v>0.012254</v>
+        <v>0.01682</v>
       </c>
       <c r="E55" s="1">
-        <v>0.012251</v>
+        <v>0.016818</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="B56" s="1">
-        <v>0.016811</v>
+        <v>0.002068</v>
       </c>
       <c r="C56" s="1">
-        <v>0.01682</v>
+        <v>0.002076</v>
       </c>
       <c r="D56" s="1">
-        <v>0.01682</v>
+        <v>0.00208</v>
       </c>
       <c r="E56" s="1">
-        <v>0.016818</v>
+        <v>0.002077</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="B57" s="1">
-        <v>0.002068</v>
+        <v>0.023362</v>
       </c>
       <c r="C57" s="1">
-        <v>0.002076</v>
+        <v>0.023357</v>
       </c>
       <c r="D57" s="1">
-        <v>0.00208</v>
+        <v>0.02335</v>
       </c>
       <c r="E57" s="1">
-        <v>0.002077</v>
+        <v>0.023353</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="B58" s="1">
-        <v>0.023362</v>
+        <v>0.007672</v>
       </c>
       <c r="C58" s="1">
-        <v>0.023357</v>
+        <v>0.007672</v>
       </c>
       <c r="D58" s="1">
-        <v>0.02335</v>
+        <v>0.007671</v>
       </c>
       <c r="E58" s="1">
-        <v>0.023353</v>
+        <v>0.007671</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="B59" s="1">
-        <v>0.007672</v>
+        <v>0.000725</v>
       </c>
       <c r="C59" s="1">
-        <v>0.007672</v>
+        <v>0.000731</v>
       </c>
       <c r="D59" s="1">
-        <v>0.007671</v>
+        <v>0.000725</v>
       </c>
       <c r="E59" s="1">
-        <v>0.007671</v>
+        <v>0.000726</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="B60" s="1">
-        <v>0.000725</v>
+        <v>0.000483</v>
       </c>
       <c r="C60" s="1">
-        <v>0.000731</v>
+        <v>0.000483</v>
       </c>
       <c r="D60" s="1">
-        <v>0.000725</v>
+        <v>0.000483</v>
       </c>
       <c r="E60" s="1">
-        <v>0.000726</v>
+        <v>0.000483</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42124</v>
+        <v>42155</v>
       </c>
       <c r="B61" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="C61" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="D61" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="E61" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42155</v>
+        <v>42185</v>
       </c>
       <c r="B62" s="1">
-        <v>-0.001447</v>
+        <v>-0.019129</v>
       </c>
       <c r="C62" s="1">
-        <v>-0.001447</v>
+        <v>-0.019129</v>
       </c>
       <c r="D62" s="1">
-        <v>-0.001447</v>
+        <v>-0.019127</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.001447</v>
+        <v>-0.019128</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="B63" s="1">
-        <v>-0.019129</v>
+        <v>0.010715</v>
       </c>
       <c r="C63" s="1">
-        <v>-0.019129</v>
+        <v>0.010715</v>
       </c>
       <c r="D63" s="1">
-        <v>-0.019127</v>
+        <v>0.010714</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.019128</v>
+        <v>0.010714</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="B64" s="1">
-        <v>0.010715</v>
+        <v>-0.027128</v>
       </c>
       <c r="C64" s="1">
-        <v>0.010715</v>
+        <v>-0.027126</v>
       </c>
       <c r="D64" s="1">
-        <v>0.010714</v>
+        <v>-0.027125</v>
       </c>
       <c r="E64" s="1">
-        <v>0.010714</v>
+        <v>-0.027126</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="B65" s="1">
-        <v>-0.027128</v>
+        <v>-0.00876</v>
       </c>
       <c r="C65" s="1">
-        <v>-0.027126</v>
+        <v>-0.00876</v>
       </c>
       <c r="D65" s="1">
-        <v>-0.027125</v>
+        <v>-0.008758999999999999</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.027126</v>
+        <v>-0.00876</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B66" s="1">
-        <v>-0.00876</v>
+        <v>0.028753</v>
       </c>
       <c r="C66" s="1">
-        <v>-0.00876</v>
+        <v>0.028716</v>
       </c>
       <c r="D66" s="1">
-        <v>-0.008758999999999999</v>
+        <v>0.028798</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.00876</v>
+        <v>0.028775</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B67" s="1">
-        <v>0.028753</v>
+        <v>-0.003828</v>
       </c>
       <c r="C67" s="1">
-        <v>0.028716</v>
+        <v>-0.003819</v>
       </c>
       <c r="D67" s="1">
-        <v>0.028798</v>
+        <v>-0.003807</v>
       </c>
       <c r="E67" s="1">
-        <v>0.028775</v>
+        <v>-0.003813</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B68" s="1">
-        <v>-0.003828</v>
+        <v>-0.008187</v>
       </c>
       <c r="C68" s="1">
-        <v>-0.003819</v>
+        <v>-0.008187</v>
       </c>
       <c r="D68" s="1">
-        <v>-0.003807</v>
+        <v>-0.008184</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.003813</v>
+        <v>-0.008185</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B69" s="1">
-        <v>-0.008187</v>
+        <v>-0.014827</v>
       </c>
       <c r="C69" s="1">
-        <v>-0.008187</v>
+        <v>-0.01483</v>
       </c>
       <c r="D69" s="1">
-        <v>-0.008184</v>
+        <v>-0.014826</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.008185</v>
+        <v>-0.014827</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B70" s="1">
-        <v>-0.014827</v>
+        <v>0.007148</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.01483</v>
+        <v>0.007148</v>
       </c>
       <c r="D70" s="1">
-        <v>-0.014826</v>
+        <v>0.007150999999999999</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.014827</v>
+        <v>0.00715</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B71" s="1">
-        <v>0.007148</v>
+        <v>0.034737</v>
       </c>
       <c r="C71" s="1">
-        <v>0.007148</v>
+        <v>0.034736</v>
       </c>
       <c r="D71" s="1">
-        <v>0.007150999999999999</v>
+        <v>0.034733</v>
       </c>
       <c r="E71" s="1">
-        <v>0.00715</v>
+        <v>0.034734</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B72" s="1">
-        <v>0.034737</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>0.034736</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="D72" s="1">
-        <v>0.034733</v>
+        <v>0.009242</v>
       </c>
       <c r="E72" s="1">
-        <v>0.034734</v>
+        <v>0.009242999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B73" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001881</v>
       </c>
       <c r="C73" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001883</v>
       </c>
       <c r="D73" s="1">
-        <v>0.009242</v>
+        <v>0.001884</v>
       </c>
       <c r="E73" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001883</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B74" s="1">
-        <v>0.001881</v>
+        <v>0.010067</v>
       </c>
       <c r="C74" s="1">
-        <v>0.001883</v>
+        <v>0.010098</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001884</v>
+        <v>0.01013</v>
       </c>
       <c r="E74" s="1">
-        <v>0.001883</v>
+        <v>0.010112</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B75" s="1">
-        <v>0.010067</v>
+        <v>0.021267</v>
       </c>
       <c r="C75" s="1">
-        <v>0.010098</v>
+        <v>0.021267</v>
       </c>
       <c r="D75" s="1">
-        <v>0.01013</v>
+        <v>0.021264</v>
       </c>
       <c r="E75" s="1">
-        <v>0.010112</v>
+        <v>0.021265</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B76" s="1">
-        <v>0.021267</v>
+        <v>0.001143</v>
       </c>
       <c r="C76" s="1">
-        <v>0.021267</v>
+        <v>0.001146</v>
       </c>
       <c r="D76" s="1">
-        <v>0.021264</v>
+        <v>0.001146</v>
       </c>
       <c r="E76" s="1">
-        <v>0.021265</v>
+        <v>0.001145</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B77" s="1">
-        <v>0.001143</v>
+        <v>0.00083</v>
       </c>
       <c r="C77" s="1">
-        <v>0.001146</v>
+        <v>0.0008309999999999999</v>
       </c>
       <c r="D77" s="1">
-        <v>0.001146</v>
+        <v>0.00083</v>
       </c>
       <c r="E77" s="1">
-        <v>0.001145</v>
+        <v>0.00083</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B78" s="1">
-        <v>0.00083</v>
+        <v>-0.011784</v>
       </c>
       <c r="C78" s="1">
-        <v>0.0008309999999999999</v>
+        <v>-0.011773</v>
       </c>
       <c r="D78" s="1">
-        <v>0.00083</v>
+        <v>-0.011778</v>
       </c>
       <c r="E78" s="1">
-        <v>0.00083</v>
+        <v>-0.011778</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B79" s="1">
-        <v>-0.011784</v>
+        <v>-0.011504</v>
       </c>
       <c r="C79" s="1">
-        <v>-0.011773</v>
+        <v>-0.011503</v>
       </c>
       <c r="D79" s="1">
-        <v>-0.011778</v>
+        <v>-0.011501</v>
       </c>
       <c r="E79" s="1">
-        <v>-0.011778</v>
+        <v>-0.011502</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B80" s="1">
-        <v>-0.011504</v>
+        <v>0.010278</v>
       </c>
       <c r="C80" s="1">
-        <v>-0.011503</v>
+        <v>0.010006</v>
       </c>
       <c r="D80" s="1">
-        <v>-0.011501</v>
+        <v>0.010143</v>
       </c>
       <c r="E80" s="1">
-        <v>-0.011502</v>
+        <v>0.010141</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B81" s="1">
-        <v>0.010278</v>
+        <v>0.01169</v>
       </c>
       <c r="C81" s="1">
-        <v>0.010006</v>
+        <v>0.011614</v>
       </c>
       <c r="D81" s="1">
-        <v>0.010143</v>
+        <v>0.011658</v>
       </c>
       <c r="E81" s="1">
-        <v>0.010141</v>
+        <v>0.011655</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B82" s="1">
-        <v>0.01169</v>
+        <v>0.017668</v>
       </c>
       <c r="C82" s="1">
-        <v>0.011614</v>
+        <v>0.017672</v>
       </c>
       <c r="D82" s="1">
-        <v>0.011658</v>
+        <v>0.017677</v>
       </c>
       <c r="E82" s="1">
-        <v>0.011655</v>
+        <v>0.017674</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B83" s="1">
-        <v>0.017668</v>
+        <v>0.005195</v>
       </c>
       <c r="C83" s="1">
-        <v>0.017672</v>
+        <v>0.005195</v>
       </c>
       <c r="D83" s="1">
-        <v>0.017677</v>
+        <v>0.005195</v>
       </c>
       <c r="E83" s="1">
-        <v>0.017674</v>
+        <v>0.005195</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B84" s="1">
-        <v>0.005195</v>
+        <v>0.013597</v>
       </c>
       <c r="C84" s="1">
-        <v>0.005195</v>
+        <v>0.0136</v>
       </c>
       <c r="D84" s="1">
-        <v>0.005195</v>
+        <v>0.013598</v>
       </c>
       <c r="E84" s="1">
-        <v>0.005195</v>
+        <v>0.013598</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B85" s="1">
-        <v>0.013597</v>
+        <v>0.015261</v>
       </c>
       <c r="C85" s="1">
-        <v>0.0136</v>
+        <v>0.015261</v>
       </c>
       <c r="D85" s="1">
-        <v>0.013598</v>
+        <v>0.015262</v>
       </c>
       <c r="E85" s="1">
-        <v>0.013598</v>
+        <v>0.015262</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B86" s="1">
-        <v>0.015261</v>
+        <v>0.005246</v>
       </c>
       <c r="C86" s="1">
-        <v>0.015261</v>
+        <v>0.005249</v>
       </c>
       <c r="D86" s="1">
-        <v>0.015262</v>
+        <v>0.005264</v>
       </c>
       <c r="E86" s="1">
-        <v>0.015262</v>
+        <v>0.005257</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B87" s="1">
-        <v>0.005246</v>
+        <v>0.011307</v>
       </c>
       <c r="C87" s="1">
-        <v>0.005249</v>
+        <v>0.011307</v>
       </c>
       <c r="D87" s="1">
-        <v>0.005264</v>
+        <v>0.011306</v>
       </c>
       <c r="E87" s="1">
-        <v>0.005257</v>
+        <v>0.011307</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B88" s="1">
-        <v>0.011307</v>
+        <v>0.010725</v>
       </c>
       <c r="C88" s="1">
-        <v>0.011307</v>
+        <v>0.010724</v>
       </c>
       <c r="D88" s="1">
-        <v>0.011306</v>
+        <v>0.010725</v>
       </c>
       <c r="E88" s="1">
-        <v>0.011307</v>
+        <v>0.010725</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B89" s="1">
-        <v>0.010725</v>
+        <v>0.008107999999999999</v>
       </c>
       <c r="C89" s="1">
-        <v>0.010724</v>
+        <v>0.008107</v>
       </c>
       <c r="D89" s="1">
-        <v>0.010725</v>
+        <v>0.008107</v>
       </c>
       <c r="E89" s="1">
-        <v>0.010725</v>
+        <v>0.008107</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B90" s="1">
-        <v>0.008107999999999999</v>
+        <v>0.011965</v>
       </c>
       <c r="C90" s="1">
-        <v>0.008107</v>
+        <v>0.011963</v>
       </c>
       <c r="D90" s="1">
-        <v>0.008107</v>
+        <v>0.011963</v>
       </c>
       <c r="E90" s="1">
-        <v>0.008107</v>
+        <v>0.011964</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B91" s="1">
-        <v>0.011965</v>
+        <v>0.013354</v>
       </c>
       <c r="C91" s="1">
-        <v>0.011963</v>
+        <v>0.013354</v>
       </c>
       <c r="D91" s="1">
-        <v>0.011963</v>
+        <v>0.013356</v>
       </c>
       <c r="E91" s="1">
-        <v>0.011964</v>
+        <v>0.013355</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B92" s="1">
-        <v>0.013354</v>
+        <v>0.011831</v>
       </c>
       <c r="C92" s="1">
-        <v>0.013354</v>
+        <v>0.012308</v>
       </c>
       <c r="D92" s="1">
-        <v>0.013356</v>
+        <v>0.011977</v>
       </c>
       <c r="E92" s="1">
-        <v>0.013355</v>
+        <v>0.012016</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B93" s="1">
-        <v>0.011831</v>
+        <v>0.024717</v>
       </c>
       <c r="C93" s="1">
-        <v>0.012308</v>
+        <v>0.024777</v>
       </c>
       <c r="D93" s="1">
-        <v>0.011977</v>
+        <v>0.016299</v>
       </c>
       <c r="E93" s="1">
-        <v>0.012016</v>
+        <v>0.019876</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B94" s="1">
-        <v>0.024717</v>
+        <v>-0.029926</v>
       </c>
       <c r="C94" s="1">
-        <v>0.024777</v>
+        <v>-0.029924</v>
       </c>
       <c r="D94" s="1">
-        <v>0.016299</v>
+        <v>-0.029905</v>
       </c>
       <c r="E94" s="1">
-        <v>0.019876</v>
+        <v>-0.029913</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B95" s="1">
-        <v>-0.029926</v>
+        <v>0.001458</v>
       </c>
       <c r="C95" s="1">
-        <v>-0.029924</v>
+        <v>0.001458</v>
       </c>
       <c r="D95" s="1">
-        <v>-0.029905</v>
+        <v>0.008959</v>
       </c>
       <c r="E95" s="1">
-        <v>-0.029913</v>
+        <v>0.005778999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B96" s="1">
-        <v>0.001458</v>
+        <v>-0.002009</v>
       </c>
       <c r="C96" s="1">
-        <v>0.001458</v>
+        <v>-0.002009</v>
       </c>
       <c r="D96" s="1">
-        <v>0.008959</v>
+        <v>-0.006636</v>
       </c>
       <c r="E96" s="1">
-        <v>0.005778999999999999</v>
+        <v>-0.004682</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B97" s="1">
-        <v>-0.002009</v>
+        <v>0.006971000000000001</v>
       </c>
       <c r="C97" s="1">
-        <v>-0.002009</v>
+        <v>0.006965</v>
       </c>
       <c r="D97" s="1">
-        <v>-0.006636</v>
+        <v>0.010673</v>
       </c>
       <c r="E97" s="1">
-        <v>-0.004682</v>
+        <v>0.009103</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B98" s="1">
-        <v>0.006971000000000001</v>
+        <v>-0.002816</v>
       </c>
       <c r="C98" s="1">
-        <v>0.006965</v>
+        <v>-0.00284</v>
       </c>
       <c r="D98" s="1">
-        <v>0.010673</v>
+        <v>-0.001519</v>
       </c>
       <c r="E98" s="1">
-        <v>0.009103</v>
+        <v>-0.002073</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B99" s="1">
-        <v>-0.002816</v>
+        <v>0.013499</v>
       </c>
       <c r="C99" s="1">
-        <v>-0.00284</v>
+        <v>0.013494</v>
       </c>
       <c r="D99" s="1">
-        <v>-0.001519</v>
+        <v>0.005810999999999999</v>
       </c>
       <c r="E99" s="1">
-        <v>-0.002073</v>
+        <v>0.009061</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B100" s="1">
-        <v>0.013499</v>
+        <v>0.008215999999999999</v>
       </c>
       <c r="C100" s="1">
-        <v>0.013494</v>
+        <v>0.00822</v>
       </c>
       <c r="D100" s="1">
-        <v>0.005810999999999999</v>
+        <v>0.010221</v>
       </c>
       <c r="E100" s="1">
-        <v>0.009061</v>
+        <v>0.00937</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B101" s="1">
-        <v>0.008215999999999999</v>
+        <v>-0.005064</v>
       </c>
       <c r="C101" s="1">
-        <v>0.00822</v>
+        <v>-0.005064999999999999</v>
       </c>
       <c r="D101" s="1">
-        <v>0.010221</v>
+        <v>-0.011547</v>
       </c>
       <c r="E101" s="1">
-        <v>0.00937</v>
+        <v>-0.008794</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B102" s="1">
-        <v>-0.005064</v>
+        <v>-0.040555</v>
       </c>
       <c r="C102" s="1">
-        <v>-0.005064999999999999</v>
+        <v>-0.040551</v>
       </c>
       <c r="D102" s="1">
-        <v>-0.011547</v>
+        <v>-0.039562</v>
       </c>
       <c r="E102" s="1">
-        <v>-0.008794</v>
+        <v>-0.039984</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B103" s="1">
-        <v>-0.040555</v>
+        <v>0.01145</v>
       </c>
       <c r="C103" s="1">
-        <v>-0.040551</v>
+        <v>0.011447</v>
       </c>
       <c r="D103" s="1">
-        <v>-0.039562</v>
+        <v>0.013939</v>
       </c>
       <c r="E103" s="1">
-        <v>-0.039984</v>
+        <v>0.012878</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B104" s="1">
-        <v>0.01145</v>
+        <v>-0.016159</v>
       </c>
       <c r="C104" s="1">
-        <v>0.011447</v>
+        <v>-0.01617</v>
       </c>
       <c r="D104" s="1">
-        <v>0.013939</v>
+        <v>0.005926</v>
       </c>
       <c r="E104" s="1">
-        <v>0.012878</v>
+        <v>-0.003477</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B105" s="1">
-        <v>-0.016159</v>
+        <v>0.037035</v>
       </c>
       <c r="C105" s="1">
-        <v>-0.01617</v>
+        <v>0.037039</v>
       </c>
       <c r="D105" s="1">
-        <v>0.005926</v>
+        <v>0.028362</v>
       </c>
       <c r="E105" s="1">
-        <v>-0.003477</v>
+        <v>0.032009</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B106" s="1">
-        <v>0.037035</v>
+        <v>0.010188</v>
       </c>
       <c r="C106" s="1">
-        <v>0.037039</v>
+        <v>0.010184</v>
       </c>
       <c r="D106" s="1">
-        <v>0.028362</v>
+        <v>0.002933</v>
       </c>
       <c r="E106" s="1">
-        <v>0.032009</v>
+        <v>0.005999</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B107" s="1">
-        <v>0.010188</v>
+        <v>0.021135</v>
       </c>
       <c r="C107" s="1">
-        <v>0.010184</v>
+        <v>0.021127</v>
       </c>
       <c r="D107" s="1">
-        <v>0.002933</v>
+        <v>0.032959</v>
       </c>
       <c r="E107" s="1">
-        <v>0.005999</v>
+        <v>0.027935</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B108" s="1">
-        <v>0.021135</v>
+        <v>0.010592</v>
       </c>
       <c r="C108" s="1">
-        <v>0.021127</v>
+        <v>0.010584</v>
       </c>
       <c r="D108" s="1">
-        <v>0.032959</v>
+        <v>0.001077</v>
       </c>
       <c r="E108" s="1">
-        <v>0.027935</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B109" s="1">
-        <v>0.010592</v>
+        <v>-0.004251</v>
       </c>
       <c r="C109" s="1">
-        <v>0.010584</v>
+        <v>-0.004255</v>
       </c>
       <c r="D109" s="1">
-        <v>0.001077</v>
+        <v>0.020519</v>
       </c>
       <c r="E109" s="1">
-        <v>0.00509</v>
+        <v>0.010002</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B110" s="1">
-        <v>-0.004251</v>
+        <v>0.033344</v>
       </c>
       <c r="C110" s="1">
-        <v>-0.004255</v>
+        <v>0.033341</v>
       </c>
       <c r="D110" s="1">
-        <v>0.020519</v>
+        <v>0.026978</v>
       </c>
       <c r="E110" s="1">
-        <v>0.010002</v>
+        <v>0.029644</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B111" s="1">
-        <v>0.033344</v>
+        <v>0.005238</v>
       </c>
       <c r="C111" s="1">
-        <v>0.033341</v>
+        <v>0.00523</v>
       </c>
       <c r="D111" s="1">
-        <v>0.026978</v>
+        <v>0.004394</v>
       </c>
       <c r="E111" s="1">
-        <v>0.029644</v>
+        <v>0.004747</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B112" s="1">
-        <v>0.005238</v>
+        <v>0.024274</v>
       </c>
       <c r="C112" s="1">
-        <v>0.00523</v>
+        <v>0.024213</v>
       </c>
       <c r="D112" s="1">
-        <v>0.004394</v>
+        <v>0.05872</v>
       </c>
       <c r="E112" s="1">
-        <v>0.004747</v>
+        <v>0.044206</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B113" s="1">
-        <v>0.024274</v>
+        <v>0.002153</v>
       </c>
       <c r="C113" s="1">
-        <v>0.024213</v>
+        <v>0.002218</v>
       </c>
       <c r="D113" s="1">
-        <v>0.05872</v>
+        <v>-0.009623</v>
       </c>
       <c r="E113" s="1">
-        <v>0.044206</v>
+        <v>-0.004635</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B114" s="1">
-        <v>0.002153</v>
+        <v>0.005681</v>
       </c>
       <c r="C114" s="1">
-        <v>0.002218</v>
+        <v>0.006085</v>
       </c>
       <c r="D114" s="1">
-        <v>-0.009623</v>
+        <v>-0.000153</v>
       </c>
       <c r="E114" s="1">
-        <v>-0.004635</v>
+        <v>0.002441</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B115" s="1">
-        <v>0.005681</v>
+        <v>0.010361</v>
       </c>
       <c r="C115" s="1">
-        <v>0.006085</v>
+        <v>0.010705</v>
       </c>
       <c r="D115" s="1">
-        <v>-0.000153</v>
+        <v>0.006349</v>
       </c>
       <c r="E115" s="1">
-        <v>0.002441</v>
+        <v>0.008153000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B116" s="1">
-        <v>0.010361</v>
+        <v>0.008629</v>
       </c>
       <c r="C116" s="1">
-        <v>0.010705</v>
+        <v>0.007443</v>
       </c>
       <c r="D116" s="1">
-        <v>0.006349</v>
+        <v>-0.007508</v>
       </c>
       <c r="E116" s="1">
-        <v>0.008153000000000001</v>
+        <v>-0.000751</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B117" s="1">
-        <v>0.008629</v>
+        <v>0.010016</v>
       </c>
       <c r="C117" s="1">
-        <v>0.007443</v>
+        <v>0.009792</v>
       </c>
       <c r="D117" s="1">
-        <v>-0.007508</v>
+        <v>0.037942</v>
       </c>
       <c r="E117" s="1">
-        <v>-0.000751</v>
+        <v>0.02564</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B118" s="1">
-        <v>0.010016</v>
+        <v>-0.022208</v>
       </c>
       <c r="C118" s="1">
-        <v>0.009792</v>
+        <v>-0.020781</v>
       </c>
       <c r="D118" s="1">
-        <v>0.037942</v>
+        <v>0.018639</v>
       </c>
       <c r="E118" s="1">
-        <v>0.02564</v>
+        <v>0.001266</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B119" s="1">
-        <v>-0.022208</v>
+        <v>-0.07419100000000001</v>
       </c>
       <c r="C119" s="1">
-        <v>-0.020781</v>
+        <v>-0.07051</v>
       </c>
       <c r="D119" s="1">
-        <v>0.018639</v>
+        <v>-0.012191</v>
       </c>
       <c r="E119" s="1">
-        <v>0.001266</v>
+        <v>-0.037684</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B120" s="1">
-        <v>-0.07419100000000001</v>
+        <v>0.056168</v>
       </c>
       <c r="C120" s="1">
-        <v>-0.07051</v>
+        <v>0.05305</v>
       </c>
       <c r="D120" s="1">
-        <v>-0.012191</v>
+        <v>0.037446</v>
       </c>
       <c r="E120" s="1">
-        <v>-0.037684</v>
+        <v>0.044486</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B121" s="1">
-        <v>0.056168</v>
+        <v>0.015041</v>
       </c>
       <c r="C121" s="1">
-        <v>0.05305</v>
+        <v>0.013544</v>
       </c>
       <c r="D121" s="1">
-        <v>0.037446</v>
+        <v>-0.004533</v>
       </c>
       <c r="E121" s="1">
-        <v>0.044486</v>
+        <v>0.003246</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B122" s="1">
-        <v>0.015041</v>
+        <v>0.012864</v>
       </c>
       <c r="C122" s="1">
-        <v>0.013544</v>
+        <v>0.012183</v>
       </c>
       <c r="D122" s="1">
-        <v>-0.004533</v>
+        <v>0.00859</v>
       </c>
       <c r="E122" s="1">
-        <v>0.003246</v>
+        <v>0.010239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B123" s="1">
-        <v>0.012864</v>
+        <v>0.034786</v>
       </c>
       <c r="C123" s="1">
-        <v>0.012183</v>
+        <v>0.033863</v>
       </c>
       <c r="D123" s="1">
-        <v>0.00859</v>
+        <v>0.044461</v>
       </c>
       <c r="E123" s="1">
-        <v>0.010239</v>
+        <v>0.040234</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B124" s="1">
-        <v>0.034786</v>
+        <v>0.017061</v>
       </c>
       <c r="C124" s="1">
-        <v>0.033863</v>
+        <v>0.016036</v>
       </c>
       <c r="D124" s="1">
-        <v>0.044461</v>
+        <v>-0.017265</v>
       </c>
       <c r="E124" s="1">
-        <v>0.040234</v>
+        <v>-0.003186</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B125" s="1">
-        <v>0.017061</v>
+        <v>-0.014281</v>
       </c>
       <c r="C125" s="1">
-        <v>0.016036</v>
+        <v>-0.013697</v>
       </c>
       <c r="D125" s="1">
-        <v>-0.017265</v>
+        <v>-0.005055</v>
       </c>
       <c r="E125" s="1">
-        <v>-0.003186</v>
+        <v>-0.008924999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B126" s="1">
-        <v>-0.014281</v>
+        <v>-0.016704</v>
       </c>
       <c r="C126" s="1">
-        <v>-0.013697</v>
+        <v>-0.015702</v>
       </c>
       <c r="D126" s="1">
-        <v>-0.005055</v>
+        <v>-0.023545</v>
       </c>
       <c r="E126" s="1">
-        <v>-0.008924999999999999</v>
+        <v>-0.020374</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B127" s="1">
-        <v>-0.016704</v>
+        <v>0.065382</v>
       </c>
       <c r="C127" s="1">
-        <v>-0.015702</v>
+        <v>0.06457600000000001</v>
       </c>
       <c r="D127" s="1">
-        <v>-0.023545</v>
+        <v>0.044108</v>
       </c>
       <c r="E127" s="1">
-        <v>-0.020374</v>
+        <v>0.053226</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B128" s="1">
-        <v>0.065382</v>
+        <v>0.021767</v>
       </c>
       <c r="C128" s="1">
-        <v>0.06457600000000001</v>
+        <v>0.022151</v>
       </c>
       <c r="D128" s="1">
-        <v>0.044108</v>
+        <v>0.007529</v>
       </c>
       <c r="E128" s="1">
-        <v>0.053226</v>
+        <v>0.013933</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B129" s="1">
-        <v>0.021767</v>
+        <v>-0.013168</v>
       </c>
       <c r="C129" s="1">
-        <v>0.022151</v>
+        <v>-0.012301</v>
       </c>
       <c r="D129" s="1">
-        <v>0.007529</v>
+        <v>-0.0263</v>
       </c>
       <c r="E129" s="1">
-        <v>0.013933</v>
+        <v>-0.020192</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B130" s="1">
-        <v>-0.013168</v>
+        <v>-0.002234</v>
       </c>
       <c r="C130" s="1">
-        <v>-0.012301</v>
+        <v>-0.000961</v>
       </c>
       <c r="D130" s="1">
-        <v>-0.0263</v>
+        <v>-0.032485</v>
       </c>
       <c r="E130" s="1">
-        <v>-0.020192</v>
+        <v>-0.018451</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B131" s="1">
-        <v>-0.002234</v>
+        <v>0.01294</v>
       </c>
       <c r="C131" s="1">
-        <v>-0.000961</v>
+        <v>0.013419</v>
       </c>
       <c r="D131" s="1">
-        <v>-0.032485</v>
+        <v>-0.010056</v>
       </c>
       <c r="E131" s="1">
-        <v>-0.018451</v>
+        <v>0.0006980000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B132" s="1">
-        <v>0.01294</v>
+        <v>0.028613</v>
       </c>
       <c r="C132" s="1">
-        <v>0.013419</v>
+        <v>0.028164</v>
       </c>
       <c r="D132" s="1">
-        <v>-0.010056</v>
+        <v>0.029309</v>
       </c>
       <c r="E132" s="1">
-        <v>0.0006980000000000001</v>
+        <v>0.028885</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B133" s="1">
-        <v>0.028613</v>
+        <v>0.017591</v>
       </c>
       <c r="C133" s="1">
-        <v>0.028164</v>
+        <v>0.018329</v>
       </c>
       <c r="D133" s="1">
-        <v>0.029309</v>
+        <v>0.014168</v>
       </c>
       <c r="E133" s="1">
-        <v>0.028885</v>
+        <v>0.015936</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B134" s="1">
-        <v>0.017591</v>
+        <v>0.018306</v>
       </c>
       <c r="C134" s="1">
-        <v>0.018329</v>
+        <v>0.017976</v>
       </c>
       <c r="D134" s="1">
-        <v>0.014168</v>
+        <v>0.02898</v>
       </c>
       <c r="E134" s="1">
-        <v>0.015936</v>
+        <v>0.023884</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B135" s="1">
-        <v>0.018306</v>
+        <v>0.015858</v>
       </c>
       <c r="C135" s="1">
-        <v>0.017976</v>
+        <v>0.01554</v>
       </c>
       <c r="D135" s="1">
-        <v>0.02898</v>
+        <v>0.024879</v>
       </c>
       <c r="E135" s="1">
-        <v>0.023884</v>
+        <v>0.020584</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B136" s="1">
-        <v>0.015858</v>
+        <v>0.014596</v>
       </c>
       <c r="C136" s="1">
-        <v>0.01554</v>
+        <v>0.014694</v>
       </c>
       <c r="D136" s="1">
-        <v>0.024879</v>
+        <v>0.007593</v>
       </c>
       <c r="E136" s="1">
-        <v>0.020584</v>
+        <v>0.010881</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B137" s="1">
-        <v>0.014596</v>
+        <v>-0.034501</v>
       </c>
       <c r="C137" s="1">
-        <v>0.014694</v>
+        <v>-0.037832</v>
       </c>
       <c r="D137" s="1">
-        <v>0.007593</v>
+        <v>-0.030726</v>
       </c>
       <c r="E137" s="1">
-        <v>0.010881</v>
+        <v>-0.033223</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B138" s="1">
-        <v>-0.034501</v>
+        <v>0.034062</v>
       </c>
       <c r="C138" s="1">
-        <v>-0.037832</v>
+        <v>0.038085</v>
       </c>
       <c r="D138" s="1">
-        <v>-0.030726</v>
+        <v>0.027294</v>
       </c>
       <c r="E138" s="1">
-        <v>-0.033223</v>
+        <v>0.031335</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B139" s="1">
-        <v>0.034062</v>
+        <v>0.014583</v>
       </c>
       <c r="C139" s="1">
-        <v>0.038085</v>
+        <v>0.020934</v>
       </c>
       <c r="D139" s="1">
-        <v>0.027294</v>
+        <v>0.017182</v>
       </c>
       <c r="E139" s="1">
-        <v>0.031335</v>
+        <v>0.017353</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B140" s="1">
-        <v>0.014583</v>
+        <v>0.013202</v>
       </c>
       <c r="C140" s="1">
-        <v>0.020934</v>
+        <v>0.009613</v>
       </c>
       <c r="D140" s="1">
-        <v>0.017182</v>
+        <v>0.005379</v>
       </c>
       <c r="E140" s="1">
-        <v>0.017353</v>
+        <v>0.00827</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B141" s="1">
-        <v>0.013202</v>
+        <v>-0.048359</v>
       </c>
       <c r="C141" s="1">
-        <v>0.009613</v>
+        <v>-0.051444</v>
       </c>
       <c r="D141" s="1">
-        <v>0.005379</v>
+        <v>-0.043723</v>
       </c>
       <c r="E141" s="1">
-        <v>0.00827</v>
+        <v>-0.046588</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B142" s="1">
-        <v>-0.048359</v>
+        <v>-0.020498</v>
       </c>
       <c r="C142" s="1">
-        <v>-0.051444</v>
+        <v>-0.021976</v>
       </c>
       <c r="D142" s="1">
-        <v>-0.043723</v>
+        <v>-0.017199</v>
       </c>
       <c r="E142" s="1">
-        <v>-0.046588</v>
+        <v>-0.019075</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B143" s="1">
-        <v>-0.020498</v>
+        <v>-0.017631</v>
       </c>
       <c r="C143" s="1">
-        <v>-0.021976</v>
+        <v>-0.021784</v>
       </c>
       <c r="D143" s="1">
-        <v>-0.017199</v>
+        <v>-0.026753</v>
       </c>
       <c r="E143" s="1">
-        <v>-0.019075</v>
+        <v>-0.02338</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B144" s="1">
-        <v>-0.017631</v>
+        <v>-0.07614499999999999</v>
       </c>
       <c r="C144" s="1">
-        <v>-0.021784</v>
+        <v>-0.08283599999999999</v>
       </c>
       <c r="D144" s="1">
-        <v>-0.026753</v>
+        <v>-0.080459</v>
       </c>
       <c r="E144" s="1">
-        <v>-0.02338</v>
+        <v>-0.07989399999999999</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B145" s="1">
-        <v>-0.07614499999999999</v>
+        <v>-0.010776</v>
       </c>
       <c r="C145" s="1">
-        <v>-0.08283599999999999</v>
+        <v>-0.014128</v>
       </c>
       <c r="D145" s="1">
-        <v>-0.080459</v>
+        <v>-0.006677</v>
       </c>
       <c r="E145" s="1">
-        <v>-0.07989399999999999</v>
+        <v>-0.009348</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B146" s="1">
-        <v>-0.010776</v>
+        <v>-0.035471</v>
       </c>
       <c r="C146" s="1">
-        <v>-0.014128</v>
+        <v>-0.033153</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.006677</v>
+        <v>-0.036546</v>
       </c>
       <c r="E146" s="1">
-        <v>-0.009348</v>
+        <v>-0.035533</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B147" s="1">
-        <v>-0.035471</v>
+        <v>0.044124</v>
       </c>
       <c r="C147" s="1">
-        <v>-0.033153</v>
+        <v>0.044082</v>
       </c>
       <c r="D147" s="1">
-        <v>-0.036546</v>
+        <v>0.048284</v>
       </c>
       <c r="E147" s="1">
-        <v>-0.035533</v>
+        <v>0.04631</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM147"/>
+  <dimension ref="A1:ALM148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2925,13 +2925,30 @@
         <v>45604315274.84</v>
       </c>
     </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B148" s="1">
+        <v>10953128495.09</v>
+      </c>
+      <c r="C148" s="1">
+        <v>9473104540.35</v>
+      </c>
+      <c r="D148" s="1">
+        <v>22811356969.86</v>
+      </c>
+      <c r="E148" s="1">
+        <v>43237590005.3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A147">
+  <conditionalFormatting sqref="A1:A148">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E147">
+  <conditionalFormatting sqref="B2:E148">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
@@ -2942,7 +2959,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM147"/>
+  <dimension ref="A1:ALM148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5450,13 +5467,30 @@
         <v>0.04631</v>
       </c>
     </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B148" s="1">
+        <v>-0.046036</v>
+      </c>
+      <c r="C148" s="1">
+        <v>-0.048478</v>
+      </c>
+      <c r="D148" s="1">
+        <v>-0.049768</v>
+      </c>
+      <c r="E148" s="1">
+        <v>-0.048543</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A147">
+  <conditionalFormatting sqref="A1:A148">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E147">
+  <conditionalFormatting sqref="B2:E148">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>IBT</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total Consolidation</t>
   </si>
   <si>
     <t>Date</t>
@@ -417,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM148"/>
+  <dimension ref="A1:ALM147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,9 +429,9 @@
     <col min="1" max="1001" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -442,2513 +445,2937 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>40359</v>
+        <v>40421</v>
       </c>
       <c r="B2" s="1">
-        <v>1525381389.55</v>
+        <v>1703519080.08</v>
       </c>
       <c r="C2" s="1">
-        <v>2126807551.94</v>
+        <v>2218270319.77</v>
       </c>
       <c r="D2" s="1">
-        <v>12475226298.37</v>
+        <v>12943159219.5</v>
       </c>
       <c r="E2" s="1">
-        <v>16127415239.86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>16864948619.35</v>
+      </c>
+      <c r="F2" s="1">
+        <v>16861309655.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>40390</v>
+        <v>40451</v>
       </c>
       <c r="B3" s="1">
-        <v>1706992377.88</v>
+        <v>1774147463.24</v>
       </c>
       <c r="C3" s="1">
-        <v>2217049566.92</v>
+        <v>2429501039.02</v>
       </c>
       <c r="D3" s="1">
-        <v>12970356046.29</v>
+        <v>13480390809.59</v>
       </c>
       <c r="E3" s="1">
-        <v>16894397991.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>17684039311.85</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17679729612.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
-        <v>40421</v>
+        <v>40482</v>
       </c>
       <c r="B4" s="1">
-        <v>1703519080.08</v>
+        <v>1900647341.72</v>
       </c>
       <c r="C4" s="1">
-        <v>2218270319.77</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D4" s="1">
-        <v>12943159219.5</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E4" s="1">
-        <v>16864948619.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>17795189712.79</v>
+      </c>
+      <c r="F4" s="1">
+        <v>17911410704.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <v>40451</v>
+        <v>40512</v>
       </c>
       <c r="B5" s="1">
-        <v>1774147463.24</v>
+        <v>1880986063.23</v>
       </c>
       <c r="C5" s="1">
-        <v>2429501039.02</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D5" s="1">
-        <v>13480390809.59</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E5" s="1">
-        <v>17684039311.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>19628498009.78</v>
+      </c>
+      <c r="F5" s="1">
+        <v>17739568210.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
-        <v>40482</v>
+        <v>40543</v>
       </c>
       <c r="B6" s="1">
-        <v>1900647341.72</v>
+        <v>1928778379.47</v>
       </c>
       <c r="C6" s="1">
-        <v>2451294838.87</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D6" s="1">
-        <v>13443247532.2</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E6" s="1">
-        <v>17795189712.79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>20035309723.7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20258761674.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
-        <v>40512</v>
+        <v>40574</v>
       </c>
       <c r="B7" s="1">
-        <v>1880986063.23</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C7" s="1">
-        <v>2932628117.61</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D7" s="1">
-        <v>14814883828.94</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E7" s="1">
-        <v>19628498009.78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>21163883643.67</v>
+      </c>
+      <c r="F7" s="1">
+        <v>21377385003.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
-        <v>40543</v>
+        <v>40602</v>
       </c>
       <c r="B8" s="1">
-        <v>1928778379.47</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C8" s="1">
-        <v>3016301371.7</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D8" s="1">
-        <v>15090229972.53</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E8" s="1">
-        <v>20035309723.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>21593049295.12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>21801960415.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
-        <v>40574</v>
+        <v>40633</v>
       </c>
       <c r="B9" s="1">
-        <v>3118038032.57</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C9" s="1">
-        <v>3010941131.67</v>
+        <v>3077934373.48</v>
       </c>
       <c r="D9" s="1">
-        <v>15034904479.43</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E9" s="1">
-        <v>21163883643.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>21597573754.27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>21805071612.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
-        <v>40602</v>
+        <v>40663</v>
       </c>
       <c r="B10" s="1">
-        <v>3181037518.51</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C10" s="1">
-        <v>3072606771.41</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D10" s="1">
-        <v>15339405005.2</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E10" s="1">
-        <v>21593049295.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>22196621501.4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22400959905.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
-        <v>40633</v>
+        <v>40694</v>
       </c>
       <c r="B11" s="1">
-        <v>3181383242.47</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C11" s="1">
-        <v>3077934373.48</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D11" s="1">
-        <v>15338256138.32</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E11" s="1">
-        <v>21597573754.27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>22284802378.54</v>
+      </c>
+      <c r="F11" s="1">
+        <v>22482276843.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
-        <v>40663</v>
+        <v>40724</v>
       </c>
       <c r="B12" s="1">
-        <v>3268994098.86</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C12" s="1">
-        <v>3168259937.35</v>
+        <v>3131056633.27</v>
       </c>
       <c r="D12" s="1">
-        <v>15759367465.19</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E12" s="1">
-        <v>22196621501.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>21869307212.61</v>
+      </c>
+      <c r="F12" s="1">
+        <v>22054914606.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
-        <v>40694</v>
+        <v>40755</v>
       </c>
       <c r="B13" s="1">
-        <v>3281525082.01</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C13" s="1">
-        <v>3185699769.88</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D13" s="1">
-        <v>15817577526.65</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E13" s="1">
-        <v>22284802378.54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>22052191790.71</v>
+      </c>
+      <c r="F13" s="1">
+        <v>22231555271.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
-        <v>40724</v>
+        <v>40786</v>
       </c>
       <c r="B14" s="1">
-        <v>3219718796.83</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C14" s="1">
-        <v>3131056633.27</v>
+        <v>3139082692.54</v>
       </c>
       <c r="D14" s="1">
-        <v>15518531782.51</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E14" s="1">
-        <v>21869307212.61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>21857328408.78</v>
+      </c>
+      <c r="F14" s="1">
+        <v>22027918799.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
-        <v>40755</v>
+        <v>40816</v>
       </c>
       <c r="B15" s="1">
-        <v>3245901192.15</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C15" s="1">
-        <v>3162162793.97</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D15" s="1">
-        <v>15644127804.59</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E15" s="1">
-        <v>22052191790.71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>21890762234.61</v>
+      </c>
+      <c r="F15" s="1">
+        <v>22052849274.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
-        <v>40786</v>
+        <v>40847</v>
       </c>
       <c r="B16" s="1">
-        <v>3216438061.76</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C16" s="1">
-        <v>3139082692.54</v>
+        <v>3311931768.5</v>
       </c>
       <c r="D16" s="1">
-        <v>15501807654.48</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E16" s="1">
-        <v>21857328408.78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>22618006484.29</v>
+      </c>
+      <c r="F16" s="1">
+        <v>22778089729.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
-        <v>40816</v>
+        <v>40877</v>
       </c>
       <c r="B17" s="1">
-        <v>3211645130.63</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C17" s="1">
-        <v>3200272417.15</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D17" s="1">
-        <v>15478844686.83</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E17" s="1">
-        <v>21890762234.61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>22404833979.68</v>
+      </c>
+      <c r="F17" s="1">
+        <v>22555336103.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
-        <v>40847</v>
+        <v>40908</v>
       </c>
       <c r="B18" s="1">
-        <v>3317215603.4</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C18" s="1">
-        <v>3311931768.5</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D18" s="1">
-        <v>15988859112.39</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E18" s="1">
-        <v>22618006484.29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>22610739192.74</v>
+      </c>
+      <c r="F18" s="1">
+        <v>22760627152.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
-        <v>40877</v>
+        <v>40939</v>
       </c>
       <c r="B19" s="1">
-        <v>3279790855.17</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C19" s="1">
-        <v>3286738232.03</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D19" s="1">
-        <v>15838304892.48</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E19" s="1">
-        <v>22404833979.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>23182713107.18</v>
+      </c>
+      <c r="F19" s="1">
+        <v>23327836945.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
-        <v>40908</v>
+        <v>40968</v>
       </c>
       <c r="B20" s="1">
-        <v>3308515656.83</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C20" s="1">
-        <v>3322199318.6</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D20" s="1">
-        <v>15980024217.31</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E20" s="1">
-        <v>22610739192.74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>23539061638.97</v>
+      </c>
+      <c r="F20" s="1">
+        <v>23683533132.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
-        <v>40939</v>
+        <v>40999</v>
       </c>
       <c r="B21" s="1">
-        <v>3390714253.36</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C21" s="1">
-        <v>3411636959.78</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D21" s="1">
-        <v>16380361894.04</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E21" s="1">
-        <v>23182713107.18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>23568627738.57</v>
+      </c>
+      <c r="F21" s="1">
+        <v>23527415369.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
-        <v>40968</v>
+        <v>41029</v>
       </c>
       <c r="B22" s="1">
-        <v>3441357193.01</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C22" s="1">
-        <v>3465240303.9</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D22" s="1">
-        <v>16632464142.06</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E22" s="1">
-        <v>23539061638.97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>23751063285.04</v>
+      </c>
+      <c r="F22" s="1">
+        <v>23878250766.57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
-        <v>40999</v>
+        <v>41060</v>
       </c>
       <c r="B23" s="1">
-        <v>3594273253.88</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C23" s="1">
-        <v>3448893913.05</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D23" s="1">
-        <v>16525460571.64</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E23" s="1">
-        <v>23568627738.57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>23525356279.52</v>
+      </c>
+      <c r="F23" s="1">
+        <v>23642315685.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
-        <v>41029</v>
+        <v>41090</v>
       </c>
       <c r="B24" s="1">
-        <v>3620819218.91</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C24" s="1">
-        <v>3481026300.12</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D24" s="1">
-        <v>16649217766.01</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E24" s="1">
-        <v>23751063285.04</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>23967119998.88</v>
+      </c>
+      <c r="F24" s="1">
+        <v>23898064813.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
-        <v>41060</v>
+        <v>41121</v>
       </c>
       <c r="B25" s="1">
-        <v>3584994009.65</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C25" s="1">
-        <v>3453190328.12</v>
+        <v>3572637746.48</v>
       </c>
       <c r="D25" s="1">
-        <v>16487171941.75</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E25" s="1">
-        <v>23525356279.52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>24445194794.85</v>
+      </c>
+      <c r="F25" s="1">
+        <v>24549514764.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
-        <v>41090</v>
+        <v>41152</v>
       </c>
       <c r="B26" s="1">
-        <v>3803025610.44</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C26" s="1">
-        <v>3497243829.13</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D26" s="1">
-        <v>16666850559.31</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E26" s="1">
-        <v>23967119998.88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>24546339462.45</v>
+      </c>
+      <c r="F26" s="1">
+        <v>24642500384.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="3">
-        <v>41121</v>
+        <v>41182</v>
       </c>
       <c r="B27" s="1">
-        <v>3877728751.39</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C27" s="1">
-        <v>3572637746.48</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D27" s="1">
-        <v>16994828296.98</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E27" s="1">
-        <v>24445194794.85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>24697860539.92</v>
+      </c>
+      <c r="F27" s="1">
+        <v>25154181675.76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
-        <v>41152</v>
+        <v>41213</v>
       </c>
       <c r="B28" s="1">
-        <v>3892524075.7</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C28" s="1">
-        <v>3592909103.41</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D28" s="1">
-        <v>17060906283.34</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E28" s="1">
-        <v>24546339462.45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>24675789016.94</v>
+      </c>
+      <c r="F28" s="1">
+        <v>25125272400.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
-        <v>41182</v>
+        <v>41243</v>
       </c>
       <c r="B29" s="1">
-        <v>3915294252.8</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C29" s="1">
-        <v>3620604152.58</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D29" s="1">
-        <v>17161962134.54</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E29" s="1">
-        <v>24697860539.92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>24802412939.95</v>
+      </c>
+      <c r="F29" s="1">
+        <v>25245243669.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
-        <v>41213</v>
+        <v>41274</v>
       </c>
       <c r="B30" s="1">
-        <v>3910430761.85</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C30" s="1">
-        <v>3622924774.95</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D30" s="1">
-        <v>17142433480.14</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E30" s="1">
-        <v>24675789016.94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>24895888004.03</v>
+      </c>
+      <c r="F30" s="1">
+        <v>25331489787.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="3">
-        <v>41243</v>
+        <v>41305</v>
       </c>
       <c r="B31" s="1">
-        <v>3929018216.4</v>
+        <v>3991599105.71</v>
       </c>
       <c r="C31" s="1">
-        <v>3646999015.16</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D31" s="1">
-        <v>17226395708.39</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E31" s="1">
-        <v>24802412939.95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>25170522714.13</v>
+      </c>
+      <c r="F31" s="1">
+        <v>26333049791.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="3">
-        <v>41274</v>
+        <v>41333</v>
       </c>
       <c r="B32" s="1">
-        <v>3949731061.55</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C32" s="1">
-        <v>3654809047.65</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D32" s="1">
-        <v>17291347894.83</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E32" s="1">
-        <v>24895888004.03</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>25279217396.12</v>
+      </c>
+      <c r="F32" s="1">
+        <v>26437887737.61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="3">
-        <v>41305</v>
+        <v>41364</v>
       </c>
       <c r="B33" s="1">
-        <v>3991599105.71</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C33" s="1">
-        <v>4490569394.41</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D33" s="1">
-        <v>16688354214.01</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E33" s="1">
-        <v>25170522714.13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>25595621001.76</v>
+      </c>
+      <c r="F33" s="1">
+        <v>26762244859.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="3">
-        <v>41333</v>
+        <v>41394</v>
       </c>
       <c r="B34" s="1">
-        <v>4007467353.78</v>
+        <v>4145409199.46</v>
       </c>
       <c r="C34" s="1">
-        <v>4511270646.88</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D34" s="1">
-        <v>16760479395.46</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E34" s="1">
-        <v>25279217396.12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>26172966159.6</v>
+      </c>
+      <c r="F34" s="1">
+        <v>27354266269.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="3">
-        <v>41364</v>
+        <v>41425</v>
       </c>
       <c r="B35" s="1">
-        <v>4055824611.3</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C35" s="1">
-        <v>4573664426.03</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D35" s="1">
-        <v>16966131964.43</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E35" s="1">
-        <v>25595621001.76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>25673994810.38</v>
+      </c>
+      <c r="F35" s="1">
+        <v>26825680454.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="3">
-        <v>41394</v>
+        <v>41455</v>
       </c>
       <c r="B36" s="1">
-        <v>4145409199.46</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C36" s="1">
-        <v>4682846886.27</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D36" s="1">
-        <v>17344710073.87</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E36" s="1">
-        <v>26172966159.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>25144254258.35</v>
+      </c>
+      <c r="F36" s="1">
+        <v>26265676510.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3">
-        <v>41425</v>
+        <v>41486</v>
       </c>
       <c r="B37" s="1">
-        <v>4064569702.63</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C37" s="1">
-        <v>4599347535.9</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D37" s="1">
-        <v>17010077571.85</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E37" s="1">
-        <v>25673994810.38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>25436691656.9</v>
+      </c>
+      <c r="F37" s="1">
+        <v>26565709631.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3">
-        <v>41455</v>
+        <v>41517</v>
       </c>
       <c r="B38" s="1">
-        <v>3978796970.09</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C38" s="1">
-        <v>4510251396.91</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D38" s="1">
-        <v>16655205891.35</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E38" s="1">
-        <v>25144254258.35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>25090707293.91</v>
+      </c>
+      <c r="F38" s="1">
+        <v>26201572226.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="3">
-        <v>41486</v>
+        <v>41547</v>
       </c>
       <c r="B39" s="1">
-        <v>4023056820.86</v>
+        <v>4033439753.48</v>
       </c>
       <c r="C39" s="1">
-        <v>4568724212.7</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D39" s="1">
-        <v>16844910623.34</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E39" s="1">
-        <v>25436691656.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>25528497279.93</v>
+      </c>
+      <c r="F39" s="1">
+        <v>26650940234.76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="3">
-        <v>41517</v>
+        <v>41578</v>
       </c>
       <c r="B40" s="1">
-        <v>3966340296.1</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C40" s="1">
-        <v>4512507452.03</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D40" s="1">
-        <v>16611859545.78</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E40" s="1">
-        <v>25090707293.91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>26027364114.18</v>
+      </c>
+      <c r="F40" s="1">
+        <v>27164746657.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3">
-        <v>41547</v>
+        <v>41608</v>
       </c>
       <c r="B41" s="1">
-        <v>4033439753.48</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C41" s="1">
-        <v>4749762591.53</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D41" s="1">
-        <v>16745294934.92</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E41" s="1">
-        <v>25528497279.93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>26003820925.72</v>
+      </c>
+      <c r="F41" s="1">
+        <v>27132210456.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="3">
-        <v>41578</v>
+        <v>41639</v>
       </c>
       <c r="B42" s="1">
-        <v>4110020215.55</v>
+        <v>4121232839.29</v>
       </c>
       <c r="C42" s="1">
-        <v>4848589342.72</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D42" s="1">
-        <v>17068754555.91</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E42" s="1">
-        <v>26027364114.18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>26126288441.74</v>
+      </c>
+      <c r="F42" s="1">
+        <v>27253687582.98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="3">
-        <v>41608</v>
+        <v>41670</v>
       </c>
       <c r="B43" s="1">
-        <v>4104202981.72</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C43" s="1">
-        <v>4850653743.4</v>
+        <v>4882894726.29</v>
       </c>
       <c r="D43" s="1">
-        <v>17048964200.6</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E43" s="1">
-        <v>26003820925.72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>26107696311.48</v>
+      </c>
+      <c r="F43" s="1">
+        <v>27226639980.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="3">
-        <v>41639</v>
+        <v>41698</v>
       </c>
       <c r="B44" s="1">
-        <v>4121232839.29</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C44" s="1">
-        <v>4879983265.38</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D44" s="1">
-        <v>17125072337.07</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E44" s="1">
-        <v>26126288441.74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>26638164824.17</v>
+      </c>
+      <c r="F44" s="1">
+        <v>27769593035.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="3">
-        <v>41670</v>
+        <v>41729</v>
       </c>
       <c r="B45" s="1">
-        <v>4116223144.44</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C45" s="1">
-        <v>4882894726.29</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D45" s="1">
-        <v>17108578440.75</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E45" s="1">
-        <v>26107696311.48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>26770056497.39</v>
+      </c>
+      <c r="F45" s="1">
+        <v>27900602168.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="3">
-        <v>41698</v>
+        <v>41759</v>
       </c>
       <c r="B46" s="1">
-        <v>4197240949.36</v>
+        <v>4212492467.73</v>
       </c>
       <c r="C46" s="1">
-        <v>4988729007.27</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D46" s="1">
-        <v>17452194867.54</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E46" s="1">
-        <v>26638164824.17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>26766109574.18</v>
+      </c>
+      <c r="F46" s="1">
+        <v>27889292662.49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="3">
-        <v>41729</v>
+        <v>41790</v>
       </c>
       <c r="B47" s="1">
-        <v>4215464347.87</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C47" s="1">
-        <v>5019984158.58</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D47" s="1">
-        <v>17534607990.94</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E47" s="1">
-        <v>26770056497.39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>27191987348.25</v>
+      </c>
+      <c r="F47" s="1">
+        <v>28325272289.23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="3">
-        <v>41759</v>
+        <v>41820</v>
       </c>
       <c r="B48" s="1">
-        <v>4212492467.73</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C48" s="1">
-        <v>5026144812.31</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D48" s="1">
-        <v>17527472294.14</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E48" s="1">
-        <v>26766109574.18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>27325686546.76</v>
+      </c>
+      <c r="F48" s="1">
+        <v>28472678681.56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="3">
-        <v>41790</v>
+        <v>41851</v>
       </c>
       <c r="B49" s="1">
-        <v>4276832512.93</v>
+        <v>4265451845</v>
       </c>
       <c r="C49" s="1">
-        <v>5112975530.56</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D49" s="1">
-        <v>17802179304.76</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E49" s="1">
-        <v>27191987348.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>27156839042.76</v>
+      </c>
+      <c r="F49" s="1">
+        <v>28289948331.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
-        <v>41820</v>
+        <v>41882</v>
       </c>
       <c r="B50" s="1">
-        <v>4295140983.11</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C50" s="1">
-        <v>5144862372.52</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D50" s="1">
-        <v>17885683191.13</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E50" s="1">
-        <v>27325686546.76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>27744206657.43</v>
+      </c>
+      <c r="F50" s="1">
+        <v>28894470491.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="3">
-        <v>41851</v>
+        <v>41912</v>
       </c>
       <c r="B51" s="1">
-        <v>4265451845</v>
+        <v>4258151023.04</v>
       </c>
       <c r="C51" s="1">
-        <v>5119794037.99</v>
+        <v>5131976211.71</v>
       </c>
       <c r="D51" s="1">
-        <v>17771593159.77</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E51" s="1">
-        <v>27156839042.76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>27150660877.68</v>
+      </c>
+      <c r="F51" s="1">
+        <v>28271789225.71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
-        <v>41882</v>
+        <v>41943</v>
       </c>
       <c r="B52" s="1">
-        <v>4354547211.12</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C52" s="1">
-        <v>5237452701.82</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D52" s="1">
-        <v>18152206744.49</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E52" s="1">
-        <v>27744206657.43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>27371725833.13</v>
+      </c>
+      <c r="F52" s="1">
+        <v>28498525017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="3">
-        <v>41912</v>
+        <v>41973</v>
       </c>
       <c r="B53" s="1">
-        <v>4258151023.04</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C53" s="1">
-        <v>5131976211.71</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D53" s="1">
-        <v>17760533642.93</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E53" s="1">
-        <v>27150660877.68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>27755933978.37</v>
+      </c>
+      <c r="F53" s="1">
+        <v>28890460746.39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="3">
-        <v>41943</v>
+        <v>42004</v>
       </c>
       <c r="B54" s="1">
-        <v>4285163976.8</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C54" s="1">
-        <v>5172926233.01</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D54" s="1">
-        <v>17913635623.32</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E54" s="1">
-        <v>27371725833.13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>28782428258.71</v>
+      </c>
+      <c r="F54" s="1">
+        <v>29909163526.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="3">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="B55" s="1">
-        <v>4341696562.65</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C55" s="1">
-        <v>5252461885.84</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D55" s="1">
-        <v>18161775529.88</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E55" s="1">
-        <v>27755933978.37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>29378034101.34</v>
+      </c>
+      <c r="F55" s="1">
+        <v>30520363399.73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="3">
-        <v>42004</v>
+        <v>42063</v>
       </c>
       <c r="B56" s="1">
-        <v>4986611512.07</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C56" s="1">
-        <v>5448191101.38</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D56" s="1">
-        <v>18347625645.26</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E56" s="1">
-        <v>28782428258.71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>29527722140.57</v>
+      </c>
+      <c r="F56" s="1">
+        <v>30682678579.16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="3">
-        <v>42035</v>
+        <v>42094</v>
       </c>
       <c r="B57" s="1">
-        <v>5087365130.35</v>
+        <v>5098528846.54</v>
       </c>
       <c r="C57" s="1">
-        <v>5567918737.12</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D57" s="1">
-        <v>18722750233.87</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E57" s="1">
-        <v>29378034101.34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>29472205126.79</v>
+      </c>
+      <c r="F57" s="1">
+        <v>30617803151.79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="3">
-        <v>42063</v>
+        <v>42124</v>
       </c>
       <c r="B58" s="1">
-        <v>5110739057.82</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C58" s="1">
-        <v>5603210665.94</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D58" s="1">
-        <v>18813772416.81</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E58" s="1">
-        <v>29527722140.57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>29408637463</v>
+      </c>
+      <c r="F58" s="1">
+        <v>30544085686.26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="3">
-        <v>42094</v>
+        <v>42155</v>
       </c>
       <c r="B59" s="1">
-        <v>5098528846.54</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C59" s="1">
-        <v>5599621915.28</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D59" s="1">
-        <v>18774054364.97</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E59" s="1">
-        <v>29472205126.79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>29288010554.98</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30411241858.39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="3">
-        <v>42124</v>
+        <v>42185</v>
       </c>
       <c r="B60" s="1">
-        <v>5084901351.07</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C60" s="1">
-        <v>5594550723.83</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D60" s="1">
-        <v>18729185388.1</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E60" s="1">
-        <v>29408637463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>28650016749.03</v>
+      </c>
+      <c r="F60" s="1">
+        <v>29741788892.27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="3">
-        <v>42155</v>
+        <v>42216</v>
       </c>
       <c r="B61" s="1">
-        <v>5061385747.15</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C61" s="1">
-        <v>5578675769.67</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D61" s="1">
-        <v>18647949038.16</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E61" s="1">
-        <v>29288010554.98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>28876185070.36</v>
+      </c>
+      <c r="F61" s="1">
+        <v>29968273775.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="3">
-        <v>42185</v>
+        <v>42247</v>
       </c>
       <c r="B62" s="1">
-        <v>4948449143.55</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C62" s="1">
-        <v>5464086350.67</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D62" s="1">
-        <v>18237481254.81</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E62" s="1">
-        <v>28650016749.03</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>28013929187.9</v>
+      </c>
+      <c r="F62" s="1">
+        <v>29066322305.74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="3">
-        <v>42216</v>
+        <v>42277</v>
       </c>
       <c r="B63" s="1">
-        <v>4984734110.66</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C63" s="1">
-        <v>5514366076.03</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D63" s="1">
-        <v>18377084883.67</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E63" s="1">
-        <v>28876185070.36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>27687614897.05</v>
+      </c>
+      <c r="F63" s="1">
+        <v>28720022246.88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="3">
-        <v>42247</v>
+        <v>42308</v>
       </c>
       <c r="B64" s="1">
-        <v>4833324327.11</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C64" s="1">
-        <v>5356648129.15</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D64" s="1">
-        <v>17823956731.64</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E64" s="1">
-        <v>28013929187.9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>28326347037.87</v>
+      </c>
+      <c r="F64" s="1">
+        <v>29360507839.81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="3">
-        <v>42277</v>
+        <v>42338</v>
       </c>
       <c r="B65" s="1">
-        <v>4774352359.51</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C65" s="1">
-        <v>5301454591.47</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D65" s="1">
-        <v>17611807946.07</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E65" s="1">
-        <v>27687614897.05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>28136561001.15</v>
+      </c>
+      <c r="F65" s="1">
+        <v>29172575288.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="3">
-        <v>42308</v>
+        <v>42369</v>
       </c>
       <c r="B66" s="1">
-        <v>4880247836.65</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C66" s="1">
-        <v>5397632819.49</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D66" s="1">
-        <v>18048466381.73</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E66" s="1">
-        <v>28326347037.87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>28846254608.33</v>
+      </c>
+      <c r="F66" s="1">
+        <v>29862597627.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="3">
-        <v>42338</v>
+        <v>42400</v>
       </c>
       <c r="B67" s="1">
-        <v>4844551814.11</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C67" s="1">
-        <v>5368571908.98</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D67" s="1">
-        <v>17923437278.06</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E67" s="1">
-        <v>28136561001.15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>28336372866.16</v>
+      </c>
+      <c r="F67" s="1">
+        <v>29326075448.69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="3">
-        <v>42369</v>
+        <v>42429</v>
       </c>
       <c r="B68" s="1">
-        <v>5415576742.55</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C68" s="1">
-        <v>5709868087.27</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D68" s="1">
-        <v>17720809778.51</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E68" s="1">
-        <v>28846254608.33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>28455678308.47</v>
+      </c>
+      <c r="F68" s="1">
+        <v>29440765726.48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="3">
-        <v>42400</v>
+        <v>42460</v>
       </c>
       <c r="B69" s="1">
-        <v>5318083756.35</v>
+        <v>5505915040.5</v>
       </c>
       <c r="C69" s="1">
-        <v>5616578571.14</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D69" s="1">
-        <v>17401710538.67</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E69" s="1">
-        <v>28336372866.16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>29356671897.69</v>
+      </c>
+      <c r="F69" s="1">
+        <v>30362580685</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="3">
-        <v>42429</v>
+        <v>42490</v>
       </c>
       <c r="B70" s="1">
-        <v>5338694185.85</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C70" s="1">
-        <v>5647936294.45</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D70" s="1">
-        <v>17469047828.17</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E70" s="1">
-        <v>28455678308.47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>29542027110.35</v>
+      </c>
+      <c r="F70" s="1">
+        <v>30560223568.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="3">
-        <v>42460</v>
+        <v>42521</v>
       </c>
       <c r="B71" s="1">
-        <v>5505915040.5</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C71" s="1">
-        <v>5834802926.8</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D71" s="1">
-        <v>18015953930.39</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E71" s="1">
-        <v>29356671897.69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>29511421101.44</v>
+      </c>
+      <c r="F71" s="1">
+        <v>30520464418.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="3">
-        <v>42490</v>
+        <v>42551</v>
       </c>
       <c r="B72" s="1">
-        <v>5538988181.45</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C72" s="1">
-        <v>5879483219.72</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D72" s="1">
-        <v>18123555709.18</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E72" s="1">
-        <v>29542027110.35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>29721833433.55</v>
+      </c>
+      <c r="F72" s="1">
+        <v>30728992338.24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="3">
-        <v>42521</v>
+        <v>42582</v>
       </c>
       <c r="B73" s="1">
-        <v>5531594102.95</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C73" s="1">
-        <v>5881279255.87</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D73" s="1">
-        <v>18098547742.62</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E73" s="1">
-        <v>29511421101.44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>30265143212.71</v>
+      </c>
+      <c r="F73" s="1">
+        <v>31280132371.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="3">
-        <v>42551</v>
+        <v>42613</v>
       </c>
       <c r="B74" s="1">
-        <v>5569334217.76</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C74" s="1">
-        <v>5931068967.2</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D74" s="1">
-        <v>18221430248.59</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E74" s="1">
-        <v>29721833433.55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>30212255260.83</v>
+      </c>
+      <c r="F74" s="1">
+        <v>31218710837.63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="3">
-        <v>42582</v>
+        <v>42643</v>
       </c>
       <c r="B75" s="1">
-        <v>5669685323.09</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C75" s="1">
-        <v>6047546128.94</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D75" s="1">
-        <v>18547911760.68</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E75" s="1">
-        <v>30265143212.71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>31311189264.37</v>
+      </c>
+      <c r="F75" s="1">
+        <v>32306086725.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="3">
-        <v>42613</v>
+        <v>42674</v>
       </c>
       <c r="B76" s="1">
-        <v>5658306874.65</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C76" s="1">
-        <v>6044991482.23</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D76" s="1">
-        <v>18508956903.95</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E76" s="1">
-        <v>30212255260.83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>30735701818.56</v>
+      </c>
+      <c r="F76" s="1">
+        <v>31707560542.83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="3">
-        <v>42643</v>
+        <v>42704</v>
       </c>
       <c r="B77" s="1">
-        <v>6047292088.02</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C77" s="1">
-        <v>6489780168.17</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D77" s="1">
-        <v>18774117008.18</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E77" s="1">
-        <v>31311189264.37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>30294149402.87</v>
+      </c>
+      <c r="F77" s="1">
+        <v>31243895035.79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="3">
-        <v>42674</v>
+        <v>42735</v>
       </c>
       <c r="B78" s="1">
-        <v>5944249077.31</v>
+        <v>6253513976.5</v>
       </c>
       <c r="C78" s="1">
-        <v>6361287062.33</v>
+        <v>6361809245.25</v>
       </c>
       <c r="D78" s="1">
-        <v>18430165678.92</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E78" s="1">
-        <v>30735701818.56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>31134559706.61</v>
+      </c>
+      <c r="F78" s="1">
+        <v>31993862117.18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="3">
-        <v>42704</v>
+        <v>42766</v>
       </c>
       <c r="B79" s="1">
-        <v>5857951330.08</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C79" s="1">
-        <v>6278318762.68</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D79" s="1">
-        <v>18157879310.11</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E79" s="1">
-        <v>30294149402.87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>31406628721.6</v>
+      </c>
+      <c r="F79" s="1">
+        <v>32272409430.99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="3">
-        <v>42735</v>
+        <v>42794</v>
       </c>
       <c r="B80" s="1">
-        <v>6253513976.5</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C80" s="1">
-        <v>6361809245.25</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D80" s="1">
-        <v>18519236484.86</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E80" s="1">
-        <v>31134559706.61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>31862928265.29</v>
+      </c>
+      <c r="F80" s="1">
+        <v>32847863724.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="3">
-        <v>42766</v>
+        <v>42825</v>
       </c>
       <c r="B81" s="1">
-        <v>6308462886.34</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C81" s="1">
-        <v>6425317655.9</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D81" s="1">
-        <v>18672848179.36</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E81" s="1">
-        <v>31406628721.6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>34237217759.41</v>
+      </c>
+      <c r="F81" s="1">
+        <v>35227095408.74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="3">
-        <v>42794</v>
+        <v>42855</v>
       </c>
       <c r="B82" s="1">
-        <v>6400976668.18</v>
+        <v>7176134170.54</v>
       </c>
       <c r="C82" s="1">
-        <v>6526279467.15</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D82" s="1">
-        <v>18935672129.96</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E82" s="1">
-        <v>31862928265.29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>34601219933.72</v>
+      </c>
+      <c r="F82" s="1">
+        <v>35605325711.35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="3">
-        <v>42825</v>
+        <v>42886</v>
       </c>
       <c r="B83" s="1">
-        <v>7099971446.02</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C83" s="1">
-        <v>7337629420.28</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D83" s="1">
-        <v>19799616893.11</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E83" s="1">
-        <v>34237217759.41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>35025479666.84</v>
+      </c>
+      <c r="F83" s="1">
+        <v>36045330946.54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="3">
-        <v>42855</v>
+        <v>42916</v>
       </c>
       <c r="B84" s="1">
-        <v>7176134170.54</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C84" s="1">
-        <v>7422733235.89</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D84" s="1">
-        <v>20002352527.29</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E84" s="1">
-        <v>34601219933.72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>35106583260.6</v>
+      </c>
+      <c r="F84" s="1">
+        <v>36131069554.68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="3">
-        <v>42886</v>
+        <v>42947</v>
       </c>
       <c r="B85" s="1">
-        <v>7264954337.05</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C85" s="1">
-        <v>7523682920.77</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D85" s="1">
-        <v>20236842409.02</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E85" s="1">
-        <v>35025479666.84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>35405791867.57</v>
+      </c>
+      <c r="F85" s="1">
+        <v>36440249931.02</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="3">
-        <v>42916</v>
+        <v>42978</v>
       </c>
       <c r="B86" s="1">
-        <v>7282406497.08</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C86" s="1">
-        <v>7549356808.18</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D86" s="1">
-        <v>20274819955.34</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E86" s="1">
-        <v>35106583260.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>35685515267.03</v>
+      </c>
+      <c r="F86" s="1">
+        <v>36731307884.26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="3">
-        <v>42947</v>
+        <v>43008</v>
       </c>
       <c r="B87" s="1">
-        <v>7343644210.4</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C87" s="1">
-        <v>7623588366.49</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D87" s="1">
-        <v>20438559290.68</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E87" s="1">
-        <v>35405791867.57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>35874943914.43</v>
+      </c>
+      <c r="F87" s="1">
+        <v>36929261044</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="3">
-        <v>42978</v>
+        <v>43039</v>
       </c>
       <c r="B88" s="1">
-        <v>7401114464.44</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C88" s="1">
-        <v>7693916997.08</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D88" s="1">
-        <v>20590483805.51</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E88" s="1">
-        <v>35685515267.03</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>36114919745.74</v>
+      </c>
+      <c r="F88" s="1">
+        <v>37181963756.37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="3">
-        <v>43008</v>
+        <v>43069</v>
       </c>
       <c r="B89" s="1">
-        <v>7439354518.62</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C89" s="1">
-        <v>7744728806.72</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D89" s="1">
-        <v>20690860589.09</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E89" s="1">
-        <v>35874943914.43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>36495613500.11</v>
+      </c>
+      <c r="F89" s="1">
+        <v>37576800847.56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="3">
-        <v>43039</v>
+        <v>43100</v>
       </c>
       <c r="B90" s="1">
-        <v>7501162607.24</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C90" s="1">
-        <v>7797612927.14</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D90" s="1">
-        <v>20816144211.36</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E90" s="1">
-        <v>36114919745.74</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>41856058020.2</v>
+      </c>
+      <c r="F90" s="1">
+        <v>37949036056.54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="3">
-        <v>43069</v>
+        <v>43131</v>
       </c>
       <c r="B91" s="1">
-        <v>7578785278.66</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C91" s="1">
-        <v>7890046689.69</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D91" s="1">
-        <v>21026781531.76</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E91" s="1">
-        <v>36495613500.11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>42583718320.38</v>
+      </c>
+      <c r="F91" s="1">
+        <v>36126703368.99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="3">
-        <v>43100</v>
+        <v>43159</v>
       </c>
       <c r="B92" s="1">
-        <v>9002210135.43</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C92" s="1">
-        <v>8628245002.959999</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D92" s="1">
-        <v>24225602881.81</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E92" s="1">
-        <v>41856058020.2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>41211648261.71</v>
+      </c>
+      <c r="F92" s="1">
+        <v>34947041283.19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="3">
-        <v>43131</v>
+        <v>43190</v>
       </c>
       <c r="B93" s="1">
-        <v>9202610590.719999</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C93" s="1">
-        <v>8830545061.309999</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D93" s="1">
-        <v>24550562668.35</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E93" s="1">
-        <v>42583718320.38</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>41345470043.96999</v>
+      </c>
+      <c r="F93" s="1">
+        <v>34893565647.81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="3">
-        <v>43159</v>
+        <v>43220</v>
       </c>
       <c r="B94" s="1">
-        <v>8905152042.110001</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C94" s="1">
-        <v>8554843302.12</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D94" s="1">
-        <v>23751652917.48</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E94" s="1">
-        <v>41211648261.71</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>41046760638.73</v>
+      </c>
+      <c r="F94" s="1">
+        <v>34718322290.49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="3">
-        <v>43190</v>
+        <v>43251</v>
       </c>
       <c r="B95" s="1">
-        <v>8894650969.91</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C95" s="1">
-        <v>8555117311.3</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D95" s="1">
-        <v>23895701762.76</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E95" s="1">
-        <v>41345470043.96999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>41313232056.15</v>
+      </c>
+      <c r="F95" s="1">
+        <v>34853430635.59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="3">
-        <v>43220</v>
+        <v>43281</v>
       </c>
       <c r="B96" s="1">
-        <v>8853026337.98</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C96" s="1">
-        <v>8525561703.78</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D96" s="1">
-        <v>23668172596.97</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E96" s="1">
-        <v>41046760638.73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>41121031725</v>
+      </c>
+      <c r="F96" s="1">
+        <v>34649138195.13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="3">
-        <v>43251</v>
+        <v>43312</v>
       </c>
       <c r="B97" s="1">
-        <v>8890561971.129999</v>
+        <v>8936073454</v>
       </c>
       <c r="C97" s="1">
-        <v>8572549061.9</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D97" s="1">
-        <v>23850121023.12</v>
+        <v>23810581356</v>
       </c>
       <c r="E97" s="1">
-        <v>41313232056.15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>41384588267.64</v>
+      </c>
+      <c r="F97" s="1">
+        <v>35007279828.93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="3">
-        <v>43281</v>
+        <v>43343</v>
       </c>
       <c r="B98" s="1">
-        <v>8841470603.15</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C98" s="1">
-        <v>8535731069.89</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D98" s="1">
-        <v>23743830051.96</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E98" s="1">
-        <v>41121031725</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>41662803021.32</v>
+      </c>
+      <c r="F98" s="1">
+        <v>35185061352.95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="3">
-        <v>43312</v>
+        <v>43373</v>
       </c>
       <c r="B99" s="1">
-        <v>8936073454</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C99" s="1">
-        <v>8637933457.639999</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D99" s="1">
-        <v>23810581356</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E99" s="1">
-        <v>41384588267.64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>41186947565</v>
+      </c>
+      <c r="F99" s="1">
+        <v>34897241234.02</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="3">
-        <v>43343</v>
+        <v>43404</v>
       </c>
       <c r="B100" s="1">
-        <v>8984375598.66</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C100" s="1">
-        <v>8696018228.42</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D100" s="1">
-        <v>23982409194.24</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E100" s="1">
-        <v>41662803021.32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>39383035110.98</v>
+      </c>
+      <c r="F100" s="1">
+        <v>33324461630.84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="3">
-        <v>43373</v>
+        <v>43434</v>
       </c>
       <c r="B101" s="1">
-        <v>8913881251.4</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C101" s="1">
-        <v>8639086304.16</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D101" s="1">
-        <v>23633980009.44</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E101" s="1">
-        <v>41186947565</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>39775163930.18</v>
+      </c>
+      <c r="F101" s="1">
+        <v>33590951046.18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="3">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="B102" s="1">
-        <v>8522844994.4</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C102" s="1">
-        <v>8244001106.42</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D102" s="1">
-        <v>22616189010.16</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E102" s="1">
-        <v>39383035110.98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>39522985371.47</v>
+      </c>
+      <c r="F102" s="1">
+        <v>32936056236.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="3">
-        <v>43434</v>
+        <v>43496</v>
       </c>
       <c r="B103" s="1">
-        <v>8594776142.139999</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C103" s="1">
-        <v>8324970365.95</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D103" s="1">
-        <v>22855417422.09</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E103" s="1">
-        <v>39775163930.18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>40670053634.92</v>
+      </c>
+      <c r="F103" s="1">
+        <v>34114984114.15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="3">
-        <v>43465</v>
+        <v>43524</v>
       </c>
       <c r="B104" s="1">
-        <v>8430913509.88</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C104" s="1">
-        <v>8177279951.57</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D104" s="1">
-        <v>22914791910.02</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E104" s="1">
-        <v>39522985371.47</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>40797813026.7</v>
+      </c>
+      <c r="F104" s="1">
+        <v>34345800814.97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="3">
-        <v>43496</v>
+        <v>43555</v>
       </c>
       <c r="B105" s="1">
-        <v>8716930851.969999</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C105" s="1">
-        <v>8466374243.34</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D105" s="1">
-        <v>23486748539.61</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E105" s="1">
-        <v>40670053634.92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>41816102147.74</v>
+      </c>
+      <c r="F105" s="1">
+        <v>34951519519.29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="3">
-        <v>43524</v>
+        <v>43585</v>
       </c>
       <c r="B106" s="1">
-        <v>8780002278.02</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C106" s="1">
-        <v>8538970109.85</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D106" s="1">
-        <v>23478840638.83</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E106" s="1">
-        <v>40797813026.7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>42743107013</v>
+      </c>
+      <c r="F106" s="1">
+        <v>35544104423.43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="3">
-        <v>43555</v>
+        <v>43616</v>
       </c>
       <c r="B107" s="1">
-        <v>8939502054.139999</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C107" s="1">
-        <v>8705342961.4</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D107" s="1">
-        <v>24171257132.2</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E107" s="1">
-        <v>41816102147.74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>43049605454.39</v>
+      </c>
+      <c r="F107" s="1">
+        <v>35353126027.34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="3">
-        <v>43585</v>
+        <v>43646</v>
       </c>
       <c r="B108" s="1">
-        <v>9008244776.280001</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C108" s="1">
-        <v>9126959379.24</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D108" s="1">
-        <v>24607902857.48</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E108" s="1">
-        <v>42743107013</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>44201897165.55</v>
+      </c>
+      <c r="F108" s="1">
+        <v>36407955381.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="3">
-        <v>43616</v>
+        <v>43677</v>
       </c>
       <c r="B109" s="1">
-        <v>8944260855.860001</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C109" s="1">
-        <v>9074029379.02</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D109" s="1">
-        <v>25031315219.51</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E109" s="1">
-        <v>43049605454.39</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>44289278505.62</v>
+      </c>
+      <c r="F109" s="1">
+        <v>36475732007.89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="3">
-        <v>43646</v>
+        <v>43708</v>
       </c>
       <c r="B110" s="1">
-        <v>9215995868.950001</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C110" s="1">
-        <v>9361706609.469999</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D110" s="1">
-        <v>25624194687.13</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E110" s="1">
-        <v>44201897165.55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>46120311881.3</v>
+      </c>
+      <c r="F110" s="1">
+        <v>37237277255.72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="3">
-        <v>43677</v>
+        <v>43738</v>
       </c>
       <c r="B111" s="1">
-        <v>9238385070.67</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C111" s="1">
-        <v>9396108735.549999</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D111" s="1">
-        <v>25654784699.4</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E111" s="1">
-        <v>44289278505.62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>46949593594.97</v>
+      </c>
+      <c r="F111" s="1">
+        <v>37278149188.28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="3">
-        <v>43708</v>
+        <v>43769</v>
       </c>
       <c r="B112" s="1">
-        <v>9436337524.57</v>
+        <v>10608252625.24</v>
       </c>
       <c r="C112" s="1">
-        <v>9608738306.559999</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D112" s="1">
-        <v>27075236050.17</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E112" s="1">
-        <v>46120311881.3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>46865708662.23</v>
+      </c>
+      <c r="F112" s="1">
+        <v>45620639518.53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="3">
-        <v>43738</v>
+        <v>43799</v>
       </c>
       <c r="B113" s="1">
-        <v>10602215448.62</v>
+        <v>10692316903.4</v>
       </c>
       <c r="C113" s="1">
-        <v>9614794478.780001</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D113" s="1">
-        <v>26732583667.57</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E113" s="1">
-        <v>46949593594.97</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>47123617172.53</v>
+      </c>
+      <c r="F113" s="1">
+        <v>46986534776.59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="3">
-        <v>43769</v>
+        <v>43830</v>
       </c>
       <c r="B114" s="1">
-        <v>10608252625.24</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C114" s="1">
-        <v>9625407467.91</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D114" s="1">
-        <v>26632048569.08</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E114" s="1">
-        <v>46865708662.23</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>46141633527.96</v>
+      </c>
+      <c r="F114" s="1">
+        <v>46024238147.58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="3">
-        <v>43799</v>
+        <v>43861</v>
       </c>
       <c r="B115" s="1">
-        <v>10692316903.4</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C115" s="1">
-        <v>9713037686.17</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D115" s="1">
-        <v>26718262582.96</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E115" s="1">
-        <v>47123617172.53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>47197661020.02</v>
+      </c>
+      <c r="F115" s="1">
+        <v>47145264898.48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="3">
-        <v>43830</v>
+        <v>43890</v>
       </c>
       <c r="B116" s="1">
-        <v>10758442213.97</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C116" s="1">
-        <v>9477691033.26</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D116" s="1">
-        <v>25905500280.73</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E116" s="1">
-        <v>46141633527.96</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>47123824802.83</v>
+      </c>
+      <c r="F116" s="1">
+        <v>47102840330.35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="3">
-        <v>43861</v>
+        <v>43921</v>
       </c>
       <c r="B117" s="1">
-        <v>10840639312.88</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C117" s="1">
-        <v>9555218261.01</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D117" s="1">
-        <v>26801803446.13</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E117" s="1">
-        <v>47197661020.02</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>45204026385.17001</v>
+      </c>
+      <c r="F117" s="1">
+        <v>45203532515.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="3">
-        <v>43890</v>
+        <v>43951</v>
       </c>
       <c r="B118" s="1">
-        <v>10574286223.88</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C118" s="1">
-        <v>9338936485.4</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D118" s="1">
-        <v>27210602093.55</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E118" s="1">
-        <v>47123824802.83</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>47064011332.71</v>
+      </c>
+      <c r="F118" s="1">
+        <v>47063659448.95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="3">
-        <v>43921</v>
+        <v>43982</v>
       </c>
       <c r="B119" s="1">
-        <v>9764305551.360001</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C119" s="1">
-        <v>8664875030.02</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D119" s="1">
-        <v>26774845803.79</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E119" s="1">
-        <v>45204026385.17001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>47081138950.00999</v>
+      </c>
+      <c r="F119" s="1">
+        <v>47080894938.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="3">
-        <v>43951</v>
+        <v>44012</v>
       </c>
       <c r="B120" s="1">
-        <v>10283094677.36</v>
+        <v>10514205392.24</v>
       </c>
       <c r="C120" s="1">
-        <v>9107006952.52</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D120" s="1">
-        <v>27673909702.83</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E120" s="1">
-        <v>47064011332.71</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>47426564864.18</v>
+      </c>
+      <c r="F120" s="1">
+        <v>47425304505.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="3">
-        <v>43982</v>
+        <v>44043</v>
       </c>
       <c r="B121" s="1">
-        <v>10409182664.05</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C121" s="1">
-        <v>9213245024.98</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D121" s="1">
-        <v>27458711260.98</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E121" s="1">
-        <v>47081138950.00999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>49195665095.83</v>
+      </c>
+      <c r="F121" s="1">
+        <v>49191446952.15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="3">
-        <v>44012</v>
+        <v>44074</v>
       </c>
       <c r="B122" s="1">
-        <v>10514205392.24</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C122" s="1">
-        <v>9308097696.17</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D122" s="1">
-        <v>27604261775.77</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E122" s="1">
-        <v>47426564864.18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>48906083609.04</v>
+      </c>
+      <c r="F122" s="1">
+        <v>48904844973.57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="3">
-        <v>44043</v>
+        <v>44104</v>
       </c>
       <c r="B123" s="1">
-        <v>10849449410.81</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C123" s="1">
-        <v>9606421868.530001</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D123" s="1">
-        <v>28739793816.49</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E123" s="1">
-        <v>49195665095.83</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>49328692500.60999</v>
+      </c>
+      <c r="F123" s="1">
+        <v>49327891655.97</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="3">
-        <v>44074</v>
+        <v>44135</v>
       </c>
       <c r="B124" s="1">
-        <v>11005151438.13</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C124" s="1">
-        <v>9743289163.68</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D124" s="1">
-        <v>28157643007.23</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E124" s="1">
-        <v>48906083609.04</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>48026054531.55</v>
+      </c>
+      <c r="F124" s="1">
+        <v>48024908266.78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="3">
-        <v>44104</v>
+        <v>44165</v>
       </c>
       <c r="B125" s="1">
-        <v>11506934819.12</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C125" s="1">
-        <v>9894562298.549999</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D125" s="1">
-        <v>27927195382.94</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E125" s="1">
-        <v>49328692500.60999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>50440003419.03</v>
+      </c>
+      <c r="F125" s="1">
+        <v>50438850250.79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="3">
-        <v>44135</v>
+        <v>44196</v>
       </c>
       <c r="B126" s="1">
-        <v>11238592497.88</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C126" s="1">
-        <v>9700328704.629999</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D126" s="1">
-        <v>27087133329.04</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E126" s="1">
-        <v>48026054531.55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>52788485957.46</v>
+      </c>
+      <c r="F126" s="1">
+        <v>52787920332.11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="3">
-        <v>44165</v>
+        <v>44227</v>
       </c>
       <c r="B127" s="1">
-        <v>11941273405.45</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C127" s="1">
-        <v>10308274207.78</v>
+        <v>10900299506.57</v>
       </c>
       <c r="D127" s="1">
-        <v>28190455805.8</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E127" s="1">
-        <v>50440003419.03</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>51588003234.73</v>
+      </c>
+      <c r="F127" s="1">
+        <v>51586801167.14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="3">
-        <v>44196</v>
+        <v>44255</v>
       </c>
       <c r="B128" s="1">
-        <v>12756299620.31</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C128" s="1">
-        <v>11053433125.61</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D128" s="1">
-        <v>28978753211.54</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E128" s="1">
-        <v>52788485957.46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>50499345827.99</v>
+      </c>
+      <c r="F128" s="1">
+        <v>50498271333.38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="3">
-        <v>44227</v>
+        <v>44286</v>
       </c>
       <c r="B129" s="1">
-        <v>12558243414.61</v>
+        <v>12629967215.83</v>
       </c>
       <c r="C129" s="1">
-        <v>10900299506.57</v>
+        <v>10999754121.32</v>
       </c>
       <c r="D129" s="1">
-        <v>28129460313.55</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E129" s="1">
-        <v>51588003234.73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>50392716520.31</v>
+      </c>
+      <c r="F129" s="1">
+        <v>50392459354.27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="3">
-        <v>44255</v>
+        <v>44316</v>
       </c>
       <c r="B130" s="1">
-        <v>12499730482.13</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C130" s="1">
-        <v>10872197550.37</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D130" s="1">
-        <v>27127417795.49</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E130" s="1">
-        <v>50499345827.99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>51700983288.71</v>
+      </c>
+      <c r="F130" s="1">
+        <v>51699898092.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="3">
-        <v>44286</v>
+        <v>44347</v>
       </c>
       <c r="B131" s="1">
-        <v>12629967215.83</v>
+        <v>13155170030.18</v>
       </c>
       <c r="C131" s="1">
-        <v>10999754121.32</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D131" s="1">
-        <v>26762995183.16</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E131" s="1">
-        <v>50392716520.31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>52378555427.81</v>
+      </c>
+      <c r="F131" s="1">
+        <v>52377491168.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="3">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="B132" s="1">
-        <v>12959077328.64</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C132" s="1">
-        <v>11290601383.86</v>
+        <v>11665454270.74</v>
       </c>
       <c r="D132" s="1">
-        <v>27451304576.21</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E132" s="1">
-        <v>51700983288.71</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>53479161312.64</v>
+      </c>
+      <c r="F132" s="1">
+        <v>53478852821.66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="3">
-        <v>44347</v>
+        <v>44408</v>
       </c>
       <c r="B133" s="1">
-        <v>13155170030.18</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C133" s="1">
-        <v>11478701164.89</v>
+        <v>11826970568.32</v>
       </c>
       <c r="D133" s="1">
-        <v>27744684232.74</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E133" s="1">
-        <v>52378555427.81</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>54428748586.62</v>
+      </c>
+      <c r="F133" s="1">
+        <v>54427407343.81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="3">
-        <v>44377</v>
+        <v>44439</v>
       </c>
       <c r="B134" s="1">
-        <v>13363308598.31</v>
+        <v>13707767980.07</v>
       </c>
       <c r="C134" s="1">
-        <v>11665454270.74</v>
+        <v>11980671064.48</v>
       </c>
       <c r="D134" s="1">
-        <v>28450398443.59</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E134" s="1">
-        <v>53479161312.64</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>54870336763.75999</v>
+      </c>
+      <c r="F134" s="1">
+        <v>54869685745.92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="3">
-        <v>44408</v>
+        <v>44469</v>
       </c>
       <c r="B135" s="1">
-        <v>13542680564.47</v>
+        <v>13203547316.24</v>
       </c>
       <c r="C135" s="1">
-        <v>11826970568.32</v>
+        <v>11508277149.59</v>
       </c>
       <c r="D135" s="1">
-        <v>29059097453.83</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E135" s="1">
-        <v>54428748586.62</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>52901048832.99</v>
+      </c>
+      <c r="F135" s="1">
+        <v>52899987106.51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="3">
-        <v>44439</v>
+        <v>44500</v>
       </c>
       <c r="B136" s="1">
-        <v>13707767980.07</v>
+        <v>13619689152.99</v>
       </c>
       <c r="C136" s="1">
-        <v>11980671064.48</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D136" s="1">
-        <v>29181897719.21</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E136" s="1">
-        <v>54870336763.75999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>54300766813.44</v>
+      </c>
+      <c r="F136" s="1">
+        <v>54299678668.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="3">
-        <v>44469</v>
+        <v>44530</v>
       </c>
       <c r="B137" s="1">
-        <v>13203547316.24</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C137" s="1">
-        <v>11508277149.59</v>
+        <v>12126631727.77</v>
       </c>
       <c r="D137" s="1">
-        <v>28189224367.16</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E137" s="1">
-        <v>52901048832.99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>55089355967.77</v>
+      </c>
+      <c r="F137" s="1">
+        <v>55088773683.99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="3">
-        <v>44500</v>
+        <v>44561</v>
       </c>
       <c r="B138" s="1">
-        <v>13619689152.99</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C138" s="1">
-        <v>11898653834.64</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D138" s="1">
-        <v>28782423825.81</v>
+        <v>29369048113</v>
       </c>
       <c r="E138" s="1">
-        <v>54300766813.44</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>55524868915.5</v>
+      </c>
+      <c r="F138" s="1">
+        <v>55524301502.51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="3">
-        <v>44530</v>
+        <v>44592</v>
       </c>
       <c r="B139" s="1">
-        <v>13785068283.86</v>
+        <v>13228050556.07</v>
       </c>
       <c r="C139" s="1">
-        <v>12126631727.77</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D139" s="1">
-        <v>29177655956.14</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E139" s="1">
-        <v>55089355967.77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>52791395368.22</v>
+      </c>
+      <c r="F139" s="1">
+        <v>52790186100.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="3">
-        <v>44561</v>
+        <v>44620</v>
       </c>
       <c r="B140" s="1">
-        <v>13933499672.22</v>
+        <v>12924236126.56</v>
       </c>
       <c r="C140" s="1">
-        <v>12222321130.28</v>
+        <v>11299022364.73</v>
       </c>
       <c r="D140" s="1">
-        <v>29369048113</v>
+        <v>27410006047.48</v>
       </c>
       <c r="E140" s="1">
-        <v>55524868915.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>51633264538.77</v>
+      </c>
+      <c r="F140" s="1">
+        <v>51632693047.39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="3">
-        <v>44592</v>
+        <v>44651</v>
       </c>
       <c r="B141" s="1">
-        <v>13228050556.07</v>
+        <v>12662771414.75</v>
       </c>
       <c r="C141" s="1">
-        <v>11573834300.94</v>
+        <v>11031166589.13</v>
       </c>
       <c r="D141" s="1">
-        <v>27989510511.21</v>
+        <v>26576348005.31</v>
       </c>
       <c r="E141" s="1">
-        <v>52791395368.22</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>50270286009.19</v>
+      </c>
+      <c r="F141" s="1">
+        <v>50269272742.92</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="3">
-        <v>44620</v>
+        <v>44681</v>
       </c>
       <c r="B142" s="1">
-        <v>12924236126.56</v>
+        <v>11666882480.45</v>
       </c>
       <c r="C142" s="1">
-        <v>11299022364.73</v>
+        <v>10097030956.61</v>
       </c>
       <c r="D142" s="1">
-        <v>27410006047.48</v>
+        <v>24343752751.24</v>
       </c>
       <c r="E142" s="1">
-        <v>51633264538.77</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>46107666188.3</v>
+      </c>
+      <c r="F142" s="1">
+        <v>46106802062.87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="3">
-        <v>44651</v>
+        <v>44712</v>
       </c>
       <c r="B143" s="1">
-        <v>12662771414.75</v>
+        <v>11506881422.34</v>
       </c>
       <c r="C143" s="1">
-        <v>11031166589.13</v>
+        <v>9932226543.780001</v>
       </c>
       <c r="D143" s="1">
-        <v>26576348005.31</v>
+        <v>24079986770.42</v>
       </c>
       <c r="E143" s="1">
-        <v>50270286009.19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>45519094736.53999</v>
+      </c>
+      <c r="F143" s="1">
+        <v>45518750923.86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="3">
-        <v>44681</v>
+        <v>44742</v>
       </c>
       <c r="B144" s="1">
-        <v>11666882480.45</v>
+        <v>11065097064.85</v>
       </c>
       <c r="C144" s="1">
-        <v>10097030956.61</v>
+        <v>9580933722.4</v>
       </c>
       <c r="D144" s="1">
-        <v>24343752751.24</v>
+        <v>23101412415.21</v>
       </c>
       <c r="E144" s="1">
-        <v>46107666188.3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>43747443202.46</v>
+      </c>
+      <c r="F144" s="1">
+        <v>43746561277.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="3">
-        <v>44712</v>
+        <v>44773</v>
       </c>
       <c r="B145" s="1">
-        <v>11506881422.34</v>
+        <v>11438117231.49</v>
       </c>
       <c r="C145" s="1">
-        <v>9932226543.780001</v>
+        <v>9910543756.66</v>
       </c>
       <c r="D145" s="1">
-        <v>24079986770.42</v>
+        <v>23955770271.21</v>
       </c>
       <c r="E145" s="1">
-        <v>45519094736.53999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>45304431259.36</v>
+      </c>
+      <c r="F145" s="1">
+        <v>45303131705.44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="3">
-        <v>44742</v>
+        <v>44804</v>
       </c>
       <c r="B146" s="1">
-        <v>11065097064.85</v>
+        <v>10953128495.09</v>
       </c>
       <c r="C146" s="1">
-        <v>9580933722.4</v>
+        <v>9473104540.35</v>
       </c>
       <c r="D146" s="1">
-        <v>23101412415.21</v>
+        <v>22811356969.86</v>
       </c>
       <c r="E146" s="1">
-        <v>43747443202.46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>43237590005.3</v>
+      </c>
+      <c r="F146" s="1">
+        <v>43237193282.92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="3">
-        <v>44773</v>
+        <v>44834</v>
       </c>
       <c r="B147" s="1">
-        <v>11516596677.6</v>
+        <v>11033073157.63</v>
       </c>
       <c r="C147" s="1">
-        <v>9978900548.299999</v>
+        <v>9094083273.629999</v>
       </c>
       <c r="D147" s="1">
-        <v>24108818048.94</v>
+        <v>21389518149.24</v>
       </c>
       <c r="E147" s="1">
-        <v>45604315274.84</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="3">
-        <v>44804</v>
-      </c>
-      <c r="B148" s="1">
-        <v>10953128495.09</v>
-      </c>
-      <c r="C148" s="1">
-        <v>9473104540.35</v>
-      </c>
-      <c r="D148" s="1">
-        <v>22811356969.86</v>
-      </c>
-      <c r="E148" s="1">
-        <v>43237590005.3</v>
+        <v>41516674580.5</v>
+      </c>
+      <c r="F147" s="1">
+        <v>41515240522.93</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A148">
+  <conditionalFormatting sqref="A1:A147">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E148">
+  <conditionalFormatting sqref="B2:F147">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
@@ -2959,7 +3386,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM148"/>
+  <dimension ref="A1:ALM147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2968,9 +3395,9 @@
     <col min="1" max="1001" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2984,2513 +3411,2937 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>40359</v>
+        <v>40421</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.010431</v>
+        <v>0.001548</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.010424</v>
+        <v>0.001558</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.010512</v>
+        <v>0.00155</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.010493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.001551</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.001561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>40390</v>
+        <v>40451</v>
       </c>
       <c r="B3" s="1">
-        <v>0.04159</v>
+        <v>0.04532</v>
       </c>
       <c r="C3" s="1">
-        <v>0.043416</v>
+        <v>0.045333</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04342500000000001</v>
+        <v>0.045331</v>
       </c>
       <c r="E3" s="1">
-        <v>0.043244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.04533</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.045364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
-        <v>40421</v>
+        <v>40482</v>
       </c>
       <c r="B4" s="1">
-        <v>0.001548</v>
+        <v>0.009824000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.001558</v>
+        <v>0.009851</v>
       </c>
       <c r="D4" s="1">
-        <v>0.00155</v>
+        <v>0.009762</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.009781</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.009818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <v>40451</v>
+        <v>40512</v>
       </c>
       <c r="B5" s="1">
-        <v>0.04532</v>
+        <v>-0.006762000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>0.045333</v>
+        <v>-0.005979</v>
       </c>
       <c r="D5" s="1">
-        <v>0.045331</v>
+        <v>-0.006311</v>
       </c>
       <c r="E5" s="1">
-        <v>0.04533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>-0.006307</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.006754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
-        <v>40482</v>
+        <v>40543</v>
       </c>
       <c r="B6" s="1">
-        <v>0.009824000000000001</v>
+        <v>0.029284</v>
       </c>
       <c r="C6" s="1">
-        <v>0.009851</v>
+        <v>0.029312</v>
       </c>
       <c r="D6" s="1">
-        <v>0.009762</v>
+        <v>0.029354</v>
       </c>
       <c r="E6" s="1">
-        <v>0.009781</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.029341</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.029327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
-        <v>40512</v>
+        <v>40574</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.006762000000000001</v>
+        <v>-0.00115</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.005979</v>
+        <v>-0.001119</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.006311</v>
+        <v>-0.001115</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.001121</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.001111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
-        <v>40543</v>
+        <v>40602</v>
       </c>
       <c r="B8" s="1">
-        <v>0.029284</v>
+        <v>0.023291</v>
       </c>
       <c r="C8" s="1">
-        <v>0.029312</v>
+        <v>0.023317</v>
       </c>
       <c r="D8" s="1">
-        <v>0.029354</v>
+        <v>0.023308</v>
       </c>
       <c r="E8" s="1">
-        <v>0.029341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.023307</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.023323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
-        <v>40574</v>
+        <v>40633</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.00115</v>
+        <v>0.002493</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.001119</v>
+        <v>0.002493</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.001115</v>
+        <v>0.002494</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.002494</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.002524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
-        <v>40602</v>
+        <v>40663</v>
       </c>
       <c r="B10" s="1">
-        <v>0.023291</v>
+        <v>0.030082</v>
       </c>
       <c r="C10" s="1">
-        <v>0.023317</v>
+        <v>0.030134</v>
       </c>
       <c r="D10" s="1">
-        <v>0.023308</v>
+        <v>0.030134</v>
       </c>
       <c r="E10" s="1">
-        <v>0.023307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.030126</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.030106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
-        <v>40633</v>
+        <v>40694</v>
       </c>
       <c r="B11" s="1">
-        <v>0.002493</v>
+        <v>0.006251</v>
       </c>
       <c r="C11" s="1">
-        <v>0.002493</v>
+        <v>0.006252</v>
       </c>
       <c r="D11" s="1">
-        <v>0.002494</v>
+        <v>0.006251</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.006251</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.006317000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
-        <v>40663</v>
+        <v>40724</v>
       </c>
       <c r="B12" s="1">
-        <v>0.030082</v>
+        <v>-0.016394</v>
       </c>
       <c r="C12" s="1">
-        <v>0.030134</v>
+        <v>-0.016393</v>
       </c>
       <c r="D12" s="1">
-        <v>0.030134</v>
+        <v>-0.016388</v>
       </c>
       <c r="E12" s="1">
-        <v>0.030126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.016389</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.016391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
-        <v>40694</v>
+        <v>40755</v>
       </c>
       <c r="B13" s="1">
-        <v>0.006251</v>
+        <v>0.010779</v>
       </c>
       <c r="C13" s="1">
-        <v>0.006252</v>
+        <v>0.010779</v>
       </c>
       <c r="D13" s="1">
-        <v>0.006251</v>
+        <v>0.010779</v>
       </c>
       <c r="E13" s="1">
-        <v>0.006251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.010779</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.010787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
-        <v>40724</v>
+        <v>40786</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.016394</v>
+        <v>-0.006495</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.016393</v>
+        <v>-0.006492</v>
       </c>
       <c r="D14" s="1">
-        <v>-0.016388</v>
+        <v>-0.006488000000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.016389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.00649</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.006469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
-        <v>40755</v>
+        <v>40816</v>
       </c>
       <c r="B15" s="1">
-        <v>0.010779</v>
+        <v>0.001202</v>
       </c>
       <c r="C15" s="1">
-        <v>0.010779</v>
+        <v>0.001203</v>
       </c>
       <c r="D15" s="1">
-        <v>0.010779</v>
+        <v>0.001203</v>
       </c>
       <c r="E15" s="1">
-        <v>0.010779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.001203</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.001224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
-        <v>40786</v>
+        <v>40847</v>
       </c>
       <c r="B16" s="1">
-        <v>-0.006495</v>
+        <v>0.035731</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.006492</v>
+        <v>0.035736</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.006488000000000001</v>
+        <v>0.03573</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.00649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.035731</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.035742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
-        <v>40816</v>
+        <v>40877</v>
       </c>
       <c r="B17" s="1">
-        <v>0.001202</v>
+        <v>-0.006834</v>
       </c>
       <c r="C17" s="1">
-        <v>0.001203</v>
+        <v>-0.006834</v>
       </c>
       <c r="D17" s="1">
-        <v>0.001203</v>
+        <v>-0.006832</v>
       </c>
       <c r="E17" s="1">
-        <v>0.001203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>-0.006832</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-0.006798999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
-        <v>40847</v>
+        <v>40908</v>
       </c>
       <c r="B18" s="1">
-        <v>0.035731</v>
+        <v>0.011627</v>
       </c>
       <c r="C18" s="1">
-        <v>0.035736</v>
+        <v>0.011629</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03573</v>
+        <v>0.011629</v>
       </c>
       <c r="E18" s="1">
-        <v>0.035731</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.011629</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.011646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
-        <v>40877</v>
+        <v>40939</v>
       </c>
       <c r="B19" s="1">
-        <v>-0.006834</v>
+        <v>0.027751</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.006834</v>
+        <v>0.027758</v>
       </c>
       <c r="D19" s="1">
-        <v>-0.006832</v>
+        <v>0.027751</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.006832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.027752</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.02776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
-        <v>40908</v>
+        <v>40968</v>
       </c>
       <c r="B20" s="1">
-        <v>0.011627</v>
+        <v>0.018401</v>
       </c>
       <c r="C20" s="1">
-        <v>0.011629</v>
+        <v>0.018387</v>
       </c>
       <c r="D20" s="1">
-        <v>0.011629</v>
+        <v>0.018407</v>
       </c>
       <c r="E20" s="1">
-        <v>0.011629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.018403</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.018452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
-        <v>40939</v>
+        <v>40999</v>
       </c>
       <c r="B21" s="1">
-        <v>0.027751</v>
+        <v>-0.003827</v>
       </c>
       <c r="C21" s="1">
-        <v>0.027758</v>
+        <v>-0.00384</v>
       </c>
       <c r="D21" s="1">
-        <v>0.027751</v>
+        <v>-0.00384</v>
       </c>
       <c r="E21" s="1">
-        <v>0.027752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.003838</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-0.003805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
-        <v>40968</v>
+        <v>41029</v>
       </c>
       <c r="B22" s="1">
-        <v>0.018401</v>
+        <v>0.010169</v>
       </c>
       <c r="C22" s="1">
-        <v>0.018387</v>
+        <v>0.010171</v>
       </c>
       <c r="D22" s="1">
-        <v>0.018407</v>
+        <v>0.010169</v>
       </c>
       <c r="E22" s="1">
-        <v>0.018403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.010169</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.010181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
-        <v>40999</v>
+        <v>41060</v>
       </c>
       <c r="B23" s="1">
-        <v>-0.003827</v>
+        <v>-0.007147</v>
       </c>
       <c r="C23" s="1">
-        <v>-0.00384</v>
+        <v>-0.007141999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-0.00384</v>
+        <v>-0.007113</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.007122000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-0.007114000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
-        <v>41029</v>
+        <v>41090</v>
       </c>
       <c r="B24" s="1">
-        <v>0.010169</v>
+        <v>0.013617</v>
       </c>
       <c r="C24" s="1">
-        <v>0.010171</v>
+        <v>0.013665</v>
       </c>
       <c r="D24" s="1">
-        <v>0.010169</v>
+        <v>0.013662</v>
       </c>
       <c r="E24" s="1">
-        <v>0.010169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.013655</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.013702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
-        <v>41060</v>
+        <v>41121</v>
       </c>
       <c r="B25" s="1">
-        <v>-0.007147</v>
+        <v>0.022428</v>
       </c>
       <c r="C25" s="1">
-        <v>-0.007141999999999999</v>
+        <v>0.022445</v>
       </c>
       <c r="D25" s="1">
-        <v>-0.007113</v>
+        <v>0.022415</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.007122000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.022421</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.022443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
-        <v>41090</v>
+        <v>41152</v>
       </c>
       <c r="B26" s="1">
-        <v>0.013617</v>
+        <v>0.006546</v>
       </c>
       <c r="C26" s="1">
-        <v>0.013665</v>
+        <v>0.006548000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>0.013662</v>
+        <v>0.006546</v>
       </c>
       <c r="E26" s="1">
-        <v>0.013655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.006546</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.006599000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="3">
-        <v>41121</v>
+        <v>41182</v>
       </c>
       <c r="B27" s="1">
-        <v>0.022428</v>
+        <v>0.008595999999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>0.022445</v>
+        <v>0.008598</v>
       </c>
       <c r="D27" s="1">
-        <v>0.022415</v>
+        <v>0.008597</v>
       </c>
       <c r="E27" s="1">
-        <v>0.022421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.008597</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.008647999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
-        <v>41152</v>
+        <v>41213</v>
       </c>
       <c r="B28" s="1">
-        <v>0.006546</v>
+        <v>0.001504</v>
       </c>
       <c r="C28" s="1">
-        <v>0.006548000000000001</v>
+        <v>0.001506</v>
       </c>
       <c r="D28" s="1">
-        <v>0.006546</v>
+        <v>0.001505</v>
       </c>
       <c r="E28" s="1">
-        <v>0.006546</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.001505</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.001537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
-        <v>41182</v>
+        <v>41243</v>
       </c>
       <c r="B29" s="1">
-        <v>0.008595999999999999</v>
+        <v>0.007569</v>
       </c>
       <c r="C29" s="1">
-        <v>0.008598</v>
+        <v>0.007571</v>
       </c>
       <c r="D29" s="1">
-        <v>0.008597</v>
+        <v>0.007571</v>
       </c>
       <c r="E29" s="1">
-        <v>0.008597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007571</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.007581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
-        <v>41213</v>
+        <v>41274</v>
       </c>
       <c r="B30" s="1">
-        <v>0.001504</v>
+        <v>0.008156999999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>0.001506</v>
+        <v>0.008168999999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>0.001505</v>
+        <v>0.008165</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.008163999999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.00821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="3">
-        <v>41243</v>
+        <v>41305</v>
       </c>
       <c r="B31" s="1">
-        <v>0.007569</v>
+        <v>0.013471</v>
       </c>
       <c r="C31" s="1">
-        <v>0.007571</v>
+        <v>0.013571</v>
       </c>
       <c r="D31" s="1">
-        <v>0.007571</v>
+        <v>0.013456</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007571</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.013479</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.013506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="3">
-        <v>41274</v>
+        <v>41333</v>
       </c>
       <c r="B32" s="1">
-        <v>0.008156999999999999</v>
+        <v>0.007465</v>
       </c>
       <c r="C32" s="1">
-        <v>0.008168999999999999</v>
+        <v>0.007458</v>
       </c>
       <c r="D32" s="1">
-        <v>0.008165</v>
+        <v>0.00747</v>
       </c>
       <c r="E32" s="1">
-        <v>0.008163999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.007467000000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.007503999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="3">
-        <v>41305</v>
+        <v>41364</v>
       </c>
       <c r="B33" s="1">
-        <v>0.013471</v>
+        <v>0.015025</v>
       </c>
       <c r="C33" s="1">
-        <v>0.013571</v>
+        <v>0.015027</v>
       </c>
       <c r="D33" s="1">
-        <v>0.013456</v>
+        <v>0.015024</v>
       </c>
       <c r="E33" s="1">
-        <v>0.013479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.015024</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.015067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="3">
-        <v>41333</v>
+        <v>41394</v>
       </c>
       <c r="B34" s="1">
-        <v>0.007465</v>
+        <v>0.025087</v>
       </c>
       <c r="C34" s="1">
-        <v>0.007458</v>
+        <v>0.025091</v>
       </c>
       <c r="D34" s="1">
-        <v>0.00747</v>
+        <v>0.025086</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007467000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.025087</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.025126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="3">
-        <v>41364</v>
+        <v>41425</v>
       </c>
       <c r="B35" s="1">
-        <v>0.015025</v>
+        <v>-0.016671</v>
       </c>
       <c r="C35" s="1">
-        <v>0.015027</v>
+        <v>-0.016673</v>
       </c>
       <c r="D35" s="1">
-        <v>0.015024</v>
+        <v>-0.01667</v>
       </c>
       <c r="E35" s="1">
-        <v>0.015024</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01667</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-0.016669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="3">
-        <v>41394</v>
+        <v>41455</v>
       </c>
       <c r="B36" s="1">
-        <v>0.025087</v>
+        <v>-0.018163</v>
       </c>
       <c r="C36" s="1">
-        <v>0.025091</v>
+        <v>-0.018165</v>
       </c>
       <c r="D36" s="1">
-        <v>0.025086</v>
+        <v>-0.01816</v>
       </c>
       <c r="E36" s="1">
-        <v>0.025087</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.018162</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-0.018117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3">
-        <v>41425</v>
+        <v>41486</v>
       </c>
       <c r="B37" s="1">
-        <v>-0.016671</v>
+        <v>0.014254</v>
       </c>
       <c r="C37" s="1">
-        <v>-0.016673</v>
+        <v>0.014257</v>
       </c>
       <c r="D37" s="1">
-        <v>-0.01667</v>
+        <v>0.014252</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.014253</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.014264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3">
-        <v>41455</v>
+        <v>41517</v>
       </c>
       <c r="B38" s="1">
-        <v>-0.018163</v>
+        <v>-0.011051</v>
       </c>
       <c r="C38" s="1">
-        <v>-0.018165</v>
+        <v>-0.011022</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.01816</v>
+        <v>-0.011036</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.018162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.011036</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-0.010998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="3">
-        <v>41486</v>
+        <v>41547</v>
       </c>
       <c r="B39" s="1">
-        <v>0.014254</v>
+        <v>0.020117</v>
       </c>
       <c r="C39" s="1">
-        <v>0.014257</v>
+        <v>0.02012</v>
       </c>
       <c r="D39" s="1">
-        <v>0.014252</v>
+        <v>0.020114</v>
       </c>
       <c r="E39" s="1">
-        <v>0.014253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.020116</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.020156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="3">
-        <v>41517</v>
+        <v>41578</v>
       </c>
       <c r="B40" s="1">
-        <v>-0.011051</v>
+        <v>0.02223</v>
       </c>
       <c r="C40" s="1">
-        <v>-0.011022</v>
+        <v>0.022236</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.011036</v>
+        <v>0.022227</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.011036</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.022229</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.022274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3">
-        <v>41547</v>
+        <v>41608</v>
       </c>
       <c r="B41" s="1">
-        <v>0.020117</v>
+        <v>0.001657</v>
       </c>
       <c r="C41" s="1">
-        <v>0.02012</v>
+        <v>0.001657</v>
       </c>
       <c r="D41" s="1">
-        <v>0.020114</v>
+        <v>0.00166</v>
       </c>
       <c r="E41" s="1">
-        <v>0.020116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001659</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.001664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="3">
-        <v>41578</v>
+        <v>41639</v>
       </c>
       <c r="B42" s="1">
-        <v>0.02223</v>
+        <v>0.007311</v>
       </c>
       <c r="C42" s="1">
-        <v>0.022236</v>
+        <v>0.007312</v>
       </c>
       <c r="D42" s="1">
-        <v>0.022227</v>
+        <v>0.00731</v>
       </c>
       <c r="E42" s="1">
-        <v>0.022229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.00731</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.007331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="3">
-        <v>41608</v>
+        <v>41670</v>
       </c>
       <c r="B43" s="1">
-        <v>0.001657</v>
+        <v>0.001869</v>
       </c>
       <c r="C43" s="1">
-        <v>0.001657</v>
+        <v>0.001871</v>
       </c>
       <c r="D43" s="1">
-        <v>0.00166</v>
+        <v>0.001871</v>
       </c>
       <c r="E43" s="1">
-        <v>0.001659</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.001871</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.001873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="3">
-        <v>41639</v>
+        <v>41698</v>
       </c>
       <c r="B44" s="1">
-        <v>0.007311</v>
+        <v>0.022899</v>
       </c>
       <c r="C44" s="1">
-        <v>0.007312</v>
+        <v>0.02297</v>
       </c>
       <c r="D44" s="1">
-        <v>0.00731</v>
+        <v>0.022973</v>
       </c>
       <c r="E44" s="1">
-        <v>0.00731</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.02296</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.022941</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="3">
-        <v>41670</v>
+        <v>41729</v>
       </c>
       <c r="B45" s="1">
-        <v>0.001869</v>
+        <v>0.007581</v>
       </c>
       <c r="C45" s="1">
-        <v>0.001871</v>
+        <v>0.007582</v>
       </c>
       <c r="D45" s="1">
-        <v>0.001871</v>
+        <v>0.007581</v>
       </c>
       <c r="E45" s="1">
-        <v>0.001871</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.007581</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.007613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="3">
-        <v>41698</v>
+        <v>41759</v>
       </c>
       <c r="B46" s="1">
-        <v>0.022899</v>
+        <v>0.002559</v>
       </c>
       <c r="C46" s="1">
-        <v>0.02297</v>
+        <v>0.002559</v>
       </c>
       <c r="D46" s="1">
-        <v>0.022973</v>
+        <v>0.002565</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02296</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.002563</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.002567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="3">
-        <v>41729</v>
+        <v>41790</v>
       </c>
       <c r="B47" s="1">
-        <v>0.007581</v>
+        <v>0.018616</v>
       </c>
       <c r="C47" s="1">
-        <v>0.007582</v>
+        <v>0.018622</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007581</v>
+        <v>0.018616</v>
       </c>
       <c r="E47" s="1">
-        <v>0.007581</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.018617</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.018658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="3">
-        <v>41759</v>
+        <v>41820</v>
       </c>
       <c r="B48" s="1">
-        <v>0.002559</v>
+        <v>0.007592</v>
       </c>
       <c r="C48" s="1">
-        <v>0.002559</v>
+        <v>0.007592</v>
       </c>
       <c r="D48" s="1">
-        <v>0.002565</v>
+        <v>0.00759</v>
       </c>
       <c r="E48" s="1">
-        <v>0.002563</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.007591</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.007621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="3">
-        <v>41790</v>
+        <v>41851</v>
       </c>
       <c r="B49" s="1">
-        <v>0.018616</v>
+        <v>-0.003537</v>
       </c>
       <c r="C49" s="1">
-        <v>0.018622</v>
+        <v>-0.003536</v>
       </c>
       <c r="D49" s="1">
-        <v>0.018616</v>
+        <v>-0.003534</v>
       </c>
       <c r="E49" s="1">
-        <v>0.018617</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.003535</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-0.0035</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
-        <v>41820</v>
+        <v>41882</v>
       </c>
       <c r="B50" s="1">
-        <v>0.007592</v>
+        <v>0.024396</v>
       </c>
       <c r="C50" s="1">
-        <v>0.007592</v>
+        <v>0.024396</v>
       </c>
       <c r="D50" s="1">
-        <v>0.00759</v>
+        <v>0.0244</v>
       </c>
       <c r="E50" s="1">
-        <v>0.007591</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.024399</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.02441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="3">
-        <v>41851</v>
+        <v>41912</v>
       </c>
       <c r="B51" s="1">
-        <v>-0.003537</v>
+        <v>-0.018814</v>
       </c>
       <c r="C51" s="1">
-        <v>-0.003536</v>
+        <v>-0.018804</v>
       </c>
       <c r="D51" s="1">
-        <v>-0.003534</v>
+        <v>-0.018789</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.003535</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.018796</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-0.018787</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
-        <v>41882</v>
+        <v>41943</v>
       </c>
       <c r="B52" s="1">
-        <v>0.024396</v>
+        <v>0.012246</v>
       </c>
       <c r="C52" s="1">
-        <v>0.024396</v>
+        <v>0.012244</v>
       </c>
       <c r="D52" s="1">
-        <v>0.0244</v>
+        <v>0.012254</v>
       </c>
       <c r="E52" s="1">
-        <v>0.024399</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.012251</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.012333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="3">
-        <v>41912</v>
+        <v>41973</v>
       </c>
       <c r="B53" s="1">
-        <v>-0.018814</v>
+        <v>0.016811</v>
       </c>
       <c r="C53" s="1">
-        <v>-0.018804</v>
+        <v>0.01682</v>
       </c>
       <c r="D53" s="1">
-        <v>-0.018789</v>
+        <v>0.01682</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.018796</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.016818</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.016821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="3">
-        <v>41943</v>
+        <v>42004</v>
       </c>
       <c r="B54" s="1">
-        <v>0.012246</v>
+        <v>0.002068</v>
       </c>
       <c r="C54" s="1">
-        <v>0.012244</v>
+        <v>0.002076</v>
       </c>
       <c r="D54" s="1">
-        <v>0.012254</v>
+        <v>0.00208</v>
       </c>
       <c r="E54" s="1">
-        <v>0.012251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.002077</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.002126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="3">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="B55" s="1">
-        <v>0.016811</v>
+        <v>0.023362</v>
       </c>
       <c r="C55" s="1">
-        <v>0.01682</v>
+        <v>0.023357</v>
       </c>
       <c r="D55" s="1">
-        <v>0.01682</v>
+        <v>0.02335</v>
       </c>
       <c r="E55" s="1">
-        <v>0.016818</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.023353</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.023417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="3">
-        <v>42004</v>
+        <v>42063</v>
       </c>
       <c r="B56" s="1">
-        <v>0.002068</v>
+        <v>0.007672</v>
       </c>
       <c r="C56" s="1">
-        <v>0.002076</v>
+        <v>0.007672</v>
       </c>
       <c r="D56" s="1">
-        <v>0.00208</v>
+        <v>0.007671</v>
       </c>
       <c r="E56" s="1">
-        <v>0.002077</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.007671</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.007678000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="3">
-        <v>42035</v>
+        <v>42094</v>
       </c>
       <c r="B57" s="1">
-        <v>0.023362</v>
+        <v>0.000725</v>
       </c>
       <c r="C57" s="1">
-        <v>0.023357</v>
+        <v>0.000731</v>
       </c>
       <c r="D57" s="1">
-        <v>0.02335</v>
+        <v>0.000725</v>
       </c>
       <c r="E57" s="1">
-        <v>0.023353</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.000726</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.000746</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="3">
-        <v>42063</v>
+        <v>42124</v>
       </c>
       <c r="B58" s="1">
-        <v>0.007672</v>
+        <v>0.000483</v>
       </c>
       <c r="C58" s="1">
-        <v>0.007672</v>
+        <v>0.000483</v>
       </c>
       <c r="D58" s="1">
-        <v>0.007671</v>
+        <v>0.000483</v>
       </c>
       <c r="E58" s="1">
-        <v>0.007671</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.000483</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.0005070000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="3">
-        <v>42094</v>
+        <v>42155</v>
       </c>
       <c r="B59" s="1">
-        <v>0.000725</v>
+        <v>-0.001447</v>
       </c>
       <c r="C59" s="1">
-        <v>0.000731</v>
+        <v>-0.001447</v>
       </c>
       <c r="D59" s="1">
-        <v>0.000725</v>
+        <v>-0.001447</v>
       </c>
       <c r="E59" s="1">
-        <v>0.000726</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.001447</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-0.001387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="3">
-        <v>42124</v>
+        <v>42185</v>
       </c>
       <c r="B60" s="1">
-        <v>0.000483</v>
+        <v>-0.019129</v>
       </c>
       <c r="C60" s="1">
-        <v>0.000483</v>
+        <v>-0.019129</v>
       </c>
       <c r="D60" s="1">
-        <v>0.000483</v>
+        <v>-0.019127</v>
       </c>
       <c r="E60" s="1">
-        <v>0.000483</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.019128</v>
+      </c>
+      <c r="F60" s="1">
+        <v>-0.019088</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="3">
-        <v>42155</v>
+        <v>42216</v>
       </c>
       <c r="B61" s="1">
-        <v>-0.001447</v>
+        <v>0.010715</v>
       </c>
       <c r="C61" s="1">
-        <v>-0.001447</v>
+        <v>0.010715</v>
       </c>
       <c r="D61" s="1">
-        <v>-0.001447</v>
+        <v>0.010714</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.001447</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.010714</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.01075</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="3">
-        <v>42185</v>
+        <v>42247</v>
       </c>
       <c r="B62" s="1">
-        <v>-0.019129</v>
+        <v>-0.027128</v>
       </c>
       <c r="C62" s="1">
-        <v>-0.019129</v>
+        <v>-0.027126</v>
       </c>
       <c r="D62" s="1">
-        <v>-0.019127</v>
+        <v>-0.027125</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.019128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.027126</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-0.027093</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="3">
-        <v>42216</v>
+        <v>42277</v>
       </c>
       <c r="B63" s="1">
-        <v>0.010715</v>
+        <v>-0.00876</v>
       </c>
       <c r="C63" s="1">
-        <v>0.010715</v>
+        <v>-0.00876</v>
       </c>
       <c r="D63" s="1">
-        <v>0.010714</v>
+        <v>-0.008758999999999999</v>
       </c>
       <c r="E63" s="1">
-        <v>0.010714</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.00876</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-0.008747</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="3">
-        <v>42247</v>
+        <v>42308</v>
       </c>
       <c r="B64" s="1">
-        <v>-0.027128</v>
+        <v>0.028753</v>
       </c>
       <c r="C64" s="1">
-        <v>-0.027126</v>
+        <v>0.028716</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.027125</v>
+        <v>0.028798</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.027126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.028775</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.028836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="3">
-        <v>42277</v>
+        <v>42338</v>
       </c>
       <c r="B65" s="1">
-        <v>-0.00876</v>
+        <v>-0.003828</v>
       </c>
       <c r="C65" s="1">
-        <v>-0.00876</v>
+        <v>-0.003819</v>
       </c>
       <c r="D65" s="1">
-        <v>-0.008758999999999999</v>
+        <v>-0.003807</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.00876</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.003813</v>
+      </c>
+      <c r="F65" s="1">
+        <v>-0.003814</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="3">
-        <v>42308</v>
+        <v>42369</v>
       </c>
       <c r="B66" s="1">
-        <v>0.028753</v>
+        <v>-0.008187</v>
       </c>
       <c r="C66" s="1">
-        <v>0.028716</v>
+        <v>-0.008187</v>
       </c>
       <c r="D66" s="1">
-        <v>0.028798</v>
+        <v>-0.008184</v>
       </c>
       <c r="E66" s="1">
-        <v>0.028775</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.008185</v>
+      </c>
+      <c r="F66" s="1">
+        <v>-0.008107999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="3">
-        <v>42338</v>
+        <v>42400</v>
       </c>
       <c r="B67" s="1">
-        <v>-0.003828</v>
+        <v>-0.014827</v>
       </c>
       <c r="C67" s="1">
-        <v>-0.003819</v>
+        <v>-0.01483</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.003807</v>
+        <v>-0.014826</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.003813</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.014827</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-0.014823</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="3">
-        <v>42369</v>
+        <v>42429</v>
       </c>
       <c r="B68" s="1">
-        <v>-0.008187</v>
+        <v>0.007148</v>
       </c>
       <c r="C68" s="1">
-        <v>-0.008187</v>
+        <v>0.007148</v>
       </c>
       <c r="D68" s="1">
-        <v>-0.008184</v>
+        <v>0.007150999999999999</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.008185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.00715</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.007228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="3">
-        <v>42400</v>
+        <v>42460</v>
       </c>
       <c r="B69" s="1">
-        <v>-0.014827</v>
+        <v>0.034737</v>
       </c>
       <c r="C69" s="1">
-        <v>-0.01483</v>
+        <v>0.034736</v>
       </c>
       <c r="D69" s="1">
-        <v>-0.014826</v>
+        <v>0.034733</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.014827</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.034734</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.034744</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="3">
-        <v>42429</v>
+        <v>42490</v>
       </c>
       <c r="B70" s="1">
-        <v>0.007148</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>0.007148</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="D70" s="1">
-        <v>0.007150999999999999</v>
+        <v>0.009242</v>
       </c>
       <c r="E70" s="1">
-        <v>0.00715</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.009242999999999999</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.009256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="3">
-        <v>42460</v>
+        <v>42521</v>
       </c>
       <c r="B71" s="1">
-        <v>0.034737</v>
+        <v>0.001881</v>
       </c>
       <c r="C71" s="1">
-        <v>0.034736</v>
+        <v>0.001883</v>
       </c>
       <c r="D71" s="1">
-        <v>0.034733</v>
+        <v>0.001884</v>
       </c>
       <c r="E71" s="1">
-        <v>0.034734</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.001883</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.001941</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="3">
-        <v>42490</v>
+        <v>42551</v>
       </c>
       <c r="B72" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.010067</v>
       </c>
       <c r="C72" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.010098</v>
       </c>
       <c r="D72" s="1">
-        <v>0.009242</v>
+        <v>0.01013</v>
       </c>
       <c r="E72" s="1">
-        <v>0.009242999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.010112</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.010098</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="3">
-        <v>42521</v>
+        <v>42582</v>
       </c>
       <c r="B73" s="1">
-        <v>0.001881</v>
+        <v>0.021267</v>
       </c>
       <c r="C73" s="1">
-        <v>0.001883</v>
+        <v>0.021267</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001884</v>
+        <v>0.021264</v>
       </c>
       <c r="E73" s="1">
-        <v>0.001883</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.021265</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.021276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="3">
-        <v>42551</v>
+        <v>42613</v>
       </c>
       <c r="B74" s="1">
-        <v>0.010067</v>
+        <v>0.001143</v>
       </c>
       <c r="C74" s="1">
-        <v>0.010098</v>
+        <v>0.001146</v>
       </c>
       <c r="D74" s="1">
-        <v>0.01013</v>
+        <v>0.001146</v>
       </c>
       <c r="E74" s="1">
-        <v>0.010112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.001145</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.001155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="3">
-        <v>42582</v>
+        <v>42643</v>
       </c>
       <c r="B75" s="1">
-        <v>0.021267</v>
+        <v>0.00083</v>
       </c>
       <c r="C75" s="1">
-        <v>0.021267</v>
+        <v>0.0008309999999999999</v>
       </c>
       <c r="D75" s="1">
-        <v>0.021264</v>
+        <v>0.00083</v>
       </c>
       <c r="E75" s="1">
-        <v>0.021265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.00083</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.0009120000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="3">
-        <v>42613</v>
+        <v>42674</v>
       </c>
       <c r="B76" s="1">
-        <v>0.001143</v>
+        <v>-0.011784</v>
       </c>
       <c r="C76" s="1">
-        <v>0.001146</v>
+        <v>-0.011773</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001146</v>
+        <v>-0.011778</v>
       </c>
       <c r="E76" s="1">
-        <v>0.001145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.011778</v>
+      </c>
+      <c r="F76" s="1">
+        <v>-0.011775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="3">
-        <v>42643</v>
+        <v>42704</v>
       </c>
       <c r="B77" s="1">
-        <v>0.00083</v>
+        <v>-0.011504</v>
       </c>
       <c r="C77" s="1">
-        <v>0.0008309999999999999</v>
+        <v>-0.011503</v>
       </c>
       <c r="D77" s="1">
-        <v>0.00083</v>
+        <v>-0.011501</v>
       </c>
       <c r="E77" s="1">
-        <v>0.00083</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.011502</v>
+      </c>
+      <c r="F77" s="1">
+        <v>-0.011447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="3">
-        <v>42674</v>
+        <v>42735</v>
       </c>
       <c r="B78" s="1">
-        <v>-0.011784</v>
+        <v>0.010278</v>
       </c>
       <c r="C78" s="1">
-        <v>-0.011773</v>
+        <v>0.010006</v>
       </c>
       <c r="D78" s="1">
-        <v>-0.011778</v>
+        <v>0.010143</v>
       </c>
       <c r="E78" s="1">
-        <v>-0.011778</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.010141</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.010322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="3">
-        <v>42704</v>
+        <v>42766</v>
       </c>
       <c r="B79" s="1">
-        <v>-0.011504</v>
+        <v>0.01169</v>
       </c>
       <c r="C79" s="1">
-        <v>-0.011503</v>
+        <v>0.011614</v>
       </c>
       <c r="D79" s="1">
-        <v>-0.011501</v>
+        <v>0.011658</v>
       </c>
       <c r="E79" s="1">
-        <v>-0.011502</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.011655</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.011698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="3">
-        <v>42735</v>
+        <v>42794</v>
       </c>
       <c r="B80" s="1">
-        <v>0.010278</v>
+        <v>0.017668</v>
       </c>
       <c r="C80" s="1">
-        <v>0.010006</v>
+        <v>0.017672</v>
       </c>
       <c r="D80" s="1">
-        <v>0.010143</v>
+        <v>0.017677</v>
       </c>
       <c r="E80" s="1">
-        <v>0.010141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.017674</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.017685</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="3">
-        <v>42766</v>
+        <v>42825</v>
       </c>
       <c r="B81" s="1">
-        <v>0.01169</v>
+        <v>0.005195</v>
       </c>
       <c r="C81" s="1">
-        <v>0.011614</v>
+        <v>0.005195</v>
       </c>
       <c r="D81" s="1">
-        <v>0.011658</v>
+        <v>0.005195</v>
       </c>
       <c r="E81" s="1">
-        <v>0.011655</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.005195</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.005258000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="3">
-        <v>42794</v>
+        <v>42855</v>
       </c>
       <c r="B82" s="1">
-        <v>0.017668</v>
+        <v>0.013597</v>
       </c>
       <c r="C82" s="1">
-        <v>0.017672</v>
+        <v>0.0136</v>
       </c>
       <c r="D82" s="1">
-        <v>0.017677</v>
+        <v>0.013598</v>
       </c>
       <c r="E82" s="1">
-        <v>0.017674</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.013598</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.013641</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="3">
-        <v>42825</v>
+        <v>42886</v>
       </c>
       <c r="B83" s="1">
-        <v>0.005195</v>
+        <v>0.015261</v>
       </c>
       <c r="C83" s="1">
-        <v>0.005195</v>
+        <v>0.015261</v>
       </c>
       <c r="D83" s="1">
-        <v>0.005195</v>
+        <v>0.015262</v>
       </c>
       <c r="E83" s="1">
-        <v>0.005195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.015262</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.01527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="3">
-        <v>42855</v>
+        <v>42916</v>
       </c>
       <c r="B84" s="1">
-        <v>0.013597</v>
+        <v>0.005246</v>
       </c>
       <c r="C84" s="1">
-        <v>0.0136</v>
+        <v>0.005249</v>
       </c>
       <c r="D84" s="1">
-        <v>0.013598</v>
+        <v>0.005264</v>
       </c>
       <c r="E84" s="1">
-        <v>0.013598</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.005257</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.005279000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="3">
-        <v>42886</v>
+        <v>42947</v>
       </c>
       <c r="B85" s="1">
-        <v>0.015261</v>
+        <v>0.011307</v>
       </c>
       <c r="C85" s="1">
-        <v>0.015261</v>
+        <v>0.011307</v>
       </c>
       <c r="D85" s="1">
-        <v>0.015262</v>
+        <v>0.011306</v>
       </c>
       <c r="E85" s="1">
-        <v>0.015262</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.011307</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.011318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="3">
-        <v>42916</v>
+        <v>42978</v>
       </c>
       <c r="B86" s="1">
-        <v>0.005246</v>
+        <v>0.010725</v>
       </c>
       <c r="C86" s="1">
-        <v>0.005249</v>
+        <v>0.010724</v>
       </c>
       <c r="D86" s="1">
-        <v>0.005264</v>
+        <v>0.010725</v>
       </c>
       <c r="E86" s="1">
-        <v>0.005257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.010725</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.010768</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="3">
-        <v>42947</v>
+        <v>43008</v>
       </c>
       <c r="B87" s="1">
-        <v>0.011307</v>
+        <v>0.008107999999999999</v>
       </c>
       <c r="C87" s="1">
-        <v>0.011307</v>
+        <v>0.008107</v>
       </c>
       <c r="D87" s="1">
-        <v>0.011306</v>
+        <v>0.008107</v>
       </c>
       <c r="E87" s="1">
-        <v>0.011307</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.008107</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.008131000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="3">
-        <v>42978</v>
+        <v>43039</v>
       </c>
       <c r="B88" s="1">
-        <v>0.010725</v>
+        <v>0.011965</v>
       </c>
       <c r="C88" s="1">
-        <v>0.010724</v>
+        <v>0.011963</v>
       </c>
       <c r="D88" s="1">
-        <v>0.010725</v>
+        <v>0.011963</v>
       </c>
       <c r="E88" s="1">
-        <v>0.010725</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.011964</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.012022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="3">
-        <v>43008</v>
+        <v>43069</v>
       </c>
       <c r="B89" s="1">
-        <v>0.008107999999999999</v>
+        <v>0.013354</v>
       </c>
       <c r="C89" s="1">
-        <v>0.008107</v>
+        <v>0.013354</v>
       </c>
       <c r="D89" s="1">
-        <v>0.008107</v>
+        <v>0.013356</v>
       </c>
       <c r="E89" s="1">
-        <v>0.008107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.013355</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.013356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="3">
-        <v>43039</v>
+        <v>43100</v>
       </c>
       <c r="B90" s="1">
-        <v>0.011965</v>
+        <v>0.011831</v>
       </c>
       <c r="C90" s="1">
-        <v>0.011963</v>
+        <v>0.012308</v>
       </c>
       <c r="D90" s="1">
-        <v>0.011963</v>
+        <v>0.011977</v>
       </c>
       <c r="E90" s="1">
-        <v>0.011964</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.012016</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.012674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="3">
-        <v>43069</v>
+        <v>43131</v>
       </c>
       <c r="B91" s="1">
-        <v>0.013354</v>
+        <v>0.024717</v>
       </c>
       <c r="C91" s="1">
-        <v>0.013354</v>
+        <v>0.024777</v>
       </c>
       <c r="D91" s="1">
-        <v>0.013356</v>
+        <v>0.016299</v>
       </c>
       <c r="E91" s="1">
-        <v>0.013355</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.019876</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.024838</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="3">
-        <v>43100</v>
+        <v>43159</v>
       </c>
       <c r="B92" s="1">
-        <v>0.011831</v>
+        <v>-0.029926</v>
       </c>
       <c r="C92" s="1">
-        <v>0.012308</v>
+        <v>-0.029924</v>
       </c>
       <c r="D92" s="1">
-        <v>0.011977</v>
+        <v>-0.029905</v>
       </c>
       <c r="E92" s="1">
-        <v>0.012016</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.029913</v>
+      </c>
+      <c r="F92" s="1">
+        <v>-0.029929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="3">
-        <v>43131</v>
+        <v>43190</v>
       </c>
       <c r="B93" s="1">
-        <v>0.024717</v>
+        <v>0.001458</v>
       </c>
       <c r="C93" s="1">
-        <v>0.024777</v>
+        <v>0.001458</v>
       </c>
       <c r="D93" s="1">
-        <v>0.016299</v>
+        <v>0.008959</v>
       </c>
       <c r="E93" s="1">
-        <v>0.019876</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.005778999999999999</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.001458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="3">
-        <v>43159</v>
+        <v>43220</v>
       </c>
       <c r="B94" s="1">
-        <v>-0.029926</v>
+        <v>-0.002009</v>
       </c>
       <c r="C94" s="1">
-        <v>-0.029924</v>
+        <v>-0.002009</v>
       </c>
       <c r="D94" s="1">
-        <v>-0.029905</v>
+        <v>-0.006636</v>
       </c>
       <c r="E94" s="1">
-        <v>-0.029913</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.004682</v>
+      </c>
+      <c r="F94" s="1">
+        <v>-0.002009</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="3">
-        <v>43190</v>
+        <v>43251</v>
       </c>
       <c r="B95" s="1">
-        <v>0.001458</v>
+        <v>0.006971000000000001</v>
       </c>
       <c r="C95" s="1">
-        <v>0.001458</v>
+        <v>0.006965</v>
       </c>
       <c r="D95" s="1">
-        <v>0.008959</v>
+        <v>0.010673</v>
       </c>
       <c r="E95" s="1">
-        <v>0.005778999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.009103</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.006972000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="3">
-        <v>43220</v>
+        <v>43281</v>
       </c>
       <c r="B96" s="1">
-        <v>-0.002009</v>
+        <v>-0.002816</v>
       </c>
       <c r="C96" s="1">
-        <v>-0.002009</v>
+        <v>-0.00284</v>
       </c>
       <c r="D96" s="1">
-        <v>-0.006636</v>
+        <v>-0.001519</v>
       </c>
       <c r="E96" s="1">
-        <v>-0.004682</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.002073</v>
+      </c>
+      <c r="F96" s="1">
+        <v>-0.002804</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="3">
-        <v>43251</v>
+        <v>43312</v>
       </c>
       <c r="B97" s="1">
-        <v>0.006971000000000001</v>
+        <v>0.013499</v>
       </c>
       <c r="C97" s="1">
-        <v>0.006965</v>
+        <v>0.013494</v>
       </c>
       <c r="D97" s="1">
-        <v>0.010673</v>
+        <v>0.005810999999999999</v>
       </c>
       <c r="E97" s="1">
-        <v>0.009103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.009061</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.013504</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="3">
-        <v>43281</v>
+        <v>43343</v>
       </c>
       <c r="B98" s="1">
-        <v>-0.002816</v>
+        <v>0.008215999999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>-0.00284</v>
+        <v>0.00822</v>
       </c>
       <c r="D98" s="1">
-        <v>-0.001519</v>
+        <v>0.010221</v>
       </c>
       <c r="E98" s="1">
-        <v>-0.002073</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.00937</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.008217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="3">
-        <v>43312</v>
+        <v>43373</v>
       </c>
       <c r="B99" s="1">
-        <v>0.013499</v>
+        <v>-0.005064</v>
       </c>
       <c r="C99" s="1">
-        <v>0.013494</v>
+        <v>-0.005064999999999999</v>
       </c>
       <c r="D99" s="1">
-        <v>0.005810999999999999</v>
+        <v>-0.011547</v>
       </c>
       <c r="E99" s="1">
-        <v>0.009061</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.008794</v>
+      </c>
+      <c r="F99" s="1">
+        <v>-0.005053999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="3">
-        <v>43343</v>
+        <v>43404</v>
       </c>
       <c r="B100" s="1">
-        <v>0.008215999999999999</v>
+        <v>-0.040555</v>
       </c>
       <c r="C100" s="1">
-        <v>0.00822</v>
+        <v>-0.040551</v>
       </c>
       <c r="D100" s="1">
-        <v>0.010221</v>
+        <v>-0.039562</v>
       </c>
       <c r="E100" s="1">
-        <v>0.00937</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.039984</v>
+      </c>
+      <c r="F100" s="1">
+        <v>-0.040558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="3">
-        <v>43373</v>
+        <v>43434</v>
       </c>
       <c r="B101" s="1">
-        <v>-0.005064</v>
+        <v>0.01145</v>
       </c>
       <c r="C101" s="1">
-        <v>-0.005064999999999999</v>
+        <v>0.011447</v>
       </c>
       <c r="D101" s="1">
-        <v>-0.011547</v>
+        <v>0.013939</v>
       </c>
       <c r="E101" s="1">
-        <v>-0.008794</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.012878</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.011452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="3">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="B102" s="1">
-        <v>-0.040555</v>
+        <v>-0.016159</v>
       </c>
       <c r="C102" s="1">
-        <v>-0.040551</v>
+        <v>-0.01617</v>
       </c>
       <c r="D102" s="1">
-        <v>-0.039562</v>
+        <v>0.005926</v>
       </c>
       <c r="E102" s="1">
-        <v>-0.039984</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.003477</v>
+      </c>
+      <c r="F102" s="1">
+        <v>-0.016145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="3">
-        <v>43434</v>
+        <v>43496</v>
       </c>
       <c r="B103" s="1">
-        <v>0.01145</v>
+        <v>0.037035</v>
       </c>
       <c r="C103" s="1">
-        <v>0.011447</v>
+        <v>0.037039</v>
       </c>
       <c r="D103" s="1">
-        <v>0.013939</v>
+        <v>0.028362</v>
       </c>
       <c r="E103" s="1">
-        <v>0.012878</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.032009</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.037042</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="3">
-        <v>43465</v>
+        <v>43524</v>
       </c>
       <c r="B104" s="1">
-        <v>-0.016159</v>
+        <v>0.010188</v>
       </c>
       <c r="C104" s="1">
-        <v>-0.01617</v>
+        <v>0.010184</v>
       </c>
       <c r="D104" s="1">
-        <v>0.005926</v>
+        <v>0.002933</v>
       </c>
       <c r="E104" s="1">
-        <v>-0.003477</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>0.005999</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.010191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="3">
-        <v>43496</v>
+        <v>43555</v>
       </c>
       <c r="B105" s="1">
-        <v>0.037035</v>
+        <v>0.021135</v>
       </c>
       <c r="C105" s="1">
-        <v>0.037039</v>
+        <v>0.021127</v>
       </c>
       <c r="D105" s="1">
-        <v>0.028362</v>
+        <v>0.032959</v>
       </c>
       <c r="E105" s="1">
-        <v>0.032009</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>0.027935</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.021151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="3">
-        <v>43524</v>
+        <v>43585</v>
       </c>
       <c r="B106" s="1">
-        <v>0.010188</v>
+        <v>0.010592</v>
       </c>
       <c r="C106" s="1">
-        <v>0.010184</v>
+        <v>0.010584</v>
       </c>
       <c r="D106" s="1">
-        <v>0.002933</v>
+        <v>0.001077</v>
       </c>
       <c r="E106" s="1">
-        <v>0.005999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>0.00509</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.010597</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="3">
-        <v>43555</v>
+        <v>43616</v>
       </c>
       <c r="B107" s="1">
-        <v>0.021135</v>
+        <v>-0.004251</v>
       </c>
       <c r="C107" s="1">
-        <v>0.021127</v>
+        <v>-0.004255</v>
       </c>
       <c r="D107" s="1">
-        <v>0.032959</v>
+        <v>0.020519</v>
       </c>
       <c r="E107" s="1">
-        <v>0.027935</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>0.010002</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-0.004249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="3">
-        <v>43585</v>
+        <v>43646</v>
       </c>
       <c r="B108" s="1">
-        <v>0.010592</v>
+        <v>0.033344</v>
       </c>
       <c r="C108" s="1">
-        <v>0.010584</v>
+        <v>0.033341</v>
       </c>
       <c r="D108" s="1">
-        <v>0.001077</v>
+        <v>0.026978</v>
       </c>
       <c r="E108" s="1">
-        <v>0.00509</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>0.029644</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.033356</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="3">
-        <v>43616</v>
+        <v>43677</v>
       </c>
       <c r="B109" s="1">
-        <v>-0.004251</v>
+        <v>0.005238</v>
       </c>
       <c r="C109" s="1">
-        <v>-0.004255</v>
+        <v>0.00523</v>
       </c>
       <c r="D109" s="1">
-        <v>0.020519</v>
+        <v>0.004394</v>
       </c>
       <c r="E109" s="1">
-        <v>0.010002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>0.004747</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.005241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="3">
-        <v>43646</v>
+        <v>43708</v>
       </c>
       <c r="B110" s="1">
-        <v>0.033344</v>
+        <v>0.024274</v>
       </c>
       <c r="C110" s="1">
-        <v>0.033341</v>
+        <v>0.024213</v>
       </c>
       <c r="D110" s="1">
-        <v>0.026978</v>
+        <v>0.05872</v>
       </c>
       <c r="E110" s="1">
-        <v>0.029644</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>0.044206</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.024308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="3">
-        <v>43677</v>
+        <v>43738</v>
       </c>
       <c r="B111" s="1">
-        <v>0.005238</v>
+        <v>0.002153</v>
       </c>
       <c r="C111" s="1">
-        <v>0.00523</v>
+        <v>0.002218</v>
       </c>
       <c r="D111" s="1">
-        <v>0.004394</v>
+        <v>-0.009623</v>
       </c>
       <c r="E111" s="1">
-        <v>0.004747</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>-0.004635</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.002227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="3">
-        <v>43708</v>
+        <v>43769</v>
       </c>
       <c r="B112" s="1">
-        <v>0.024274</v>
+        <v>0.005681</v>
       </c>
       <c r="C112" s="1">
-        <v>0.024213</v>
+        <v>0.006085</v>
       </c>
       <c r="D112" s="1">
-        <v>0.05872</v>
+        <v>-0.000153</v>
       </c>
       <c r="E112" s="1">
-        <v>0.044206</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>0.002441</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.002473</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="3">
-        <v>43738</v>
+        <v>43799</v>
       </c>
       <c r="B113" s="1">
-        <v>0.002153</v>
+        <v>0.010361</v>
       </c>
       <c r="C113" s="1">
-        <v>0.002218</v>
+        <v>0.010705</v>
       </c>
       <c r="D113" s="1">
-        <v>-0.009623</v>
+        <v>0.006349</v>
       </c>
       <c r="E113" s="1">
-        <v>-0.004635</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>0.008153000000000001</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.008192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="3">
-        <v>43769</v>
+        <v>43830</v>
       </c>
       <c r="B114" s="1">
-        <v>0.005681</v>
+        <v>0.008629</v>
       </c>
       <c r="C114" s="1">
-        <v>0.006085</v>
+        <v>0.007443</v>
       </c>
       <c r="D114" s="1">
-        <v>-0.000153</v>
+        <v>-0.007508</v>
       </c>
       <c r="E114" s="1">
-        <v>0.002441</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>-0.000751</v>
+      </c>
+      <c r="F114" s="1">
+        <v>-0.0007470000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="3">
-        <v>43799</v>
+        <v>43861</v>
       </c>
       <c r="B115" s="1">
-        <v>0.010361</v>
+        <v>0.010016</v>
       </c>
       <c r="C115" s="1">
-        <v>0.010705</v>
+        <v>0.009792</v>
       </c>
       <c r="D115" s="1">
-        <v>0.006349</v>
+        <v>0.037942</v>
       </c>
       <c r="E115" s="1">
-        <v>0.008153000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>0.02564</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.025673</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="3">
-        <v>43830</v>
+        <v>43890</v>
       </c>
       <c r="B116" s="1">
-        <v>0.008629</v>
+        <v>-0.022208</v>
       </c>
       <c r="C116" s="1">
-        <v>0.007443</v>
+        <v>-0.020781</v>
       </c>
       <c r="D116" s="1">
-        <v>-0.007508</v>
+        <v>0.018639</v>
       </c>
       <c r="E116" s="1">
-        <v>-0.000751</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>0.001266</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.001282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="3">
-        <v>43861</v>
+        <v>43921</v>
       </c>
       <c r="B117" s="1">
-        <v>0.010016</v>
+        <v>-0.07419100000000001</v>
       </c>
       <c r="C117" s="1">
-        <v>0.009792</v>
+        <v>-0.07051</v>
       </c>
       <c r="D117" s="1">
-        <v>0.037942</v>
+        <v>-0.012191</v>
       </c>
       <c r="E117" s="1">
-        <v>0.02564</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>-0.037684</v>
+      </c>
+      <c r="F117" s="1">
+        <v>-0.03767</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="3">
-        <v>43890</v>
+        <v>43951</v>
       </c>
       <c r="B118" s="1">
-        <v>-0.022208</v>
+        <v>0.056168</v>
       </c>
       <c r="C118" s="1">
-        <v>-0.020781</v>
+        <v>0.05305</v>
       </c>
       <c r="D118" s="1">
-        <v>0.018639</v>
+        <v>0.037446</v>
       </c>
       <c r="E118" s="1">
-        <v>0.001266</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>0.044486</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.044508</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="3">
-        <v>43921</v>
+        <v>43982</v>
       </c>
       <c r="B119" s="1">
-        <v>-0.07419100000000001</v>
+        <v>0.015041</v>
       </c>
       <c r="C119" s="1">
-        <v>-0.07051</v>
+        <v>0.013544</v>
       </c>
       <c r="D119" s="1">
-        <v>-0.012191</v>
+        <v>-0.004533</v>
       </c>
       <c r="E119" s="1">
-        <v>-0.037684</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>0.003246</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.003265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="3">
-        <v>43951</v>
+        <v>44012</v>
       </c>
       <c r="B120" s="1">
-        <v>0.056168</v>
+        <v>0.012864</v>
       </c>
       <c r="C120" s="1">
-        <v>0.05305</v>
+        <v>0.012183</v>
       </c>
       <c r="D120" s="1">
-        <v>0.037446</v>
+        <v>0.00859</v>
       </c>
       <c r="E120" s="1">
-        <v>0.044486</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>0.010239</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.010239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="3">
-        <v>43982</v>
+        <v>44043</v>
       </c>
       <c r="B121" s="1">
-        <v>0.015041</v>
+        <v>0.034786</v>
       </c>
       <c r="C121" s="1">
-        <v>0.013544</v>
+        <v>0.033863</v>
       </c>
       <c r="D121" s="1">
-        <v>-0.004533</v>
+        <v>0.044461</v>
       </c>
       <c r="E121" s="1">
-        <v>0.003246</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>0.040234</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.04024</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="3">
-        <v>44012</v>
+        <v>44074</v>
       </c>
       <c r="B122" s="1">
-        <v>0.012864</v>
+        <v>0.017061</v>
       </c>
       <c r="C122" s="1">
-        <v>0.012183</v>
+        <v>0.016036</v>
       </c>
       <c r="D122" s="1">
-        <v>0.00859</v>
+        <v>-0.017265</v>
       </c>
       <c r="E122" s="1">
-        <v>0.010239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>-0.003186</v>
+      </c>
+      <c r="F122" s="1">
+        <v>-0.003183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="3">
-        <v>44043</v>
+        <v>44104</v>
       </c>
       <c r="B123" s="1">
-        <v>0.034786</v>
+        <v>-0.014281</v>
       </c>
       <c r="C123" s="1">
-        <v>0.033863</v>
+        <v>-0.013697</v>
       </c>
       <c r="D123" s="1">
-        <v>0.044461</v>
+        <v>-0.005055</v>
       </c>
       <c r="E123" s="1">
-        <v>0.040234</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>-0.008924999999999999</v>
+      </c>
+      <c r="F123" s="1">
+        <v>-0.008980999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="3">
-        <v>44074</v>
+        <v>44135</v>
       </c>
       <c r="B124" s="1">
-        <v>0.017061</v>
+        <v>-0.016704</v>
       </c>
       <c r="C124" s="1">
-        <v>0.016036</v>
+        <v>-0.015702</v>
       </c>
       <c r="D124" s="1">
-        <v>-0.017265</v>
+        <v>-0.023545</v>
       </c>
       <c r="E124" s="1">
-        <v>-0.003186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>-0.020374</v>
+      </c>
+      <c r="F124" s="1">
+        <v>-0.020368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="3">
-        <v>44104</v>
+        <v>44165</v>
       </c>
       <c r="B125" s="1">
-        <v>-0.014281</v>
+        <v>0.065382</v>
       </c>
       <c r="C125" s="1">
-        <v>-0.013697</v>
+        <v>0.06457600000000001</v>
       </c>
       <c r="D125" s="1">
-        <v>-0.005055</v>
+        <v>0.044108</v>
       </c>
       <c r="E125" s="1">
-        <v>-0.008924999999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>0.053226</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.05322499999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="3">
-        <v>44135</v>
+        <v>44196</v>
       </c>
       <c r="B126" s="1">
-        <v>-0.016704</v>
+        <v>0.021767</v>
       </c>
       <c r="C126" s="1">
-        <v>-0.015702</v>
+        <v>0.022151</v>
       </c>
       <c r="D126" s="1">
-        <v>-0.023545</v>
+        <v>0.007529</v>
       </c>
       <c r="E126" s="1">
-        <v>-0.020374</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>0.013933</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.013948</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="3">
-        <v>44165</v>
+        <v>44227</v>
       </c>
       <c r="B127" s="1">
-        <v>0.065382</v>
+        <v>-0.013168</v>
       </c>
       <c r="C127" s="1">
-        <v>0.06457600000000001</v>
+        <v>-0.012301</v>
       </c>
       <c r="D127" s="1">
-        <v>0.044108</v>
+        <v>-0.0263</v>
       </c>
       <c r="E127" s="1">
-        <v>0.053226</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>-0.020192</v>
+      </c>
+      <c r="F127" s="1">
+        <v>-0.020193</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="3">
-        <v>44196</v>
+        <v>44255</v>
       </c>
       <c r="B128" s="1">
-        <v>0.021767</v>
+        <v>-0.002234</v>
       </c>
       <c r="C128" s="1">
-        <v>0.022151</v>
+        <v>-0.000961</v>
       </c>
       <c r="D128" s="1">
-        <v>0.007529</v>
+        <v>-0.032485</v>
       </c>
       <c r="E128" s="1">
-        <v>0.013933</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>-0.018451</v>
+      </c>
+      <c r="F128" s="1">
+        <v>-0.018448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="3">
-        <v>44227</v>
+        <v>44286</v>
       </c>
       <c r="B129" s="1">
-        <v>-0.013168</v>
+        <v>0.01294</v>
       </c>
       <c r="C129" s="1">
-        <v>-0.012301</v>
+        <v>0.013419</v>
       </c>
       <c r="D129" s="1">
-        <v>-0.0263</v>
+        <v>-0.010056</v>
       </c>
       <c r="E129" s="1">
-        <v>-0.020192</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>0.0006980000000000001</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.0007159999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="3">
-        <v>44255</v>
+        <v>44316</v>
       </c>
       <c r="B130" s="1">
-        <v>-0.002234</v>
+        <v>0.028613</v>
       </c>
       <c r="C130" s="1">
-        <v>-0.000961</v>
+        <v>0.028164</v>
       </c>
       <c r="D130" s="1">
-        <v>-0.032485</v>
+        <v>0.029309</v>
       </c>
       <c r="E130" s="1">
-        <v>-0.018451</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>0.028885</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0.028889</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="3">
-        <v>44286</v>
+        <v>44347</v>
       </c>
       <c r="B131" s="1">
-        <v>0.01294</v>
+        <v>0.017591</v>
       </c>
       <c r="C131" s="1">
-        <v>0.013419</v>
+        <v>0.018329</v>
       </c>
       <c r="D131" s="1">
-        <v>-0.010056</v>
+        <v>0.014168</v>
       </c>
       <c r="E131" s="1">
-        <v>0.0006980000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>0.015936</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.015938</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="3">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="B132" s="1">
-        <v>0.028613</v>
+        <v>0.018306</v>
       </c>
       <c r="C132" s="1">
-        <v>0.028164</v>
+        <v>0.017976</v>
       </c>
       <c r="D132" s="1">
-        <v>0.029309</v>
+        <v>0.02898</v>
       </c>
       <c r="E132" s="1">
-        <v>0.028885</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>0.023884</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.02391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="3">
-        <v>44347</v>
+        <v>44408</v>
       </c>
       <c r="B133" s="1">
-        <v>0.017591</v>
+        <v>0.015858</v>
       </c>
       <c r="C133" s="1">
-        <v>0.018329</v>
+        <v>0.01554</v>
       </c>
       <c r="D133" s="1">
-        <v>0.014168</v>
+        <v>0.024879</v>
       </c>
       <c r="E133" s="1">
-        <v>0.015936</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>0.020584</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.020569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="3">
-        <v>44377</v>
+        <v>44439</v>
       </c>
       <c r="B134" s="1">
-        <v>0.018306</v>
+        <v>0.014596</v>
       </c>
       <c r="C134" s="1">
-        <v>0.017976</v>
+        <v>0.014694</v>
       </c>
       <c r="D134" s="1">
-        <v>0.02898</v>
+        <v>0.007593</v>
       </c>
       <c r="E134" s="1">
-        <v>0.023884</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>0.010881</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.010892</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="3">
-        <v>44408</v>
+        <v>44469</v>
       </c>
       <c r="B135" s="1">
-        <v>0.015858</v>
+        <v>-0.034501</v>
       </c>
       <c r="C135" s="1">
-        <v>0.01554</v>
+        <v>-0.037832</v>
       </c>
       <c r="D135" s="1">
-        <v>0.024879</v>
+        <v>-0.030726</v>
       </c>
       <c r="E135" s="1">
-        <v>0.020584</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>-0.033223</v>
+      </c>
+      <c r="F135" s="1">
+        <v>-0.033221</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="3">
-        <v>44439</v>
+        <v>44500</v>
       </c>
       <c r="B136" s="1">
-        <v>0.014596</v>
+        <v>0.034062</v>
       </c>
       <c r="C136" s="1">
-        <v>0.014694</v>
+        <v>0.038085</v>
       </c>
       <c r="D136" s="1">
-        <v>0.007593</v>
+        <v>0.027294</v>
       </c>
       <c r="E136" s="1">
-        <v>0.010881</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>0.031335</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0.031337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="3">
-        <v>44469</v>
+        <v>44530</v>
       </c>
       <c r="B137" s="1">
-        <v>-0.034501</v>
+        <v>0.014583</v>
       </c>
       <c r="C137" s="1">
-        <v>-0.037832</v>
+        <v>0.020934</v>
       </c>
       <c r="D137" s="1">
-        <v>-0.030726</v>
+        <v>0.017182</v>
       </c>
       <c r="E137" s="1">
-        <v>-0.033223</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>0.017353</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0.01736</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="3">
-        <v>44500</v>
+        <v>44561</v>
       </c>
       <c r="B138" s="1">
-        <v>0.034062</v>
+        <v>0.013202</v>
       </c>
       <c r="C138" s="1">
-        <v>0.038085</v>
+        <v>0.009613</v>
       </c>
       <c r="D138" s="1">
-        <v>0.027294</v>
+        <v>0.005379</v>
       </c>
       <c r="E138" s="1">
-        <v>0.031335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>0.00827</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.008281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="3">
-        <v>44530</v>
+        <v>44592</v>
       </c>
       <c r="B139" s="1">
-        <v>0.014583</v>
+        <v>-0.048359</v>
       </c>
       <c r="C139" s="1">
-        <v>0.020934</v>
+        <v>-0.051444</v>
       </c>
       <c r="D139" s="1">
-        <v>0.017182</v>
+        <v>-0.043723</v>
       </c>
       <c r="E139" s="1">
-        <v>0.017353</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>-0.046588</v>
+      </c>
+      <c r="F139" s="1">
+        <v>-0.046586</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="3">
-        <v>44561</v>
+        <v>44620</v>
       </c>
       <c r="B140" s="1">
-        <v>0.013202</v>
+        <v>-0.020498</v>
       </c>
       <c r="C140" s="1">
-        <v>0.009613</v>
+        <v>-0.021976</v>
       </c>
       <c r="D140" s="1">
-        <v>0.005379</v>
+        <v>-0.017199</v>
       </c>
       <c r="E140" s="1">
-        <v>0.00827</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>-0.019075</v>
+      </c>
+      <c r="F140" s="1">
+        <v>-0.019058</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="3">
-        <v>44592</v>
+        <v>44651</v>
       </c>
       <c r="B141" s="1">
-        <v>-0.048359</v>
+        <v>-0.017631</v>
       </c>
       <c r="C141" s="1">
-        <v>-0.051444</v>
+        <v>-0.021784</v>
       </c>
       <c r="D141" s="1">
-        <v>-0.043723</v>
+        <v>-0.026753</v>
       </c>
       <c r="E141" s="1">
-        <v>-0.046588</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>-0.02338</v>
+      </c>
+      <c r="F141" s="1">
+        <v>-0.023376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="3">
-        <v>44620</v>
+        <v>44681</v>
       </c>
       <c r="B142" s="1">
-        <v>-0.020498</v>
+        <v>-0.07614499999999999</v>
       </c>
       <c r="C142" s="1">
-        <v>-0.021976</v>
+        <v>-0.08283599999999999</v>
       </c>
       <c r="D142" s="1">
-        <v>-0.017199</v>
+        <v>-0.080459</v>
       </c>
       <c r="E142" s="1">
-        <v>-0.019075</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>-0.07989399999999999</v>
+      </c>
+      <c r="F142" s="1">
+        <v>-0.079887</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="3">
-        <v>44651</v>
+        <v>44712</v>
       </c>
       <c r="B143" s="1">
-        <v>-0.017631</v>
+        <v>-0.010776</v>
       </c>
       <c r="C143" s="1">
-        <v>-0.021784</v>
+        <v>-0.014128</v>
       </c>
       <c r="D143" s="1">
-        <v>-0.026753</v>
+        <v>-0.006677</v>
       </c>
       <c r="E143" s="1">
-        <v>-0.02338</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>-0.009348</v>
+      </c>
+      <c r="F143" s="1">
+        <v>-0.009331000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="3">
-        <v>44681</v>
+        <v>44742</v>
       </c>
       <c r="B144" s="1">
-        <v>-0.07614499999999999</v>
+        <v>-0.035471</v>
       </c>
       <c r="C144" s="1">
-        <v>-0.08283599999999999</v>
+        <v>-0.033153</v>
       </c>
       <c r="D144" s="1">
-        <v>-0.080459</v>
+        <v>-0.036546</v>
       </c>
       <c r="E144" s="1">
-        <v>-0.07989399999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>-0.035533</v>
+      </c>
+      <c r="F144" s="1">
+        <v>-0.035525</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="3">
-        <v>44712</v>
+        <v>44773</v>
       </c>
       <c r="B145" s="1">
-        <v>-0.010776</v>
+        <v>0.037009</v>
       </c>
       <c r="C145" s="1">
-        <v>-0.014128</v>
+        <v>0.03693</v>
       </c>
       <c r="D145" s="1">
-        <v>-0.006677</v>
+        <v>0.041629</v>
       </c>
       <c r="E145" s="1">
-        <v>-0.009348</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>0.03943</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0.039431</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="3">
-        <v>44742</v>
+        <v>44804</v>
       </c>
       <c r="B146" s="1">
-        <v>-0.035471</v>
+        <v>-0.03947</v>
       </c>
       <c r="C146" s="1">
-        <v>-0.033153</v>
+        <v>-0.04190000000000001</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.036546</v>
+        <v>-0.04367099999999999</v>
       </c>
       <c r="E146" s="1">
-        <v>-0.035533</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>-0.042222</v>
+      </c>
+      <c r="F146" s="1">
+        <v>-0.042204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="3">
-        <v>44773</v>
+        <v>44834</v>
       </c>
       <c r="B147" s="1">
-        <v>0.044124</v>
+        <v>-0.072676</v>
       </c>
       <c r="C147" s="1">
-        <v>0.044082</v>
+        <v>-0.078541</v>
       </c>
       <c r="D147" s="1">
-        <v>0.048284</v>
+        <v>-0.079498</v>
       </c>
       <c r="E147" s="1">
-        <v>0.04631</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="3">
-        <v>44804</v>
-      </c>
-      <c r="B148" s="1">
-        <v>-0.046036</v>
-      </c>
-      <c r="C148" s="1">
-        <v>-0.048478</v>
-      </c>
-      <c r="D148" s="1">
-        <v>-0.049768</v>
-      </c>
-      <c r="E148" s="1">
-        <v>-0.048543</v>
+        <v>-0.07750499999999999</v>
+      </c>
+      <c r="F147" s="1">
+        <v>-0.077504</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A148">
+  <conditionalFormatting sqref="A1:A147">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E148">
+  <conditionalFormatting sqref="B2:F147">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -451,2922 +451,2922 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>40421</v>
+        <v>40451</v>
       </c>
       <c r="B2" s="1">
-        <v>1703519080.08</v>
+        <v>1774147463.24</v>
       </c>
       <c r="C2" s="1">
-        <v>2218270319.77</v>
+        <v>2429501039.02</v>
       </c>
       <c r="D2" s="1">
-        <v>12943159219.5</v>
+        <v>13480390809.59</v>
       </c>
       <c r="E2" s="1">
-        <v>16864948619.35</v>
+        <v>17684039311.85</v>
       </c>
       <c r="F2" s="1">
-        <v>16861309655.06</v>
+        <v>17679729612.38</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>40451</v>
+        <v>40482</v>
       </c>
       <c r="B3" s="1">
-        <v>1774147463.24</v>
+        <v>1900647341.72</v>
       </c>
       <c r="C3" s="1">
-        <v>2429501039.02</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D3" s="1">
-        <v>13480390809.59</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E3" s="1">
-        <v>17684039311.85</v>
+        <v>17795189712.79</v>
       </c>
       <c r="F3" s="1">
-        <v>17679729612.38</v>
+        <v>17911410704.33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3">
-        <v>40482</v>
+        <v>40512</v>
       </c>
       <c r="B4" s="1">
-        <v>1900647341.72</v>
+        <v>1880986063.23</v>
       </c>
       <c r="C4" s="1">
-        <v>2451294838.87</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D4" s="1">
-        <v>13443247532.2</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E4" s="1">
-        <v>17795189712.79</v>
+        <v>19628498009.78</v>
       </c>
       <c r="F4" s="1">
-        <v>17911410704.33</v>
+        <v>17739568210.67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <v>40512</v>
+        <v>40543</v>
       </c>
       <c r="B5" s="1">
-        <v>1880986063.23</v>
+        <v>1928778379.47</v>
       </c>
       <c r="C5" s="1">
-        <v>2932628117.61</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D5" s="1">
-        <v>14814883828.94</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E5" s="1">
-        <v>19628498009.78</v>
+        <v>20035309723.7</v>
       </c>
       <c r="F5" s="1">
-        <v>17739568210.67</v>
+        <v>20258761674.54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3">
-        <v>40543</v>
+        <v>40574</v>
       </c>
       <c r="B6" s="1">
-        <v>1928778379.47</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C6" s="1">
-        <v>3016301371.7</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D6" s="1">
-        <v>15090229972.53</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E6" s="1">
-        <v>20035309723.7</v>
+        <v>21163883643.67</v>
       </c>
       <c r="F6" s="1">
-        <v>20258761674.54</v>
+        <v>21377385003.17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3">
-        <v>40574</v>
+        <v>40602</v>
       </c>
       <c r="B7" s="1">
-        <v>3118038032.57</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C7" s="1">
-        <v>3010941131.67</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D7" s="1">
-        <v>15034904479.43</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E7" s="1">
-        <v>21163883643.67</v>
+        <v>21593049295.12</v>
       </c>
       <c r="F7" s="1">
-        <v>21377385003.17</v>
+        <v>21801960415.92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3">
-        <v>40602</v>
+        <v>40633</v>
       </c>
       <c r="B8" s="1">
-        <v>3181037518.51</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C8" s="1">
-        <v>3072606771.41</v>
+        <v>3077934373.48</v>
       </c>
       <c r="D8" s="1">
-        <v>15339405005.2</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E8" s="1">
-        <v>21593049295.12</v>
+        <v>21597573754.27</v>
       </c>
       <c r="F8" s="1">
-        <v>21801960415.92</v>
+        <v>21805071612.37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3">
-        <v>40633</v>
+        <v>40663</v>
       </c>
       <c r="B9" s="1">
-        <v>3181383242.47</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C9" s="1">
-        <v>3077934373.48</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D9" s="1">
-        <v>15338256138.32</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E9" s="1">
-        <v>21597573754.27</v>
+        <v>22196621501.4</v>
       </c>
       <c r="F9" s="1">
-        <v>21805071612.37</v>
+        <v>22400959905.4</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3">
-        <v>40663</v>
+        <v>40694</v>
       </c>
       <c r="B10" s="1">
-        <v>3268994098.86</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C10" s="1">
-        <v>3168259937.35</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D10" s="1">
-        <v>15759367465.19</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E10" s="1">
-        <v>22196621501.4</v>
+        <v>22284802378.54</v>
       </c>
       <c r="F10" s="1">
-        <v>22400959905.4</v>
+        <v>22482276843.24</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3">
-        <v>40694</v>
+        <v>40724</v>
       </c>
       <c r="B11" s="1">
-        <v>3281525082.01</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C11" s="1">
-        <v>3185699769.88</v>
+        <v>3131056633.27</v>
       </c>
       <c r="D11" s="1">
-        <v>15817577526.65</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E11" s="1">
-        <v>22284802378.54</v>
+        <v>21869307212.61</v>
       </c>
       <c r="F11" s="1">
-        <v>22482276843.24</v>
+        <v>22054914606.43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3">
-        <v>40724</v>
+        <v>40755</v>
       </c>
       <c r="B12" s="1">
-        <v>3219718796.83</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C12" s="1">
-        <v>3131056633.27</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D12" s="1">
-        <v>15518531782.51</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E12" s="1">
-        <v>21869307212.61</v>
+        <v>22052191790.71</v>
       </c>
       <c r="F12" s="1">
-        <v>22054914606.43</v>
+        <v>22231555271.01</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3">
-        <v>40755</v>
+        <v>40786</v>
       </c>
       <c r="B13" s="1">
-        <v>3245901192.15</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C13" s="1">
-        <v>3162162793.97</v>
+        <v>3139082692.54</v>
       </c>
       <c r="D13" s="1">
-        <v>15644127804.59</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E13" s="1">
-        <v>22052191790.71</v>
+        <v>21857328408.78</v>
       </c>
       <c r="F13" s="1">
-        <v>22231555271.01</v>
+        <v>22027918799.94</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3">
-        <v>40786</v>
+        <v>40816</v>
       </c>
       <c r="B14" s="1">
-        <v>3216438061.76</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C14" s="1">
-        <v>3139082692.54</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D14" s="1">
-        <v>15501807654.48</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E14" s="1">
-        <v>21857328408.78</v>
+        <v>21890762234.61</v>
       </c>
       <c r="F14" s="1">
-        <v>22027918799.94</v>
+        <v>22052849274.3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3">
-        <v>40816</v>
+        <v>40847</v>
       </c>
       <c r="B15" s="1">
-        <v>3211645130.63</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C15" s="1">
-        <v>3200272417.15</v>
+        <v>3311931768.5</v>
       </c>
       <c r="D15" s="1">
-        <v>15478844686.83</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E15" s="1">
-        <v>21890762234.61</v>
+        <v>22618006484.29</v>
       </c>
       <c r="F15" s="1">
-        <v>22052849274.3</v>
+        <v>22778089729.38</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3">
-        <v>40847</v>
+        <v>40877</v>
       </c>
       <c r="B16" s="1">
-        <v>3317215603.4</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C16" s="1">
-        <v>3311931768.5</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D16" s="1">
-        <v>15988859112.39</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E16" s="1">
-        <v>22618006484.29</v>
+        <v>22404833979.68</v>
       </c>
       <c r="F16" s="1">
-        <v>22778089729.38</v>
+        <v>22555336103.7</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3">
-        <v>40877</v>
+        <v>40908</v>
       </c>
       <c r="B17" s="1">
-        <v>3279790855.17</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C17" s="1">
-        <v>3286738232.03</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D17" s="1">
-        <v>15838304892.48</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E17" s="1">
-        <v>22404833979.68</v>
+        <v>22610739192.74</v>
       </c>
       <c r="F17" s="1">
-        <v>22555336103.7</v>
+        <v>22760627152.7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3">
-        <v>40908</v>
+        <v>40939</v>
       </c>
       <c r="B18" s="1">
-        <v>3308515656.83</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C18" s="1">
-        <v>3322199318.6</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D18" s="1">
-        <v>15980024217.31</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E18" s="1">
-        <v>22610739192.74</v>
+        <v>23182713107.18</v>
       </c>
       <c r="F18" s="1">
-        <v>22760627152.7</v>
+        <v>23327836945.97</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3">
-        <v>40939</v>
+        <v>40968</v>
       </c>
       <c r="B19" s="1">
-        <v>3390714253.36</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C19" s="1">
-        <v>3411636959.78</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D19" s="1">
-        <v>16380361894.04</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E19" s="1">
-        <v>23182713107.18</v>
+        <v>23539061638.97</v>
       </c>
       <c r="F19" s="1">
-        <v>23327836945.97</v>
+        <v>23683533132.48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3">
-        <v>40968</v>
+        <v>40999</v>
       </c>
       <c r="B20" s="1">
-        <v>3441357193.01</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C20" s="1">
-        <v>3465240303.9</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D20" s="1">
-        <v>16632464142.06</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E20" s="1">
-        <v>23539061638.97</v>
+        <v>23568627738.57</v>
       </c>
       <c r="F20" s="1">
-        <v>23683533132.48</v>
+        <v>23527415369.76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3">
-        <v>40999</v>
+        <v>41029</v>
       </c>
       <c r="B21" s="1">
-        <v>3594273253.88</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C21" s="1">
-        <v>3448893913.05</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D21" s="1">
-        <v>16525460571.64</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E21" s="1">
-        <v>23568627738.57</v>
+        <v>23751063285.04</v>
       </c>
       <c r="F21" s="1">
-        <v>23527415369.76</v>
+        <v>23878250766.57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3">
-        <v>41029</v>
+        <v>41060</v>
       </c>
       <c r="B22" s="1">
-        <v>3620819218.91</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C22" s="1">
-        <v>3481026300.12</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D22" s="1">
-        <v>16649217766.01</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E22" s="1">
-        <v>23751063285.04</v>
+        <v>23525356279.52</v>
       </c>
       <c r="F22" s="1">
-        <v>23878250766.57</v>
+        <v>23642315685.53</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3">
-        <v>41060</v>
+        <v>41090</v>
       </c>
       <c r="B23" s="1">
-        <v>3584994009.65</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C23" s="1">
-        <v>3453190328.12</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D23" s="1">
-        <v>16487171941.75</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E23" s="1">
-        <v>23525356279.52</v>
+        <v>23967119998.88</v>
       </c>
       <c r="F23" s="1">
-        <v>23642315685.53</v>
+        <v>23898064813.57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3">
-        <v>41090</v>
+        <v>41121</v>
       </c>
       <c r="B24" s="1">
-        <v>3803025610.44</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C24" s="1">
-        <v>3497243829.13</v>
+        <v>3572637746.48</v>
       </c>
       <c r="D24" s="1">
-        <v>16666850559.31</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E24" s="1">
-        <v>23967119998.88</v>
+        <v>24445194794.85</v>
       </c>
       <c r="F24" s="1">
-        <v>23898064813.57</v>
+        <v>24549514764.65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3">
-        <v>41121</v>
+        <v>41152</v>
       </c>
       <c r="B25" s="1">
-        <v>3877728751.39</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C25" s="1">
-        <v>3572637746.48</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D25" s="1">
-        <v>16994828296.98</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E25" s="1">
-        <v>24445194794.85</v>
+        <v>24546339462.45</v>
       </c>
       <c r="F25" s="1">
-        <v>24549514764.65</v>
+        <v>24642500384.21</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3">
-        <v>41152</v>
+        <v>41182</v>
       </c>
       <c r="B26" s="1">
-        <v>3892524075.7</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C26" s="1">
-        <v>3592909103.41</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D26" s="1">
-        <v>17060906283.34</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E26" s="1">
-        <v>24546339462.45</v>
+        <v>24697860539.92</v>
       </c>
       <c r="F26" s="1">
-        <v>24642500384.21</v>
+        <v>25154181675.76</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3">
-        <v>41182</v>
+        <v>41213</v>
       </c>
       <c r="B27" s="1">
-        <v>3915294252.8</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C27" s="1">
-        <v>3620604152.58</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D27" s="1">
-        <v>17161962134.54</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E27" s="1">
-        <v>24697860539.92</v>
+        <v>24675789016.94</v>
       </c>
       <c r="F27" s="1">
-        <v>25154181675.76</v>
+        <v>25125272400.54</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3">
-        <v>41213</v>
+        <v>41243</v>
       </c>
       <c r="B28" s="1">
-        <v>3910430761.85</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C28" s="1">
-        <v>3622924774.95</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D28" s="1">
-        <v>17142433480.14</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E28" s="1">
-        <v>24675789016.94</v>
+        <v>24802412939.95</v>
       </c>
       <c r="F28" s="1">
-        <v>25125272400.54</v>
+        <v>25245243669.78</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3">
-        <v>41243</v>
+        <v>41274</v>
       </c>
       <c r="B29" s="1">
-        <v>3929018216.4</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C29" s="1">
-        <v>3646999015.16</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D29" s="1">
-        <v>17226395708.39</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E29" s="1">
-        <v>24802412939.95</v>
+        <v>24895888004.03</v>
       </c>
       <c r="F29" s="1">
-        <v>25245243669.78</v>
+        <v>25331489787.35</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3">
-        <v>41274</v>
+        <v>41305</v>
       </c>
       <c r="B30" s="1">
-        <v>3949731061.55</v>
+        <v>3991599105.71</v>
       </c>
       <c r="C30" s="1">
-        <v>3654809047.65</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D30" s="1">
-        <v>17291347894.83</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E30" s="1">
-        <v>24895888004.03</v>
+        <v>25170522714.13</v>
       </c>
       <c r="F30" s="1">
-        <v>25331489787.35</v>
+        <v>26333049791.22</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3">
-        <v>41305</v>
+        <v>41333</v>
       </c>
       <c r="B31" s="1">
-        <v>3991599105.71</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C31" s="1">
-        <v>4490569394.41</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D31" s="1">
-        <v>16688354214.01</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E31" s="1">
-        <v>25170522714.13</v>
+        <v>25279217396.12</v>
       </c>
       <c r="F31" s="1">
-        <v>26333049791.22</v>
+        <v>26437887737.61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3">
-        <v>41333</v>
+        <v>41364</v>
       </c>
       <c r="B32" s="1">
-        <v>4007467353.78</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C32" s="1">
-        <v>4511270646.88</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D32" s="1">
-        <v>16760479395.46</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E32" s="1">
-        <v>25279217396.12</v>
+        <v>25595621001.76</v>
       </c>
       <c r="F32" s="1">
-        <v>26437887737.61</v>
+        <v>26762244859.97</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3">
-        <v>41364</v>
+        <v>41394</v>
       </c>
       <c r="B33" s="1">
-        <v>4055824611.3</v>
+        <v>4145409199.46</v>
       </c>
       <c r="C33" s="1">
-        <v>4573664426.03</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D33" s="1">
-        <v>16966131964.43</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E33" s="1">
-        <v>25595621001.76</v>
+        <v>26172966159.6</v>
       </c>
       <c r="F33" s="1">
-        <v>26762244859.97</v>
+        <v>27354266269.36</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3">
-        <v>41394</v>
+        <v>41425</v>
       </c>
       <c r="B34" s="1">
-        <v>4145409199.46</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C34" s="1">
-        <v>4682846886.27</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D34" s="1">
-        <v>17344710073.87</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E34" s="1">
-        <v>26172966159.6</v>
+        <v>25673994810.38</v>
       </c>
       <c r="F34" s="1">
-        <v>27354266269.36</v>
+        <v>26825680454.21</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3">
-        <v>41425</v>
+        <v>41455</v>
       </c>
       <c r="B35" s="1">
-        <v>4064569702.63</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C35" s="1">
-        <v>4599347535.9</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D35" s="1">
-        <v>17010077571.85</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E35" s="1">
-        <v>25673994810.38</v>
+        <v>25144254258.35</v>
       </c>
       <c r="F35" s="1">
-        <v>26825680454.21</v>
+        <v>26265676510.43</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3">
-        <v>41455</v>
+        <v>41486</v>
       </c>
       <c r="B36" s="1">
-        <v>3978796970.09</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C36" s="1">
-        <v>4510251396.91</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D36" s="1">
-        <v>16655205891.35</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E36" s="1">
-        <v>25144254258.35</v>
+        <v>25436691656.9</v>
       </c>
       <c r="F36" s="1">
-        <v>26265676510.43</v>
+        <v>26565709631.94</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3">
-        <v>41486</v>
+        <v>41517</v>
       </c>
       <c r="B37" s="1">
-        <v>4023056820.86</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C37" s="1">
-        <v>4568724212.7</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D37" s="1">
-        <v>16844910623.34</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E37" s="1">
-        <v>25436691656.9</v>
+        <v>25090707293.91</v>
       </c>
       <c r="F37" s="1">
-        <v>26565709631.94</v>
+        <v>26201572226.35</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3">
-        <v>41517</v>
+        <v>41547</v>
       </c>
       <c r="B38" s="1">
-        <v>3966340296.1</v>
+        <v>4033439753.48</v>
       </c>
       <c r="C38" s="1">
-        <v>4512507452.03</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D38" s="1">
-        <v>16611859545.78</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E38" s="1">
-        <v>25090707293.91</v>
+        <v>25528497279.93</v>
       </c>
       <c r="F38" s="1">
-        <v>26201572226.35</v>
+        <v>26650940234.76</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3">
-        <v>41547</v>
+        <v>41578</v>
       </c>
       <c r="B39" s="1">
-        <v>4033439753.48</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C39" s="1">
-        <v>4749762591.53</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D39" s="1">
-        <v>16745294934.92</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E39" s="1">
-        <v>25528497279.93</v>
+        <v>26027364114.18</v>
       </c>
       <c r="F39" s="1">
-        <v>26650940234.76</v>
+        <v>27164746657.23</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3">
-        <v>41578</v>
+        <v>41608</v>
       </c>
       <c r="B40" s="1">
-        <v>4110020215.55</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C40" s="1">
-        <v>4848589342.72</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D40" s="1">
-        <v>17068754555.91</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E40" s="1">
-        <v>26027364114.18</v>
+        <v>26003820925.72</v>
       </c>
       <c r="F40" s="1">
-        <v>27164746657.23</v>
+        <v>27132210456.28</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3">
-        <v>41608</v>
+        <v>41639</v>
       </c>
       <c r="B41" s="1">
-        <v>4104202981.72</v>
+        <v>4121232839.29</v>
       </c>
       <c r="C41" s="1">
-        <v>4850653743.4</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D41" s="1">
-        <v>17048964200.6</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E41" s="1">
-        <v>26003820925.72</v>
+        <v>26126288441.74</v>
       </c>
       <c r="F41" s="1">
-        <v>27132210456.28</v>
+        <v>27253687582.98</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3">
-        <v>41639</v>
+        <v>41670</v>
       </c>
       <c r="B42" s="1">
-        <v>4121232839.29</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C42" s="1">
-        <v>4879983265.38</v>
+        <v>4882894726.29</v>
       </c>
       <c r="D42" s="1">
-        <v>17125072337.07</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E42" s="1">
-        <v>26126288441.74</v>
+        <v>26107696311.48</v>
       </c>
       <c r="F42" s="1">
-        <v>27253687582.98</v>
+        <v>27226639980.42</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3">
-        <v>41670</v>
+        <v>41698</v>
       </c>
       <c r="B43" s="1">
-        <v>4116223144.44</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C43" s="1">
-        <v>4882894726.29</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D43" s="1">
-        <v>17108578440.75</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E43" s="1">
-        <v>26107696311.48</v>
+        <v>26638164824.17</v>
       </c>
       <c r="F43" s="1">
-        <v>27226639980.42</v>
+        <v>27769593035.21</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3">
-        <v>41698</v>
+        <v>41729</v>
       </c>
       <c r="B44" s="1">
-        <v>4197240949.36</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C44" s="1">
-        <v>4988729007.27</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D44" s="1">
-        <v>17452194867.54</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E44" s="1">
-        <v>26638164824.17</v>
+        <v>26770056497.39</v>
       </c>
       <c r="F44" s="1">
-        <v>27769593035.21</v>
+        <v>27900602168.04</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3">
-        <v>41729</v>
+        <v>41759</v>
       </c>
       <c r="B45" s="1">
-        <v>4215464347.87</v>
+        <v>4212492467.73</v>
       </c>
       <c r="C45" s="1">
-        <v>5019984158.58</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D45" s="1">
-        <v>17534607990.94</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E45" s="1">
-        <v>26770056497.39</v>
+        <v>26766109574.18</v>
       </c>
       <c r="F45" s="1">
-        <v>27900602168.04</v>
+        <v>27889292662.49</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3">
-        <v>41759</v>
+        <v>41790</v>
       </c>
       <c r="B46" s="1">
-        <v>4212492467.73</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C46" s="1">
-        <v>5026144812.31</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D46" s="1">
-        <v>17527472294.14</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E46" s="1">
-        <v>26766109574.18</v>
+        <v>27191987348.25</v>
       </c>
       <c r="F46" s="1">
-        <v>27889292662.49</v>
+        <v>28325272289.23</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3">
-        <v>41790</v>
+        <v>41820</v>
       </c>
       <c r="B47" s="1">
-        <v>4276832512.93</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C47" s="1">
-        <v>5112975530.56</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D47" s="1">
-        <v>17802179304.76</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E47" s="1">
-        <v>27191987348.25</v>
+        <v>27325686546.76</v>
       </c>
       <c r="F47" s="1">
-        <v>28325272289.23</v>
+        <v>28472678681.56</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B48" s="1">
-        <v>4295140983.11</v>
+        <v>4265451845</v>
       </c>
       <c r="C48" s="1">
-        <v>5144862372.52</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D48" s="1">
-        <v>17885683191.13</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E48" s="1">
-        <v>27325686546.76</v>
+        <v>27156839042.76</v>
       </c>
       <c r="F48" s="1">
-        <v>28472678681.56</v>
+        <v>28289948331.18</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3">
-        <v>41851</v>
+        <v>41882</v>
       </c>
       <c r="B49" s="1">
-        <v>4265451845</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C49" s="1">
-        <v>5119794037.99</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D49" s="1">
-        <v>17771593159.77</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E49" s="1">
-        <v>27156839042.76</v>
+        <v>27744206657.43</v>
       </c>
       <c r="F49" s="1">
-        <v>28289948331.18</v>
+        <v>28894470491.79</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="B50" s="1">
-        <v>4354547211.12</v>
+        <v>4258151023.04</v>
       </c>
       <c r="C50" s="1">
-        <v>5237452701.82</v>
+        <v>5131976211.71</v>
       </c>
       <c r="D50" s="1">
-        <v>18152206744.49</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E50" s="1">
-        <v>27744206657.43</v>
+        <v>27150660877.68</v>
       </c>
       <c r="F50" s="1">
-        <v>28894470491.79</v>
+        <v>28271789225.71</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3">
-        <v>41912</v>
+        <v>41943</v>
       </c>
       <c r="B51" s="1">
-        <v>4258151023.04</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C51" s="1">
-        <v>5131976211.71</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D51" s="1">
-        <v>17760533642.93</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E51" s="1">
-        <v>27150660877.68</v>
+        <v>27371725833.13</v>
       </c>
       <c r="F51" s="1">
-        <v>28271789225.71</v>
+        <v>28498525017</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="B52" s="1">
-        <v>4285163976.8</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C52" s="1">
-        <v>5172926233.01</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D52" s="1">
-        <v>17913635623.32</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E52" s="1">
-        <v>27371725833.13</v>
+        <v>27755933978.37</v>
       </c>
       <c r="F52" s="1">
-        <v>28498525017</v>
+        <v>28890460746.39</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="B53" s="1">
-        <v>4341696562.65</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C53" s="1">
-        <v>5252461885.84</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D53" s="1">
-        <v>18161775529.88</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E53" s="1">
-        <v>27755933978.37</v>
+        <v>28782428258.71</v>
       </c>
       <c r="F53" s="1">
-        <v>28890460746.39</v>
+        <v>29909163526.79</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="B54" s="1">
-        <v>4986611512.07</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C54" s="1">
-        <v>5448191101.38</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D54" s="1">
-        <v>18347625645.26</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E54" s="1">
-        <v>28782428258.71</v>
+        <v>29378034101.34</v>
       </c>
       <c r="F54" s="1">
-        <v>29909163526.79</v>
+        <v>30520363399.73</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="B55" s="1">
-        <v>5087365130.35</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C55" s="1">
-        <v>5567918737.12</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D55" s="1">
-        <v>18722750233.87</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E55" s="1">
-        <v>29378034101.34</v>
+        <v>29527722140.57</v>
       </c>
       <c r="F55" s="1">
-        <v>30520363399.73</v>
+        <v>30682678579.16</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="B56" s="1">
-        <v>5110739057.82</v>
+        <v>5098528846.54</v>
       </c>
       <c r="C56" s="1">
-        <v>5603210665.94</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D56" s="1">
-        <v>18813772416.81</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E56" s="1">
-        <v>29527722140.57</v>
+        <v>29472205126.79</v>
       </c>
       <c r="F56" s="1">
-        <v>30682678579.16</v>
+        <v>30617803151.79</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3">
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="B57" s="1">
-        <v>5098528846.54</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C57" s="1">
-        <v>5599621915.28</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D57" s="1">
-        <v>18774054364.97</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E57" s="1">
-        <v>29472205126.79</v>
+        <v>29408637463</v>
       </c>
       <c r="F57" s="1">
-        <v>30617803151.79</v>
+        <v>30544085686.26</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3">
-        <v>42124</v>
+        <v>42155</v>
       </c>
       <c r="B58" s="1">
-        <v>5084901351.07</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C58" s="1">
-        <v>5594550723.83</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D58" s="1">
-        <v>18729185388.1</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E58" s="1">
-        <v>29408637463</v>
+        <v>29288010554.98</v>
       </c>
       <c r="F58" s="1">
-        <v>30544085686.26</v>
+        <v>30411241858.39</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3">
-        <v>42155</v>
+        <v>42185</v>
       </c>
       <c r="B59" s="1">
-        <v>5061385747.15</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C59" s="1">
-        <v>5578675769.67</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D59" s="1">
-        <v>18647949038.16</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E59" s="1">
-        <v>29288010554.98</v>
+        <v>28650016749.03</v>
       </c>
       <c r="F59" s="1">
-        <v>30411241858.39</v>
+        <v>29741788892.27</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3">
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="B60" s="1">
-        <v>4948449143.55</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C60" s="1">
-        <v>5464086350.67</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D60" s="1">
-        <v>18237481254.81</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E60" s="1">
-        <v>28650016749.03</v>
+        <v>28876185070.36</v>
       </c>
       <c r="F60" s="1">
-        <v>29741788892.27</v>
+        <v>29968273775.33</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3">
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="B61" s="1">
-        <v>4984734110.66</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C61" s="1">
-        <v>5514366076.03</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D61" s="1">
-        <v>18377084883.67</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E61" s="1">
-        <v>28876185070.36</v>
+        <v>28013929187.9</v>
       </c>
       <c r="F61" s="1">
-        <v>29968273775.33</v>
+        <v>29066322305.74</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3">
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="B62" s="1">
-        <v>4833324327.11</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C62" s="1">
-        <v>5356648129.15</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D62" s="1">
-        <v>17823956731.64</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E62" s="1">
-        <v>28013929187.9</v>
+        <v>27687614897.05</v>
       </c>
       <c r="F62" s="1">
-        <v>29066322305.74</v>
+        <v>28720022246.88</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B63" s="1">
-        <v>4774352359.51</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C63" s="1">
-        <v>5301454591.47</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D63" s="1">
-        <v>17611807946.07</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E63" s="1">
-        <v>27687614897.05</v>
+        <v>28326347037.87</v>
       </c>
       <c r="F63" s="1">
-        <v>28720022246.88</v>
+        <v>29360507839.81</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B64" s="1">
-        <v>4880247836.65</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C64" s="1">
-        <v>5397632819.49</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D64" s="1">
-        <v>18048466381.73</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E64" s="1">
-        <v>28326347037.87</v>
+        <v>28136561001.15</v>
       </c>
       <c r="F64" s="1">
-        <v>29360507839.81</v>
+        <v>29172575288.71</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B65" s="1">
-        <v>4844551814.11</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C65" s="1">
-        <v>5368571908.98</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D65" s="1">
-        <v>17923437278.06</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E65" s="1">
-        <v>28136561001.15</v>
+        <v>28846254608.33</v>
       </c>
       <c r="F65" s="1">
-        <v>29172575288.71</v>
+        <v>29862597627.6</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B66" s="1">
-        <v>5415576742.55</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C66" s="1">
-        <v>5709868087.27</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D66" s="1">
-        <v>17720809778.51</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E66" s="1">
-        <v>28846254608.33</v>
+        <v>28336372866.16</v>
       </c>
       <c r="F66" s="1">
-        <v>29862597627.6</v>
+        <v>29326075448.69</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B67" s="1">
-        <v>5318083756.35</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C67" s="1">
-        <v>5616578571.14</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D67" s="1">
-        <v>17401710538.67</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E67" s="1">
-        <v>28336372866.16</v>
+        <v>28455678308.47</v>
       </c>
       <c r="F67" s="1">
-        <v>29326075448.69</v>
+        <v>29440765726.48</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B68" s="1">
-        <v>5338694185.85</v>
+        <v>5505915040.5</v>
       </c>
       <c r="C68" s="1">
-        <v>5647936294.45</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D68" s="1">
-        <v>17469047828.17</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E68" s="1">
-        <v>28455678308.47</v>
+        <v>29356671897.69</v>
       </c>
       <c r="F68" s="1">
-        <v>29440765726.48</v>
+        <v>30362580685</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B69" s="1">
-        <v>5505915040.5</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C69" s="1">
-        <v>5834802926.8</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D69" s="1">
-        <v>18015953930.39</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E69" s="1">
-        <v>29356671897.69</v>
+        <v>29542027110.35</v>
       </c>
       <c r="F69" s="1">
-        <v>30362580685</v>
+        <v>30560223568.3</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B70" s="1">
-        <v>5538988181.45</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C70" s="1">
-        <v>5879483219.72</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D70" s="1">
-        <v>18123555709.18</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E70" s="1">
-        <v>29542027110.35</v>
+        <v>29511421101.44</v>
       </c>
       <c r="F70" s="1">
-        <v>30560223568.3</v>
+        <v>30520464418.77</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B71" s="1">
-        <v>5531594102.95</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C71" s="1">
-        <v>5881279255.87</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D71" s="1">
-        <v>18098547742.62</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E71" s="1">
-        <v>29511421101.44</v>
+        <v>29721833433.55</v>
       </c>
       <c r="F71" s="1">
-        <v>30520464418.77</v>
+        <v>30728992338.24</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B72" s="1">
-        <v>5569334217.76</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C72" s="1">
-        <v>5931068967.2</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D72" s="1">
-        <v>18221430248.59</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E72" s="1">
-        <v>29721833433.55</v>
+        <v>30265143212.71</v>
       </c>
       <c r="F72" s="1">
-        <v>30728992338.24</v>
+        <v>31280132371.05</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B73" s="1">
-        <v>5669685323.09</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C73" s="1">
-        <v>6047546128.94</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D73" s="1">
-        <v>18547911760.68</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E73" s="1">
-        <v>30265143212.71</v>
+        <v>30212255260.83</v>
       </c>
       <c r="F73" s="1">
-        <v>31280132371.05</v>
+        <v>31218710837.63</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B74" s="1">
-        <v>5658306874.65</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C74" s="1">
-        <v>6044991482.23</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D74" s="1">
-        <v>18508956903.95</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E74" s="1">
-        <v>30212255260.83</v>
+        <v>31311189264.37</v>
       </c>
       <c r="F74" s="1">
-        <v>31218710837.63</v>
+        <v>32306086725.3</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B75" s="1">
-        <v>6047292088.02</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C75" s="1">
-        <v>6489780168.17</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D75" s="1">
-        <v>18774117008.18</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E75" s="1">
-        <v>31311189264.37</v>
+        <v>30735701818.56</v>
       </c>
       <c r="F75" s="1">
-        <v>32306086725.3</v>
+        <v>31707560542.83</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B76" s="1">
-        <v>5944249077.31</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C76" s="1">
-        <v>6361287062.33</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D76" s="1">
-        <v>18430165678.92</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E76" s="1">
-        <v>30735701818.56</v>
+        <v>30294149402.87</v>
       </c>
       <c r="F76" s="1">
-        <v>31707560542.83</v>
+        <v>31243895035.79</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B77" s="1">
-        <v>5857951330.08</v>
+        <v>6253513976.5</v>
       </c>
       <c r="C77" s="1">
-        <v>6278318762.68</v>
+        <v>6361809245.25</v>
       </c>
       <c r="D77" s="1">
-        <v>18157879310.11</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E77" s="1">
-        <v>30294149402.87</v>
+        <v>31134559706.61</v>
       </c>
       <c r="F77" s="1">
-        <v>31243895035.79</v>
+        <v>31993862117.18</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B78" s="1">
-        <v>6253513976.5</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C78" s="1">
-        <v>6361809245.25</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D78" s="1">
-        <v>18519236484.86</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E78" s="1">
-        <v>31134559706.61</v>
+        <v>31406628721.6</v>
       </c>
       <c r="F78" s="1">
-        <v>31993862117.18</v>
+        <v>32272409430.99</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B79" s="1">
-        <v>6308462886.34</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C79" s="1">
-        <v>6425317655.9</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D79" s="1">
-        <v>18672848179.36</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E79" s="1">
-        <v>31406628721.6</v>
+        <v>31862928265.29</v>
       </c>
       <c r="F79" s="1">
-        <v>32272409430.99</v>
+        <v>32847863724.8</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B80" s="1">
-        <v>6400976668.18</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C80" s="1">
-        <v>6526279467.15</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D80" s="1">
-        <v>18935672129.96</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E80" s="1">
-        <v>31862928265.29</v>
+        <v>34237217759.41</v>
       </c>
       <c r="F80" s="1">
-        <v>32847863724.8</v>
+        <v>35227095408.74</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B81" s="1">
-        <v>7099971446.02</v>
+        <v>7176134170.54</v>
       </c>
       <c r="C81" s="1">
-        <v>7337629420.28</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D81" s="1">
-        <v>19799616893.11</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E81" s="1">
-        <v>34237217759.41</v>
+        <v>34601219933.72</v>
       </c>
       <c r="F81" s="1">
-        <v>35227095408.74</v>
+        <v>35605325711.35</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B82" s="1">
-        <v>7176134170.54</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C82" s="1">
-        <v>7422733235.89</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D82" s="1">
-        <v>20002352527.29</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E82" s="1">
-        <v>34601219933.72</v>
+        <v>35025479666.84</v>
       </c>
       <c r="F82" s="1">
-        <v>35605325711.35</v>
+        <v>36045330946.54</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="3">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B83" s="1">
-        <v>7264954337.05</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C83" s="1">
-        <v>7523682920.77</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D83" s="1">
-        <v>20236842409.02</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E83" s="1">
-        <v>35025479666.84</v>
+        <v>35106583260.6</v>
       </c>
       <c r="F83" s="1">
-        <v>36045330946.54</v>
+        <v>36131069554.68</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="3">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B84" s="1">
-        <v>7282406497.08</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C84" s="1">
-        <v>7549356808.18</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D84" s="1">
-        <v>20274819955.34</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E84" s="1">
-        <v>35106583260.6</v>
+        <v>35405791867.57</v>
       </c>
       <c r="F84" s="1">
-        <v>36131069554.68</v>
+        <v>36440249931.02</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="3">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B85" s="1">
-        <v>7343644210.4</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C85" s="1">
-        <v>7623588366.49</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D85" s="1">
-        <v>20438559290.68</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E85" s="1">
-        <v>35405791867.57</v>
+        <v>35685515267.03</v>
       </c>
       <c r="F85" s="1">
-        <v>36440249931.02</v>
+        <v>36731307884.26</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B86" s="1">
-        <v>7401114464.44</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C86" s="1">
-        <v>7693916997.08</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D86" s="1">
-        <v>20590483805.51</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E86" s="1">
-        <v>35685515267.03</v>
+        <v>35874943914.43</v>
       </c>
       <c r="F86" s="1">
-        <v>36731307884.26</v>
+        <v>36929261044</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B87" s="1">
-        <v>7439354518.62</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C87" s="1">
-        <v>7744728806.72</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D87" s="1">
-        <v>20690860589.09</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E87" s="1">
-        <v>35874943914.43</v>
+        <v>36114919745.74</v>
       </c>
       <c r="F87" s="1">
-        <v>36929261044</v>
+        <v>37181963756.37</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B88" s="1">
-        <v>7501162607.24</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C88" s="1">
-        <v>7797612927.14</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D88" s="1">
-        <v>20816144211.36</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E88" s="1">
-        <v>36114919745.74</v>
+        <v>36495613500.11</v>
       </c>
       <c r="F88" s="1">
-        <v>37181963756.37</v>
+        <v>37576800847.56</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B89" s="1">
-        <v>7578785278.66</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C89" s="1">
-        <v>7890046689.69</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D89" s="1">
-        <v>21026781531.76</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E89" s="1">
-        <v>36495613500.11</v>
+        <v>41856058020.2</v>
       </c>
       <c r="F89" s="1">
-        <v>37576800847.56</v>
+        <v>37949036056.54</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B90" s="1">
-        <v>9002210135.43</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C90" s="1">
-        <v>8628245002.959999</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D90" s="1">
-        <v>24225602881.81</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E90" s="1">
-        <v>41856058020.2</v>
+        <v>42583718320.38</v>
       </c>
       <c r="F90" s="1">
-        <v>37949036056.54</v>
+        <v>36126703368.99</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="3">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B91" s="1">
-        <v>9202610590.719999</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C91" s="1">
-        <v>8830545061.309999</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D91" s="1">
-        <v>24550562668.35</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E91" s="1">
-        <v>42583718320.38</v>
+        <v>41211648261.71</v>
       </c>
       <c r="F91" s="1">
-        <v>36126703368.99</v>
+        <v>34947041283.19</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="3">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B92" s="1">
-        <v>8905152042.110001</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C92" s="1">
-        <v>8554843302.12</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D92" s="1">
-        <v>23751652917.48</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E92" s="1">
-        <v>41211648261.71</v>
+        <v>41345470043.96999</v>
       </c>
       <c r="F92" s="1">
-        <v>34947041283.19</v>
+        <v>34893565647.81</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="3">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B93" s="1">
-        <v>8894650969.91</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C93" s="1">
-        <v>8555117311.3</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D93" s="1">
-        <v>23895701762.76</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E93" s="1">
-        <v>41345470043.96999</v>
+        <v>41046760638.73</v>
       </c>
       <c r="F93" s="1">
-        <v>34893565647.81</v>
+        <v>34718322290.49</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B94" s="1">
-        <v>8853026337.98</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C94" s="1">
-        <v>8525561703.78</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D94" s="1">
-        <v>23668172596.97</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E94" s="1">
-        <v>41046760638.73</v>
+        <v>41313232056.15</v>
       </c>
       <c r="F94" s="1">
-        <v>34718322290.49</v>
+        <v>34853430635.59</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B95" s="1">
-        <v>8890561971.129999</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C95" s="1">
-        <v>8572549061.9</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D95" s="1">
-        <v>23850121023.12</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E95" s="1">
-        <v>41313232056.15</v>
+        <v>41121031725</v>
       </c>
       <c r="F95" s="1">
-        <v>34853430635.59</v>
+        <v>34649138195.13</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B96" s="1">
-        <v>8841470603.15</v>
+        <v>8936073454</v>
       </c>
       <c r="C96" s="1">
-        <v>8535731069.89</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D96" s="1">
-        <v>23743830051.96</v>
+        <v>23810581356</v>
       </c>
       <c r="E96" s="1">
-        <v>41121031725</v>
+        <v>41384588267.64</v>
       </c>
       <c r="F96" s="1">
-        <v>34649138195.13</v>
+        <v>35007279828.93</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B97" s="1">
-        <v>8936073454</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C97" s="1">
-        <v>8637933457.639999</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D97" s="1">
-        <v>23810581356</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E97" s="1">
-        <v>41384588267.64</v>
+        <v>41662803021.32</v>
       </c>
       <c r="F97" s="1">
-        <v>35007279828.93</v>
+        <v>35185061352.95</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B98" s="1">
-        <v>8984375598.66</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C98" s="1">
-        <v>8696018228.42</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D98" s="1">
-        <v>23982409194.24</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E98" s="1">
-        <v>41662803021.32</v>
+        <v>41186947565</v>
       </c>
       <c r="F98" s="1">
-        <v>35185061352.95</v>
+        <v>34897241234.02</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="3">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B99" s="1">
-        <v>8913881251.4</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C99" s="1">
-        <v>8639086304.16</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D99" s="1">
-        <v>23633980009.44</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E99" s="1">
-        <v>41186947565</v>
+        <v>39383035110.98</v>
       </c>
       <c r="F99" s="1">
-        <v>34897241234.02</v>
+        <v>33324461630.84</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="3">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B100" s="1">
-        <v>8522844994.4</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C100" s="1">
-        <v>8244001106.42</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D100" s="1">
-        <v>22616189010.16</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E100" s="1">
-        <v>39383035110.98</v>
+        <v>39775163930.18</v>
       </c>
       <c r="F100" s="1">
-        <v>33324461630.84</v>
+        <v>33590951046.18</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="3">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B101" s="1">
-        <v>8594776142.139999</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C101" s="1">
-        <v>8324970365.95</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D101" s="1">
-        <v>22855417422.09</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E101" s="1">
-        <v>39775163930.18</v>
+        <v>39522985371.47</v>
       </c>
       <c r="F101" s="1">
-        <v>33590951046.18</v>
+        <v>32936056236.9</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B102" s="1">
-        <v>8430913509.88</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C102" s="1">
-        <v>8177279951.57</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D102" s="1">
-        <v>22914791910.02</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E102" s="1">
-        <v>39522985371.47</v>
+        <v>40670053634.92</v>
       </c>
       <c r="F102" s="1">
-        <v>32936056236.9</v>
+        <v>34114984114.15</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B103" s="1">
-        <v>8716930851.969999</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C103" s="1">
-        <v>8466374243.34</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D103" s="1">
-        <v>23486748539.61</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E103" s="1">
-        <v>40670053634.92</v>
+        <v>40797813026.7</v>
       </c>
       <c r="F103" s="1">
-        <v>34114984114.15</v>
+        <v>34345800814.97</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B104" s="1">
-        <v>8780002278.02</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C104" s="1">
-        <v>8538970109.85</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D104" s="1">
-        <v>23478840638.83</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E104" s="1">
-        <v>40797813026.7</v>
+        <v>41816102147.74</v>
       </c>
       <c r="F104" s="1">
-        <v>34345800814.97</v>
+        <v>34951519519.29</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B105" s="1">
-        <v>8939502054.139999</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C105" s="1">
-        <v>8705342961.4</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D105" s="1">
-        <v>24171257132.2</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E105" s="1">
-        <v>41816102147.74</v>
+        <v>42743107013</v>
       </c>
       <c r="F105" s="1">
-        <v>34951519519.29</v>
+        <v>35544104423.43</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B106" s="1">
-        <v>9008244776.280001</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C106" s="1">
-        <v>9126959379.24</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D106" s="1">
-        <v>24607902857.48</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E106" s="1">
-        <v>42743107013</v>
+        <v>43049605454.39</v>
       </c>
       <c r="F106" s="1">
-        <v>35544104423.43</v>
+        <v>35353126027.34</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="3">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B107" s="1">
-        <v>8944260855.860001</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C107" s="1">
-        <v>9074029379.02</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D107" s="1">
-        <v>25031315219.51</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E107" s="1">
-        <v>43049605454.39</v>
+        <v>44201897165.55</v>
       </c>
       <c r="F107" s="1">
-        <v>35353126027.34</v>
+        <v>36407955381.8</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="3">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B108" s="1">
-        <v>9215995868.950001</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C108" s="1">
-        <v>9361706609.469999</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D108" s="1">
-        <v>25624194687.13</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E108" s="1">
-        <v>44201897165.55</v>
+        <v>44289278505.62</v>
       </c>
       <c r="F108" s="1">
-        <v>36407955381.8</v>
+        <v>36475732007.89</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="3">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B109" s="1">
-        <v>9238385070.67</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C109" s="1">
-        <v>9396108735.549999</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D109" s="1">
-        <v>25654784699.4</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E109" s="1">
-        <v>44289278505.62</v>
+        <v>46120311881.3</v>
       </c>
       <c r="F109" s="1">
-        <v>36475732007.89</v>
+        <v>37237277255.72</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B110" s="1">
-        <v>9436337524.57</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C110" s="1">
-        <v>9608738306.559999</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D110" s="1">
-        <v>27075236050.17</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E110" s="1">
-        <v>46120311881.3</v>
+        <v>46949593594.97</v>
       </c>
       <c r="F110" s="1">
-        <v>37237277255.72</v>
+        <v>37278149188.28</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B111" s="1">
-        <v>10602215448.62</v>
+        <v>10608252625.24</v>
       </c>
       <c r="C111" s="1">
-        <v>9614794478.780001</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D111" s="1">
-        <v>26732583667.57</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E111" s="1">
-        <v>46949593594.97</v>
+        <v>46865708662.23</v>
       </c>
       <c r="F111" s="1">
-        <v>37278149188.28</v>
+        <v>45620639518.53</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B112" s="1">
-        <v>10608252625.24</v>
+        <v>10692316903.4</v>
       </c>
       <c r="C112" s="1">
-        <v>9625407467.91</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D112" s="1">
-        <v>26632048569.08</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E112" s="1">
-        <v>46865708662.23</v>
+        <v>47123617172.53</v>
       </c>
       <c r="F112" s="1">
-        <v>45620639518.53</v>
+        <v>46986534776.59</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B113" s="1">
-        <v>10692316903.4</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C113" s="1">
-        <v>9713037686.17</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D113" s="1">
-        <v>26718262582.96</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E113" s="1">
-        <v>47123617172.53</v>
+        <v>46141633527.96</v>
       </c>
       <c r="F113" s="1">
-        <v>46986534776.59</v>
+        <v>46024238147.58</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B114" s="1">
-        <v>10758442213.97</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C114" s="1">
-        <v>9477691033.26</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D114" s="1">
-        <v>25905500280.73</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E114" s="1">
-        <v>46141633527.96</v>
+        <v>47197661020.02</v>
       </c>
       <c r="F114" s="1">
-        <v>46024238147.58</v>
+        <v>47145264898.48</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="3">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B115" s="1">
-        <v>10840639312.88</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C115" s="1">
-        <v>9555218261.01</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D115" s="1">
-        <v>26801803446.13</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E115" s="1">
-        <v>47197661020.02</v>
+        <v>47123824802.83</v>
       </c>
       <c r="F115" s="1">
-        <v>47145264898.48</v>
+        <v>47102840330.35</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="3">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B116" s="1">
-        <v>10574286223.88</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C116" s="1">
-        <v>9338936485.4</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D116" s="1">
-        <v>27210602093.55</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E116" s="1">
-        <v>47123824802.83</v>
+        <v>45204026385.17001</v>
       </c>
       <c r="F116" s="1">
-        <v>47102840330.35</v>
+        <v>45203532515.5</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="3">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B117" s="1">
-        <v>9764305551.360001</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C117" s="1">
-        <v>8664875030.02</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D117" s="1">
-        <v>26774845803.79</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E117" s="1">
-        <v>45204026385.17001</v>
+        <v>47064011332.71</v>
       </c>
       <c r="F117" s="1">
-        <v>45203532515.5</v>
+        <v>47063659448.95</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="3">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B118" s="1">
-        <v>10283094677.36</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C118" s="1">
-        <v>9107006952.52</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D118" s="1">
-        <v>27673909702.83</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E118" s="1">
-        <v>47064011332.71</v>
+        <v>47081138950.00999</v>
       </c>
       <c r="F118" s="1">
-        <v>47063659448.95</v>
+        <v>47080894938.3</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="3">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B119" s="1">
-        <v>10409182664.05</v>
+        <v>10514205392.24</v>
       </c>
       <c r="C119" s="1">
-        <v>9213245024.98</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D119" s="1">
-        <v>27458711260.98</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E119" s="1">
-        <v>47081138950.00999</v>
+        <v>47426564864.18</v>
       </c>
       <c r="F119" s="1">
-        <v>47080894938.3</v>
+        <v>47425304505.7</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="3">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B120" s="1">
-        <v>10514205392.24</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C120" s="1">
-        <v>9308097696.17</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D120" s="1">
-        <v>27604261775.77</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E120" s="1">
-        <v>47426564864.18</v>
+        <v>49195665095.83</v>
       </c>
       <c r="F120" s="1">
-        <v>47425304505.7</v>
+        <v>49191446952.15</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="3">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B121" s="1">
-        <v>10849449410.81</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C121" s="1">
-        <v>9606421868.530001</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D121" s="1">
-        <v>28739793816.49</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E121" s="1">
-        <v>49195665095.83</v>
+        <v>48906083609.04</v>
       </c>
       <c r="F121" s="1">
-        <v>49191446952.15</v>
+        <v>48904844973.57</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="3">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B122" s="1">
-        <v>11005151438.13</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C122" s="1">
-        <v>9743289163.68</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D122" s="1">
-        <v>28157643007.23</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E122" s="1">
-        <v>48906083609.04</v>
+        <v>49328692500.60999</v>
       </c>
       <c r="F122" s="1">
-        <v>48904844973.57</v>
+        <v>49327891655.97</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="3">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B123" s="1">
-        <v>11506934819.12</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C123" s="1">
-        <v>9894562298.549999</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D123" s="1">
-        <v>27927195382.94</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E123" s="1">
-        <v>49328692500.60999</v>
+        <v>48026054531.55</v>
       </c>
       <c r="F123" s="1">
-        <v>49327891655.97</v>
+        <v>48024908266.78</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="3">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B124" s="1">
-        <v>11238592497.88</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C124" s="1">
-        <v>9700328704.629999</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D124" s="1">
-        <v>27087133329.04</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E124" s="1">
-        <v>48026054531.55</v>
+        <v>50440003419.03</v>
       </c>
       <c r="F124" s="1">
-        <v>48024908266.78</v>
+        <v>50438850250.79</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="3">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B125" s="1">
-        <v>11941273405.45</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C125" s="1">
-        <v>10308274207.78</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D125" s="1">
-        <v>28190455805.8</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E125" s="1">
-        <v>50440003419.03</v>
+        <v>52788485957.46</v>
       </c>
       <c r="F125" s="1">
-        <v>50438850250.79</v>
+        <v>52787920332.11</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="3">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B126" s="1">
-        <v>12756299620.31</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C126" s="1">
-        <v>11053433125.61</v>
+        <v>10900299506.57</v>
       </c>
       <c r="D126" s="1">
-        <v>28978753211.54</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E126" s="1">
-        <v>52788485957.46</v>
+        <v>51588003234.73</v>
       </c>
       <c r="F126" s="1">
-        <v>52787920332.11</v>
+        <v>51586801167.14</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="3">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B127" s="1">
-        <v>12558243414.61</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C127" s="1">
-        <v>10900299506.57</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D127" s="1">
-        <v>28129460313.55</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E127" s="1">
-        <v>51588003234.73</v>
+        <v>50499345827.99</v>
       </c>
       <c r="F127" s="1">
-        <v>51586801167.14</v>
+        <v>50498271333.38</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="3">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B128" s="1">
-        <v>12499730482.13</v>
+        <v>12629967215.83</v>
       </c>
       <c r="C128" s="1">
-        <v>10872197550.37</v>
+        <v>10999754121.32</v>
       </c>
       <c r="D128" s="1">
-        <v>27127417795.49</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E128" s="1">
-        <v>50499345827.99</v>
+        <v>50392716520.31</v>
       </c>
       <c r="F128" s="1">
-        <v>50498271333.38</v>
+        <v>50392459354.27</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="3">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B129" s="1">
-        <v>12629967215.83</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C129" s="1">
-        <v>10999754121.32</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D129" s="1">
-        <v>26762995183.16</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E129" s="1">
-        <v>50392716520.31</v>
+        <v>51700983288.71</v>
       </c>
       <c r="F129" s="1">
-        <v>50392459354.27</v>
+        <v>51699898092.8</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="3">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B130" s="1">
-        <v>12959077328.64</v>
+        <v>13155170030.18</v>
       </c>
       <c r="C130" s="1">
-        <v>11290601383.86</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D130" s="1">
-        <v>27451304576.21</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E130" s="1">
-        <v>51700983288.71</v>
+        <v>52378555427.81</v>
       </c>
       <c r="F130" s="1">
-        <v>51699898092.8</v>
+        <v>52377491168.6</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="3">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B131" s="1">
-        <v>13155170030.18</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C131" s="1">
-        <v>11478701164.89</v>
+        <v>11665454270.74</v>
       </c>
       <c r="D131" s="1">
-        <v>27744684232.74</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E131" s="1">
-        <v>52378555427.81</v>
+        <v>53479161312.64</v>
       </c>
       <c r="F131" s="1">
-        <v>52377491168.6</v>
+        <v>53478852821.66</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="3">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B132" s="1">
-        <v>13363308598.31</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C132" s="1">
-        <v>11665454270.74</v>
+        <v>11826970568.32</v>
       </c>
       <c r="D132" s="1">
-        <v>28450398443.59</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E132" s="1">
-        <v>53479161312.64</v>
+        <v>54428748586.62</v>
       </c>
       <c r="F132" s="1">
-        <v>53478852821.66</v>
+        <v>54427407343.81</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="3">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B133" s="1">
-        <v>13542680564.47</v>
+        <v>13707767980.07</v>
       </c>
       <c r="C133" s="1">
-        <v>11826970568.32</v>
+        <v>11980671064.48</v>
       </c>
       <c r="D133" s="1">
-        <v>29059097453.83</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E133" s="1">
-        <v>54428748586.62</v>
+        <v>54870336763.75999</v>
       </c>
       <c r="F133" s="1">
-        <v>54427407343.81</v>
+        <v>54869685745.92</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="3">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B134" s="1">
-        <v>13707767980.07</v>
+        <v>13203547316.24</v>
       </c>
       <c r="C134" s="1">
-        <v>11980671064.48</v>
+        <v>11508277149.59</v>
       </c>
       <c r="D134" s="1">
-        <v>29181897719.21</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E134" s="1">
-        <v>54870336763.75999</v>
+        <v>52901048832.99</v>
       </c>
       <c r="F134" s="1">
-        <v>54869685745.92</v>
+        <v>52899987106.51</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="3">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B135" s="1">
-        <v>13203547316.24</v>
+        <v>13619689152.99</v>
       </c>
       <c r="C135" s="1">
-        <v>11508277149.59</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D135" s="1">
-        <v>28189224367.16</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E135" s="1">
-        <v>52901048832.99</v>
+        <v>54300766813.44</v>
       </c>
       <c r="F135" s="1">
-        <v>52899987106.51</v>
+        <v>54299678668.4</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="3">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B136" s="1">
-        <v>13619689152.99</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C136" s="1">
-        <v>11898653834.64</v>
+        <v>12126631727.77</v>
       </c>
       <c r="D136" s="1">
-        <v>28782423825.81</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E136" s="1">
-        <v>54300766813.44</v>
+        <v>55089355967.77</v>
       </c>
       <c r="F136" s="1">
-        <v>54299678668.4</v>
+        <v>55088773683.99</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="3">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B137" s="1">
-        <v>13785068283.86</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C137" s="1">
-        <v>12126631727.77</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D137" s="1">
-        <v>29177655956.14</v>
+        <v>29369048113</v>
       </c>
       <c r="E137" s="1">
-        <v>55089355967.77</v>
+        <v>55524868915.5</v>
       </c>
       <c r="F137" s="1">
-        <v>55088773683.99</v>
+        <v>55524301502.51</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="3">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B138" s="1">
-        <v>13933499672.22</v>
+        <v>13228050556.07</v>
       </c>
       <c r="C138" s="1">
-        <v>12222321130.28</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D138" s="1">
-        <v>29369048113</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E138" s="1">
-        <v>55524868915.5</v>
+        <v>52791395368.22</v>
       </c>
       <c r="F138" s="1">
-        <v>55524301502.51</v>
+        <v>52790186100.2</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="3">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B139" s="1">
-        <v>13228050556.07</v>
+        <v>12924236126.56</v>
       </c>
       <c r="C139" s="1">
-        <v>11573834300.94</v>
+        <v>11299022364.73</v>
       </c>
       <c r="D139" s="1">
-        <v>27989510511.21</v>
+        <v>27410006047.48</v>
       </c>
       <c r="E139" s="1">
-        <v>52791395368.22</v>
+        <v>51633264538.77</v>
       </c>
       <c r="F139" s="1">
-        <v>52790186100.2</v>
+        <v>51632693047.39</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="3">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B140" s="1">
-        <v>12924236126.56</v>
+        <v>12662771414.75</v>
       </c>
       <c r="C140" s="1">
-        <v>11299022364.73</v>
+        <v>11031166589.13</v>
       </c>
       <c r="D140" s="1">
-        <v>27410006047.48</v>
+        <v>26576348005.31</v>
       </c>
       <c r="E140" s="1">
-        <v>51633264538.77</v>
+        <v>50270286009.19</v>
       </c>
       <c r="F140" s="1">
-        <v>51632693047.39</v>
+        <v>50269272742.92</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="3">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B141" s="1">
-        <v>12662771414.75</v>
+        <v>11666882480.45</v>
       </c>
       <c r="C141" s="1">
-        <v>11031166589.13</v>
+        <v>10097030956.61</v>
       </c>
       <c r="D141" s="1">
-        <v>26576348005.31</v>
+        <v>24343752751.24</v>
       </c>
       <c r="E141" s="1">
-        <v>50270286009.19</v>
+        <v>46107666188.3</v>
       </c>
       <c r="F141" s="1">
-        <v>50269272742.92</v>
+        <v>46106802062.87</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="3">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B142" s="1">
-        <v>11666882480.45</v>
+        <v>11506881422.34</v>
       </c>
       <c r="C142" s="1">
-        <v>10097030956.61</v>
+        <v>9932226543.780001</v>
       </c>
       <c r="D142" s="1">
-        <v>24343752751.24</v>
+        <v>24079986770.42</v>
       </c>
       <c r="E142" s="1">
-        <v>46107666188.3</v>
+        <v>45519094736.53999</v>
       </c>
       <c r="F142" s="1">
-        <v>46106802062.87</v>
+        <v>45518750923.86</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="3">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B143" s="1">
-        <v>11506881422.34</v>
+        <v>11065097064.85</v>
       </c>
       <c r="C143" s="1">
-        <v>9932226543.780001</v>
+        <v>9580933722.4</v>
       </c>
       <c r="D143" s="1">
-        <v>24079986770.42</v>
+        <v>23101412415.21</v>
       </c>
       <c r="E143" s="1">
-        <v>45519094736.53999</v>
+        <v>43747443202.46</v>
       </c>
       <c r="F143" s="1">
-        <v>45518750923.86</v>
+        <v>43746561277.33</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="3">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B144" s="1">
-        <v>11065097064.85</v>
+        <v>11438117231.49</v>
       </c>
       <c r="C144" s="1">
-        <v>9580933722.4</v>
+        <v>9910543756.66</v>
       </c>
       <c r="D144" s="1">
-        <v>23101412415.21</v>
+        <v>23955770271.21</v>
       </c>
       <c r="E144" s="1">
-        <v>43747443202.46</v>
+        <v>45304431259.36</v>
       </c>
       <c r="F144" s="1">
-        <v>43746561277.33</v>
+        <v>45303131705.44</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="3">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B145" s="1">
-        <v>11438117231.49</v>
+        <v>10953128495.09</v>
       </c>
       <c r="C145" s="1">
-        <v>9910543756.66</v>
+        <v>9473104540.35</v>
       </c>
       <c r="D145" s="1">
-        <v>23955770271.21</v>
+        <v>22811356969.86</v>
       </c>
       <c r="E145" s="1">
-        <v>45304431259.36</v>
+        <v>43237590005.3</v>
       </c>
       <c r="F145" s="1">
-        <v>45303131705.44</v>
+        <v>43237193282.92</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="3">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B146" s="1">
-        <v>10953128495.09</v>
+        <v>11033073157.63</v>
       </c>
       <c r="C146" s="1">
-        <v>9473104540.35</v>
+        <v>9094083273.629999</v>
       </c>
       <c r="D146" s="1">
-        <v>22811356969.86</v>
+        <v>21389518149.24</v>
       </c>
       <c r="E146" s="1">
-        <v>43237590005.3</v>
+        <v>41516674580.5</v>
       </c>
       <c r="F146" s="1">
-        <v>43237193282.92</v>
+        <v>41515240522.93</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="3">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B147" s="1">
-        <v>11033073157.63</v>
+        <v>10914128661.11</v>
       </c>
       <c r="C147" s="1">
-        <v>9094083273.629999</v>
+        <v>8878139505.809999</v>
       </c>
       <c r="D147" s="1">
-        <v>21389518149.24</v>
+        <v>20920920146.98</v>
       </c>
       <c r="E147" s="1">
-        <v>41516674580.5</v>
+        <v>40713188313.89999</v>
       </c>
       <c r="F147" s="1">
-        <v>41515240522.93</v>
+        <v>40712619772.52</v>
       </c>
     </row>
   </sheetData>
@@ -3417,2922 +3417,2922 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>40421</v>
+        <v>40451</v>
       </c>
       <c r="B2" s="1">
-        <v>0.001548</v>
+        <v>0.04532</v>
       </c>
       <c r="C2" s="1">
-        <v>0.001558</v>
+        <v>0.045333</v>
       </c>
       <c r="D2" s="1">
-        <v>0.00155</v>
+        <v>0.045331</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001551</v>
+        <v>0.04533</v>
       </c>
       <c r="F2" s="1">
-        <v>0.001561</v>
+        <v>0.045364</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>40451</v>
+        <v>40482</v>
       </c>
       <c r="B3" s="1">
-        <v>0.04532</v>
+        <v>0.009824000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>0.045333</v>
+        <v>0.009851</v>
       </c>
       <c r="D3" s="1">
-        <v>0.045331</v>
+        <v>0.009762</v>
       </c>
       <c r="E3" s="1">
-        <v>0.04533</v>
+        <v>0.009781</v>
       </c>
       <c r="F3" s="1">
-        <v>0.045364</v>
+        <v>0.009818</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3">
-        <v>40482</v>
+        <v>40512</v>
       </c>
       <c r="B4" s="1">
-        <v>0.009824000000000001</v>
+        <v>-0.006762000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.009851</v>
+        <v>-0.005979</v>
       </c>
       <c r="D4" s="1">
-        <v>0.009762</v>
+        <v>-0.006311</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009781</v>
+        <v>-0.006307</v>
       </c>
       <c r="F4" s="1">
-        <v>0.009818</v>
+        <v>-0.006754</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <v>40512</v>
+        <v>40543</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.006762000000000001</v>
+        <v>0.029284</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.005979</v>
+        <v>0.029312</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.006311</v>
+        <v>0.029354</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006307</v>
+        <v>0.029341</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.006754</v>
+        <v>0.029327</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3">
-        <v>40543</v>
+        <v>40574</v>
       </c>
       <c r="B6" s="1">
-        <v>0.029284</v>
+        <v>-0.00115</v>
       </c>
       <c r="C6" s="1">
-        <v>0.029312</v>
+        <v>-0.001119</v>
       </c>
       <c r="D6" s="1">
-        <v>0.029354</v>
+        <v>-0.001115</v>
       </c>
       <c r="E6" s="1">
-        <v>0.029341</v>
+        <v>-0.001121</v>
       </c>
       <c r="F6" s="1">
-        <v>0.029327</v>
+        <v>-0.001111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3">
-        <v>40574</v>
+        <v>40602</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.00115</v>
+        <v>0.023291</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.001119</v>
+        <v>0.023317</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.001115</v>
+        <v>0.023308</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001121</v>
+        <v>0.023307</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.001111</v>
+        <v>0.023323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3">
-        <v>40602</v>
+        <v>40633</v>
       </c>
       <c r="B8" s="1">
-        <v>0.023291</v>
+        <v>0.002493</v>
       </c>
       <c r="C8" s="1">
-        <v>0.023317</v>
+        <v>0.002493</v>
       </c>
       <c r="D8" s="1">
-        <v>0.023308</v>
+        <v>0.002494</v>
       </c>
       <c r="E8" s="1">
-        <v>0.023307</v>
+        <v>0.002494</v>
       </c>
       <c r="F8" s="1">
-        <v>0.023323</v>
+        <v>0.002524</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3">
-        <v>40633</v>
+        <v>40663</v>
       </c>
       <c r="B9" s="1">
-        <v>0.002493</v>
+        <v>0.030082</v>
       </c>
       <c r="C9" s="1">
-        <v>0.002493</v>
+        <v>0.030134</v>
       </c>
       <c r="D9" s="1">
-        <v>0.002494</v>
+        <v>0.030134</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002494</v>
+        <v>0.030126</v>
       </c>
       <c r="F9" s="1">
-        <v>0.002524</v>
+        <v>0.030106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3">
-        <v>40663</v>
+        <v>40694</v>
       </c>
       <c r="B10" s="1">
-        <v>0.030082</v>
+        <v>0.006251</v>
       </c>
       <c r="C10" s="1">
-        <v>0.030134</v>
+        <v>0.006252</v>
       </c>
       <c r="D10" s="1">
-        <v>0.030134</v>
+        <v>0.006251</v>
       </c>
       <c r="E10" s="1">
-        <v>0.030126</v>
+        <v>0.006251</v>
       </c>
       <c r="F10" s="1">
-        <v>0.030106</v>
+        <v>0.006317000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3">
-        <v>40694</v>
+        <v>40724</v>
       </c>
       <c r="B11" s="1">
-        <v>0.006251</v>
+        <v>-0.016394</v>
       </c>
       <c r="C11" s="1">
-        <v>0.006252</v>
+        <v>-0.016393</v>
       </c>
       <c r="D11" s="1">
-        <v>0.006251</v>
+        <v>-0.016388</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006251</v>
+        <v>-0.016389</v>
       </c>
       <c r="F11" s="1">
-        <v>0.006317000000000001</v>
+        <v>-0.016391</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3">
-        <v>40724</v>
+        <v>40755</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.016394</v>
+        <v>0.010779</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.016393</v>
+        <v>0.010779</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.016388</v>
+        <v>0.010779</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.016389</v>
+        <v>0.010779</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.016391</v>
+        <v>0.010787</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3">
-        <v>40755</v>
+        <v>40786</v>
       </c>
       <c r="B13" s="1">
-        <v>0.010779</v>
+        <v>-0.006495</v>
       </c>
       <c r="C13" s="1">
-        <v>0.010779</v>
+        <v>-0.006492</v>
       </c>
       <c r="D13" s="1">
-        <v>0.010779</v>
+        <v>-0.006488000000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.010779</v>
+        <v>-0.00649</v>
       </c>
       <c r="F13" s="1">
-        <v>0.010787</v>
+        <v>-0.006469</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3">
-        <v>40786</v>
+        <v>40816</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.006495</v>
+        <v>0.001202</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.006492</v>
+        <v>0.001203</v>
       </c>
       <c r="D14" s="1">
-        <v>-0.006488000000000001</v>
+        <v>0.001203</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00649</v>
+        <v>0.001203</v>
       </c>
       <c r="F14" s="1">
-        <v>-0.006469</v>
+        <v>0.001224</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3">
-        <v>40816</v>
+        <v>40847</v>
       </c>
       <c r="B15" s="1">
-        <v>0.001202</v>
+        <v>0.035731</v>
       </c>
       <c r="C15" s="1">
-        <v>0.001203</v>
+        <v>0.035736</v>
       </c>
       <c r="D15" s="1">
-        <v>0.001203</v>
+        <v>0.03573</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001203</v>
+        <v>0.035731</v>
       </c>
       <c r="F15" s="1">
-        <v>0.001224</v>
+        <v>0.035742</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3">
-        <v>40847</v>
+        <v>40877</v>
       </c>
       <c r="B16" s="1">
-        <v>0.035731</v>
+        <v>-0.006834</v>
       </c>
       <c r="C16" s="1">
-        <v>0.035736</v>
+        <v>-0.006834</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03573</v>
+        <v>-0.006832</v>
       </c>
       <c r="E16" s="1">
-        <v>0.035731</v>
+        <v>-0.006832</v>
       </c>
       <c r="F16" s="1">
-        <v>0.035742</v>
+        <v>-0.006798999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3">
-        <v>40877</v>
+        <v>40908</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.006834</v>
+        <v>0.011627</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.006834</v>
+        <v>0.011629</v>
       </c>
       <c r="D17" s="1">
-        <v>-0.006832</v>
+        <v>0.011629</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.006832</v>
+        <v>0.011629</v>
       </c>
       <c r="F17" s="1">
-        <v>-0.006798999999999999</v>
+        <v>0.011646</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3">
-        <v>40908</v>
+        <v>40939</v>
       </c>
       <c r="B18" s="1">
-        <v>0.011627</v>
+        <v>0.027751</v>
       </c>
       <c r="C18" s="1">
-        <v>0.011629</v>
+        <v>0.027758</v>
       </c>
       <c r="D18" s="1">
-        <v>0.011629</v>
+        <v>0.027751</v>
       </c>
       <c r="E18" s="1">
-        <v>0.011629</v>
+        <v>0.027752</v>
       </c>
       <c r="F18" s="1">
-        <v>0.011646</v>
+        <v>0.02776</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3">
-        <v>40939</v>
+        <v>40968</v>
       </c>
       <c r="B19" s="1">
-        <v>0.027751</v>
+        <v>0.018401</v>
       </c>
       <c r="C19" s="1">
-        <v>0.027758</v>
+        <v>0.018387</v>
       </c>
       <c r="D19" s="1">
-        <v>0.027751</v>
+        <v>0.018407</v>
       </c>
       <c r="E19" s="1">
-        <v>0.027752</v>
+        <v>0.018403</v>
       </c>
       <c r="F19" s="1">
-        <v>0.02776</v>
+        <v>0.018452</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3">
-        <v>40968</v>
+        <v>40999</v>
       </c>
       <c r="B20" s="1">
-        <v>0.018401</v>
+        <v>-0.003827</v>
       </c>
       <c r="C20" s="1">
-        <v>0.018387</v>
+        <v>-0.00384</v>
       </c>
       <c r="D20" s="1">
-        <v>0.018407</v>
+        <v>-0.00384</v>
       </c>
       <c r="E20" s="1">
-        <v>0.018403</v>
+        <v>-0.003838</v>
       </c>
       <c r="F20" s="1">
-        <v>0.018452</v>
+        <v>-0.003805</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3">
-        <v>40999</v>
+        <v>41029</v>
       </c>
       <c r="B21" s="1">
-        <v>-0.003827</v>
+        <v>0.010169</v>
       </c>
       <c r="C21" s="1">
-        <v>-0.00384</v>
+        <v>0.010171</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.00384</v>
+        <v>0.010169</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.003838</v>
+        <v>0.010169</v>
       </c>
       <c r="F21" s="1">
-        <v>-0.003805</v>
+        <v>0.010181</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3">
-        <v>41029</v>
+        <v>41060</v>
       </c>
       <c r="B22" s="1">
-        <v>0.010169</v>
+        <v>-0.007147</v>
       </c>
       <c r="C22" s="1">
-        <v>0.010171</v>
+        <v>-0.007141999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>0.010169</v>
+        <v>-0.007113</v>
       </c>
       <c r="E22" s="1">
-        <v>0.010169</v>
+        <v>-0.007122000000000001</v>
       </c>
       <c r="F22" s="1">
-        <v>0.010181</v>
+        <v>-0.007114000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3">
-        <v>41060</v>
+        <v>41090</v>
       </c>
       <c r="B23" s="1">
-        <v>-0.007147</v>
+        <v>0.013617</v>
       </c>
       <c r="C23" s="1">
-        <v>-0.007141999999999999</v>
+        <v>0.013665</v>
       </c>
       <c r="D23" s="1">
-        <v>-0.007113</v>
+        <v>0.013662</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.007122000000000001</v>
+        <v>0.013655</v>
       </c>
       <c r="F23" s="1">
-        <v>-0.007114000000000001</v>
+        <v>0.013702</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3">
-        <v>41090</v>
+        <v>41121</v>
       </c>
       <c r="B24" s="1">
-        <v>0.013617</v>
+        <v>0.022428</v>
       </c>
       <c r="C24" s="1">
-        <v>0.013665</v>
+        <v>0.022445</v>
       </c>
       <c r="D24" s="1">
-        <v>0.013662</v>
+        <v>0.022415</v>
       </c>
       <c r="E24" s="1">
-        <v>0.013655</v>
+        <v>0.022421</v>
       </c>
       <c r="F24" s="1">
-        <v>0.013702</v>
+        <v>0.022443</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3">
-        <v>41121</v>
+        <v>41152</v>
       </c>
       <c r="B25" s="1">
-        <v>0.022428</v>
+        <v>0.006546</v>
       </c>
       <c r="C25" s="1">
-        <v>0.022445</v>
+        <v>0.006548000000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>0.022415</v>
+        <v>0.006546</v>
       </c>
       <c r="E25" s="1">
-        <v>0.022421</v>
+        <v>0.006546</v>
       </c>
       <c r="F25" s="1">
-        <v>0.022443</v>
+        <v>0.006599000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3">
-        <v>41152</v>
+        <v>41182</v>
       </c>
       <c r="B26" s="1">
-        <v>0.006546</v>
+        <v>0.008595999999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>0.006548000000000001</v>
+        <v>0.008598</v>
       </c>
       <c r="D26" s="1">
-        <v>0.006546</v>
+        <v>0.008597</v>
       </c>
       <c r="E26" s="1">
-        <v>0.006546</v>
+        <v>0.008597</v>
       </c>
       <c r="F26" s="1">
-        <v>0.006599000000000001</v>
+        <v>0.008647999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3">
-        <v>41182</v>
+        <v>41213</v>
       </c>
       <c r="B27" s="1">
-        <v>0.008595999999999999</v>
+        <v>0.001504</v>
       </c>
       <c r="C27" s="1">
-        <v>0.008598</v>
+        <v>0.001506</v>
       </c>
       <c r="D27" s="1">
-        <v>0.008597</v>
+        <v>0.001505</v>
       </c>
       <c r="E27" s="1">
-        <v>0.008597</v>
+        <v>0.001505</v>
       </c>
       <c r="F27" s="1">
-        <v>0.008647999999999999</v>
+        <v>0.001537</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3">
-        <v>41213</v>
+        <v>41243</v>
       </c>
       <c r="B28" s="1">
-        <v>0.001504</v>
+        <v>0.007569</v>
       </c>
       <c r="C28" s="1">
-        <v>0.001506</v>
+        <v>0.007571</v>
       </c>
       <c r="D28" s="1">
-        <v>0.001505</v>
+        <v>0.007571</v>
       </c>
       <c r="E28" s="1">
-        <v>0.001505</v>
+        <v>0.007571</v>
       </c>
       <c r="F28" s="1">
-        <v>0.001537</v>
+        <v>0.007581</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3">
-        <v>41243</v>
+        <v>41274</v>
       </c>
       <c r="B29" s="1">
-        <v>0.007569</v>
+        <v>0.008156999999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>0.007571</v>
+        <v>0.008168999999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>0.007571</v>
+        <v>0.008165</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007571</v>
+        <v>0.008163999999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>0.007581</v>
+        <v>0.00821</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3">
-        <v>41274</v>
+        <v>41305</v>
       </c>
       <c r="B30" s="1">
-        <v>0.008156999999999999</v>
+        <v>0.013471</v>
       </c>
       <c r="C30" s="1">
-        <v>0.008168999999999999</v>
+        <v>0.013571</v>
       </c>
       <c r="D30" s="1">
-        <v>0.008165</v>
+        <v>0.013456</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008163999999999999</v>
+        <v>0.013479</v>
       </c>
       <c r="F30" s="1">
-        <v>0.00821</v>
+        <v>0.013506</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3">
-        <v>41305</v>
+        <v>41333</v>
       </c>
       <c r="B31" s="1">
-        <v>0.013471</v>
+        <v>0.007465</v>
       </c>
       <c r="C31" s="1">
-        <v>0.013571</v>
+        <v>0.007458</v>
       </c>
       <c r="D31" s="1">
-        <v>0.013456</v>
+        <v>0.00747</v>
       </c>
       <c r="E31" s="1">
-        <v>0.013479</v>
+        <v>0.007467000000000001</v>
       </c>
       <c r="F31" s="1">
-        <v>0.013506</v>
+        <v>0.007503999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3">
-        <v>41333</v>
+        <v>41364</v>
       </c>
       <c r="B32" s="1">
-        <v>0.007465</v>
+        <v>0.015025</v>
       </c>
       <c r="C32" s="1">
-        <v>0.007458</v>
+        <v>0.015027</v>
       </c>
       <c r="D32" s="1">
-        <v>0.00747</v>
+        <v>0.015024</v>
       </c>
       <c r="E32" s="1">
-        <v>0.007467000000000001</v>
+        <v>0.015024</v>
       </c>
       <c r="F32" s="1">
-        <v>0.007503999999999999</v>
+        <v>0.015067</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3">
-        <v>41364</v>
+        <v>41394</v>
       </c>
       <c r="B33" s="1">
-        <v>0.015025</v>
+        <v>0.025087</v>
       </c>
       <c r="C33" s="1">
-        <v>0.015027</v>
+        <v>0.025091</v>
       </c>
       <c r="D33" s="1">
-        <v>0.015024</v>
+        <v>0.025086</v>
       </c>
       <c r="E33" s="1">
-        <v>0.015024</v>
+        <v>0.025087</v>
       </c>
       <c r="F33" s="1">
-        <v>0.015067</v>
+        <v>0.025126</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3">
-        <v>41394</v>
+        <v>41425</v>
       </c>
       <c r="B34" s="1">
-        <v>0.025087</v>
+        <v>-0.016671</v>
       </c>
       <c r="C34" s="1">
-        <v>0.025091</v>
+        <v>-0.016673</v>
       </c>
       <c r="D34" s="1">
-        <v>0.025086</v>
+        <v>-0.01667</v>
       </c>
       <c r="E34" s="1">
-        <v>0.025087</v>
+        <v>-0.01667</v>
       </c>
       <c r="F34" s="1">
-        <v>0.025126</v>
+        <v>-0.016669</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3">
-        <v>41425</v>
+        <v>41455</v>
       </c>
       <c r="B35" s="1">
-        <v>-0.016671</v>
+        <v>-0.018163</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.016673</v>
+        <v>-0.018165</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.01667</v>
+        <v>-0.01816</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01667</v>
+        <v>-0.018162</v>
       </c>
       <c r="F35" s="1">
-        <v>-0.016669</v>
+        <v>-0.018117</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3">
-        <v>41455</v>
+        <v>41486</v>
       </c>
       <c r="B36" s="1">
-        <v>-0.018163</v>
+        <v>0.014254</v>
       </c>
       <c r="C36" s="1">
-        <v>-0.018165</v>
+        <v>0.014257</v>
       </c>
       <c r="D36" s="1">
-        <v>-0.01816</v>
+        <v>0.014252</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.018162</v>
+        <v>0.014253</v>
       </c>
       <c r="F36" s="1">
-        <v>-0.018117</v>
+        <v>0.014264</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3">
-        <v>41486</v>
+        <v>41517</v>
       </c>
       <c r="B37" s="1">
-        <v>0.014254</v>
+        <v>-0.011051</v>
       </c>
       <c r="C37" s="1">
-        <v>0.014257</v>
+        <v>-0.011022</v>
       </c>
       <c r="D37" s="1">
-        <v>0.014252</v>
+        <v>-0.011036</v>
       </c>
       <c r="E37" s="1">
-        <v>0.014253</v>
+        <v>-0.011036</v>
       </c>
       <c r="F37" s="1">
-        <v>0.014264</v>
+        <v>-0.010998</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3">
-        <v>41517</v>
+        <v>41547</v>
       </c>
       <c r="B38" s="1">
-        <v>-0.011051</v>
+        <v>0.020117</v>
       </c>
       <c r="C38" s="1">
-        <v>-0.011022</v>
+        <v>0.02012</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.011036</v>
+        <v>0.020114</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.011036</v>
+        <v>0.020116</v>
       </c>
       <c r="F38" s="1">
-        <v>-0.010998</v>
+        <v>0.020156</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3">
-        <v>41547</v>
+        <v>41578</v>
       </c>
       <c r="B39" s="1">
-        <v>0.020117</v>
+        <v>0.02223</v>
       </c>
       <c r="C39" s="1">
-        <v>0.02012</v>
+        <v>0.022236</v>
       </c>
       <c r="D39" s="1">
-        <v>0.020114</v>
+        <v>0.022227</v>
       </c>
       <c r="E39" s="1">
-        <v>0.020116</v>
+        <v>0.022229</v>
       </c>
       <c r="F39" s="1">
-        <v>0.020156</v>
+        <v>0.022274</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3">
-        <v>41578</v>
+        <v>41608</v>
       </c>
       <c r="B40" s="1">
-        <v>0.02223</v>
+        <v>0.001657</v>
       </c>
       <c r="C40" s="1">
-        <v>0.022236</v>
+        <v>0.001657</v>
       </c>
       <c r="D40" s="1">
-        <v>0.022227</v>
+        <v>0.00166</v>
       </c>
       <c r="E40" s="1">
-        <v>0.022229</v>
+        <v>0.001659</v>
       </c>
       <c r="F40" s="1">
-        <v>0.022274</v>
+        <v>0.001664</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3">
-        <v>41608</v>
+        <v>41639</v>
       </c>
       <c r="B41" s="1">
-        <v>0.001657</v>
+        <v>0.007311</v>
       </c>
       <c r="C41" s="1">
-        <v>0.001657</v>
+        <v>0.007312</v>
       </c>
       <c r="D41" s="1">
-        <v>0.00166</v>
+        <v>0.00731</v>
       </c>
       <c r="E41" s="1">
-        <v>0.001659</v>
+        <v>0.00731</v>
       </c>
       <c r="F41" s="1">
-        <v>0.001664</v>
+        <v>0.007331</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3">
-        <v>41639</v>
+        <v>41670</v>
       </c>
       <c r="B42" s="1">
-        <v>0.007311</v>
+        <v>0.001869</v>
       </c>
       <c r="C42" s="1">
-        <v>0.007312</v>
+        <v>0.001871</v>
       </c>
       <c r="D42" s="1">
-        <v>0.00731</v>
+        <v>0.001871</v>
       </c>
       <c r="E42" s="1">
-        <v>0.00731</v>
+        <v>0.001871</v>
       </c>
       <c r="F42" s="1">
-        <v>0.007331</v>
+        <v>0.001873</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3">
-        <v>41670</v>
+        <v>41698</v>
       </c>
       <c r="B43" s="1">
-        <v>0.001869</v>
+        <v>0.022899</v>
       </c>
       <c r="C43" s="1">
-        <v>0.001871</v>
+        <v>0.02297</v>
       </c>
       <c r="D43" s="1">
-        <v>0.001871</v>
+        <v>0.022973</v>
       </c>
       <c r="E43" s="1">
-        <v>0.001871</v>
+        <v>0.02296</v>
       </c>
       <c r="F43" s="1">
-        <v>0.001873</v>
+        <v>0.022941</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3">
-        <v>41698</v>
+        <v>41729</v>
       </c>
       <c r="B44" s="1">
-        <v>0.022899</v>
+        <v>0.007581</v>
       </c>
       <c r="C44" s="1">
-        <v>0.02297</v>
+        <v>0.007582</v>
       </c>
       <c r="D44" s="1">
-        <v>0.022973</v>
+        <v>0.007581</v>
       </c>
       <c r="E44" s="1">
-        <v>0.02296</v>
+        <v>0.007581</v>
       </c>
       <c r="F44" s="1">
-        <v>0.022941</v>
+        <v>0.007613</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3">
-        <v>41729</v>
+        <v>41759</v>
       </c>
       <c r="B45" s="1">
-        <v>0.007581</v>
+        <v>0.002559</v>
       </c>
       <c r="C45" s="1">
-        <v>0.007582</v>
+        <v>0.002559</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007581</v>
+        <v>0.002565</v>
       </c>
       <c r="E45" s="1">
-        <v>0.007581</v>
+        <v>0.002563</v>
       </c>
       <c r="F45" s="1">
-        <v>0.007613</v>
+        <v>0.002567</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3">
-        <v>41759</v>
+        <v>41790</v>
       </c>
       <c r="B46" s="1">
-        <v>0.002559</v>
+        <v>0.018616</v>
       </c>
       <c r="C46" s="1">
-        <v>0.002559</v>
+        <v>0.018622</v>
       </c>
       <c r="D46" s="1">
-        <v>0.002565</v>
+        <v>0.018616</v>
       </c>
       <c r="E46" s="1">
-        <v>0.002563</v>
+        <v>0.018617</v>
       </c>
       <c r="F46" s="1">
-        <v>0.002567</v>
+        <v>0.018658</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3">
-        <v>41790</v>
+        <v>41820</v>
       </c>
       <c r="B47" s="1">
-        <v>0.018616</v>
+        <v>0.007592</v>
       </c>
       <c r="C47" s="1">
-        <v>0.018622</v>
+        <v>0.007592</v>
       </c>
       <c r="D47" s="1">
-        <v>0.018616</v>
+        <v>0.00759</v>
       </c>
       <c r="E47" s="1">
-        <v>0.018617</v>
+        <v>0.007591</v>
       </c>
       <c r="F47" s="1">
-        <v>0.018658</v>
+        <v>0.007621</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B48" s="1">
-        <v>0.007592</v>
+        <v>-0.003537</v>
       </c>
       <c r="C48" s="1">
-        <v>0.007592</v>
+        <v>-0.003536</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00759</v>
+        <v>-0.003534</v>
       </c>
       <c r="E48" s="1">
-        <v>0.007591</v>
+        <v>-0.003535</v>
       </c>
       <c r="F48" s="1">
-        <v>0.007621</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3">
-        <v>41851</v>
+        <v>41882</v>
       </c>
       <c r="B49" s="1">
-        <v>-0.003537</v>
+        <v>0.024396</v>
       </c>
       <c r="C49" s="1">
-        <v>-0.003536</v>
+        <v>0.024396</v>
       </c>
       <c r="D49" s="1">
-        <v>-0.003534</v>
+        <v>0.0244</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.003535</v>
+        <v>0.024399</v>
       </c>
       <c r="F49" s="1">
-        <v>-0.0035</v>
+        <v>0.02441</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="B50" s="1">
-        <v>0.024396</v>
+        <v>-0.018814</v>
       </c>
       <c r="C50" s="1">
-        <v>0.024396</v>
+        <v>-0.018804</v>
       </c>
       <c r="D50" s="1">
-        <v>0.0244</v>
+        <v>-0.018789</v>
       </c>
       <c r="E50" s="1">
-        <v>0.024399</v>
+        <v>-0.018796</v>
       </c>
       <c r="F50" s="1">
-        <v>0.02441</v>
+        <v>-0.018787</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3">
-        <v>41912</v>
+        <v>41943</v>
       </c>
       <c r="B51" s="1">
-        <v>-0.018814</v>
+        <v>0.012246</v>
       </c>
       <c r="C51" s="1">
-        <v>-0.018804</v>
+        <v>0.012244</v>
       </c>
       <c r="D51" s="1">
-        <v>-0.018789</v>
+        <v>0.012254</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.018796</v>
+        <v>0.012251</v>
       </c>
       <c r="F51" s="1">
-        <v>-0.018787</v>
+        <v>0.012333</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="B52" s="1">
-        <v>0.012246</v>
+        <v>0.016811</v>
       </c>
       <c r="C52" s="1">
-        <v>0.012244</v>
+        <v>0.01682</v>
       </c>
       <c r="D52" s="1">
-        <v>0.012254</v>
+        <v>0.01682</v>
       </c>
       <c r="E52" s="1">
-        <v>0.012251</v>
+        <v>0.016818</v>
       </c>
       <c r="F52" s="1">
-        <v>0.012333</v>
+        <v>0.016821</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="B53" s="1">
-        <v>0.016811</v>
+        <v>0.002068</v>
       </c>
       <c r="C53" s="1">
-        <v>0.01682</v>
+        <v>0.002076</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01682</v>
+        <v>0.00208</v>
       </c>
       <c r="E53" s="1">
-        <v>0.016818</v>
+        <v>0.002077</v>
       </c>
       <c r="F53" s="1">
-        <v>0.016821</v>
+        <v>0.002126</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="B54" s="1">
-        <v>0.002068</v>
+        <v>0.023362</v>
       </c>
       <c r="C54" s="1">
-        <v>0.002076</v>
+        <v>0.023357</v>
       </c>
       <c r="D54" s="1">
-        <v>0.00208</v>
+        <v>0.02335</v>
       </c>
       <c r="E54" s="1">
-        <v>0.002077</v>
+        <v>0.023353</v>
       </c>
       <c r="F54" s="1">
-        <v>0.002126</v>
+        <v>0.023417</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="B55" s="1">
-        <v>0.023362</v>
+        <v>0.007672</v>
       </c>
       <c r="C55" s="1">
-        <v>0.023357</v>
+        <v>0.007672</v>
       </c>
       <c r="D55" s="1">
-        <v>0.02335</v>
+        <v>0.007671</v>
       </c>
       <c r="E55" s="1">
-        <v>0.023353</v>
+        <v>0.007671</v>
       </c>
       <c r="F55" s="1">
-        <v>0.023417</v>
+        <v>0.007678000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="B56" s="1">
-        <v>0.007672</v>
+        <v>0.000725</v>
       </c>
       <c r="C56" s="1">
-        <v>0.007672</v>
+        <v>0.000731</v>
       </c>
       <c r="D56" s="1">
-        <v>0.007671</v>
+        <v>0.000725</v>
       </c>
       <c r="E56" s="1">
-        <v>0.007671</v>
+        <v>0.000726</v>
       </c>
       <c r="F56" s="1">
-        <v>0.007678000000000001</v>
+        <v>0.000746</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3">
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="B57" s="1">
-        <v>0.000725</v>
+        <v>0.000483</v>
       </c>
       <c r="C57" s="1">
-        <v>0.000731</v>
+        <v>0.000483</v>
       </c>
       <c r="D57" s="1">
-        <v>0.000725</v>
+        <v>0.000483</v>
       </c>
       <c r="E57" s="1">
-        <v>0.000726</v>
+        <v>0.000483</v>
       </c>
       <c r="F57" s="1">
-        <v>0.000746</v>
+        <v>0.0005070000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3">
-        <v>42124</v>
+        <v>42155</v>
       </c>
       <c r="B58" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="C58" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="D58" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="E58" s="1">
-        <v>0.000483</v>
+        <v>-0.001447</v>
       </c>
       <c r="F58" s="1">
-        <v>0.0005070000000000001</v>
+        <v>-0.001387</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3">
-        <v>42155</v>
+        <v>42185</v>
       </c>
       <c r="B59" s="1">
-        <v>-0.001447</v>
+        <v>-0.019129</v>
       </c>
       <c r="C59" s="1">
-        <v>-0.001447</v>
+        <v>-0.019129</v>
       </c>
       <c r="D59" s="1">
-        <v>-0.001447</v>
+        <v>-0.019127</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.001447</v>
+        <v>-0.019128</v>
       </c>
       <c r="F59" s="1">
-        <v>-0.001387</v>
+        <v>-0.019088</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3">
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="B60" s="1">
-        <v>-0.019129</v>
+        <v>0.010715</v>
       </c>
       <c r="C60" s="1">
-        <v>-0.019129</v>
+        <v>0.010715</v>
       </c>
       <c r="D60" s="1">
-        <v>-0.019127</v>
+        <v>0.010714</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.019128</v>
+        <v>0.010714</v>
       </c>
       <c r="F60" s="1">
-        <v>-0.019088</v>
+        <v>0.01075</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3">
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="B61" s="1">
-        <v>0.010715</v>
+        <v>-0.027128</v>
       </c>
       <c r="C61" s="1">
-        <v>0.010715</v>
+        <v>-0.027126</v>
       </c>
       <c r="D61" s="1">
-        <v>0.010714</v>
+        <v>-0.027125</v>
       </c>
       <c r="E61" s="1">
-        <v>0.010714</v>
+        <v>-0.027126</v>
       </c>
       <c r="F61" s="1">
-        <v>0.01075</v>
+        <v>-0.027093</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3">
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="B62" s="1">
-        <v>-0.027128</v>
+        <v>-0.00876</v>
       </c>
       <c r="C62" s="1">
-        <v>-0.027126</v>
+        <v>-0.00876</v>
       </c>
       <c r="D62" s="1">
-        <v>-0.027125</v>
+        <v>-0.008758999999999999</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.027126</v>
+        <v>-0.00876</v>
       </c>
       <c r="F62" s="1">
-        <v>-0.027093</v>
+        <v>-0.008747</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B63" s="1">
-        <v>-0.00876</v>
+        <v>0.028753</v>
       </c>
       <c r="C63" s="1">
-        <v>-0.00876</v>
+        <v>0.028716</v>
       </c>
       <c r="D63" s="1">
-        <v>-0.008758999999999999</v>
+        <v>0.028798</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.00876</v>
+        <v>0.028775</v>
       </c>
       <c r="F63" s="1">
-        <v>-0.008747</v>
+        <v>0.028836</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B64" s="1">
-        <v>0.028753</v>
+        <v>-0.003828</v>
       </c>
       <c r="C64" s="1">
-        <v>0.028716</v>
+        <v>-0.003819</v>
       </c>
       <c r="D64" s="1">
-        <v>0.028798</v>
+        <v>-0.003807</v>
       </c>
       <c r="E64" s="1">
-        <v>0.028775</v>
+        <v>-0.003813</v>
       </c>
       <c r="F64" s="1">
-        <v>0.028836</v>
+        <v>-0.003814</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B65" s="1">
-        <v>-0.003828</v>
+        <v>-0.008187</v>
       </c>
       <c r="C65" s="1">
-        <v>-0.003819</v>
+        <v>-0.008187</v>
       </c>
       <c r="D65" s="1">
-        <v>-0.003807</v>
+        <v>-0.008184</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.003813</v>
+        <v>-0.008185</v>
       </c>
       <c r="F65" s="1">
-        <v>-0.003814</v>
+        <v>-0.008107999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B66" s="1">
-        <v>-0.008187</v>
+        <v>-0.014827</v>
       </c>
       <c r="C66" s="1">
-        <v>-0.008187</v>
+        <v>-0.01483</v>
       </c>
       <c r="D66" s="1">
-        <v>-0.008184</v>
+        <v>-0.014826</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.008185</v>
+        <v>-0.014827</v>
       </c>
       <c r="F66" s="1">
-        <v>-0.008107999999999999</v>
+        <v>-0.014823</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B67" s="1">
-        <v>-0.014827</v>
+        <v>0.007148</v>
       </c>
       <c r="C67" s="1">
-        <v>-0.01483</v>
+        <v>0.007148</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.014826</v>
+        <v>0.007150999999999999</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.014827</v>
+        <v>0.00715</v>
       </c>
       <c r="F67" s="1">
-        <v>-0.014823</v>
+        <v>0.007228</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B68" s="1">
-        <v>0.007148</v>
+        <v>0.034737</v>
       </c>
       <c r="C68" s="1">
-        <v>0.007148</v>
+        <v>0.034736</v>
       </c>
       <c r="D68" s="1">
-        <v>0.007150999999999999</v>
+        <v>0.034733</v>
       </c>
       <c r="E68" s="1">
-        <v>0.00715</v>
+        <v>0.034734</v>
       </c>
       <c r="F68" s="1">
-        <v>0.007228</v>
+        <v>0.034744</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B69" s="1">
-        <v>0.034737</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="C69" s="1">
-        <v>0.034736</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="D69" s="1">
-        <v>0.034733</v>
+        <v>0.009242</v>
       </c>
       <c r="E69" s="1">
-        <v>0.034734</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="F69" s="1">
-        <v>0.034744</v>
+        <v>0.009256</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B70" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001881</v>
       </c>
       <c r="C70" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001883</v>
       </c>
       <c r="D70" s="1">
-        <v>0.009242</v>
+        <v>0.001884</v>
       </c>
       <c r="E70" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.001883</v>
       </c>
       <c r="F70" s="1">
-        <v>0.009256</v>
+        <v>0.001941</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B71" s="1">
-        <v>0.001881</v>
+        <v>0.010067</v>
       </c>
       <c r="C71" s="1">
-        <v>0.001883</v>
+        <v>0.010098</v>
       </c>
       <c r="D71" s="1">
-        <v>0.001884</v>
+        <v>0.01013</v>
       </c>
       <c r="E71" s="1">
-        <v>0.001883</v>
+        <v>0.010112</v>
       </c>
       <c r="F71" s="1">
-        <v>0.001941</v>
+        <v>0.010098</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B72" s="1">
-        <v>0.010067</v>
+        <v>0.021267</v>
       </c>
       <c r="C72" s="1">
-        <v>0.010098</v>
+        <v>0.021267</v>
       </c>
       <c r="D72" s="1">
-        <v>0.01013</v>
+        <v>0.021264</v>
       </c>
       <c r="E72" s="1">
-        <v>0.010112</v>
+        <v>0.021265</v>
       </c>
       <c r="F72" s="1">
-        <v>0.010098</v>
+        <v>0.021276</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B73" s="1">
-        <v>0.021267</v>
+        <v>0.001143</v>
       </c>
       <c r="C73" s="1">
-        <v>0.021267</v>
+        <v>0.001146</v>
       </c>
       <c r="D73" s="1">
-        <v>0.021264</v>
+        <v>0.001146</v>
       </c>
       <c r="E73" s="1">
-        <v>0.021265</v>
+        <v>0.001145</v>
       </c>
       <c r="F73" s="1">
-        <v>0.021276</v>
+        <v>0.001155</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B74" s="1">
-        <v>0.001143</v>
+        <v>0.00083</v>
       </c>
       <c r="C74" s="1">
-        <v>0.001146</v>
+        <v>0.0008309999999999999</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001146</v>
+        <v>0.00083</v>
       </c>
       <c r="E74" s="1">
-        <v>0.001145</v>
+        <v>0.00083</v>
       </c>
       <c r="F74" s="1">
-        <v>0.001155</v>
+        <v>0.0009120000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B75" s="1">
-        <v>0.00083</v>
+        <v>-0.011784</v>
       </c>
       <c r="C75" s="1">
-        <v>0.0008309999999999999</v>
+        <v>-0.011773</v>
       </c>
       <c r="D75" s="1">
-        <v>0.00083</v>
+        <v>-0.011778</v>
       </c>
       <c r="E75" s="1">
-        <v>0.00083</v>
+        <v>-0.011778</v>
       </c>
       <c r="F75" s="1">
-        <v>0.0009120000000000001</v>
+        <v>-0.011775</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B76" s="1">
-        <v>-0.011784</v>
+        <v>-0.011504</v>
       </c>
       <c r="C76" s="1">
-        <v>-0.011773</v>
+        <v>-0.011503</v>
       </c>
       <c r="D76" s="1">
-        <v>-0.011778</v>
+        <v>-0.011501</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.011778</v>
+        <v>-0.011502</v>
       </c>
       <c r="F76" s="1">
-        <v>-0.011775</v>
+        <v>-0.011447</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B77" s="1">
-        <v>-0.011504</v>
+        <v>0.010278</v>
       </c>
       <c r="C77" s="1">
-        <v>-0.011503</v>
+        <v>0.010006</v>
       </c>
       <c r="D77" s="1">
-        <v>-0.011501</v>
+        <v>0.010143</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.011502</v>
+        <v>0.010141</v>
       </c>
       <c r="F77" s="1">
-        <v>-0.011447</v>
+        <v>0.010322</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B78" s="1">
-        <v>0.010278</v>
+        <v>0.01169</v>
       </c>
       <c r="C78" s="1">
-        <v>0.010006</v>
+        <v>0.011614</v>
       </c>
       <c r="D78" s="1">
-        <v>0.010143</v>
+        <v>0.011658</v>
       </c>
       <c r="E78" s="1">
-        <v>0.010141</v>
+        <v>0.011655</v>
       </c>
       <c r="F78" s="1">
-        <v>0.010322</v>
+        <v>0.011698</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B79" s="1">
-        <v>0.01169</v>
+        <v>0.017668</v>
       </c>
       <c r="C79" s="1">
-        <v>0.011614</v>
+        <v>0.017672</v>
       </c>
       <c r="D79" s="1">
-        <v>0.011658</v>
+        <v>0.017677</v>
       </c>
       <c r="E79" s="1">
-        <v>0.011655</v>
+        <v>0.017674</v>
       </c>
       <c r="F79" s="1">
-        <v>0.011698</v>
+        <v>0.017685</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B80" s="1">
-        <v>0.017668</v>
+        <v>0.005195</v>
       </c>
       <c r="C80" s="1">
-        <v>0.017672</v>
+        <v>0.005195</v>
       </c>
       <c r="D80" s="1">
-        <v>0.017677</v>
+        <v>0.005195</v>
       </c>
       <c r="E80" s="1">
-        <v>0.017674</v>
+        <v>0.005195</v>
       </c>
       <c r="F80" s="1">
-        <v>0.017685</v>
+        <v>0.005258000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B81" s="1">
-        <v>0.005195</v>
+        <v>0.013597</v>
       </c>
       <c r="C81" s="1">
-        <v>0.005195</v>
+        <v>0.0136</v>
       </c>
       <c r="D81" s="1">
-        <v>0.005195</v>
+        <v>0.013598</v>
       </c>
       <c r="E81" s="1">
-        <v>0.005195</v>
+        <v>0.013598</v>
       </c>
       <c r="F81" s="1">
-        <v>0.005258000000000001</v>
+        <v>0.013641</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B82" s="1">
-        <v>0.013597</v>
+        <v>0.015261</v>
       </c>
       <c r="C82" s="1">
-        <v>0.0136</v>
+        <v>0.015261</v>
       </c>
       <c r="D82" s="1">
-        <v>0.013598</v>
+        <v>0.015262</v>
       </c>
       <c r="E82" s="1">
-        <v>0.013598</v>
+        <v>0.015262</v>
       </c>
       <c r="F82" s="1">
-        <v>0.013641</v>
+        <v>0.01527</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="3">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B83" s="1">
-        <v>0.015261</v>
+        <v>0.005246</v>
       </c>
       <c r="C83" s="1">
-        <v>0.015261</v>
+        <v>0.005249</v>
       </c>
       <c r="D83" s="1">
-        <v>0.015262</v>
+        <v>0.005264</v>
       </c>
       <c r="E83" s="1">
-        <v>0.015262</v>
+        <v>0.005257</v>
       </c>
       <c r="F83" s="1">
-        <v>0.01527</v>
+        <v>0.005279000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="3">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B84" s="1">
-        <v>0.005246</v>
+        <v>0.011307</v>
       </c>
       <c r="C84" s="1">
-        <v>0.005249</v>
+        <v>0.011307</v>
       </c>
       <c r="D84" s="1">
-        <v>0.005264</v>
+        <v>0.011306</v>
       </c>
       <c r="E84" s="1">
-        <v>0.005257</v>
+        <v>0.011307</v>
       </c>
       <c r="F84" s="1">
-        <v>0.005279000000000001</v>
+        <v>0.011318</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="3">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B85" s="1">
-        <v>0.011307</v>
+        <v>0.010725</v>
       </c>
       <c r="C85" s="1">
-        <v>0.011307</v>
+        <v>0.010724</v>
       </c>
       <c r="D85" s="1">
-        <v>0.011306</v>
+        <v>0.010725</v>
       </c>
       <c r="E85" s="1">
-        <v>0.011307</v>
+        <v>0.010725</v>
       </c>
       <c r="F85" s="1">
-        <v>0.011318</v>
+        <v>0.010768</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B86" s="1">
-        <v>0.010725</v>
+        <v>0.008107999999999999</v>
       </c>
       <c r="C86" s="1">
-        <v>0.010724</v>
+        <v>0.008107</v>
       </c>
       <c r="D86" s="1">
-        <v>0.010725</v>
+        <v>0.008107</v>
       </c>
       <c r="E86" s="1">
-        <v>0.010725</v>
+        <v>0.008107</v>
       </c>
       <c r="F86" s="1">
-        <v>0.010768</v>
+        <v>0.008131000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B87" s="1">
-        <v>0.008107999999999999</v>
+        <v>0.011965</v>
       </c>
       <c r="C87" s="1">
-        <v>0.008107</v>
+        <v>0.011963</v>
       </c>
       <c r="D87" s="1">
-        <v>0.008107</v>
+        <v>0.011963</v>
       </c>
       <c r="E87" s="1">
-        <v>0.008107</v>
+        <v>0.011964</v>
       </c>
       <c r="F87" s="1">
-        <v>0.008131000000000001</v>
+        <v>0.012022</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B88" s="1">
-        <v>0.011965</v>
+        <v>0.013354</v>
       </c>
       <c r="C88" s="1">
-        <v>0.011963</v>
+        <v>0.013354</v>
       </c>
       <c r="D88" s="1">
-        <v>0.011963</v>
+        <v>0.013356</v>
       </c>
       <c r="E88" s="1">
-        <v>0.011964</v>
+        <v>0.013355</v>
       </c>
       <c r="F88" s="1">
-        <v>0.012022</v>
+        <v>0.013356</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B89" s="1">
-        <v>0.013354</v>
+        <v>0.011831</v>
       </c>
       <c r="C89" s="1">
-        <v>0.013354</v>
+        <v>0.012308</v>
       </c>
       <c r="D89" s="1">
-        <v>0.013356</v>
+        <v>0.011977</v>
       </c>
       <c r="E89" s="1">
-        <v>0.013355</v>
+        <v>0.012016</v>
       </c>
       <c r="F89" s="1">
-        <v>0.013356</v>
+        <v>0.012674</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B90" s="1">
-        <v>0.011831</v>
+        <v>0.024717</v>
       </c>
       <c r="C90" s="1">
-        <v>0.012308</v>
+        <v>0.024777</v>
       </c>
       <c r="D90" s="1">
-        <v>0.011977</v>
+        <v>0.016299</v>
       </c>
       <c r="E90" s="1">
-        <v>0.012016</v>
+        <v>0.019876</v>
       </c>
       <c r="F90" s="1">
-        <v>0.012674</v>
+        <v>0.024838</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="3">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B91" s="1">
-        <v>0.024717</v>
+        <v>-0.029926</v>
       </c>
       <c r="C91" s="1">
-        <v>0.024777</v>
+        <v>-0.029924</v>
       </c>
       <c r="D91" s="1">
-        <v>0.016299</v>
+        <v>-0.029905</v>
       </c>
       <c r="E91" s="1">
-        <v>0.019876</v>
+        <v>-0.029913</v>
       </c>
       <c r="F91" s="1">
-        <v>0.024838</v>
+        <v>-0.029929</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="3">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B92" s="1">
-        <v>-0.029926</v>
+        <v>0.001458</v>
       </c>
       <c r="C92" s="1">
-        <v>-0.029924</v>
+        <v>0.001458</v>
       </c>
       <c r="D92" s="1">
-        <v>-0.029905</v>
+        <v>0.008959</v>
       </c>
       <c r="E92" s="1">
-        <v>-0.029913</v>
+        <v>0.005778999999999999</v>
       </c>
       <c r="F92" s="1">
-        <v>-0.029929</v>
+        <v>0.001458</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="3">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B93" s="1">
-        <v>0.001458</v>
+        <v>-0.002009</v>
       </c>
       <c r="C93" s="1">
-        <v>0.001458</v>
+        <v>-0.002009</v>
       </c>
       <c r="D93" s="1">
-        <v>0.008959</v>
+        <v>-0.006636</v>
       </c>
       <c r="E93" s="1">
-        <v>0.005778999999999999</v>
+        <v>-0.004682</v>
       </c>
       <c r="F93" s="1">
-        <v>0.001458</v>
+        <v>-0.002009</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B94" s="1">
-        <v>-0.002009</v>
+        <v>0.006971000000000001</v>
       </c>
       <c r="C94" s="1">
-        <v>-0.002009</v>
+        <v>0.006965</v>
       </c>
       <c r="D94" s="1">
-        <v>-0.006636</v>
+        <v>0.010673</v>
       </c>
       <c r="E94" s="1">
-        <v>-0.004682</v>
+        <v>0.009103</v>
       </c>
       <c r="F94" s="1">
-        <v>-0.002009</v>
+        <v>0.006972000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B95" s="1">
-        <v>0.006971000000000001</v>
+        <v>-0.002816</v>
       </c>
       <c r="C95" s="1">
-        <v>0.006965</v>
+        <v>-0.00284</v>
       </c>
       <c r="D95" s="1">
-        <v>0.010673</v>
+        <v>-0.001519</v>
       </c>
       <c r="E95" s="1">
-        <v>0.009103</v>
+        <v>-0.002073</v>
       </c>
       <c r="F95" s="1">
-        <v>0.006972000000000001</v>
+        <v>-0.002804</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B96" s="1">
-        <v>-0.002816</v>
+        <v>0.013499</v>
       </c>
       <c r="C96" s="1">
-        <v>-0.00284</v>
+        <v>0.013494</v>
       </c>
       <c r="D96" s="1">
-        <v>-0.001519</v>
+        <v>0.005810999999999999</v>
       </c>
       <c r="E96" s="1">
-        <v>-0.002073</v>
+        <v>0.009061</v>
       </c>
       <c r="F96" s="1">
-        <v>-0.002804</v>
+        <v>0.013504</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B97" s="1">
-        <v>0.013499</v>
+        <v>0.008215999999999999</v>
       </c>
       <c r="C97" s="1">
-        <v>0.013494</v>
+        <v>0.00822</v>
       </c>
       <c r="D97" s="1">
-        <v>0.005810999999999999</v>
+        <v>0.010221</v>
       </c>
       <c r="E97" s="1">
-        <v>0.009061</v>
+        <v>0.00937</v>
       </c>
       <c r="F97" s="1">
-        <v>0.013504</v>
+        <v>0.008217</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B98" s="1">
-        <v>0.008215999999999999</v>
+        <v>-0.005064</v>
       </c>
       <c r="C98" s="1">
-        <v>0.00822</v>
+        <v>-0.005064999999999999</v>
       </c>
       <c r="D98" s="1">
-        <v>0.010221</v>
+        <v>-0.011547</v>
       </c>
       <c r="E98" s="1">
-        <v>0.00937</v>
+        <v>-0.008794</v>
       </c>
       <c r="F98" s="1">
-        <v>0.008217</v>
+        <v>-0.005053999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="3">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B99" s="1">
-        <v>-0.005064</v>
+        <v>-0.040555</v>
       </c>
       <c r="C99" s="1">
-        <v>-0.005064999999999999</v>
+        <v>-0.040551</v>
       </c>
       <c r="D99" s="1">
-        <v>-0.011547</v>
+        <v>-0.039562</v>
       </c>
       <c r="E99" s="1">
-        <v>-0.008794</v>
+        <v>-0.039984</v>
       </c>
       <c r="F99" s="1">
-        <v>-0.005053999999999999</v>
+        <v>-0.040558</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="3">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B100" s="1">
-        <v>-0.040555</v>
+        <v>0.01145</v>
       </c>
       <c r="C100" s="1">
-        <v>-0.040551</v>
+        <v>0.011447</v>
       </c>
       <c r="D100" s="1">
-        <v>-0.039562</v>
+        <v>0.013939</v>
       </c>
       <c r="E100" s="1">
-        <v>-0.039984</v>
+        <v>0.012878</v>
       </c>
       <c r="F100" s="1">
-        <v>-0.040558</v>
+        <v>0.011452</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="3">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B101" s="1">
-        <v>0.01145</v>
+        <v>-0.016159</v>
       </c>
       <c r="C101" s="1">
-        <v>0.011447</v>
+        <v>-0.01617</v>
       </c>
       <c r="D101" s="1">
-        <v>0.013939</v>
+        <v>0.005926</v>
       </c>
       <c r="E101" s="1">
-        <v>0.012878</v>
+        <v>-0.003477</v>
       </c>
       <c r="F101" s="1">
-        <v>0.011452</v>
+        <v>-0.016145</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B102" s="1">
-        <v>-0.016159</v>
+        <v>0.037035</v>
       </c>
       <c r="C102" s="1">
-        <v>-0.01617</v>
+        <v>0.037039</v>
       </c>
       <c r="D102" s="1">
-        <v>0.005926</v>
+        <v>0.028362</v>
       </c>
       <c r="E102" s="1">
-        <v>-0.003477</v>
+        <v>0.032009</v>
       </c>
       <c r="F102" s="1">
-        <v>-0.016145</v>
+        <v>0.037042</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B103" s="1">
-        <v>0.037035</v>
+        <v>0.010188</v>
       </c>
       <c r="C103" s="1">
-        <v>0.037039</v>
+        <v>0.010184</v>
       </c>
       <c r="D103" s="1">
-        <v>0.028362</v>
+        <v>0.002933</v>
       </c>
       <c r="E103" s="1">
-        <v>0.032009</v>
+        <v>0.005999</v>
       </c>
       <c r="F103" s="1">
-        <v>0.037042</v>
+        <v>0.010191</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B104" s="1">
-        <v>0.010188</v>
+        <v>0.021135</v>
       </c>
       <c r="C104" s="1">
-        <v>0.010184</v>
+        <v>0.021127</v>
       </c>
       <c r="D104" s="1">
-        <v>0.002933</v>
+        <v>0.032959</v>
       </c>
       <c r="E104" s="1">
-        <v>0.005999</v>
+        <v>0.027935</v>
       </c>
       <c r="F104" s="1">
-        <v>0.010191</v>
+        <v>0.021151</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B105" s="1">
-        <v>0.021135</v>
+        <v>0.010592</v>
       </c>
       <c r="C105" s="1">
-        <v>0.021127</v>
+        <v>0.010584</v>
       </c>
       <c r="D105" s="1">
-        <v>0.032959</v>
+        <v>0.001077</v>
       </c>
       <c r="E105" s="1">
-        <v>0.027935</v>
+        <v>0.00509</v>
       </c>
       <c r="F105" s="1">
-        <v>0.021151</v>
+        <v>0.010597</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B106" s="1">
-        <v>0.010592</v>
+        <v>-0.004251</v>
       </c>
       <c r="C106" s="1">
-        <v>0.010584</v>
+        <v>-0.004255</v>
       </c>
       <c r="D106" s="1">
-        <v>0.001077</v>
+        <v>0.020519</v>
       </c>
       <c r="E106" s="1">
-        <v>0.00509</v>
+        <v>0.010002</v>
       </c>
       <c r="F106" s="1">
-        <v>0.010597</v>
+        <v>-0.004249</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="3">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B107" s="1">
-        <v>-0.004251</v>
+        <v>0.033344</v>
       </c>
       <c r="C107" s="1">
-        <v>-0.004255</v>
+        <v>0.033341</v>
       </c>
       <c r="D107" s="1">
-        <v>0.020519</v>
+        <v>0.026978</v>
       </c>
       <c r="E107" s="1">
-        <v>0.010002</v>
+        <v>0.029644</v>
       </c>
       <c r="F107" s="1">
-        <v>-0.004249</v>
+        <v>0.033356</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="3">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B108" s="1">
-        <v>0.033344</v>
+        <v>0.005238</v>
       </c>
       <c r="C108" s="1">
-        <v>0.033341</v>
+        <v>0.00523</v>
       </c>
       <c r="D108" s="1">
-        <v>0.026978</v>
+        <v>0.004394</v>
       </c>
       <c r="E108" s="1">
-        <v>0.029644</v>
+        <v>0.004747</v>
       </c>
       <c r="F108" s="1">
-        <v>0.033356</v>
+        <v>0.005241</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="3">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B109" s="1">
-        <v>0.005238</v>
+        <v>0.024274</v>
       </c>
       <c r="C109" s="1">
-        <v>0.00523</v>
+        <v>0.024213</v>
       </c>
       <c r="D109" s="1">
-        <v>0.004394</v>
+        <v>0.05872</v>
       </c>
       <c r="E109" s="1">
-        <v>0.004747</v>
+        <v>0.044206</v>
       </c>
       <c r="F109" s="1">
-        <v>0.005241</v>
+        <v>0.024308</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B110" s="1">
-        <v>0.024274</v>
+        <v>0.002153</v>
       </c>
       <c r="C110" s="1">
-        <v>0.024213</v>
+        <v>0.002218</v>
       </c>
       <c r="D110" s="1">
-        <v>0.05872</v>
+        <v>-0.009623</v>
       </c>
       <c r="E110" s="1">
-        <v>0.044206</v>
+        <v>-0.004635</v>
       </c>
       <c r="F110" s="1">
-        <v>0.024308</v>
+        <v>0.002227</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B111" s="1">
-        <v>0.002153</v>
+        <v>0.005681</v>
       </c>
       <c r="C111" s="1">
-        <v>0.002218</v>
+        <v>0.006085</v>
       </c>
       <c r="D111" s="1">
-        <v>-0.009623</v>
+        <v>-0.000153</v>
       </c>
       <c r="E111" s="1">
-        <v>-0.004635</v>
+        <v>0.002441</v>
       </c>
       <c r="F111" s="1">
-        <v>0.002227</v>
+        <v>0.002473</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B112" s="1">
-        <v>0.005681</v>
+        <v>0.010361</v>
       </c>
       <c r="C112" s="1">
-        <v>0.006085</v>
+        <v>0.010705</v>
       </c>
       <c r="D112" s="1">
-        <v>-0.000153</v>
+        <v>0.006349</v>
       </c>
       <c r="E112" s="1">
-        <v>0.002441</v>
+        <v>0.008153000000000001</v>
       </c>
       <c r="F112" s="1">
-        <v>0.002473</v>
+        <v>0.008192</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B113" s="1">
-        <v>0.010361</v>
+        <v>0.008629</v>
       </c>
       <c r="C113" s="1">
-        <v>0.010705</v>
+        <v>0.007443</v>
       </c>
       <c r="D113" s="1">
-        <v>0.006349</v>
+        <v>-0.007508</v>
       </c>
       <c r="E113" s="1">
-        <v>0.008153000000000001</v>
+        <v>-0.000751</v>
       </c>
       <c r="F113" s="1">
-        <v>0.008192</v>
+        <v>-0.0007470000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B114" s="1">
-        <v>0.008629</v>
+        <v>0.010016</v>
       </c>
       <c r="C114" s="1">
-        <v>0.007443</v>
+        <v>0.009792</v>
       </c>
       <c r="D114" s="1">
-        <v>-0.007508</v>
+        <v>0.037942</v>
       </c>
       <c r="E114" s="1">
-        <v>-0.000751</v>
+        <v>0.02564</v>
       </c>
       <c r="F114" s="1">
-        <v>-0.0007470000000000001</v>
+        <v>0.025673</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="3">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B115" s="1">
-        <v>0.010016</v>
+        <v>-0.022208</v>
       </c>
       <c r="C115" s="1">
-        <v>0.009792</v>
+        <v>-0.020781</v>
       </c>
       <c r="D115" s="1">
-        <v>0.037942</v>
+        <v>0.018639</v>
       </c>
       <c r="E115" s="1">
-        <v>0.02564</v>
+        <v>0.001266</v>
       </c>
       <c r="F115" s="1">
-        <v>0.025673</v>
+        <v>0.001282</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="3">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B116" s="1">
-        <v>-0.022208</v>
+        <v>-0.07419100000000001</v>
       </c>
       <c r="C116" s="1">
-        <v>-0.020781</v>
+        <v>-0.07051</v>
       </c>
       <c r="D116" s="1">
-        <v>0.018639</v>
+        <v>-0.012191</v>
       </c>
       <c r="E116" s="1">
-        <v>0.001266</v>
+        <v>-0.037684</v>
       </c>
       <c r="F116" s="1">
-        <v>0.001282</v>
+        <v>-0.03767</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="3">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B117" s="1">
-        <v>-0.07419100000000001</v>
+        <v>0.056168</v>
       </c>
       <c r="C117" s="1">
-        <v>-0.07051</v>
+        <v>0.05305</v>
       </c>
       <c r="D117" s="1">
-        <v>-0.012191</v>
+        <v>0.037446</v>
       </c>
       <c r="E117" s="1">
-        <v>-0.037684</v>
+        <v>0.044486</v>
       </c>
       <c r="F117" s="1">
-        <v>-0.03767</v>
+        <v>0.044508</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="3">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B118" s="1">
-        <v>0.056168</v>
+        <v>0.015041</v>
       </c>
       <c r="C118" s="1">
-        <v>0.05305</v>
+        <v>0.013544</v>
       </c>
       <c r="D118" s="1">
-        <v>0.037446</v>
+        <v>-0.004533</v>
       </c>
       <c r="E118" s="1">
-        <v>0.044486</v>
+        <v>0.003246</v>
       </c>
       <c r="F118" s="1">
-        <v>0.044508</v>
+        <v>0.003265</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="3">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B119" s="1">
-        <v>0.015041</v>
+        <v>0.012864</v>
       </c>
       <c r="C119" s="1">
-        <v>0.013544</v>
+        <v>0.012183</v>
       </c>
       <c r="D119" s="1">
-        <v>-0.004533</v>
+        <v>0.00859</v>
       </c>
       <c r="E119" s="1">
-        <v>0.003246</v>
+        <v>0.010239</v>
       </c>
       <c r="F119" s="1">
-        <v>0.003265</v>
+        <v>0.010239</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="3">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B120" s="1">
-        <v>0.012864</v>
+        <v>0.034786</v>
       </c>
       <c r="C120" s="1">
-        <v>0.012183</v>
+        <v>0.033863</v>
       </c>
       <c r="D120" s="1">
-        <v>0.00859</v>
+        <v>0.044461</v>
       </c>
       <c r="E120" s="1">
-        <v>0.010239</v>
+        <v>0.040234</v>
       </c>
       <c r="F120" s="1">
-        <v>0.010239</v>
+        <v>0.04024</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="3">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B121" s="1">
-        <v>0.034786</v>
+        <v>0.017061</v>
       </c>
       <c r="C121" s="1">
-        <v>0.033863</v>
+        <v>0.016036</v>
       </c>
       <c r="D121" s="1">
-        <v>0.044461</v>
+        <v>-0.017265</v>
       </c>
       <c r="E121" s="1">
-        <v>0.040234</v>
+        <v>-0.003186</v>
       </c>
       <c r="F121" s="1">
-        <v>0.04024</v>
+        <v>-0.003183</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="3">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B122" s="1">
-        <v>0.017061</v>
+        <v>-0.014281</v>
       </c>
       <c r="C122" s="1">
-        <v>0.016036</v>
+        <v>-0.013697</v>
       </c>
       <c r="D122" s="1">
-        <v>-0.017265</v>
+        <v>-0.005055</v>
       </c>
       <c r="E122" s="1">
-        <v>-0.003186</v>
+        <v>-0.008924999999999999</v>
       </c>
       <c r="F122" s="1">
-        <v>-0.003183</v>
+        <v>-0.008980999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="3">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B123" s="1">
-        <v>-0.014281</v>
+        <v>-0.016704</v>
       </c>
       <c r="C123" s="1">
-        <v>-0.013697</v>
+        <v>-0.015702</v>
       </c>
       <c r="D123" s="1">
-        <v>-0.005055</v>
+        <v>-0.023545</v>
       </c>
       <c r="E123" s="1">
-        <v>-0.008924999999999999</v>
+        <v>-0.020374</v>
       </c>
       <c r="F123" s="1">
-        <v>-0.008980999999999999</v>
+        <v>-0.020368</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="3">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B124" s="1">
-        <v>-0.016704</v>
+        <v>0.065382</v>
       </c>
       <c r="C124" s="1">
-        <v>-0.015702</v>
+        <v>0.06457600000000001</v>
       </c>
       <c r="D124" s="1">
-        <v>-0.023545</v>
+        <v>0.044108</v>
       </c>
       <c r="E124" s="1">
-        <v>-0.020374</v>
+        <v>0.053226</v>
       </c>
       <c r="F124" s="1">
-        <v>-0.020368</v>
+        <v>0.05322499999999999</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="3">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B125" s="1">
-        <v>0.065382</v>
+        <v>0.021767</v>
       </c>
       <c r="C125" s="1">
-        <v>0.06457600000000001</v>
+        <v>0.022151</v>
       </c>
       <c r="D125" s="1">
-        <v>0.044108</v>
+        <v>0.007529</v>
       </c>
       <c r="E125" s="1">
-        <v>0.053226</v>
+        <v>0.013933</v>
       </c>
       <c r="F125" s="1">
-        <v>0.05322499999999999</v>
+        <v>0.013948</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="3">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B126" s="1">
-        <v>0.021767</v>
+        <v>-0.013168</v>
       </c>
       <c r="C126" s="1">
-        <v>0.022151</v>
+        <v>-0.012301</v>
       </c>
       <c r="D126" s="1">
-        <v>0.007529</v>
+        <v>-0.0263</v>
       </c>
       <c r="E126" s="1">
-        <v>0.013933</v>
+        <v>-0.020192</v>
       </c>
       <c r="F126" s="1">
-        <v>0.013948</v>
+        <v>-0.020193</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="3">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B127" s="1">
-        <v>-0.013168</v>
+        <v>-0.002234</v>
       </c>
       <c r="C127" s="1">
-        <v>-0.012301</v>
+        <v>-0.000961</v>
       </c>
       <c r="D127" s="1">
-        <v>-0.0263</v>
+        <v>-0.032485</v>
       </c>
       <c r="E127" s="1">
-        <v>-0.020192</v>
+        <v>-0.018451</v>
       </c>
       <c r="F127" s="1">
-        <v>-0.020193</v>
+        <v>-0.018448</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="3">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B128" s="1">
-        <v>-0.002234</v>
+        <v>0.01294</v>
       </c>
       <c r="C128" s="1">
-        <v>-0.000961</v>
+        <v>0.013419</v>
       </c>
       <c r="D128" s="1">
-        <v>-0.032485</v>
+        <v>-0.010056</v>
       </c>
       <c r="E128" s="1">
-        <v>-0.018451</v>
+        <v>0.0006980000000000001</v>
       </c>
       <c r="F128" s="1">
-        <v>-0.018448</v>
+        <v>0.0007159999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="3">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B129" s="1">
-        <v>0.01294</v>
+        <v>0.028613</v>
       </c>
       <c r="C129" s="1">
-        <v>0.013419</v>
+        <v>0.028164</v>
       </c>
       <c r="D129" s="1">
-        <v>-0.010056</v>
+        <v>0.029309</v>
       </c>
       <c r="E129" s="1">
-        <v>0.0006980000000000001</v>
+        <v>0.028885</v>
       </c>
       <c r="F129" s="1">
-        <v>0.0007159999999999999</v>
+        <v>0.028889</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="3">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B130" s="1">
-        <v>0.028613</v>
+        <v>0.017591</v>
       </c>
       <c r="C130" s="1">
-        <v>0.028164</v>
+        <v>0.018329</v>
       </c>
       <c r="D130" s="1">
-        <v>0.029309</v>
+        <v>0.014168</v>
       </c>
       <c r="E130" s="1">
-        <v>0.028885</v>
+        <v>0.015936</v>
       </c>
       <c r="F130" s="1">
-        <v>0.028889</v>
+        <v>0.015938</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="3">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B131" s="1">
-        <v>0.017591</v>
+        <v>0.018306</v>
       </c>
       <c r="C131" s="1">
-        <v>0.018329</v>
+        <v>0.017976</v>
       </c>
       <c r="D131" s="1">
-        <v>0.014168</v>
+        <v>0.02898</v>
       </c>
       <c r="E131" s="1">
-        <v>0.015936</v>
+        <v>0.023884</v>
       </c>
       <c r="F131" s="1">
-        <v>0.015938</v>
+        <v>0.02391</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="3">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B132" s="1">
-        <v>0.018306</v>
+        <v>0.015858</v>
       </c>
       <c r="C132" s="1">
-        <v>0.017976</v>
+        <v>0.01554</v>
       </c>
       <c r="D132" s="1">
-        <v>0.02898</v>
+        <v>0.024879</v>
       </c>
       <c r="E132" s="1">
-        <v>0.023884</v>
+        <v>0.020584</v>
       </c>
       <c r="F132" s="1">
-        <v>0.02391</v>
+        <v>0.020569</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="3">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B133" s="1">
-        <v>0.015858</v>
+        <v>0.014596</v>
       </c>
       <c r="C133" s="1">
-        <v>0.01554</v>
+        <v>0.014694</v>
       </c>
       <c r="D133" s="1">
-        <v>0.024879</v>
+        <v>0.007593</v>
       </c>
       <c r="E133" s="1">
-        <v>0.020584</v>
+        <v>0.010881</v>
       </c>
       <c r="F133" s="1">
-        <v>0.020569</v>
+        <v>0.010892</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="3">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B134" s="1">
-        <v>0.014596</v>
+        <v>-0.034501</v>
       </c>
       <c r="C134" s="1">
-        <v>0.014694</v>
+        <v>-0.037832</v>
       </c>
       <c r="D134" s="1">
-        <v>0.007593</v>
+        <v>-0.030726</v>
       </c>
       <c r="E134" s="1">
-        <v>0.010881</v>
+        <v>-0.033223</v>
       </c>
       <c r="F134" s="1">
-        <v>0.010892</v>
+        <v>-0.033221</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="3">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B135" s="1">
-        <v>-0.034501</v>
+        <v>0.034062</v>
       </c>
       <c r="C135" s="1">
-        <v>-0.037832</v>
+        <v>0.038085</v>
       </c>
       <c r="D135" s="1">
-        <v>-0.030726</v>
+        <v>0.027294</v>
       </c>
       <c r="E135" s="1">
-        <v>-0.033223</v>
+        <v>0.031335</v>
       </c>
       <c r="F135" s="1">
-        <v>-0.033221</v>
+        <v>0.031337</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="3">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B136" s="1">
-        <v>0.034062</v>
+        <v>0.014583</v>
       </c>
       <c r="C136" s="1">
-        <v>0.038085</v>
+        <v>0.020934</v>
       </c>
       <c r="D136" s="1">
-        <v>0.027294</v>
+        <v>0.017182</v>
       </c>
       <c r="E136" s="1">
-        <v>0.031335</v>
+        <v>0.017353</v>
       </c>
       <c r="F136" s="1">
-        <v>0.031337</v>
+        <v>0.01736</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="3">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B137" s="1">
-        <v>0.014583</v>
+        <v>0.013202</v>
       </c>
       <c r="C137" s="1">
-        <v>0.020934</v>
+        <v>0.009613</v>
       </c>
       <c r="D137" s="1">
-        <v>0.017182</v>
+        <v>0.005379</v>
       </c>
       <c r="E137" s="1">
-        <v>0.017353</v>
+        <v>0.00827</v>
       </c>
       <c r="F137" s="1">
-        <v>0.01736</v>
+        <v>0.008281</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="3">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B138" s="1">
-        <v>0.013202</v>
+        <v>-0.048359</v>
       </c>
       <c r="C138" s="1">
-        <v>0.009613</v>
+        <v>-0.051444</v>
       </c>
       <c r="D138" s="1">
-        <v>0.005379</v>
+        <v>-0.043723</v>
       </c>
       <c r="E138" s="1">
-        <v>0.00827</v>
+        <v>-0.046588</v>
       </c>
       <c r="F138" s="1">
-        <v>0.008281</v>
+        <v>-0.046586</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="3">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B139" s="1">
-        <v>-0.048359</v>
+        <v>-0.020498</v>
       </c>
       <c r="C139" s="1">
-        <v>-0.051444</v>
+        <v>-0.021976</v>
       </c>
       <c r="D139" s="1">
-        <v>-0.043723</v>
+        <v>-0.017199</v>
       </c>
       <c r="E139" s="1">
-        <v>-0.046588</v>
+        <v>-0.019075</v>
       </c>
       <c r="F139" s="1">
-        <v>-0.046586</v>
+        <v>-0.019058</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="3">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B140" s="1">
-        <v>-0.020498</v>
+        <v>-0.017631</v>
       </c>
       <c r="C140" s="1">
-        <v>-0.021976</v>
+        <v>-0.021784</v>
       </c>
       <c r="D140" s="1">
-        <v>-0.017199</v>
+        <v>-0.026753</v>
       </c>
       <c r="E140" s="1">
-        <v>-0.019075</v>
+        <v>-0.02338</v>
       </c>
       <c r="F140" s="1">
-        <v>-0.019058</v>
+        <v>-0.023376</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="3">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B141" s="1">
-        <v>-0.017631</v>
+        <v>-0.07614499999999999</v>
       </c>
       <c r="C141" s="1">
-        <v>-0.021784</v>
+        <v>-0.08283599999999999</v>
       </c>
       <c r="D141" s="1">
-        <v>-0.026753</v>
+        <v>-0.080459</v>
       </c>
       <c r="E141" s="1">
-        <v>-0.02338</v>
+        <v>-0.07989399999999999</v>
       </c>
       <c r="F141" s="1">
-        <v>-0.023376</v>
+        <v>-0.079887</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="3">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B142" s="1">
-        <v>-0.07614499999999999</v>
+        <v>-0.010776</v>
       </c>
       <c r="C142" s="1">
-        <v>-0.08283599999999999</v>
+        <v>-0.014128</v>
       </c>
       <c r="D142" s="1">
-        <v>-0.080459</v>
+        <v>-0.006677</v>
       </c>
       <c r="E142" s="1">
-        <v>-0.07989399999999999</v>
+        <v>-0.009348</v>
       </c>
       <c r="F142" s="1">
-        <v>-0.079887</v>
+        <v>-0.009331000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="3">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B143" s="1">
-        <v>-0.010776</v>
+        <v>-0.035471</v>
       </c>
       <c r="C143" s="1">
-        <v>-0.014128</v>
+        <v>-0.033153</v>
       </c>
       <c r="D143" s="1">
-        <v>-0.006677</v>
+        <v>-0.036546</v>
       </c>
       <c r="E143" s="1">
-        <v>-0.009348</v>
+        <v>-0.035533</v>
       </c>
       <c r="F143" s="1">
-        <v>-0.009331000000000001</v>
+        <v>-0.035525</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="3">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B144" s="1">
-        <v>-0.035471</v>
+        <v>0.037009</v>
       </c>
       <c r="C144" s="1">
-        <v>-0.033153</v>
+        <v>0.03693</v>
       </c>
       <c r="D144" s="1">
-        <v>-0.036546</v>
+        <v>0.041629</v>
       </c>
       <c r="E144" s="1">
-        <v>-0.035533</v>
+        <v>0.03943</v>
       </c>
       <c r="F144" s="1">
-        <v>-0.035525</v>
+        <v>0.039431</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="3">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B145" s="1">
-        <v>0.037009</v>
+        <v>-0.03947</v>
       </c>
       <c r="C145" s="1">
-        <v>0.03693</v>
+        <v>-0.04190000000000001</v>
       </c>
       <c r="D145" s="1">
-        <v>0.041629</v>
+        <v>-0.04367099999999999</v>
       </c>
       <c r="E145" s="1">
-        <v>0.03943</v>
+        <v>-0.042222</v>
       </c>
       <c r="F145" s="1">
-        <v>0.039431</v>
+        <v>-0.042204</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="3">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B146" s="1">
-        <v>-0.03947</v>
+        <v>-0.072676</v>
       </c>
       <c r="C146" s="1">
-        <v>-0.04190000000000001</v>
+        <v>-0.078541</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.04367099999999999</v>
+        <v>-0.079498</v>
       </c>
       <c r="E146" s="1">
-        <v>-0.042222</v>
+        <v>-0.07750499999999999</v>
       </c>
       <c r="F146" s="1">
-        <v>-0.042204</v>
+        <v>-0.077504</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="3">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B147" s="1">
-        <v>-0.072676</v>
+        <v>-0.007585</v>
       </c>
       <c r="C147" s="1">
-        <v>-0.078541</v>
+        <v>-0.015041</v>
       </c>
       <c r="D147" s="1">
-        <v>-0.079498</v>
+        <v>-0.012277</v>
       </c>
       <c r="E147" s="1">
-        <v>-0.07750499999999999</v>
+        <v>-0.011631</v>
       </c>
       <c r="F147" s="1">
-        <v>-0.077504</v>
+        <v>-0.011611</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM147"/>
+  <dimension ref="A1:ALM155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,2493 +445,2629 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40298</v>
+        <v>40209</v>
       </c>
       <c r="B2" s="1">
-        <v>1622528988.09</v>
+        <v>932517206.42</v>
       </c>
       <c r="C2" s="1">
-        <v>2249160289.73</v>
+        <v>2102497497.95</v>
       </c>
       <c r="D2" s="1">
-        <v>13260630365.46</v>
+        <v>12454906728.13</v>
       </c>
       <c r="E2" s="1">
-        <v>17132319643.28</v>
+        <v>15489921432.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40329</v>
+        <v>40237</v>
       </c>
       <c r="B3" s="1">
-        <v>1547543516.8</v>
+        <v>1064104134.07</v>
       </c>
       <c r="C3" s="1">
-        <v>2151316976.44</v>
+        <v>2128528078.25</v>
       </c>
       <c r="D3" s="1">
-        <v>12652570165.23</v>
+        <v>12582607840.79</v>
       </c>
       <c r="E3" s="1">
-        <v>16351430658.47</v>
+        <v>15775240053.11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40359</v>
+        <v>40268</v>
       </c>
       <c r="B4" s="1">
-        <v>1525381389.55</v>
+        <v>1475141834.85</v>
       </c>
       <c r="C4" s="1">
-        <v>2126807551.94</v>
+        <v>2204069195.06</v>
       </c>
       <c r="D4" s="1">
-        <v>12475226298.37</v>
+        <v>13025853226.71</v>
       </c>
       <c r="E4" s="1">
-        <v>16127415239.86</v>
+        <v>16705064256.62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40390</v>
+        <v>40298</v>
       </c>
       <c r="B5" s="1">
-        <v>1706992377.88</v>
+        <v>1622528988.09</v>
       </c>
       <c r="C5" s="1">
-        <v>2217049566.92</v>
+        <v>2249160289.73</v>
       </c>
       <c r="D5" s="1">
-        <v>12970356046.29</v>
+        <v>13260630365.46</v>
       </c>
       <c r="E5" s="1">
-        <v>16894397991.09</v>
+        <v>17132319643.28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40421</v>
+        <v>40329</v>
       </c>
       <c r="B6" s="1">
-        <v>1703519080.08</v>
+        <v>1547543516.8</v>
       </c>
       <c r="C6" s="1">
-        <v>2218270319.77</v>
+        <v>2151316976.44</v>
       </c>
       <c r="D6" s="1">
-        <v>12943159219.5</v>
+        <v>12652570165.23</v>
       </c>
       <c r="E6" s="1">
-        <v>16864948619.35</v>
+        <v>16351430658.47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40451</v>
+        <v>40359</v>
       </c>
       <c r="B7" s="1">
-        <v>1774147463.24</v>
+        <v>1525381389.55</v>
       </c>
       <c r="C7" s="1">
-        <v>2429501039.02</v>
+        <v>2126807551.94</v>
       </c>
       <c r="D7" s="1">
-        <v>13480390809.59</v>
+        <v>12475226298.37</v>
       </c>
       <c r="E7" s="1">
-        <v>17684039311.85</v>
+        <v>16127415239.86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40482</v>
+        <v>40390</v>
       </c>
       <c r="B8" s="1">
-        <v>1900647341.72</v>
+        <v>1706992377.88</v>
       </c>
       <c r="C8" s="1">
-        <v>2451294838.87</v>
+        <v>2217049566.92</v>
       </c>
       <c r="D8" s="1">
-        <v>13443247532.2</v>
+        <v>12970356046.29</v>
       </c>
       <c r="E8" s="1">
-        <v>17795189712.79</v>
+        <v>16894397991.09</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40512</v>
+        <v>40421</v>
       </c>
       <c r="B9" s="1">
-        <v>1880986063.23</v>
+        <v>1703519080.08</v>
       </c>
       <c r="C9" s="1">
-        <v>2932628117.61</v>
+        <v>2218270319.77</v>
       </c>
       <c r="D9" s="1">
-        <v>14814883828.94</v>
+        <v>12943159219.5</v>
       </c>
       <c r="E9" s="1">
-        <v>19628498009.78</v>
+        <v>16864948619.35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40543</v>
+        <v>40451</v>
       </c>
       <c r="B10" s="1">
-        <v>1928778379.47</v>
+        <v>1774147463.24</v>
       </c>
       <c r="C10" s="1">
-        <v>3016301371.7</v>
+        <v>2429501039.02</v>
       </c>
       <c r="D10" s="1">
-        <v>15090229972.53</v>
+        <v>13480390809.59</v>
       </c>
       <c r="E10" s="1">
-        <v>20035309723.7</v>
+        <v>17684039311.85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40574</v>
+        <v>40482</v>
       </c>
       <c r="B11" s="1">
-        <v>3118038032.57</v>
+        <v>1900647341.72</v>
       </c>
       <c r="C11" s="1">
-        <v>3010941131.67</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D11" s="1">
-        <v>15034904479.43</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E11" s="1">
-        <v>21163883643.67</v>
+        <v>17795189712.79</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40602</v>
+        <v>40512</v>
       </c>
       <c r="B12" s="1">
-        <v>3181037518.51</v>
+        <v>1880986063.23</v>
       </c>
       <c r="C12" s="1">
-        <v>3072606771.41</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D12" s="1">
-        <v>15339405005.2</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E12" s="1">
-        <v>21593049295.12</v>
+        <v>19628498009.78</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40633</v>
+        <v>40543</v>
       </c>
       <c r="B13" s="1">
-        <v>3181383242.47</v>
+        <v>1928778379.47</v>
       </c>
       <c r="C13" s="1">
-        <v>3077934373.48</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D13" s="1">
-        <v>15338256138.32</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E13" s="1">
-        <v>21597573754.27</v>
+        <v>20035309723.7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40663</v>
+        <v>40574</v>
       </c>
       <c r="B14" s="1">
-        <v>3268994098.86</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C14" s="1">
-        <v>3168259937.35</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D14" s="1">
-        <v>15759367465.19</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E14" s="1">
-        <v>22196621501.4</v>
+        <v>21163883643.67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40694</v>
+        <v>40602</v>
       </c>
       <c r="B15" s="1">
-        <v>3281525082.01</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C15" s="1">
-        <v>3185699769.88</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D15" s="1">
-        <v>15817577526.65</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E15" s="1">
-        <v>22284802378.54</v>
+        <v>21593049295.12</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40724</v>
+        <v>40633</v>
       </c>
       <c r="B16" s="1">
-        <v>3219718796.83</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C16" s="1">
-        <v>3131056633.27</v>
+        <v>3077934373.48</v>
       </c>
       <c r="D16" s="1">
-        <v>15518531782.51</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E16" s="1">
-        <v>21869307212.61</v>
+        <v>21597573754.27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40755</v>
+        <v>40663</v>
       </c>
       <c r="B17" s="1">
-        <v>3245901192.15</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C17" s="1">
-        <v>3162162793.97</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D17" s="1">
-        <v>15644127804.59</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E17" s="1">
-        <v>22052191790.71</v>
+        <v>22196621501.4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40786</v>
+        <v>40694</v>
       </c>
       <c r="B18" s="1">
-        <v>3216438061.76</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C18" s="1">
-        <v>3139082692.54</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D18" s="1">
-        <v>15501807654.48</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E18" s="1">
-        <v>21857328408.78</v>
+        <v>22284802378.54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40816</v>
+        <v>40724</v>
       </c>
       <c r="B19" s="1">
-        <v>3211645130.63</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C19" s="1">
-        <v>3200272417.15</v>
+        <v>3131056633.27</v>
       </c>
       <c r="D19" s="1">
-        <v>15478844686.83</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E19" s="1">
-        <v>21890762234.61</v>
+        <v>21869307212.61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40847</v>
+        <v>40755</v>
       </c>
       <c r="B20" s="1">
-        <v>3317215603.4</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C20" s="1">
-        <v>3311931768.5</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D20" s="1">
-        <v>15988859112.39</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E20" s="1">
-        <v>22618006484.29</v>
+        <v>22052191790.71</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40877</v>
+        <v>40786</v>
       </c>
       <c r="B21" s="1">
-        <v>3279790855.17</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C21" s="1">
-        <v>3286738232.03</v>
+        <v>3139082692.54</v>
       </c>
       <c r="D21" s="1">
-        <v>15838304892.48</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E21" s="1">
-        <v>22404833979.68</v>
+        <v>21857328408.78</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40908</v>
+        <v>40816</v>
       </c>
       <c r="B22" s="1">
-        <v>3308515656.83</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C22" s="1">
-        <v>3322199318.6</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D22" s="1">
-        <v>15980024217.31</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E22" s="1">
-        <v>22610739192.74</v>
+        <v>21890762234.61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40939</v>
+        <v>40847</v>
       </c>
       <c r="B23" s="1">
-        <v>3390714253.36</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C23" s="1">
-        <v>3411636959.78</v>
+        <v>3311931768.5</v>
       </c>
       <c r="D23" s="1">
-        <v>16380361894.04</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E23" s="1">
-        <v>23182713107.18</v>
+        <v>22618006484.29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40968</v>
+        <v>40877</v>
       </c>
       <c r="B24" s="1">
-        <v>3441357193.01</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C24" s="1">
-        <v>3465240303.9</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D24" s="1">
-        <v>16632464142.06</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E24" s="1">
-        <v>23539061638.97</v>
+        <v>22404833979.68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40999</v>
+        <v>40908</v>
       </c>
       <c r="B25" s="1">
-        <v>3594273253.88</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C25" s="1">
-        <v>3448893913.05</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D25" s="1">
-        <v>16525460571.64</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E25" s="1">
-        <v>23568627738.57</v>
+        <v>22610739192.74</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>41029</v>
+        <v>40939</v>
       </c>
       <c r="B26" s="1">
-        <v>3620819218.91</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C26" s="1">
-        <v>3481026300.12</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D26" s="1">
-        <v>16649217766.01</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E26" s="1">
-        <v>23751063285.04</v>
+        <v>23182713107.18</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41060</v>
+        <v>40968</v>
       </c>
       <c r="B27" s="1">
-        <v>3584994009.65</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C27" s="1">
-        <v>3453190328.12</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D27" s="1">
-        <v>16487171941.75</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E27" s="1">
-        <v>23525356279.52</v>
+        <v>23539061638.97</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41090</v>
+        <v>40999</v>
       </c>
       <c r="B28" s="1">
-        <v>3803025610.44</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C28" s="1">
-        <v>3497243829.13</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D28" s="1">
-        <v>16666850559.31</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E28" s="1">
-        <v>23967119998.88</v>
+        <v>23568627738.57</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41121</v>
+        <v>41029</v>
       </c>
       <c r="B29" s="1">
-        <v>3877728751.39</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C29" s="1">
-        <v>3572637746.48</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D29" s="1">
-        <v>16994828296.98</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E29" s="1">
-        <v>24445194794.85</v>
+        <v>23751063285.04</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41152</v>
+        <v>41060</v>
       </c>
       <c r="B30" s="1">
-        <v>3892524075.7</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C30" s="1">
-        <v>3592909103.41</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D30" s="1">
-        <v>17060906283.34</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E30" s="1">
-        <v>24546339462.45</v>
+        <v>23525356279.52</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41182</v>
+        <v>41090</v>
       </c>
       <c r="B31" s="1">
-        <v>3915294252.8</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C31" s="1">
-        <v>3620604152.58</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D31" s="1">
-        <v>17161962134.54</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E31" s="1">
-        <v>24697860539.92</v>
+        <v>23967119998.88</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41213</v>
+        <v>41121</v>
       </c>
       <c r="B32" s="1">
-        <v>3910430761.85</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C32" s="1">
-        <v>3622924774.95</v>
+        <v>3572637746.48</v>
       </c>
       <c r="D32" s="1">
-        <v>17142433480.14</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E32" s="1">
-        <v>24675789016.94</v>
+        <v>24445194794.85</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41243</v>
+        <v>41152</v>
       </c>
       <c r="B33" s="1">
-        <v>3929018216.4</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C33" s="1">
-        <v>3646999015.16</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D33" s="1">
-        <v>17226395708.39</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E33" s="1">
-        <v>24802412939.95</v>
+        <v>24546339462.45</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41274</v>
+        <v>41182</v>
       </c>
       <c r="B34" s="1">
-        <v>3949731061.55</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C34" s="1">
-        <v>3654809047.65</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D34" s="1">
-        <v>17291347894.83</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E34" s="1">
-        <v>24895888004.03</v>
+        <v>24697860539.92</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41305</v>
+        <v>41213</v>
       </c>
       <c r="B35" s="1">
-        <v>3991599105.71</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C35" s="1">
-        <v>4490569394.41</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D35" s="1">
-        <v>16688354214.01</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E35" s="1">
-        <v>25170522714.13</v>
+        <v>24675789016.94</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41333</v>
+        <v>41243</v>
       </c>
       <c r="B36" s="1">
-        <v>4007467353.78</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C36" s="1">
-        <v>4511270646.88</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D36" s="1">
-        <v>16760479395.46</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E36" s="1">
-        <v>25279217396.12</v>
+        <v>24802412939.95</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41364</v>
+        <v>41274</v>
       </c>
       <c r="B37" s="1">
-        <v>4055824611.3</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C37" s="1">
-        <v>4573664426.03</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D37" s="1">
-        <v>16966131964.43</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E37" s="1">
-        <v>25595621001.76</v>
+        <v>24895888004.03</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41394</v>
+        <v>41305</v>
       </c>
       <c r="B38" s="1">
-        <v>4145409199.46</v>
+        <v>3991599105.71</v>
       </c>
       <c r="C38" s="1">
-        <v>4682846886.27</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D38" s="1">
-        <v>17344710073.87</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E38" s="1">
-        <v>26172966159.6</v>
+        <v>25170522714.13</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41425</v>
+        <v>41333</v>
       </c>
       <c r="B39" s="1">
-        <v>4064569702.63</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C39" s="1">
-        <v>4599347535.9</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D39" s="1">
-        <v>17010077571.85</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E39" s="1">
-        <v>25673994810.38</v>
+        <v>25279217396.12</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41455</v>
+        <v>41364</v>
       </c>
       <c r="B40" s="1">
-        <v>3978796970.09</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C40" s="1">
-        <v>4510251396.91</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D40" s="1">
-        <v>16655205891.35</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E40" s="1">
-        <v>25144254258.35</v>
+        <v>25595621001.76</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41486</v>
+        <v>41394</v>
       </c>
       <c r="B41" s="1">
-        <v>4023056820.86</v>
+        <v>4145409199.46</v>
       </c>
       <c r="C41" s="1">
-        <v>4568724212.7</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D41" s="1">
-        <v>16844910623.34</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E41" s="1">
-        <v>25436691656.9</v>
+        <v>26172966159.6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41517</v>
+        <v>41425</v>
       </c>
       <c r="B42" s="1">
-        <v>3966340296.1</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C42" s="1">
-        <v>4512507452.03</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D42" s="1">
-        <v>16611859545.78</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E42" s="1">
-        <v>25090707293.91</v>
+        <v>25673994810.38</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41547</v>
+        <v>41455</v>
       </c>
       <c r="B43" s="1">
-        <v>4033439753.48</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C43" s="1">
-        <v>4749762591.53</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D43" s="1">
-        <v>16745294934.92</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E43" s="1">
-        <v>25528497279.93</v>
+        <v>25144254258.35</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41578</v>
+        <v>41486</v>
       </c>
       <c r="B44" s="1">
-        <v>4110020215.55</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C44" s="1">
-        <v>4848589342.72</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D44" s="1">
-        <v>17068754555.91</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E44" s="1">
-        <v>26027364114.18</v>
+        <v>25436691656.9</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41608</v>
+        <v>41517</v>
       </c>
       <c r="B45" s="1">
-        <v>4104202981.72</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C45" s="1">
-        <v>4850653743.4</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D45" s="1">
-        <v>17048964200.6</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E45" s="1">
-        <v>26003820925.72</v>
+        <v>25090707293.91</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41639</v>
+        <v>41547</v>
       </c>
       <c r="B46" s="1">
-        <v>4121232839.29</v>
+        <v>4033439753.48</v>
       </c>
       <c r="C46" s="1">
-        <v>4879983265.38</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D46" s="1">
-        <v>17125072337.07</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E46" s="1">
-        <v>26126288441.74</v>
+        <v>25528497279.93</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41670</v>
+        <v>41578</v>
       </c>
       <c r="B47" s="1">
-        <v>4116223144.44</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C47" s="1">
-        <v>4882894726.29</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D47" s="1">
-        <v>17108578440.75</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E47" s="1">
-        <v>26107696311.48</v>
+        <v>26027364114.18</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41698</v>
+        <v>41608</v>
       </c>
       <c r="B48" s="1">
-        <v>4197240949.36</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C48" s="1">
-        <v>4988729007.27</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D48" s="1">
-        <v>17452194867.54</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E48" s="1">
-        <v>26638164824.17</v>
+        <v>26003820925.72</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41729</v>
+        <v>41639</v>
       </c>
       <c r="B49" s="1">
-        <v>4215464347.87</v>
+        <v>4121232839.29</v>
       </c>
       <c r="C49" s="1">
-        <v>5019984158.58</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D49" s="1">
-        <v>17534607990.94</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E49" s="1">
-        <v>26770056497.39</v>
+        <v>26126288441.74</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41759</v>
+        <v>41670</v>
       </c>
       <c r="B50" s="1">
-        <v>4212492467.73</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C50" s="1">
-        <v>5026144812.31</v>
+        <v>4882894726.29</v>
       </c>
       <c r="D50" s="1">
-        <v>17527472294.14</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E50" s="1">
-        <v>26766109574.18</v>
+        <v>26107696311.48</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41790</v>
+        <v>41698</v>
       </c>
       <c r="B51" s="1">
-        <v>4276832512.93</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C51" s="1">
-        <v>5112975530.56</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D51" s="1">
-        <v>17802179304.76</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E51" s="1">
-        <v>27191987348.25</v>
+        <v>26638164824.17</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41820</v>
+        <v>41729</v>
       </c>
       <c r="B52" s="1">
-        <v>4295140983.11</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C52" s="1">
-        <v>5144862372.52</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D52" s="1">
-        <v>17885683191.13</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E52" s="1">
-        <v>27325686546.76</v>
+        <v>26770056497.39</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41851</v>
+        <v>41759</v>
       </c>
       <c r="B53" s="1">
-        <v>4265451845</v>
+        <v>4212492467.73</v>
       </c>
       <c r="C53" s="1">
-        <v>5119794037.99</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D53" s="1">
-        <v>17771593159.77</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E53" s="1">
-        <v>27156839042.76</v>
+        <v>26766109574.18</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41882</v>
+        <v>41790</v>
       </c>
       <c r="B54" s="1">
-        <v>4354547211.12</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C54" s="1">
-        <v>5237452701.82</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D54" s="1">
-        <v>18152206744.49</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E54" s="1">
-        <v>27744206657.43</v>
+        <v>27191987348.25</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41912</v>
+        <v>41820</v>
       </c>
       <c r="B55" s="1">
-        <v>4258151023.04</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C55" s="1">
-        <v>5131976211.71</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D55" s="1">
-        <v>17760533642.93</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E55" s="1">
-        <v>27150660877.68</v>
+        <v>27325686546.76</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41943</v>
+        <v>41851</v>
       </c>
       <c r="B56" s="1">
-        <v>4285163976.8</v>
+        <v>4265451845</v>
       </c>
       <c r="C56" s="1">
-        <v>5172926233.01</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D56" s="1">
-        <v>17913635623.32</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E56" s="1">
-        <v>27371725833.13</v>
+        <v>27156839042.76</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41973</v>
+        <v>41882</v>
       </c>
       <c r="B57" s="1">
-        <v>4341696562.65</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C57" s="1">
-        <v>5252461885.84</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D57" s="1">
-        <v>18161775529.88</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E57" s="1">
-        <v>27755933978.37</v>
+        <v>27744206657.43</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>42004</v>
+        <v>41912</v>
       </c>
       <c r="B58" s="1">
-        <v>4986611512.07</v>
+        <v>4258151023.04</v>
       </c>
       <c r="C58" s="1">
-        <v>5448191101.38</v>
+        <v>5131976211.71</v>
       </c>
       <c r="D58" s="1">
-        <v>18347625645.26</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E58" s="1">
-        <v>28782428258.71</v>
+        <v>27150660877.68</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42035</v>
+        <v>41943</v>
       </c>
       <c r="B59" s="1">
-        <v>5087365130.35</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C59" s="1">
-        <v>5567918737.12</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D59" s="1">
-        <v>18722750233.87</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E59" s="1">
-        <v>29378034101.34</v>
+        <v>27371725833.13</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42063</v>
+        <v>41973</v>
       </c>
       <c r="B60" s="1">
-        <v>5110739057.82</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C60" s="1">
-        <v>5603210665.94</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D60" s="1">
-        <v>18813772416.81</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E60" s="1">
-        <v>29527722140.57</v>
+        <v>27755933978.37</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42094</v>
+        <v>42004</v>
       </c>
       <c r="B61" s="1">
-        <v>5098528846.54</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C61" s="1">
-        <v>5599621915.28</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D61" s="1">
-        <v>18774054364.97</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E61" s="1">
-        <v>29472205126.79</v>
+        <v>28782428258.71</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42124</v>
+        <v>42035</v>
       </c>
       <c r="B62" s="1">
-        <v>5084901351.07</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C62" s="1">
-        <v>5594550723.83</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D62" s="1">
-        <v>18729185388.1</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E62" s="1">
-        <v>29408637463</v>
+        <v>29378034101.34</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42155</v>
+        <v>42063</v>
       </c>
       <c r="B63" s="1">
-        <v>5061385747.15</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C63" s="1">
-        <v>5578675769.67</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D63" s="1">
-        <v>18647949038.16</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E63" s="1">
-        <v>29288010554.98</v>
+        <v>29527722140.57</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42185</v>
+        <v>42094</v>
       </c>
       <c r="B64" s="1">
-        <v>4948449143.55</v>
+        <v>5098528846.54</v>
       </c>
       <c r="C64" s="1">
-        <v>5464086350.67</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D64" s="1">
-        <v>18237481254.81</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E64" s="1">
-        <v>28650016749.03</v>
+        <v>29472205126.79</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42216</v>
+        <v>42124</v>
       </c>
       <c r="B65" s="1">
-        <v>4984734110.66</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C65" s="1">
-        <v>5514366076.03</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D65" s="1">
-        <v>18377084883.67</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E65" s="1">
-        <v>28876185070.36</v>
+        <v>29408637463</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42247</v>
+        <v>42155</v>
       </c>
       <c r="B66" s="1">
-        <v>4833324327.11</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C66" s="1">
-        <v>5356648129.15</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D66" s="1">
-        <v>17823956731.64</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E66" s="1">
-        <v>28013929187.9</v>
+        <v>29288010554.98</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42277</v>
+        <v>42185</v>
       </c>
       <c r="B67" s="1">
-        <v>4774352359.51</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C67" s="1">
-        <v>5301454591.47</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D67" s="1">
-        <v>17611807946.07</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E67" s="1">
-        <v>27687614897.05</v>
+        <v>28650016749.03</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42308</v>
+        <v>42216</v>
       </c>
       <c r="B68" s="1">
-        <v>4880247836.65</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C68" s="1">
-        <v>5397632819.49</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D68" s="1">
-        <v>18048466381.73</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E68" s="1">
-        <v>28326347037.87</v>
+        <v>28876185070.36</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42338</v>
+        <v>42247</v>
       </c>
       <c r="B69" s="1">
-        <v>4844551814.11</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C69" s="1">
-        <v>5368571908.98</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D69" s="1">
-        <v>17923437278.06</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E69" s="1">
-        <v>28136561001.15</v>
+        <v>28013929187.9</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42369</v>
+        <v>42277</v>
       </c>
       <c r="B70" s="1">
-        <v>5415576742.55</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C70" s="1">
-        <v>5709868087.27</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D70" s="1">
-        <v>17720809778.51</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E70" s="1">
-        <v>28846254608.33</v>
+        <v>27687614897.05</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42400</v>
+        <v>42308</v>
       </c>
       <c r="B71" s="1">
-        <v>5318083756.35</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C71" s="1">
-        <v>5616578571.14</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D71" s="1">
-        <v>17401710538.67</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E71" s="1">
-        <v>28336372866.16</v>
+        <v>28326347037.87</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42429</v>
+        <v>42338</v>
       </c>
       <c r="B72" s="1">
-        <v>5338694185.85</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C72" s="1">
-        <v>5647936294.45</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D72" s="1">
-        <v>17469047828.17</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E72" s="1">
-        <v>28455678308.47</v>
+        <v>28136561001.15</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42460</v>
+        <v>42369</v>
       </c>
       <c r="B73" s="1">
-        <v>5505915040.5</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C73" s="1">
-        <v>5834802926.8</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D73" s="1">
-        <v>18015953930.39</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E73" s="1">
-        <v>29356671897.69</v>
+        <v>28846254608.33</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42490</v>
+        <v>42400</v>
       </c>
       <c r="B74" s="1">
-        <v>5538988181.45</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C74" s="1">
-        <v>5879483219.72</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D74" s="1">
-        <v>18123555709.18</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E74" s="1">
-        <v>29542027110.35</v>
+        <v>28336372866.16</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42521</v>
+        <v>42429</v>
       </c>
       <c r="B75" s="1">
-        <v>5531594102.95</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C75" s="1">
-        <v>5881279255.87</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D75" s="1">
-        <v>18098547742.62</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E75" s="1">
-        <v>29511421101.44</v>
+        <v>28455678308.47</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42551</v>
+        <v>42460</v>
       </c>
       <c r="B76" s="1">
-        <v>5569334217.76</v>
+        <v>5505915040.5</v>
       </c>
       <c r="C76" s="1">
-        <v>5931068967.2</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D76" s="1">
-        <v>18221430248.59</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E76" s="1">
-        <v>29721833433.55</v>
+        <v>29356671897.69</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42582</v>
+        <v>42490</v>
       </c>
       <c r="B77" s="1">
-        <v>5669685323.09</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C77" s="1">
-        <v>6047546128.94</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D77" s="1">
-        <v>18547911760.68</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E77" s="1">
-        <v>30265143212.71</v>
+        <v>29542027110.35</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42613</v>
+        <v>42521</v>
       </c>
       <c r="B78" s="1">
-        <v>5658306874.65</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C78" s="1">
-        <v>6044991482.23</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D78" s="1">
-        <v>18508956903.95</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E78" s="1">
-        <v>30212255260.83</v>
+        <v>29511421101.44</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42643</v>
+        <v>42551</v>
       </c>
       <c r="B79" s="1">
-        <v>6047292088.02</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C79" s="1">
-        <v>6489780168.17</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D79" s="1">
-        <v>18774117008.18</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E79" s="1">
-        <v>31311189264.37</v>
+        <v>29721833433.55</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42674</v>
+        <v>42582</v>
       </c>
       <c r="B80" s="1">
-        <v>5944249077.31</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C80" s="1">
-        <v>6361287062.33</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D80" s="1">
-        <v>18430165678.92</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E80" s="1">
-        <v>30735701818.56</v>
+        <v>30265143212.71</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42704</v>
+        <v>42613</v>
       </c>
       <c r="B81" s="1">
-        <v>5857951330.08</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C81" s="1">
-        <v>6278318762.68</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D81" s="1">
-        <v>18157879310.11</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E81" s="1">
-        <v>30294149402.87</v>
+        <v>30212255260.83</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42735</v>
+        <v>42643</v>
       </c>
       <c r="B82" s="1">
-        <v>6253513976.5</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C82" s="1">
-        <v>6361809245.25</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D82" s="1">
-        <v>18519236484.86</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E82" s="1">
-        <v>31134559706.61</v>
+        <v>31311189264.37</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42766</v>
+        <v>42674</v>
       </c>
       <c r="B83" s="1">
-        <v>6308462886.34</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C83" s="1">
-        <v>6425317655.9</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D83" s="1">
-        <v>18672848179.36</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E83" s="1">
-        <v>31406628721.6</v>
+        <v>30735701818.56</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42794</v>
+        <v>42704</v>
       </c>
       <c r="B84" s="1">
-        <v>6400976668.18</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C84" s="1">
-        <v>6526279467.15</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D84" s="1">
-        <v>18935672129.96</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E84" s="1">
-        <v>31862928265.29</v>
+        <v>30294149402.87</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42825</v>
+        <v>42735</v>
       </c>
       <c r="B85" s="1">
-        <v>7099971446.02</v>
+        <v>6253513976.5</v>
       </c>
       <c r="C85" s="1">
-        <v>7337629420.28</v>
+        <v>6361809245.25</v>
       </c>
       <c r="D85" s="1">
-        <v>19799616893.11</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E85" s="1">
-        <v>34237217759.41</v>
+        <v>31134559706.61</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42855</v>
+        <v>42766</v>
       </c>
       <c r="B86" s="1">
-        <v>7176134170.54</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C86" s="1">
-        <v>7422733235.89</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D86" s="1">
-        <v>20002352527.29</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E86" s="1">
-        <v>34601219933.72</v>
+        <v>31406628721.6</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42886</v>
+        <v>42794</v>
       </c>
       <c r="B87" s="1">
-        <v>7264954337.05</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C87" s="1">
-        <v>7523682920.77</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D87" s="1">
-        <v>20236842409.02</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E87" s="1">
-        <v>35025479666.84</v>
+        <v>31862928265.29</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42916</v>
+        <v>42825</v>
       </c>
       <c r="B88" s="1">
-        <v>7282406497.08</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C88" s="1">
-        <v>7549356808.18</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D88" s="1">
-        <v>20274819955.34</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E88" s="1">
-        <v>35106583260.6</v>
+        <v>34237217759.41</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42947</v>
+        <v>42855</v>
       </c>
       <c r="B89" s="1">
-        <v>7343644210.4</v>
+        <v>7176134170.54</v>
       </c>
       <c r="C89" s="1">
-        <v>7623588366.49</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D89" s="1">
-        <v>20438559290.68</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E89" s="1">
-        <v>35405791867.57</v>
+        <v>34601219933.72</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42978</v>
+        <v>42886</v>
       </c>
       <c r="B90" s="1">
-        <v>7401114464.44</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C90" s="1">
-        <v>7693916997.08</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D90" s="1">
-        <v>20590483805.51</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E90" s="1">
-        <v>35685515267.03</v>
+        <v>35025479666.84</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>43008</v>
+        <v>42916</v>
       </c>
       <c r="B91" s="1">
-        <v>7439354518.62</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C91" s="1">
-        <v>7744728806.72</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D91" s="1">
-        <v>20690860589.09</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E91" s="1">
-        <v>35874943914.43</v>
+        <v>35106583260.6</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43039</v>
+        <v>42947</v>
       </c>
       <c r="B92" s="1">
-        <v>7501162607.24</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C92" s="1">
-        <v>7797612927.14</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D92" s="1">
-        <v>20816144211.36</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E92" s="1">
-        <v>36114919745.74</v>
+        <v>35405791867.57</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43069</v>
+        <v>42978</v>
       </c>
       <c r="B93" s="1">
-        <v>7578785278.66</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C93" s="1">
-        <v>7890046689.69</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D93" s="1">
-        <v>21026781531.76</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E93" s="1">
-        <v>36495613500.11</v>
+        <v>35685515267.03</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43100</v>
+        <v>43008</v>
       </c>
       <c r="B94" s="1">
-        <v>9002210135.43</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C94" s="1">
-        <v>8628245002.959999</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D94" s="1">
-        <v>24225602881.81</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E94" s="1">
-        <v>41856058020.2</v>
+        <v>35874943914.43</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43131</v>
+        <v>43039</v>
       </c>
       <c r="B95" s="1">
-        <v>9202610590.719999</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C95" s="1">
-        <v>8830545061.309999</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D95" s="1">
-        <v>24550562668.35</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E95" s="1">
-        <v>42583718320.38</v>
+        <v>36114919745.74</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43159</v>
+        <v>43069</v>
       </c>
       <c r="B96" s="1">
-        <v>8905152042.110001</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C96" s="1">
-        <v>8554843302.12</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D96" s="1">
-        <v>23751652917.48</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E96" s="1">
-        <v>41211648261.71</v>
+        <v>36495613500.11</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43190</v>
+        <v>43100</v>
       </c>
       <c r="B97" s="1">
-        <v>8894650969.91</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C97" s="1">
-        <v>8555117311.3</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D97" s="1">
-        <v>23895701762.76</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E97" s="1">
-        <v>41345470043.96999</v>
+        <v>41856058020.2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43220</v>
+        <v>43131</v>
       </c>
       <c r="B98" s="1">
-        <v>8853026337.98</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C98" s="1">
-        <v>8525561703.78</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D98" s="1">
-        <v>23668172596.97</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E98" s="1">
-        <v>41046760638.73</v>
+        <v>42583718320.38</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43251</v>
+        <v>43159</v>
       </c>
       <c r="B99" s="1">
-        <v>8890561971.129999</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C99" s="1">
-        <v>8572549061.9</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D99" s="1">
-        <v>23850121023.12</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E99" s="1">
-        <v>41313232056.15</v>
+        <v>41211648261.71</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B100" s="1">
-        <v>8841470603.15</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C100" s="1">
-        <v>8535731069.89</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D100" s="1">
-        <v>23743830051.96</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E100" s="1">
-        <v>41121031725</v>
+        <v>41345470043.96999</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B101" s="1">
-        <v>8936073454</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C101" s="1">
-        <v>8637933457.639999</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D101" s="1">
-        <v>23810581356</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E101" s="1">
-        <v>41384588267.64</v>
+        <v>41046760638.73</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43343</v>
+        <v>43251</v>
       </c>
       <c r="B102" s="1">
-        <v>8984375598.66</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C102" s="1">
-        <v>8696018228.42</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D102" s="1">
-        <v>23982409194.24</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E102" s="1">
-        <v>41662803021.32</v>
+        <v>41313232056.15</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43373</v>
+        <v>43281</v>
       </c>
       <c r="B103" s="1">
-        <v>8913881251.4</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C103" s="1">
-        <v>8639086304.16</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D103" s="1">
-        <v>23633980009.44</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E103" s="1">
-        <v>41186947565</v>
+        <v>41121031725</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43404</v>
+        <v>43312</v>
       </c>
       <c r="B104" s="1">
-        <v>8522844994.4</v>
+        <v>8936073454</v>
       </c>
       <c r="C104" s="1">
-        <v>8244001106.42</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D104" s="1">
-        <v>22616189010.16</v>
+        <v>23810581356</v>
       </c>
       <c r="E104" s="1">
-        <v>39383035110.98</v>
+        <v>41384588267.64</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43434</v>
+        <v>43343</v>
       </c>
       <c r="B105" s="1">
-        <v>8594776142.139999</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C105" s="1">
-        <v>8324970365.95</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D105" s="1">
-        <v>22855417422.09</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E105" s="1">
-        <v>39775163930.18</v>
+        <v>41662803021.32</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43465</v>
+        <v>43373</v>
       </c>
       <c r="B106" s="1">
-        <v>8430913509.88</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C106" s="1">
-        <v>8177279951.57</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D106" s="1">
-        <v>22914791910.02</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E106" s="1">
-        <v>39522985371.47</v>
+        <v>41186947565</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43496</v>
+        <v>43404</v>
       </c>
       <c r="B107" s="1">
-        <v>8716930851.969999</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C107" s="1">
-        <v>8466374243.34</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D107" s="1">
-        <v>23486748539.61</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E107" s="1">
-        <v>40670053634.92</v>
+        <v>39383035110.98</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43524</v>
+        <v>43434</v>
       </c>
       <c r="B108" s="1">
-        <v>8780002278.02</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C108" s="1">
-        <v>8538970109.85</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D108" s="1">
-        <v>23478840638.83</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E108" s="1">
-        <v>40797813026.7</v>
+        <v>39775163930.18</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43555</v>
+        <v>43465</v>
       </c>
       <c r="B109" s="1">
-        <v>8939502054.139999</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C109" s="1">
-        <v>8705342961.4</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D109" s="1">
-        <v>24171257132.2</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E109" s="1">
-        <v>41816102147.74</v>
+        <v>39522985371.47</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43585</v>
+        <v>43496</v>
       </c>
       <c r="B110" s="1">
-        <v>9008244776.280001</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C110" s="1">
-        <v>9126959379.24</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D110" s="1">
-        <v>24607902857.48</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E110" s="1">
-        <v>42743107013</v>
+        <v>40670053634.92</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43616</v>
+        <v>43524</v>
       </c>
       <c r="B111" s="1">
-        <v>8944260855.860001</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C111" s="1">
-        <v>9074029379.02</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D111" s="1">
-        <v>25031315219.51</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E111" s="1">
-        <v>43049605454.39</v>
+        <v>40797813026.7</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43646</v>
+        <v>43555</v>
       </c>
       <c r="B112" s="1">
-        <v>9215995868.950001</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C112" s="1">
-        <v>9361706609.469999</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D112" s="1">
-        <v>25624194687.13</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E112" s="1">
-        <v>44201897165.55</v>
+        <v>41816102147.74</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43677</v>
+        <v>43585</v>
       </c>
       <c r="B113" s="1">
-        <v>9238385070.67</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C113" s="1">
-        <v>9396108735.549999</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D113" s="1">
-        <v>25654784699.4</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E113" s="1">
-        <v>44289278505.62</v>
+        <v>42743107013</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43708</v>
+        <v>43616</v>
       </c>
       <c r="B114" s="1">
-        <v>9436337524.57</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C114" s="1">
-        <v>9608738306.559999</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D114" s="1">
-        <v>27075236050.17</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E114" s="1">
-        <v>46120311881.3</v>
+        <v>43049605454.39</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43738</v>
+        <v>43646</v>
       </c>
       <c r="B115" s="1">
-        <v>10602215448.62</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C115" s="1">
-        <v>9614794478.780001</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D115" s="1">
-        <v>26732583667.57</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E115" s="1">
-        <v>46949593594.97</v>
+        <v>44201897165.55</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43769</v>
+        <v>43677</v>
       </c>
       <c r="B116" s="1">
-        <v>10608252625.24</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C116" s="1">
-        <v>9625407467.91</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D116" s="1">
-        <v>26632048569.08</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E116" s="1">
-        <v>46865708662.23</v>
+        <v>44289278505.62</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43799</v>
+        <v>43708</v>
       </c>
       <c r="B117" s="1">
-        <v>10692316903.4</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C117" s="1">
-        <v>9713037686.17</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D117" s="1">
-        <v>26718262582.96</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E117" s="1">
-        <v>47123617172.53</v>
+        <v>46120311881.3</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43830</v>
+        <v>43738</v>
       </c>
       <c r="B118" s="1">
-        <v>10758442213.97</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C118" s="1">
-        <v>9477691033.26</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D118" s="1">
-        <v>25905500280.73</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E118" s="1">
-        <v>46141633527.96</v>
+        <v>46949593594.97</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43861</v>
+        <v>43769</v>
       </c>
       <c r="B119" s="1">
-        <v>10840639312.88</v>
+        <v>10608252625.24</v>
       </c>
       <c r="C119" s="1">
-        <v>9555218261.01</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D119" s="1">
-        <v>26801803446.13</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E119" s="1">
-        <v>47197661020.02</v>
+        <v>46865708662.23</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43890</v>
+        <v>43799</v>
       </c>
       <c r="B120" s="1">
-        <v>10574286223.88</v>
+        <v>10692316903.4</v>
       </c>
       <c r="C120" s="1">
-        <v>9338936485.4</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D120" s="1">
-        <v>27210602093.55</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E120" s="1">
-        <v>47123824802.83</v>
+        <v>47123617172.53</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43921</v>
+        <v>43830</v>
       </c>
       <c r="B121" s="1">
-        <v>9764305551.360001</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C121" s="1">
-        <v>8664875030.02</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D121" s="1">
-        <v>26774845803.79</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E121" s="1">
-        <v>45204026385.17001</v>
+        <v>46141633527.96</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43951</v>
+        <v>43861</v>
       </c>
       <c r="B122" s="1">
-        <v>10283094677.36</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C122" s="1">
-        <v>9107006952.52</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D122" s="1">
-        <v>27673909702.83</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E122" s="1">
-        <v>47064011332.71</v>
+        <v>47197661020.02</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43982</v>
+        <v>43890</v>
       </c>
       <c r="B123" s="1">
-        <v>10409182664.05</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C123" s="1">
-        <v>9213245024.98</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D123" s="1">
-        <v>27458711260.98</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E123" s="1">
-        <v>47081138950.00999</v>
+        <v>47123824802.83</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>44012</v>
+        <v>43921</v>
       </c>
       <c r="B124" s="1">
-        <v>10514205392.24</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C124" s="1">
-        <v>9308097696.17</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D124" s="1">
-        <v>27604261775.77</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E124" s="1">
-        <v>47426564864.18</v>
+        <v>45204026385.17001</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44043</v>
+        <v>43951</v>
       </c>
       <c r="B125" s="1">
-        <v>10849449410.81</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C125" s="1">
-        <v>9606421868.530001</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D125" s="1">
-        <v>28739793816.49</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E125" s="1">
-        <v>49195665095.83</v>
+        <v>47064011332.71</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44074</v>
+        <v>43982</v>
       </c>
       <c r="B126" s="1">
-        <v>11005151438.13</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C126" s="1">
-        <v>9743289163.68</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D126" s="1">
-        <v>28157643007.23</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E126" s="1">
-        <v>48906083609.04</v>
+        <v>47081138950.00999</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44104</v>
+        <v>44012</v>
       </c>
       <c r="B127" s="1">
-        <v>11506934819.12</v>
+        <v>10514205392.24</v>
       </c>
       <c r="C127" s="1">
-        <v>9894562298.549999</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D127" s="1">
-        <v>27927195382.94</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E127" s="1">
-        <v>49328692500.60999</v>
+        <v>47426564864.18</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44135</v>
+        <v>44043</v>
       </c>
       <c r="B128" s="1">
-        <v>11238592497.88</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C128" s="1">
-        <v>9700328704.629999</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D128" s="1">
-        <v>27087133329.04</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E128" s="1">
-        <v>48026054531.55</v>
+        <v>49195665095.83</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44165</v>
+        <v>44074</v>
       </c>
       <c r="B129" s="1">
-        <v>11941273405.45</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C129" s="1">
-        <v>10308274207.78</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D129" s="1">
-        <v>28190455805.8</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E129" s="1">
-        <v>50440003419.03</v>
+        <v>48906083609.04</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="B130" s="1">
-        <v>12756299620.31</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C130" s="1">
-        <v>11053433125.61</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D130" s="1">
-        <v>28978753211.54</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E130" s="1">
-        <v>52788485957.46</v>
+        <v>49328692500.60999</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44227</v>
+        <v>44135</v>
       </c>
       <c r="B131" s="1">
-        <v>12558243414.61</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C131" s="1">
-        <v>10900299506.57</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D131" s="1">
-        <v>28129460313.55</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E131" s="1">
-        <v>51588003234.73</v>
+        <v>48026054531.55</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44255</v>
+        <v>44165</v>
       </c>
       <c r="B132" s="1">
-        <v>12499730482.13</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C132" s="1">
-        <v>10872197550.37</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D132" s="1">
-        <v>27127417795.49</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E132" s="1">
-        <v>50499345827.99</v>
+        <v>50440003419.03</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44286</v>
+        <v>44196</v>
       </c>
       <c r="B133" s="1">
-        <v>12629967215.83</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C133" s="1">
-        <v>10999754121.32</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D133" s="1">
-        <v>26762995183.16</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E133" s="1">
-        <v>50392716520.31</v>
+        <v>52788485957.46</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44316</v>
+        <v>44227</v>
       </c>
       <c r="B134" s="1">
-        <v>12959077328.64</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C134" s="1">
-        <v>11290601383.86</v>
+        <v>10900299506.57</v>
       </c>
       <c r="D134" s="1">
-        <v>27451304576.21</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E134" s="1">
-        <v>51700983288.71</v>
+        <v>51588003234.73</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44347</v>
+        <v>44255</v>
       </c>
       <c r="B135" s="1">
-        <v>13155170030.18</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C135" s="1">
-        <v>11478701164.89</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D135" s="1">
-        <v>27744684232.74</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E135" s="1">
-        <v>52378555427.81</v>
+        <v>50499345827.99</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="B136" s="1">
-        <v>13363308598.31</v>
+        <v>12629967215.83</v>
       </c>
       <c r="C136" s="1">
-        <v>11665454270.74</v>
+        <v>10999754121.32</v>
       </c>
       <c r="D136" s="1">
-        <v>28450398443.59</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E136" s="1">
-        <v>53479161312.64</v>
+        <v>50392716520.31</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44408</v>
+        <v>44316</v>
       </c>
       <c r="B137" s="1">
-        <v>13542680564.47</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C137" s="1">
-        <v>11826970568.32</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D137" s="1">
-        <v>29059097453.83</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E137" s="1">
-        <v>54428748586.62</v>
+        <v>51700983288.71</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44439</v>
+        <v>44347</v>
       </c>
       <c r="B138" s="1">
-        <v>13707767980.07</v>
+        <v>13155170030.18</v>
       </c>
       <c r="C138" s="1">
-        <v>11980671064.48</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D138" s="1">
-        <v>29181897719.21</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E138" s="1">
-        <v>54870336763.75999</v>
+        <v>52378555427.81</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="B139" s="1">
-        <v>13203547316.24</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C139" s="1">
-        <v>11508277149.59</v>
+        <v>11665454270.74</v>
       </c>
       <c r="D139" s="1">
-        <v>28189224367.16</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E139" s="1">
-        <v>52901048832.99</v>
+        <v>53479161312.64</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44500</v>
+        <v>44408</v>
       </c>
       <c r="B140" s="1">
-        <v>13619689152.99</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C140" s="1">
-        <v>11898653834.64</v>
+        <v>11826970568.32</v>
       </c>
       <c r="D140" s="1">
-        <v>28782423825.81</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E140" s="1">
-        <v>54300766813.44</v>
+        <v>54428748586.62</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44530</v>
+        <v>44439</v>
       </c>
       <c r="B141" s="1">
-        <v>13785068283.86</v>
+        <v>13707767980.07</v>
       </c>
       <c r="C141" s="1">
-        <v>12126631727.77</v>
+        <v>11980671064.48</v>
       </c>
       <c r="D141" s="1">
-        <v>29177655956.14</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E141" s="1">
-        <v>55089355967.77</v>
+        <v>54870336763.75999</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44561</v>
+        <v>44469</v>
       </c>
       <c r="B142" s="1">
-        <v>13933499672.22</v>
+        <v>13203547316.24</v>
       </c>
       <c r="C142" s="1">
-        <v>12222321130.28</v>
+        <v>11508277149.59</v>
       </c>
       <c r="D142" s="1">
-        <v>29369048113</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E142" s="1">
-        <v>55524868915.5</v>
+        <v>52901048832.99</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44592</v>
+        <v>44500</v>
       </c>
       <c r="B143" s="1">
-        <v>13228050556.07</v>
+        <v>13619689152.99</v>
       </c>
       <c r="C143" s="1">
-        <v>11573834300.94</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D143" s="1">
-        <v>27989510511.21</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E143" s="1">
-        <v>52791395368.22</v>
+        <v>54300766813.44</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44620</v>
+        <v>44530</v>
       </c>
       <c r="B144" s="1">
-        <v>12924236126.56</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C144" s="1">
-        <v>11299022364.73</v>
+        <v>12126631727.77</v>
       </c>
       <c r="D144" s="1">
-        <v>27410006047.48</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E144" s="1">
-        <v>51633264538.77</v>
+        <v>55089355967.77</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="B145" s="1">
-        <v>12662771414.75</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C145" s="1">
-        <v>11031166589.13</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D145" s="1">
-        <v>26576348005.31</v>
+        <v>29369048113</v>
       </c>
       <c r="E145" s="1">
-        <v>50270286009.19</v>
+        <v>55524868915.5</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44681</v>
+        <v>44592</v>
       </c>
       <c r="B146" s="1">
-        <v>11666882480.45</v>
+        <v>13228050556.07</v>
       </c>
       <c r="C146" s="1">
-        <v>10097030956.61</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D146" s="1">
-        <v>24343752751.24</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E146" s="1">
-        <v>46107666188.3</v>
+        <v>52791395368.22</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B147" s="1">
+        <v>12924236126.56</v>
+      </c>
+      <c r="C147" s="1">
+        <v>11299022364.73</v>
+      </c>
+      <c r="D147" s="1">
+        <v>27410006047.48</v>
+      </c>
+      <c r="E147" s="1">
+        <v>51633264538.77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B148" s="1">
+        <v>12662771414.75</v>
+      </c>
+      <c r="C148" s="1">
+        <v>11031166589.13</v>
+      </c>
+      <c r="D148" s="1">
+        <v>26576348005.31</v>
+      </c>
+      <c r="E148" s="1">
+        <v>50270286009.19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="3">
+        <v>44681</v>
+      </c>
+      <c r="B149" s="1">
+        <v>11666882480.45</v>
+      </c>
+      <c r="C149" s="1">
+        <v>10097030956.61</v>
+      </c>
+      <c r="D149" s="1">
+        <v>24343752751.24</v>
+      </c>
+      <c r="E149" s="1">
+        <v>46107666188.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="3">
         <v>44712</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B150" s="1">
         <v>11506881422.34</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C150" s="1">
         <v>9932226543.780001</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D150" s="1">
         <v>24079986770.42</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E150" s="1">
         <v>45519094736.53999</v>
       </c>
     </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B151" s="1">
+        <v>11065097064.85</v>
+      </c>
+      <c r="C151" s="1">
+        <v>9580933722.4</v>
+      </c>
+      <c r="D151" s="1">
+        <v>23101412415.21</v>
+      </c>
+      <c r="E151" s="1">
+        <v>43747443202.46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="3">
+        <v>44773</v>
+      </c>
+      <c r="B152" s="1">
+        <v>11438117231.49</v>
+      </c>
+      <c r="C152" s="1">
+        <v>9910543756.66</v>
+      </c>
+      <c r="D152" s="1">
+        <v>23955770271.21</v>
+      </c>
+      <c r="E152" s="1">
+        <v>45304431259.36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B153" s="1">
+        <v>10953128495.09</v>
+      </c>
+      <c r="C153" s="1">
+        <v>9473104540.35</v>
+      </c>
+      <c r="D153" s="1">
+        <v>22811356969.86</v>
+      </c>
+      <c r="E153" s="1">
+        <v>43237590005.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="3">
+        <v>44834</v>
+      </c>
+      <c r="B154" s="1">
+        <v>11033073157.63</v>
+      </c>
+      <c r="C154" s="1">
+        <v>9094083273.629999</v>
+      </c>
+      <c r="D154" s="1">
+        <v>21389518149.24</v>
+      </c>
+      <c r="E154" s="1">
+        <v>41516674580.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="3">
+        <v>44865</v>
+      </c>
+      <c r="B155" s="1">
+        <v>10914128661.11</v>
+      </c>
+      <c r="C155" s="1">
+        <v>8878139505.809999</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20920920146.98</v>
+      </c>
+      <c r="E155" s="1">
+        <v>40713188313.89999</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A147">
+  <conditionalFormatting sqref="A1:A155">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E147">
+  <conditionalFormatting sqref="B2:E155">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
@@ -2942,7 +3078,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM147"/>
+  <dimension ref="A1:ALM155"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2970,2493 +3106,2629 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40298</v>
+        <v>40209</v>
       </c>
       <c r="B2" s="1">
-        <v>0.020455</v>
+        <v>-0.012907</v>
       </c>
       <c r="C2" s="1">
-        <v>0.021368</v>
+        <v>-0.013845</v>
       </c>
       <c r="D2" s="1">
-        <v>0.021406</v>
+        <v>-0.013906</v>
       </c>
       <c r="E2" s="1">
-        <v>0.021313</v>
+        <v>-0.013841</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40329</v>
+        <v>40237</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.042701</v>
+        <v>0.012753</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.042682</v>
+        <v>0.013375</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.04269199999999999</v>
+        <v>0.013596</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.042691</v>
+        <v>0.013512</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40359</v>
+        <v>40268</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.010431</v>
+        <v>0.037112</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.010424</v>
+        <v>0.039345</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.010512</v>
+        <v>0.039374</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.010493</v>
+        <v>0.039192</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40390</v>
+        <v>40298</v>
       </c>
       <c r="B5" s="1">
-        <v>0.04159</v>
+        <v>0.020455</v>
       </c>
       <c r="C5" s="1">
-        <v>0.043416</v>
+        <v>0.021368</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04342500000000001</v>
+        <v>0.021406</v>
       </c>
       <c r="E5" s="1">
-        <v>0.043244</v>
+        <v>0.021313</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40421</v>
+        <v>40329</v>
       </c>
       <c r="B6" s="1">
-        <v>0.001548</v>
+        <v>-0.042701</v>
       </c>
       <c r="C6" s="1">
-        <v>0.001558</v>
+        <v>-0.042682</v>
       </c>
       <c r="D6" s="1">
-        <v>0.00155</v>
+        <v>-0.04269199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001551</v>
+        <v>-0.042691</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40451</v>
+        <v>40359</v>
       </c>
       <c r="B7" s="1">
-        <v>0.04532</v>
+        <v>-0.010431</v>
       </c>
       <c r="C7" s="1">
-        <v>0.045333</v>
+        <v>-0.010424</v>
       </c>
       <c r="D7" s="1">
-        <v>0.045331</v>
+        <v>-0.010512</v>
       </c>
       <c r="E7" s="1">
-        <v>0.04533</v>
+        <v>-0.010493</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40482</v>
+        <v>40390</v>
       </c>
       <c r="B8" s="1">
-        <v>0.009824000000000001</v>
+        <v>0.04159</v>
       </c>
       <c r="C8" s="1">
-        <v>0.009851</v>
+        <v>0.043416</v>
       </c>
       <c r="D8" s="1">
-        <v>0.009762</v>
+        <v>0.04342500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.009781</v>
+        <v>0.043244</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40512</v>
+        <v>40421</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.006762000000000001</v>
+        <v>0.001548</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.005979</v>
+        <v>0.001558</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.006311</v>
+        <v>0.00155</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006307</v>
+        <v>0.001551</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40543</v>
+        <v>40451</v>
       </c>
       <c r="B10" s="1">
-        <v>0.029284</v>
+        <v>0.04532</v>
       </c>
       <c r="C10" s="1">
-        <v>0.029312</v>
+        <v>0.045333</v>
       </c>
       <c r="D10" s="1">
-        <v>0.029354</v>
+        <v>0.045331</v>
       </c>
       <c r="E10" s="1">
-        <v>0.029341</v>
+        <v>0.04533</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40574</v>
+        <v>40482</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.00115</v>
+        <v>0.009824000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.001119</v>
+        <v>0.009851</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.001115</v>
+        <v>0.009762</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001121</v>
+        <v>0.009781</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40602</v>
+        <v>40512</v>
       </c>
       <c r="B12" s="1">
-        <v>0.023291</v>
+        <v>-0.006762000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>0.023317</v>
+        <v>-0.005979</v>
       </c>
       <c r="D12" s="1">
-        <v>0.023308</v>
+        <v>-0.006311</v>
       </c>
       <c r="E12" s="1">
-        <v>0.023307</v>
+        <v>-0.006307</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40633</v>
+        <v>40543</v>
       </c>
       <c r="B13" s="1">
-        <v>0.002493</v>
+        <v>0.029284</v>
       </c>
       <c r="C13" s="1">
-        <v>0.002493</v>
+        <v>0.029312</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002494</v>
+        <v>0.029354</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002494</v>
+        <v>0.029341</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40663</v>
+        <v>40574</v>
       </c>
       <c r="B14" s="1">
-        <v>0.030082</v>
+        <v>-0.00115</v>
       </c>
       <c r="C14" s="1">
-        <v>0.030134</v>
+        <v>-0.001119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.030134</v>
+        <v>-0.001115</v>
       </c>
       <c r="E14" s="1">
-        <v>0.030126</v>
+        <v>-0.001121</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40694</v>
+        <v>40602</v>
       </c>
       <c r="B15" s="1">
-        <v>0.006251</v>
+        <v>0.023291</v>
       </c>
       <c r="C15" s="1">
-        <v>0.006252</v>
+        <v>0.023317</v>
       </c>
       <c r="D15" s="1">
-        <v>0.006251</v>
+        <v>0.023308</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006251</v>
+        <v>0.023307</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40724</v>
+        <v>40633</v>
       </c>
       <c r="B16" s="1">
-        <v>-0.016394</v>
+        <v>0.002493</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.016393</v>
+        <v>0.002493</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.016388</v>
+        <v>0.002494</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.016389</v>
+        <v>0.002494</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40755</v>
+        <v>40663</v>
       </c>
       <c r="B17" s="1">
-        <v>0.010779</v>
+        <v>0.030082</v>
       </c>
       <c r="C17" s="1">
-        <v>0.010779</v>
+        <v>0.030134</v>
       </c>
       <c r="D17" s="1">
-        <v>0.010779</v>
+        <v>0.030134</v>
       </c>
       <c r="E17" s="1">
-        <v>0.010779</v>
+        <v>0.030126</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40786</v>
+        <v>40694</v>
       </c>
       <c r="B18" s="1">
-        <v>-0.006495</v>
+        <v>0.006251</v>
       </c>
       <c r="C18" s="1">
-        <v>-0.006492</v>
+        <v>0.006252</v>
       </c>
       <c r="D18" s="1">
-        <v>-0.006488000000000001</v>
+        <v>0.006251</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00649</v>
+        <v>0.006251</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40816</v>
+        <v>40724</v>
       </c>
       <c r="B19" s="1">
-        <v>0.001202</v>
+        <v>-0.016394</v>
       </c>
       <c r="C19" s="1">
-        <v>0.001203</v>
+        <v>-0.016393</v>
       </c>
       <c r="D19" s="1">
-        <v>0.001203</v>
+        <v>-0.016388</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001203</v>
+        <v>-0.016389</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40847</v>
+        <v>40755</v>
       </c>
       <c r="B20" s="1">
-        <v>0.035731</v>
+        <v>0.010779</v>
       </c>
       <c r="C20" s="1">
-        <v>0.035736</v>
+        <v>0.010779</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03573</v>
+        <v>0.010779</v>
       </c>
       <c r="E20" s="1">
-        <v>0.035731</v>
+        <v>0.010779</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40877</v>
+        <v>40786</v>
       </c>
       <c r="B21" s="1">
-        <v>-0.006834</v>
+        <v>-0.006495</v>
       </c>
       <c r="C21" s="1">
-        <v>-0.006834</v>
+        <v>-0.006492</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.006832</v>
+        <v>-0.006488000000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.006832</v>
+        <v>-0.00649</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40908</v>
+        <v>40816</v>
       </c>
       <c r="B22" s="1">
-        <v>0.011627</v>
+        <v>0.001202</v>
       </c>
       <c r="C22" s="1">
-        <v>0.011629</v>
+        <v>0.001203</v>
       </c>
       <c r="D22" s="1">
-        <v>0.011629</v>
+        <v>0.001203</v>
       </c>
       <c r="E22" s="1">
-        <v>0.011629</v>
+        <v>0.001203</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40939</v>
+        <v>40847</v>
       </c>
       <c r="B23" s="1">
-        <v>0.027751</v>
+        <v>0.035731</v>
       </c>
       <c r="C23" s="1">
-        <v>0.027758</v>
+        <v>0.035736</v>
       </c>
       <c r="D23" s="1">
-        <v>0.027751</v>
+        <v>0.03573</v>
       </c>
       <c r="E23" s="1">
-        <v>0.027752</v>
+        <v>0.035731</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40968</v>
+        <v>40877</v>
       </c>
       <c r="B24" s="1">
-        <v>0.018401</v>
+        <v>-0.006834</v>
       </c>
       <c r="C24" s="1">
-        <v>0.018387</v>
+        <v>-0.006834</v>
       </c>
       <c r="D24" s="1">
-        <v>0.018407</v>
+        <v>-0.006832</v>
       </c>
       <c r="E24" s="1">
-        <v>0.018403</v>
+        <v>-0.006832</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40999</v>
+        <v>40908</v>
       </c>
       <c r="B25" s="1">
-        <v>-0.003827</v>
+        <v>0.011627</v>
       </c>
       <c r="C25" s="1">
-        <v>-0.00384</v>
+        <v>0.011629</v>
       </c>
       <c r="D25" s="1">
-        <v>-0.00384</v>
+        <v>0.011629</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.003838</v>
+        <v>0.011629</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>41029</v>
+        <v>40939</v>
       </c>
       <c r="B26" s="1">
-        <v>0.010169</v>
+        <v>0.027751</v>
       </c>
       <c r="C26" s="1">
-        <v>0.010171</v>
+        <v>0.027758</v>
       </c>
       <c r="D26" s="1">
-        <v>0.010169</v>
+        <v>0.027751</v>
       </c>
       <c r="E26" s="1">
-        <v>0.010169</v>
+        <v>0.027752</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41060</v>
+        <v>40968</v>
       </c>
       <c r="B27" s="1">
-        <v>-0.007147</v>
+        <v>0.018401</v>
       </c>
       <c r="C27" s="1">
-        <v>-0.007141999999999999</v>
+        <v>0.018387</v>
       </c>
       <c r="D27" s="1">
-        <v>-0.007113</v>
+        <v>0.018407</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.007122000000000001</v>
+        <v>0.018403</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41090</v>
+        <v>40999</v>
       </c>
       <c r="B28" s="1">
-        <v>0.013617</v>
+        <v>-0.003827</v>
       </c>
       <c r="C28" s="1">
-        <v>0.013665</v>
+        <v>-0.00384</v>
       </c>
       <c r="D28" s="1">
-        <v>0.013662</v>
+        <v>-0.00384</v>
       </c>
       <c r="E28" s="1">
-        <v>0.013655</v>
+        <v>-0.003838</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41121</v>
+        <v>41029</v>
       </c>
       <c r="B29" s="1">
-        <v>0.022428</v>
+        <v>0.010169</v>
       </c>
       <c r="C29" s="1">
-        <v>0.022445</v>
+        <v>0.010171</v>
       </c>
       <c r="D29" s="1">
-        <v>0.022415</v>
+        <v>0.010169</v>
       </c>
       <c r="E29" s="1">
-        <v>0.022421</v>
+        <v>0.010169</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41152</v>
+        <v>41060</v>
       </c>
       <c r="B30" s="1">
-        <v>0.006546</v>
+        <v>-0.007147</v>
       </c>
       <c r="C30" s="1">
-        <v>0.006548000000000001</v>
+        <v>-0.007141999999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>0.006546</v>
+        <v>-0.007113</v>
       </c>
       <c r="E30" s="1">
-        <v>0.006546</v>
+        <v>-0.007122000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41182</v>
+        <v>41090</v>
       </c>
       <c r="B31" s="1">
-        <v>0.008595999999999999</v>
+        <v>0.013617</v>
       </c>
       <c r="C31" s="1">
-        <v>0.008598</v>
+        <v>0.013665</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008597</v>
+        <v>0.013662</v>
       </c>
       <c r="E31" s="1">
-        <v>0.008597</v>
+        <v>0.013655</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41213</v>
+        <v>41121</v>
       </c>
       <c r="B32" s="1">
-        <v>0.001504</v>
+        <v>0.022428</v>
       </c>
       <c r="C32" s="1">
-        <v>0.001506</v>
+        <v>0.022445</v>
       </c>
       <c r="D32" s="1">
-        <v>0.001505</v>
+        <v>0.022415</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001505</v>
+        <v>0.022421</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41243</v>
+        <v>41152</v>
       </c>
       <c r="B33" s="1">
-        <v>0.007569</v>
+        <v>0.006546</v>
       </c>
       <c r="C33" s="1">
-        <v>0.007571</v>
+        <v>0.006548000000000001</v>
       </c>
       <c r="D33" s="1">
-        <v>0.007571</v>
+        <v>0.006546</v>
       </c>
       <c r="E33" s="1">
-        <v>0.007571</v>
+        <v>0.006546</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41274</v>
+        <v>41182</v>
       </c>
       <c r="B34" s="1">
-        <v>0.008156999999999999</v>
+        <v>0.008595999999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>0.008168999999999999</v>
+        <v>0.008598</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008165</v>
+        <v>0.008597</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008163999999999999</v>
+        <v>0.008597</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41305</v>
+        <v>41213</v>
       </c>
       <c r="B35" s="1">
-        <v>0.013471</v>
+        <v>0.001504</v>
       </c>
       <c r="C35" s="1">
-        <v>0.013571</v>
+        <v>0.001506</v>
       </c>
       <c r="D35" s="1">
-        <v>0.013456</v>
+        <v>0.001505</v>
       </c>
       <c r="E35" s="1">
-        <v>0.013479</v>
+        <v>0.001505</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41333</v>
+        <v>41243</v>
       </c>
       <c r="B36" s="1">
-        <v>0.007465</v>
+        <v>0.007569</v>
       </c>
       <c r="C36" s="1">
-        <v>0.007458</v>
+        <v>0.007571</v>
       </c>
       <c r="D36" s="1">
-        <v>0.00747</v>
+        <v>0.007571</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007467000000000001</v>
+        <v>0.007571</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41364</v>
+        <v>41274</v>
       </c>
       <c r="B37" s="1">
-        <v>0.015025</v>
+        <v>0.008156999999999999</v>
       </c>
       <c r="C37" s="1">
-        <v>0.015027</v>
+        <v>0.008168999999999999</v>
       </c>
       <c r="D37" s="1">
-        <v>0.015024</v>
+        <v>0.008165</v>
       </c>
       <c r="E37" s="1">
-        <v>0.015024</v>
+        <v>0.008163999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41394</v>
+        <v>41305</v>
       </c>
       <c r="B38" s="1">
-        <v>0.025087</v>
+        <v>0.013471</v>
       </c>
       <c r="C38" s="1">
-        <v>0.025091</v>
+        <v>0.013571</v>
       </c>
       <c r="D38" s="1">
-        <v>0.025086</v>
+        <v>0.013456</v>
       </c>
       <c r="E38" s="1">
-        <v>0.025087</v>
+        <v>0.013479</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41425</v>
+        <v>41333</v>
       </c>
       <c r="B39" s="1">
-        <v>-0.016671</v>
+        <v>0.007465</v>
       </c>
       <c r="C39" s="1">
-        <v>-0.016673</v>
+        <v>0.007458</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.01667</v>
+        <v>0.00747</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01667</v>
+        <v>0.007467000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41455</v>
+        <v>41364</v>
       </c>
       <c r="B40" s="1">
-        <v>-0.018163</v>
+        <v>0.015025</v>
       </c>
       <c r="C40" s="1">
-        <v>-0.018165</v>
+        <v>0.015027</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.01816</v>
+        <v>0.015024</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.018162</v>
+        <v>0.015024</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41486</v>
+        <v>41394</v>
       </c>
       <c r="B41" s="1">
-        <v>0.014254</v>
+        <v>0.025087</v>
       </c>
       <c r="C41" s="1">
-        <v>0.014257</v>
+        <v>0.025091</v>
       </c>
       <c r="D41" s="1">
-        <v>0.014252</v>
+        <v>0.025086</v>
       </c>
       <c r="E41" s="1">
-        <v>0.014253</v>
+        <v>0.025087</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41517</v>
+        <v>41425</v>
       </c>
       <c r="B42" s="1">
-        <v>-0.011051</v>
+        <v>-0.016671</v>
       </c>
       <c r="C42" s="1">
-        <v>-0.011022</v>
+        <v>-0.016673</v>
       </c>
       <c r="D42" s="1">
-        <v>-0.011036</v>
+        <v>-0.01667</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.011036</v>
+        <v>-0.01667</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41547</v>
+        <v>41455</v>
       </c>
       <c r="B43" s="1">
-        <v>0.020117</v>
+        <v>-0.018163</v>
       </c>
       <c r="C43" s="1">
-        <v>0.02012</v>
+        <v>-0.018165</v>
       </c>
       <c r="D43" s="1">
-        <v>0.020114</v>
+        <v>-0.01816</v>
       </c>
       <c r="E43" s="1">
-        <v>0.020116</v>
+        <v>-0.018162</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41578</v>
+        <v>41486</v>
       </c>
       <c r="B44" s="1">
-        <v>0.02223</v>
+        <v>0.014254</v>
       </c>
       <c r="C44" s="1">
-        <v>0.022236</v>
+        <v>0.014257</v>
       </c>
       <c r="D44" s="1">
-        <v>0.022227</v>
+        <v>0.014252</v>
       </c>
       <c r="E44" s="1">
-        <v>0.022229</v>
+        <v>0.014253</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41608</v>
+        <v>41517</v>
       </c>
       <c r="B45" s="1">
-        <v>0.001657</v>
+        <v>-0.011051</v>
       </c>
       <c r="C45" s="1">
-        <v>0.001657</v>
+        <v>-0.011022</v>
       </c>
       <c r="D45" s="1">
-        <v>0.00166</v>
+        <v>-0.011036</v>
       </c>
       <c r="E45" s="1">
-        <v>0.001659</v>
+        <v>-0.011036</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41639</v>
+        <v>41547</v>
       </c>
       <c r="B46" s="1">
-        <v>0.007311</v>
+        <v>0.020117</v>
       </c>
       <c r="C46" s="1">
-        <v>0.007312</v>
+        <v>0.02012</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00731</v>
+        <v>0.020114</v>
       </c>
       <c r="E46" s="1">
-        <v>0.00731</v>
+        <v>0.020116</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41670</v>
+        <v>41578</v>
       </c>
       <c r="B47" s="1">
-        <v>0.001869</v>
+        <v>0.02223</v>
       </c>
       <c r="C47" s="1">
-        <v>0.001871</v>
+        <v>0.022236</v>
       </c>
       <c r="D47" s="1">
-        <v>0.001871</v>
+        <v>0.022227</v>
       </c>
       <c r="E47" s="1">
-        <v>0.001871</v>
+        <v>0.022229</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41698</v>
+        <v>41608</v>
       </c>
       <c r="B48" s="1">
-        <v>0.022899</v>
+        <v>0.001657</v>
       </c>
       <c r="C48" s="1">
-        <v>0.02297</v>
+        <v>0.001657</v>
       </c>
       <c r="D48" s="1">
-        <v>0.022973</v>
+        <v>0.00166</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02296</v>
+        <v>0.001659</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41729</v>
+        <v>41639</v>
       </c>
       <c r="B49" s="1">
-        <v>0.007581</v>
+        <v>0.007311</v>
       </c>
       <c r="C49" s="1">
-        <v>0.007582</v>
+        <v>0.007312</v>
       </c>
       <c r="D49" s="1">
-        <v>0.007581</v>
+        <v>0.00731</v>
       </c>
       <c r="E49" s="1">
-        <v>0.007581</v>
+        <v>0.00731</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41759</v>
+        <v>41670</v>
       </c>
       <c r="B50" s="1">
-        <v>0.002559</v>
+        <v>0.001869</v>
       </c>
       <c r="C50" s="1">
-        <v>0.002559</v>
+        <v>0.001871</v>
       </c>
       <c r="D50" s="1">
-        <v>0.002565</v>
+        <v>0.001871</v>
       </c>
       <c r="E50" s="1">
-        <v>0.002563</v>
+        <v>0.001871</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41790</v>
+        <v>41698</v>
       </c>
       <c r="B51" s="1">
-        <v>0.018616</v>
+        <v>0.022899</v>
       </c>
       <c r="C51" s="1">
-        <v>0.018622</v>
+        <v>0.02297</v>
       </c>
       <c r="D51" s="1">
-        <v>0.018616</v>
+        <v>0.022973</v>
       </c>
       <c r="E51" s="1">
-        <v>0.018617</v>
+        <v>0.02296</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41820</v>
+        <v>41729</v>
       </c>
       <c r="B52" s="1">
-        <v>0.007592</v>
+        <v>0.007581</v>
       </c>
       <c r="C52" s="1">
-        <v>0.007592</v>
+        <v>0.007582</v>
       </c>
       <c r="D52" s="1">
-        <v>0.00759</v>
+        <v>0.007581</v>
       </c>
       <c r="E52" s="1">
-        <v>0.007591</v>
+        <v>0.007581</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41851</v>
+        <v>41759</v>
       </c>
       <c r="B53" s="1">
-        <v>-0.003537</v>
+        <v>0.002559</v>
       </c>
       <c r="C53" s="1">
-        <v>-0.003536</v>
+        <v>0.002559</v>
       </c>
       <c r="D53" s="1">
-        <v>-0.003534</v>
+        <v>0.002565</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.003535</v>
+        <v>0.002563</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41882</v>
+        <v>41790</v>
       </c>
       <c r="B54" s="1">
-        <v>0.024396</v>
+        <v>0.018616</v>
       </c>
       <c r="C54" s="1">
-        <v>0.024396</v>
+        <v>0.018622</v>
       </c>
       <c r="D54" s="1">
-        <v>0.0244</v>
+        <v>0.018616</v>
       </c>
       <c r="E54" s="1">
-        <v>0.024399</v>
+        <v>0.018617</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41912</v>
+        <v>41820</v>
       </c>
       <c r="B55" s="1">
-        <v>-0.018814</v>
+        <v>0.007592</v>
       </c>
       <c r="C55" s="1">
-        <v>-0.018804</v>
+        <v>0.007592</v>
       </c>
       <c r="D55" s="1">
-        <v>-0.018789</v>
+        <v>0.00759</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.018796</v>
+        <v>0.007591</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41943</v>
+        <v>41851</v>
       </c>
       <c r="B56" s="1">
-        <v>0.012246</v>
+        <v>-0.003537</v>
       </c>
       <c r="C56" s="1">
-        <v>0.012244</v>
+        <v>-0.003536</v>
       </c>
       <c r="D56" s="1">
-        <v>0.012254</v>
+        <v>-0.003534</v>
       </c>
       <c r="E56" s="1">
-        <v>0.012251</v>
+        <v>-0.003535</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41973</v>
+        <v>41882</v>
       </c>
       <c r="B57" s="1">
-        <v>0.016811</v>
+        <v>0.024396</v>
       </c>
       <c r="C57" s="1">
-        <v>0.01682</v>
+        <v>0.024396</v>
       </c>
       <c r="D57" s="1">
-        <v>0.01682</v>
+        <v>0.0244</v>
       </c>
       <c r="E57" s="1">
-        <v>0.016818</v>
+        <v>0.024399</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>42004</v>
+        <v>41912</v>
       </c>
       <c r="B58" s="1">
-        <v>0.002068</v>
+        <v>-0.018814</v>
       </c>
       <c r="C58" s="1">
-        <v>0.002076</v>
+        <v>-0.018804</v>
       </c>
       <c r="D58" s="1">
-        <v>0.00208</v>
+        <v>-0.018789</v>
       </c>
       <c r="E58" s="1">
-        <v>0.002077</v>
+        <v>-0.018796</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42035</v>
+        <v>41943</v>
       </c>
       <c r="B59" s="1">
-        <v>0.023362</v>
+        <v>0.012246</v>
       </c>
       <c r="C59" s="1">
-        <v>0.023357</v>
+        <v>0.012244</v>
       </c>
       <c r="D59" s="1">
-        <v>0.02335</v>
+        <v>0.012254</v>
       </c>
       <c r="E59" s="1">
-        <v>0.023353</v>
+        <v>0.012251</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42063</v>
+        <v>41973</v>
       </c>
       <c r="B60" s="1">
-        <v>0.007672</v>
+        <v>0.016811</v>
       </c>
       <c r="C60" s="1">
-        <v>0.007672</v>
+        <v>0.01682</v>
       </c>
       <c r="D60" s="1">
-        <v>0.007671</v>
+        <v>0.01682</v>
       </c>
       <c r="E60" s="1">
-        <v>0.007671</v>
+        <v>0.016818</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42094</v>
+        <v>42004</v>
       </c>
       <c r="B61" s="1">
-        <v>0.000725</v>
+        <v>0.002068</v>
       </c>
       <c r="C61" s="1">
-        <v>0.000731</v>
+        <v>0.002076</v>
       </c>
       <c r="D61" s="1">
-        <v>0.000725</v>
+        <v>0.00208</v>
       </c>
       <c r="E61" s="1">
-        <v>0.000726</v>
+        <v>0.002077</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42124</v>
+        <v>42035</v>
       </c>
       <c r="B62" s="1">
-        <v>0.000483</v>
+        <v>0.023362</v>
       </c>
       <c r="C62" s="1">
-        <v>0.000483</v>
+        <v>0.023357</v>
       </c>
       <c r="D62" s="1">
-        <v>0.000483</v>
+        <v>0.02335</v>
       </c>
       <c r="E62" s="1">
-        <v>0.000483</v>
+        <v>0.023353</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42155</v>
+        <v>42063</v>
       </c>
       <c r="B63" s="1">
-        <v>-0.001447</v>
+        <v>0.007672</v>
       </c>
       <c r="C63" s="1">
-        <v>-0.001447</v>
+        <v>0.007672</v>
       </c>
       <c r="D63" s="1">
-        <v>-0.001447</v>
+        <v>0.007671</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.001447</v>
+        <v>0.007671</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42185</v>
+        <v>42094</v>
       </c>
       <c r="B64" s="1">
-        <v>-0.019129</v>
+        <v>0.000725</v>
       </c>
       <c r="C64" s="1">
-        <v>-0.019129</v>
+        <v>0.000731</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.019127</v>
+        <v>0.000725</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.019128</v>
+        <v>0.000726</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42216</v>
+        <v>42124</v>
       </c>
       <c r="B65" s="1">
-        <v>0.010715</v>
+        <v>0.000483</v>
       </c>
       <c r="C65" s="1">
-        <v>0.010715</v>
+        <v>0.000483</v>
       </c>
       <c r="D65" s="1">
-        <v>0.010714</v>
+        <v>0.000483</v>
       </c>
       <c r="E65" s="1">
-        <v>0.010714</v>
+        <v>0.000483</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42247</v>
+        <v>42155</v>
       </c>
       <c r="B66" s="1">
-        <v>-0.027128</v>
+        <v>-0.001447</v>
       </c>
       <c r="C66" s="1">
-        <v>-0.027126</v>
+        <v>-0.001447</v>
       </c>
       <c r="D66" s="1">
-        <v>-0.027125</v>
+        <v>-0.001447</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.027126</v>
+        <v>-0.001447</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42277</v>
+        <v>42185</v>
       </c>
       <c r="B67" s="1">
-        <v>-0.00876</v>
+        <v>-0.019129</v>
       </c>
       <c r="C67" s="1">
-        <v>-0.00876</v>
+        <v>-0.019129</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.008758999999999999</v>
+        <v>-0.019127</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.00876</v>
+        <v>-0.019128</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42308</v>
+        <v>42216</v>
       </c>
       <c r="B68" s="1">
-        <v>0.028753</v>
+        <v>0.010715</v>
       </c>
       <c r="C68" s="1">
-        <v>0.028716</v>
+        <v>0.010715</v>
       </c>
       <c r="D68" s="1">
-        <v>0.028798</v>
+        <v>0.010714</v>
       </c>
       <c r="E68" s="1">
-        <v>0.028775</v>
+        <v>0.010714</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42338</v>
+        <v>42247</v>
       </c>
       <c r="B69" s="1">
-        <v>-0.003828</v>
+        <v>-0.027128</v>
       </c>
       <c r="C69" s="1">
-        <v>-0.003819</v>
+        <v>-0.027126</v>
       </c>
       <c r="D69" s="1">
-        <v>-0.003807</v>
+        <v>-0.027125</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.003813</v>
+        <v>-0.027126</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42369</v>
+        <v>42277</v>
       </c>
       <c r="B70" s="1">
-        <v>-0.008187</v>
+        <v>-0.00876</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.008187</v>
+        <v>-0.00876</v>
       </c>
       <c r="D70" s="1">
-        <v>-0.008184</v>
+        <v>-0.008758999999999999</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.008185</v>
+        <v>-0.00876</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42400</v>
+        <v>42308</v>
       </c>
       <c r="B71" s="1">
-        <v>-0.014827</v>
+        <v>0.028753</v>
       </c>
       <c r="C71" s="1">
-        <v>-0.01483</v>
+        <v>0.028716</v>
       </c>
       <c r="D71" s="1">
-        <v>-0.014826</v>
+        <v>0.028798</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.014827</v>
+        <v>0.028775</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42429</v>
+        <v>42338</v>
       </c>
       <c r="B72" s="1">
-        <v>0.007148</v>
+        <v>-0.003828</v>
       </c>
       <c r="C72" s="1">
-        <v>0.007148</v>
+        <v>-0.003819</v>
       </c>
       <c r="D72" s="1">
-        <v>0.007150999999999999</v>
+        <v>-0.003807</v>
       </c>
       <c r="E72" s="1">
-        <v>0.00715</v>
+        <v>-0.003813</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42460</v>
+        <v>42369</v>
       </c>
       <c r="B73" s="1">
-        <v>0.034737</v>
+        <v>-0.008187</v>
       </c>
       <c r="C73" s="1">
-        <v>0.034736</v>
+        <v>-0.008187</v>
       </c>
       <c r="D73" s="1">
-        <v>0.034733</v>
+        <v>-0.008184</v>
       </c>
       <c r="E73" s="1">
-        <v>0.034734</v>
+        <v>-0.008185</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42490</v>
+        <v>42400</v>
       </c>
       <c r="B74" s="1">
-        <v>0.009242999999999999</v>
+        <v>-0.014827</v>
       </c>
       <c r="C74" s="1">
-        <v>0.009242999999999999</v>
+        <v>-0.01483</v>
       </c>
       <c r="D74" s="1">
-        <v>0.009242</v>
+        <v>-0.014826</v>
       </c>
       <c r="E74" s="1">
-        <v>0.009242999999999999</v>
+        <v>-0.014827</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42521</v>
+        <v>42429</v>
       </c>
       <c r="B75" s="1">
-        <v>0.001881</v>
+        <v>0.007148</v>
       </c>
       <c r="C75" s="1">
-        <v>0.001883</v>
+        <v>0.007148</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001884</v>
+        <v>0.007150999999999999</v>
       </c>
       <c r="E75" s="1">
-        <v>0.001883</v>
+        <v>0.00715</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42551</v>
+        <v>42460</v>
       </c>
       <c r="B76" s="1">
-        <v>0.010067</v>
+        <v>0.034737</v>
       </c>
       <c r="C76" s="1">
-        <v>0.010098</v>
+        <v>0.034736</v>
       </c>
       <c r="D76" s="1">
-        <v>0.01013</v>
+        <v>0.034733</v>
       </c>
       <c r="E76" s="1">
-        <v>0.010112</v>
+        <v>0.034734</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42582</v>
+        <v>42490</v>
       </c>
       <c r="B77" s="1">
-        <v>0.021267</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>0.021267</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="D77" s="1">
-        <v>0.021264</v>
+        <v>0.009242</v>
       </c>
       <c r="E77" s="1">
-        <v>0.021265</v>
+        <v>0.009242999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42613</v>
+        <v>42521</v>
       </c>
       <c r="B78" s="1">
-        <v>0.001143</v>
+        <v>0.001881</v>
       </c>
       <c r="C78" s="1">
-        <v>0.001146</v>
+        <v>0.001883</v>
       </c>
       <c r="D78" s="1">
-        <v>0.001146</v>
+        <v>0.001884</v>
       </c>
       <c r="E78" s="1">
-        <v>0.001145</v>
+        <v>0.001883</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42643</v>
+        <v>42551</v>
       </c>
       <c r="B79" s="1">
-        <v>0.00083</v>
+        <v>0.010067</v>
       </c>
       <c r="C79" s="1">
-        <v>0.0008309999999999999</v>
+        <v>0.010098</v>
       </c>
       <c r="D79" s="1">
-        <v>0.00083</v>
+        <v>0.01013</v>
       </c>
       <c r="E79" s="1">
-        <v>0.00083</v>
+        <v>0.010112</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42674</v>
+        <v>42582</v>
       </c>
       <c r="B80" s="1">
-        <v>-0.011784</v>
+        <v>0.021267</v>
       </c>
       <c r="C80" s="1">
-        <v>-0.011773</v>
+        <v>0.021267</v>
       </c>
       <c r="D80" s="1">
-        <v>-0.011778</v>
+        <v>0.021264</v>
       </c>
       <c r="E80" s="1">
-        <v>-0.011778</v>
+        <v>0.021265</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42704</v>
+        <v>42613</v>
       </c>
       <c r="B81" s="1">
-        <v>-0.011504</v>
+        <v>0.001143</v>
       </c>
       <c r="C81" s="1">
-        <v>-0.011503</v>
+        <v>0.001146</v>
       </c>
       <c r="D81" s="1">
-        <v>-0.011501</v>
+        <v>0.001146</v>
       </c>
       <c r="E81" s="1">
-        <v>-0.011502</v>
+        <v>0.001145</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42735</v>
+        <v>42643</v>
       </c>
       <c r="B82" s="1">
-        <v>0.010278</v>
+        <v>0.00083</v>
       </c>
       <c r="C82" s="1">
-        <v>0.010006</v>
+        <v>0.0008309999999999999</v>
       </c>
       <c r="D82" s="1">
-        <v>0.010143</v>
+        <v>0.00083</v>
       </c>
       <c r="E82" s="1">
-        <v>0.010141</v>
+        <v>0.00083</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42766</v>
+        <v>42674</v>
       </c>
       <c r="B83" s="1">
-        <v>0.01169</v>
+        <v>-0.011784</v>
       </c>
       <c r="C83" s="1">
-        <v>0.011614</v>
+        <v>-0.011773</v>
       </c>
       <c r="D83" s="1">
-        <v>0.011658</v>
+        <v>-0.011778</v>
       </c>
       <c r="E83" s="1">
-        <v>0.011655</v>
+        <v>-0.011778</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42794</v>
+        <v>42704</v>
       </c>
       <c r="B84" s="1">
-        <v>0.017668</v>
+        <v>-0.011504</v>
       </c>
       <c r="C84" s="1">
-        <v>0.017672</v>
+        <v>-0.011503</v>
       </c>
       <c r="D84" s="1">
-        <v>0.017677</v>
+        <v>-0.011501</v>
       </c>
       <c r="E84" s="1">
-        <v>0.017674</v>
+        <v>-0.011502</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42825</v>
+        <v>42735</v>
       </c>
       <c r="B85" s="1">
-        <v>0.005195</v>
+        <v>0.010278</v>
       </c>
       <c r="C85" s="1">
-        <v>0.005195</v>
+        <v>0.010006</v>
       </c>
       <c r="D85" s="1">
-        <v>0.005195</v>
+        <v>0.010143</v>
       </c>
       <c r="E85" s="1">
-        <v>0.005195</v>
+        <v>0.010141</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42855</v>
+        <v>42766</v>
       </c>
       <c r="B86" s="1">
-        <v>0.013597</v>
+        <v>0.01169</v>
       </c>
       <c r="C86" s="1">
-        <v>0.0136</v>
+        <v>0.011614</v>
       </c>
       <c r="D86" s="1">
-        <v>0.013598</v>
+        <v>0.011658</v>
       </c>
       <c r="E86" s="1">
-        <v>0.013598</v>
+        <v>0.011655</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42886</v>
+        <v>42794</v>
       </c>
       <c r="B87" s="1">
-        <v>0.015261</v>
+        <v>0.017668</v>
       </c>
       <c r="C87" s="1">
-        <v>0.015261</v>
+        <v>0.017672</v>
       </c>
       <c r="D87" s="1">
-        <v>0.015262</v>
+        <v>0.017677</v>
       </c>
       <c r="E87" s="1">
-        <v>0.015262</v>
+        <v>0.017674</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42916</v>
+        <v>42825</v>
       </c>
       <c r="B88" s="1">
-        <v>0.005246</v>
+        <v>0.005195</v>
       </c>
       <c r="C88" s="1">
-        <v>0.005249</v>
+        <v>0.005195</v>
       </c>
       <c r="D88" s="1">
-        <v>0.005264</v>
+        <v>0.005195</v>
       </c>
       <c r="E88" s="1">
-        <v>0.005257</v>
+        <v>0.005195</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42947</v>
+        <v>42855</v>
       </c>
       <c r="B89" s="1">
-        <v>0.011307</v>
+        <v>0.013597</v>
       </c>
       <c r="C89" s="1">
-        <v>0.011307</v>
+        <v>0.0136</v>
       </c>
       <c r="D89" s="1">
-        <v>0.011306</v>
+        <v>0.013598</v>
       </c>
       <c r="E89" s="1">
-        <v>0.011307</v>
+        <v>0.013598</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42978</v>
+        <v>42886</v>
       </c>
       <c r="B90" s="1">
-        <v>0.010725</v>
+        <v>0.015261</v>
       </c>
       <c r="C90" s="1">
-        <v>0.010724</v>
+        <v>0.015261</v>
       </c>
       <c r="D90" s="1">
-        <v>0.010725</v>
+        <v>0.015262</v>
       </c>
       <c r="E90" s="1">
-        <v>0.010725</v>
+        <v>0.015262</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>43008</v>
+        <v>42916</v>
       </c>
       <c r="B91" s="1">
-        <v>0.008107999999999999</v>
+        <v>0.005246</v>
       </c>
       <c r="C91" s="1">
-        <v>0.008107</v>
+        <v>0.005249</v>
       </c>
       <c r="D91" s="1">
-        <v>0.008107</v>
+        <v>0.005264</v>
       </c>
       <c r="E91" s="1">
-        <v>0.008107</v>
+        <v>0.005257</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43039</v>
+        <v>42947</v>
       </c>
       <c r="B92" s="1">
-        <v>0.011965</v>
+        <v>0.011307</v>
       </c>
       <c r="C92" s="1">
-        <v>0.011963</v>
+        <v>0.011307</v>
       </c>
       <c r="D92" s="1">
-        <v>0.011963</v>
+        <v>0.011306</v>
       </c>
       <c r="E92" s="1">
-        <v>0.011964</v>
+        <v>0.011307</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43069</v>
+        <v>42978</v>
       </c>
       <c r="B93" s="1">
-        <v>0.013354</v>
+        <v>0.010725</v>
       </c>
       <c r="C93" s="1">
-        <v>0.013354</v>
+        <v>0.010724</v>
       </c>
       <c r="D93" s="1">
-        <v>0.013356</v>
+        <v>0.010725</v>
       </c>
       <c r="E93" s="1">
-        <v>0.013355</v>
+        <v>0.010725</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43100</v>
+        <v>43008</v>
       </c>
       <c r="B94" s="1">
-        <v>0.011831</v>
+        <v>0.008107999999999999</v>
       </c>
       <c r="C94" s="1">
-        <v>0.012308</v>
+        <v>0.008107</v>
       </c>
       <c r="D94" s="1">
-        <v>0.011977</v>
+        <v>0.008107</v>
       </c>
       <c r="E94" s="1">
-        <v>0.012016</v>
+        <v>0.008107</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43131</v>
+        <v>43039</v>
       </c>
       <c r="B95" s="1">
-        <v>0.024717</v>
+        <v>0.011965</v>
       </c>
       <c r="C95" s="1">
-        <v>0.024777</v>
+        <v>0.011963</v>
       </c>
       <c r="D95" s="1">
-        <v>0.016299</v>
+        <v>0.011963</v>
       </c>
       <c r="E95" s="1">
-        <v>0.019876</v>
+        <v>0.011964</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43159</v>
+        <v>43069</v>
       </c>
       <c r="B96" s="1">
-        <v>-0.029926</v>
+        <v>0.013354</v>
       </c>
       <c r="C96" s="1">
-        <v>-0.029924</v>
+        <v>0.013354</v>
       </c>
       <c r="D96" s="1">
-        <v>-0.029905</v>
+        <v>0.013356</v>
       </c>
       <c r="E96" s="1">
-        <v>-0.029913</v>
+        <v>0.013355</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43190</v>
+        <v>43100</v>
       </c>
       <c r="B97" s="1">
-        <v>0.001458</v>
+        <v>0.011831</v>
       </c>
       <c r="C97" s="1">
-        <v>0.001458</v>
+        <v>0.012308</v>
       </c>
       <c r="D97" s="1">
-        <v>0.008959</v>
+        <v>0.011977</v>
       </c>
       <c r="E97" s="1">
-        <v>0.005778999999999999</v>
+        <v>0.012016</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43220</v>
+        <v>43131</v>
       </c>
       <c r="B98" s="1">
-        <v>-0.002009</v>
+        <v>0.024717</v>
       </c>
       <c r="C98" s="1">
-        <v>-0.002009</v>
+        <v>0.024777</v>
       </c>
       <c r="D98" s="1">
-        <v>-0.006636</v>
+        <v>0.016299</v>
       </c>
       <c r="E98" s="1">
-        <v>-0.004682</v>
+        <v>0.019876</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43251</v>
+        <v>43159</v>
       </c>
       <c r="B99" s="1">
-        <v>0.006971000000000001</v>
+        <v>-0.029926</v>
       </c>
       <c r="C99" s="1">
-        <v>0.006965</v>
+        <v>-0.029924</v>
       </c>
       <c r="D99" s="1">
-        <v>0.010673</v>
+        <v>-0.029905</v>
       </c>
       <c r="E99" s="1">
-        <v>0.009103</v>
+        <v>-0.029913</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B100" s="1">
-        <v>-0.002816</v>
+        <v>0.001458</v>
       </c>
       <c r="C100" s="1">
-        <v>-0.00284</v>
+        <v>0.001458</v>
       </c>
       <c r="D100" s="1">
-        <v>-0.001519</v>
+        <v>0.008959</v>
       </c>
       <c r="E100" s="1">
-        <v>-0.002073</v>
+        <v>0.005778999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B101" s="1">
-        <v>0.013499</v>
+        <v>-0.002009</v>
       </c>
       <c r="C101" s="1">
-        <v>0.013494</v>
+        <v>-0.002009</v>
       </c>
       <c r="D101" s="1">
-        <v>0.005810999999999999</v>
+        <v>-0.006636</v>
       </c>
       <c r="E101" s="1">
-        <v>0.009061</v>
+        <v>-0.004682</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43343</v>
+        <v>43251</v>
       </c>
       <c r="B102" s="1">
-        <v>0.008215999999999999</v>
+        <v>0.006971000000000001</v>
       </c>
       <c r="C102" s="1">
-        <v>0.00822</v>
+        <v>0.006965</v>
       </c>
       <c r="D102" s="1">
-        <v>0.010221</v>
+        <v>0.010673</v>
       </c>
       <c r="E102" s="1">
-        <v>0.00937</v>
+        <v>0.009103</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43373</v>
+        <v>43281</v>
       </c>
       <c r="B103" s="1">
-        <v>-0.005064</v>
+        <v>-0.002816</v>
       </c>
       <c r="C103" s="1">
-        <v>-0.005064999999999999</v>
+        <v>-0.00284</v>
       </c>
       <c r="D103" s="1">
-        <v>-0.011547</v>
+        <v>-0.001519</v>
       </c>
       <c r="E103" s="1">
-        <v>-0.008794</v>
+        <v>-0.002073</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43404</v>
+        <v>43312</v>
       </c>
       <c r="B104" s="1">
-        <v>-0.040555</v>
+        <v>0.013499</v>
       </c>
       <c r="C104" s="1">
-        <v>-0.040551</v>
+        <v>0.013494</v>
       </c>
       <c r="D104" s="1">
-        <v>-0.039562</v>
+        <v>0.005810999999999999</v>
       </c>
       <c r="E104" s="1">
-        <v>-0.039984</v>
+        <v>0.009061</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43434</v>
+        <v>43343</v>
       </c>
       <c r="B105" s="1">
-        <v>0.01145</v>
+        <v>0.008215999999999999</v>
       </c>
       <c r="C105" s="1">
-        <v>0.011447</v>
+        <v>0.00822</v>
       </c>
       <c r="D105" s="1">
-        <v>0.013939</v>
+        <v>0.010221</v>
       </c>
       <c r="E105" s="1">
-        <v>0.012878</v>
+        <v>0.00937</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43465</v>
+        <v>43373</v>
       </c>
       <c r="B106" s="1">
-        <v>-0.016159</v>
+        <v>-0.005064</v>
       </c>
       <c r="C106" s="1">
-        <v>-0.01617</v>
+        <v>-0.005064999999999999</v>
       </c>
       <c r="D106" s="1">
-        <v>0.005926</v>
+        <v>-0.011547</v>
       </c>
       <c r="E106" s="1">
-        <v>-0.003477</v>
+        <v>-0.008794</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43496</v>
+        <v>43404</v>
       </c>
       <c r="B107" s="1">
-        <v>0.037035</v>
+        <v>-0.040555</v>
       </c>
       <c r="C107" s="1">
-        <v>0.037039</v>
+        <v>-0.040551</v>
       </c>
       <c r="D107" s="1">
-        <v>0.028362</v>
+        <v>-0.039562</v>
       </c>
       <c r="E107" s="1">
-        <v>0.032009</v>
+        <v>-0.039984</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43524</v>
+        <v>43434</v>
       </c>
       <c r="B108" s="1">
-        <v>0.010188</v>
+        <v>0.01145</v>
       </c>
       <c r="C108" s="1">
-        <v>0.010184</v>
+        <v>0.011447</v>
       </c>
       <c r="D108" s="1">
-        <v>0.002933</v>
+        <v>0.013939</v>
       </c>
       <c r="E108" s="1">
-        <v>0.005999</v>
+        <v>0.012878</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43555</v>
+        <v>43465</v>
       </c>
       <c r="B109" s="1">
-        <v>0.021135</v>
+        <v>-0.016159</v>
       </c>
       <c r="C109" s="1">
-        <v>0.021127</v>
+        <v>-0.01617</v>
       </c>
       <c r="D109" s="1">
-        <v>0.032959</v>
+        <v>0.005926</v>
       </c>
       <c r="E109" s="1">
-        <v>0.027935</v>
+        <v>-0.003477</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43585</v>
+        <v>43496</v>
       </c>
       <c r="B110" s="1">
-        <v>0.010592</v>
+        <v>0.037035</v>
       </c>
       <c r="C110" s="1">
-        <v>0.010584</v>
+        <v>0.037039</v>
       </c>
       <c r="D110" s="1">
-        <v>0.001077</v>
+        <v>0.028362</v>
       </c>
       <c r="E110" s="1">
-        <v>0.00509</v>
+        <v>0.032009</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43616</v>
+        <v>43524</v>
       </c>
       <c r="B111" s="1">
-        <v>-0.004251</v>
+        <v>0.010188</v>
       </c>
       <c r="C111" s="1">
-        <v>-0.004255</v>
+        <v>0.010184</v>
       </c>
       <c r="D111" s="1">
-        <v>0.020519</v>
+        <v>0.002933</v>
       </c>
       <c r="E111" s="1">
-        <v>0.010002</v>
+        <v>0.005999</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43646</v>
+        <v>43555</v>
       </c>
       <c r="B112" s="1">
-        <v>0.033344</v>
+        <v>0.021135</v>
       </c>
       <c r="C112" s="1">
-        <v>0.033341</v>
+        <v>0.021127</v>
       </c>
       <c r="D112" s="1">
-        <v>0.026978</v>
+        <v>0.032959</v>
       </c>
       <c r="E112" s="1">
-        <v>0.029644</v>
+        <v>0.027935</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43677</v>
+        <v>43585</v>
       </c>
       <c r="B113" s="1">
-        <v>0.005238</v>
+        <v>0.010592</v>
       </c>
       <c r="C113" s="1">
-        <v>0.00523</v>
+        <v>0.010584</v>
       </c>
       <c r="D113" s="1">
-        <v>0.004394</v>
+        <v>0.001077</v>
       </c>
       <c r="E113" s="1">
-        <v>0.004747</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43708</v>
+        <v>43616</v>
       </c>
       <c r="B114" s="1">
-        <v>0.024274</v>
+        <v>-0.004251</v>
       </c>
       <c r="C114" s="1">
-        <v>0.024213</v>
+        <v>-0.004255</v>
       </c>
       <c r="D114" s="1">
-        <v>0.05872</v>
+        <v>0.020519</v>
       </c>
       <c r="E114" s="1">
-        <v>0.044206</v>
+        <v>0.010002</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43738</v>
+        <v>43646</v>
       </c>
       <c r="B115" s="1">
-        <v>0.002153</v>
+        <v>0.033344</v>
       </c>
       <c r="C115" s="1">
-        <v>0.002218</v>
+        <v>0.033341</v>
       </c>
       <c r="D115" s="1">
-        <v>-0.009623</v>
+        <v>0.026978</v>
       </c>
       <c r="E115" s="1">
-        <v>-0.004635</v>
+        <v>0.029644</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43769</v>
+        <v>43677</v>
       </c>
       <c r="B116" s="1">
-        <v>0.005681</v>
+        <v>0.005238</v>
       </c>
       <c r="C116" s="1">
-        <v>0.006085</v>
+        <v>0.00523</v>
       </c>
       <c r="D116" s="1">
-        <v>-0.000153</v>
+        <v>0.004394</v>
       </c>
       <c r="E116" s="1">
-        <v>0.002441</v>
+        <v>0.004747</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43799</v>
+        <v>43708</v>
       </c>
       <c r="B117" s="1">
-        <v>0.010361</v>
+        <v>0.024274</v>
       </c>
       <c r="C117" s="1">
-        <v>0.010705</v>
+        <v>0.024213</v>
       </c>
       <c r="D117" s="1">
-        <v>0.006349</v>
+        <v>0.05872</v>
       </c>
       <c r="E117" s="1">
-        <v>0.008153000000000001</v>
+        <v>0.044206</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43830</v>
+        <v>43738</v>
       </c>
       <c r="B118" s="1">
-        <v>0.008629</v>
+        <v>0.002153</v>
       </c>
       <c r="C118" s="1">
-        <v>0.007443</v>
+        <v>0.002218</v>
       </c>
       <c r="D118" s="1">
-        <v>-0.007508</v>
+        <v>-0.009623</v>
       </c>
       <c r="E118" s="1">
-        <v>-0.000751</v>
+        <v>-0.004635</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43861</v>
+        <v>43769</v>
       </c>
       <c r="B119" s="1">
-        <v>0.010016</v>
+        <v>0.005681</v>
       </c>
       <c r="C119" s="1">
-        <v>0.009792</v>
+        <v>0.006085</v>
       </c>
       <c r="D119" s="1">
-        <v>0.037942</v>
+        <v>-0.000153</v>
       </c>
       <c r="E119" s="1">
-        <v>0.02564</v>
+        <v>0.002441</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43890</v>
+        <v>43799</v>
       </c>
       <c r="B120" s="1">
-        <v>-0.022208</v>
+        <v>0.010361</v>
       </c>
       <c r="C120" s="1">
-        <v>-0.020781</v>
+        <v>0.010705</v>
       </c>
       <c r="D120" s="1">
-        <v>0.018639</v>
+        <v>0.006349</v>
       </c>
       <c r="E120" s="1">
-        <v>0.001266</v>
+        <v>0.008153000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43921</v>
+        <v>43830</v>
       </c>
       <c r="B121" s="1">
-        <v>-0.07419100000000001</v>
+        <v>0.008629</v>
       </c>
       <c r="C121" s="1">
-        <v>-0.07051</v>
+        <v>0.007443</v>
       </c>
       <c r="D121" s="1">
-        <v>-0.012191</v>
+        <v>-0.007508</v>
       </c>
       <c r="E121" s="1">
-        <v>-0.037684</v>
+        <v>-0.000751</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43951</v>
+        <v>43861</v>
       </c>
       <c r="B122" s="1">
-        <v>0.056168</v>
+        <v>0.010016</v>
       </c>
       <c r="C122" s="1">
-        <v>0.05305</v>
+        <v>0.009792</v>
       </c>
       <c r="D122" s="1">
-        <v>0.037446</v>
+        <v>0.037942</v>
       </c>
       <c r="E122" s="1">
-        <v>0.044486</v>
+        <v>0.02564</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43982</v>
+        <v>43890</v>
       </c>
       <c r="B123" s="1">
-        <v>0.015041</v>
+        <v>-0.022208</v>
       </c>
       <c r="C123" s="1">
-        <v>0.013544</v>
+        <v>-0.020781</v>
       </c>
       <c r="D123" s="1">
-        <v>-0.004533</v>
+        <v>0.018639</v>
       </c>
       <c r="E123" s="1">
-        <v>0.003246</v>
+        <v>0.001266</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>44012</v>
+        <v>43921</v>
       </c>
       <c r="B124" s="1">
-        <v>0.012864</v>
+        <v>-0.07419100000000001</v>
       </c>
       <c r="C124" s="1">
-        <v>0.012183</v>
+        <v>-0.07051</v>
       </c>
       <c r="D124" s="1">
-        <v>0.00859</v>
+        <v>-0.012191</v>
       </c>
       <c r="E124" s="1">
-        <v>0.010239</v>
+        <v>-0.037684</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44043</v>
+        <v>43951</v>
       </c>
       <c r="B125" s="1">
-        <v>0.034786</v>
+        <v>0.056168</v>
       </c>
       <c r="C125" s="1">
-        <v>0.033863</v>
+        <v>0.05305</v>
       </c>
       <c r="D125" s="1">
-        <v>0.044461</v>
+        <v>0.037446</v>
       </c>
       <c r="E125" s="1">
-        <v>0.040234</v>
+        <v>0.044486</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44074</v>
+        <v>43982</v>
       </c>
       <c r="B126" s="1">
-        <v>0.017061</v>
+        <v>0.015041</v>
       </c>
       <c r="C126" s="1">
-        <v>0.016036</v>
+        <v>0.013544</v>
       </c>
       <c r="D126" s="1">
-        <v>-0.017265</v>
+        <v>-0.004533</v>
       </c>
       <c r="E126" s="1">
-        <v>-0.003186</v>
+        <v>0.003246</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44104</v>
+        <v>44012</v>
       </c>
       <c r="B127" s="1">
-        <v>-0.014281</v>
+        <v>0.012864</v>
       </c>
       <c r="C127" s="1">
-        <v>-0.013697</v>
+        <v>0.012183</v>
       </c>
       <c r="D127" s="1">
-        <v>-0.005055</v>
+        <v>0.00859</v>
       </c>
       <c r="E127" s="1">
-        <v>-0.008924999999999999</v>
+        <v>0.010239</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44135</v>
+        <v>44043</v>
       </c>
       <c r="B128" s="1">
-        <v>-0.016704</v>
+        <v>0.034786</v>
       </c>
       <c r="C128" s="1">
-        <v>-0.015702</v>
+        <v>0.033863</v>
       </c>
       <c r="D128" s="1">
-        <v>-0.023545</v>
+        <v>0.044461</v>
       </c>
       <c r="E128" s="1">
-        <v>-0.020374</v>
+        <v>0.040234</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44165</v>
+        <v>44074</v>
       </c>
       <c r="B129" s="1">
-        <v>0.065382</v>
+        <v>0.017061</v>
       </c>
       <c r="C129" s="1">
-        <v>0.06457600000000001</v>
+        <v>0.016036</v>
       </c>
       <c r="D129" s="1">
-        <v>0.044108</v>
+        <v>-0.017265</v>
       </c>
       <c r="E129" s="1">
-        <v>0.053226</v>
+        <v>-0.003186</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="B130" s="1">
-        <v>0.021767</v>
+        <v>-0.014281</v>
       </c>
       <c r="C130" s="1">
-        <v>0.022151</v>
+        <v>-0.013697</v>
       </c>
       <c r="D130" s="1">
-        <v>0.007529</v>
+        <v>-0.005055</v>
       </c>
       <c r="E130" s="1">
-        <v>0.013933</v>
+        <v>-0.008924999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44227</v>
+        <v>44135</v>
       </c>
       <c r="B131" s="1">
-        <v>-0.013168</v>
+        <v>-0.016704</v>
       </c>
       <c r="C131" s="1">
-        <v>-0.012301</v>
+        <v>-0.015702</v>
       </c>
       <c r="D131" s="1">
-        <v>-0.0263</v>
+        <v>-0.023545</v>
       </c>
       <c r="E131" s="1">
-        <v>-0.020192</v>
+        <v>-0.020374</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44255</v>
+        <v>44165</v>
       </c>
       <c r="B132" s="1">
-        <v>-0.002234</v>
+        <v>0.065382</v>
       </c>
       <c r="C132" s="1">
-        <v>-0.000961</v>
+        <v>0.06457600000000001</v>
       </c>
       <c r="D132" s="1">
-        <v>-0.032485</v>
+        <v>0.044108</v>
       </c>
       <c r="E132" s="1">
-        <v>-0.018451</v>
+        <v>0.053226</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44286</v>
+        <v>44196</v>
       </c>
       <c r="B133" s="1">
-        <v>0.01294</v>
+        <v>0.021767</v>
       </c>
       <c r="C133" s="1">
-        <v>0.013419</v>
+        <v>0.022151</v>
       </c>
       <c r="D133" s="1">
-        <v>-0.010056</v>
+        <v>0.007529</v>
       </c>
       <c r="E133" s="1">
-        <v>0.0006980000000000001</v>
+        <v>0.013933</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44316</v>
+        <v>44227</v>
       </c>
       <c r="B134" s="1">
-        <v>0.028613</v>
+        <v>-0.013168</v>
       </c>
       <c r="C134" s="1">
-        <v>0.028164</v>
+        <v>-0.012301</v>
       </c>
       <c r="D134" s="1">
-        <v>0.029309</v>
+        <v>-0.0263</v>
       </c>
       <c r="E134" s="1">
-        <v>0.028885</v>
+        <v>-0.020192</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44347</v>
+        <v>44255</v>
       </c>
       <c r="B135" s="1">
-        <v>0.017591</v>
+        <v>-0.002234</v>
       </c>
       <c r="C135" s="1">
-        <v>0.018329</v>
+        <v>-0.000961</v>
       </c>
       <c r="D135" s="1">
-        <v>0.014168</v>
+        <v>-0.032485</v>
       </c>
       <c r="E135" s="1">
-        <v>0.015936</v>
+        <v>-0.018451</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="B136" s="1">
-        <v>0.018306</v>
+        <v>0.01294</v>
       </c>
       <c r="C136" s="1">
-        <v>0.017976</v>
+        <v>0.013419</v>
       </c>
       <c r="D136" s="1">
-        <v>0.02898</v>
+        <v>-0.010056</v>
       </c>
       <c r="E136" s="1">
-        <v>0.023884</v>
+        <v>0.0006980000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44408</v>
+        <v>44316</v>
       </c>
       <c r="B137" s="1">
-        <v>0.015858</v>
+        <v>0.028613</v>
       </c>
       <c r="C137" s="1">
-        <v>0.01554</v>
+        <v>0.028164</v>
       </c>
       <c r="D137" s="1">
-        <v>0.024879</v>
+        <v>0.029309</v>
       </c>
       <c r="E137" s="1">
-        <v>0.020584</v>
+        <v>0.028885</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44439</v>
+        <v>44347</v>
       </c>
       <c r="B138" s="1">
-        <v>0.014596</v>
+        <v>0.017591</v>
       </c>
       <c r="C138" s="1">
-        <v>0.014694</v>
+        <v>0.018329</v>
       </c>
       <c r="D138" s="1">
-        <v>0.007593</v>
+        <v>0.014168</v>
       </c>
       <c r="E138" s="1">
-        <v>0.010881</v>
+        <v>0.015936</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="B139" s="1">
-        <v>-0.034501</v>
+        <v>0.018306</v>
       </c>
       <c r="C139" s="1">
-        <v>-0.037832</v>
+        <v>0.017976</v>
       </c>
       <c r="D139" s="1">
-        <v>-0.030726</v>
+        <v>0.02898</v>
       </c>
       <c r="E139" s="1">
-        <v>-0.033223</v>
+        <v>0.023884</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44500</v>
+        <v>44408</v>
       </c>
       <c r="B140" s="1">
-        <v>0.034062</v>
+        <v>0.015858</v>
       </c>
       <c r="C140" s="1">
-        <v>0.038085</v>
+        <v>0.01554</v>
       </c>
       <c r="D140" s="1">
-        <v>0.027294</v>
+        <v>0.024879</v>
       </c>
       <c r="E140" s="1">
-        <v>0.031335</v>
+        <v>0.020584</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44530</v>
+        <v>44439</v>
       </c>
       <c r="B141" s="1">
-        <v>0.014583</v>
+        <v>0.014596</v>
       </c>
       <c r="C141" s="1">
-        <v>0.020934</v>
+        <v>0.014694</v>
       </c>
       <c r="D141" s="1">
-        <v>0.017182</v>
+        <v>0.007593</v>
       </c>
       <c r="E141" s="1">
-        <v>0.017353</v>
+        <v>0.010881</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44561</v>
+        <v>44469</v>
       </c>
       <c r="B142" s="1">
-        <v>0.013202</v>
+        <v>-0.034501</v>
       </c>
       <c r="C142" s="1">
-        <v>0.009613</v>
+        <v>-0.037832</v>
       </c>
       <c r="D142" s="1">
-        <v>0.005379</v>
+        <v>-0.030726</v>
       </c>
       <c r="E142" s="1">
-        <v>0.00827</v>
+        <v>-0.033223</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44592</v>
+        <v>44500</v>
       </c>
       <c r="B143" s="1">
-        <v>-0.048359</v>
+        <v>0.034062</v>
       </c>
       <c r="C143" s="1">
-        <v>-0.051444</v>
+        <v>0.038085</v>
       </c>
       <c r="D143" s="1">
-        <v>-0.043723</v>
+        <v>0.027294</v>
       </c>
       <c r="E143" s="1">
-        <v>-0.046588</v>
+        <v>0.031335</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44620</v>
+        <v>44530</v>
       </c>
       <c r="B144" s="1">
-        <v>-0.020498</v>
+        <v>0.014583</v>
       </c>
       <c r="C144" s="1">
-        <v>-0.021976</v>
+        <v>0.020934</v>
       </c>
       <c r="D144" s="1">
-        <v>-0.017199</v>
+        <v>0.017182</v>
       </c>
       <c r="E144" s="1">
-        <v>-0.019075</v>
+        <v>0.017353</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="B145" s="1">
-        <v>-0.017631</v>
+        <v>0.013202</v>
       </c>
       <c r="C145" s="1">
-        <v>-0.021784</v>
+        <v>0.009613</v>
       </c>
       <c r="D145" s="1">
-        <v>-0.026753</v>
+        <v>0.005379</v>
       </c>
       <c r="E145" s="1">
-        <v>-0.02338</v>
+        <v>0.00827</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44681</v>
+        <v>44592</v>
       </c>
       <c r="B146" s="1">
-        <v>-0.07614499999999999</v>
+        <v>-0.048359</v>
       </c>
       <c r="C146" s="1">
-        <v>-0.08283599999999999</v>
+        <v>-0.051444</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.080459</v>
+        <v>-0.043723</v>
       </c>
       <c r="E146" s="1">
-        <v>-0.07989399999999999</v>
+        <v>-0.046588</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B147" s="1">
+        <v>-0.020498</v>
+      </c>
+      <c r="C147" s="1">
+        <v>-0.021976</v>
+      </c>
+      <c r="D147" s="1">
+        <v>-0.017199</v>
+      </c>
+      <c r="E147" s="1">
+        <v>-0.019075</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B148" s="1">
+        <v>-0.017631</v>
+      </c>
+      <c r="C148" s="1">
+        <v>-0.021784</v>
+      </c>
+      <c r="D148" s="1">
+        <v>-0.026753</v>
+      </c>
+      <c r="E148" s="1">
+        <v>-0.02338</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="3">
+        <v>44681</v>
+      </c>
+      <c r="B149" s="1">
+        <v>-0.07614499999999999</v>
+      </c>
+      <c r="C149" s="1">
+        <v>-0.08283599999999999</v>
+      </c>
+      <c r="D149" s="1">
+        <v>-0.080459</v>
+      </c>
+      <c r="E149" s="1">
+        <v>-0.07989399999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="3">
         <v>44712</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B150" s="1">
         <v>-0.010776</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C150" s="1">
         <v>-0.014128</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D150" s="1">
         <v>-0.006677</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E150" s="1">
         <v>-0.009348</v>
       </c>
     </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B151" s="1">
+        <v>-0.035471</v>
+      </c>
+      <c r="C151" s="1">
+        <v>-0.033153</v>
+      </c>
+      <c r="D151" s="1">
+        <v>-0.036546</v>
+      </c>
+      <c r="E151" s="1">
+        <v>-0.035533</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="3">
+        <v>44773</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0.037009</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.03693</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.041629</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0.03943</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B153" s="1">
+        <v>-0.03947</v>
+      </c>
+      <c r="C153" s="1">
+        <v>-0.04190000000000001</v>
+      </c>
+      <c r="D153" s="1">
+        <v>-0.04367099999999999</v>
+      </c>
+      <c r="E153" s="1">
+        <v>-0.042222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="3">
+        <v>44834</v>
+      </c>
+      <c r="B154" s="1">
+        <v>-0.072676</v>
+      </c>
+      <c r="C154" s="1">
+        <v>-0.078541</v>
+      </c>
+      <c r="D154" s="1">
+        <v>-0.079498</v>
+      </c>
+      <c r="E154" s="1">
+        <v>-0.07750499999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="3">
+        <v>44865</v>
+      </c>
+      <c r="B155" s="1">
+        <v>-0.007585</v>
+      </c>
+      <c r="C155" s="1">
+        <v>-0.015041</v>
+      </c>
+      <c r="D155" s="1">
+        <v>-0.012277</v>
+      </c>
+      <c r="E155" s="1">
+        <v>-0.011631</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A147">
+  <conditionalFormatting sqref="A1:A155">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E147">
+  <conditionalFormatting sqref="B2:E155">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM155"/>
+  <dimension ref="A1:ALM147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,2629 +445,2493 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40209</v>
+        <v>40482</v>
       </c>
       <c r="B2" s="1">
-        <v>932517206.42</v>
+        <v>1900647341.72</v>
       </c>
       <c r="C2" s="1">
-        <v>2102497497.95</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D2" s="1">
-        <v>12454906728.13</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E2" s="1">
-        <v>15489921432.5</v>
+        <v>17795189712.79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40237</v>
+        <v>40512</v>
       </c>
       <c r="B3" s="1">
-        <v>1064104134.07</v>
+        <v>1880986063.23</v>
       </c>
       <c r="C3" s="1">
-        <v>2128528078.25</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D3" s="1">
-        <v>12582607840.79</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E3" s="1">
-        <v>15775240053.11</v>
+        <v>19628498009.78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40268</v>
+        <v>40543</v>
       </c>
       <c r="B4" s="1">
-        <v>1475141834.85</v>
+        <v>1928778379.47</v>
       </c>
       <c r="C4" s="1">
-        <v>2204069195.06</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D4" s="1">
-        <v>13025853226.71</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E4" s="1">
-        <v>16705064256.62</v>
+        <v>20035309723.7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40298</v>
+        <v>40574</v>
       </c>
       <c r="B5" s="1">
-        <v>1622528988.09</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C5" s="1">
-        <v>2249160289.73</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D5" s="1">
-        <v>13260630365.46</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E5" s="1">
-        <v>17132319643.28</v>
+        <v>21163883643.67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40329</v>
+        <v>40602</v>
       </c>
       <c r="B6" s="1">
-        <v>1547543516.8</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C6" s="1">
-        <v>2151316976.44</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D6" s="1">
-        <v>12652570165.23</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E6" s="1">
-        <v>16351430658.47</v>
+        <v>21593049295.12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40359</v>
+        <v>40633</v>
       </c>
       <c r="B7" s="1">
-        <v>1525381389.55</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C7" s="1">
-        <v>2126807551.94</v>
+        <v>3077934373.48</v>
       </c>
       <c r="D7" s="1">
-        <v>12475226298.37</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E7" s="1">
-        <v>16127415239.86</v>
+        <v>21597573754.27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40390</v>
+        <v>40663</v>
       </c>
       <c r="B8" s="1">
-        <v>1706992377.88</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C8" s="1">
-        <v>2217049566.92</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D8" s="1">
-        <v>12970356046.29</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E8" s="1">
-        <v>16894397991.09</v>
+        <v>22196621501.4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40421</v>
+        <v>40694</v>
       </c>
       <c r="B9" s="1">
-        <v>1703519080.08</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C9" s="1">
-        <v>2218270319.77</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D9" s="1">
-        <v>12943159219.5</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E9" s="1">
-        <v>16864948619.35</v>
+        <v>22284802378.54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40451</v>
+        <v>40724</v>
       </c>
       <c r="B10" s="1">
-        <v>1774147463.24</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C10" s="1">
-        <v>2429501039.02</v>
+        <v>3131056633.27</v>
       </c>
       <c r="D10" s="1">
-        <v>13480390809.59</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E10" s="1">
-        <v>17684039311.85</v>
+        <v>21869307212.61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40482</v>
+        <v>40755</v>
       </c>
       <c r="B11" s="1">
-        <v>1900647341.72</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C11" s="1">
-        <v>2451294838.87</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D11" s="1">
-        <v>13443247532.2</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E11" s="1">
-        <v>17795189712.79</v>
+        <v>22052191790.71</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40512</v>
+        <v>40786</v>
       </c>
       <c r="B12" s="1">
-        <v>1880986063.23</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C12" s="1">
-        <v>2932628117.61</v>
+        <v>3139082692.54</v>
       </c>
       <c r="D12" s="1">
-        <v>14814883828.94</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E12" s="1">
-        <v>19628498009.78</v>
+        <v>21857328408.78</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40543</v>
+        <v>40816</v>
       </c>
       <c r="B13" s="1">
-        <v>1928778379.47</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C13" s="1">
-        <v>3016301371.7</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D13" s="1">
-        <v>15090229972.53</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E13" s="1">
-        <v>20035309723.7</v>
+        <v>21890762234.61</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40574</v>
+        <v>40847</v>
       </c>
       <c r="B14" s="1">
-        <v>3118038032.57</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C14" s="1">
-        <v>3010941131.67</v>
+        <v>3311931768.5</v>
       </c>
       <c r="D14" s="1">
-        <v>15034904479.43</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E14" s="1">
-        <v>21163883643.67</v>
+        <v>22618006484.29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40602</v>
+        <v>40877</v>
       </c>
       <c r="B15" s="1">
-        <v>3181037518.51</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C15" s="1">
-        <v>3072606771.41</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D15" s="1">
-        <v>15339405005.2</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E15" s="1">
-        <v>21593049295.12</v>
+        <v>22404833979.68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40633</v>
+        <v>40908</v>
       </c>
       <c r="B16" s="1">
-        <v>3181383242.47</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C16" s="1">
-        <v>3077934373.48</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D16" s="1">
-        <v>15338256138.32</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E16" s="1">
-        <v>21597573754.27</v>
+        <v>22610739192.74</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40663</v>
+        <v>40939</v>
       </c>
       <c r="B17" s="1">
-        <v>3268994098.86</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C17" s="1">
-        <v>3168259937.35</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D17" s="1">
-        <v>15759367465.19</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E17" s="1">
-        <v>22196621501.4</v>
+        <v>23182713107.18</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40694</v>
+        <v>40968</v>
       </c>
       <c r="B18" s="1">
-        <v>3281525082.01</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C18" s="1">
-        <v>3185699769.88</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D18" s="1">
-        <v>15817577526.65</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E18" s="1">
-        <v>22284802378.54</v>
+        <v>23539061638.97</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40724</v>
+        <v>40999</v>
       </c>
       <c r="B19" s="1">
-        <v>3219718796.83</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C19" s="1">
-        <v>3131056633.27</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D19" s="1">
-        <v>15518531782.51</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E19" s="1">
-        <v>21869307212.61</v>
+        <v>23568627738.57</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40755</v>
+        <v>41029</v>
       </c>
       <c r="B20" s="1">
-        <v>3245901192.15</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C20" s="1">
-        <v>3162162793.97</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D20" s="1">
-        <v>15644127804.59</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E20" s="1">
-        <v>22052191790.71</v>
+        <v>23751063285.04</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40786</v>
+        <v>41060</v>
       </c>
       <c r="B21" s="1">
-        <v>3216438061.76</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C21" s="1">
-        <v>3139082692.54</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D21" s="1">
-        <v>15501807654.48</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E21" s="1">
-        <v>21857328408.78</v>
+        <v>23525356279.52</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40816</v>
+        <v>41090</v>
       </c>
       <c r="B22" s="1">
-        <v>3211645130.63</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C22" s="1">
-        <v>3200272417.15</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D22" s="1">
-        <v>15478844686.83</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E22" s="1">
-        <v>21890762234.61</v>
+        <v>23967119998.88</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40847</v>
+        <v>41121</v>
       </c>
       <c r="B23" s="1">
-        <v>3317215603.4</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C23" s="1">
-        <v>3311931768.5</v>
+        <v>3572637746.48</v>
       </c>
       <c r="D23" s="1">
-        <v>15988859112.39</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E23" s="1">
-        <v>22618006484.29</v>
+        <v>24445194794.85</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40877</v>
+        <v>41152</v>
       </c>
       <c r="B24" s="1">
-        <v>3279790855.17</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C24" s="1">
-        <v>3286738232.03</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D24" s="1">
-        <v>15838304892.48</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E24" s="1">
-        <v>22404833979.68</v>
+        <v>24546339462.45</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40908</v>
+        <v>41182</v>
       </c>
       <c r="B25" s="1">
-        <v>3308515656.83</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C25" s="1">
-        <v>3322199318.6</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D25" s="1">
-        <v>15980024217.31</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E25" s="1">
-        <v>22610739192.74</v>
+        <v>24697860539.92</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>40939</v>
+        <v>41213</v>
       </c>
       <c r="B26" s="1">
-        <v>3390714253.36</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C26" s="1">
-        <v>3411636959.78</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D26" s="1">
-        <v>16380361894.04</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E26" s="1">
-        <v>23182713107.18</v>
+        <v>24675789016.94</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>40968</v>
+        <v>41243</v>
       </c>
       <c r="B27" s="1">
-        <v>3441357193.01</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C27" s="1">
-        <v>3465240303.9</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D27" s="1">
-        <v>16632464142.06</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E27" s="1">
-        <v>23539061638.97</v>
+        <v>24802412939.95</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>40999</v>
+        <v>41274</v>
       </c>
       <c r="B28" s="1">
-        <v>3594273253.88</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C28" s="1">
-        <v>3448893913.05</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D28" s="1">
-        <v>16525460571.64</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E28" s="1">
-        <v>23568627738.57</v>
+        <v>24895888004.03</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41029</v>
+        <v>41305</v>
       </c>
       <c r="B29" s="1">
-        <v>3620819218.91</v>
+        <v>3991599105.71</v>
       </c>
       <c r="C29" s="1">
-        <v>3481026300.12</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D29" s="1">
-        <v>16649217766.01</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E29" s="1">
-        <v>23751063285.04</v>
+        <v>25170522714.13</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41060</v>
+        <v>41333</v>
       </c>
       <c r="B30" s="1">
-        <v>3584994009.65</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C30" s="1">
-        <v>3453190328.12</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D30" s="1">
-        <v>16487171941.75</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E30" s="1">
-        <v>23525356279.52</v>
+        <v>25279217396.12</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41090</v>
+        <v>41364</v>
       </c>
       <c r="B31" s="1">
-        <v>3803025610.44</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C31" s="1">
-        <v>3497243829.13</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D31" s="1">
-        <v>16666850559.31</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E31" s="1">
-        <v>23967119998.88</v>
+        <v>25595621001.76</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41121</v>
+        <v>41394</v>
       </c>
       <c r="B32" s="1">
-        <v>3877728751.39</v>
+        <v>4145409199.46</v>
       </c>
       <c r="C32" s="1">
-        <v>3572637746.48</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D32" s="1">
-        <v>16994828296.98</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E32" s="1">
-        <v>24445194794.85</v>
+        <v>26172966159.6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41152</v>
+        <v>41425</v>
       </c>
       <c r="B33" s="1">
-        <v>3892524075.7</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C33" s="1">
-        <v>3592909103.41</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D33" s="1">
-        <v>17060906283.34</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E33" s="1">
-        <v>24546339462.45</v>
+        <v>25673994810.38</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41182</v>
+        <v>41455</v>
       </c>
       <c r="B34" s="1">
-        <v>3915294252.8</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C34" s="1">
-        <v>3620604152.58</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D34" s="1">
-        <v>17161962134.54</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E34" s="1">
-        <v>24697860539.92</v>
+        <v>25144254258.35</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41213</v>
+        <v>41486</v>
       </c>
       <c r="B35" s="1">
-        <v>3910430761.85</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C35" s="1">
-        <v>3622924774.95</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D35" s="1">
-        <v>17142433480.14</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E35" s="1">
-        <v>24675789016.94</v>
+        <v>25436691656.9</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41243</v>
+        <v>41517</v>
       </c>
       <c r="B36" s="1">
-        <v>3929018216.4</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C36" s="1">
-        <v>3646999015.16</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D36" s="1">
-        <v>17226395708.39</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E36" s="1">
-        <v>24802412939.95</v>
+        <v>25090707293.91</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41274</v>
+        <v>41547</v>
       </c>
       <c r="B37" s="1">
-        <v>3949731061.55</v>
+        <v>4033439753.48</v>
       </c>
       <c r="C37" s="1">
-        <v>3654809047.65</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D37" s="1">
-        <v>17291347894.83</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E37" s="1">
-        <v>24895888004.03</v>
+        <v>25528497279.93</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41305</v>
+        <v>41578</v>
       </c>
       <c r="B38" s="1">
-        <v>3991599105.71</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C38" s="1">
-        <v>4490569394.41</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D38" s="1">
-        <v>16688354214.01</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E38" s="1">
-        <v>25170522714.13</v>
+        <v>26027364114.18</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41333</v>
+        <v>41608</v>
       </c>
       <c r="B39" s="1">
-        <v>4007467353.78</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C39" s="1">
-        <v>4511270646.88</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D39" s="1">
-        <v>16760479395.46</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E39" s="1">
-        <v>25279217396.12</v>
+        <v>26003820925.72</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41364</v>
+        <v>41639</v>
       </c>
       <c r="B40" s="1">
-        <v>4055824611.3</v>
+        <v>4121232839.29</v>
       </c>
       <c r="C40" s="1">
-        <v>4573664426.03</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D40" s="1">
-        <v>16966131964.43</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E40" s="1">
-        <v>25595621001.76</v>
+        <v>26126288441.74</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41394</v>
+        <v>41670</v>
       </c>
       <c r="B41" s="1">
-        <v>4145409199.46</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C41" s="1">
-        <v>4682846886.27</v>
+        <v>4882894726.29</v>
       </c>
       <c r="D41" s="1">
-        <v>17344710073.87</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E41" s="1">
-        <v>26172966159.6</v>
+        <v>26107696311.48</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41425</v>
+        <v>41698</v>
       </c>
       <c r="B42" s="1">
-        <v>4064569702.63</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C42" s="1">
-        <v>4599347535.9</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D42" s="1">
-        <v>17010077571.85</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E42" s="1">
-        <v>25673994810.38</v>
+        <v>26638164824.17</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41455</v>
+        <v>41729</v>
       </c>
       <c r="B43" s="1">
-        <v>3978796970.09</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C43" s="1">
-        <v>4510251396.91</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D43" s="1">
-        <v>16655205891.35</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E43" s="1">
-        <v>25144254258.35</v>
+        <v>26770056497.39</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41486</v>
+        <v>41759</v>
       </c>
       <c r="B44" s="1">
-        <v>4023056820.86</v>
+        <v>4212492467.73</v>
       </c>
       <c r="C44" s="1">
-        <v>4568724212.7</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D44" s="1">
-        <v>16844910623.34</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E44" s="1">
-        <v>25436691656.9</v>
+        <v>26766109574.18</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41517</v>
+        <v>41790</v>
       </c>
       <c r="B45" s="1">
-        <v>3966340296.1</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C45" s="1">
-        <v>4512507452.03</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D45" s="1">
-        <v>16611859545.78</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E45" s="1">
-        <v>25090707293.91</v>
+        <v>27191987348.25</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41547</v>
+        <v>41820</v>
       </c>
       <c r="B46" s="1">
-        <v>4033439753.48</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C46" s="1">
-        <v>4749762591.53</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D46" s="1">
-        <v>16745294934.92</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E46" s="1">
-        <v>25528497279.93</v>
+        <v>27325686546.76</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41578</v>
+        <v>41851</v>
       </c>
       <c r="B47" s="1">
-        <v>4110020215.55</v>
+        <v>4265451845</v>
       </c>
       <c r="C47" s="1">
-        <v>4848589342.72</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D47" s="1">
-        <v>17068754555.91</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E47" s="1">
-        <v>26027364114.18</v>
+        <v>27156839042.76</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41608</v>
+        <v>41882</v>
       </c>
       <c r="B48" s="1">
-        <v>4104202981.72</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C48" s="1">
-        <v>4850653743.4</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D48" s="1">
-        <v>17048964200.6</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E48" s="1">
-        <v>26003820925.72</v>
+        <v>27744206657.43</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41639</v>
+        <v>41912</v>
       </c>
       <c r="B49" s="1">
-        <v>4121232839.29</v>
+        <v>4258151023.04</v>
       </c>
       <c r="C49" s="1">
-        <v>4879983265.38</v>
+        <v>5131976211.71</v>
       </c>
       <c r="D49" s="1">
-        <v>17125072337.07</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E49" s="1">
-        <v>26126288441.74</v>
+        <v>27150660877.68</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41670</v>
+        <v>41943</v>
       </c>
       <c r="B50" s="1">
-        <v>4116223144.44</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C50" s="1">
-        <v>4882894726.29</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D50" s="1">
-        <v>17108578440.75</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E50" s="1">
-        <v>26107696311.48</v>
+        <v>27371725833.13</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41698</v>
+        <v>41973</v>
       </c>
       <c r="B51" s="1">
-        <v>4197240949.36</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C51" s="1">
-        <v>4988729007.27</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D51" s="1">
-        <v>17452194867.54</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E51" s="1">
-        <v>26638164824.17</v>
+        <v>27755933978.37</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41729</v>
+        <v>42004</v>
       </c>
       <c r="B52" s="1">
-        <v>4215464347.87</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C52" s="1">
-        <v>5019984158.58</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D52" s="1">
-        <v>17534607990.94</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E52" s="1">
-        <v>26770056497.39</v>
+        <v>28782428258.71</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41759</v>
+        <v>42035</v>
       </c>
       <c r="B53" s="1">
-        <v>4212492467.73</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C53" s="1">
-        <v>5026144812.31</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D53" s="1">
-        <v>17527472294.14</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E53" s="1">
-        <v>26766109574.18</v>
+        <v>29378034101.34</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41790</v>
+        <v>42063</v>
       </c>
       <c r="B54" s="1">
-        <v>4276832512.93</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C54" s="1">
-        <v>5112975530.56</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D54" s="1">
-        <v>17802179304.76</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E54" s="1">
-        <v>27191987348.25</v>
+        <v>29527722140.57</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41820</v>
+        <v>42094</v>
       </c>
       <c r="B55" s="1">
-        <v>4295140983.11</v>
+        <v>5098528846.54</v>
       </c>
       <c r="C55" s="1">
-        <v>5144862372.52</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D55" s="1">
-        <v>17885683191.13</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E55" s="1">
-        <v>27325686546.76</v>
+        <v>29472205126.79</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41851</v>
+        <v>42124</v>
       </c>
       <c r="B56" s="1">
-        <v>4265451845</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C56" s="1">
-        <v>5119794037.99</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D56" s="1">
-        <v>17771593159.77</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E56" s="1">
-        <v>27156839042.76</v>
+        <v>29408637463</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41882</v>
+        <v>42155</v>
       </c>
       <c r="B57" s="1">
-        <v>4354547211.12</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C57" s="1">
-        <v>5237452701.82</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D57" s="1">
-        <v>18152206744.49</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E57" s="1">
-        <v>27744206657.43</v>
+        <v>29288010554.98</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>41912</v>
+        <v>42185</v>
       </c>
       <c r="B58" s="1">
-        <v>4258151023.04</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C58" s="1">
-        <v>5131976211.71</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D58" s="1">
-        <v>17760533642.93</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E58" s="1">
-        <v>27150660877.68</v>
+        <v>28650016749.03</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>41943</v>
+        <v>42216</v>
       </c>
       <c r="B59" s="1">
-        <v>4285163976.8</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C59" s="1">
-        <v>5172926233.01</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D59" s="1">
-        <v>17913635623.32</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E59" s="1">
-        <v>27371725833.13</v>
+        <v>28876185070.36</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>41973</v>
+        <v>42247</v>
       </c>
       <c r="B60" s="1">
-        <v>4341696562.65</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C60" s="1">
-        <v>5252461885.84</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D60" s="1">
-        <v>18161775529.88</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E60" s="1">
-        <v>27755933978.37</v>
+        <v>28013929187.9</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42004</v>
+        <v>42277</v>
       </c>
       <c r="B61" s="1">
-        <v>4986611512.07</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C61" s="1">
-        <v>5448191101.38</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D61" s="1">
-        <v>18347625645.26</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E61" s="1">
-        <v>28782428258.71</v>
+        <v>27687614897.05</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42035</v>
+        <v>42308</v>
       </c>
       <c r="B62" s="1">
-        <v>5087365130.35</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C62" s="1">
-        <v>5567918737.12</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D62" s="1">
-        <v>18722750233.87</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E62" s="1">
-        <v>29378034101.34</v>
+        <v>28326347037.87</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42063</v>
+        <v>42338</v>
       </c>
       <c r="B63" s="1">
-        <v>5110739057.82</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C63" s="1">
-        <v>5603210665.94</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D63" s="1">
-        <v>18813772416.81</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E63" s="1">
-        <v>29527722140.57</v>
+        <v>28136561001.15</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42094</v>
+        <v>42369</v>
       </c>
       <c r="B64" s="1">
-        <v>5098528846.54</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C64" s="1">
-        <v>5599621915.28</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D64" s="1">
-        <v>18774054364.97</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E64" s="1">
-        <v>29472205126.79</v>
+        <v>28846254608.33</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42124</v>
+        <v>42400</v>
       </c>
       <c r="B65" s="1">
-        <v>5084901351.07</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C65" s="1">
-        <v>5594550723.83</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D65" s="1">
-        <v>18729185388.1</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E65" s="1">
-        <v>29408637463</v>
+        <v>28336372866.16</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42155</v>
+        <v>42429</v>
       </c>
       <c r="B66" s="1">
-        <v>5061385747.15</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C66" s="1">
-        <v>5578675769.67</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D66" s="1">
-        <v>18647949038.16</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E66" s="1">
-        <v>29288010554.98</v>
+        <v>28455678308.47</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42185</v>
+        <v>42460</v>
       </c>
       <c r="B67" s="1">
-        <v>4948449143.55</v>
+        <v>5505915040.5</v>
       </c>
       <c r="C67" s="1">
-        <v>5464086350.67</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D67" s="1">
-        <v>18237481254.81</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E67" s="1">
-        <v>28650016749.03</v>
+        <v>29356671897.69</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42216</v>
+        <v>42490</v>
       </c>
       <c r="B68" s="1">
-        <v>4984734110.66</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C68" s="1">
-        <v>5514366076.03</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D68" s="1">
-        <v>18377084883.67</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E68" s="1">
-        <v>28876185070.36</v>
+        <v>29542027110.35</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42247</v>
+        <v>42521</v>
       </c>
       <c r="B69" s="1">
-        <v>4833324327.11</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C69" s="1">
-        <v>5356648129.15</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D69" s="1">
-        <v>17823956731.64</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E69" s="1">
-        <v>28013929187.9</v>
+        <v>29511421101.44</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42277</v>
+        <v>42551</v>
       </c>
       <c r="B70" s="1">
-        <v>4774352359.51</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C70" s="1">
-        <v>5301454591.47</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D70" s="1">
-        <v>17611807946.07</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E70" s="1">
-        <v>27687614897.05</v>
+        <v>29721833433.55</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42308</v>
+        <v>42582</v>
       </c>
       <c r="B71" s="1">
-        <v>4880247836.65</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C71" s="1">
-        <v>5397632819.49</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D71" s="1">
-        <v>18048466381.73</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E71" s="1">
-        <v>28326347037.87</v>
+        <v>30265143212.71</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42338</v>
+        <v>42613</v>
       </c>
       <c r="B72" s="1">
-        <v>4844551814.11</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C72" s="1">
-        <v>5368571908.98</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D72" s="1">
-        <v>17923437278.06</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E72" s="1">
-        <v>28136561001.15</v>
+        <v>30212255260.83</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42369</v>
+        <v>42643</v>
       </c>
       <c r="B73" s="1">
-        <v>5415576742.55</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C73" s="1">
-        <v>5709868087.27</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D73" s="1">
-        <v>17720809778.51</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E73" s="1">
-        <v>28846254608.33</v>
+        <v>31311189264.37</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42400</v>
+        <v>42674</v>
       </c>
       <c r="B74" s="1">
-        <v>5318083756.35</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C74" s="1">
-        <v>5616578571.14</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D74" s="1">
-        <v>17401710538.67</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E74" s="1">
-        <v>28336372866.16</v>
+        <v>30735701818.56</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42429</v>
+        <v>42704</v>
       </c>
       <c r="B75" s="1">
-        <v>5338694185.85</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C75" s="1">
-        <v>5647936294.45</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D75" s="1">
-        <v>17469047828.17</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E75" s="1">
-        <v>28455678308.47</v>
+        <v>30294149402.87</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42460</v>
+        <v>42735</v>
       </c>
       <c r="B76" s="1">
-        <v>5505915040.5</v>
+        <v>6253513976.5</v>
       </c>
       <c r="C76" s="1">
-        <v>5834802926.8</v>
+        <v>6361809245.25</v>
       </c>
       <c r="D76" s="1">
-        <v>18015953930.39</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E76" s="1">
-        <v>29356671897.69</v>
+        <v>31134559706.61</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42490</v>
+        <v>42766</v>
       </c>
       <c r="B77" s="1">
-        <v>5538988181.45</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C77" s="1">
-        <v>5879483219.72</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D77" s="1">
-        <v>18123555709.18</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E77" s="1">
-        <v>29542027110.35</v>
+        <v>31406628721.6</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42521</v>
+        <v>42794</v>
       </c>
       <c r="B78" s="1">
-        <v>5531594102.95</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C78" s="1">
-        <v>5881279255.87</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D78" s="1">
-        <v>18098547742.62</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E78" s="1">
-        <v>29511421101.44</v>
+        <v>31862928265.29</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42551</v>
+        <v>42825</v>
       </c>
       <c r="B79" s="1">
-        <v>5569334217.76</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C79" s="1">
-        <v>5931068967.2</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D79" s="1">
-        <v>18221430248.59</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E79" s="1">
-        <v>29721833433.55</v>
+        <v>34237217759.41</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42582</v>
+        <v>42855</v>
       </c>
       <c r="B80" s="1">
-        <v>5669685323.09</v>
+        <v>7176134170.54</v>
       </c>
       <c r="C80" s="1">
-        <v>6047546128.94</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D80" s="1">
-        <v>18547911760.68</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E80" s="1">
-        <v>30265143212.71</v>
+        <v>34601219933.72</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42613</v>
+        <v>42886</v>
       </c>
       <c r="B81" s="1">
-        <v>5658306874.65</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C81" s="1">
-        <v>6044991482.23</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D81" s="1">
-        <v>18508956903.95</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E81" s="1">
-        <v>30212255260.83</v>
+        <v>35025479666.84</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42643</v>
+        <v>42916</v>
       </c>
       <c r="B82" s="1">
-        <v>6047292088.02</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C82" s="1">
-        <v>6489780168.17</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D82" s="1">
-        <v>18774117008.18</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E82" s="1">
-        <v>31311189264.37</v>
+        <v>35106583260.6</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42674</v>
+        <v>42947</v>
       </c>
       <c r="B83" s="1">
-        <v>5944249077.31</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C83" s="1">
-        <v>6361287062.33</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D83" s="1">
-        <v>18430165678.92</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E83" s="1">
-        <v>30735701818.56</v>
+        <v>35405791867.57</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42704</v>
+        <v>42978</v>
       </c>
       <c r="B84" s="1">
-        <v>5857951330.08</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C84" s="1">
-        <v>6278318762.68</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D84" s="1">
-        <v>18157879310.11</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E84" s="1">
-        <v>30294149402.87</v>
+        <v>35685515267.03</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42735</v>
+        <v>43008</v>
       </c>
       <c r="B85" s="1">
-        <v>6253513976.5</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C85" s="1">
-        <v>6361809245.25</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D85" s="1">
-        <v>18519236484.86</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E85" s="1">
-        <v>31134559706.61</v>
+        <v>35874943914.43</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42766</v>
+        <v>43039</v>
       </c>
       <c r="B86" s="1">
-        <v>6308462886.34</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C86" s="1">
-        <v>6425317655.9</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D86" s="1">
-        <v>18672848179.36</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E86" s="1">
-        <v>31406628721.6</v>
+        <v>36114919745.74</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42794</v>
+        <v>43069</v>
       </c>
       <c r="B87" s="1">
-        <v>6400976668.18</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C87" s="1">
-        <v>6526279467.15</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D87" s="1">
-        <v>18935672129.96</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E87" s="1">
-        <v>31862928265.29</v>
+        <v>36495613500.11</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42825</v>
+        <v>43100</v>
       </c>
       <c r="B88" s="1">
-        <v>7099971446.02</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C88" s="1">
-        <v>7337629420.28</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D88" s="1">
-        <v>19799616893.11</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E88" s="1">
-        <v>34237217759.41</v>
+        <v>41856058020.2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42855</v>
+        <v>43131</v>
       </c>
       <c r="B89" s="1">
-        <v>7176134170.54</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C89" s="1">
-        <v>7422733235.89</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D89" s="1">
-        <v>20002352527.29</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E89" s="1">
-        <v>34601219933.72</v>
+        <v>42583718320.38</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42886</v>
+        <v>43159</v>
       </c>
       <c r="B90" s="1">
-        <v>7264954337.05</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C90" s="1">
-        <v>7523682920.77</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D90" s="1">
-        <v>20236842409.02</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E90" s="1">
-        <v>35025479666.84</v>
+        <v>41211648261.71</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>42916</v>
+        <v>43190</v>
       </c>
       <c r="B91" s="1">
-        <v>7282406497.08</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C91" s="1">
-        <v>7549356808.18</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D91" s="1">
-        <v>20274819955.34</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E91" s="1">
-        <v>35106583260.6</v>
+        <v>41345470043.96999</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>42947</v>
+        <v>43220</v>
       </c>
       <c r="B92" s="1">
-        <v>7343644210.4</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C92" s="1">
-        <v>7623588366.49</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D92" s="1">
-        <v>20438559290.68</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E92" s="1">
-        <v>35405791867.57</v>
+        <v>41046760638.73</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>42978</v>
+        <v>43251</v>
       </c>
       <c r="B93" s="1">
-        <v>7401114464.44</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C93" s="1">
-        <v>7693916997.08</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D93" s="1">
-        <v>20590483805.51</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E93" s="1">
-        <v>35685515267.03</v>
+        <v>41313232056.15</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43008</v>
+        <v>43281</v>
       </c>
       <c r="B94" s="1">
-        <v>7439354518.62</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C94" s="1">
-        <v>7744728806.72</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D94" s="1">
-        <v>20690860589.09</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E94" s="1">
-        <v>35874943914.43</v>
+        <v>41121031725</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43039</v>
+        <v>43312</v>
       </c>
       <c r="B95" s="1">
-        <v>7501162607.24</v>
+        <v>8936073454</v>
       </c>
       <c r="C95" s="1">
-        <v>7797612927.14</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D95" s="1">
-        <v>20816144211.36</v>
+        <v>23810581356</v>
       </c>
       <c r="E95" s="1">
-        <v>36114919745.74</v>
+        <v>41384588267.64</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43069</v>
+        <v>43343</v>
       </c>
       <c r="B96" s="1">
-        <v>7578785278.66</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C96" s="1">
-        <v>7890046689.69</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D96" s="1">
-        <v>21026781531.76</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E96" s="1">
-        <v>36495613500.11</v>
+        <v>41662803021.32</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43100</v>
+        <v>43373</v>
       </c>
       <c r="B97" s="1">
-        <v>9002210135.43</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C97" s="1">
-        <v>8628245002.959999</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D97" s="1">
-        <v>24225602881.81</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E97" s="1">
-        <v>41856058020.2</v>
+        <v>41186947565</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43131</v>
+        <v>43404</v>
       </c>
       <c r="B98" s="1">
-        <v>9202610590.719999</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C98" s="1">
-        <v>8830545061.309999</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D98" s="1">
-        <v>24550562668.35</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E98" s="1">
-        <v>42583718320.38</v>
+        <v>39383035110.98</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43159</v>
+        <v>43434</v>
       </c>
       <c r="B99" s="1">
-        <v>8905152042.110001</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C99" s="1">
-        <v>8554843302.12</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D99" s="1">
-        <v>23751652917.48</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E99" s="1">
-        <v>41211648261.71</v>
+        <v>39775163930.18</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43190</v>
+        <v>43465</v>
       </c>
       <c r="B100" s="1">
-        <v>8894650969.91</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C100" s="1">
-        <v>8555117311.3</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D100" s="1">
-        <v>23895701762.76</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E100" s="1">
-        <v>41345470043.96999</v>
+        <v>39522985371.47</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43220</v>
+        <v>43496</v>
       </c>
       <c r="B101" s="1">
-        <v>8853026337.98</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C101" s="1">
-        <v>8525561703.78</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D101" s="1">
-        <v>23668172596.97</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E101" s="1">
-        <v>41046760638.73</v>
+        <v>40670053634.92</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43251</v>
+        <v>43524</v>
       </c>
       <c r="B102" s="1">
-        <v>8890561971.129999</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C102" s="1">
-        <v>8572549061.9</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D102" s="1">
-        <v>23850121023.12</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E102" s="1">
-        <v>41313232056.15</v>
+        <v>40797813026.7</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43281</v>
+        <v>43555</v>
       </c>
       <c r="B103" s="1">
-        <v>8841470603.15</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C103" s="1">
-        <v>8535731069.89</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D103" s="1">
-        <v>23743830051.96</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E103" s="1">
-        <v>41121031725</v>
+        <v>41816102147.74</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43312</v>
+        <v>43585</v>
       </c>
       <c r="B104" s="1">
-        <v>8936073454</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C104" s="1">
-        <v>8637933457.639999</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D104" s="1">
-        <v>23810581356</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E104" s="1">
-        <v>41384588267.64</v>
+        <v>42743107013</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43343</v>
+        <v>43616</v>
       </c>
       <c r="B105" s="1">
-        <v>8984375598.66</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C105" s="1">
-        <v>8696018228.42</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D105" s="1">
-        <v>23982409194.24</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E105" s="1">
-        <v>41662803021.32</v>
+        <v>43049605454.39</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43373</v>
+        <v>43646</v>
       </c>
       <c r="B106" s="1">
-        <v>8913881251.4</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C106" s="1">
-        <v>8639086304.16</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D106" s="1">
-        <v>23633980009.44</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E106" s="1">
-        <v>41186947565</v>
+        <v>44201897165.55</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43404</v>
+        <v>43677</v>
       </c>
       <c r="B107" s="1">
-        <v>8522844994.4</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C107" s="1">
-        <v>8244001106.42</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D107" s="1">
-        <v>22616189010.16</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E107" s="1">
-        <v>39383035110.98</v>
+        <v>44289278505.62</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43434</v>
+        <v>43708</v>
       </c>
       <c r="B108" s="1">
-        <v>8594776142.139999</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C108" s="1">
-        <v>8324970365.95</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D108" s="1">
-        <v>22855417422.09</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E108" s="1">
-        <v>39775163930.18</v>
+        <v>46120311881.3</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43465</v>
+        <v>43738</v>
       </c>
       <c r="B109" s="1">
-        <v>8430913509.88</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C109" s="1">
-        <v>8177279951.57</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D109" s="1">
-        <v>22914791910.02</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E109" s="1">
-        <v>39522985371.47</v>
+        <v>46949593594.97</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43496</v>
+        <v>43769</v>
       </c>
       <c r="B110" s="1">
-        <v>8716930851.969999</v>
+        <v>10608252625.24</v>
       </c>
       <c r="C110" s="1">
-        <v>8466374243.34</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D110" s="1">
-        <v>23486748539.61</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E110" s="1">
-        <v>40670053634.92</v>
+        <v>46865708662.23</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43524</v>
+        <v>43799</v>
       </c>
       <c r="B111" s="1">
-        <v>8780002278.02</v>
+        <v>10692316903.4</v>
       </c>
       <c r="C111" s="1">
-        <v>8538970109.85</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D111" s="1">
-        <v>23478840638.83</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E111" s="1">
-        <v>40797813026.7</v>
+        <v>47123617172.53</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43555</v>
+        <v>43830</v>
       </c>
       <c r="B112" s="1">
-        <v>8939502054.139999</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C112" s="1">
-        <v>8705342961.4</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D112" s="1">
-        <v>24171257132.2</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E112" s="1">
-        <v>41816102147.74</v>
+        <v>46141633527.96</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43585</v>
+        <v>43861</v>
       </c>
       <c r="B113" s="1">
-        <v>9008244776.280001</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C113" s="1">
-        <v>9126959379.24</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D113" s="1">
-        <v>24607902857.48</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E113" s="1">
-        <v>42743107013</v>
+        <v>47197661020.02</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43616</v>
+        <v>43890</v>
       </c>
       <c r="B114" s="1">
-        <v>8944260855.860001</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C114" s="1">
-        <v>9074029379.02</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D114" s="1">
-        <v>25031315219.51</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E114" s="1">
-        <v>43049605454.39</v>
+        <v>47123824802.83</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43646</v>
+        <v>43921</v>
       </c>
       <c r="B115" s="1">
-        <v>9215995868.950001</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C115" s="1">
-        <v>9361706609.469999</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D115" s="1">
-        <v>25624194687.13</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E115" s="1">
-        <v>44201897165.55</v>
+        <v>45204026385.17001</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43677</v>
+        <v>43951</v>
       </c>
       <c r="B116" s="1">
-        <v>9238385070.67</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C116" s="1">
-        <v>9396108735.549999</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D116" s="1">
-        <v>25654784699.4</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E116" s="1">
-        <v>44289278505.62</v>
+        <v>47064011332.71</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43708</v>
+        <v>43982</v>
       </c>
       <c r="B117" s="1">
-        <v>9436337524.57</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C117" s="1">
-        <v>9608738306.559999</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D117" s="1">
-        <v>27075236050.17</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E117" s="1">
-        <v>46120311881.3</v>
+        <v>47081138950.00999</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43738</v>
+        <v>44012</v>
       </c>
       <c r="B118" s="1">
-        <v>10602215448.62</v>
+        <v>10514205392.24</v>
       </c>
       <c r="C118" s="1">
-        <v>9614794478.780001</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D118" s="1">
-        <v>26732583667.57</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E118" s="1">
-        <v>46949593594.97</v>
+        <v>47426564864.18</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43769</v>
+        <v>44043</v>
       </c>
       <c r="B119" s="1">
-        <v>10608252625.24</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C119" s="1">
-        <v>9625407467.91</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D119" s="1">
-        <v>26632048569.08</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E119" s="1">
-        <v>46865708662.23</v>
+        <v>49195665095.83</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43799</v>
+        <v>44074</v>
       </c>
       <c r="B120" s="1">
-        <v>10692316903.4</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C120" s="1">
-        <v>9713037686.17</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D120" s="1">
-        <v>26718262582.96</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E120" s="1">
-        <v>47123617172.53</v>
+        <v>48906083609.04</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43830</v>
+        <v>44104</v>
       </c>
       <c r="B121" s="1">
-        <v>10758442213.97</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C121" s="1">
-        <v>9477691033.26</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D121" s="1">
-        <v>25905500280.73</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E121" s="1">
-        <v>46141633527.96</v>
+        <v>49328692500.60999</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43861</v>
+        <v>44135</v>
       </c>
       <c r="B122" s="1">
-        <v>10840639312.88</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C122" s="1">
-        <v>9555218261.01</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D122" s="1">
-        <v>26801803446.13</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E122" s="1">
-        <v>47197661020.02</v>
+        <v>48026054531.55</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43890</v>
+        <v>44165</v>
       </c>
       <c r="B123" s="1">
-        <v>10574286223.88</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C123" s="1">
-        <v>9338936485.4</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D123" s="1">
-        <v>27210602093.55</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E123" s="1">
-        <v>47123824802.83</v>
+        <v>50440003419.03</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="B124" s="1">
-        <v>9764305551.360001</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C124" s="1">
-        <v>8664875030.02</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D124" s="1">
-        <v>26774845803.79</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E124" s="1">
-        <v>45204026385.17001</v>
+        <v>52788485957.46</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>43951</v>
+        <v>44227</v>
       </c>
       <c r="B125" s="1">
-        <v>10283094677.36</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C125" s="1">
-        <v>9107006952.52</v>
+        <v>10900299506.57</v>
       </c>
       <c r="D125" s="1">
-        <v>27673909702.83</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E125" s="1">
-        <v>47064011332.71</v>
+        <v>51588003234.73</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>43982</v>
+        <v>44255</v>
       </c>
       <c r="B126" s="1">
-        <v>10409182664.05</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C126" s="1">
-        <v>9213245024.98</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D126" s="1">
-        <v>27458711260.98</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E126" s="1">
-        <v>47081138950.00999</v>
+        <v>50499345827.99</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44012</v>
+        <v>44286</v>
       </c>
       <c r="B127" s="1">
-        <v>10514205392.24</v>
+        <v>12629967215.83</v>
       </c>
       <c r="C127" s="1">
-        <v>9308097696.17</v>
+        <v>10999754121.32</v>
       </c>
       <c r="D127" s="1">
-        <v>27604261775.77</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E127" s="1">
-        <v>47426564864.18</v>
+        <v>50392716520.31</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44043</v>
+        <v>44316</v>
       </c>
       <c r="B128" s="1">
-        <v>10849449410.81</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C128" s="1">
-        <v>9606421868.530001</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D128" s="1">
-        <v>28739793816.49</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E128" s="1">
-        <v>49195665095.83</v>
+        <v>51700983288.71</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44074</v>
+        <v>44347</v>
       </c>
       <c r="B129" s="1">
-        <v>11005151438.13</v>
+        <v>13155170030.18</v>
       </c>
       <c r="C129" s="1">
-        <v>9743289163.68</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D129" s="1">
-        <v>28157643007.23</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E129" s="1">
-        <v>48906083609.04</v>
+        <v>52378555427.81</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44104</v>
+        <v>44377</v>
       </c>
       <c r="B130" s="1">
-        <v>11506934819.12</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C130" s="1">
-        <v>9894562298.549999</v>
+        <v>11665454270.74</v>
       </c>
       <c r="D130" s="1">
-        <v>27927195382.94</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E130" s="1">
-        <v>49328692500.60999</v>
+        <v>53479161312.64</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44135</v>
+        <v>44408</v>
       </c>
       <c r="B131" s="1">
-        <v>11238592497.88</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C131" s="1">
-        <v>9700328704.629999</v>
+        <v>11826970568.32</v>
       </c>
       <c r="D131" s="1">
-        <v>27087133329.04</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E131" s="1">
-        <v>48026054531.55</v>
+        <v>54428748586.62</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44165</v>
+        <v>44439</v>
       </c>
       <c r="B132" s="1">
-        <v>11941273405.45</v>
+        <v>13707767980.07</v>
       </c>
       <c r="C132" s="1">
-        <v>10308274207.78</v>
+        <v>11980671064.48</v>
       </c>
       <c r="D132" s="1">
-        <v>28190455805.8</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E132" s="1">
-        <v>50440003419.03</v>
+        <v>54870336763.75999</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44196</v>
+        <v>44469</v>
       </c>
       <c r="B133" s="1">
-        <v>12756299620.31</v>
+        <v>13203547316.24</v>
       </c>
       <c r="C133" s="1">
-        <v>11053433125.61</v>
+        <v>11508277149.59</v>
       </c>
       <c r="D133" s="1">
-        <v>28978753211.54</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E133" s="1">
-        <v>52788485957.46</v>
+        <v>52901048832.99</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44227</v>
+        <v>44500</v>
       </c>
       <c r="B134" s="1">
-        <v>12558243414.61</v>
+        <v>13619689152.99</v>
       </c>
       <c r="C134" s="1">
-        <v>10900299506.57</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D134" s="1">
-        <v>28129460313.55</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E134" s="1">
-        <v>51588003234.73</v>
+        <v>54300766813.44</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44255</v>
+        <v>44530</v>
       </c>
       <c r="B135" s="1">
-        <v>12499730482.13</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C135" s="1">
-        <v>10872197550.37</v>
+        <v>12126631727.77</v>
       </c>
       <c r="D135" s="1">
-        <v>27127417795.49</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E135" s="1">
-        <v>50499345827.99</v>
+        <v>55089355967.77</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44286</v>
+        <v>44561</v>
       </c>
       <c r="B136" s="1">
-        <v>12629967215.83</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C136" s="1">
-        <v>10999754121.32</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D136" s="1">
-        <v>26762995183.16</v>
+        <v>29369048113</v>
       </c>
       <c r="E136" s="1">
-        <v>50392716520.31</v>
+        <v>55524868915.5</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44316</v>
+        <v>44592</v>
       </c>
       <c r="B137" s="1">
-        <v>12959077328.64</v>
+        <v>13228050556.07</v>
       </c>
       <c r="C137" s="1">
-        <v>11290601383.86</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D137" s="1">
-        <v>27451304576.21</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E137" s="1">
-        <v>51700983288.71</v>
+        <v>52791395368.22</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44347</v>
+        <v>44620</v>
       </c>
       <c r="B138" s="1">
-        <v>13155170030.18</v>
+        <v>12924236126.56</v>
       </c>
       <c r="C138" s="1">
-        <v>11478701164.89</v>
+        <v>11299022364.73</v>
       </c>
       <c r="D138" s="1">
-        <v>27744684232.74</v>
+        <v>27410006047.48</v>
       </c>
       <c r="E138" s="1">
-        <v>52378555427.81</v>
+        <v>51633264538.77</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44377</v>
+        <v>44651</v>
       </c>
       <c r="B139" s="1">
-        <v>13363308598.31</v>
+        <v>12662771414.75</v>
       </c>
       <c r="C139" s="1">
-        <v>11665454270.74</v>
+        <v>11031166589.13</v>
       </c>
       <c r="D139" s="1">
-        <v>28450398443.59</v>
+        <v>26576348005.31</v>
       </c>
       <c r="E139" s="1">
-        <v>53479161312.64</v>
+        <v>50270286009.19</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44408</v>
+        <v>44681</v>
       </c>
       <c r="B140" s="1">
-        <v>13542680564.47</v>
+        <v>11666882480.45</v>
       </c>
       <c r="C140" s="1">
-        <v>11826970568.32</v>
+        <v>10097030956.61</v>
       </c>
       <c r="D140" s="1">
-        <v>29059097453.83</v>
+        <v>24343752751.24</v>
       </c>
       <c r="E140" s="1">
-        <v>54428748586.62</v>
+        <v>46107666188.3</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44439</v>
+        <v>44712</v>
       </c>
       <c r="B141" s="1">
-        <v>13707767980.07</v>
+        <v>11506881422.34</v>
       </c>
       <c r="C141" s="1">
-        <v>11980671064.48</v>
+        <v>9932226543.780001</v>
       </c>
       <c r="D141" s="1">
-        <v>29181897719.21</v>
+        <v>24079986770.42</v>
       </c>
       <c r="E141" s="1">
-        <v>54870336763.75999</v>
+        <v>45519094736.53999</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44469</v>
+        <v>44742</v>
       </c>
       <c r="B142" s="1">
-        <v>13203547316.24</v>
+        <v>11065097064.85</v>
       </c>
       <c r="C142" s="1">
-        <v>11508277149.59</v>
+        <v>9580933722.4</v>
       </c>
       <c r="D142" s="1">
-        <v>28189224367.16</v>
+        <v>23101412415.21</v>
       </c>
       <c r="E142" s="1">
-        <v>52901048832.99</v>
+        <v>43747443202.46</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44500</v>
+        <v>44773</v>
       </c>
       <c r="B143" s="1">
-        <v>13619689152.99</v>
+        <v>11438117231.49</v>
       </c>
       <c r="C143" s="1">
-        <v>11898653834.64</v>
+        <v>9910543756.66</v>
       </c>
       <c r="D143" s="1">
-        <v>28782423825.81</v>
+        <v>23955770271.21</v>
       </c>
       <c r="E143" s="1">
-        <v>54300766813.44</v>
+        <v>45304431259.36</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44530</v>
+        <v>44804</v>
       </c>
       <c r="B144" s="1">
-        <v>13785068283.86</v>
+        <v>10953128495.09</v>
       </c>
       <c r="C144" s="1">
-        <v>12126631727.77</v>
+        <v>9473104540.35</v>
       </c>
       <c r="D144" s="1">
-        <v>29177655956.14</v>
+        <v>22811356969.86</v>
       </c>
       <c r="E144" s="1">
-        <v>55089355967.77</v>
+        <v>43237590005.3</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44561</v>
+        <v>44834</v>
       </c>
       <c r="B145" s="1">
-        <v>13933499672.22</v>
+        <v>11033073157.63</v>
       </c>
       <c r="C145" s="1">
-        <v>12222321130.28</v>
+        <v>9094083273.629999</v>
       </c>
       <c r="D145" s="1">
-        <v>29369048113</v>
+        <v>21389518149.24</v>
       </c>
       <c r="E145" s="1">
-        <v>55524868915.5</v>
+        <v>41516674580.5</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44592</v>
+        <v>44865</v>
       </c>
       <c r="B146" s="1">
-        <v>13228050556.07</v>
+        <v>10914128661.11</v>
       </c>
       <c r="C146" s="1">
-        <v>11573834300.94</v>
+        <v>8878139505.809999</v>
       </c>
       <c r="D146" s="1">
-        <v>27989510511.21</v>
+        <v>20920920146.98</v>
       </c>
       <c r="E146" s="1">
-        <v>52791395368.22</v>
+        <v>40713188313.89999</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>44620</v>
+        <v>44895</v>
       </c>
       <c r="B147" s="1">
-        <v>12924236126.56</v>
+        <v>11492873144.91</v>
       </c>
       <c r="C147" s="1">
-        <v>11299022364.73</v>
+        <v>9383611539.389999</v>
       </c>
       <c r="D147" s="1">
-        <v>27410006047.48</v>
+        <v>22151649345.54</v>
       </c>
       <c r="E147" s="1">
-        <v>51633264538.77</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="3">
-        <v>44651</v>
-      </c>
-      <c r="B148" s="1">
-        <v>12662771414.75</v>
-      </c>
-      <c r="C148" s="1">
-        <v>11031166589.13</v>
-      </c>
-      <c r="D148" s="1">
-        <v>26576348005.31</v>
-      </c>
-      <c r="E148" s="1">
-        <v>50270286009.19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="3">
-        <v>44681</v>
-      </c>
-      <c r="B149" s="1">
-        <v>11666882480.45</v>
-      </c>
-      <c r="C149" s="1">
-        <v>10097030956.61</v>
-      </c>
-      <c r="D149" s="1">
-        <v>24343752751.24</v>
-      </c>
-      <c r="E149" s="1">
-        <v>46107666188.3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="3">
-        <v>44712</v>
-      </c>
-      <c r="B150" s="1">
-        <v>11506881422.34</v>
-      </c>
-      <c r="C150" s="1">
-        <v>9932226543.780001</v>
-      </c>
-      <c r="D150" s="1">
-        <v>24079986770.42</v>
-      </c>
-      <c r="E150" s="1">
-        <v>45519094736.53999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="3">
-        <v>44742</v>
-      </c>
-      <c r="B151" s="1">
-        <v>11065097064.85</v>
-      </c>
-      <c r="C151" s="1">
-        <v>9580933722.4</v>
-      </c>
-      <c r="D151" s="1">
-        <v>23101412415.21</v>
-      </c>
-      <c r="E151" s="1">
-        <v>43747443202.46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="3">
-        <v>44773</v>
-      </c>
-      <c r="B152" s="1">
-        <v>11438117231.49</v>
-      </c>
-      <c r="C152" s="1">
-        <v>9910543756.66</v>
-      </c>
-      <c r="D152" s="1">
-        <v>23955770271.21</v>
-      </c>
-      <c r="E152" s="1">
-        <v>45304431259.36</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="3">
-        <v>44804</v>
-      </c>
-      <c r="B153" s="1">
-        <v>10953128495.09</v>
-      </c>
-      <c r="C153" s="1">
-        <v>9473104540.35</v>
-      </c>
-      <c r="D153" s="1">
-        <v>22811356969.86</v>
-      </c>
-      <c r="E153" s="1">
-        <v>43237590005.3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="3">
-        <v>44834</v>
-      </c>
-      <c r="B154" s="1">
-        <v>11033073157.63</v>
-      </c>
-      <c r="C154" s="1">
-        <v>9094083273.629999</v>
-      </c>
-      <c r="D154" s="1">
-        <v>21389518149.24</v>
-      </c>
-      <c r="E154" s="1">
-        <v>41516674580.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="3">
-        <v>44865</v>
-      </c>
-      <c r="B155" s="1">
-        <v>10914128661.11</v>
-      </c>
-      <c r="C155" s="1">
-        <v>8878139505.809999</v>
-      </c>
-      <c r="D155" s="1">
-        <v>20920920146.98</v>
-      </c>
-      <c r="E155" s="1">
-        <v>40713188313.89999</v>
+        <v>43028134029.84</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A155">
+  <conditionalFormatting sqref="A1:A147">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E155">
+  <conditionalFormatting sqref="B2:E147">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
@@ -3078,7 +2942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM155"/>
+  <dimension ref="A1:ALM147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3106,2629 +2970,2493 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40209</v>
+        <v>40482</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.012907</v>
+        <v>0.009824000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.013845</v>
+        <v>0.009851</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.013906</v>
+        <v>0.009762</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.013841</v>
+        <v>0.009781</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40237</v>
+        <v>40512</v>
       </c>
       <c r="B3" s="1">
-        <v>0.012753</v>
+        <v>-0.006762000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>0.013375</v>
+        <v>-0.005979</v>
       </c>
       <c r="D3" s="1">
-        <v>0.013596</v>
+        <v>-0.006311</v>
       </c>
       <c r="E3" s="1">
-        <v>0.013512</v>
+        <v>-0.006307</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40268</v>
+        <v>40543</v>
       </c>
       <c r="B4" s="1">
-        <v>0.037112</v>
+        <v>0.029284</v>
       </c>
       <c r="C4" s="1">
-        <v>0.039345</v>
+        <v>0.029312</v>
       </c>
       <c r="D4" s="1">
-        <v>0.039374</v>
+        <v>0.029354</v>
       </c>
       <c r="E4" s="1">
-        <v>0.039192</v>
+        <v>0.029341</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40298</v>
+        <v>40574</v>
       </c>
       <c r="B5" s="1">
-        <v>0.020455</v>
+        <v>-0.00115</v>
       </c>
       <c r="C5" s="1">
-        <v>0.021368</v>
+        <v>-0.001119</v>
       </c>
       <c r="D5" s="1">
-        <v>0.021406</v>
+        <v>-0.001115</v>
       </c>
       <c r="E5" s="1">
-        <v>0.021313</v>
+        <v>-0.001121</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40329</v>
+        <v>40602</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.042701</v>
+        <v>0.023291</v>
       </c>
       <c r="C6" s="1">
-        <v>-0.042682</v>
+        <v>0.023317</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.04269199999999999</v>
+        <v>0.023308</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.042691</v>
+        <v>0.023307</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40359</v>
+        <v>40633</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.010431</v>
+        <v>0.002493</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.010424</v>
+        <v>0.002493</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.010512</v>
+        <v>0.002494</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.010493</v>
+        <v>0.002494</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40390</v>
+        <v>40663</v>
       </c>
       <c r="B8" s="1">
-        <v>0.04159</v>
+        <v>0.030082</v>
       </c>
       <c r="C8" s="1">
-        <v>0.043416</v>
+        <v>0.030134</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04342500000000001</v>
+        <v>0.030134</v>
       </c>
       <c r="E8" s="1">
-        <v>0.043244</v>
+        <v>0.030126</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40421</v>
+        <v>40694</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001548</v>
+        <v>0.006251</v>
       </c>
       <c r="C9" s="1">
-        <v>0.001558</v>
+        <v>0.006252</v>
       </c>
       <c r="D9" s="1">
-        <v>0.00155</v>
+        <v>0.006251</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001551</v>
+        <v>0.006251</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40451</v>
+        <v>40724</v>
       </c>
       <c r="B10" s="1">
-        <v>0.04532</v>
+        <v>-0.016394</v>
       </c>
       <c r="C10" s="1">
-        <v>0.045333</v>
+        <v>-0.016393</v>
       </c>
       <c r="D10" s="1">
-        <v>0.045331</v>
+        <v>-0.016388</v>
       </c>
       <c r="E10" s="1">
-        <v>0.04533</v>
+        <v>-0.016389</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40482</v>
+        <v>40755</v>
       </c>
       <c r="B11" s="1">
-        <v>0.009824000000000001</v>
+        <v>0.010779</v>
       </c>
       <c r="C11" s="1">
-        <v>0.009851</v>
+        <v>0.010779</v>
       </c>
       <c r="D11" s="1">
-        <v>0.009762</v>
+        <v>0.010779</v>
       </c>
       <c r="E11" s="1">
-        <v>0.009781</v>
+        <v>0.010779</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40512</v>
+        <v>40786</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.006762000000000001</v>
+        <v>-0.006495</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.005979</v>
+        <v>-0.006492</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.006311</v>
+        <v>-0.006488000000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006307</v>
+        <v>-0.00649</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40543</v>
+        <v>40816</v>
       </c>
       <c r="B13" s="1">
-        <v>0.029284</v>
+        <v>0.001202</v>
       </c>
       <c r="C13" s="1">
-        <v>0.029312</v>
+        <v>0.001203</v>
       </c>
       <c r="D13" s="1">
-        <v>0.029354</v>
+        <v>0.001203</v>
       </c>
       <c r="E13" s="1">
-        <v>0.029341</v>
+        <v>0.001203</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40574</v>
+        <v>40847</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.00115</v>
+        <v>0.035731</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.001119</v>
+        <v>0.035736</v>
       </c>
       <c r="D14" s="1">
-        <v>-0.001115</v>
+        <v>0.03573</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001121</v>
+        <v>0.035731</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40602</v>
+        <v>40877</v>
       </c>
       <c r="B15" s="1">
-        <v>0.023291</v>
+        <v>-0.006834</v>
       </c>
       <c r="C15" s="1">
-        <v>0.023317</v>
+        <v>-0.006834</v>
       </c>
       <c r="D15" s="1">
-        <v>0.023308</v>
+        <v>-0.006832</v>
       </c>
       <c r="E15" s="1">
-        <v>0.023307</v>
+        <v>-0.006832</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40633</v>
+        <v>40908</v>
       </c>
       <c r="B16" s="1">
-        <v>0.002493</v>
+        <v>0.011627</v>
       </c>
       <c r="C16" s="1">
-        <v>0.002493</v>
+        <v>0.011629</v>
       </c>
       <c r="D16" s="1">
-        <v>0.002494</v>
+        <v>0.011629</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002494</v>
+        <v>0.011629</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40663</v>
+        <v>40939</v>
       </c>
       <c r="B17" s="1">
-        <v>0.030082</v>
+        <v>0.027751</v>
       </c>
       <c r="C17" s="1">
-        <v>0.030134</v>
+        <v>0.027758</v>
       </c>
       <c r="D17" s="1">
-        <v>0.030134</v>
+        <v>0.027751</v>
       </c>
       <c r="E17" s="1">
-        <v>0.030126</v>
+        <v>0.027752</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40694</v>
+        <v>40968</v>
       </c>
       <c r="B18" s="1">
-        <v>0.006251</v>
+        <v>0.018401</v>
       </c>
       <c r="C18" s="1">
-        <v>0.006252</v>
+        <v>0.018387</v>
       </c>
       <c r="D18" s="1">
-        <v>0.006251</v>
+        <v>0.018407</v>
       </c>
       <c r="E18" s="1">
-        <v>0.006251</v>
+        <v>0.018403</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40724</v>
+        <v>40999</v>
       </c>
       <c r="B19" s="1">
-        <v>-0.016394</v>
+        <v>-0.003827</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.016393</v>
+        <v>-0.00384</v>
       </c>
       <c r="D19" s="1">
-        <v>-0.016388</v>
+        <v>-0.00384</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.016389</v>
+        <v>-0.003838</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>40755</v>
+        <v>41029</v>
       </c>
       <c r="B20" s="1">
-        <v>0.010779</v>
+        <v>0.010169</v>
       </c>
       <c r="C20" s="1">
-        <v>0.010779</v>
+        <v>0.010171</v>
       </c>
       <c r="D20" s="1">
-        <v>0.010779</v>
+        <v>0.010169</v>
       </c>
       <c r="E20" s="1">
-        <v>0.010779</v>
+        <v>0.010169</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>40786</v>
+        <v>41060</v>
       </c>
       <c r="B21" s="1">
-        <v>-0.006495</v>
+        <v>-0.007147</v>
       </c>
       <c r="C21" s="1">
-        <v>-0.006492</v>
+        <v>-0.007141999999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.006488000000000001</v>
+        <v>-0.007113</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.00649</v>
+        <v>-0.007122000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>40816</v>
+        <v>41090</v>
       </c>
       <c r="B22" s="1">
-        <v>0.001202</v>
+        <v>0.013617</v>
       </c>
       <c r="C22" s="1">
-        <v>0.001203</v>
+        <v>0.013665</v>
       </c>
       <c r="D22" s="1">
-        <v>0.001203</v>
+        <v>0.013662</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001203</v>
+        <v>0.013655</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>40847</v>
+        <v>41121</v>
       </c>
       <c r="B23" s="1">
-        <v>0.035731</v>
+        <v>0.022428</v>
       </c>
       <c r="C23" s="1">
-        <v>0.035736</v>
+        <v>0.022445</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03573</v>
+        <v>0.022415</v>
       </c>
       <c r="E23" s="1">
-        <v>0.035731</v>
+        <v>0.022421</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>40877</v>
+        <v>41152</v>
       </c>
       <c r="B24" s="1">
-        <v>-0.006834</v>
+        <v>0.006546</v>
       </c>
       <c r="C24" s="1">
-        <v>-0.006834</v>
+        <v>0.006548000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.006832</v>
+        <v>0.006546</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.006832</v>
+        <v>0.006546</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>40908</v>
+        <v>41182</v>
       </c>
       <c r="B25" s="1">
-        <v>0.011627</v>
+        <v>0.008595999999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>0.011629</v>
+        <v>0.008598</v>
       </c>
       <c r="D25" s="1">
-        <v>0.011629</v>
+        <v>0.008597</v>
       </c>
       <c r="E25" s="1">
-        <v>0.011629</v>
+        <v>0.008597</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>40939</v>
+        <v>41213</v>
       </c>
       <c r="B26" s="1">
-        <v>0.027751</v>
+        <v>0.001504</v>
       </c>
       <c r="C26" s="1">
-        <v>0.027758</v>
+        <v>0.001506</v>
       </c>
       <c r="D26" s="1">
-        <v>0.027751</v>
+        <v>0.001505</v>
       </c>
       <c r="E26" s="1">
-        <v>0.027752</v>
+        <v>0.001505</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>40968</v>
+        <v>41243</v>
       </c>
       <c r="B27" s="1">
-        <v>0.018401</v>
+        <v>0.007569</v>
       </c>
       <c r="C27" s="1">
-        <v>0.018387</v>
+        <v>0.007571</v>
       </c>
       <c r="D27" s="1">
-        <v>0.018407</v>
+        <v>0.007571</v>
       </c>
       <c r="E27" s="1">
-        <v>0.018403</v>
+        <v>0.007571</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>40999</v>
+        <v>41274</v>
       </c>
       <c r="B28" s="1">
-        <v>-0.003827</v>
+        <v>0.008156999999999999</v>
       </c>
       <c r="C28" s="1">
-        <v>-0.00384</v>
+        <v>0.008168999999999999</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.00384</v>
+        <v>0.008165</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003838</v>
+        <v>0.008163999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41029</v>
+        <v>41305</v>
       </c>
       <c r="B29" s="1">
-        <v>0.010169</v>
+        <v>0.013471</v>
       </c>
       <c r="C29" s="1">
-        <v>0.010171</v>
+        <v>0.013571</v>
       </c>
       <c r="D29" s="1">
-        <v>0.010169</v>
+        <v>0.013456</v>
       </c>
       <c r="E29" s="1">
-        <v>0.010169</v>
+        <v>0.013479</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41060</v>
+        <v>41333</v>
       </c>
       <c r="B30" s="1">
-        <v>-0.007147</v>
+        <v>0.007465</v>
       </c>
       <c r="C30" s="1">
-        <v>-0.007141999999999999</v>
+        <v>0.007458</v>
       </c>
       <c r="D30" s="1">
-        <v>-0.007113</v>
+        <v>0.00747</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.007122000000000001</v>
+        <v>0.007467000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41090</v>
+        <v>41364</v>
       </c>
       <c r="B31" s="1">
-        <v>0.013617</v>
+        <v>0.015025</v>
       </c>
       <c r="C31" s="1">
-        <v>0.013665</v>
+        <v>0.015027</v>
       </c>
       <c r="D31" s="1">
-        <v>0.013662</v>
+        <v>0.015024</v>
       </c>
       <c r="E31" s="1">
-        <v>0.013655</v>
+        <v>0.015024</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41121</v>
+        <v>41394</v>
       </c>
       <c r="B32" s="1">
-        <v>0.022428</v>
+        <v>0.025087</v>
       </c>
       <c r="C32" s="1">
-        <v>0.022445</v>
+        <v>0.025091</v>
       </c>
       <c r="D32" s="1">
-        <v>0.022415</v>
+        <v>0.025086</v>
       </c>
       <c r="E32" s="1">
-        <v>0.022421</v>
+        <v>0.025087</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41152</v>
+        <v>41425</v>
       </c>
       <c r="B33" s="1">
-        <v>0.006546</v>
+        <v>-0.016671</v>
       </c>
       <c r="C33" s="1">
-        <v>0.006548000000000001</v>
+        <v>-0.016673</v>
       </c>
       <c r="D33" s="1">
-        <v>0.006546</v>
+        <v>-0.01667</v>
       </c>
       <c r="E33" s="1">
-        <v>0.006546</v>
+        <v>-0.01667</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41182</v>
+        <v>41455</v>
       </c>
       <c r="B34" s="1">
-        <v>0.008595999999999999</v>
+        <v>-0.018163</v>
       </c>
       <c r="C34" s="1">
-        <v>0.008598</v>
+        <v>-0.018165</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008597</v>
+        <v>-0.01816</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008597</v>
+        <v>-0.018162</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41213</v>
+        <v>41486</v>
       </c>
       <c r="B35" s="1">
-        <v>0.001504</v>
+        <v>0.014254</v>
       </c>
       <c r="C35" s="1">
-        <v>0.001506</v>
+        <v>0.014257</v>
       </c>
       <c r="D35" s="1">
-        <v>0.001505</v>
+        <v>0.014252</v>
       </c>
       <c r="E35" s="1">
-        <v>0.001505</v>
+        <v>0.014253</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41243</v>
+        <v>41517</v>
       </c>
       <c r="B36" s="1">
-        <v>0.007569</v>
+        <v>-0.011051</v>
       </c>
       <c r="C36" s="1">
-        <v>0.007571</v>
+        <v>-0.011022</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007571</v>
+        <v>-0.011036</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007571</v>
+        <v>-0.011036</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41274</v>
+        <v>41547</v>
       </c>
       <c r="B37" s="1">
-        <v>0.008156999999999999</v>
+        <v>0.020117</v>
       </c>
       <c r="C37" s="1">
-        <v>0.008168999999999999</v>
+        <v>0.02012</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008165</v>
+        <v>0.020114</v>
       </c>
       <c r="E37" s="1">
-        <v>0.008163999999999999</v>
+        <v>0.020116</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41305</v>
+        <v>41578</v>
       </c>
       <c r="B38" s="1">
-        <v>0.013471</v>
+        <v>0.02223</v>
       </c>
       <c r="C38" s="1">
-        <v>0.013571</v>
+        <v>0.022236</v>
       </c>
       <c r="D38" s="1">
-        <v>0.013456</v>
+        <v>0.022227</v>
       </c>
       <c r="E38" s="1">
-        <v>0.013479</v>
+        <v>0.022229</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41333</v>
+        <v>41608</v>
       </c>
       <c r="B39" s="1">
-        <v>0.007465</v>
+        <v>0.001657</v>
       </c>
       <c r="C39" s="1">
-        <v>0.007458</v>
+        <v>0.001657</v>
       </c>
       <c r="D39" s="1">
-        <v>0.00747</v>
+        <v>0.00166</v>
       </c>
       <c r="E39" s="1">
-        <v>0.007467000000000001</v>
+        <v>0.001659</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41364</v>
+        <v>41639</v>
       </c>
       <c r="B40" s="1">
-        <v>0.015025</v>
+        <v>0.007311</v>
       </c>
       <c r="C40" s="1">
-        <v>0.015027</v>
+        <v>0.007312</v>
       </c>
       <c r="D40" s="1">
-        <v>0.015024</v>
+        <v>0.00731</v>
       </c>
       <c r="E40" s="1">
-        <v>0.015024</v>
+        <v>0.00731</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41394</v>
+        <v>41670</v>
       </c>
       <c r="B41" s="1">
-        <v>0.025087</v>
+        <v>0.001869</v>
       </c>
       <c r="C41" s="1">
-        <v>0.025091</v>
+        <v>0.001871</v>
       </c>
       <c r="D41" s="1">
-        <v>0.025086</v>
+        <v>0.001871</v>
       </c>
       <c r="E41" s="1">
-        <v>0.025087</v>
+        <v>0.001871</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41425</v>
+        <v>41698</v>
       </c>
       <c r="B42" s="1">
-        <v>-0.016671</v>
+        <v>0.022899</v>
       </c>
       <c r="C42" s="1">
-        <v>-0.016673</v>
+        <v>0.02297</v>
       </c>
       <c r="D42" s="1">
-        <v>-0.01667</v>
+        <v>0.022973</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01667</v>
+        <v>0.02296</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41455</v>
+        <v>41729</v>
       </c>
       <c r="B43" s="1">
-        <v>-0.018163</v>
+        <v>0.007581</v>
       </c>
       <c r="C43" s="1">
-        <v>-0.018165</v>
+        <v>0.007582</v>
       </c>
       <c r="D43" s="1">
-        <v>-0.01816</v>
+        <v>0.007581</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.018162</v>
+        <v>0.007581</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41486</v>
+        <v>41759</v>
       </c>
       <c r="B44" s="1">
-        <v>0.014254</v>
+        <v>0.002559</v>
       </c>
       <c r="C44" s="1">
-        <v>0.014257</v>
+        <v>0.002559</v>
       </c>
       <c r="D44" s="1">
-        <v>0.014252</v>
+        <v>0.002565</v>
       </c>
       <c r="E44" s="1">
-        <v>0.014253</v>
+        <v>0.002563</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41517</v>
+        <v>41790</v>
       </c>
       <c r="B45" s="1">
-        <v>-0.011051</v>
+        <v>0.018616</v>
       </c>
       <c r="C45" s="1">
-        <v>-0.011022</v>
+        <v>0.018622</v>
       </c>
       <c r="D45" s="1">
-        <v>-0.011036</v>
+        <v>0.018616</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.011036</v>
+        <v>0.018617</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41547</v>
+        <v>41820</v>
       </c>
       <c r="B46" s="1">
-        <v>0.020117</v>
+        <v>0.007592</v>
       </c>
       <c r="C46" s="1">
-        <v>0.02012</v>
+        <v>0.007592</v>
       </c>
       <c r="D46" s="1">
-        <v>0.020114</v>
+        <v>0.00759</v>
       </c>
       <c r="E46" s="1">
-        <v>0.020116</v>
+        <v>0.007591</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41578</v>
+        <v>41851</v>
       </c>
       <c r="B47" s="1">
-        <v>0.02223</v>
+        <v>-0.003537</v>
       </c>
       <c r="C47" s="1">
-        <v>0.022236</v>
+        <v>-0.003536</v>
       </c>
       <c r="D47" s="1">
-        <v>0.022227</v>
+        <v>-0.003534</v>
       </c>
       <c r="E47" s="1">
-        <v>0.022229</v>
+        <v>-0.003535</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41608</v>
+        <v>41882</v>
       </c>
       <c r="B48" s="1">
-        <v>0.001657</v>
+        <v>0.024396</v>
       </c>
       <c r="C48" s="1">
-        <v>0.001657</v>
+        <v>0.024396</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00166</v>
+        <v>0.0244</v>
       </c>
       <c r="E48" s="1">
-        <v>0.001659</v>
+        <v>0.024399</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41639</v>
+        <v>41912</v>
       </c>
       <c r="B49" s="1">
-        <v>0.007311</v>
+        <v>-0.018814</v>
       </c>
       <c r="C49" s="1">
-        <v>0.007312</v>
+        <v>-0.018804</v>
       </c>
       <c r="D49" s="1">
-        <v>0.00731</v>
+        <v>-0.018789</v>
       </c>
       <c r="E49" s="1">
-        <v>0.00731</v>
+        <v>-0.018796</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41670</v>
+        <v>41943</v>
       </c>
       <c r="B50" s="1">
-        <v>0.001869</v>
+        <v>0.012246</v>
       </c>
       <c r="C50" s="1">
-        <v>0.001871</v>
+        <v>0.012244</v>
       </c>
       <c r="D50" s="1">
-        <v>0.001871</v>
+        <v>0.012254</v>
       </c>
       <c r="E50" s="1">
-        <v>0.001871</v>
+        <v>0.012251</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41698</v>
+        <v>41973</v>
       </c>
       <c r="B51" s="1">
-        <v>0.022899</v>
+        <v>0.016811</v>
       </c>
       <c r="C51" s="1">
-        <v>0.02297</v>
+        <v>0.01682</v>
       </c>
       <c r="D51" s="1">
-        <v>0.022973</v>
+        <v>0.01682</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02296</v>
+        <v>0.016818</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>41729</v>
+        <v>42004</v>
       </c>
       <c r="B52" s="1">
-        <v>0.007581</v>
+        <v>0.002068</v>
       </c>
       <c r="C52" s="1">
-        <v>0.007582</v>
+        <v>0.002076</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007581</v>
+        <v>0.00208</v>
       </c>
       <c r="E52" s="1">
-        <v>0.007581</v>
+        <v>0.002077</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>41759</v>
+        <v>42035</v>
       </c>
       <c r="B53" s="1">
-        <v>0.002559</v>
+        <v>0.023362</v>
       </c>
       <c r="C53" s="1">
-        <v>0.002559</v>
+        <v>0.023357</v>
       </c>
       <c r="D53" s="1">
-        <v>0.002565</v>
+        <v>0.02335</v>
       </c>
       <c r="E53" s="1">
-        <v>0.002563</v>
+        <v>0.023353</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>41790</v>
+        <v>42063</v>
       </c>
       <c r="B54" s="1">
-        <v>0.018616</v>
+        <v>0.007672</v>
       </c>
       <c r="C54" s="1">
-        <v>0.018622</v>
+        <v>0.007672</v>
       </c>
       <c r="D54" s="1">
-        <v>0.018616</v>
+        <v>0.007671</v>
       </c>
       <c r="E54" s="1">
-        <v>0.018617</v>
+        <v>0.007671</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>41820</v>
+        <v>42094</v>
       </c>
       <c r="B55" s="1">
-        <v>0.007592</v>
+        <v>0.000725</v>
       </c>
       <c r="C55" s="1">
-        <v>0.007592</v>
+        <v>0.000731</v>
       </c>
       <c r="D55" s="1">
-        <v>0.00759</v>
+        <v>0.000725</v>
       </c>
       <c r="E55" s="1">
-        <v>0.007591</v>
+        <v>0.000726</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>41851</v>
+        <v>42124</v>
       </c>
       <c r="B56" s="1">
-        <v>-0.003537</v>
+        <v>0.000483</v>
       </c>
       <c r="C56" s="1">
-        <v>-0.003536</v>
+        <v>0.000483</v>
       </c>
       <c r="D56" s="1">
-        <v>-0.003534</v>
+        <v>0.000483</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.003535</v>
+        <v>0.000483</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>41882</v>
+        <v>42155</v>
       </c>
       <c r="B57" s="1">
-        <v>0.024396</v>
+        <v>-0.001447</v>
       </c>
       <c r="C57" s="1">
-        <v>0.024396</v>
+        <v>-0.001447</v>
       </c>
       <c r="D57" s="1">
-        <v>0.0244</v>
+        <v>-0.001447</v>
       </c>
       <c r="E57" s="1">
-        <v>0.024399</v>
+        <v>-0.001447</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>41912</v>
+        <v>42185</v>
       </c>
       <c r="B58" s="1">
-        <v>-0.018814</v>
+        <v>-0.019129</v>
       </c>
       <c r="C58" s="1">
-        <v>-0.018804</v>
+        <v>-0.019129</v>
       </c>
       <c r="D58" s="1">
-        <v>-0.018789</v>
+        <v>-0.019127</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.018796</v>
+        <v>-0.019128</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>41943</v>
+        <v>42216</v>
       </c>
       <c r="B59" s="1">
-        <v>0.012246</v>
+        <v>0.010715</v>
       </c>
       <c r="C59" s="1">
-        <v>0.012244</v>
+        <v>0.010715</v>
       </c>
       <c r="D59" s="1">
-        <v>0.012254</v>
+        <v>0.010714</v>
       </c>
       <c r="E59" s="1">
-        <v>0.012251</v>
+        <v>0.010714</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>41973</v>
+        <v>42247</v>
       </c>
       <c r="B60" s="1">
-        <v>0.016811</v>
+        <v>-0.027128</v>
       </c>
       <c r="C60" s="1">
-        <v>0.01682</v>
+        <v>-0.027126</v>
       </c>
       <c r="D60" s="1">
-        <v>0.01682</v>
+        <v>-0.027125</v>
       </c>
       <c r="E60" s="1">
-        <v>0.016818</v>
+        <v>-0.027126</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42004</v>
+        <v>42277</v>
       </c>
       <c r="B61" s="1">
-        <v>0.002068</v>
+        <v>-0.00876</v>
       </c>
       <c r="C61" s="1">
-        <v>0.002076</v>
+        <v>-0.00876</v>
       </c>
       <c r="D61" s="1">
-        <v>0.00208</v>
+        <v>-0.008758999999999999</v>
       </c>
       <c r="E61" s="1">
-        <v>0.002077</v>
+        <v>-0.00876</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42035</v>
+        <v>42308</v>
       </c>
       <c r="B62" s="1">
-        <v>0.023362</v>
+        <v>0.028753</v>
       </c>
       <c r="C62" s="1">
-        <v>0.023357</v>
+        <v>0.028716</v>
       </c>
       <c r="D62" s="1">
-        <v>0.02335</v>
+        <v>0.028798</v>
       </c>
       <c r="E62" s="1">
-        <v>0.023353</v>
+        <v>0.028775</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42063</v>
+        <v>42338</v>
       </c>
       <c r="B63" s="1">
-        <v>0.007672</v>
+        <v>-0.003828</v>
       </c>
       <c r="C63" s="1">
-        <v>0.007672</v>
+        <v>-0.003819</v>
       </c>
       <c r="D63" s="1">
-        <v>0.007671</v>
+        <v>-0.003807</v>
       </c>
       <c r="E63" s="1">
-        <v>0.007671</v>
+        <v>-0.003813</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42094</v>
+        <v>42369</v>
       </c>
       <c r="B64" s="1">
-        <v>0.000725</v>
+        <v>-0.008187</v>
       </c>
       <c r="C64" s="1">
-        <v>0.000731</v>
+        <v>-0.008187</v>
       </c>
       <c r="D64" s="1">
-        <v>0.000725</v>
+        <v>-0.008184</v>
       </c>
       <c r="E64" s="1">
-        <v>0.000726</v>
+        <v>-0.008185</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42124</v>
+        <v>42400</v>
       </c>
       <c r="B65" s="1">
-        <v>0.000483</v>
+        <v>-0.014827</v>
       </c>
       <c r="C65" s="1">
-        <v>0.000483</v>
+        <v>-0.01483</v>
       </c>
       <c r="D65" s="1">
-        <v>0.000483</v>
+        <v>-0.014826</v>
       </c>
       <c r="E65" s="1">
-        <v>0.000483</v>
+        <v>-0.014827</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42155</v>
+        <v>42429</v>
       </c>
       <c r="B66" s="1">
-        <v>-0.001447</v>
+        <v>0.007148</v>
       </c>
       <c r="C66" s="1">
-        <v>-0.001447</v>
+        <v>0.007148</v>
       </c>
       <c r="D66" s="1">
-        <v>-0.001447</v>
+        <v>0.007150999999999999</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.001447</v>
+        <v>0.00715</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42185</v>
+        <v>42460</v>
       </c>
       <c r="B67" s="1">
-        <v>-0.019129</v>
+        <v>0.034737</v>
       </c>
       <c r="C67" s="1">
-        <v>-0.019129</v>
+        <v>0.034736</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.019127</v>
+        <v>0.034733</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.019128</v>
+        <v>0.034734</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42216</v>
+        <v>42490</v>
       </c>
       <c r="B68" s="1">
-        <v>0.010715</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="C68" s="1">
-        <v>0.010715</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="D68" s="1">
-        <v>0.010714</v>
+        <v>0.009242</v>
       </c>
       <c r="E68" s="1">
-        <v>0.010714</v>
+        <v>0.009242999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42247</v>
+        <v>42521</v>
       </c>
       <c r="B69" s="1">
-        <v>-0.027128</v>
+        <v>0.001881</v>
       </c>
       <c r="C69" s="1">
-        <v>-0.027126</v>
+        <v>0.001883</v>
       </c>
       <c r="D69" s="1">
-        <v>-0.027125</v>
+        <v>0.001884</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.027126</v>
+        <v>0.001883</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42277</v>
+        <v>42551</v>
       </c>
       <c r="B70" s="1">
-        <v>-0.00876</v>
+        <v>0.010067</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.00876</v>
+        <v>0.010098</v>
       </c>
       <c r="D70" s="1">
-        <v>-0.008758999999999999</v>
+        <v>0.01013</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.00876</v>
+        <v>0.010112</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42308</v>
+        <v>42582</v>
       </c>
       <c r="B71" s="1">
-        <v>0.028753</v>
+        <v>0.021267</v>
       </c>
       <c r="C71" s="1">
-        <v>0.028716</v>
+        <v>0.021267</v>
       </c>
       <c r="D71" s="1">
-        <v>0.028798</v>
+        <v>0.021264</v>
       </c>
       <c r="E71" s="1">
-        <v>0.028775</v>
+        <v>0.021265</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42338</v>
+        <v>42613</v>
       </c>
       <c r="B72" s="1">
-        <v>-0.003828</v>
+        <v>0.001143</v>
       </c>
       <c r="C72" s="1">
-        <v>-0.003819</v>
+        <v>0.001146</v>
       </c>
       <c r="D72" s="1">
-        <v>-0.003807</v>
+        <v>0.001146</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.003813</v>
+        <v>0.001145</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42369</v>
+        <v>42643</v>
       </c>
       <c r="B73" s="1">
-        <v>-0.008187</v>
+        <v>0.00083</v>
       </c>
       <c r="C73" s="1">
-        <v>-0.008187</v>
+        <v>0.0008309999999999999</v>
       </c>
       <c r="D73" s="1">
-        <v>-0.008184</v>
+        <v>0.00083</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.008185</v>
+        <v>0.00083</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42400</v>
+        <v>42674</v>
       </c>
       <c r="B74" s="1">
-        <v>-0.014827</v>
+        <v>-0.011784</v>
       </c>
       <c r="C74" s="1">
-        <v>-0.01483</v>
+        <v>-0.011773</v>
       </c>
       <c r="D74" s="1">
-        <v>-0.014826</v>
+        <v>-0.011778</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.014827</v>
+        <v>-0.011778</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42429</v>
+        <v>42704</v>
       </c>
       <c r="B75" s="1">
-        <v>0.007148</v>
+        <v>-0.011504</v>
       </c>
       <c r="C75" s="1">
-        <v>0.007148</v>
+        <v>-0.011503</v>
       </c>
       <c r="D75" s="1">
-        <v>0.007150999999999999</v>
+        <v>-0.011501</v>
       </c>
       <c r="E75" s="1">
-        <v>0.00715</v>
+        <v>-0.011502</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42460</v>
+        <v>42735</v>
       </c>
       <c r="B76" s="1">
-        <v>0.034737</v>
+        <v>0.010278</v>
       </c>
       <c r="C76" s="1">
-        <v>0.034736</v>
+        <v>0.010006</v>
       </c>
       <c r="D76" s="1">
-        <v>0.034733</v>
+        <v>0.010143</v>
       </c>
       <c r="E76" s="1">
-        <v>0.034734</v>
+        <v>0.010141</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42490</v>
+        <v>42766</v>
       </c>
       <c r="B77" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.01169</v>
       </c>
       <c r="C77" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.011614</v>
       </c>
       <c r="D77" s="1">
-        <v>0.009242</v>
+        <v>0.011658</v>
       </c>
       <c r="E77" s="1">
-        <v>0.009242999999999999</v>
+        <v>0.011655</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42521</v>
+        <v>42794</v>
       </c>
       <c r="B78" s="1">
-        <v>0.001881</v>
+        <v>0.017668</v>
       </c>
       <c r="C78" s="1">
-        <v>0.001883</v>
+        <v>0.017672</v>
       </c>
       <c r="D78" s="1">
-        <v>0.001884</v>
+        <v>0.017677</v>
       </c>
       <c r="E78" s="1">
-        <v>0.001883</v>
+        <v>0.017674</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42551</v>
+        <v>42825</v>
       </c>
       <c r="B79" s="1">
-        <v>0.010067</v>
+        <v>0.005195</v>
       </c>
       <c r="C79" s="1">
-        <v>0.010098</v>
+        <v>0.005195</v>
       </c>
       <c r="D79" s="1">
-        <v>0.01013</v>
+        <v>0.005195</v>
       </c>
       <c r="E79" s="1">
-        <v>0.010112</v>
+        <v>0.005195</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42582</v>
+        <v>42855</v>
       </c>
       <c r="B80" s="1">
-        <v>0.021267</v>
+        <v>0.013597</v>
       </c>
       <c r="C80" s="1">
-        <v>0.021267</v>
+        <v>0.0136</v>
       </c>
       <c r="D80" s="1">
-        <v>0.021264</v>
+        <v>0.013598</v>
       </c>
       <c r="E80" s="1">
-        <v>0.021265</v>
+        <v>0.013598</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42613</v>
+        <v>42886</v>
       </c>
       <c r="B81" s="1">
-        <v>0.001143</v>
+        <v>0.015261</v>
       </c>
       <c r="C81" s="1">
-        <v>0.001146</v>
+        <v>0.015261</v>
       </c>
       <c r="D81" s="1">
-        <v>0.001146</v>
+        <v>0.015262</v>
       </c>
       <c r="E81" s="1">
-        <v>0.001145</v>
+        <v>0.015262</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42643</v>
+        <v>42916</v>
       </c>
       <c r="B82" s="1">
-        <v>0.00083</v>
+        <v>0.005246</v>
       </c>
       <c r="C82" s="1">
-        <v>0.0008309999999999999</v>
+        <v>0.005249</v>
       </c>
       <c r="D82" s="1">
-        <v>0.00083</v>
+        <v>0.005264</v>
       </c>
       <c r="E82" s="1">
-        <v>0.00083</v>
+        <v>0.005257</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42674</v>
+        <v>42947</v>
       </c>
       <c r="B83" s="1">
-        <v>-0.011784</v>
+        <v>0.011307</v>
       </c>
       <c r="C83" s="1">
-        <v>-0.011773</v>
+        <v>0.011307</v>
       </c>
       <c r="D83" s="1">
-        <v>-0.011778</v>
+        <v>0.011306</v>
       </c>
       <c r="E83" s="1">
-        <v>-0.011778</v>
+        <v>0.011307</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42704</v>
+        <v>42978</v>
       </c>
       <c r="B84" s="1">
-        <v>-0.011504</v>
+        <v>0.010725</v>
       </c>
       <c r="C84" s="1">
-        <v>-0.011503</v>
+        <v>0.010724</v>
       </c>
       <c r="D84" s="1">
-        <v>-0.011501</v>
+        <v>0.010725</v>
       </c>
       <c r="E84" s="1">
-        <v>-0.011502</v>
+        <v>0.010725</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>42735</v>
+        <v>43008</v>
       </c>
       <c r="B85" s="1">
-        <v>0.010278</v>
+        <v>0.008107999999999999</v>
       </c>
       <c r="C85" s="1">
-        <v>0.010006</v>
+        <v>0.008107</v>
       </c>
       <c r="D85" s="1">
-        <v>0.010143</v>
+        <v>0.008107</v>
       </c>
       <c r="E85" s="1">
-        <v>0.010141</v>
+        <v>0.008107</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>42766</v>
+        <v>43039</v>
       </c>
       <c r="B86" s="1">
-        <v>0.01169</v>
+        <v>0.011965</v>
       </c>
       <c r="C86" s="1">
-        <v>0.011614</v>
+        <v>0.011963</v>
       </c>
       <c r="D86" s="1">
-        <v>0.011658</v>
+        <v>0.011963</v>
       </c>
       <c r="E86" s="1">
-        <v>0.011655</v>
+        <v>0.011964</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>42794</v>
+        <v>43069</v>
       </c>
       <c r="B87" s="1">
-        <v>0.017668</v>
+        <v>0.013354</v>
       </c>
       <c r="C87" s="1">
-        <v>0.017672</v>
+        <v>0.013354</v>
       </c>
       <c r="D87" s="1">
-        <v>0.017677</v>
+        <v>0.013356</v>
       </c>
       <c r="E87" s="1">
-        <v>0.017674</v>
+        <v>0.013355</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>42825</v>
+        <v>43100</v>
       </c>
       <c r="B88" s="1">
-        <v>0.005195</v>
+        <v>0.011831</v>
       </c>
       <c r="C88" s="1">
-        <v>0.005195</v>
+        <v>0.012308</v>
       </c>
       <c r="D88" s="1">
-        <v>0.005195</v>
+        <v>0.011977</v>
       </c>
       <c r="E88" s="1">
-        <v>0.005195</v>
+        <v>0.012016</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>42855</v>
+        <v>43131</v>
       </c>
       <c r="B89" s="1">
-        <v>0.013597</v>
+        <v>0.024717</v>
       </c>
       <c r="C89" s="1">
-        <v>0.0136</v>
+        <v>0.024777</v>
       </c>
       <c r="D89" s="1">
-        <v>0.013598</v>
+        <v>0.016299</v>
       </c>
       <c r="E89" s="1">
-        <v>0.013598</v>
+        <v>0.019876</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>42886</v>
+        <v>43159</v>
       </c>
       <c r="B90" s="1">
-        <v>0.015261</v>
+        <v>-0.029926</v>
       </c>
       <c r="C90" s="1">
-        <v>0.015261</v>
+        <v>-0.029924</v>
       </c>
       <c r="D90" s="1">
-        <v>0.015262</v>
+        <v>-0.029905</v>
       </c>
       <c r="E90" s="1">
-        <v>0.015262</v>
+        <v>-0.029913</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>42916</v>
+        <v>43190</v>
       </c>
       <c r="B91" s="1">
-        <v>0.005246</v>
+        <v>0.001458</v>
       </c>
       <c r="C91" s="1">
-        <v>0.005249</v>
+        <v>0.001458</v>
       </c>
       <c r="D91" s="1">
-        <v>0.005264</v>
+        <v>0.008959</v>
       </c>
       <c r="E91" s="1">
-        <v>0.005257</v>
+        <v>0.005778999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>42947</v>
+        <v>43220</v>
       </c>
       <c r="B92" s="1">
-        <v>0.011307</v>
+        <v>-0.002009</v>
       </c>
       <c r="C92" s="1">
-        <v>0.011307</v>
+        <v>-0.002009</v>
       </c>
       <c r="D92" s="1">
-        <v>0.011306</v>
+        <v>-0.006636</v>
       </c>
       <c r="E92" s="1">
-        <v>0.011307</v>
+        <v>-0.004682</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>42978</v>
+        <v>43251</v>
       </c>
       <c r="B93" s="1">
-        <v>0.010725</v>
+        <v>0.006971000000000001</v>
       </c>
       <c r="C93" s="1">
-        <v>0.010724</v>
+        <v>0.006965</v>
       </c>
       <c r="D93" s="1">
-        <v>0.010725</v>
+        <v>0.010673</v>
       </c>
       <c r="E93" s="1">
-        <v>0.010725</v>
+        <v>0.009103</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43008</v>
+        <v>43281</v>
       </c>
       <c r="B94" s="1">
-        <v>0.008107999999999999</v>
+        <v>-0.002816</v>
       </c>
       <c r="C94" s="1">
-        <v>0.008107</v>
+        <v>-0.00284</v>
       </c>
       <c r="D94" s="1">
-        <v>0.008107</v>
+        <v>-0.001519</v>
       </c>
       <c r="E94" s="1">
-        <v>0.008107</v>
+        <v>-0.002073</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43039</v>
+        <v>43312</v>
       </c>
       <c r="B95" s="1">
-        <v>0.011965</v>
+        <v>0.013499</v>
       </c>
       <c r="C95" s="1">
-        <v>0.011963</v>
+        <v>0.013494</v>
       </c>
       <c r="D95" s="1">
-        <v>0.011963</v>
+        <v>0.005810999999999999</v>
       </c>
       <c r="E95" s="1">
-        <v>0.011964</v>
+        <v>0.009061</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43069</v>
+        <v>43343</v>
       </c>
       <c r="B96" s="1">
-        <v>0.013354</v>
+        <v>0.008215999999999999</v>
       </c>
       <c r="C96" s="1">
-        <v>0.013354</v>
+        <v>0.00822</v>
       </c>
       <c r="D96" s="1">
-        <v>0.013356</v>
+        <v>0.010221</v>
       </c>
       <c r="E96" s="1">
-        <v>0.013355</v>
+        <v>0.00937</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43100</v>
+        <v>43373</v>
       </c>
       <c r="B97" s="1">
-        <v>0.011831</v>
+        <v>-0.005064</v>
       </c>
       <c r="C97" s="1">
-        <v>0.012308</v>
+        <v>-0.005064999999999999</v>
       </c>
       <c r="D97" s="1">
-        <v>0.011977</v>
+        <v>-0.011547</v>
       </c>
       <c r="E97" s="1">
-        <v>0.012016</v>
+        <v>-0.008794</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43131</v>
+        <v>43404</v>
       </c>
       <c r="B98" s="1">
-        <v>0.024717</v>
+        <v>-0.040555</v>
       </c>
       <c r="C98" s="1">
-        <v>0.024777</v>
+        <v>-0.040551</v>
       </c>
       <c r="D98" s="1">
-        <v>0.016299</v>
+        <v>-0.039562</v>
       </c>
       <c r="E98" s="1">
-        <v>0.019876</v>
+        <v>-0.039984</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43159</v>
+        <v>43434</v>
       </c>
       <c r="B99" s="1">
-        <v>-0.029926</v>
+        <v>0.01145</v>
       </c>
       <c r="C99" s="1">
-        <v>-0.029924</v>
+        <v>0.011447</v>
       </c>
       <c r="D99" s="1">
-        <v>-0.029905</v>
+        <v>0.013939</v>
       </c>
       <c r="E99" s="1">
-        <v>-0.029913</v>
+        <v>0.012878</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43190</v>
+        <v>43465</v>
       </c>
       <c r="B100" s="1">
-        <v>0.001458</v>
+        <v>-0.016159</v>
       </c>
       <c r="C100" s="1">
-        <v>0.001458</v>
+        <v>-0.01617</v>
       </c>
       <c r="D100" s="1">
-        <v>0.008959</v>
+        <v>0.005926</v>
       </c>
       <c r="E100" s="1">
-        <v>0.005778999999999999</v>
+        <v>-0.003477</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43220</v>
+        <v>43496</v>
       </c>
       <c r="B101" s="1">
-        <v>-0.002009</v>
+        <v>0.037035</v>
       </c>
       <c r="C101" s="1">
-        <v>-0.002009</v>
+        <v>0.037039</v>
       </c>
       <c r="D101" s="1">
-        <v>-0.006636</v>
+        <v>0.028362</v>
       </c>
       <c r="E101" s="1">
-        <v>-0.004682</v>
+        <v>0.032009</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43251</v>
+        <v>43524</v>
       </c>
       <c r="B102" s="1">
-        <v>0.006971000000000001</v>
+        <v>0.010188</v>
       </c>
       <c r="C102" s="1">
-        <v>0.006965</v>
+        <v>0.010184</v>
       </c>
       <c r="D102" s="1">
-        <v>0.010673</v>
+        <v>0.002933</v>
       </c>
       <c r="E102" s="1">
-        <v>0.009103</v>
+        <v>0.005999</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43281</v>
+        <v>43555</v>
       </c>
       <c r="B103" s="1">
-        <v>-0.002816</v>
+        <v>0.021135</v>
       </c>
       <c r="C103" s="1">
-        <v>-0.00284</v>
+        <v>0.021127</v>
       </c>
       <c r="D103" s="1">
-        <v>-0.001519</v>
+        <v>0.032959</v>
       </c>
       <c r="E103" s="1">
-        <v>-0.002073</v>
+        <v>0.027935</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43312</v>
+        <v>43585</v>
       </c>
       <c r="B104" s="1">
-        <v>0.013499</v>
+        <v>0.010592</v>
       </c>
       <c r="C104" s="1">
-        <v>0.013494</v>
+        <v>0.010584</v>
       </c>
       <c r="D104" s="1">
-        <v>0.005810999999999999</v>
+        <v>0.001077</v>
       </c>
       <c r="E104" s="1">
-        <v>0.009061</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43343</v>
+        <v>43616</v>
       </c>
       <c r="B105" s="1">
-        <v>0.008215999999999999</v>
+        <v>-0.004251</v>
       </c>
       <c r="C105" s="1">
-        <v>0.00822</v>
+        <v>-0.004255</v>
       </c>
       <c r="D105" s="1">
-        <v>0.010221</v>
+        <v>0.020519</v>
       </c>
       <c r="E105" s="1">
-        <v>0.00937</v>
+        <v>0.010002</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43373</v>
+        <v>43646</v>
       </c>
       <c r="B106" s="1">
-        <v>-0.005064</v>
+        <v>0.033344</v>
       </c>
       <c r="C106" s="1">
-        <v>-0.005064999999999999</v>
+        <v>0.033341</v>
       </c>
       <c r="D106" s="1">
-        <v>-0.011547</v>
+        <v>0.026978</v>
       </c>
       <c r="E106" s="1">
-        <v>-0.008794</v>
+        <v>0.029644</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43404</v>
+        <v>43677</v>
       </c>
       <c r="B107" s="1">
-        <v>-0.040555</v>
+        <v>0.005238</v>
       </c>
       <c r="C107" s="1">
-        <v>-0.040551</v>
+        <v>0.00523</v>
       </c>
       <c r="D107" s="1">
-        <v>-0.039562</v>
+        <v>0.004394</v>
       </c>
       <c r="E107" s="1">
-        <v>-0.039984</v>
+        <v>0.004747</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43434</v>
+        <v>43708</v>
       </c>
       <c r="B108" s="1">
-        <v>0.01145</v>
+        <v>0.024274</v>
       </c>
       <c r="C108" s="1">
-        <v>0.011447</v>
+        <v>0.024213</v>
       </c>
       <c r="D108" s="1">
-        <v>0.013939</v>
+        <v>0.05872</v>
       </c>
       <c r="E108" s="1">
-        <v>0.012878</v>
+        <v>0.044206</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43465</v>
+        <v>43738</v>
       </c>
       <c r="B109" s="1">
-        <v>-0.016159</v>
+        <v>0.002153</v>
       </c>
       <c r="C109" s="1">
-        <v>-0.01617</v>
+        <v>0.002218</v>
       </c>
       <c r="D109" s="1">
-        <v>0.005926</v>
+        <v>-0.009623</v>
       </c>
       <c r="E109" s="1">
-        <v>-0.003477</v>
+        <v>-0.004635</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43496</v>
+        <v>43769</v>
       </c>
       <c r="B110" s="1">
-        <v>0.037035</v>
+        <v>0.005681</v>
       </c>
       <c r="C110" s="1">
-        <v>0.037039</v>
+        <v>0.006085</v>
       </c>
       <c r="D110" s="1">
-        <v>0.028362</v>
+        <v>-0.000153</v>
       </c>
       <c r="E110" s="1">
-        <v>0.032009</v>
+        <v>0.002441</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43524</v>
+        <v>43799</v>
       </c>
       <c r="B111" s="1">
-        <v>0.010188</v>
+        <v>0.010361</v>
       </c>
       <c r="C111" s="1">
-        <v>0.010184</v>
+        <v>0.010705</v>
       </c>
       <c r="D111" s="1">
-        <v>0.002933</v>
+        <v>0.006349</v>
       </c>
       <c r="E111" s="1">
-        <v>0.005999</v>
+        <v>0.008153000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43555</v>
+        <v>43830</v>
       </c>
       <c r="B112" s="1">
-        <v>0.021135</v>
+        <v>0.008629</v>
       </c>
       <c r="C112" s="1">
-        <v>0.021127</v>
+        <v>0.007443</v>
       </c>
       <c r="D112" s="1">
-        <v>0.032959</v>
+        <v>-0.007508</v>
       </c>
       <c r="E112" s="1">
-        <v>0.027935</v>
+        <v>-0.000751</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43585</v>
+        <v>43861</v>
       </c>
       <c r="B113" s="1">
-        <v>0.010592</v>
+        <v>0.010016</v>
       </c>
       <c r="C113" s="1">
-        <v>0.010584</v>
+        <v>0.009792</v>
       </c>
       <c r="D113" s="1">
-        <v>0.001077</v>
+        <v>0.037942</v>
       </c>
       <c r="E113" s="1">
-        <v>0.00509</v>
+        <v>0.02564</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43616</v>
+        <v>43890</v>
       </c>
       <c r="B114" s="1">
-        <v>-0.004251</v>
+        <v>-0.022208</v>
       </c>
       <c r="C114" s="1">
-        <v>-0.004255</v>
+        <v>-0.020781</v>
       </c>
       <c r="D114" s="1">
-        <v>0.020519</v>
+        <v>0.018639</v>
       </c>
       <c r="E114" s="1">
-        <v>0.010002</v>
+        <v>0.001266</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43646</v>
+        <v>43921</v>
       </c>
       <c r="B115" s="1">
-        <v>0.033344</v>
+        <v>-0.07419100000000001</v>
       </c>
       <c r="C115" s="1">
-        <v>0.033341</v>
+        <v>-0.07051</v>
       </c>
       <c r="D115" s="1">
-        <v>0.026978</v>
+        <v>-0.012191</v>
       </c>
       <c r="E115" s="1">
-        <v>0.029644</v>
+        <v>-0.037684</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43677</v>
+        <v>43951</v>
       </c>
       <c r="B116" s="1">
-        <v>0.005238</v>
+        <v>0.056168</v>
       </c>
       <c r="C116" s="1">
-        <v>0.00523</v>
+        <v>0.05305</v>
       </c>
       <c r="D116" s="1">
-        <v>0.004394</v>
+        <v>0.037446</v>
       </c>
       <c r="E116" s="1">
-        <v>0.004747</v>
+        <v>0.044486</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43708</v>
+        <v>43982</v>
       </c>
       <c r="B117" s="1">
-        <v>0.024274</v>
+        <v>0.015041</v>
       </c>
       <c r="C117" s="1">
-        <v>0.024213</v>
+        <v>0.013544</v>
       </c>
       <c r="D117" s="1">
-        <v>0.05872</v>
+        <v>-0.004533</v>
       </c>
       <c r="E117" s="1">
-        <v>0.044206</v>
+        <v>0.003246</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>43738</v>
+        <v>44012</v>
       </c>
       <c r="B118" s="1">
-        <v>0.002153</v>
+        <v>0.012864</v>
       </c>
       <c r="C118" s="1">
-        <v>0.002218</v>
+        <v>0.012183</v>
       </c>
       <c r="D118" s="1">
-        <v>-0.009623</v>
+        <v>0.00859</v>
       </c>
       <c r="E118" s="1">
-        <v>-0.004635</v>
+        <v>0.010239</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>43769</v>
+        <v>44043</v>
       </c>
       <c r="B119" s="1">
-        <v>0.005681</v>
+        <v>0.034786</v>
       </c>
       <c r="C119" s="1">
-        <v>0.006085</v>
+        <v>0.033863</v>
       </c>
       <c r="D119" s="1">
-        <v>-0.000153</v>
+        <v>0.044461</v>
       </c>
       <c r="E119" s="1">
-        <v>0.002441</v>
+        <v>0.040234</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>43799</v>
+        <v>44074</v>
       </c>
       <c r="B120" s="1">
-        <v>0.010361</v>
+        <v>0.017061</v>
       </c>
       <c r="C120" s="1">
-        <v>0.010705</v>
+        <v>0.016036</v>
       </c>
       <c r="D120" s="1">
-        <v>0.006349</v>
+        <v>-0.017265</v>
       </c>
       <c r="E120" s="1">
-        <v>0.008153000000000001</v>
+        <v>-0.003186</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>43830</v>
+        <v>44104</v>
       </c>
       <c r="B121" s="1">
-        <v>0.008629</v>
+        <v>-0.014281</v>
       </c>
       <c r="C121" s="1">
-        <v>0.007443</v>
+        <v>-0.013697</v>
       </c>
       <c r="D121" s="1">
-        <v>-0.007508</v>
+        <v>-0.005055</v>
       </c>
       <c r="E121" s="1">
-        <v>-0.000751</v>
+        <v>-0.008924999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>43861</v>
+        <v>44135</v>
       </c>
       <c r="B122" s="1">
-        <v>0.010016</v>
+        <v>-0.016704</v>
       </c>
       <c r="C122" s="1">
-        <v>0.009792</v>
+        <v>-0.015702</v>
       </c>
       <c r="D122" s="1">
-        <v>0.037942</v>
+        <v>-0.023545</v>
       </c>
       <c r="E122" s="1">
-        <v>0.02564</v>
+        <v>-0.020374</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>43890</v>
+        <v>44165</v>
       </c>
       <c r="B123" s="1">
-        <v>-0.022208</v>
+        <v>0.065382</v>
       </c>
       <c r="C123" s="1">
-        <v>-0.020781</v>
+        <v>0.06457600000000001</v>
       </c>
       <c r="D123" s="1">
-        <v>0.018639</v>
+        <v>0.044108</v>
       </c>
       <c r="E123" s="1">
-        <v>0.001266</v>
+        <v>0.053226</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>43921</v>
+        <v>44196</v>
       </c>
       <c r="B124" s="1">
-        <v>-0.07419100000000001</v>
+        <v>0.021767</v>
       </c>
       <c r="C124" s="1">
-        <v>-0.07051</v>
+        <v>0.022151</v>
       </c>
       <c r="D124" s="1">
-        <v>-0.012191</v>
+        <v>0.007529</v>
       </c>
       <c r="E124" s="1">
-        <v>-0.037684</v>
+        <v>0.013933</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>43951</v>
+        <v>44227</v>
       </c>
       <c r="B125" s="1">
-        <v>0.056168</v>
+        <v>-0.013168</v>
       </c>
       <c r="C125" s="1">
-        <v>0.05305</v>
+        <v>-0.012301</v>
       </c>
       <c r="D125" s="1">
-        <v>0.037446</v>
+        <v>-0.0263</v>
       </c>
       <c r="E125" s="1">
-        <v>0.044486</v>
+        <v>-0.020192</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>43982</v>
+        <v>44255</v>
       </c>
       <c r="B126" s="1">
-        <v>0.015041</v>
+        <v>-0.002234</v>
       </c>
       <c r="C126" s="1">
-        <v>0.013544</v>
+        <v>-0.000961</v>
       </c>
       <c r="D126" s="1">
-        <v>-0.004533</v>
+        <v>-0.032485</v>
       </c>
       <c r="E126" s="1">
-        <v>0.003246</v>
+        <v>-0.018451</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44012</v>
+        <v>44286</v>
       </c>
       <c r="B127" s="1">
-        <v>0.012864</v>
+        <v>0.01294</v>
       </c>
       <c r="C127" s="1">
-        <v>0.012183</v>
+        <v>0.013419</v>
       </c>
       <c r="D127" s="1">
-        <v>0.00859</v>
+        <v>-0.010056</v>
       </c>
       <c r="E127" s="1">
-        <v>0.010239</v>
+        <v>0.0006980000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44043</v>
+        <v>44316</v>
       </c>
       <c r="B128" s="1">
-        <v>0.034786</v>
+        <v>0.028613</v>
       </c>
       <c r="C128" s="1">
-        <v>0.033863</v>
+        <v>0.028164</v>
       </c>
       <c r="D128" s="1">
-        <v>0.044461</v>
+        <v>0.029309</v>
       </c>
       <c r="E128" s="1">
-        <v>0.040234</v>
+        <v>0.028885</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44074</v>
+        <v>44347</v>
       </c>
       <c r="B129" s="1">
-        <v>0.017061</v>
+        <v>0.017591</v>
       </c>
       <c r="C129" s="1">
-        <v>0.016036</v>
+        <v>0.018329</v>
       </c>
       <c r="D129" s="1">
-        <v>-0.017265</v>
+        <v>0.014168</v>
       </c>
       <c r="E129" s="1">
-        <v>-0.003186</v>
+        <v>0.015936</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44104</v>
+        <v>44377</v>
       </c>
       <c r="B130" s="1">
-        <v>-0.014281</v>
+        <v>0.018306</v>
       </c>
       <c r="C130" s="1">
-        <v>-0.013697</v>
+        <v>0.017976</v>
       </c>
       <c r="D130" s="1">
-        <v>-0.005055</v>
+        <v>0.02898</v>
       </c>
       <c r="E130" s="1">
-        <v>-0.008924999999999999</v>
+        <v>0.023884</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44135</v>
+        <v>44408</v>
       </c>
       <c r="B131" s="1">
-        <v>-0.016704</v>
+        <v>0.015858</v>
       </c>
       <c r="C131" s="1">
-        <v>-0.015702</v>
+        <v>0.01554</v>
       </c>
       <c r="D131" s="1">
-        <v>-0.023545</v>
+        <v>0.024879</v>
       </c>
       <c r="E131" s="1">
-        <v>-0.020374</v>
+        <v>0.020584</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44165</v>
+        <v>44439</v>
       </c>
       <c r="B132" s="1">
-        <v>0.065382</v>
+        <v>0.014596</v>
       </c>
       <c r="C132" s="1">
-        <v>0.06457600000000001</v>
+        <v>0.014694</v>
       </c>
       <c r="D132" s="1">
-        <v>0.044108</v>
+        <v>0.007593</v>
       </c>
       <c r="E132" s="1">
-        <v>0.053226</v>
+        <v>0.010881</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44196</v>
+        <v>44469</v>
       </c>
       <c r="B133" s="1">
-        <v>0.021767</v>
+        <v>-0.034501</v>
       </c>
       <c r="C133" s="1">
-        <v>0.022151</v>
+        <v>-0.037832</v>
       </c>
       <c r="D133" s="1">
-        <v>0.007529</v>
+        <v>-0.030726</v>
       </c>
       <c r="E133" s="1">
-        <v>0.013933</v>
+        <v>-0.033223</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44227</v>
+        <v>44500</v>
       </c>
       <c r="B134" s="1">
-        <v>-0.013168</v>
+        <v>0.034062</v>
       </c>
       <c r="C134" s="1">
-        <v>-0.012301</v>
+        <v>0.038085</v>
       </c>
       <c r="D134" s="1">
-        <v>-0.0263</v>
+        <v>0.027294</v>
       </c>
       <c r="E134" s="1">
-        <v>-0.020192</v>
+        <v>0.031335</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44255</v>
+        <v>44530</v>
       </c>
       <c r="B135" s="1">
-        <v>-0.002234</v>
+        <v>0.014583</v>
       </c>
       <c r="C135" s="1">
-        <v>-0.000961</v>
+        <v>0.020934</v>
       </c>
       <c r="D135" s="1">
-        <v>-0.032485</v>
+        <v>0.017182</v>
       </c>
       <c r="E135" s="1">
-        <v>-0.018451</v>
+        <v>0.017353</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44286</v>
+        <v>44561</v>
       </c>
       <c r="B136" s="1">
-        <v>0.01294</v>
+        <v>0.013202</v>
       </c>
       <c r="C136" s="1">
-        <v>0.013419</v>
+        <v>0.009613</v>
       </c>
       <c r="D136" s="1">
-        <v>-0.010056</v>
+        <v>0.005379</v>
       </c>
       <c r="E136" s="1">
-        <v>0.0006980000000000001</v>
+        <v>0.00827</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44316</v>
+        <v>44592</v>
       </c>
       <c r="B137" s="1">
-        <v>0.028613</v>
+        <v>-0.048359</v>
       </c>
       <c r="C137" s="1">
-        <v>0.028164</v>
+        <v>-0.051444</v>
       </c>
       <c r="D137" s="1">
-        <v>0.029309</v>
+        <v>-0.043723</v>
       </c>
       <c r="E137" s="1">
-        <v>0.028885</v>
+        <v>-0.046588</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44347</v>
+        <v>44620</v>
       </c>
       <c r="B138" s="1">
-        <v>0.017591</v>
+        <v>-0.020498</v>
       </c>
       <c r="C138" s="1">
-        <v>0.018329</v>
+        <v>-0.021976</v>
       </c>
       <c r="D138" s="1">
-        <v>0.014168</v>
+        <v>-0.017199</v>
       </c>
       <c r="E138" s="1">
-        <v>0.015936</v>
+        <v>-0.019075</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44377</v>
+        <v>44651</v>
       </c>
       <c r="B139" s="1">
-        <v>0.018306</v>
+        <v>-0.017631</v>
       </c>
       <c r="C139" s="1">
-        <v>0.017976</v>
+        <v>-0.021784</v>
       </c>
       <c r="D139" s="1">
-        <v>0.02898</v>
+        <v>-0.026753</v>
       </c>
       <c r="E139" s="1">
-        <v>0.023884</v>
+        <v>-0.02338</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44408</v>
+        <v>44681</v>
       </c>
       <c r="B140" s="1">
-        <v>0.015858</v>
+        <v>-0.07614499999999999</v>
       </c>
       <c r="C140" s="1">
-        <v>0.01554</v>
+        <v>-0.08283599999999999</v>
       </c>
       <c r="D140" s="1">
-        <v>0.024879</v>
+        <v>-0.080459</v>
       </c>
       <c r="E140" s="1">
-        <v>0.020584</v>
+        <v>-0.07989399999999999</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44439</v>
+        <v>44712</v>
       </c>
       <c r="B141" s="1">
-        <v>0.014596</v>
+        <v>-0.010776</v>
       </c>
       <c r="C141" s="1">
-        <v>0.014694</v>
+        <v>-0.014128</v>
       </c>
       <c r="D141" s="1">
-        <v>0.007593</v>
+        <v>-0.006677</v>
       </c>
       <c r="E141" s="1">
-        <v>0.010881</v>
+        <v>-0.009348</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44469</v>
+        <v>44742</v>
       </c>
       <c r="B142" s="1">
-        <v>-0.034501</v>
+        <v>-0.035471</v>
       </c>
       <c r="C142" s="1">
-        <v>-0.037832</v>
+        <v>-0.033153</v>
       </c>
       <c r="D142" s="1">
-        <v>-0.030726</v>
+        <v>-0.036546</v>
       </c>
       <c r="E142" s="1">
-        <v>-0.033223</v>
+        <v>-0.035533</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44500</v>
+        <v>44773</v>
       </c>
       <c r="B143" s="1">
-        <v>0.034062</v>
+        <v>0.037009</v>
       </c>
       <c r="C143" s="1">
-        <v>0.038085</v>
+        <v>0.03693</v>
       </c>
       <c r="D143" s="1">
-        <v>0.027294</v>
+        <v>0.041629</v>
       </c>
       <c r="E143" s="1">
-        <v>0.031335</v>
+        <v>0.03943</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44530</v>
+        <v>44804</v>
       </c>
       <c r="B144" s="1">
-        <v>0.014583</v>
+        <v>-0.03947</v>
       </c>
       <c r="C144" s="1">
-        <v>0.020934</v>
+        <v>-0.04190000000000001</v>
       </c>
       <c r="D144" s="1">
-        <v>0.017182</v>
+        <v>-0.04367099999999999</v>
       </c>
       <c r="E144" s="1">
-        <v>0.017353</v>
+        <v>-0.042222</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44561</v>
+        <v>44834</v>
       </c>
       <c r="B145" s="1">
-        <v>0.013202</v>
+        <v>-0.072676</v>
       </c>
       <c r="C145" s="1">
-        <v>0.009613</v>
+        <v>-0.078541</v>
       </c>
       <c r="D145" s="1">
-        <v>0.005379</v>
+        <v>-0.079498</v>
       </c>
       <c r="E145" s="1">
-        <v>0.00827</v>
+        <v>-0.07750499999999999</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44592</v>
+        <v>44865</v>
       </c>
       <c r="B146" s="1">
-        <v>-0.048359</v>
+        <v>-0.007585</v>
       </c>
       <c r="C146" s="1">
-        <v>-0.051444</v>
+        <v>-0.015041</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.043723</v>
+        <v>-0.012277</v>
       </c>
       <c r="E146" s="1">
-        <v>-0.046588</v>
+        <v>-0.011631</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>44620</v>
+        <v>44895</v>
       </c>
       <c r="B147" s="1">
-        <v>-0.020498</v>
+        <v>0.056481</v>
       </c>
       <c r="C147" s="1">
-        <v>-0.021976</v>
+        <v>0.05976600000000001</v>
       </c>
       <c r="D147" s="1">
-        <v>-0.017199</v>
+        <v>0.064069</v>
       </c>
       <c r="E147" s="1">
-        <v>-0.019075</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="3">
-        <v>44651</v>
-      </c>
-      <c r="B148" s="1">
-        <v>-0.017631</v>
-      </c>
-      <c r="C148" s="1">
-        <v>-0.021784</v>
-      </c>
-      <c r="D148" s="1">
-        <v>-0.026753</v>
-      </c>
-      <c r="E148" s="1">
-        <v>-0.02338</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="3">
-        <v>44681</v>
-      </c>
-      <c r="B149" s="1">
-        <v>-0.07614499999999999</v>
-      </c>
-      <c r="C149" s="1">
-        <v>-0.08283599999999999</v>
-      </c>
-      <c r="D149" s="1">
-        <v>-0.080459</v>
-      </c>
-      <c r="E149" s="1">
-        <v>-0.07989399999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="3">
-        <v>44712</v>
-      </c>
-      <c r="B150" s="1">
-        <v>-0.010776</v>
-      </c>
-      <c r="C150" s="1">
-        <v>-0.014128</v>
-      </c>
-      <c r="D150" s="1">
-        <v>-0.006677</v>
-      </c>
-      <c r="E150" s="1">
-        <v>-0.009348</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="3">
-        <v>44742</v>
-      </c>
-      <c r="B151" s="1">
-        <v>-0.035471</v>
-      </c>
-      <c r="C151" s="1">
-        <v>-0.033153</v>
-      </c>
-      <c r="D151" s="1">
-        <v>-0.036546</v>
-      </c>
-      <c r="E151" s="1">
-        <v>-0.035533</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="3">
-        <v>44773</v>
-      </c>
-      <c r="B152" s="1">
-        <v>0.037009</v>
-      </c>
-      <c r="C152" s="1">
-        <v>0.03693</v>
-      </c>
-      <c r="D152" s="1">
-        <v>0.041629</v>
-      </c>
-      <c r="E152" s="1">
-        <v>0.03943</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="3">
-        <v>44804</v>
-      </c>
-      <c r="B153" s="1">
-        <v>-0.03947</v>
-      </c>
-      <c r="C153" s="1">
-        <v>-0.04190000000000001</v>
-      </c>
-      <c r="D153" s="1">
-        <v>-0.04367099999999999</v>
-      </c>
-      <c r="E153" s="1">
-        <v>-0.042222</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="3">
-        <v>44834</v>
-      </c>
-      <c r="B154" s="1">
-        <v>-0.072676</v>
-      </c>
-      <c r="C154" s="1">
-        <v>-0.078541</v>
-      </c>
-      <c r="D154" s="1">
-        <v>-0.079498</v>
-      </c>
-      <c r="E154" s="1">
-        <v>-0.07750499999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="3">
-        <v>44865</v>
-      </c>
-      <c r="B155" s="1">
-        <v>-0.007585</v>
-      </c>
-      <c r="C155" s="1">
-        <v>-0.015041</v>
-      </c>
-      <c r="D155" s="1">
-        <v>-0.012277</v>
-      </c>
-      <c r="E155" s="1">
-        <v>-0.011631</v>
+        <v>0.061094</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A155">
+  <conditionalFormatting sqref="A1:A147">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E155">
+  <conditionalFormatting sqref="B2:E147">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>

--- a/data/time_series/plan_data.xlsx
+++ b/data/time_series/plan_data.xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ALM147"/>
+  <dimension ref="A1:ALM156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,2493 +445,2646 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40482</v>
+        <v>40209</v>
       </c>
       <c r="B2" s="1">
-        <v>1900647341.72</v>
+        <v>932517206.42</v>
       </c>
       <c r="C2" s="1">
-        <v>2451294838.87</v>
+        <v>2102497497.95</v>
       </c>
       <c r="D2" s="1">
-        <v>13443247532.2</v>
+        <v>12454906728.13</v>
       </c>
       <c r="E2" s="1">
-        <v>17795189712.79</v>
+        <v>15489921432.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40512</v>
+        <v>40237</v>
       </c>
       <c r="B3" s="1">
-        <v>1880986063.23</v>
+        <v>1064104134.07</v>
       </c>
       <c r="C3" s="1">
-        <v>2932628117.61</v>
+        <v>2128528078.25</v>
       </c>
       <c r="D3" s="1">
-        <v>14814883828.94</v>
+        <v>12582607840.79</v>
       </c>
       <c r="E3" s="1">
-        <v>19628498009.78</v>
+        <v>15775240053.11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40543</v>
+        <v>40268</v>
       </c>
       <c r="B4" s="1">
-        <v>1928778379.47</v>
+        <v>1475141834.85</v>
       </c>
       <c r="C4" s="1">
-        <v>3016301371.7</v>
+        <v>2204069195.06</v>
       </c>
       <c r="D4" s="1">
-        <v>15090229972.53</v>
+        <v>13025853226.71</v>
       </c>
       <c r="E4" s="1">
-        <v>20035309723.7</v>
+        <v>16705064256.62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40574</v>
+        <v>40298</v>
       </c>
       <c r="B5" s="1">
-        <v>3118038032.57</v>
+        <v>1622528988.09</v>
       </c>
       <c r="C5" s="1">
-        <v>3010941131.67</v>
+        <v>2249160289.73</v>
       </c>
       <c r="D5" s="1">
-        <v>15034904479.43</v>
+        <v>13260630365.46</v>
       </c>
       <c r="E5" s="1">
-        <v>21163883643.67</v>
+        <v>17132319643.28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40602</v>
+        <v>40329</v>
       </c>
       <c r="B6" s="1">
-        <v>3181037518.51</v>
+        <v>1547543516.8</v>
       </c>
       <c r="C6" s="1">
-        <v>3072606771.41</v>
+        <v>2151316976.44</v>
       </c>
       <c r="D6" s="1">
-        <v>15339405005.2</v>
+        <v>12652570165.23</v>
       </c>
       <c r="E6" s="1">
-        <v>21593049295.12</v>
+        <v>16351430658.47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40633</v>
+        <v>40359</v>
       </c>
       <c r="B7" s="1">
-        <v>3181383242.47</v>
+        <v>1525381389.55</v>
       </c>
       <c r="C7" s="1">
-        <v>3077934373.48</v>
+        <v>2126807551.94</v>
       </c>
       <c r="D7" s="1">
-        <v>15338256138.32</v>
+        <v>12475226298.37</v>
       </c>
       <c r="E7" s="1">
-        <v>21597573754.27</v>
+        <v>16127415239.86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40663</v>
+        <v>40390</v>
       </c>
       <c r="B8" s="1">
-        <v>3268994098.86</v>
+        <v>1706992377.88</v>
       </c>
       <c r="C8" s="1">
-        <v>3168259937.35</v>
+        <v>2217049566.92</v>
       </c>
       <c r="D8" s="1">
-        <v>15759367465.19</v>
+        <v>12970356046.29</v>
       </c>
       <c r="E8" s="1">
-        <v>22196621501.4</v>
+        <v>16894397991.09</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40694</v>
+        <v>40421</v>
       </c>
       <c r="B9" s="1">
-        <v>3281525082.01</v>
+        <v>1703519080.08</v>
       </c>
       <c r="C9" s="1">
-        <v>3185699769.88</v>
+        <v>2218270319.77</v>
       </c>
       <c r="D9" s="1">
-        <v>15817577526.65</v>
+        <v>12943159219.5</v>
       </c>
       <c r="E9" s="1">
-        <v>22284802378.54</v>
+        <v>16864948619.35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40724</v>
+        <v>40451</v>
       </c>
       <c r="B10" s="1">
-        <v>3219718796.83</v>
+        <v>1774147463.24</v>
       </c>
       <c r="C10" s="1">
-        <v>3131056633.27</v>
+        <v>2429501039.02</v>
       </c>
       <c r="D10" s="1">
-        <v>15518531782.51</v>
+        <v>13480390809.59</v>
       </c>
       <c r="E10" s="1">
-        <v>21869307212.61</v>
+        <v>17684039311.85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40755</v>
+        <v>40482</v>
       </c>
       <c r="B11" s="1">
-        <v>3245901192.15</v>
+        <v>1900647341.72</v>
       </c>
       <c r="C11" s="1">
-        <v>3162162793.97</v>
+        <v>2451294838.87</v>
       </c>
       <c r="D11" s="1">
-        <v>15644127804.59</v>
+        <v>13443247532.2</v>
       </c>
       <c r="E11" s="1">
-        <v>22052191790.71</v>
+        <v>17795189712.79</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40786</v>
+        <v>40512</v>
       </c>
       <c r="B12" s="1">
-        <v>3216438061.76</v>
+        <v>1880986063.23</v>
       </c>
       <c r="C12" s="1">
-        <v>3139082692.54</v>
+        <v>2932628117.61</v>
       </c>
       <c r="D12" s="1">
-        <v>15501807654.48</v>
+        <v>14814883828.94</v>
       </c>
       <c r="E12" s="1">
-        <v>21857328408.78</v>
+        <v>19628498009.78</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40816</v>
+        <v>40543</v>
       </c>
       <c r="B13" s="1">
-        <v>3211645130.63</v>
+        <v>1928778379.47</v>
       </c>
       <c r="C13" s="1">
-        <v>3200272417.15</v>
+        <v>3016301371.7</v>
       </c>
       <c r="D13" s="1">
-        <v>15478844686.83</v>
+        <v>15090229972.53</v>
       </c>
       <c r="E13" s="1">
-        <v>21890762234.61</v>
+        <v>20035309723.7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40847</v>
+        <v>40574</v>
       </c>
       <c r="B14" s="1">
-        <v>3317215603.4</v>
+        <v>3118038032.57</v>
       </c>
       <c r="C14" s="1">
-        <v>3311931768.5</v>
+        <v>3010941131.67</v>
       </c>
       <c r="D14" s="1">
-        <v>15988859112.39</v>
+        <v>15034904479.43</v>
       </c>
       <c r="E14" s="1">
-        <v>22618006484.29</v>
+        <v>21163883643.67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>40877</v>
+        <v>40602</v>
       </c>
       <c r="B15" s="1">
-        <v>3279790855.17</v>
+        <v>3181037518.51</v>
       </c>
       <c r="C15" s="1">
-        <v>3286738232.03</v>
+        <v>3072606771.41</v>
       </c>
       <c r="D15" s="1">
-        <v>15838304892.48</v>
+        <v>15339405005.2</v>
       </c>
       <c r="E15" s="1">
-        <v>22404833979.68</v>
+        <v>21593049295.12</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>40908</v>
+        <v>40633</v>
       </c>
       <c r="B16" s="1">
-        <v>3308515656.83</v>
+        <v>3181383242.47</v>
       </c>
       <c r="C16" s="1">
-        <v>3322199318.6</v>
+        <v>3077934373.48</v>
       </c>
       <c r="D16" s="1">
-        <v>15980024217.31</v>
+        <v>15338256138.32</v>
       </c>
       <c r="E16" s="1">
-        <v>22610739192.74</v>
+        <v>21597573754.27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>40939</v>
+        <v>40663</v>
       </c>
       <c r="B17" s="1">
-        <v>3390714253.36</v>
+        <v>3268994098.86</v>
       </c>
       <c r="C17" s="1">
-        <v>3411636959.78</v>
+        <v>3168259937.35</v>
       </c>
       <c r="D17" s="1">
-        <v>16380361894.04</v>
+        <v>15759367465.19</v>
       </c>
       <c r="E17" s="1">
-        <v>23182713107.18</v>
+        <v>22196621501.4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>40968</v>
+        <v>40694</v>
       </c>
       <c r="B18" s="1">
-        <v>3441357193.01</v>
+        <v>3281525082.01</v>
       </c>
       <c r="C18" s="1">
-        <v>3465240303.9</v>
+        <v>3185699769.88</v>
       </c>
       <c r="D18" s="1">
-        <v>16632464142.06</v>
+        <v>15817577526.65</v>
       </c>
       <c r="E18" s="1">
-        <v>23539061638.97</v>
+        <v>22284802378.54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>40999</v>
+        <v>40724</v>
       </c>
       <c r="B19" s="1">
-        <v>3594273253.88</v>
+        <v>3219718796.83</v>
       </c>
       <c r="C19" s="1">
-        <v>3448893913.05</v>
+        <v>3131056633.27</v>
       </c>
       <c r="D19" s="1">
-        <v>16525460571.64</v>
+        <v>15518531782.51</v>
       </c>
       <c r="E19" s="1">
-        <v>23568627738.57</v>
+        <v>21869307212.61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>41029</v>
+        <v>40755</v>
       </c>
       <c r="B20" s="1">
-        <v>3620819218.91</v>
+        <v>3245901192.15</v>
       </c>
       <c r="C20" s="1">
-        <v>3481026300.12</v>
+        <v>3162162793.97</v>
       </c>
       <c r="D20" s="1">
-        <v>16649217766.01</v>
+        <v>15644127804.59</v>
       </c>
       <c r="E20" s="1">
-        <v>23751063285.04</v>
+        <v>22052191790.71</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>41060</v>
+        <v>40786</v>
       </c>
       <c r="B21" s="1">
-        <v>3584994009.65</v>
+        <v>3216438061.76</v>
       </c>
       <c r="C21" s="1">
-        <v>3453190328.12</v>
+        <v>3139082692.54</v>
       </c>
       <c r="D21" s="1">
-        <v>16487171941.75</v>
+        <v>15501807654.48</v>
       </c>
       <c r="E21" s="1">
-        <v>23525356279.52</v>
+        <v>21857328408.78</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>41090</v>
+        <v>40816</v>
       </c>
       <c r="B22" s="1">
-        <v>3803025610.44</v>
+        <v>3211645130.63</v>
       </c>
       <c r="C22" s="1">
-        <v>3497243829.13</v>
+        <v>3200272417.15</v>
       </c>
       <c r="D22" s="1">
-        <v>16666850559.31</v>
+        <v>15478844686.83</v>
       </c>
       <c r="E22" s="1">
-        <v>23967119998.88</v>
+        <v>21890762234.61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>41121</v>
+        <v>40847</v>
       </c>
       <c r="B23" s="1">
-        <v>3877728751.39</v>
+        <v>3317215603.4</v>
       </c>
       <c r="C23" s="1">
-        <v>3572637746.48</v>
+        <v>3311931768.5</v>
       </c>
       <c r="D23" s="1">
-        <v>16994828296.98</v>
+        <v>15988859112.39</v>
       </c>
       <c r="E23" s="1">
-        <v>24445194794.85</v>
+        <v>22618006484.29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>41152</v>
+        <v>40877</v>
       </c>
       <c r="B24" s="1">
-        <v>3892524075.7</v>
+        <v>3279790855.17</v>
       </c>
       <c r="C24" s="1">
-        <v>3592909103.41</v>
+        <v>3286738232.03</v>
       </c>
       <c r="D24" s="1">
-        <v>17060906283.34</v>
+        <v>15838304892.48</v>
       </c>
       <c r="E24" s="1">
-        <v>24546339462.45</v>
+        <v>22404833979.68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>41182</v>
+        <v>40908</v>
       </c>
       <c r="B25" s="1">
-        <v>3915294252.8</v>
+        <v>3308515656.83</v>
       </c>
       <c r="C25" s="1">
-        <v>3620604152.58</v>
+        <v>3322199318.6</v>
       </c>
       <c r="D25" s="1">
-        <v>17161962134.54</v>
+        <v>15980024217.31</v>
       </c>
       <c r="E25" s="1">
-        <v>24697860539.92</v>
+        <v>22610739192.74</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>41213</v>
+        <v>40939</v>
       </c>
       <c r="B26" s="1">
-        <v>3910430761.85</v>
+        <v>3390714253.36</v>
       </c>
       <c r="C26" s="1">
-        <v>3622924774.95</v>
+        <v>3411636959.78</v>
       </c>
       <c r="D26" s="1">
-        <v>17142433480.14</v>
+        <v>16380361894.04</v>
       </c>
       <c r="E26" s="1">
-        <v>24675789016.94</v>
+        <v>23182713107.18</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41243</v>
+        <v>40968</v>
       </c>
       <c r="B27" s="1">
-        <v>3929018216.4</v>
+        <v>3441357193.01</v>
       </c>
       <c r="C27" s="1">
-        <v>3646999015.16</v>
+        <v>3465240303.9</v>
       </c>
       <c r="D27" s="1">
-        <v>17226395708.39</v>
+        <v>16632464142.06</v>
       </c>
       <c r="E27" s="1">
-        <v>24802412939.95</v>
+        <v>23539061638.97</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41274</v>
+        <v>40999</v>
       </c>
       <c r="B28" s="1">
-        <v>3949731061.55</v>
+        <v>3594273253.88</v>
       </c>
       <c r="C28" s="1">
-        <v>3654809047.65</v>
+        <v>3448893913.05</v>
       </c>
       <c r="D28" s="1">
-        <v>17291347894.83</v>
+        <v>16525460571.64</v>
       </c>
       <c r="E28" s="1">
-        <v>24895888004.03</v>
+        <v>23568627738.57</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41305</v>
+        <v>41029</v>
       </c>
       <c r="B29" s="1">
-        <v>3991599105.71</v>
+        <v>3620819218.91</v>
       </c>
       <c r="C29" s="1">
-        <v>4490569394.41</v>
+        <v>3481026300.12</v>
       </c>
       <c r="D29" s="1">
-        <v>16688354214.01</v>
+        <v>16649217766.01</v>
       </c>
       <c r="E29" s="1">
-        <v>25170522714.13</v>
+        <v>23751063285.04</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41333</v>
+        <v>41060</v>
       </c>
       <c r="B30" s="1">
-        <v>4007467353.78</v>
+        <v>3584994009.65</v>
       </c>
       <c r="C30" s="1">
-        <v>4511270646.88</v>
+        <v>3453190328.12</v>
       </c>
       <c r="D30" s="1">
-        <v>16760479395.46</v>
+        <v>16487171941.75</v>
       </c>
       <c r="E30" s="1">
-        <v>25279217396.12</v>
+        <v>23525356279.52</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41364</v>
+        <v>41090</v>
       </c>
       <c r="B31" s="1">
-        <v>4055824611.3</v>
+        <v>3803025610.44</v>
       </c>
       <c r="C31" s="1">
-        <v>4573664426.03</v>
+        <v>3497243829.13</v>
       </c>
       <c r="D31" s="1">
-        <v>16966131964.43</v>
+        <v>16666850559.31</v>
       </c>
       <c r="E31" s="1">
-        <v>25595621001.76</v>
+        <v>23967119998.88</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41394</v>
+        <v>41121</v>
       </c>
       <c r="B32" s="1">
-        <v>4145409199.46</v>
+        <v>3877728751.39</v>
       </c>
       <c r="C32" s="1">
-        <v>4682846886.27</v>
+        <v>3572637746.48</v>
       </c>
       <c r="D32" s="1">
-        <v>17344710073.87</v>
+        <v>16994828296.98</v>
       </c>
       <c r="E32" s="1">
-        <v>26172966159.6</v>
+        <v>24445194794.85</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41425</v>
+        <v>41152</v>
       </c>
       <c r="B33" s="1">
-        <v>4064569702.63</v>
+        <v>3892524075.7</v>
       </c>
       <c r="C33" s="1">
-        <v>4599347535.9</v>
+        <v>3592909103.41</v>
       </c>
       <c r="D33" s="1">
-        <v>17010077571.85</v>
+        <v>17060906283.34</v>
       </c>
       <c r="E33" s="1">
-        <v>25673994810.38</v>
+        <v>24546339462.45</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41455</v>
+        <v>41182</v>
       </c>
       <c r="B34" s="1">
-        <v>3978796970.09</v>
+        <v>3915294252.8</v>
       </c>
       <c r="C34" s="1">
-        <v>4510251396.91</v>
+        <v>3620604152.58</v>
       </c>
       <c r="D34" s="1">
-        <v>16655205891.35</v>
+        <v>17161962134.54</v>
       </c>
       <c r="E34" s="1">
-        <v>25144254258.35</v>
+        <v>24697860539.92</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41486</v>
+        <v>41213</v>
       </c>
       <c r="B35" s="1">
-        <v>4023056820.86</v>
+        <v>3910430761.85</v>
       </c>
       <c r="C35" s="1">
-        <v>4568724212.7</v>
+        <v>3622924774.95</v>
       </c>
       <c r="D35" s="1">
-        <v>16844910623.34</v>
+        <v>17142433480.14</v>
       </c>
       <c r="E35" s="1">
-        <v>25436691656.9</v>
+        <v>24675789016.94</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41517</v>
+        <v>41243</v>
       </c>
       <c r="B36" s="1">
-        <v>3966340296.1</v>
+        <v>3929018216.4</v>
       </c>
       <c r="C36" s="1">
-        <v>4512507452.03</v>
+        <v>3646999015.16</v>
       </c>
       <c r="D36" s="1">
-        <v>16611859545.78</v>
+        <v>17226395708.39</v>
       </c>
       <c r="E36" s="1">
-        <v>25090707293.91</v>
+        <v>24802412939.95</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41547</v>
+        <v>41274</v>
       </c>
       <c r="B37" s="1">
-        <v>4033439753.48</v>
+        <v>3949731061.55</v>
       </c>
       <c r="C37" s="1">
-        <v>4749762591.53</v>
+        <v>3654809047.65</v>
       </c>
       <c r="D37" s="1">
-        <v>16745294934.92</v>
+        <v>17291347894.83</v>
       </c>
       <c r="E37" s="1">
-        <v>25528497279.93</v>
+        <v>24895888004.03</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41578</v>
+        <v>41305</v>
       </c>
       <c r="B38" s="1">
-        <v>4110020215.55</v>
+        <v>3991599105.71</v>
       </c>
       <c r="C38" s="1">
-        <v>4848589342.72</v>
+        <v>4490569394.41</v>
       </c>
       <c r="D38" s="1">
-        <v>17068754555.91</v>
+        <v>16688354214.01</v>
       </c>
       <c r="E38" s="1">
-        <v>26027364114.18</v>
+        <v>25170522714.13</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41608</v>
+        <v>41333</v>
       </c>
       <c r="B39" s="1">
-        <v>4104202981.72</v>
+        <v>4007467353.78</v>
       </c>
       <c r="C39" s="1">
-        <v>4850653743.4</v>
+        <v>4511270646.88</v>
       </c>
       <c r="D39" s="1">
-        <v>17048964200.6</v>
+        <v>16760479395.46</v>
       </c>
       <c r="E39" s="1">
-        <v>26003820925.72</v>
+        <v>25279217396.12</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41639</v>
+        <v>41364</v>
       </c>
       <c r="B40" s="1">
-        <v>4121232839.29</v>
+        <v>4055824611.3</v>
       </c>
       <c r="C40" s="1">
-        <v>4879983265.38</v>
+        <v>4573664426.03</v>
       </c>
       <c r="D40" s="1">
-        <v>17125072337.07</v>
+        <v>16966131964.43</v>
       </c>
       <c r="E40" s="1">
-        <v>26126288441.74</v>
+        <v>25595621001.76</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41670</v>
+        <v>41394</v>
       </c>
       <c r="B41" s="1">
-        <v>4116223144.44</v>
+        <v>4145409199.46</v>
       </c>
       <c r="C41" s="1">
-        <v>4882894726.29</v>
+        <v>4682846886.27</v>
       </c>
       <c r="D41" s="1">
-        <v>17108578440.75</v>
+        <v>17344710073.87</v>
       </c>
       <c r="E41" s="1">
-        <v>26107696311.48</v>
+        <v>26172966159.6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41698</v>
+        <v>41425</v>
       </c>
       <c r="B42" s="1">
-        <v>4197240949.36</v>
+        <v>4064569702.63</v>
       </c>
       <c r="C42" s="1">
-        <v>4988729007.27</v>
+        <v>4599347535.9</v>
       </c>
       <c r="D42" s="1">
-        <v>17452194867.54</v>
+        <v>17010077571.85</v>
       </c>
       <c r="E42" s="1">
-        <v>26638164824.17</v>
+        <v>25673994810.38</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41729</v>
+        <v>41455</v>
       </c>
       <c r="B43" s="1">
-        <v>4215464347.87</v>
+        <v>3978796970.09</v>
       </c>
       <c r="C43" s="1">
-        <v>5019984158.58</v>
+        <v>4510251396.91</v>
       </c>
       <c r="D43" s="1">
-        <v>17534607990.94</v>
+        <v>16655205891.35</v>
       </c>
       <c r="E43" s="1">
-        <v>26770056497.39</v>
+        <v>25144254258.35</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41759</v>
+        <v>41486</v>
       </c>
       <c r="B44" s="1">
-        <v>4212492467.73</v>
+        <v>4023056820.86</v>
       </c>
       <c r="C44" s="1">
-        <v>5026144812.31</v>
+        <v>4568724212.7</v>
       </c>
       <c r="D44" s="1">
-        <v>17527472294.14</v>
+        <v>16844910623.34</v>
       </c>
       <c r="E44" s="1">
-        <v>26766109574.18</v>
+        <v>25436691656.9</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41790</v>
+        <v>41517</v>
       </c>
       <c r="B45" s="1">
-        <v>4276832512.93</v>
+        <v>3966340296.1</v>
       </c>
       <c r="C45" s="1">
-        <v>5112975530.56</v>
+        <v>4512507452.03</v>
       </c>
       <c r="D45" s="1">
-        <v>17802179304.76</v>
+        <v>16611859545.78</v>
       </c>
       <c r="E45" s="1">
-        <v>27191987348.25</v>
+        <v>25090707293.91</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41820</v>
+        <v>41547</v>
       </c>
       <c r="B46" s="1">
-        <v>4295140983.11</v>
+        <v>4033439753.48</v>
       </c>
       <c r="C46" s="1">
-        <v>5144862372.52</v>
+        <v>4749762591.53</v>
       </c>
       <c r="D46" s="1">
-        <v>17885683191.13</v>
+        <v>16745294934.92</v>
       </c>
       <c r="E46" s="1">
-        <v>27325686546.76</v>
+        <v>25528497279.93</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41851</v>
+        <v>41578</v>
       </c>
       <c r="B47" s="1">
-        <v>4265451845</v>
+        <v>4110020215.55</v>
       </c>
       <c r="C47" s="1">
-        <v>5119794037.99</v>
+        <v>4848589342.72</v>
       </c>
       <c r="D47" s="1">
-        <v>17771593159.77</v>
+        <v>17068754555.91</v>
       </c>
       <c r="E47" s="1">
-        <v>27156839042.76</v>
+        <v>26027364114.18</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>41882</v>
+        <v>41608</v>
       </c>
       <c r="B48" s="1">
-        <v>4354547211.12</v>
+        <v>4104202981.72</v>
       </c>
       <c r="C48" s="1">
-        <v>5237452701.82</v>
+        <v>4850653743.4</v>
       </c>
       <c r="D48" s="1">
-        <v>18152206744.49</v>
+        <v>17048964200.6</v>
       </c>
       <c r="E48" s="1">
-        <v>27744206657.43</v>
+        <v>26003820925.72</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>41912</v>
+        <v>41639</v>
       </c>
       <c r="B49" s="1">
-        <v>4258151023.04</v>
+        <v>4121232839.29</v>
       </c>
       <c r="C49" s="1">
-        <v>5131976211.71</v>
+        <v>4879983265.38</v>
       </c>
       <c r="D49" s="1">
-        <v>17760533642.93</v>
+        <v>17125072337.07</v>
       </c>
       <c r="E49" s="1">
-        <v>27150660877.68</v>
+        <v>26126288441.74</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>41943</v>
+        <v>41670</v>
       </c>
       <c r="B50" s="1">
-        <v>4285163976.8</v>
+        <v>4116223144.44</v>
       </c>
       <c r="C50" s="1">
-        <v>5172926233.01</v>
+        <v>4882894726.29</v>
       </c>
       <c r="D50" s="1">
-        <v>17913635623.32</v>
+        <v>17108578440.75</v>
       </c>
       <c r="E50" s="1">
-        <v>27371725833.13</v>
+        <v>26107696311.48</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>41973</v>
+        <v>41698</v>
       </c>
       <c r="B51" s="1">
-        <v>4341696562.65</v>
+        <v>4197240949.36</v>
       </c>
       <c r="C51" s="1">
-        <v>5252461885.84</v>
+        <v>4988729007.27</v>
       </c>
       <c r="D51" s="1">
-        <v>18161775529.88</v>
+        <v>17452194867.54</v>
       </c>
       <c r="E51" s="1">
-        <v>27755933978.37</v>
+        <v>26638164824.17</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>42004</v>
+        <v>41729</v>
       </c>
       <c r="B52" s="1">
-        <v>4986611512.07</v>
+        <v>4215464347.87</v>
       </c>
       <c r="C52" s="1">
-        <v>5448191101.38</v>
+        <v>5019984158.58</v>
       </c>
       <c r="D52" s="1">
-        <v>18347625645.26</v>
+        <v>17534607990.94</v>
       </c>
       <c r="E52" s="1">
-        <v>28782428258.71</v>
+        <v>26770056497.39</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>42035</v>
+        <v>41759</v>
       </c>
       <c r="B53" s="1">
-        <v>5087365130.35</v>
+        <v>4212492467.73</v>
       </c>
       <c r="C53" s="1">
-        <v>5567918737.12</v>
+        <v>5026144812.31</v>
       </c>
       <c r="D53" s="1">
-        <v>18722750233.87</v>
+        <v>17527472294.14</v>
       </c>
       <c r="E53" s="1">
-        <v>29378034101.34</v>
+        <v>26766109574.18</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>42063</v>
+        <v>41790</v>
       </c>
       <c r="B54" s="1">
-        <v>5110739057.82</v>
+        <v>4276832512.93</v>
       </c>
       <c r="C54" s="1">
-        <v>5603210665.94</v>
+        <v>5112975530.56</v>
       </c>
       <c r="D54" s="1">
-        <v>18813772416.81</v>
+        <v>17802179304.76</v>
       </c>
       <c r="E54" s="1">
-        <v>29527722140.57</v>
+        <v>27191987348.25</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>42094</v>
+        <v>41820</v>
       </c>
       <c r="B55" s="1">
-        <v>5098528846.54</v>
+        <v>4295140983.11</v>
       </c>
       <c r="C55" s="1">
-        <v>5599621915.28</v>
+        <v>5144862372.52</v>
       </c>
       <c r="D55" s="1">
-        <v>18774054364.97</v>
+        <v>17885683191.13</v>
       </c>
       <c r="E55" s="1">
-        <v>29472205126.79</v>
+        <v>27325686546.76</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>42124</v>
+        <v>41851</v>
       </c>
       <c r="B56" s="1">
-        <v>5084901351.07</v>
+        <v>4265451845</v>
       </c>
       <c r="C56" s="1">
-        <v>5594550723.83</v>
+        <v>5119794037.99</v>
       </c>
       <c r="D56" s="1">
-        <v>18729185388.1</v>
+        <v>17771593159.77</v>
       </c>
       <c r="E56" s="1">
-        <v>29408637463</v>
+        <v>27156839042.76</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>42155</v>
+        <v>41882</v>
       </c>
       <c r="B57" s="1">
-        <v>5061385747.15</v>
+        <v>4354547211.12</v>
       </c>
       <c r="C57" s="1">
-        <v>5578675769.67</v>
+        <v>5237452701.82</v>
       </c>
       <c r="D57" s="1">
-        <v>18647949038.16</v>
+        <v>18152206744.49</v>
       </c>
       <c r="E57" s="1">
-        <v>29288010554.98</v>
+        <v>27744206657.43</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>42185</v>
+        <v>41912</v>
       </c>
       <c r="B58" s="1">
-        <v>4948449143.55</v>
+        <v>4258151023.04</v>
       </c>
       <c r="C58" s="1">
-        <v>5464086350.67</v>
+        <v>5131976211.71</v>
       </c>
       <c r="D58" s="1">
-        <v>18237481254.81</v>
+        <v>17760533642.93</v>
       </c>
       <c r="E58" s="1">
-        <v>28650016749.03</v>
+        <v>27150660877.68</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42216</v>
+        <v>41943</v>
       </c>
       <c r="B59" s="1">
-        <v>4984734110.66</v>
+        <v>4285163976.8</v>
       </c>
       <c r="C59" s="1">
-        <v>5514366076.03</v>
+        <v>5172926233.01</v>
       </c>
       <c r="D59" s="1">
-        <v>18377084883.67</v>
+        <v>17913635623.32</v>
       </c>
       <c r="E59" s="1">
-        <v>28876185070.36</v>
+        <v>27371725833.13</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42247</v>
+        <v>41973</v>
       </c>
       <c r="B60" s="1">
-        <v>4833324327.11</v>
+        <v>4341696562.65</v>
       </c>
       <c r="C60" s="1">
-        <v>5356648129.15</v>
+        <v>5252461885.84</v>
       </c>
       <c r="D60" s="1">
-        <v>17823956731.64</v>
+        <v>18161775529.88</v>
       </c>
       <c r="E60" s="1">
-        <v>28013929187.9</v>
+        <v>27755933978.37</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42277</v>
+        <v>42004</v>
       </c>
       <c r="B61" s="1">
-        <v>4774352359.51</v>
+        <v>4986611512.07</v>
       </c>
       <c r="C61" s="1">
-        <v>5301454591.47</v>
+        <v>5448191101.38</v>
       </c>
       <c r="D61" s="1">
-        <v>17611807946.07</v>
+        <v>18347625645.26</v>
       </c>
       <c r="E61" s="1">
-        <v>27687614897.05</v>
+        <v>28782428258.71</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42308</v>
+        <v>42035</v>
       </c>
       <c r="B62" s="1">
-        <v>4880247836.65</v>
+        <v>5087365130.35</v>
       </c>
       <c r="C62" s="1">
-        <v>5397632819.49</v>
+        <v>5567918737.12</v>
       </c>
       <c r="D62" s="1">
-        <v>18048466381.73</v>
+        <v>18722750233.87</v>
       </c>
       <c r="E62" s="1">
-        <v>28326347037.87</v>
+        <v>29378034101.34</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42338</v>
+        <v>42063</v>
       </c>
       <c r="B63" s="1">
-        <v>4844551814.11</v>
+        <v>5110739057.82</v>
       </c>
       <c r="C63" s="1">
-        <v>5368571908.98</v>
+        <v>5603210665.94</v>
       </c>
       <c r="D63" s="1">
-        <v>17923437278.06</v>
+        <v>18813772416.81</v>
       </c>
       <c r="E63" s="1">
-        <v>28136561001.15</v>
+        <v>29527722140.57</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42369</v>
+        <v>42094</v>
       </c>
       <c r="B64" s="1">
-        <v>5415576742.55</v>
+        <v>5098528846.54</v>
       </c>
       <c r="C64" s="1">
-        <v>5709868087.27</v>
+        <v>5599621915.28</v>
       </c>
       <c r="D64" s="1">
-        <v>17720809778.51</v>
+        <v>18774054364.97</v>
       </c>
       <c r="E64" s="1">
-        <v>28846254608.33</v>
+        <v>29472205126.79</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42400</v>
+        <v>42124</v>
       </c>
       <c r="B65" s="1">
-        <v>5318083756.35</v>
+        <v>5084901351.07</v>
       </c>
       <c r="C65" s="1">
-        <v>5616578571.14</v>
+        <v>5594550723.83</v>
       </c>
       <c r="D65" s="1">
-        <v>17401710538.67</v>
+        <v>18729185388.1</v>
       </c>
       <c r="E65" s="1">
-        <v>28336372866.16</v>
+        <v>29408637463</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42429</v>
+        <v>42155</v>
       </c>
       <c r="B66" s="1">
-        <v>5338694185.85</v>
+        <v>5061385747.15</v>
       </c>
       <c r="C66" s="1">
-        <v>5647936294.45</v>
+        <v>5578675769.67</v>
       </c>
       <c r="D66" s="1">
-        <v>17469047828.17</v>
+        <v>18647949038.16</v>
       </c>
       <c r="E66" s="1">
-        <v>28455678308.47</v>
+        <v>29288010554.98</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42460</v>
+        <v>42185</v>
       </c>
       <c r="B67" s="1">
-        <v>5505915040.5</v>
+        <v>4948449143.55</v>
       </c>
       <c r="C67" s="1">
-        <v>5834802926.8</v>
+        <v>5464086350.67</v>
       </c>
       <c r="D67" s="1">
-        <v>18015953930.39</v>
+        <v>18237481254.81</v>
       </c>
       <c r="E67" s="1">
-        <v>29356671897.69</v>
+        <v>28650016749.03</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42490</v>
+        <v>42216</v>
       </c>
       <c r="B68" s="1">
-        <v>5538988181.45</v>
+        <v>4984734110.66</v>
       </c>
       <c r="C68" s="1">
-        <v>5879483219.72</v>
+        <v>5514366076.03</v>
       </c>
       <c r="D68" s="1">
-        <v>18123555709.18</v>
+        <v>18377084883.67</v>
       </c>
       <c r="E68" s="1">
-        <v>29542027110.35</v>
+        <v>28876185070.36</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42521</v>
+        <v>42247</v>
       </c>
       <c r="B69" s="1">
-        <v>5531594102.95</v>
+        <v>4833324327.11</v>
       </c>
       <c r="C69" s="1">
-        <v>5881279255.87</v>
+        <v>5356648129.15</v>
       </c>
       <c r="D69" s="1">
-        <v>18098547742.62</v>
+        <v>17823956731.64</v>
       </c>
       <c r="E69" s="1">
-        <v>29511421101.44</v>
+        <v>28013929187.9</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42551</v>
+        <v>42277</v>
       </c>
       <c r="B70" s="1">
-        <v>5569334217.76</v>
+        <v>4774352359.51</v>
       </c>
       <c r="C70" s="1">
-        <v>5931068967.2</v>
+        <v>5301454591.47</v>
       </c>
       <c r="D70" s="1">
-        <v>18221430248.59</v>
+        <v>17611807946.07</v>
       </c>
       <c r="E70" s="1">
-        <v>29721833433.55</v>
+        <v>27687614897.05</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42582</v>
+        <v>42308</v>
       </c>
       <c r="B71" s="1">
-        <v>5669685323.09</v>
+        <v>4880247836.65</v>
       </c>
       <c r="C71" s="1">
-        <v>6047546128.94</v>
+        <v>5397632819.49</v>
       </c>
       <c r="D71" s="1">
-        <v>18547911760.68</v>
+        <v>18048466381.73</v>
       </c>
       <c r="E71" s="1">
-        <v>30265143212.71</v>
+        <v>28326347037.87</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42613</v>
+        <v>42338</v>
       </c>
       <c r="B72" s="1">
-        <v>5658306874.65</v>
+        <v>4844551814.11</v>
       </c>
       <c r="C72" s="1">
-        <v>6044991482.23</v>
+        <v>5368571908.98</v>
       </c>
       <c r="D72" s="1">
-        <v>18508956903.95</v>
+        <v>17923437278.06</v>
       </c>
       <c r="E72" s="1">
-        <v>30212255260.83</v>
+        <v>28136561001.15</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42643</v>
+        <v>42369</v>
       </c>
       <c r="B73" s="1">
-        <v>6047292088.02</v>
+        <v>5415576742.55</v>
       </c>
       <c r="C73" s="1">
-        <v>6489780168.17</v>
+        <v>5709868087.27</v>
       </c>
       <c r="D73" s="1">
-        <v>18774117008.18</v>
+        <v>17720809778.51</v>
       </c>
       <c r="E73" s="1">
-        <v>31311189264.37</v>
+        <v>28846254608.33</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42674</v>
+        <v>42400</v>
       </c>
       <c r="B74" s="1">
-        <v>5944249077.31</v>
+        <v>5318083756.35</v>
       </c>
       <c r="C74" s="1">
-        <v>6361287062.33</v>
+        <v>5616578571.14</v>
       </c>
       <c r="D74" s="1">
-        <v>18430165678.92</v>
+        <v>17401710538.67</v>
       </c>
       <c r="E74" s="1">
-        <v>30735701818.56</v>
+        <v>28336372866.16</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42704</v>
+        <v>42429</v>
       </c>
       <c r="B75" s="1">
-        <v>5857951330.08</v>
+        <v>5338694185.85</v>
       </c>
       <c r="C75" s="1">
-        <v>6278318762.68</v>
+        <v>5647936294.45</v>
       </c>
       <c r="D75" s="1">
-        <v>18157879310.11</v>
+        <v>17469047828.17</v>
       </c>
       <c r="E75" s="1">
-        <v>30294149402.87</v>
+        <v>28455678308.47</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42735</v>
+        <v>42460</v>
       </c>
       <c r="B76" s="1">
-        <v>6253513976.5</v>
+        <v>5505915040.5</v>
       </c>
       <c r="C76" s="1">
-        <v>6361809245.25</v>
+        <v>5834802926.8</v>
       </c>
       <c r="D76" s="1">
-        <v>18519236484.86</v>
+        <v>18015953930.39</v>
       </c>
       <c r="E76" s="1">
-        <v>31134559706.61</v>
+        <v>29356671897.69</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42766</v>
+        <v>42490</v>
       </c>
       <c r="B77" s="1">
-        <v>6308462886.34</v>
+        <v>5538988181.45</v>
       </c>
       <c r="C77" s="1">
-        <v>6425317655.9</v>
+        <v>5879483219.72</v>
       </c>
       <c r="D77" s="1">
-        <v>18672848179.36</v>
+        <v>18123555709.18</v>
       </c>
       <c r="E77" s="1">
-        <v>31406628721.6</v>
+        <v>29542027110.35</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42794</v>
+        <v>42521</v>
       </c>
       <c r="B78" s="1">
-        <v>6400976668.18</v>
+        <v>5531594102.95</v>
       </c>
       <c r="C78" s="1">
-        <v>6526279467.15</v>
+        <v>5881279255.87</v>
       </c>
       <c r="D78" s="1">
-        <v>18935672129.96</v>
+        <v>18098547742.62</v>
       </c>
       <c r="E78" s="1">
-        <v>31862928265.29</v>
+        <v>29511421101.44</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42825</v>
+        <v>42551</v>
       </c>
       <c r="B79" s="1">
-        <v>7099971446.02</v>
+        <v>5569334217.76</v>
       </c>
       <c r="C79" s="1">
-        <v>7337629420.28</v>
+        <v>5931068967.2</v>
       </c>
       <c r="D79" s="1">
-        <v>19799616893.11</v>
+        <v>18221430248.59</v>
       </c>
       <c r="E79" s="1">
-        <v>34237217759.41</v>
+        <v>29721833433.55</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42855</v>
+        <v>42582</v>
       </c>
       <c r="B80" s="1">
-        <v>7176134170.54</v>
+        <v>5669685323.09</v>
       </c>
       <c r="C80" s="1">
-        <v>7422733235.89</v>
+        <v>6047546128.94</v>
       </c>
       <c r="D80" s="1">
-        <v>20002352527.29</v>
+        <v>18547911760.68</v>
       </c>
       <c r="E80" s="1">
-        <v>34601219933.72</v>
+        <v>30265143212.71</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>42886</v>
+        <v>42613</v>
       </c>
       <c r="B81" s="1">
-        <v>7264954337.05</v>
+        <v>5658306874.65</v>
       </c>
       <c r="C81" s="1">
-        <v>7523682920.77</v>
+        <v>6044991482.23</v>
       </c>
       <c r="D81" s="1">
-        <v>20236842409.02</v>
+        <v>18508956903.95</v>
       </c>
       <c r="E81" s="1">
-        <v>35025479666.84</v>
+        <v>30212255260.83</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>42916</v>
+        <v>42643</v>
       </c>
       <c r="B82" s="1">
-        <v>7282406497.08</v>
+        <v>6047292088.02</v>
       </c>
       <c r="C82" s="1">
-        <v>7549356808.18</v>
+        <v>6489780168.17</v>
       </c>
       <c r="D82" s="1">
-        <v>20274819955.34</v>
+        <v>18774117008.18</v>
       </c>
       <c r="E82" s="1">
-        <v>35106583260.6</v>
+        <v>31311189264.37</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>42947</v>
+        <v>42674</v>
       </c>
       <c r="B83" s="1">
-        <v>7343644210.4</v>
+        <v>5944249077.31</v>
       </c>
       <c r="C83" s="1">
-        <v>7623588366.49</v>
+        <v>6361287062.33</v>
       </c>
       <c r="D83" s="1">
-        <v>20438559290.68</v>
+        <v>18430165678.92</v>
       </c>
       <c r="E83" s="1">
-        <v>35405791867.57</v>
+        <v>30735701818.56</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>42978</v>
+        <v>42704</v>
       </c>
       <c r="B84" s="1">
-        <v>7401114464.44</v>
+        <v>5857951330.08</v>
       </c>
       <c r="C84" s="1">
-        <v>7693916997.08</v>
+        <v>6278318762.68</v>
       </c>
       <c r="D84" s="1">
-        <v>20590483805.51</v>
+        <v>18157879310.11</v>
       </c>
       <c r="E84" s="1">
-        <v>35685515267.03</v>
+        <v>30294149402.87</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>43008</v>
+        <v>42735</v>
       </c>
       <c r="B85" s="1">
-        <v>7439354518.62</v>
+        <v>6253513976.5</v>
       </c>
       <c r="C85" s="1">
-        <v>7744728806.72</v>
+        <v>6361809245.25</v>
       </c>
       <c r="D85" s="1">
-        <v>20690860589.09</v>
+        <v>18519236484.86</v>
       </c>
       <c r="E85" s="1">
-        <v>35874943914.43</v>
+        <v>31134559706.61</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>43039</v>
+        <v>42766</v>
       </c>
       <c r="B86" s="1">
-        <v>7501162607.24</v>
+        <v>6308462886.34</v>
       </c>
       <c r="C86" s="1">
-        <v>7797612927.14</v>
+        <v>6425317655.9</v>
       </c>
       <c r="D86" s="1">
-        <v>20816144211.36</v>
+        <v>18672848179.36</v>
       </c>
       <c r="E86" s="1">
-        <v>36114919745.74</v>
+        <v>31406628721.6</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>43069</v>
+        <v>42794</v>
       </c>
       <c r="B87" s="1">
-        <v>7578785278.66</v>
+        <v>6400976668.18</v>
       </c>
       <c r="C87" s="1">
-        <v>7890046689.69</v>
+        <v>6526279467.15</v>
       </c>
       <c r="D87" s="1">
-        <v>21026781531.76</v>
+        <v>18935672129.96</v>
       </c>
       <c r="E87" s="1">
-        <v>36495613500.11</v>
+        <v>31862928265.29</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>43100</v>
+        <v>42825</v>
       </c>
       <c r="B88" s="1">
-        <v>9002210135.43</v>
+        <v>7099971446.02</v>
       </c>
       <c r="C88" s="1">
-        <v>8628245002.959999</v>
+        <v>7337629420.28</v>
       </c>
       <c r="D88" s="1">
-        <v>24225602881.81</v>
+        <v>19799616893.11</v>
       </c>
       <c r="E88" s="1">
-        <v>41856058020.2</v>
+        <v>34237217759.41</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>43131</v>
+        <v>42855</v>
       </c>
       <c r="B89" s="1">
-        <v>9202610590.719999</v>
+        <v>7176134170.54</v>
       </c>
       <c r="C89" s="1">
-        <v>8830545061.309999</v>
+        <v>7422733235.89</v>
       </c>
       <c r="D89" s="1">
-        <v>24550562668.35</v>
+        <v>20002352527.29</v>
       </c>
       <c r="E89" s="1">
-        <v>42583718320.38</v>
+        <v>34601219933.72</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>43159</v>
+        <v>42886</v>
       </c>
       <c r="B90" s="1">
-        <v>8905152042.110001</v>
+        <v>7264954337.05</v>
       </c>
       <c r="C90" s="1">
-        <v>8554843302.12</v>
+        <v>7523682920.77</v>
       </c>
       <c r="D90" s="1">
-        <v>23751652917.48</v>
+        <v>20236842409.02</v>
       </c>
       <c r="E90" s="1">
-        <v>41211648261.71</v>
+        <v>35025479666.84</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>43190</v>
+        <v>42916</v>
       </c>
       <c r="B91" s="1">
-        <v>8894650969.91</v>
+        <v>7282406497.08</v>
       </c>
       <c r="C91" s="1">
-        <v>8555117311.3</v>
+        <v>7549356808.18</v>
       </c>
       <c r="D91" s="1">
-        <v>23895701762.76</v>
+        <v>20274819955.34</v>
       </c>
       <c r="E91" s="1">
-        <v>41345470043.96999</v>
+        <v>35106583260.6</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43220</v>
+        <v>42947</v>
       </c>
       <c r="B92" s="1">
-        <v>8853026337.98</v>
+        <v>7343644210.4</v>
       </c>
       <c r="C92" s="1">
-        <v>8525561703.78</v>
+        <v>7623588366.49</v>
       </c>
       <c r="D92" s="1">
-        <v>23668172596.97</v>
+        <v>20438559290.68</v>
       </c>
       <c r="E92" s="1">
-        <v>41046760638.73</v>
+        <v>35405791867.57</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43251</v>
+        <v>42978</v>
       </c>
       <c r="B93" s="1">
-        <v>8890561971.129999</v>
+        <v>7401114464.44</v>
       </c>
       <c r="C93" s="1">
-        <v>8572549061.9</v>
+        <v>7693916997.08</v>
       </c>
       <c r="D93" s="1">
-        <v>23850121023.12</v>
+        <v>20590483805.51</v>
       </c>
       <c r="E93" s="1">
-        <v>41313232056.15</v>
+        <v>35685515267.03</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43281</v>
+        <v>43008</v>
       </c>
       <c r="B94" s="1">
-        <v>8841470603.15</v>
+        <v>7439354518.62</v>
       </c>
       <c r="C94" s="1">
-        <v>8535731069.89</v>
+        <v>7744728806.72</v>
       </c>
       <c r="D94" s="1">
-        <v>23743830051.96</v>
+        <v>20690860589.09</v>
       </c>
       <c r="E94" s="1">
-        <v>41121031725</v>
+        <v>35874943914.43</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43312</v>
+        <v>43039</v>
       </c>
       <c r="B95" s="1">
-        <v>8936073454</v>
+        <v>7501162607.24</v>
       </c>
       <c r="C95" s="1">
-        <v>8637933457.639999</v>
+        <v>7797612927.14</v>
       </c>
       <c r="D95" s="1">
-        <v>23810581356</v>
+        <v>20816144211.36</v>
       </c>
       <c r="E95" s="1">
-        <v>41384588267.64</v>
+        <v>36114919745.74</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43343</v>
+        <v>43069</v>
       </c>
       <c r="B96" s="1">
-        <v>8984375598.66</v>
+        <v>7578785278.66</v>
       </c>
       <c r="C96" s="1">
-        <v>8696018228.42</v>
+        <v>7890046689.69</v>
       </c>
       <c r="D96" s="1">
-        <v>23982409194.24</v>
+        <v>21026781531.76</v>
       </c>
       <c r="E96" s="1">
-        <v>41662803021.32</v>
+        <v>36495613500.11</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43373</v>
+        <v>43100</v>
       </c>
       <c r="B97" s="1">
-        <v>8913881251.4</v>
+        <v>9002210135.43</v>
       </c>
       <c r="C97" s="1">
-        <v>8639086304.16</v>
+        <v>8628245002.959999</v>
       </c>
       <c r="D97" s="1">
-        <v>23633980009.44</v>
+        <v>24225602881.81</v>
       </c>
       <c r="E97" s="1">
-        <v>41186947565</v>
+        <v>41856058020.2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43404</v>
+        <v>43131</v>
       </c>
       <c r="B98" s="1">
-        <v>8522844994.4</v>
+        <v>9202610590.719999</v>
       </c>
       <c r="C98" s="1">
-        <v>8244001106.42</v>
+        <v>8830545061.309999</v>
       </c>
       <c r="D98" s="1">
-        <v>22616189010.16</v>
+        <v>24550562668.35</v>
       </c>
       <c r="E98" s="1">
-        <v>39383035110.98</v>
+        <v>42583718320.38</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43434</v>
+        <v>43159</v>
       </c>
       <c r="B99" s="1">
-        <v>8594776142.139999</v>
+        <v>8905152042.110001</v>
       </c>
       <c r="C99" s="1">
-        <v>8324970365.95</v>
+        <v>8554843302.12</v>
       </c>
       <c r="D99" s="1">
-        <v>22855417422.09</v>
+        <v>23751652917.48</v>
       </c>
       <c r="E99" s="1">
-        <v>39775163930.18</v>
+        <v>41211648261.71</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43465</v>
+        <v>43190</v>
       </c>
       <c r="B100" s="1">
-        <v>8430913509.88</v>
+        <v>8894650969.91</v>
       </c>
       <c r="C100" s="1">
-        <v>8177279951.57</v>
+        <v>8555117311.3</v>
       </c>
       <c r="D100" s="1">
-        <v>22914791910.02</v>
+        <v>23895701762.76</v>
       </c>
       <c r="E100" s="1">
-        <v>39522985371.47</v>
+        <v>41345470043.96999</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43496</v>
+        <v>43220</v>
       </c>
       <c r="B101" s="1">
-        <v>8716930851.969999</v>
+        <v>8853026337.98</v>
       </c>
       <c r="C101" s="1">
-        <v>8466374243.34</v>
+        <v>8525561703.78</v>
       </c>
       <c r="D101" s="1">
-        <v>23486748539.61</v>
+        <v>23668172596.97</v>
       </c>
       <c r="E101" s="1">
-        <v>40670053634.92</v>
+        <v>41046760638.73</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43524</v>
+        <v>43251</v>
       </c>
       <c r="B102" s="1">
-        <v>8780002278.02</v>
+        <v>8890561971.129999</v>
       </c>
       <c r="C102" s="1">
-        <v>8538970109.85</v>
+        <v>8572549061.9</v>
       </c>
       <c r="D102" s="1">
-        <v>23478840638.83</v>
+        <v>23850121023.12</v>
       </c>
       <c r="E102" s="1">
-        <v>40797813026.7</v>
+        <v>41313232056.15</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43555</v>
+        <v>43281</v>
       </c>
       <c r="B103" s="1">
-        <v>8939502054.139999</v>
+        <v>8841470603.15</v>
       </c>
       <c r="C103" s="1">
-        <v>8705342961.4</v>
+        <v>8535731069.89</v>
       </c>
       <c r="D103" s="1">
-        <v>24171257132.2</v>
+        <v>23743830051.96</v>
       </c>
       <c r="E103" s="1">
-        <v>41816102147.74</v>
+        <v>41121031725</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43585</v>
+        <v>43312</v>
       </c>
       <c r="B104" s="1">
-        <v>9008244776.280001</v>
+        <v>8936073454</v>
       </c>
       <c r="C104" s="1">
-        <v>9126959379.24</v>
+        <v>8637933457.639999</v>
       </c>
       <c r="D104" s="1">
-        <v>24607902857.48</v>
+        <v>23810581356</v>
       </c>
       <c r="E104" s="1">
-        <v>42743107013</v>
+        <v>41384588267.64</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43616</v>
+        <v>43343</v>
       </c>
       <c r="B105" s="1">
-        <v>8944260855.860001</v>
+        <v>8984375598.66</v>
       </c>
       <c r="C105" s="1">
-        <v>9074029379.02</v>
+        <v>8696018228.42</v>
       </c>
       <c r="D105" s="1">
-        <v>25031315219.51</v>
+        <v>23982409194.24</v>
       </c>
       <c r="E105" s="1">
-        <v>43049605454.39</v>
+        <v>41662803021.32</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B106" s="1">
-        <v>9215995868.950001</v>
+        <v>8913881251.4</v>
       </c>
       <c r="C106" s="1">
-        <v>9361706609.469999</v>
+        <v>8639086304.16</v>
       </c>
       <c r="D106" s="1">
-        <v>25624194687.13</v>
+        <v>23633980009.44</v>
       </c>
       <c r="E106" s="1">
-        <v>44201897165.55</v>
+        <v>41186947565</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43677</v>
+        <v>43404</v>
       </c>
       <c r="B107" s="1">
-        <v>9238385070.67</v>
+        <v>8522844994.4</v>
       </c>
       <c r="C107" s="1">
-        <v>9396108735.549999</v>
+        <v>8244001106.42</v>
       </c>
       <c r="D107" s="1">
-        <v>25654784699.4</v>
+        <v>22616189010.16</v>
       </c>
       <c r="E107" s="1">
-        <v>44289278505.62</v>
+        <v>39383035110.98</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43708</v>
+        <v>43434</v>
       </c>
       <c r="B108" s="1">
-        <v>9436337524.57</v>
+        <v>8594776142.139999</v>
       </c>
       <c r="C108" s="1">
-        <v>9608738306.559999</v>
+        <v>8324970365.95</v>
       </c>
       <c r="D108" s="1">
-        <v>27075236050.17</v>
+        <v>22855417422.09</v>
       </c>
       <c r="E108" s="1">
-        <v>46120311881.3</v>
+        <v>39775163930.18</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43738</v>
+        <v>43465</v>
       </c>
       <c r="B109" s="1">
-        <v>10602215448.62</v>
+        <v>8430913509.88</v>
       </c>
       <c r="C109" s="1">
-        <v>9614794478.780001</v>
+        <v>8177279951.57</v>
       </c>
       <c r="D109" s="1">
-        <v>26732583667.57</v>
+        <v>22914791910.02</v>
       </c>
       <c r="E109" s="1">
-        <v>46949593594.97</v>
+        <v>39522985371.47</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43769</v>
+        <v>43496</v>
       </c>
       <c r="B110" s="1">
-        <v>10608252625.24</v>
+        <v>8716930851.969999</v>
       </c>
       <c r="C110" s="1">
-        <v>9625407467.91</v>
+        <v>8466374243.34</v>
       </c>
       <c r="D110" s="1">
-        <v>26632048569.08</v>
+        <v>23486748539.61</v>
       </c>
       <c r="E110" s="1">
-        <v>46865708662.23</v>
+        <v>40670053634.92</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43799</v>
+        <v>43524</v>
       </c>
       <c r="B111" s="1">
-        <v>10692316903.4</v>
+        <v>8780002278.02</v>
       </c>
       <c r="C111" s="1">
-        <v>9713037686.17</v>
+        <v>8538970109.85</v>
       </c>
       <c r="D111" s="1">
-        <v>26718262582.96</v>
+        <v>23478840638.83</v>
       </c>
       <c r="E111" s="1">
-        <v>47123617172.53</v>
+        <v>40797813026.7</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43830</v>
+        <v>43555</v>
       </c>
       <c r="B112" s="1">
-        <v>10758442213.97</v>
+        <v>8939502054.139999</v>
       </c>
       <c r="C112" s="1">
-        <v>9477691033.26</v>
+        <v>8705342961.4</v>
       </c>
       <c r="D112" s="1">
-        <v>25905500280.73</v>
+        <v>24171257132.2</v>
       </c>
       <c r="E112" s="1">
-        <v>46141633527.96</v>
+        <v>41816102147.74</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="B113" s="1">
-        <v>10840639312.88</v>
+        <v>9008244776.280001</v>
       </c>
       <c r="C113" s="1">
-        <v>9555218261.01</v>
+        <v>9126959379.24</v>
       </c>
       <c r="D113" s="1">
-        <v>26801803446.13</v>
+        <v>24607902857.48</v>
       </c>
       <c r="E113" s="1">
-        <v>47197661020.02</v>
+        <v>42743107013</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="B114" s="1">
-        <v>10574286223.88</v>
+        <v>8944260855.860001</v>
       </c>
       <c r="C114" s="1">
-        <v>9338936485.4</v>
+        <v>9074029379.02</v>
       </c>
       <c r="D114" s="1">
-        <v>27210602093.55</v>
+        <v>25031315219.51</v>
       </c>
       <c r="E114" s="1">
-        <v>47123824802.83</v>
+        <v>43049605454.39</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>43921</v>
+        <v>43646</v>
       </c>
       <c r="B115" s="1">
-        <v>9764305551.360001</v>
+        <v>9215995868.950001</v>
       </c>
       <c r="C115" s="1">
-        <v>8664875030.02</v>
+        <v>9361706609.469999</v>
       </c>
       <c r="D115" s="1">
-        <v>26774845803.79</v>
+        <v>25624194687.13</v>
       </c>
       <c r="E115" s="1">
-        <v>45204026385.17001</v>
+        <v>44201897165.55</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>43951</v>
+        <v>43677</v>
       </c>
       <c r="B116" s="1">
-        <v>10283094677.36</v>
+        <v>9238385070.67</v>
       </c>
       <c r="C116" s="1">
-        <v>9107006952.52</v>
+        <v>9396108735.549999</v>
       </c>
       <c r="D116" s="1">
-        <v>27673909702.83</v>
+        <v>25654784699.4</v>
       </c>
       <c r="E116" s="1">
-        <v>47064011332.71</v>
+        <v>44289278505.62</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>43982</v>
+        <v>43708</v>
       </c>
       <c r="B117" s="1">
-        <v>10409182664.05</v>
+        <v>9436337524.57</v>
       </c>
       <c r="C117" s="1">
-        <v>9213245024.98</v>
+        <v>9608738306.559999</v>
       </c>
       <c r="D117" s="1">
-        <v>27458711260.98</v>
+        <v>27075236050.17</v>
       </c>
       <c r="E117" s="1">
-        <v>47081138950.00999</v>
+        <v>46120311881.3</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>44012</v>
+        <v>43738</v>
       </c>
       <c r="B118" s="1">
-        <v>10514205392.24</v>
+        <v>10602215448.62</v>
       </c>
       <c r="C118" s="1">
-        <v>9308097696.17</v>
+        <v>9614794478.780001</v>
       </c>
       <c r="D118" s="1">
-        <v>27604261775.77</v>
+        <v>26732583667.57</v>
       </c>
       <c r="E118" s="1">
-        <v>47426564864.18</v>
+        <v>46949593594.97</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>44043</v>
+        <v>43769</v>
       </c>
       <c r="B119" s="1">
-        <v>10849449410.81</v>
+        <v>10608252625.24</v>
       </c>
       <c r="C119" s="1">
-        <v>9606421868.530001</v>
+        <v>9625407467.91</v>
       </c>
       <c r="D119" s="1">
-        <v>28739793816.49</v>
+        <v>26632048569.08</v>
       </c>
       <c r="E119" s="1">
-        <v>49195665095.83</v>
+        <v>46865708662.23</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>44074</v>
+        <v>43799</v>
       </c>
       <c r="B120" s="1">
-        <v>11005151438.13</v>
+        <v>10692316903.4</v>
       </c>
       <c r="C120" s="1">
-        <v>9743289163.68</v>
+        <v>9713037686.17</v>
       </c>
       <c r="D120" s="1">
-        <v>28157643007.23</v>
+        <v>26718262582.96</v>
       </c>
       <c r="E120" s="1">
-        <v>48906083609.04</v>
+        <v>47123617172.53</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>44104</v>
+        <v>43830</v>
       </c>
       <c r="B121" s="1">
-        <v>11506934819.12</v>
+        <v>10758442213.97</v>
       </c>
       <c r="C121" s="1">
-        <v>9894562298.549999</v>
+        <v>9477691033.26</v>
       </c>
       <c r="D121" s="1">
-        <v>27927195382.94</v>
+        <v>25905500280.73</v>
       </c>
       <c r="E121" s="1">
-        <v>49328692500.60999</v>
+        <v>46141633527.96</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>44135</v>
+        <v>43861</v>
       </c>
       <c r="B122" s="1">
-        <v>11238592497.88</v>
+        <v>10840639312.88</v>
       </c>
       <c r="C122" s="1">
-        <v>9700328704.629999</v>
+        <v>9555218261.01</v>
       </c>
       <c r="D122" s="1">
-        <v>27087133329.04</v>
+        <v>26801803446.13</v>
       </c>
       <c r="E122" s="1">
-        <v>48026054531.55</v>
+        <v>47197661020.02</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>44165</v>
+        <v>43890</v>
       </c>
       <c r="B123" s="1">
-        <v>11941273405.45</v>
+        <v>10574286223.88</v>
       </c>
       <c r="C123" s="1">
-        <v>10308274207.78</v>
+        <v>9338936485.4</v>
       </c>
       <c r="D123" s="1">
-        <v>28190455805.8</v>
+        <v>27210602093.55</v>
       </c>
       <c r="E123" s="1">
-        <v>50440003419.03</v>
+        <v>47123824802.83</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="B124" s="1">
-        <v>12756299620.31</v>
+        <v>9764305551.360001</v>
       </c>
       <c r="C124" s="1">
-        <v>11053433125.61</v>
+        <v>8664875030.02</v>
       </c>
       <c r="D124" s="1">
-        <v>28978753211.54</v>
+        <v>26774845803.79</v>
       </c>
       <c r="E124" s="1">
-        <v>52788485957.46</v>
+        <v>45204026385.17001</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44227</v>
+        <v>43951</v>
       </c>
       <c r="B125" s="1">
-        <v>12558243414.61</v>
+        <v>10283094677.36</v>
       </c>
       <c r="C125" s="1">
-        <v>10900299506.57</v>
+        <v>9107006952.52</v>
       </c>
       <c r="D125" s="1">
-        <v>28129460313.55</v>
+        <v>27673909702.83</v>
       </c>
       <c r="E125" s="1">
-        <v>51588003234.73</v>
+        <v>47064011332.71</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44255</v>
+        <v>43982</v>
       </c>
       <c r="B126" s="1">
-        <v>12499730482.13</v>
+        <v>10409182664.05</v>
       </c>
       <c r="C126" s="1">
-        <v>10872197550.37</v>
+        <v>9213245024.98</v>
       </c>
       <c r="D126" s="1">
-        <v>27127417795.49</v>
+        <v>27458711260.98</v>
       </c>
       <c r="E126" s="1">
-        <v>50499345827.99</v>
+        <v>47081138950.00999</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44286</v>
+        <v>44012</v>
       </c>
       <c r="B127" s="1">
-        <v>12629967215.83</v>
+        <v>10514205392.24</v>
       </c>
       <c r="C127" s="1">
-        <v>10999754121.32</v>
+        <v>9308097696.17</v>
       </c>
       <c r="D127" s="1">
-        <v>26762995183.16</v>
+        <v>27604261775.77</v>
       </c>
       <c r="E127" s="1">
-        <v>50392716520.31</v>
+        <v>47426564864.18</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44316</v>
+        <v>44043</v>
       </c>
       <c r="B128" s="1">
-        <v>12959077328.64</v>
+        <v>10849449410.81</v>
       </c>
       <c r="C128" s="1">
-        <v>11290601383.86</v>
+        <v>9606421868.530001</v>
       </c>
       <c r="D128" s="1">
-        <v>27451304576.21</v>
+        <v>28739793816.49</v>
       </c>
       <c r="E128" s="1">
-        <v>51700983288.71</v>
+        <v>49195665095.83</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44347</v>
+        <v>44074</v>
       </c>
       <c r="B129" s="1">
-        <v>13155170030.18</v>
+        <v>11005151438.13</v>
       </c>
       <c r="C129" s="1">
-        <v>11478701164.89</v>
+        <v>9743289163.68</v>
       </c>
       <c r="D129" s="1">
-        <v>27744684232.74</v>
+        <v>28157643007.23</v>
       </c>
       <c r="E129" s="1">
-        <v>52378555427.81</v>
+        <v>48906083609.04</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44377</v>
+        <v>44104</v>
       </c>
       <c r="B130" s="1">
-        <v>13363308598.31</v>
+        <v>11506934819.12</v>
       </c>
       <c r="C130" s="1">
-        <v>11665454270.74</v>
+        <v>9894562298.549999</v>
       </c>
       <c r="D130" s="1">
-        <v>28450398443.59</v>
+        <v>27927195382.94</v>
       </c>
       <c r="E130" s="1">
-        <v>53479161312.64</v>
+        <v>49328692500.60999</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44408</v>
+        <v>44135</v>
       </c>
       <c r="B131" s="1">
-        <v>13542680564.47</v>
+        <v>11238592497.88</v>
       </c>
       <c r="C131" s="1">
-        <v>11826970568.32</v>
+        <v>9700328704.629999</v>
       </c>
       <c r="D131" s="1">
-        <v>29059097453.83</v>
+        <v>27087133329.04</v>
       </c>
       <c r="E131" s="1">
-        <v>54428748586.62</v>
+        <v>48026054531.55</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44439</v>
+        <v>44165</v>
       </c>
       <c r="B132" s="1">
-        <v>13707767980.07</v>
+        <v>11941273405.45</v>
       </c>
       <c r="C132" s="1">
-        <v>11980671064.48</v>
+        <v>10308274207.78</v>
       </c>
       <c r="D132" s="1">
-        <v>29181897719.21</v>
+        <v>28190455805.8</v>
       </c>
       <c r="E132" s="1">
-        <v>54870336763.75999</v>
+        <v>50440003419.03</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44469</v>
+        <v>44196</v>
       </c>
       <c r="B133" s="1">
-        <v>13203547316.24</v>
+        <v>12756299620.31</v>
       </c>
       <c r="C133" s="1">
-        <v>11508277149.59</v>
+        <v>11053433125.61</v>
       </c>
       <c r="D133" s="1">
-        <v>28189224367.16</v>
+        <v>28978753211.54</v>
       </c>
       <c r="E133" s="1">
-        <v>52901048832.99</v>
+        <v>52788485957.46</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44500</v>
+        <v>44227</v>
       </c>
       <c r="B134" s="1">
-        <v>13619689152.99</v>
+        <v>12558243414.61</v>
       </c>
       <c r="C134" s="1">
-        <v>11898653834.64</v>
+        <v>10900299506.57</v>
       </c>
       <c r="D134" s="1">
-        <v>28782423825.81</v>
+        <v>28129460313.55</v>
       </c>
       <c r="E134" s="1">
-        <v>54300766813.44</v>
+        <v>51588003234.73</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44530</v>
+        <v>44255</v>
       </c>
       <c r="B135" s="1">
-        <v>13785068283.86</v>
+        <v>12499730482.13</v>
       </c>
       <c r="C135" s="1">
-        <v>12126631727.77</v>
+        <v>10872197550.37</v>
       </c>
       <c r="D135" s="1">
-        <v>29177655956.14</v>
+        <v>27127417795.49</v>
       </c>
       <c r="E135" s="1">
-        <v>55089355967.77</v>
+        <v>50499345827.99</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44561</v>
+        <v>44286</v>
       </c>
       <c r="B136" s="1">
-        <v>13933499672.22</v>
+        <v>12629967215.83</v>
       </c>
       <c r="C136" s="1">
-        <v>12222321130.28</v>
+        <v>10999754121.32</v>
       </c>
       <c r="D136" s="1">
-        <v>29369048113</v>
+        <v>26762995183.16</v>
       </c>
       <c r="E136" s="1">
-        <v>55524868915.5</v>
+        <v>50392716520.31</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44592</v>
+        <v>44316</v>
       </c>
       <c r="B137" s="1">
-        <v>13228050556.07</v>
+        <v>12959077328.64</v>
       </c>
       <c r="C137" s="1">
-        <v>11573834300.94</v>
+        <v>11290601383.86</v>
       </c>
       <c r="D137" s="1">
-        <v>27989510511.21</v>
+        <v>27451304576.21</v>
       </c>
       <c r="E137" s="1">
-        <v>52791395368.22</v>
+        <v>51700983288.71</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44620</v>
+        <v>44347</v>
       </c>
       <c r="B138" s="1">
-        <v>12924236126.56</v>
+        <v>13155170030.18</v>
       </c>
       <c r="C138" s="1">
-        <v>11299022364.73</v>
+        <v>11478701164.89</v>
       </c>
       <c r="D138" s="1">
-        <v>27410006047.48</v>
+        <v>27744684232.74</v>
       </c>
       <c r="E138" s="1">
-        <v>51633264538.77</v>
+        <v>52378555427.81</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44651</v>
+        <v>44377</v>
       </c>
       <c r="B139" s="1">
-        <v>12662771414.75</v>
+        <v>13363308598.31</v>
       </c>
       <c r="C139" s="1">
-        <v>11031166589.13</v>
+        <v>11665454270.74</v>
       </c>
       <c r="D139" s="1">
-        <v>26576348005.31</v>
+        <v>28450398443.59</v>
       </c>
       <c r="E139" s="1">
-        <v>50270286009.19</v>
+        <v>53479161312.64</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44681</v>
+        <v>44408</v>
       </c>
       <c r="B140" s="1">
-        <v>11666882480.45</v>
+        <v>13542680564.47</v>
       </c>
       <c r="C140" s="1">
-        <v>10097030956.61</v>
+        <v>11826970568.32</v>
       </c>
       <c r="D140" s="1">
-        <v>24343752751.24</v>
+        <v>29059097453.83</v>
       </c>
       <c r="E140" s="1">
-        <v>46107666188.3</v>
+        <v>54428748586.62</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44712</v>
+        <v>44439</v>
       </c>
       <c r="B141" s="1">
-        <v>11506881422.34</v>
+        <v>13707767980.07</v>
       </c>
       <c r="C141" s="1">
-        <v>9932226543.780001</v>
+        <v>11980671064.48</v>
       </c>
       <c r="D141" s="1">
-        <v>24079986770.42</v>
+        <v>29181897719.21</v>
       </c>
       <c r="E141" s="1">
-        <v>45519094736.53999</v>
+        <v>54870336763.75999</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44742</v>
+        <v>44469</v>
       </c>
       <c r="B142" s="1">
-        <v>11065097064.85</v>
+        <v>13203547316.24</v>
       </c>
       <c r="C142" s="1">
-        <v>9580933722.4</v>
+        <v>11508277149.59</v>
       </c>
       <c r="D142" s="1">
-        <v>23101412415.21</v>
+        <v>28189224367.16</v>
       </c>
       <c r="E142" s="1">
-        <v>43747443202.46</v>
+        <v>52901048832.99</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44773</v>
+        <v>44500</v>
       </c>
       <c r="B143" s="1">
-        <v>11438117231.49</v>
+        <v>13619689152.99</v>
       </c>
       <c r="C143" s="1">
-        <v>9910543756.66</v>
+        <v>11898653834.64</v>
       </c>
       <c r="D143" s="1">
-        <v>23955770271.21</v>
+        <v>28782423825.81</v>
       </c>
       <c r="E143" s="1">
-        <v>45304431259.36</v>
+        <v>54300766813.44</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44804</v>
+        <v>44530</v>
       </c>
       <c r="B144" s="1">
-        <v>10953128495.09</v>
+        <v>13785068283.86</v>
       </c>
       <c r="C144" s="1">
-        <v>9473104540.35</v>
+        <v>12126631727.77</v>
       </c>
       <c r="D144" s="1">
-        <v>22811356969.86</v>
+        <v>29177655956.14</v>
       </c>
       <c r="E144" s="1">
-        <v>43237590005.3</v>
+        <v>55089355967.77</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44834</v>
+        <v>44561</v>
       </c>
       <c r="B145" s="1">
-        <v>11033073157.63</v>
+        <v>13933499672.22</v>
       </c>
       <c r="C145" s="1">
-        <v>9094083273.629999</v>
+        <v>12222321130.28</v>
       </c>
       <c r="D145" s="1">
-        <v>21389518149.24</v>
+        <v>29369048113</v>
       </c>
       <c r="E145" s="1">
-        <v>41516674580.5</v>
+        <v>55524868915.5</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44865</v>
+        <v>44592</v>
       </c>
       <c r="B146" s="1">
-        <v>10914128661.11</v>
+        <v>13228050556.07</v>
       </c>
       <c r="C146" s="1">
-        <v>8878139505.809999</v>
+        <v>11573834300.94</v>
       </c>
       <c r="D146" s="1">
-        <v>20920920146.98</v>
+        <v>27989510511.21</v>
       </c>
       <c r="E146" s="1">
-        <v>40713188313.89999</v>
+        <v>52791395368.22</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B147" s="1">
+        <v>12924236126.56</v>
+      </c>
+      <c r="C147" s="1">
+        <v>11299022364.73</v>
+      </c>
+      <c r="D147" s="1">
+        <v>27410006047.48</v>
+      </c>
+      <c r="E147" s="1">
+        <v>51633264538.77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B148" s="1">
+        <v>12662771414.75</v>
+      </c>
+      <c r="C148" s="1">
+        <v>11031166589.13</v>
+      </c>
+      <c r="D148" s="1">
+        <v>26576348005.31</v>
+      </c>
+      <c r="E148" s="1">
+        <v>50270286009.19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="3">
+        <v>44681</v>
+      </c>
+      <c r="B149" s="1">
+        <v>11666882480.45</v>
+      </c>
+      <c r="C149" s="1">
+        <v>10097030956.61</v>
+      </c>
+      <c r="D149" s="1">
+        <v>24343752751.24</v>
+      </c>
+      <c r="E149" s="1">
+        <v>46107666188.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="3">
+        <v>44712</v>
+      </c>
+      <c r="B150" s="1">
+        <v>11506881422.34</v>
+      </c>
+      <c r="C150" s="1">
+        <v>9932226543.780001</v>
+      </c>
+      <c r="D150" s="1">
+        <v>24079986770.42</v>
+      </c>
+      <c r="E150" s="1">
+        <v>45519094736.53999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B151" s="1">
+        <v>11065097064.85</v>
+      </c>
+      <c r="C151" s="1">
+        <v>9580933722.4</v>
+      </c>
+      <c r="D151" s="1">
+        <v>23101412415.21</v>
+      </c>
+      <c r="E151" s="1">
+        <v>43747443202.46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="3">
+        <v>44773</v>
+      </c>
+      <c r="B152" s="1">
+        <v>11438117231.49</v>
+      </c>
+      <c r="C152" s="1">
+        <v>9910543756.66</v>
+      </c>
+      <c r="D152" s="1">
+        <v>23955770271.21</v>
+      </c>
+      <c r="E152" s="1">
+        <v>45304431259.36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B153" s="1">
+        <v>10953128495.09</v>
+      </c>
+      <c r="C153" s="1">
+        <v>9473104540.35</v>
+      </c>
+      <c r="D153" s="1">
+        <v>22811356969.86</v>
+      </c>
+      <c r="E153" s="1">
+        <v>43237590005.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="3">
+        <v>44834</v>
+      </c>
+      <c r="B154" s="1">
+        <v>11033073157.63</v>
+      </c>
+      <c r="C154" s="1">
+        <v>9094083273.629999</v>
+      </c>
+      <c r="D154" s="1">
+        <v>21389518149.24</v>
+      </c>
+      <c r="E154" s="1">
+        <v>41516674580.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="3">
+        <v>44865</v>
+      </c>
+      <c r="B155" s="1">
+        <v>10914128661.11</v>
+      </c>
+      <c r="C155" s="1">
+        <v>8878139505.809999</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20920920146.98</v>
+      </c>
+      <c r="E155" s="1">
+        <v>40713188313.89999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="3">
         <v>44895</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B156" s="1">
         <v>11492873144.91</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C156" s="1">
         <v>9383611539.389999</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D156" s="1">
         <v>22151649345.54</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E156" s="1">
         <v>43028134029.84</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A147">
+  <conditionalFormatting sqref="A1:A156">
     <